--- a/durham_daily_vaccinations.xlsx
+++ b/durham_daily_vaccinations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7711D4FE-407E-C447-90A0-F1C3E9109500}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C7F9B2-C375-EE46-A88B-C03CDCA6C765}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19620" xr2:uid="{D878B493-02AB-054E-B330-D20DF148DE7B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>daily rate to achieve June 20 target</t>
-  </si>
-  <si>
-    <t>Sum</t>
   </si>
 </sst>
 </file>
@@ -452,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E82AD24-C064-B648-8062-B01E1A5F7A8D}">
   <dimension ref="A1:J106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="H105" sqref="H105"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -614,7 +611,7 @@
         <v>482933</v>
       </c>
       <c r="G10" s="8">
-        <f t="shared" ref="G2:G65" si="2">E10/C10</f>
+        <f t="shared" ref="G10:G65" si="2">E10/C10</f>
         <v>5953.9684931506845</v>
       </c>
       <c r="H10" s="9">
@@ -2949,78 +2946,95 @@
         <v>44521.56079217849</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A95" s="6">
+    <row r="95" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="7">
         <v>44280</v>
       </c>
-      <c r="B95" s="4">
+      <c r="B95" s="8">
         <v>3205</v>
       </c>
-      <c r="C95" s="3">
+      <c r="C95" s="10">
         <f>(AVERAGE(B89:B95))</f>
         <v>1949</v>
       </c>
-      <c r="D95" s="4">
+      <c r="D95" s="8">
         <f t="shared" si="23"/>
         <v>1855.1428571428571</v>
       </c>
-      <c r="E95" s="4">
+      <c r="E95" s="8">
         <f>(E94-B95)</f>
         <v>411470</v>
       </c>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4">
+      <c r="G95" s="8">
         <f>E95/C95</f>
         <v>211.11852231913801</v>
       </c>
-      <c r="H95" s="5">
+      <c r="H95" s="9">
         <f>A95+G95</f>
         <v>44491.118522319135</v>
       </c>
-      <c r="I95" s="3">
-        <f>E95/86</f>
-        <v>4784.5348837209303</v>
-      </c>
-      <c r="J95" t="s">
+      <c r="I95" s="10"/>
+    </row>
+    <row r="96" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="6">
+        <v>44281</v>
+      </c>
+      <c r="B96" s="4">
+        <v>2987</v>
+      </c>
+      <c r="C96" s="3">
+        <f>(AVERAGE(B90:B96))</f>
+        <v>2166.5714285714284</v>
+      </c>
+      <c r="D96" s="4">
+        <f t="shared" ref="D96" si="24">AVERAGE(B83:B96)</f>
+        <v>1936</v>
+      </c>
+      <c r="E96" s="4">
+        <f>(E95-B96)</f>
+        <v>408483</v>
+      </c>
+      <c r="G96" s="4">
+        <f>E96/C96</f>
+        <v>188.53890280891468</v>
+      </c>
+      <c r="H96" s="5">
+        <f>A96+G96</f>
+        <v>44469.538902808912</v>
+      </c>
+      <c r="I96" s="3">
+        <f>E96/85</f>
+        <v>4805.6823529411768</v>
+      </c>
+      <c r="J96" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A96" s="1"/>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B97">
-        <v>75242</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
     </row>
   </sheetData>

--- a/durham_daily_vaccinations.xlsx
+++ b/durham_daily_vaccinations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C7F9B2-C375-EE46-A88B-C03CDCA6C765}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576BC3B3-35D1-F64D-A045-831DBDD09B18}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19620" xr2:uid="{D878B493-02AB-054E-B330-D20DF148DE7B}"/>
   </bookViews>
@@ -449,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E82AD24-C064-B648-8062-B01E1A5F7A8D}">
   <dimension ref="A1:J106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="G110" sqref="G110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2555,7 +2555,7 @@
         <v>44532.5796784903</v>
       </c>
     </row>
-    <row r="81" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="7">
         <v>44266</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>44541.682479443392</v>
       </c>
     </row>
-    <row r="82" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="7">
         <v>44267</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>44538.712881022613</v>
       </c>
     </row>
-    <row r="83" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="7">
         <v>44268</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>44532.360817538647</v>
       </c>
     </row>
-    <row r="84" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="7">
         <v>44269</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>44522.158827481944</v>
       </c>
     </row>
-    <row r="85" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="7">
         <v>44270</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>44509.289620535717</v>
       </c>
     </row>
-    <row r="86" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="7">
         <v>44271</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>44508.254289799806</v>
       </c>
     </row>
-    <row r="87" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="7">
         <v>44272</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>44511.539458850057</v>
       </c>
     </row>
-    <row r="88" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="7">
         <v>44273</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>44513.413009976481</v>
       </c>
     </row>
-    <row r="89" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="7">
         <v>44274</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>44521.390601440777</v>
       </c>
     </row>
-    <row r="90" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="7">
         <v>44275</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>44527.345108462658</v>
       </c>
     </row>
-    <row r="91" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="7">
         <v>44276</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>44535.970567375887</v>
       </c>
     </row>
-    <row r="92" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="7">
         <v>44277</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>44555.271827097022</v>
       </c>
     </row>
-    <row r="93" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="7">
         <v>44278</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>44561.700428515775</v>
       </c>
     </row>
-    <row r="94" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="7">
         <v>44279</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>44521.56079217849</v>
       </c>
     </row>
-    <row r="95" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="7">
         <v>44280</v>
       </c>
@@ -2975,66 +2975,95 @@
       </c>
       <c r="I95" s="10"/>
     </row>
-    <row r="96" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="6">
+    <row r="96" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="7">
         <v>44281</v>
       </c>
-      <c r="B96" s="4">
+      <c r="B96" s="8">
         <v>2987</v>
       </c>
-      <c r="C96" s="3">
+      <c r="C96" s="10">
         <f>(AVERAGE(B90:B96))</f>
         <v>2166.5714285714284</v>
       </c>
-      <c r="D96" s="4">
-        <f t="shared" ref="D96" si="24">AVERAGE(B83:B96)</f>
+      <c r="D96" s="8">
+        <f t="shared" ref="D96:D97" si="24">AVERAGE(B83:B96)</f>
         <v>1936</v>
       </c>
-      <c r="E96" s="4">
+      <c r="E96" s="8">
         <f>(E95-B96)</f>
         <v>408483</v>
       </c>
-      <c r="G96" s="4">
+      <c r="G96" s="8">
         <f>E96/C96</f>
         <v>188.53890280891468</v>
       </c>
-      <c r="H96" s="5">
+      <c r="H96" s="9">
         <f>A96+G96</f>
         <v>44469.538902808912</v>
       </c>
-      <c r="I96" s="3">
-        <f>E96/85</f>
-        <v>4805.6823529411768</v>
-      </c>
-      <c r="J96" s="4" t="s">
+      <c r="I96" s="10"/>
+    </row>
+    <row r="97" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="6">
+        <v>44282</v>
+      </c>
+      <c r="B97" s="4">
+        <v>2951</v>
+      </c>
+      <c r="C97" s="3">
+        <f>(AVERAGE(B91:B97))</f>
+        <v>2371.1428571428573</v>
+      </c>
+      <c r="D97" s="3">
+        <f t="shared" si="24"/>
+        <v>2018.6428571428571</v>
+      </c>
+      <c r="E97" s="4">
+        <f>(E96-B97)</f>
+        <v>405532</v>
+      </c>
+      <c r="G97" s="4">
+        <f>E97/C97</f>
+        <v>171.02807567176768</v>
+      </c>
+      <c r="H97" s="5">
+        <f>A97+G97</f>
+        <v>44453.028075671769</v>
+      </c>
+      <c r="I97" s="3">
+        <f>E97/84</f>
+        <v>4827.7619047619046</v>
+      </c>
+      <c r="J97" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
     </row>
   </sheetData>

--- a/durham_daily_vaccinations.xlsx
+++ b/durham_daily_vaccinations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576BC3B3-35D1-F64D-A045-831DBDD09B18}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53227CA4-0971-194C-A09F-41FDA411C633}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19620" xr2:uid="{D878B493-02AB-054E-B330-D20DF148DE7B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -40,12 +40,6 @@
   </si>
   <si>
     <t>7-day average</t>
-  </si>
-  <si>
-    <t>14-day average</t>
-  </si>
-  <si>
-    <t>** NOT BEING USED **</t>
   </si>
   <si>
     <t>Population left</t>
@@ -447,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E82AD24-C064-B648-8062-B01E1A5F7A8D}">
-  <dimension ref="A1:J106"/>
+  <dimension ref="A1:I106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="G110" sqref="G110"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -458,14 +452,13 @@
     <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -478,124 +471,118 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>44187</v>
       </c>
       <c r="B2" s="8">
         <v>47</v>
       </c>
-      <c r="E2" s="8">
-        <f t="shared" ref="E2:E65" si="0">E3+B2</f>
+      <c r="D2" s="8">
+        <f>D3+B2</f>
         <v>483505</v>
       </c>
-      <c r="H2" s="9"/>
-    </row>
-    <row r="3" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>44188</v>
       </c>
       <c r="B3" s="8">
         <v>123</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="8">
-        <f t="shared" si="0"/>
+      <c r="D3" s="8">
+        <f>D4+B3</f>
         <v>483458</v>
       </c>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="4" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>44189</v>
       </c>
       <c r="B4" s="8">
         <v>93</v>
       </c>
-      <c r="E4" s="8">
-        <f t="shared" si="0"/>
+      <c r="D4" s="8">
+        <f>D5+B4</f>
         <v>483335</v>
       </c>
-      <c r="H4" s="9"/>
-    </row>
-    <row r="5" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>44190</v>
       </c>
       <c r="B5" s="8">
         <v>0</v>
       </c>
-      <c r="E5" s="8">
-        <f t="shared" si="0"/>
+      <c r="D5" s="8">
+        <f>D6+B5</f>
         <v>483242</v>
       </c>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>44191</v>
       </c>
       <c r="B6" s="8">
         <v>0</v>
       </c>
-      <c r="E6" s="8">
-        <f t="shared" si="0"/>
+      <c r="D6" s="8">
+        <f>D7+B6</f>
         <v>483242</v>
       </c>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>44192</v>
       </c>
       <c r="B7" s="8">
         <v>0</v>
       </c>
-      <c r="E7" s="8">
-        <f t="shared" si="0"/>
+      <c r="D7" s="8">
+        <f>D8+B7</f>
         <v>483242</v>
       </c>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>44193</v>
       </c>
       <c r="B8" s="8">
         <v>155</v>
       </c>
-      <c r="E8" s="8">
-        <f t="shared" si="0"/>
+      <c r="D8" s="8">
+        <f>D9+B8</f>
         <v>483242</v>
       </c>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>44194</v>
       </c>
       <c r="B9" s="8">
         <v>154</v>
       </c>
-      <c r="E9" s="8">
-        <f t="shared" si="0"/>
+      <c r="D9" s="8">
+        <f>D10+B9</f>
         <v>483087</v>
       </c>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>44195</v>
       </c>
@@ -603,23 +590,23 @@
         <v>158</v>
       </c>
       <c r="C10" s="8">
-        <f t="shared" ref="C10" si="1">AVERAGE(B1:B10)</f>
+        <f t="shared" ref="C10" si="0">AVERAGE(B1:B10)</f>
         <v>81.111111111111114</v>
       </c>
-      <c r="E10" s="8">
-        <f t="shared" si="0"/>
+      <c r="D10" s="8">
+        <f>D11+B10</f>
         <v>482933</v>
       </c>
-      <c r="G10" s="8">
-        <f t="shared" ref="G10:G65" si="2">E10/C10</f>
+      <c r="F10" s="8">
+        <f>D10/C10</f>
         <v>5953.9684931506845</v>
       </c>
-      <c r="H10" s="9">
-        <f t="shared" ref="H10:H68" si="3">A10+G10</f>
+      <c r="G10" s="9">
+        <f>A10+F10</f>
         <v>50148.968493150685</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>44196</v>
       </c>
@@ -630,20 +617,20 @@
         <f>AVERAGE(B2:B11)</f>
         <v>95.8</v>
       </c>
-      <c r="E11" s="8">
-        <f t="shared" si="0"/>
+      <c r="D11" s="8">
+        <f>D12+B11</f>
         <v>482775</v>
       </c>
-      <c r="G11" s="8">
-        <f t="shared" si="2"/>
+      <c r="F11" s="8">
+        <f>D11/C11</f>
         <v>5039.4050104384132</v>
       </c>
-      <c r="H11" s="9">
-        <f t="shared" si="3"/>
+      <c r="G11" s="9">
+        <f>A11+F11</f>
         <v>49235.405010438415</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>44197</v>
       </c>
@@ -654,20 +641,20 @@
         <f>AVERAGE(B3:B12)</f>
         <v>113.4</v>
       </c>
-      <c r="E12" s="8">
-        <f t="shared" si="0"/>
+      <c r="D12" s="8">
+        <f>D13+B12</f>
         <v>482547</v>
       </c>
-      <c r="G12" s="8">
-        <f t="shared" si="2"/>
+      <c r="F12" s="8">
+        <f>D12/C12</f>
         <v>4255.2645502645501</v>
       </c>
-      <c r="H12" s="9">
-        <f t="shared" si="3"/>
+      <c r="G12" s="9">
+        <f>A12+F12</f>
         <v>48452.264550264546</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>44198</v>
       </c>
@@ -678,20 +665,20 @@
         <f>AVERAGE(B4:B13)</f>
         <v>131.80000000000001</v>
       </c>
-      <c r="E13" s="8">
-        <f t="shared" si="0"/>
+      <c r="D13" s="8">
+        <f>D14+B13</f>
         <v>482324</v>
       </c>
-      <c r="G13" s="8">
-        <f t="shared" si="2"/>
+      <c r="F13" s="8">
+        <f>D13/C13</f>
         <v>3659.5144157814866</v>
       </c>
-      <c r="H13" s="9">
-        <f t="shared" si="3"/>
+      <c r="G13" s="9">
+        <f>A13+F13</f>
         <v>47857.514415781487</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>44199</v>
       </c>
@@ -699,23 +686,23 @@
         <v>234</v>
       </c>
       <c r="C14" s="8">
-        <f t="shared" ref="C14:C18" si="4">AVERAGE(B8:B14)</f>
+        <f t="shared" ref="C14:C18" si="1">AVERAGE(B8:B14)</f>
         <v>208.42857142857142</v>
       </c>
-      <c r="E14" s="8">
-        <f t="shared" si="0"/>
+      <c r="D14" s="8">
+        <f>D15+B14</f>
         <v>482017</v>
       </c>
-      <c r="G14" s="8">
-        <f t="shared" si="2"/>
+      <c r="F14" s="8">
+        <f>D14/C14</f>
         <v>2312.6244002741605</v>
       </c>
-      <c r="H14" s="9">
-        <f t="shared" si="3"/>
+      <c r="G14" s="9">
+        <f>A14+F14</f>
         <v>46511.624400274159</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>44200</v>
       </c>
@@ -723,23 +710,23 @@
         <v>225</v>
       </c>
       <c r="C15" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>218.42857142857142</v>
       </c>
-      <c r="E15" s="8">
-        <f t="shared" si="0"/>
+      <c r="D15" s="8">
+        <f>D16+B15</f>
         <v>481783</v>
       </c>
-      <c r="G15" s="8">
-        <f t="shared" si="2"/>
+      <c r="F15" s="8">
+        <f>D15/C15</f>
         <v>2205.6775670372795</v>
       </c>
-      <c r="H15" s="9">
-        <f t="shared" si="3"/>
+      <c r="G15" s="9">
+        <f>A15+F15</f>
         <v>46405.677567037281</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>44201</v>
       </c>
@@ -747,23 +734,23 @@
         <v>585</v>
       </c>
       <c r="C16" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>280</v>
       </c>
-      <c r="E16" s="8">
-        <f t="shared" si="0"/>
+      <c r="D16" s="8">
+        <f>D17+B16</f>
         <v>481558</v>
       </c>
-      <c r="G16" s="8">
-        <f t="shared" si="2"/>
+      <c r="F16" s="8">
+        <f>D16/C16</f>
         <v>1719.85</v>
       </c>
-      <c r="H16" s="9">
-        <f t="shared" si="3"/>
+      <c r="G16" s="9">
+        <f>A16+F16</f>
         <v>45920.85</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>44202</v>
       </c>
@@ -771,27 +758,23 @@
         <v>598</v>
       </c>
       <c r="C17" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>342.85714285714283</v>
       </c>
       <c r="D17" s="8">
-        <f t="shared" ref="D17" si="5">AVERAGE(B1:B17)</f>
-        <v>195.625</v>
-      </c>
-      <c r="E17" s="8">
-        <f t="shared" si="0"/>
+        <f>D18+B17</f>
         <v>480973</v>
       </c>
-      <c r="G17" s="8">
-        <f t="shared" si="2"/>
+      <c r="F17" s="8">
+        <f>D17/C17</f>
         <v>1402.8379166666668</v>
       </c>
-      <c r="H17" s="9">
-        <f t="shared" si="3"/>
+      <c r="G17" s="9">
+        <f>A17+F17</f>
         <v>45604.837916666664</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>44203</v>
       </c>
@@ -799,27 +782,23 @@
         <v>855</v>
       </c>
       <c r="C18" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>432.42857142857144</v>
       </c>
       <c r="D18" s="8">
-        <f>AVERAGE(B2:B18)</f>
-        <v>234.41176470588235</v>
-      </c>
-      <c r="E18" s="8">
-        <f t="shared" si="0"/>
+        <f>D19+B18</f>
         <v>480375</v>
       </c>
-      <c r="G18" s="8">
-        <f t="shared" si="2"/>
+      <c r="F18" s="8">
+        <f>D18/C18</f>
         <v>1110.8771060455897</v>
       </c>
-      <c r="H18" s="9">
-        <f t="shared" si="3"/>
+      <c r="G18" s="9">
+        <f>A18+F18</f>
         <v>45313.877106045591</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>44204</v>
       </c>
@@ -827,27 +806,23 @@
         <v>824</v>
       </c>
       <c r="C19" s="8">
-        <f t="shared" ref="C19:C24" si="6">AVERAGE(B13:B19)</f>
+        <f t="shared" ref="C19:C24" si="2">AVERAGE(B13:B19)</f>
         <v>518.28571428571433</v>
       </c>
       <c r="D19" s="8">
-        <f>AVERAGE(B3:B19)</f>
-        <v>280.11764705882354</v>
-      </c>
-      <c r="E19" s="8">
-        <f t="shared" si="0"/>
+        <f>D20+B19</f>
         <v>479520</v>
       </c>
-      <c r="G19" s="8">
-        <f t="shared" si="2"/>
+      <c r="F19" s="8">
+        <f>D19/C19</f>
         <v>925.20396912899662</v>
       </c>
-      <c r="H19" s="9">
-        <f t="shared" si="3"/>
+      <c r="G19" s="9">
+        <f>A19+F19</f>
         <v>45129.203969128997</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>44205</v>
       </c>
@@ -855,27 +830,23 @@
         <v>858</v>
       </c>
       <c r="C20" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>597</v>
       </c>
       <c r="D20" s="8">
-        <f>AVERAGE(B4:B20)</f>
-        <v>323.35294117647061</v>
-      </c>
-      <c r="E20" s="8">
-        <f t="shared" si="0"/>
+        <f>D21+B20</f>
         <v>478696</v>
       </c>
-      <c r="G20" s="8">
-        <f t="shared" si="2"/>
+      <c r="F20" s="8">
+        <f>D20/C20</f>
         <v>801.83584589614736</v>
       </c>
-      <c r="H20" s="9">
-        <f t="shared" si="3"/>
+      <c r="G20" s="9">
+        <f>A20+F20</f>
         <v>45006.835845896145</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>44206</v>
       </c>
@@ -883,27 +854,23 @@
         <v>927</v>
       </c>
       <c r="C21" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>696</v>
       </c>
       <c r="D21" s="8">
-        <f t="shared" ref="D21:D86" si="7">AVERAGE(B8:B21)</f>
-        <v>452.21428571428572</v>
-      </c>
-      <c r="E21" s="8">
-        <f t="shared" si="0"/>
+        <f>D22+B21</f>
         <v>477838</v>
       </c>
-      <c r="G21" s="8">
-        <f t="shared" si="2"/>
+      <c r="F21" s="8">
+        <f>D21/C21</f>
         <v>686.54885057471267</v>
       </c>
-      <c r="H21" s="9">
-        <f t="shared" si="3"/>
+      <c r="G21" s="9">
+        <f>A21+F21</f>
         <v>44892.548850574713</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>44207</v>
       </c>
@@ -911,27 +878,23 @@
         <v>1030</v>
       </c>
       <c r="C22" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>811</v>
       </c>
       <c r="D22" s="8">
-        <f t="shared" si="7"/>
-        <v>514.71428571428567</v>
-      </c>
-      <c r="E22" s="8">
-        <f t="shared" si="0"/>
+        <f>D23+B22</f>
         <v>476911</v>
       </c>
-      <c r="G22" s="8">
-        <f t="shared" si="2"/>
+      <c r="F22" s="8">
+        <f>D22/C22</f>
         <v>588.05302096177559</v>
       </c>
-      <c r="H22" s="9">
-        <f t="shared" si="3"/>
+      <c r="G22" s="9">
+        <f>A22+F22</f>
         <v>44795.053020961779</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>44208</v>
       </c>
@@ -939,27 +902,23 @@
         <v>1403</v>
       </c>
       <c r="C23" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>927.85714285714289</v>
       </c>
       <c r="D23" s="8">
-        <f t="shared" si="7"/>
-        <v>603.92857142857144</v>
-      </c>
-      <c r="E23" s="8">
-        <f t="shared" si="0"/>
+        <f>D24+B23</f>
         <v>475881</v>
       </c>
-      <c r="G23" s="8">
-        <f t="shared" si="2"/>
+      <c r="F23" s="8">
+        <f>D23/C23</f>
         <v>512.88175519630488</v>
       </c>
-      <c r="H23" s="9">
-        <f t="shared" si="3"/>
+      <c r="G23" s="9">
+        <f>A23+F23</f>
         <v>44720.881755196307</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>44209</v>
       </c>
@@ -967,27 +926,23 @@
         <v>1043</v>
       </c>
       <c r="C24" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>991.42857142857144</v>
       </c>
       <c r="D24" s="8">
-        <f t="shared" si="7"/>
-        <v>667.14285714285711</v>
-      </c>
-      <c r="E24" s="8">
-        <f t="shared" si="0"/>
+        <f>D25+B24</f>
         <v>474478</v>
       </c>
-      <c r="G24" s="8">
-        <f t="shared" si="2"/>
+      <c r="F24" s="8">
+        <f>D24/C24</f>
         <v>478.58011527377522</v>
       </c>
-      <c r="H24" s="9">
-        <f t="shared" si="3"/>
+      <c r="G24" s="9">
+        <f>A24+F24</f>
         <v>44687.580115273777</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>44210</v>
       </c>
@@ -995,27 +950,23 @@
         <v>1074</v>
       </c>
       <c r="C25" s="8">
-        <f t="shared" ref="C25:C49" si="8">AVERAGE(B19:B25)</f>
+        <f t="shared" ref="C25:C49" si="3">AVERAGE(B19:B25)</f>
         <v>1022.7142857142857</v>
       </c>
       <c r="D25" s="8">
-        <f t="shared" si="7"/>
-        <v>727.57142857142856</v>
-      </c>
-      <c r="E25" s="8">
-        <f t="shared" si="0"/>
+        <f>D26+B25</f>
         <v>473435</v>
       </c>
-      <c r="G25" s="8">
-        <f t="shared" si="2"/>
+      <c r="F25" s="8">
+        <f>D25/C25</f>
         <v>462.92010057270573</v>
       </c>
-      <c r="H25" s="9">
-        <f t="shared" si="3"/>
+      <c r="G25" s="9">
+        <f>A25+F25</f>
         <v>44672.920100572708</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>44211</v>
       </c>
@@ -1023,27 +974,23 @@
         <v>922</v>
       </c>
       <c r="C26" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>1036.7142857142858</v>
       </c>
       <c r="D26" s="8">
-        <f t="shared" si="7"/>
-        <v>777.5</v>
-      </c>
-      <c r="E26" s="8">
-        <f t="shared" si="0"/>
+        <f>D27+B26</f>
         <v>472361</v>
       </c>
-      <c r="G26" s="8">
-        <f t="shared" si="2"/>
+      <c r="F26" s="8">
+        <f>D26/C26</f>
         <v>455.6327683615819</v>
       </c>
-      <c r="H26" s="9">
-        <f t="shared" si="3"/>
+      <c r="G26" s="9">
+        <f>A26+F26</f>
         <v>44666.632768361582</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>44212</v>
       </c>
@@ -1051,27 +998,23 @@
         <v>291</v>
       </c>
       <c r="C27" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>955.71428571428567</v>
       </c>
       <c r="D27" s="8">
-        <f t="shared" si="7"/>
-        <v>776.35714285714289</v>
-      </c>
-      <c r="E27" s="8">
-        <f t="shared" si="0"/>
+        <f>D28+B27</f>
         <v>471439</v>
       </c>
-      <c r="G27" s="8">
-        <f t="shared" si="2"/>
+      <c r="F27" s="8">
+        <f>D27/C27</f>
         <v>493.28445440956654</v>
       </c>
-      <c r="H27" s="9">
-        <f t="shared" si="3"/>
+      <c r="G27" s="9">
+        <f>A27+F27</f>
         <v>44705.284454409564</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>44213</v>
       </c>
@@ -1079,27 +1022,23 @@
         <v>0</v>
       </c>
       <c r="C28" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>823.28571428571433</v>
       </c>
       <c r="D28" s="8">
-        <f t="shared" si="7"/>
-        <v>759.64285714285711</v>
-      </c>
-      <c r="E28" s="8">
-        <f t="shared" si="0"/>
+        <f>D29+B28</f>
         <v>471148</v>
       </c>
-      <c r="G28" s="8">
-        <f t="shared" si="2"/>
+      <c r="F28" s="8">
+        <f>D28/C28</f>
         <v>572.2776331771646</v>
       </c>
-      <c r="H28" s="9">
-        <f t="shared" si="3"/>
+      <c r="G28" s="9">
+        <f>A28+F28</f>
         <v>44785.277633177167</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>44214</v>
       </c>
@@ -1107,27 +1046,23 @@
         <v>601</v>
       </c>
       <c r="C29" s="8">
-        <f t="shared" ref="C29:C34" si="9">AVERAGE(B22:B29)</f>
+        <f t="shared" ref="C29:C34" si="4">AVERAGE(B22:B29)</f>
         <v>795.5</v>
       </c>
       <c r="D29" s="8">
-        <f t="shared" ref="D29:D41" si="10">AVERAGE(B15:B29)</f>
-        <v>749.06666666666672</v>
-      </c>
-      <c r="E29" s="8">
-        <f t="shared" si="0"/>
+        <f>D30+B29</f>
         <v>471148</v>
       </c>
-      <c r="G29" s="8">
-        <f t="shared" si="2"/>
+      <c r="F29" s="8">
+        <f>D29/C29</f>
         <v>592.26649905719671</v>
       </c>
-      <c r="H29" s="9">
-        <f t="shared" si="3"/>
+      <c r="G29" s="9">
+        <f>A29+F29</f>
         <v>44806.266499057194</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>44215</v>
       </c>
@@ -1135,27 +1070,23 @@
         <v>831</v>
       </c>
       <c r="C30" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>770.625</v>
       </c>
       <c r="D30" s="8">
-        <f t="shared" si="10"/>
-        <v>789.4666666666667</v>
-      </c>
-      <c r="E30" s="8">
-        <f t="shared" si="0"/>
+        <f>D31+B30</f>
         <v>470547</v>
       </c>
-      <c r="G30" s="8">
-        <f t="shared" si="2"/>
+      <c r="F30" s="8">
+        <f>D30/C30</f>
         <v>610.60437956204385</v>
       </c>
-      <c r="H30" s="9">
-        <f t="shared" si="3"/>
+      <c r="G30" s="9">
+        <f>A30+F30</f>
         <v>44825.604379562043</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>44216</v>
       </c>
@@ -1163,27 +1094,23 @@
         <v>603</v>
       </c>
       <c r="C31" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>670.625</v>
       </c>
       <c r="D31" s="8">
-        <f t="shared" si="10"/>
-        <v>790.66666666666663</v>
-      </c>
-      <c r="E31" s="8">
-        <f t="shared" si="0"/>
+        <f>D32+B31</f>
         <v>469716</v>
       </c>
-      <c r="G31" s="8">
-        <f t="shared" si="2"/>
+      <c r="F31" s="8">
+        <f>D31/C31</f>
         <v>700.41528424976696</v>
       </c>
-      <c r="H31" s="9">
-        <f t="shared" si="3"/>
+      <c r="G31" s="9">
+        <f>A31+F31</f>
         <v>44916.415284249764</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>44217</v>
       </c>
@@ -1191,27 +1118,23 @@
         <v>514</v>
       </c>
       <c r="C32" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>604.5</v>
       </c>
       <c r="D32" s="8">
-        <f t="shared" si="10"/>
-        <v>785.06666666666672</v>
-      </c>
-      <c r="E32" s="8">
-        <f t="shared" si="0"/>
+        <f>D33+B32</f>
         <v>469113</v>
       </c>
-      <c r="G32" s="8">
-        <f t="shared" si="2"/>
+      <c r="F32" s="8">
+        <f>D32/C32</f>
         <v>776.03473945409428</v>
       </c>
-      <c r="H32" s="9">
-        <f t="shared" si="3"/>
+      <c r="G32" s="9">
+        <f>A32+F32</f>
         <v>44993.034739454095</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>44218</v>
       </c>
@@ -1219,27 +1142,23 @@
         <v>278</v>
       </c>
       <c r="C33" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>505</v>
       </c>
       <c r="D33" s="8">
-        <f t="shared" si="10"/>
-        <v>746.6</v>
-      </c>
-      <c r="E33" s="8">
-        <f t="shared" si="0"/>
+        <f>D34+B33</f>
         <v>468599</v>
       </c>
-      <c r="G33" s="8">
-        <f t="shared" si="2"/>
+      <c r="F33" s="8">
+        <f>D33/C33</f>
         <v>927.91881188118816</v>
       </c>
-      <c r="H33" s="9">
-        <f t="shared" si="3"/>
+      <c r="G33" s="9">
+        <f>A33+F33</f>
         <v>45145.918811881187</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>44219</v>
       </c>
@@ -1247,27 +1166,23 @@
         <v>261</v>
       </c>
       <c r="C34" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>422.375</v>
       </c>
       <c r="D34" s="8">
-        <f t="shared" si="10"/>
-        <v>709.06666666666672</v>
-      </c>
-      <c r="E34" s="8">
-        <f t="shared" si="0"/>
+        <f>D35+B34</f>
         <v>468321</v>
       </c>
-      <c r="G34" s="8">
-        <f t="shared" si="2"/>
+      <c r="F34" s="8">
+        <f>D34/C34</f>
         <v>1108.7801124593075</v>
       </c>
-      <c r="H34" s="9">
-        <f t="shared" si="3"/>
+      <c r="G34" s="9">
+        <f>A34+F34</f>
         <v>45327.78011245931</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>44220</v>
       </c>
@@ -1275,27 +1190,23 @@
         <v>220</v>
       </c>
       <c r="C35" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>472.57142857142856</v>
       </c>
       <c r="D35" s="8">
-        <f t="shared" si="10"/>
-        <v>666.5333333333333</v>
-      </c>
-      <c r="E35" s="8">
-        <f t="shared" si="0"/>
+        <f>D36+B35</f>
         <v>468060</v>
       </c>
-      <c r="G35" s="8">
-        <f t="shared" si="2"/>
+      <c r="F35" s="8">
+        <f>D35/C35</f>
         <v>990.45344619105208</v>
       </c>
-      <c r="H35" s="9">
-        <f t="shared" si="3"/>
+      <c r="G35" s="9">
+        <f>A35+F35</f>
         <v>45210.453446191052</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>44221</v>
       </c>
@@ -1303,27 +1214,23 @@
         <v>250</v>
       </c>
       <c r="C36" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>422.42857142857144</v>
       </c>
       <c r="D36" s="8">
-        <f t="shared" si="10"/>
-        <v>621.4</v>
-      </c>
-      <c r="E36" s="8">
-        <f t="shared" si="0"/>
+        <f>D37+B36</f>
         <v>467840</v>
       </c>
-      <c r="G36" s="8">
-        <f t="shared" si="2"/>
+      <c r="F36" s="8">
+        <f>D36/C36</f>
         <v>1107.5008454514712</v>
       </c>
-      <c r="H36" s="9">
-        <f t="shared" si="3"/>
+      <c r="G36" s="9">
+        <f>A36+F36</f>
         <v>45328.500845451468</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>44222</v>
       </c>
@@ -1331,27 +1238,23 @@
         <v>506</v>
       </c>
       <c r="C37" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>376</v>
       </c>
       <c r="D37" s="8">
-        <f t="shared" si="10"/>
-        <v>586.4666666666667</v>
-      </c>
-      <c r="E37" s="8">
-        <f t="shared" si="0"/>
+        <f>D38+B37</f>
         <v>467590</v>
       </c>
-      <c r="G37" s="8">
-        <f t="shared" si="2"/>
+      <c r="F37" s="8">
+        <f>D37/C37</f>
         <v>1243.5904255319149</v>
       </c>
-      <c r="H37" s="9">
-        <f t="shared" si="3"/>
+      <c r="G37" s="9">
+        <f>A37+F37</f>
         <v>45465.590425531918</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <v>44223</v>
       </c>
@@ -1359,27 +1262,23 @@
         <v>569</v>
       </c>
       <c r="C38" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>371.14285714285717</v>
       </c>
       <c r="D38" s="8">
-        <f t="shared" si="10"/>
-        <v>530.86666666666667</v>
-      </c>
-      <c r="E38" s="8">
-        <f t="shared" si="0"/>
+        <f>D39+B38</f>
         <v>467084</v>
       </c>
-      <c r="G38" s="8">
-        <f t="shared" si="2"/>
+      <c r="F38" s="8">
+        <f>D38/C38</f>
         <v>1258.5019245573517</v>
       </c>
-      <c r="H38" s="9">
-        <f t="shared" si="3"/>
+      <c r="G38" s="9">
+        <f>A38+F38</f>
         <v>45481.501924557349</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>44224</v>
       </c>
@@ -1387,27 +1286,23 @@
         <v>192</v>
       </c>
       <c r="C39" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>325.14285714285717</v>
       </c>
       <c r="D39" s="8">
-        <f t="shared" si="10"/>
-        <v>474.13333333333333</v>
-      </c>
-      <c r="E39" s="8">
-        <f t="shared" si="0"/>
+        <f>D40+B39</f>
         <v>466515</v>
       </c>
-      <c r="G39" s="8">
-        <f t="shared" si="2"/>
+      <c r="F39" s="8">
+        <f>D39/C39</f>
         <v>1434.8000878734622</v>
       </c>
-      <c r="H39" s="9">
-        <f t="shared" si="3"/>
+      <c r="G39" s="9">
+        <f>A39+F39</f>
         <v>45658.80008787346</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>44225</v>
       </c>
@@ -1415,27 +1310,23 @@
         <v>59</v>
       </c>
       <c r="C40" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>293.85714285714283</v>
       </c>
       <c r="D40" s="8">
-        <f t="shared" si="10"/>
-        <v>406.46666666666664</v>
-      </c>
-      <c r="E40" s="8">
-        <f t="shared" si="0"/>
+        <f>D41+B40</f>
         <v>466323</v>
       </c>
-      <c r="G40" s="8">
-        <f t="shared" si="2"/>
+      <c r="F40" s="8">
+        <f>D40/C40</f>
         <v>1586.9037433155081</v>
       </c>
-      <c r="H40" s="9">
-        <f t="shared" si="3"/>
+      <c r="G40" s="9">
+        <f>A40+F40</f>
         <v>45811.90374331551</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <v>44226</v>
       </c>
@@ -1443,27 +1334,23 @@
         <v>0</v>
       </c>
       <c r="C41" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>256.57142857142856</v>
       </c>
       <c r="D41" s="8">
-        <f t="shared" si="10"/>
-        <v>345</v>
-      </c>
-      <c r="E41" s="8">
-        <f t="shared" si="0"/>
+        <f>D42+B41</f>
         <v>466264</v>
       </c>
-      <c r="G41" s="8">
-        <f t="shared" si="2"/>
+      <c r="F41" s="8">
+        <f>D41/C41</f>
         <v>1817.2873051224944</v>
       </c>
-      <c r="H41" s="9">
-        <f t="shared" si="3"/>
+      <c r="G41" s="9">
+        <f>A41+F41</f>
         <v>46043.287305122496</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>44227</v>
       </c>
@@ -1471,27 +1358,23 @@
         <v>0</v>
       </c>
       <c r="C42" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>225.14285714285714</v>
       </c>
       <c r="D42" s="8">
-        <f t="shared" si="7"/>
-        <v>348.85714285714283</v>
-      </c>
-      <c r="E42" s="8">
-        <f t="shared" si="0"/>
+        <f>D43+B42</f>
         <v>466264</v>
       </c>
-      <c r="G42" s="8">
-        <f t="shared" si="2"/>
+      <c r="F42" s="8">
+        <f>D42/C42</f>
         <v>2070.9695431472082</v>
       </c>
-      <c r="H42" s="9">
-        <f t="shared" si="3"/>
+      <c r="G42" s="9">
+        <f>A42+F42</f>
         <v>46297.969543147206</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <v>44228</v>
       </c>
@@ -1499,27 +1382,23 @@
         <v>261</v>
       </c>
       <c r="C43" s="8">
-        <f t="shared" ref="C43:C48" si="11">AVERAGE(B35:B43)</f>
+        <f t="shared" ref="C43:C48" si="5">AVERAGE(B35:B43)</f>
         <v>228.55555555555554</v>
       </c>
       <c r="D43" s="8">
-        <f>AVERAGE(B27:B43)</f>
-        <v>319.76470588235293</v>
-      </c>
-      <c r="E43" s="8">
-        <f t="shared" si="0"/>
+        <f>D44+B43</f>
         <v>466264</v>
       </c>
-      <c r="G43" s="8">
-        <f t="shared" si="2"/>
+      <c r="F43" s="8">
+        <f>D43/C43</f>
         <v>2040.0466699076326</v>
       </c>
-      <c r="H43" s="9">
-        <f t="shared" si="3"/>
+      <c r="G43" s="9">
+        <f>A43+F43</f>
         <v>46268.046669907635</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>44229</v>
       </c>
@@ -1527,27 +1406,23 @@
         <v>340</v>
       </c>
       <c r="C44" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>241.88888888888889</v>
       </c>
       <c r="D44" s="8">
-        <f t="shared" ref="D44:D55" si="12">AVERAGE(B29:B44)</f>
-        <v>342.8125</v>
-      </c>
-      <c r="E44" s="8">
-        <f t="shared" si="0"/>
+        <f>D45+B44</f>
         <v>466003</v>
       </c>
-      <c r="G44" s="8">
-        <f t="shared" si="2"/>
+      <c r="F44" s="8">
+        <f>D44/C44</f>
         <v>1926.5167661920075</v>
       </c>
-      <c r="H44" s="9">
-        <f t="shared" si="3"/>
+      <c r="G44" s="9">
+        <f>A44+F44</f>
         <v>46155.516766192006</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
         <v>44230</v>
       </c>
@@ -1555,27 +1430,23 @@
         <v>452</v>
       </c>
       <c r="C45" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>264.33333333333331</v>
       </c>
       <c r="D45" s="8">
-        <f t="shared" si="12"/>
-        <v>333.5</v>
-      </c>
-      <c r="E45" s="8">
-        <f t="shared" si="0"/>
+        <f>D46+B45</f>
         <v>465663</v>
       </c>
-      <c r="G45" s="8">
-        <f t="shared" si="2"/>
+      <c r="F45" s="8">
+        <f>D45/C45</f>
         <v>1761.6506935687264</v>
       </c>
-      <c r="H45" s="9">
-        <f t="shared" si="3"/>
+      <c r="G45" s="9">
+        <f>A45+F45</f>
         <v>45991.650693568728</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
         <v>44231</v>
       </c>
@@ -1583,27 +1454,23 @@
         <v>264</v>
       </c>
       <c r="C46" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>237.44444444444446</v>
       </c>
       <c r="D46" s="8">
-        <f t="shared" si="12"/>
-        <v>298.0625</v>
-      </c>
-      <c r="E46" s="8">
-        <f t="shared" si="0"/>
+        <f>D47+B46</f>
         <v>465211</v>
       </c>
-      <c r="G46" s="8">
-        <f t="shared" si="2"/>
+      <c r="F46" s="8">
+        <f>D46/C46</f>
         <v>1959.241459990641</v>
       </c>
-      <c r="H46" s="9">
-        <f t="shared" si="3"/>
+      <c r="G46" s="9">
+        <f>A46+F46</f>
         <v>46190.241459990641</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
         <v>44232</v>
       </c>
@@ -1611,27 +1478,23 @@
         <v>512</v>
       </c>
       <c r="C47" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>231.11111111111111</v>
       </c>
       <c r="D47" s="8">
-        <f t="shared" si="12"/>
-        <v>292.375</v>
-      </c>
-      <c r="E47" s="8">
-        <f t="shared" si="0"/>
+        <f>D48+B47</f>
         <v>464947</v>
       </c>
-      <c r="G47" s="8">
-        <f t="shared" si="2"/>
+      <c r="F47" s="8">
+        <f>D47/C47</f>
         <v>2011.7899038461537</v>
       </c>
-      <c r="H47" s="9">
-        <f t="shared" si="3"/>
+      <c r="G47" s="9">
+        <f>A47+F47</f>
         <v>46243.789903846155</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
         <v>44233</v>
       </c>
@@ -1639,27 +1502,23 @@
         <v>512</v>
       </c>
       <c r="C48" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>266.66666666666669</v>
       </c>
       <c r="D48" s="8">
-        <f t="shared" si="12"/>
-        <v>292.25</v>
-      </c>
-      <c r="E48" s="8">
-        <f t="shared" si="0"/>
+        <f>D49+B48</f>
         <v>464435</v>
       </c>
-      <c r="G48" s="8">
-        <f t="shared" si="2"/>
+      <c r="F48" s="8">
+        <f>D48/C48</f>
         <v>1741.6312499999999</v>
       </c>
-      <c r="H48" s="9">
-        <f t="shared" si="3"/>
+      <c r="G48" s="9">
+        <f>A48+F48</f>
         <v>45974.631249999999</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
         <v>44234</v>
       </c>
@@ -1667,27 +1526,23 @@
         <v>515</v>
       </c>
       <c r="C49" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>408</v>
       </c>
       <c r="D49" s="8">
-        <f t="shared" si="12"/>
-        <v>307.0625</v>
-      </c>
-      <c r="E49" s="8">
-        <f t="shared" si="0"/>
+        <f>D50+B49</f>
         <v>463923</v>
       </c>
-      <c r="G49" s="8">
-        <f t="shared" si="2"/>
+      <c r="F49" s="8">
+        <f>D49/C49</f>
         <v>1137.0661764705883</v>
       </c>
-      <c r="H49" s="9">
-        <f t="shared" si="3"/>
+      <c r="G49" s="9">
+        <f>A49+F49</f>
         <v>45371.066176470587</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
         <v>44235</v>
       </c>
@@ -1695,27 +1550,23 @@
         <v>539</v>
       </c>
       <c r="C50" s="8">
-        <f t="shared" ref="C50:C69" si="13">AVERAGE(B44:B50)</f>
+        <f t="shared" ref="C50:C69" si="6">AVERAGE(B44:B50)</f>
         <v>447.71428571428572</v>
       </c>
       <c r="D50" s="8">
-        <f t="shared" si="12"/>
-        <v>324.4375</v>
-      </c>
-      <c r="E50" s="8">
-        <f t="shared" si="0"/>
+        <f>D51+B50</f>
         <v>463408</v>
       </c>
-      <c r="G50" s="8">
-        <f t="shared" si="2"/>
+      <c r="F50" s="8">
+        <f>D50/C50</f>
         <v>1035.0529674537331</v>
       </c>
-      <c r="H50" s="9">
-        <f t="shared" si="3"/>
+      <c r="G50" s="9">
+        <f>A50+F50</f>
         <v>45270.052967453732</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
         <v>44236</v>
       </c>
@@ -1723,27 +1574,23 @@
         <v>602</v>
       </c>
       <c r="C51" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>485.14285714285717</v>
       </c>
       <c r="D51" s="8">
-        <f t="shared" si="12"/>
-        <v>348.3125</v>
-      </c>
-      <c r="E51" s="8">
-        <f t="shared" si="0"/>
+        <f>D52+B51</f>
         <v>462869</v>
       </c>
-      <c r="G51" s="8">
-        <f t="shared" si="2"/>
+      <c r="F51" s="8">
+        <f>D51/C51</f>
         <v>954.08804475853935</v>
       </c>
-      <c r="H51" s="9">
-        <f t="shared" si="3"/>
+      <c r="G51" s="9">
+        <f>A51+F51</f>
         <v>45190.088044758537</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
         <v>44237</v>
       </c>
@@ -1751,27 +1598,23 @@
         <v>417</v>
       </c>
       <c r="C52" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>480.14285714285717</v>
       </c>
       <c r="D52" s="8">
-        <f t="shared" si="12"/>
-        <v>358.75</v>
-      </c>
-      <c r="E52" s="8">
-        <f t="shared" si="0"/>
+        <f>D53+B52</f>
         <v>462267</v>
       </c>
-      <c r="G52" s="8">
-        <f t="shared" si="2"/>
+      <c r="F52" s="8">
+        <f>D52/C52</f>
         <v>962.76971139541797</v>
       </c>
-      <c r="H52" s="9">
-        <f t="shared" si="3"/>
+      <c r="G52" s="9">
+        <f>A52+F52</f>
         <v>45199.76971139542</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
         <v>44238</v>
       </c>
@@ -1779,27 +1622,23 @@
         <v>619</v>
       </c>
       <c r="C53" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>530.85714285714289</v>
       </c>
       <c r="D53" s="8">
-        <f t="shared" si="12"/>
-        <v>365.8125</v>
-      </c>
-      <c r="E53" s="8">
-        <f t="shared" si="0"/>
+        <f>D54+B53</f>
         <v>461850</v>
       </c>
-      <c r="G53" s="8">
-        <f t="shared" si="2"/>
+      <c r="F53" s="8">
+        <f>D53/C53</f>
         <v>870.00807319698595</v>
       </c>
-      <c r="H53" s="9">
-        <f t="shared" si="3"/>
+      <c r="G53" s="9">
+        <f>A53+F53</f>
         <v>45108.008073196987</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
         <v>44239</v>
       </c>
@@ -1807,27 +1646,23 @@
         <v>627</v>
       </c>
       <c r="C54" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>547.28571428571433</v>
       </c>
       <c r="D54" s="8">
-        <f t="shared" si="12"/>
-        <v>369.4375</v>
-      </c>
-      <c r="E54" s="8">
-        <f t="shared" si="0"/>
+        <f>D55+B54</f>
         <v>461231</v>
       </c>
-      <c r="G54" s="8">
-        <f t="shared" si="2"/>
+      <c r="F54" s="8">
+        <f>D54/C54</f>
         <v>842.76089793787514</v>
       </c>
-      <c r="H54" s="9">
-        <f t="shared" si="3"/>
+      <c r="G54" s="9">
+        <f>A54+F54</f>
         <v>45081.760897937878</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="7">
         <v>44240</v>
       </c>
@@ -1835,27 +1670,23 @@
         <v>575</v>
       </c>
       <c r="C55" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>556.28571428571433</v>
       </c>
       <c r="D55" s="8">
-        <f t="shared" si="12"/>
-        <v>393.375</v>
-      </c>
-      <c r="E55" s="8">
-        <f t="shared" si="0"/>
+        <f>D56+B55</f>
         <v>460604</v>
       </c>
-      <c r="G55" s="8">
-        <f t="shared" si="2"/>
+      <c r="F55" s="8">
+        <f>D55/C55</f>
         <v>827.99897277863374</v>
       </c>
-      <c r="H55" s="9">
-        <f t="shared" si="3"/>
+      <c r="G55" s="9">
+        <f>A55+F55</f>
         <v>45067.998972778631</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
         <v>44241</v>
       </c>
@@ -1863,27 +1694,23 @@
         <v>412</v>
       </c>
       <c r="C56" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>541.57142857142856</v>
       </c>
       <c r="D56" s="8">
-        <f t="shared" si="7"/>
-        <v>474.78571428571428</v>
-      </c>
-      <c r="E56" s="8">
-        <f t="shared" si="0"/>
+        <f>D57+B56</f>
         <v>460029</v>
       </c>
-      <c r="G56" s="8">
-        <f t="shared" si="2"/>
+      <c r="F56" s="8">
+        <f>D56/C56</f>
         <v>849.43365866525983</v>
       </c>
-      <c r="H56" s="9">
-        <f t="shared" si="3"/>
+      <c r="G56" s="9">
+        <f>A56+F56</f>
         <v>45090.433658665257</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
         <v>44242</v>
       </c>
@@ -1891,27 +1718,23 @@
         <v>0</v>
       </c>
       <c r="C57" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>464.57142857142856</v>
       </c>
       <c r="D57" s="8">
-        <f t="shared" si="7"/>
-        <v>456.14285714285717</v>
-      </c>
-      <c r="E57" s="8">
-        <f t="shared" si="0"/>
+        <f>D58+B57</f>
         <v>459617</v>
       </c>
-      <c r="G57" s="8">
-        <f t="shared" si="2"/>
+      <c r="F57" s="8">
+        <f>D57/C57</f>
         <v>989.33548585485858</v>
       </c>
-      <c r="H57" s="9">
-        <f t="shared" si="3"/>
+      <c r="G57" s="9">
+        <f>A57+F57</f>
         <v>45231.335485854856</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="7">
         <v>44243</v>
       </c>
@@ -1919,27 +1742,23 @@
         <v>560</v>
       </c>
       <c r="C58" s="8">
-        <f t="shared" ref="C58:C63" si="14">AVERAGE(B51:B58)</f>
+        <f t="shared" ref="C58:C63" si="7">AVERAGE(B51:B58)</f>
         <v>476.5</v>
       </c>
       <c r="D58" s="8">
-        <f t="shared" ref="D58:D70" si="15">AVERAGE(B44:B58)</f>
-        <v>463.06666666666666</v>
-      </c>
-      <c r="E58" s="8">
-        <f t="shared" si="0"/>
+        <f>D59+B58</f>
         <v>459617</v>
       </c>
-      <c r="G58" s="8">
-        <f t="shared" si="2"/>
+      <c r="F58" s="8">
+        <f>D58/C58</f>
         <v>964.56873032528858</v>
       </c>
-      <c r="H58" s="9">
-        <f t="shared" si="3"/>
+      <c r="G58" s="9">
+        <f>A58+F58</f>
         <v>45207.568730325285</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
         <v>44244</v>
       </c>
@@ -1947,27 +1766,23 @@
         <v>599</v>
       </c>
       <c r="C59" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>476.125</v>
       </c>
       <c r="D59" s="8">
-        <f t="shared" si="15"/>
-        <v>480.33333333333331</v>
-      </c>
-      <c r="E59" s="8">
-        <f t="shared" si="0"/>
+        <f>D60+B59</f>
         <v>459057</v>
       </c>
-      <c r="G59" s="8">
-        <f t="shared" si="2"/>
+      <c r="F59" s="8">
+        <f>D59/C59</f>
         <v>964.15227093725389</v>
       </c>
-      <c r="H59" s="9">
-        <f t="shared" si="3"/>
+      <c r="G59" s="9">
+        <f>A59+F59</f>
         <v>45208.152270937251</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
         <v>44245</v>
       </c>
@@ -1975,27 +1790,23 @@
         <v>999</v>
       </c>
       <c r="C60" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>548.875</v>
       </c>
       <c r="D60" s="8">
-        <f t="shared" si="15"/>
-        <v>516.79999999999995</v>
-      </c>
-      <c r="E60" s="8">
-        <f t="shared" si="0"/>
+        <f>D61+B60</f>
         <v>458458</v>
       </c>
-      <c r="G60" s="8">
-        <f t="shared" si="2"/>
+      <c r="F60" s="8">
+        <f>D60/C60</f>
         <v>835.26850375768618</v>
       </c>
-      <c r="H60" s="9">
-        <f t="shared" si="3"/>
+      <c r="G60" s="9">
+        <f>A60+F60</f>
         <v>45080.268503757688</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="7">
         <v>44246</v>
       </c>
@@ -2003,27 +1814,23 @@
         <v>1120</v>
       </c>
       <c r="C61" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>611.5</v>
       </c>
       <c r="D61" s="8">
-        <f t="shared" si="15"/>
-        <v>573.86666666666667</v>
-      </c>
-      <c r="E61" s="8">
-        <f t="shared" si="0"/>
+        <f>D62+B61</f>
         <v>457459</v>
       </c>
-      <c r="G61" s="8">
-        <f t="shared" si="2"/>
+      <c r="F61" s="8">
+        <f>D61/C61</f>
         <v>748.09321340964846</v>
       </c>
-      <c r="H61" s="9">
-        <f t="shared" si="3"/>
+      <c r="G61" s="9">
+        <f>A61+F61</f>
         <v>44994.093213409651</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
         <v>44247</v>
       </c>
@@ -2031,27 +1838,23 @@
         <v>645</v>
       </c>
       <c r="C62" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>613.75</v>
       </c>
       <c r="D62" s="8">
-        <f t="shared" si="15"/>
-        <v>582.73333333333335</v>
-      </c>
-      <c r="E62" s="8">
-        <f t="shared" si="0"/>
+        <f>D63+B62</f>
         <v>456339</v>
       </c>
-      <c r="G62" s="8">
-        <f t="shared" si="2"/>
+      <c r="F62" s="8">
+        <f>D62/C62</f>
         <v>743.52586558044811</v>
       </c>
-      <c r="H62" s="9">
-        <f t="shared" si="3"/>
+      <c r="G62" s="9">
+        <f>A62+F62</f>
         <v>44990.52586558045</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="7">
         <v>44248</v>
       </c>
@@ -2059,27 +1862,23 @@
         <v>818</v>
       </c>
       <c r="C63" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>644.125</v>
       </c>
       <c r="D63" s="8">
-        <f t="shared" si="15"/>
-        <v>603.13333333333333</v>
-      </c>
-      <c r="E63" s="8">
-        <f t="shared" si="0"/>
+        <f>D64+B63</f>
         <v>455694</v>
       </c>
-      <c r="G63" s="8">
-        <f t="shared" si="2"/>
+      <c r="F63" s="8">
+        <f>D63/C63</f>
         <v>707.46206093537739</v>
       </c>
-      <c r="H63" s="9">
-        <f t="shared" si="3"/>
+      <c r="G63" s="9">
+        <f>A63+F63</f>
         <v>44955.462060935381</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
         <v>44249</v>
       </c>
@@ -2087,27 +1886,23 @@
         <v>482</v>
       </c>
       <c r="C64" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>746.14285714285711</v>
       </c>
       <c r="D64" s="8">
-        <f t="shared" si="15"/>
-        <v>600.93333333333328</v>
-      </c>
-      <c r="E64" s="8">
-        <f t="shared" si="0"/>
+        <f>D65+B64</f>
         <v>454876</v>
       </c>
-      <c r="G64" s="8">
-        <f t="shared" si="2"/>
+      <c r="F64" s="8">
+        <f>D64/C64</f>
         <v>609.63660731380435</v>
       </c>
-      <c r="H64" s="9">
-        <f t="shared" si="3"/>
+      <c r="G64" s="9">
+        <f>A64+F64</f>
         <v>44858.636607313805</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="7">
         <v>44250</v>
       </c>
@@ -2115,27 +1910,23 @@
         <v>816</v>
       </c>
       <c r="C65" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>782.71428571428567</v>
       </c>
       <c r="D65" s="8">
-        <f t="shared" si="15"/>
-        <v>619.4</v>
-      </c>
-      <c r="E65" s="8">
-        <f t="shared" si="0"/>
+        <f>D66+B65</f>
         <v>454394</v>
       </c>
-      <c r="G65" s="8">
-        <f t="shared" si="2"/>
+      <c r="F65" s="8">
+        <f>D65/C65</f>
         <v>580.53622923891226</v>
       </c>
-      <c r="H65" s="9">
-        <f t="shared" si="3"/>
+      <c r="G65" s="9">
+        <f>A65+F65</f>
         <v>44830.536229238911</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="7">
         <v>44251</v>
       </c>
@@ -2143,27 +1934,23 @@
         <v>646</v>
       </c>
       <c r="C66" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>789.42857142857144</v>
       </c>
       <c r="D66" s="8">
-        <f t="shared" si="15"/>
-        <v>622.33333333333337</v>
-      </c>
-      <c r="E66" s="8">
-        <f t="shared" ref="E66:E92" si="16">E67+B66</f>
+        <f>D67+B66</f>
         <v>453578</v>
       </c>
-      <c r="G66" s="8">
-        <f t="shared" ref="G66:G74" si="17">E66/C66</f>
+      <c r="F66" s="8">
+        <f>D66/C66</f>
         <v>574.56496561708286</v>
       </c>
-      <c r="H66" s="9">
-        <f t="shared" si="3"/>
+      <c r="G66" s="9">
+        <f>A66+F66</f>
         <v>44825.564965617086</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="7">
         <v>44252</v>
       </c>
@@ -2171,27 +1958,23 @@
         <v>656</v>
       </c>
       <c r="C67" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>740.42857142857144</v>
       </c>
       <c r="D67" s="8">
-        <f t="shared" si="15"/>
-        <v>638.26666666666665</v>
-      </c>
-      <c r="E67" s="8">
-        <f t="shared" si="16"/>
+        <f>D68+B67</f>
         <v>452932</v>
       </c>
-      <c r="G67" s="8">
-        <f t="shared" si="17"/>
+      <c r="F67" s="8">
+        <f>D67/C67</f>
         <v>611.71599459772335</v>
       </c>
-      <c r="H67" s="9">
-        <f t="shared" si="3"/>
+      <c r="G67" s="9">
+        <f>A67+F67</f>
         <v>44863.715994597726</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7">
         <v>44253</v>
       </c>
@@ -2199,27 +1982,23 @@
         <v>757</v>
       </c>
       <c r="C68" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>688.57142857142856</v>
       </c>
       <c r="D68" s="8">
-        <f t="shared" si="15"/>
-        <v>647.4666666666667</v>
-      </c>
-      <c r="E68" s="8">
-        <f t="shared" si="16"/>
+        <f>D69+B68</f>
         <v>452276</v>
       </c>
-      <c r="G68" s="8">
-        <f t="shared" si="17"/>
+      <c r="F68" s="8">
+        <f>D68/C68</f>
         <v>656.83236514522821</v>
       </c>
-      <c r="H68" s="9">
-        <f t="shared" si="3"/>
+      <c r="G68" s="9">
+        <f>A68+F68</f>
         <v>44909.83236514523</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="7">
         <v>44254</v>
       </c>
@@ -2227,27 +2006,23 @@
         <v>682</v>
       </c>
       <c r="C69" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>693.85714285714289</v>
       </c>
       <c r="D69" s="8">
-        <f t="shared" si="15"/>
-        <v>651.13333333333333</v>
-      </c>
-      <c r="E69" s="8">
-        <f t="shared" si="16"/>
+        <f>D70+B69</f>
         <v>451519</v>
       </c>
-      <c r="G69" s="8">
-        <f t="shared" si="17"/>
+      <c r="F69" s="8">
+        <f>D69/C69</f>
         <v>650.73769816759318</v>
       </c>
-      <c r="H69" s="9">
-        <f t="shared" ref="H69:H94" si="18">A69+G69</f>
+      <c r="G69" s="9">
+        <f>A69+F69</f>
         <v>44904.737698167592</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="7">
         <v>44255</v>
       </c>
@@ -2255,27 +2030,23 @@
         <v>687</v>
       </c>
       <c r="C70" s="8">
-        <f t="shared" ref="C70:C75" si="19">AVERAGE(B64:B70)</f>
+        <f t="shared" ref="C70:C75" si="8">AVERAGE(B64:B70)</f>
         <v>675.14285714285711</v>
       </c>
       <c r="D70" s="8">
-        <f t="shared" si="15"/>
-        <v>658.6</v>
-      </c>
-      <c r="E70" s="8">
-        <f t="shared" si="16"/>
+        <f>D71+B70</f>
         <v>450837</v>
       </c>
-      <c r="G70" s="8">
-        <f t="shared" si="17"/>
+      <c r="F70" s="8">
+        <f>D70/C70</f>
         <v>667.76534066864156</v>
       </c>
-      <c r="H70" s="9">
-        <f t="shared" si="18"/>
+      <c r="G70" s="9">
+        <f>A70+F70</f>
         <v>44922.765340668644</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="7">
         <v>44256</v>
       </c>
@@ -2283,27 +2054,23 @@
         <v>584</v>
       </c>
       <c r="C71" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>689.71428571428567</v>
       </c>
       <c r="D71" s="8">
-        <f t="shared" si="7"/>
-        <v>717.92857142857144</v>
-      </c>
-      <c r="E71" s="8">
-        <f t="shared" si="16"/>
+        <f>D72+B71</f>
         <v>450150</v>
       </c>
-      <c r="G71" s="8">
-        <f t="shared" si="17"/>
+      <c r="F71" s="8">
+        <f>D71/C71</f>
         <v>652.66155758077889</v>
       </c>
-      <c r="H71" s="9">
-        <f t="shared" si="18"/>
+      <c r="G71" s="9">
+        <f>A71+F71</f>
         <v>44908.661557580781</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="7">
         <v>44257</v>
       </c>
@@ -2311,27 +2078,23 @@
         <v>1093</v>
       </c>
       <c r="C72" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>729.28571428571433</v>
       </c>
       <c r="D72" s="8">
-        <f t="shared" si="7"/>
-        <v>756</v>
-      </c>
-      <c r="E72" s="8">
-        <f t="shared" si="16"/>
+        <f>D73+B72</f>
         <v>449566</v>
       </c>
-      <c r="G72" s="8">
-        <f t="shared" si="17"/>
+      <c r="F72" s="8">
+        <f>D72/C72</f>
         <v>616.44701273261501</v>
       </c>
-      <c r="H72" s="9">
-        <f t="shared" si="18"/>
+      <c r="G72" s="9">
+        <f>A72+F72</f>
         <v>44873.447012732613</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="7">
         <v>44258</v>
       </c>
@@ -2339,27 +2102,23 @@
         <v>1173</v>
       </c>
       <c r="C73" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>804.57142857142856</v>
       </c>
       <c r="D73" s="8">
-        <f t="shared" si="7"/>
-        <v>797</v>
-      </c>
-      <c r="E73" s="8">
-        <f t="shared" si="16"/>
+        <f>D74+B73</f>
         <v>448473</v>
       </c>
-      <c r="G73" s="8">
-        <f t="shared" si="17"/>
+      <c r="F73" s="8">
+        <f>D73/C73</f>
         <v>557.40607244318187</v>
       </c>
-      <c r="H73" s="9">
-        <f t="shared" si="18"/>
+      <c r="G73" s="9">
+        <f>A73+F73</f>
         <v>44815.406072443184</v>
       </c>
     </row>
-    <row r="74" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7">
         <v>44259</v>
       </c>
@@ -2367,27 +2126,23 @@
         <v>1997</v>
       </c>
       <c r="C74" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>996.14285714285711</v>
       </c>
       <c r="D74" s="8">
-        <f t="shared" si="7"/>
-        <v>868.28571428571433</v>
-      </c>
-      <c r="E74" s="8">
-        <f t="shared" si="16"/>
+        <f>D75+B74</f>
         <v>447300</v>
       </c>
-      <c r="G74" s="8">
-        <f t="shared" si="17"/>
+      <c r="F74" s="8">
+        <f>D74/C74</f>
         <v>449.03198049619965</v>
       </c>
-      <c r="H74" s="9">
-        <f t="shared" si="18"/>
+      <c r="G74" s="9">
+        <f>A74+F74</f>
         <v>44708.031980496198</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="7">
         <v>44260</v>
       </c>
@@ -2395,27 +2150,23 @@
         <v>1735</v>
       </c>
       <c r="C75" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>1135.8571428571429</v>
       </c>
       <c r="D75" s="8">
-        <f t="shared" si="7"/>
-        <v>912.21428571428567</v>
-      </c>
-      <c r="E75" s="8">
-        <f t="shared" si="16"/>
+        <f>D76+B75</f>
         <v>445303</v>
       </c>
-      <c r="G75" s="8">
-        <f t="shared" ref="G75:G94" si="20">E75/C75</f>
+      <c r="F75" s="8">
+        <f>D75/C75</f>
         <v>392.04137844296315</v>
       </c>
-      <c r="H75" s="9">
-        <f t="shared" si="18"/>
+      <c r="G75" s="9">
+        <f>A75+F75</f>
         <v>44652.041378442962</v>
       </c>
     </row>
-    <row r="76" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="7">
         <v>44261</v>
       </c>
@@ -2427,23 +2178,19 @@
         <v>1257.2857142857142</v>
       </c>
       <c r="D76" s="8">
-        <f t="shared" si="7"/>
-        <v>975.57142857142856</v>
-      </c>
-      <c r="E76" s="8">
-        <f t="shared" si="16"/>
+        <f>D77+B76</f>
         <v>443568</v>
       </c>
-      <c r="G76" s="8">
-        <f t="shared" si="20"/>
+      <c r="F76" s="8">
+        <f>D76/C76</f>
         <v>352.79809112600844</v>
       </c>
-      <c r="H76" s="9">
-        <f t="shared" si="18"/>
+      <c r="G76" s="9">
+        <f>A76+F76</f>
         <v>44613.798091126009</v>
       </c>
     </row>
-    <row r="77" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="7">
         <v>44262</v>
       </c>
@@ -2451,27 +2198,23 @@
         <v>1323</v>
       </c>
       <c r="C77" s="8">
-        <f t="shared" ref="C77:C78" si="21">(AVERAGE(B71:B77))</f>
+        <f t="shared" ref="C77:C78" si="9">(AVERAGE(B71:B77))</f>
         <v>1348.1428571428571</v>
       </c>
       <c r="D77" s="8">
-        <f t="shared" si="7"/>
-        <v>1011.6428571428571</v>
-      </c>
-      <c r="E77" s="8">
-        <f t="shared" si="16"/>
+        <f>D78+B77</f>
         <v>442036</v>
       </c>
-      <c r="G77" s="8">
-        <f t="shared" si="20"/>
+      <c r="F77" s="8">
+        <f>D77/C77</f>
         <v>327.88513298717811</v>
       </c>
-      <c r="H77" s="9">
-        <f t="shared" si="18"/>
+      <c r="G77" s="9">
+        <f>A77+F77</f>
         <v>44589.885132987176</v>
       </c>
     </row>
-    <row r="78" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="7">
         <v>44263</v>
       </c>
@@ -2479,27 +2222,23 @@
         <v>1518</v>
       </c>
       <c r="C78" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="9"/>
         <v>1481.5714285714287</v>
       </c>
       <c r="D78" s="8">
-        <f t="shared" si="7"/>
-        <v>1085.6428571428571</v>
-      </c>
-      <c r="E78" s="8">
-        <f t="shared" si="16"/>
+        <f>D79+B78</f>
         <v>440713</v>
       </c>
-      <c r="G78" s="8">
-        <f t="shared" si="20"/>
+      <c r="F78" s="8">
+        <f>D78/C78</f>
         <v>297.46321473339117</v>
       </c>
-      <c r="H78" s="9">
-        <f t="shared" si="18"/>
+      <c r="G78" s="9">
+        <f>A78+F78</f>
         <v>44560.46321473339</v>
       </c>
     </row>
-    <row r="79" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="7">
         <v>44264</v>
       </c>
@@ -2507,27 +2246,23 @@
         <v>1664</v>
       </c>
       <c r="C79" s="8">
-        <f t="shared" ref="C79:C91" si="22">(AVERAGE(B73:B79))</f>
+        <f t="shared" ref="C79:C91" si="10">(AVERAGE(B73:B79))</f>
         <v>1563.1428571428571</v>
       </c>
       <c r="D79" s="8">
-        <f t="shared" si="7"/>
-        <v>1146.2142857142858</v>
-      </c>
-      <c r="E79" s="8">
-        <f t="shared" si="16"/>
+        <f>D80+B79</f>
         <v>439195</v>
       </c>
-      <c r="G79" s="8">
-        <f t="shared" si="20"/>
+      <c r="F79" s="8">
+        <f>D79/C79</f>
         <v>280.96920124291722</v>
       </c>
-      <c r="H79" s="9">
-        <f t="shared" si="18"/>
+      <c r="G79" s="9">
+        <f>A79+F79</f>
         <v>44544.969201242915</v>
       </c>
     </row>
-    <row r="80" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="7">
         <v>44265</v>
       </c>
@@ -2535,27 +2270,23 @@
         <v>1677</v>
       </c>
       <c r="C80" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v>1635.1428571428571</v>
       </c>
       <c r="D80" s="8">
-        <f t="shared" si="7"/>
-        <v>1219.8571428571429</v>
-      </c>
-      <c r="E80" s="8">
-        <f t="shared" si="16"/>
+        <f>D81+B80</f>
         <v>437531</v>
       </c>
-      <c r="G80" s="8">
-        <f t="shared" si="20"/>
+      <c r="F80" s="8">
+        <f>D80/C80</f>
         <v>267.57967849030229</v>
       </c>
-      <c r="H80" s="9">
-        <f t="shared" si="18"/>
+      <c r="G80" s="9">
+        <f>A80+F80</f>
         <v>44532.5796784903</v>
       </c>
     </row>
-    <row r="81" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="7">
         <v>44266</v>
       </c>
@@ -2563,27 +2294,23 @@
         <v>1618</v>
       </c>
       <c r="C81" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v>1581</v>
       </c>
       <c r="D81" s="8">
-        <f t="shared" si="7"/>
-        <v>1288.5714285714287</v>
-      </c>
-      <c r="E81" s="8">
-        <f t="shared" si="16"/>
+        <f>D82+B81</f>
         <v>435854</v>
       </c>
-      <c r="G81" s="8">
-        <f t="shared" si="20"/>
+      <c r="F81" s="8">
+        <f>D81/C81</f>
         <v>275.68247944339026</v>
       </c>
-      <c r="H81" s="9">
-        <f t="shared" si="18"/>
+      <c r="G81" s="9">
+        <f>A81+F81</f>
         <v>44541.682479443392</v>
       </c>
     </row>
-    <row r="82" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="7">
         <v>44267</v>
       </c>
@@ -2591,27 +2318,23 @@
         <v>1855</v>
       </c>
       <c r="C82" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v>1598.1428571428571</v>
       </c>
       <c r="D82" s="8">
-        <f t="shared" si="7"/>
-        <v>1367</v>
-      </c>
-      <c r="E82" s="8">
-        <f t="shared" si="16"/>
+        <f>D83+B82</f>
         <v>434236</v>
       </c>
-      <c r="G82" s="8">
-        <f t="shared" si="20"/>
+      <c r="F82" s="8">
+        <f>D82/C82</f>
         <v>271.71288102261553</v>
       </c>
-      <c r="H82" s="9">
-        <f t="shared" si="18"/>
+      <c r="G82" s="9">
+        <f>A82+F82</f>
         <v>44538.712881022613</v>
       </c>
     </row>
-    <row r="83" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="7">
         <v>44268</v>
       </c>
@@ -2619,27 +2342,23 @@
         <v>1794</v>
       </c>
       <c r="C83" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v>1635.5714285714287</v>
       </c>
       <c r="D83" s="8">
-        <f t="shared" si="7"/>
-        <v>1446.4285714285713</v>
-      </c>
-      <c r="E83" s="8">
-        <f t="shared" si="16"/>
+        <f>D84+B83</f>
         <v>432381</v>
       </c>
-      <c r="G83" s="8">
-        <f t="shared" si="20"/>
+      <c r="F83" s="8">
+        <f>D83/C83</f>
         <v>264.36081753864966</v>
       </c>
-      <c r="H83" s="9">
-        <f t="shared" si="18"/>
+      <c r="G83" s="9">
+        <f>A83+F83</f>
         <v>44532.360817538647</v>
       </c>
     </row>
-    <row r="84" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="7">
         <v>44269</v>
       </c>
@@ -2647,27 +2366,23 @@
         <v>1780</v>
       </c>
       <c r="C84" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v>1700.8571428571429</v>
       </c>
       <c r="D84" s="8">
-        <f t="shared" si="7"/>
-        <v>1524.5</v>
-      </c>
-      <c r="E84" s="8">
-        <f t="shared" si="16"/>
+        <f>D85+B84</f>
         <v>430587</v>
       </c>
-      <c r="G84" s="8">
-        <f t="shared" si="20"/>
+      <c r="F84" s="8">
+        <f>D84/C84</f>
         <v>253.15882748194187</v>
       </c>
-      <c r="H84" s="9">
-        <f t="shared" si="18"/>
+      <c r="G84" s="9">
+        <f>A84+F84</f>
         <v>44522.158827481944</v>
       </c>
     </row>
-    <row r="85" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="7">
         <v>44270</v>
       </c>
@@ -2675,27 +2390,23 @@
         <v>2156</v>
       </c>
       <c r="C85" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v>1792</v>
       </c>
       <c r="D85" s="8">
-        <f t="shared" si="7"/>
-        <v>1636.7857142857142</v>
-      </c>
-      <c r="E85" s="8">
-        <f t="shared" si="16"/>
+        <f>D86+B85</f>
         <v>428807</v>
       </c>
-      <c r="G85" s="8">
-        <f t="shared" si="20"/>
+      <c r="F85" s="8">
+        <f>D85/C85</f>
         <v>239.28962053571428</v>
       </c>
-      <c r="H85" s="9">
-        <f t="shared" si="18"/>
+      <c r="G85" s="9">
+        <f>A85+F85</f>
         <v>44509.289620535717</v>
       </c>
     </row>
-    <row r="86" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="7">
         <v>44271</v>
       </c>
@@ -2703,27 +2414,23 @@
         <v>1708</v>
       </c>
       <c r="C86" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v>1798.2857142857142</v>
       </c>
       <c r="D86" s="8">
-        <f t="shared" si="7"/>
-        <v>1680.7142857142858</v>
-      </c>
-      <c r="E86" s="8">
-        <f t="shared" si="16"/>
+        <f>D87+B86</f>
         <v>426651</v>
       </c>
-      <c r="G86" s="8">
-        <f t="shared" si="20"/>
+      <c r="F86" s="8">
+        <f>D86/C86</f>
         <v>237.25428979980936</v>
       </c>
-      <c r="H86" s="9">
-        <f t="shared" si="18"/>
+      <c r="G86" s="9">
+        <f>A86+F86</f>
         <v>44508.254289799806</v>
       </c>
     </row>
-    <row r="87" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="7">
         <v>44272</v>
       </c>
@@ -2731,27 +2438,23 @@
         <v>1507</v>
       </c>
       <c r="C87" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v>1774</v>
       </c>
       <c r="D87" s="8">
-        <f t="shared" ref="D87:D95" si="23">AVERAGE(B74:B87)</f>
-        <v>1704.5714285714287</v>
-      </c>
-      <c r="E87" s="8">
-        <f t="shared" si="16"/>
+        <f>D88+B87</f>
         <v>424943</v>
       </c>
-      <c r="G87" s="8">
-        <f t="shared" si="20"/>
+      <c r="F87" s="8">
+        <f>D87/C87</f>
         <v>239.53945885005638</v>
       </c>
-      <c r="H87" s="9">
-        <f t="shared" si="18"/>
+      <c r="G87" s="9">
+        <f>A87+F87</f>
         <v>44511.539458850057</v>
       </c>
     </row>
-    <row r="88" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="7">
         <v>44273</v>
       </c>
@@ -2759,27 +2462,23 @@
         <v>1529</v>
       </c>
       <c r="C88" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v>1761.2857142857142</v>
       </c>
       <c r="D88" s="8">
-        <f t="shared" si="23"/>
-        <v>1671.1428571428571</v>
-      </c>
-      <c r="E88" s="8">
-        <f t="shared" si="16"/>
+        <f>D89+B88</f>
         <v>423436</v>
       </c>
-      <c r="G88" s="8">
-        <f t="shared" si="20"/>
+      <c r="F88" s="8">
+        <f>D88/C88</f>
         <v>240.41300997647824</v>
       </c>
-      <c r="H88" s="9">
-        <f t="shared" si="18"/>
+      <c r="G88" s="9">
+        <f>A88+F88</f>
         <v>44513.413009976481</v>
       </c>
     </row>
-    <row r="89" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="7">
         <v>44274</v>
       </c>
@@ -2787,27 +2486,23 @@
         <v>1464</v>
       </c>
       <c r="C89" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v>1705.4285714285713</v>
       </c>
       <c r="D89" s="8">
-        <f t="shared" si="23"/>
-        <v>1651.7857142857142</v>
-      </c>
-      <c r="E89" s="8">
-        <f t="shared" si="16"/>
+        <f>D90+B89</f>
         <v>421907</v>
       </c>
-      <c r="G89" s="8">
-        <f t="shared" si="20"/>
+      <c r="F89" s="8">
+        <f>D89/C89</f>
         <v>247.39060144077737</v>
       </c>
-      <c r="H89" s="9">
-        <f t="shared" si="18"/>
+      <c r="G89" s="9">
+        <f>A89+F89</f>
         <v>44521.390601440777</v>
       </c>
     </row>
-    <row r="90" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="7">
         <v>44275</v>
       </c>
@@ -2815,27 +2510,23 @@
         <v>1519</v>
       </c>
       <c r="C90" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v>1666.1428571428571</v>
       </c>
       <c r="D90" s="8">
-        <f t="shared" si="23"/>
-        <v>1650.8571428571429</v>
-      </c>
-      <c r="E90" s="8">
-        <f t="shared" si="16"/>
+        <f>D91+B90</f>
         <v>420443</v>
       </c>
-      <c r="G90" s="8">
-        <f t="shared" si="20"/>
+      <c r="F90" s="8">
+        <f>D90/C90</f>
         <v>252.34510846265971</v>
       </c>
-      <c r="H90" s="9">
-        <f t="shared" si="18"/>
+      <c r="G90" s="9">
+        <f>A90+F90</f>
         <v>44527.345108462658</v>
       </c>
     </row>
-    <row r="91" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="7">
         <v>44276</v>
       </c>
@@ -2843,27 +2534,23 @@
         <v>1397</v>
       </c>
       <c r="C91" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v>1611.4285714285713</v>
       </c>
       <c r="D91" s="8">
-        <f t="shared" si="23"/>
-        <v>1656.1428571428571</v>
-      </c>
-      <c r="E91" s="8">
-        <f t="shared" si="16"/>
+        <f>D92+B91</f>
         <v>418924</v>
       </c>
-      <c r="G91" s="8">
-        <f t="shared" si="20"/>
+      <c r="F91" s="8">
+        <f>D91/C91</f>
         <v>259.97056737588656</v>
       </c>
-      <c r="H91" s="9">
-        <f t="shared" si="18"/>
+      <c r="G91" s="9">
+        <f>A91+F91</f>
         <v>44535.970567375887</v>
       </c>
     </row>
-    <row r="92" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="7">
         <v>44277</v>
       </c>
@@ -2871,27 +2558,23 @@
         <v>1379</v>
       </c>
       <c r="C92" s="8">
-        <f>(AVERAGE(B86:B92))</f>
+        <f t="shared" ref="C92:C98" si="11">(AVERAGE(B86:B92))</f>
         <v>1500.4285714285713</v>
       </c>
       <c r="D92" s="8">
-        <f t="shared" si="23"/>
-        <v>1646.2142857142858</v>
-      </c>
-      <c r="E92" s="8">
-        <f t="shared" si="16"/>
+        <f>D93+B92</f>
         <v>417527</v>
       </c>
-      <c r="G92" s="8">
-        <f t="shared" si="20"/>
+      <c r="F92" s="8">
+        <f>D92/C92</f>
         <v>278.27182709701992</v>
       </c>
-      <c r="H92" s="9">
-        <f t="shared" si="18"/>
+      <c r="G92" s="9">
+        <f>A92+F92</f>
         <v>44555.271827097022</v>
       </c>
     </row>
-    <row r="93" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="7">
         <v>44278</v>
       </c>
@@ -2899,27 +2582,23 @@
         <v>1473</v>
       </c>
       <c r="C93" s="8">
-        <f>(AVERAGE(B87:B93))</f>
+        <f t="shared" si="11"/>
         <v>1466.8571428571429</v>
       </c>
       <c r="D93" s="8">
-        <f t="shared" si="23"/>
-        <v>1632.5714285714287</v>
-      </c>
-      <c r="E93" s="8">
-        <f>E94+B93</f>
+        <f>D94+B93</f>
         <v>416148</v>
       </c>
-      <c r="G93" s="8">
-        <f t="shared" si="20"/>
+      <c r="F93" s="8">
+        <f>D93/C93</f>
         <v>283.70042851577716</v>
       </c>
-      <c r="H93" s="9">
-        <f t="shared" si="18"/>
+      <c r="G93" s="9">
+        <f>A93+F93</f>
         <v>44561.700428515775</v>
       </c>
     </row>
-    <row r="94" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="7">
         <v>44279</v>
       </c>
@@ -2927,26 +2606,22 @@
         <v>3206</v>
       </c>
       <c r="C94" s="10">
-        <f>(AVERAGE(B88:B94))</f>
+        <f t="shared" si="11"/>
         <v>1709.5714285714287</v>
       </c>
       <c r="D94" s="8">
-        <f t="shared" si="23"/>
-        <v>1741.7857142857142</v>
-      </c>
-      <c r="E94" s="8">
         <v>414675</v>
       </c>
-      <c r="G94" s="8">
-        <f t="shared" si="20"/>
+      <c r="F94" s="8">
+        <f>D94/C94</f>
         <v>242.56079217849083</v>
       </c>
-      <c r="H94" s="9">
-        <f t="shared" si="18"/>
+      <c r="G94" s="9">
+        <f>A94+F94</f>
         <v>44521.56079217849</v>
       </c>
     </row>
-    <row r="95" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="7">
         <v>44280</v>
       </c>
@@ -2954,28 +2629,24 @@
         <v>3205</v>
       </c>
       <c r="C95" s="10">
-        <f>(AVERAGE(B89:B95))</f>
+        <f t="shared" si="11"/>
         <v>1949</v>
       </c>
       <c r="D95" s="8">
-        <f t="shared" si="23"/>
-        <v>1855.1428571428571</v>
-      </c>
-      <c r="E95" s="8">
-        <f>(E94-B95)</f>
+        <f>(D94-B95)</f>
         <v>411470</v>
       </c>
-      <c r="G95" s="8">
-        <f>E95/C95</f>
+      <c r="F95" s="8">
+        <f>D95/C95</f>
         <v>211.11852231913801</v>
       </c>
-      <c r="H95" s="9">
-        <f>A95+G95</f>
+      <c r="G95" s="9">
+        <f>A95+F95</f>
         <v>44491.118522319135</v>
       </c>
-      <c r="I95" s="10"/>
-    </row>
-    <row r="96" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H95" s="10"/>
+    </row>
+    <row r="96" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="7">
         <v>44281</v>
       </c>
@@ -2983,87 +2654,101 @@
         <v>2987</v>
       </c>
       <c r="C96" s="10">
-        <f>(AVERAGE(B90:B96))</f>
+        <f t="shared" si="11"/>
         <v>2166.5714285714284</v>
       </c>
       <c r="D96" s="8">
-        <f t="shared" ref="D96:D97" si="24">AVERAGE(B83:B96)</f>
-        <v>1936</v>
-      </c>
-      <c r="E96" s="8">
-        <f>(E95-B96)</f>
+        <f>(D95-B96)</f>
         <v>408483</v>
       </c>
-      <c r="G96" s="8">
-        <f>E96/C96</f>
+      <c r="F96" s="8">
+        <f>D96/C96</f>
         <v>188.53890280891468</v>
       </c>
-      <c r="H96" s="9">
-        <f>A96+G96</f>
+      <c r="G96" s="9">
+        <f>A96+F96</f>
         <v>44469.538902808912</v>
       </c>
-      <c r="I96" s="10"/>
-    </row>
-    <row r="97" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="6">
+      <c r="H96" s="10"/>
+    </row>
+    <row r="97" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="7">
         <v>44282</v>
       </c>
-      <c r="B97" s="4">
+      <c r="B97" s="8">
         <v>2951</v>
       </c>
-      <c r="C97" s="3">
-        <f>(AVERAGE(B91:B97))</f>
+      <c r="C97" s="10">
+        <f t="shared" si="11"/>
         <v>2371.1428571428573</v>
       </c>
-      <c r="D97" s="3">
-        <f t="shared" si="24"/>
-        <v>2018.6428571428571</v>
-      </c>
-      <c r="E97" s="4">
-        <f>(E96-B97)</f>
+      <c r="D97" s="8">
+        <f>(D96-B97)</f>
         <v>405532</v>
       </c>
-      <c r="G97" s="4">
-        <f>E97/C97</f>
+      <c r="F97" s="8">
+        <f>D97/C97</f>
         <v>171.02807567176768</v>
       </c>
-      <c r="H97" s="5">
-        <f>A97+G97</f>
+      <c r="G97" s="9">
+        <f>A97+F97</f>
         <v>44453.028075671769</v>
       </c>
-      <c r="I97" s="3">
-        <f>E97/84</f>
-        <v>4827.7619047619046</v>
-      </c>
-      <c r="J97" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98" s="1"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H97" s="10"/>
+    </row>
+    <row r="98" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="6">
+        <v>44283</v>
+      </c>
+      <c r="B98" s="4">
+        <v>2315</v>
+      </c>
+      <c r="C98" s="3">
+        <f>(AVERAGE(B92:B98))</f>
+        <v>2502.2857142857142</v>
+      </c>
+      <c r="D98" s="4">
+        <f>(D97-B98)</f>
+        <v>403217</v>
+      </c>
+      <c r="F98" s="4">
+        <f>D98/C98</f>
+        <v>161.1394724823019</v>
+      </c>
+      <c r="G98" s="5">
+        <f>A98+F98</f>
+        <v>44444.139472482304</v>
+      </c>
+      <c r="H98" s="3">
+        <f>D98/84</f>
+        <v>4800.2023809523807</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
     </row>
   </sheetData>

--- a/durham_daily_vaccinations.xlsx
+++ b/durham_daily_vaccinations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53227CA4-0971-194C-A09F-41FDA411C633}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3876489E-64A9-954A-9860-A262FE48D9C3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19620" xr2:uid="{D878B493-02AB-054E-B330-D20DF148DE7B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -113,7 +113,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -125,6 +125,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -443,8 +444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E82AD24-C064-B648-8062-B01E1A5F7A8D}">
   <dimension ref="A1:I106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="G101" sqref="G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -453,7 +454,7 @@
     <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.5" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -471,7 +472,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -486,9 +487,10 @@
         <v>47</v>
       </c>
       <c r="D2" s="8">
-        <f>D3+B2</f>
+        <f t="shared" ref="D2:D33" si="0">D3+B2</f>
         <v>483505</v>
       </c>
+      <c r="F2" s="10"/>
       <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -499,9 +501,10 @@
         <v>123</v>
       </c>
       <c r="D3" s="8">
-        <f>D4+B3</f>
+        <f t="shared" si="0"/>
         <v>483458</v>
       </c>
+      <c r="F3" s="10"/>
       <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -512,9 +515,10 @@
         <v>93</v>
       </c>
       <c r="D4" s="8">
-        <f>D5+B4</f>
+        <f t="shared" si="0"/>
         <v>483335</v>
       </c>
+      <c r="F4" s="10"/>
       <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -525,9 +529,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="8">
-        <f>D6+B5</f>
+        <f t="shared" si="0"/>
         <v>483242</v>
       </c>
+      <c r="F5" s="10"/>
       <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -538,9 +543,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="8">
-        <f>D7+B6</f>
+        <f t="shared" si="0"/>
         <v>483242</v>
       </c>
+      <c r="F6" s="10"/>
       <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -551,9 +557,10 @@
         <v>0</v>
       </c>
       <c r="D7" s="8">
-        <f>D8+B7</f>
+        <f t="shared" si="0"/>
         <v>483242</v>
       </c>
+      <c r="F7" s="10"/>
       <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -564,9 +571,10 @@
         <v>155</v>
       </c>
       <c r="D8" s="8">
-        <f>D9+B8</f>
+        <f t="shared" si="0"/>
         <v>483242</v>
       </c>
+      <c r="F8" s="10"/>
       <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -577,9 +585,10 @@
         <v>154</v>
       </c>
       <c r="D9" s="8">
-        <f>D10+B9</f>
+        <f t="shared" si="0"/>
         <v>483087</v>
       </c>
+      <c r="F9" s="10"/>
       <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -590,19 +599,19 @@
         <v>158</v>
       </c>
       <c r="C10" s="8">
-        <f t="shared" ref="C10" si="0">AVERAGE(B1:B10)</f>
+        <f t="shared" ref="C10" si="1">AVERAGE(B1:B10)</f>
         <v>81.111111111111114</v>
       </c>
       <c r="D10" s="8">
-        <f>D11+B10</f>
+        <f t="shared" si="0"/>
         <v>482933</v>
       </c>
-      <c r="F10" s="8">
-        <f>D10/C10</f>
+      <c r="F10" s="10">
+        <f t="shared" ref="F10:F41" si="2">D10/C10</f>
         <v>5953.9684931506845</v>
       </c>
       <c r="G10" s="9">
-        <f>A10+F10</f>
+        <f t="shared" ref="G10:G41" si="3">A10+F10</f>
         <v>50148.968493150685</v>
       </c>
     </row>
@@ -618,15 +627,15 @@
         <v>95.8</v>
       </c>
       <c r="D11" s="8">
-        <f>D12+B11</f>
+        <f t="shared" si="0"/>
         <v>482775</v>
       </c>
-      <c r="F11" s="8">
-        <f>D11/C11</f>
+      <c r="F11" s="10">
+        <f t="shared" si="2"/>
         <v>5039.4050104384132</v>
       </c>
       <c r="G11" s="9">
-        <f>A11+F11</f>
+        <f t="shared" si="3"/>
         <v>49235.405010438415</v>
       </c>
     </row>
@@ -642,15 +651,15 @@
         <v>113.4</v>
       </c>
       <c r="D12" s="8">
-        <f>D13+B12</f>
+        <f t="shared" si="0"/>
         <v>482547</v>
       </c>
-      <c r="F12" s="8">
-        <f>D12/C12</f>
+      <c r="F12" s="10">
+        <f t="shared" si="2"/>
         <v>4255.2645502645501</v>
       </c>
       <c r="G12" s="9">
-        <f>A12+F12</f>
+        <f t="shared" si="3"/>
         <v>48452.264550264546</v>
       </c>
     </row>
@@ -666,15 +675,15 @@
         <v>131.80000000000001</v>
       </c>
       <c r="D13" s="8">
-        <f>D14+B13</f>
+        <f t="shared" si="0"/>
         <v>482324</v>
       </c>
-      <c r="F13" s="8">
-        <f>D13/C13</f>
+      <c r="F13" s="10">
+        <f t="shared" si="2"/>
         <v>3659.5144157814866</v>
       </c>
       <c r="G13" s="9">
-        <f>A13+F13</f>
+        <f t="shared" si="3"/>
         <v>47857.514415781487</v>
       </c>
     </row>
@@ -686,19 +695,19 @@
         <v>234</v>
       </c>
       <c r="C14" s="8">
-        <f t="shared" ref="C14:C18" si="1">AVERAGE(B8:B14)</f>
+        <f t="shared" ref="C14:C18" si="4">AVERAGE(B8:B14)</f>
         <v>208.42857142857142</v>
       </c>
       <c r="D14" s="8">
-        <f>D15+B14</f>
+        <f t="shared" si="0"/>
         <v>482017</v>
       </c>
-      <c r="F14" s="8">
-        <f>D14/C14</f>
+      <c r="F14" s="10">
+        <f t="shared" si="2"/>
         <v>2312.6244002741605</v>
       </c>
       <c r="G14" s="9">
-        <f>A14+F14</f>
+        <f t="shared" si="3"/>
         <v>46511.624400274159</v>
       </c>
     </row>
@@ -710,19 +719,19 @@
         <v>225</v>
       </c>
       <c r="C15" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>218.42857142857142</v>
       </c>
       <c r="D15" s="8">
-        <f>D16+B15</f>
+        <f t="shared" si="0"/>
         <v>481783</v>
       </c>
-      <c r="F15" s="8">
-        <f>D15/C15</f>
+      <c r="F15" s="10">
+        <f t="shared" si="2"/>
         <v>2205.6775670372795</v>
       </c>
       <c r="G15" s="9">
-        <f>A15+F15</f>
+        <f t="shared" si="3"/>
         <v>46405.677567037281</v>
       </c>
     </row>
@@ -734,19 +743,19 @@
         <v>585</v>
       </c>
       <c r="C16" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>280</v>
       </c>
       <c r="D16" s="8">
-        <f>D17+B16</f>
+        <f t="shared" si="0"/>
         <v>481558</v>
       </c>
-      <c r="F16" s="8">
-        <f>D16/C16</f>
+      <c r="F16" s="10">
+        <f t="shared" si="2"/>
         <v>1719.85</v>
       </c>
       <c r="G16" s="9">
-        <f>A16+F16</f>
+        <f t="shared" si="3"/>
         <v>45920.85</v>
       </c>
     </row>
@@ -758,19 +767,19 @@
         <v>598</v>
       </c>
       <c r="C17" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>342.85714285714283</v>
       </c>
       <c r="D17" s="8">
-        <f>D18+B17</f>
+        <f t="shared" si="0"/>
         <v>480973</v>
       </c>
-      <c r="F17" s="8">
-        <f>D17/C17</f>
+      <c r="F17" s="10">
+        <f t="shared" si="2"/>
         <v>1402.8379166666668</v>
       </c>
       <c r="G17" s="9">
-        <f>A17+F17</f>
+        <f t="shared" si="3"/>
         <v>45604.837916666664</v>
       </c>
     </row>
@@ -782,19 +791,19 @@
         <v>855</v>
       </c>
       <c r="C18" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>432.42857142857144</v>
       </c>
       <c r="D18" s="8">
-        <f>D19+B18</f>
+        <f t="shared" si="0"/>
         <v>480375</v>
       </c>
-      <c r="F18" s="8">
-        <f>D18/C18</f>
+      <c r="F18" s="10">
+        <f t="shared" si="2"/>
         <v>1110.8771060455897</v>
       </c>
       <c r="G18" s="9">
-        <f>A18+F18</f>
+        <f t="shared" si="3"/>
         <v>45313.877106045591</v>
       </c>
     </row>
@@ -806,19 +815,19 @@
         <v>824</v>
       </c>
       <c r="C19" s="8">
-        <f t="shared" ref="C19:C24" si="2">AVERAGE(B13:B19)</f>
+        <f t="shared" ref="C19:C24" si="5">AVERAGE(B13:B19)</f>
         <v>518.28571428571433</v>
       </c>
       <c r="D19" s="8">
-        <f>D20+B19</f>
+        <f t="shared" si="0"/>
         <v>479520</v>
       </c>
-      <c r="F19" s="8">
-        <f>D19/C19</f>
+      <c r="F19" s="10">
+        <f t="shared" si="2"/>
         <v>925.20396912899662</v>
       </c>
       <c r="G19" s="9">
-        <f>A19+F19</f>
+        <f t="shared" si="3"/>
         <v>45129.203969128997</v>
       </c>
     </row>
@@ -830,19 +839,19 @@
         <v>858</v>
       </c>
       <c r="C20" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>597</v>
       </c>
       <c r="D20" s="8">
-        <f>D21+B20</f>
+        <f t="shared" si="0"/>
         <v>478696</v>
       </c>
-      <c r="F20" s="8">
-        <f>D20/C20</f>
+      <c r="F20" s="10">
+        <f t="shared" si="2"/>
         <v>801.83584589614736</v>
       </c>
       <c r="G20" s="9">
-        <f>A20+F20</f>
+        <f t="shared" si="3"/>
         <v>45006.835845896145</v>
       </c>
     </row>
@@ -854,19 +863,19 @@
         <v>927</v>
       </c>
       <c r="C21" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>696</v>
       </c>
       <c r="D21" s="8">
-        <f>D22+B21</f>
+        <f t="shared" si="0"/>
         <v>477838</v>
       </c>
-      <c r="F21" s="8">
-        <f>D21/C21</f>
+      <c r="F21" s="10">
+        <f t="shared" si="2"/>
         <v>686.54885057471267</v>
       </c>
       <c r="G21" s="9">
-        <f>A21+F21</f>
+        <f t="shared" si="3"/>
         <v>44892.548850574713</v>
       </c>
     </row>
@@ -878,19 +887,19 @@
         <v>1030</v>
       </c>
       <c r="C22" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>811</v>
       </c>
       <c r="D22" s="8">
-        <f>D23+B22</f>
+        <f t="shared" si="0"/>
         <v>476911</v>
       </c>
-      <c r="F22" s="8">
-        <f>D22/C22</f>
+      <c r="F22" s="10">
+        <f t="shared" si="2"/>
         <v>588.05302096177559</v>
       </c>
       <c r="G22" s="9">
-        <f>A22+F22</f>
+        <f t="shared" si="3"/>
         <v>44795.053020961779</v>
       </c>
     </row>
@@ -902,19 +911,19 @@
         <v>1403</v>
       </c>
       <c r="C23" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>927.85714285714289</v>
       </c>
       <c r="D23" s="8">
-        <f>D24+B23</f>
+        <f t="shared" si="0"/>
         <v>475881</v>
       </c>
-      <c r="F23" s="8">
-        <f>D23/C23</f>
+      <c r="F23" s="10">
+        <f t="shared" si="2"/>
         <v>512.88175519630488</v>
       </c>
       <c r="G23" s="9">
-        <f>A23+F23</f>
+        <f t="shared" si="3"/>
         <v>44720.881755196307</v>
       </c>
     </row>
@@ -926,19 +935,19 @@
         <v>1043</v>
       </c>
       <c r="C24" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>991.42857142857144</v>
       </c>
       <c r="D24" s="8">
-        <f>D25+B24</f>
+        <f t="shared" si="0"/>
         <v>474478</v>
       </c>
-      <c r="F24" s="8">
-        <f>D24/C24</f>
+      <c r="F24" s="10">
+        <f t="shared" si="2"/>
         <v>478.58011527377522</v>
       </c>
       <c r="G24" s="9">
-        <f>A24+F24</f>
+        <f t="shared" si="3"/>
         <v>44687.580115273777</v>
       </c>
     </row>
@@ -950,19 +959,19 @@
         <v>1074</v>
       </c>
       <c r="C25" s="8">
-        <f t="shared" ref="C25:C49" si="3">AVERAGE(B19:B25)</f>
+        <f t="shared" ref="C25:C49" si="6">AVERAGE(B19:B25)</f>
         <v>1022.7142857142857</v>
       </c>
       <c r="D25" s="8">
-        <f>D26+B25</f>
+        <f t="shared" si="0"/>
         <v>473435</v>
       </c>
-      <c r="F25" s="8">
-        <f>D25/C25</f>
+      <c r="F25" s="10">
+        <f t="shared" si="2"/>
         <v>462.92010057270573</v>
       </c>
       <c r="G25" s="9">
-        <f>A25+F25</f>
+        <f t="shared" si="3"/>
         <v>44672.920100572708</v>
       </c>
     </row>
@@ -974,19 +983,19 @@
         <v>922</v>
       </c>
       <c r="C26" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1036.7142857142858</v>
       </c>
       <c r="D26" s="8">
-        <f>D27+B26</f>
+        <f t="shared" si="0"/>
         <v>472361</v>
       </c>
-      <c r="F26" s="8">
-        <f>D26/C26</f>
+      <c r="F26" s="10">
+        <f t="shared" si="2"/>
         <v>455.6327683615819</v>
       </c>
       <c r="G26" s="9">
-        <f>A26+F26</f>
+        <f t="shared" si="3"/>
         <v>44666.632768361582</v>
       </c>
     </row>
@@ -998,19 +1007,19 @@
         <v>291</v>
       </c>
       <c r="C27" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>955.71428571428567</v>
       </c>
       <c r="D27" s="8">
-        <f>D28+B27</f>
+        <f t="shared" si="0"/>
         <v>471439</v>
       </c>
-      <c r="F27" s="8">
-        <f>D27/C27</f>
+      <c r="F27" s="10">
+        <f t="shared" si="2"/>
         <v>493.28445440956654</v>
       </c>
       <c r="G27" s="9">
-        <f>A27+F27</f>
+        <f t="shared" si="3"/>
         <v>44705.284454409564</v>
       </c>
     </row>
@@ -1022,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="C28" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>823.28571428571433</v>
       </c>
       <c r="D28" s="8">
-        <f>D29+B28</f>
+        <f t="shared" si="0"/>
         <v>471148</v>
       </c>
-      <c r="F28" s="8">
-        <f>D28/C28</f>
+      <c r="F28" s="10">
+        <f t="shared" si="2"/>
         <v>572.2776331771646</v>
       </c>
       <c r="G28" s="9">
-        <f>A28+F28</f>
+        <f t="shared" si="3"/>
         <v>44785.277633177167</v>
       </c>
     </row>
@@ -1046,19 +1055,19 @@
         <v>601</v>
       </c>
       <c r="C29" s="8">
-        <f t="shared" ref="C29:C34" si="4">AVERAGE(B22:B29)</f>
+        <f t="shared" ref="C29:C34" si="7">AVERAGE(B22:B29)</f>
         <v>795.5</v>
       </c>
       <c r="D29" s="8">
-        <f>D30+B29</f>
+        <f t="shared" si="0"/>
         <v>471148</v>
       </c>
-      <c r="F29" s="8">
-        <f>D29/C29</f>
+      <c r="F29" s="10">
+        <f t="shared" si="2"/>
         <v>592.26649905719671</v>
       </c>
       <c r="G29" s="9">
-        <f>A29+F29</f>
+        <f t="shared" si="3"/>
         <v>44806.266499057194</v>
       </c>
     </row>
@@ -1070,19 +1079,19 @@
         <v>831</v>
       </c>
       <c r="C30" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>770.625</v>
       </c>
       <c r="D30" s="8">
-        <f>D31+B30</f>
+        <f t="shared" si="0"/>
         <v>470547</v>
       </c>
-      <c r="F30" s="8">
-        <f>D30/C30</f>
+      <c r="F30" s="10">
+        <f t="shared" si="2"/>
         <v>610.60437956204385</v>
       </c>
       <c r="G30" s="9">
-        <f>A30+F30</f>
+        <f t="shared" si="3"/>
         <v>44825.604379562043</v>
       </c>
     </row>
@@ -1094,19 +1103,19 @@
         <v>603</v>
       </c>
       <c r="C31" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>670.625</v>
       </c>
       <c r="D31" s="8">
-        <f>D32+B31</f>
+        <f t="shared" si="0"/>
         <v>469716</v>
       </c>
-      <c r="F31" s="8">
-        <f>D31/C31</f>
+      <c r="F31" s="10">
+        <f t="shared" si="2"/>
         <v>700.41528424976696</v>
       </c>
       <c r="G31" s="9">
-        <f>A31+F31</f>
+        <f t="shared" si="3"/>
         <v>44916.415284249764</v>
       </c>
     </row>
@@ -1118,19 +1127,19 @@
         <v>514</v>
       </c>
       <c r="C32" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>604.5</v>
       </c>
       <c r="D32" s="8">
-        <f>D33+B32</f>
+        <f t="shared" si="0"/>
         <v>469113</v>
       </c>
-      <c r="F32" s="8">
-        <f>D32/C32</f>
+      <c r="F32" s="10">
+        <f t="shared" si="2"/>
         <v>776.03473945409428</v>
       </c>
       <c r="G32" s="9">
-        <f>A32+F32</f>
+        <f t="shared" si="3"/>
         <v>44993.034739454095</v>
       </c>
     </row>
@@ -1142,19 +1151,19 @@
         <v>278</v>
       </c>
       <c r="C33" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>505</v>
       </c>
       <c r="D33" s="8">
-        <f>D34+B33</f>
+        <f t="shared" si="0"/>
         <v>468599</v>
       </c>
-      <c r="F33" s="8">
-        <f>D33/C33</f>
+      <c r="F33" s="10">
+        <f t="shared" si="2"/>
         <v>927.91881188118816</v>
       </c>
       <c r="G33" s="9">
-        <f>A33+F33</f>
+        <f t="shared" si="3"/>
         <v>45145.918811881187</v>
       </c>
     </row>
@@ -1166,19 +1175,19 @@
         <v>261</v>
       </c>
       <c r="C34" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>422.375</v>
       </c>
       <c r="D34" s="8">
-        <f>D35+B34</f>
+        <f t="shared" ref="D34:D65" si="8">D35+B34</f>
         <v>468321</v>
       </c>
-      <c r="F34" s="8">
-        <f>D34/C34</f>
+      <c r="F34" s="10">
+        <f t="shared" si="2"/>
         <v>1108.7801124593075</v>
       </c>
       <c r="G34" s="9">
-        <f>A34+F34</f>
+        <f t="shared" si="3"/>
         <v>45327.78011245931</v>
       </c>
     </row>
@@ -1190,19 +1199,19 @@
         <v>220</v>
       </c>
       <c r="C35" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>472.57142857142856</v>
       </c>
       <c r="D35" s="8">
-        <f>D36+B35</f>
+        <f t="shared" si="8"/>
         <v>468060</v>
       </c>
-      <c r="F35" s="8">
-        <f>D35/C35</f>
+      <c r="F35" s="10">
+        <f t="shared" si="2"/>
         <v>990.45344619105208</v>
       </c>
       <c r="G35" s="9">
-        <f>A35+F35</f>
+        <f t="shared" si="3"/>
         <v>45210.453446191052</v>
       </c>
     </row>
@@ -1214,19 +1223,19 @@
         <v>250</v>
       </c>
       <c r="C36" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>422.42857142857144</v>
       </c>
       <c r="D36" s="8">
-        <f>D37+B36</f>
+        <f t="shared" si="8"/>
         <v>467840</v>
       </c>
-      <c r="F36" s="8">
-        <f>D36/C36</f>
+      <c r="F36" s="10">
+        <f t="shared" si="2"/>
         <v>1107.5008454514712</v>
       </c>
       <c r="G36" s="9">
-        <f>A36+F36</f>
+        <f t="shared" si="3"/>
         <v>45328.500845451468</v>
       </c>
     </row>
@@ -1238,19 +1247,19 @@
         <v>506</v>
       </c>
       <c r="C37" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>376</v>
       </c>
       <c r="D37" s="8">
-        <f>D38+B37</f>
+        <f t="shared" si="8"/>
         <v>467590</v>
       </c>
-      <c r="F37" s="8">
-        <f>D37/C37</f>
+      <c r="F37" s="10">
+        <f t="shared" si="2"/>
         <v>1243.5904255319149</v>
       </c>
       <c r="G37" s="9">
-        <f>A37+F37</f>
+        <f t="shared" si="3"/>
         <v>45465.590425531918</v>
       </c>
     </row>
@@ -1262,19 +1271,19 @@
         <v>569</v>
       </c>
       <c r="C38" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>371.14285714285717</v>
       </c>
       <c r="D38" s="8">
-        <f>D39+B38</f>
+        <f t="shared" si="8"/>
         <v>467084</v>
       </c>
-      <c r="F38" s="8">
-        <f>D38/C38</f>
+      <c r="F38" s="10">
+        <f t="shared" si="2"/>
         <v>1258.5019245573517</v>
       </c>
       <c r="G38" s="9">
-        <f>A38+F38</f>
+        <f t="shared" si="3"/>
         <v>45481.501924557349</v>
       </c>
     </row>
@@ -1286,19 +1295,19 @@
         <v>192</v>
       </c>
       <c r="C39" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>325.14285714285717</v>
       </c>
       <c r="D39" s="8">
-        <f>D40+B39</f>
+        <f t="shared" si="8"/>
         <v>466515</v>
       </c>
-      <c r="F39" s="8">
-        <f>D39/C39</f>
+      <c r="F39" s="10">
+        <f t="shared" si="2"/>
         <v>1434.8000878734622</v>
       </c>
       <c r="G39" s="9">
-        <f>A39+F39</f>
+        <f t="shared" si="3"/>
         <v>45658.80008787346</v>
       </c>
     </row>
@@ -1310,19 +1319,19 @@
         <v>59</v>
       </c>
       <c r="C40" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>293.85714285714283</v>
       </c>
       <c r="D40" s="8">
-        <f>D41+B40</f>
+        <f t="shared" si="8"/>
         <v>466323</v>
       </c>
-      <c r="F40" s="8">
-        <f>D40/C40</f>
+      <c r="F40" s="10">
+        <f t="shared" si="2"/>
         <v>1586.9037433155081</v>
       </c>
       <c r="G40" s="9">
-        <f>A40+F40</f>
+        <f t="shared" si="3"/>
         <v>45811.90374331551</v>
       </c>
     </row>
@@ -1334,19 +1343,19 @@
         <v>0</v>
       </c>
       <c r="C41" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>256.57142857142856</v>
       </c>
       <c r="D41" s="8">
-        <f>D42+B41</f>
+        <f t="shared" si="8"/>
         <v>466264</v>
       </c>
-      <c r="F41" s="8">
-        <f>D41/C41</f>
+      <c r="F41" s="10">
+        <f t="shared" si="2"/>
         <v>1817.2873051224944</v>
       </c>
       <c r="G41" s="9">
-        <f>A41+F41</f>
+        <f t="shared" si="3"/>
         <v>46043.287305122496</v>
       </c>
     </row>
@@ -1358,19 +1367,19 @@
         <v>0</v>
       </c>
       <c r="C42" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>225.14285714285714</v>
       </c>
       <c r="D42" s="8">
-        <f>D43+B42</f>
+        <f t="shared" si="8"/>
         <v>466264</v>
       </c>
-      <c r="F42" s="8">
-        <f>D42/C42</f>
+      <c r="F42" s="10">
+        <f t="shared" ref="F42:F73" si="9">D42/C42</f>
         <v>2070.9695431472082</v>
       </c>
       <c r="G42" s="9">
-        <f>A42+F42</f>
+        <f t="shared" ref="G42:G73" si="10">A42+F42</f>
         <v>46297.969543147206</v>
       </c>
     </row>
@@ -1382,19 +1391,19 @@
         <v>261</v>
       </c>
       <c r="C43" s="8">
-        <f t="shared" ref="C43:C48" si="5">AVERAGE(B35:B43)</f>
+        <f t="shared" ref="C43:C48" si="11">AVERAGE(B35:B43)</f>
         <v>228.55555555555554</v>
       </c>
       <c r="D43" s="8">
-        <f>D44+B43</f>
+        <f t="shared" si="8"/>
         <v>466264</v>
       </c>
-      <c r="F43" s="8">
-        <f>D43/C43</f>
+      <c r="F43" s="10">
+        <f t="shared" si="9"/>
         <v>2040.0466699076326</v>
       </c>
       <c r="G43" s="9">
-        <f>A43+F43</f>
+        <f t="shared" si="10"/>
         <v>46268.046669907635</v>
       </c>
     </row>
@@ -1406,19 +1415,19 @@
         <v>340</v>
       </c>
       <c r="C44" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>241.88888888888889</v>
       </c>
       <c r="D44" s="8">
-        <f>D45+B44</f>
+        <f t="shared" si="8"/>
         <v>466003</v>
       </c>
-      <c r="F44" s="8">
-        <f>D44/C44</f>
+      <c r="F44" s="10">
+        <f t="shared" si="9"/>
         <v>1926.5167661920075</v>
       </c>
       <c r="G44" s="9">
-        <f>A44+F44</f>
+        <f t="shared" si="10"/>
         <v>46155.516766192006</v>
       </c>
     </row>
@@ -1430,19 +1439,19 @@
         <v>452</v>
       </c>
       <c r="C45" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>264.33333333333331</v>
       </c>
       <c r="D45" s="8">
-        <f>D46+B45</f>
+        <f t="shared" si="8"/>
         <v>465663</v>
       </c>
-      <c r="F45" s="8">
-        <f>D45/C45</f>
+      <c r="F45" s="10">
+        <f t="shared" si="9"/>
         <v>1761.6506935687264</v>
       </c>
       <c r="G45" s="9">
-        <f>A45+F45</f>
+        <f t="shared" si="10"/>
         <v>45991.650693568728</v>
       </c>
     </row>
@@ -1454,19 +1463,19 @@
         <v>264</v>
       </c>
       <c r="C46" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>237.44444444444446</v>
       </c>
       <c r="D46" s="8">
-        <f>D47+B46</f>
+        <f t="shared" si="8"/>
         <v>465211</v>
       </c>
-      <c r="F46" s="8">
-        <f>D46/C46</f>
+      <c r="F46" s="10">
+        <f t="shared" si="9"/>
         <v>1959.241459990641</v>
       </c>
       <c r="G46" s="9">
-        <f>A46+F46</f>
+        <f t="shared" si="10"/>
         <v>46190.241459990641</v>
       </c>
     </row>
@@ -1478,19 +1487,19 @@
         <v>512</v>
       </c>
       <c r="C47" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>231.11111111111111</v>
       </c>
       <c r="D47" s="8">
-        <f>D48+B47</f>
+        <f t="shared" si="8"/>
         <v>464947</v>
       </c>
-      <c r="F47" s="8">
-        <f>D47/C47</f>
+      <c r="F47" s="10">
+        <f t="shared" si="9"/>
         <v>2011.7899038461537</v>
       </c>
       <c r="G47" s="9">
-        <f>A47+F47</f>
+        <f t="shared" si="10"/>
         <v>46243.789903846155</v>
       </c>
     </row>
@@ -1502,19 +1511,19 @@
         <v>512</v>
       </c>
       <c r="C48" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>266.66666666666669</v>
       </c>
       <c r="D48" s="8">
-        <f>D49+B48</f>
+        <f t="shared" si="8"/>
         <v>464435</v>
       </c>
-      <c r="F48" s="8">
-        <f>D48/C48</f>
+      <c r="F48" s="10">
+        <f t="shared" si="9"/>
         <v>1741.6312499999999</v>
       </c>
       <c r="G48" s="9">
-        <f>A48+F48</f>
+        <f t="shared" si="10"/>
         <v>45974.631249999999</v>
       </c>
     </row>
@@ -1526,19 +1535,19 @@
         <v>515</v>
       </c>
       <c r="C49" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>408</v>
       </c>
       <c r="D49" s="8">
-        <f>D50+B49</f>
+        <f t="shared" si="8"/>
         <v>463923</v>
       </c>
-      <c r="F49" s="8">
-        <f>D49/C49</f>
+      <c r="F49" s="10">
+        <f t="shared" si="9"/>
         <v>1137.0661764705883</v>
       </c>
       <c r="G49" s="9">
-        <f>A49+F49</f>
+        <f t="shared" si="10"/>
         <v>45371.066176470587</v>
       </c>
     </row>
@@ -1550,19 +1559,19 @@
         <v>539</v>
       </c>
       <c r="C50" s="8">
-        <f t="shared" ref="C50:C69" si="6">AVERAGE(B44:B50)</f>
+        <f t="shared" ref="C50:C69" si="12">AVERAGE(B44:B50)</f>
         <v>447.71428571428572</v>
       </c>
       <c r="D50" s="8">
-        <f>D51+B50</f>
+        <f t="shared" si="8"/>
         <v>463408</v>
       </c>
-      <c r="F50" s="8">
-        <f>D50/C50</f>
+      <c r="F50" s="10">
+        <f t="shared" si="9"/>
         <v>1035.0529674537331</v>
       </c>
       <c r="G50" s="9">
-        <f>A50+F50</f>
+        <f t="shared" si="10"/>
         <v>45270.052967453732</v>
       </c>
     </row>
@@ -1574,19 +1583,19 @@
         <v>602</v>
       </c>
       <c r="C51" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>485.14285714285717</v>
       </c>
       <c r="D51" s="8">
-        <f>D52+B51</f>
+        <f t="shared" si="8"/>
         <v>462869</v>
       </c>
-      <c r="F51" s="8">
-        <f>D51/C51</f>
+      <c r="F51" s="10">
+        <f t="shared" si="9"/>
         <v>954.08804475853935</v>
       </c>
       <c r="G51" s="9">
-        <f>A51+F51</f>
+        <f t="shared" si="10"/>
         <v>45190.088044758537</v>
       </c>
     </row>
@@ -1598,19 +1607,19 @@
         <v>417</v>
       </c>
       <c r="C52" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>480.14285714285717</v>
       </c>
       <c r="D52" s="8">
-        <f>D53+B52</f>
+        <f t="shared" si="8"/>
         <v>462267</v>
       </c>
-      <c r="F52" s="8">
-        <f>D52/C52</f>
+      <c r="F52" s="10">
+        <f t="shared" si="9"/>
         <v>962.76971139541797</v>
       </c>
       <c r="G52" s="9">
-        <f>A52+F52</f>
+        <f t="shared" si="10"/>
         <v>45199.76971139542</v>
       </c>
     </row>
@@ -1622,19 +1631,19 @@
         <v>619</v>
       </c>
       <c r="C53" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>530.85714285714289</v>
       </c>
       <c r="D53" s="8">
-        <f>D54+B53</f>
+        <f t="shared" si="8"/>
         <v>461850</v>
       </c>
-      <c r="F53" s="8">
-        <f>D53/C53</f>
+      <c r="F53" s="10">
+        <f t="shared" si="9"/>
         <v>870.00807319698595</v>
       </c>
       <c r="G53" s="9">
-        <f>A53+F53</f>
+        <f t="shared" si="10"/>
         <v>45108.008073196987</v>
       </c>
     </row>
@@ -1646,19 +1655,19 @@
         <v>627</v>
       </c>
       <c r="C54" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>547.28571428571433</v>
       </c>
       <c r="D54" s="8">
-        <f>D55+B54</f>
+        <f t="shared" si="8"/>
         <v>461231</v>
       </c>
-      <c r="F54" s="8">
-        <f>D54/C54</f>
+      <c r="F54" s="10">
+        <f t="shared" si="9"/>
         <v>842.76089793787514</v>
       </c>
       <c r="G54" s="9">
-        <f>A54+F54</f>
+        <f t="shared" si="10"/>
         <v>45081.760897937878</v>
       </c>
     </row>
@@ -1670,19 +1679,19 @@
         <v>575</v>
       </c>
       <c r="C55" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>556.28571428571433</v>
       </c>
       <c r="D55" s="8">
-        <f>D56+B55</f>
+        <f t="shared" si="8"/>
         <v>460604</v>
       </c>
-      <c r="F55" s="8">
-        <f>D55/C55</f>
+      <c r="F55" s="10">
+        <f t="shared" si="9"/>
         <v>827.99897277863374</v>
       </c>
       <c r="G55" s="9">
-        <f>A55+F55</f>
+        <f t="shared" si="10"/>
         <v>45067.998972778631</v>
       </c>
     </row>
@@ -1694,19 +1703,19 @@
         <v>412</v>
       </c>
       <c r="C56" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>541.57142857142856</v>
       </c>
       <c r="D56" s="8">
-        <f>D57+B56</f>
+        <f t="shared" si="8"/>
         <v>460029</v>
       </c>
-      <c r="F56" s="8">
-        <f>D56/C56</f>
+      <c r="F56" s="10">
+        <f t="shared" si="9"/>
         <v>849.43365866525983</v>
       </c>
       <c r="G56" s="9">
-        <f>A56+F56</f>
+        <f t="shared" si="10"/>
         <v>45090.433658665257</v>
       </c>
     </row>
@@ -1718,19 +1727,19 @@
         <v>0</v>
       </c>
       <c r="C57" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>464.57142857142856</v>
       </c>
       <c r="D57" s="8">
-        <f>D58+B57</f>
+        <f t="shared" si="8"/>
         <v>459617</v>
       </c>
-      <c r="F57" s="8">
-        <f>D57/C57</f>
+      <c r="F57" s="10">
+        <f t="shared" si="9"/>
         <v>989.33548585485858</v>
       </c>
       <c r="G57" s="9">
-        <f>A57+F57</f>
+        <f t="shared" si="10"/>
         <v>45231.335485854856</v>
       </c>
     </row>
@@ -1742,19 +1751,19 @@
         <v>560</v>
       </c>
       <c r="C58" s="8">
-        <f t="shared" ref="C58:C63" si="7">AVERAGE(B51:B58)</f>
+        <f t="shared" ref="C58:C63" si="13">AVERAGE(B51:B58)</f>
         <v>476.5</v>
       </c>
       <c r="D58" s="8">
-        <f>D59+B58</f>
+        <f t="shared" si="8"/>
         <v>459617</v>
       </c>
-      <c r="F58" s="8">
-        <f>D58/C58</f>
+      <c r="F58" s="10">
+        <f t="shared" si="9"/>
         <v>964.56873032528858</v>
       </c>
       <c r="G58" s="9">
-        <f>A58+F58</f>
+        <f t="shared" si="10"/>
         <v>45207.568730325285</v>
       </c>
     </row>
@@ -1766,19 +1775,19 @@
         <v>599</v>
       </c>
       <c r="C59" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>476.125</v>
       </c>
       <c r="D59" s="8">
-        <f>D60+B59</f>
+        <f t="shared" si="8"/>
         <v>459057</v>
       </c>
-      <c r="F59" s="8">
-        <f>D59/C59</f>
+      <c r="F59" s="10">
+        <f t="shared" si="9"/>
         <v>964.15227093725389</v>
       </c>
       <c r="G59" s="9">
-        <f>A59+F59</f>
+        <f t="shared" si="10"/>
         <v>45208.152270937251</v>
       </c>
     </row>
@@ -1790,19 +1799,19 @@
         <v>999</v>
       </c>
       <c r="C60" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>548.875</v>
       </c>
       <c r="D60" s="8">
-        <f>D61+B60</f>
+        <f t="shared" si="8"/>
         <v>458458</v>
       </c>
-      <c r="F60" s="8">
-        <f>D60/C60</f>
+      <c r="F60" s="10">
+        <f t="shared" si="9"/>
         <v>835.26850375768618</v>
       </c>
       <c r="G60" s="9">
-        <f>A60+F60</f>
+        <f t="shared" si="10"/>
         <v>45080.268503757688</v>
       </c>
     </row>
@@ -1814,19 +1823,19 @@
         <v>1120</v>
       </c>
       <c r="C61" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>611.5</v>
       </c>
       <c r="D61" s="8">
-        <f>D62+B61</f>
+        <f t="shared" si="8"/>
         <v>457459</v>
       </c>
-      <c r="F61" s="8">
-        <f>D61/C61</f>
+      <c r="F61" s="10">
+        <f t="shared" si="9"/>
         <v>748.09321340964846</v>
       </c>
       <c r="G61" s="9">
-        <f>A61+F61</f>
+        <f t="shared" si="10"/>
         <v>44994.093213409651</v>
       </c>
     </row>
@@ -1838,19 +1847,19 @@
         <v>645</v>
       </c>
       <c r="C62" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>613.75</v>
       </c>
       <c r="D62" s="8">
-        <f>D63+B62</f>
+        <f t="shared" si="8"/>
         <v>456339</v>
       </c>
-      <c r="F62" s="8">
-        <f>D62/C62</f>
+      <c r="F62" s="10">
+        <f t="shared" si="9"/>
         <v>743.52586558044811</v>
       </c>
       <c r="G62" s="9">
-        <f>A62+F62</f>
+        <f t="shared" si="10"/>
         <v>44990.52586558045</v>
       </c>
     </row>
@@ -1862,19 +1871,19 @@
         <v>818</v>
       </c>
       <c r="C63" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>644.125</v>
       </c>
       <c r="D63" s="8">
-        <f>D64+B63</f>
+        <f t="shared" si="8"/>
         <v>455694</v>
       </c>
-      <c r="F63" s="8">
-        <f>D63/C63</f>
+      <c r="F63" s="10">
+        <f t="shared" si="9"/>
         <v>707.46206093537739</v>
       </c>
       <c r="G63" s="9">
-        <f>A63+F63</f>
+        <f t="shared" si="10"/>
         <v>44955.462060935381</v>
       </c>
     </row>
@@ -1886,19 +1895,19 @@
         <v>482</v>
       </c>
       <c r="C64" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>746.14285714285711</v>
       </c>
       <c r="D64" s="8">
-        <f>D65+B64</f>
+        <f t="shared" si="8"/>
         <v>454876</v>
       </c>
-      <c r="F64" s="8">
-        <f>D64/C64</f>
+      <c r="F64" s="10">
+        <f t="shared" si="9"/>
         <v>609.63660731380435</v>
       </c>
       <c r="G64" s="9">
-        <f>A64+F64</f>
+        <f t="shared" si="10"/>
         <v>44858.636607313805</v>
       </c>
     </row>
@@ -1910,19 +1919,19 @@
         <v>816</v>
       </c>
       <c r="C65" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>782.71428571428567</v>
       </c>
       <c r="D65" s="8">
-        <f>D66+B65</f>
+        <f t="shared" si="8"/>
         <v>454394</v>
       </c>
-      <c r="F65" s="8">
-        <f>D65/C65</f>
+      <c r="F65" s="10">
+        <f t="shared" si="9"/>
         <v>580.53622923891226</v>
       </c>
       <c r="G65" s="9">
-        <f>A65+F65</f>
+        <f t="shared" si="10"/>
         <v>44830.536229238911</v>
       </c>
     </row>
@@ -1934,19 +1943,19 @@
         <v>646</v>
       </c>
       <c r="C66" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>789.42857142857144</v>
       </c>
       <c r="D66" s="8">
-        <f>D67+B66</f>
+        <f t="shared" ref="D66:D93" si="14">D67+B66</f>
         <v>453578</v>
       </c>
-      <c r="F66" s="8">
-        <f>D66/C66</f>
+      <c r="F66" s="10">
+        <f t="shared" si="9"/>
         <v>574.56496561708286</v>
       </c>
       <c r="G66" s="9">
-        <f>A66+F66</f>
+        <f t="shared" si="10"/>
         <v>44825.564965617086</v>
       </c>
     </row>
@@ -1958,19 +1967,19 @@
         <v>656</v>
       </c>
       <c r="C67" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>740.42857142857144</v>
       </c>
       <c r="D67" s="8">
-        <f>D68+B67</f>
+        <f t="shared" si="14"/>
         <v>452932</v>
       </c>
-      <c r="F67" s="8">
-        <f>D67/C67</f>
+      <c r="F67" s="10">
+        <f t="shared" si="9"/>
         <v>611.71599459772335</v>
       </c>
       <c r="G67" s="9">
-        <f>A67+F67</f>
+        <f t="shared" si="10"/>
         <v>44863.715994597726</v>
       </c>
     </row>
@@ -1982,19 +1991,19 @@
         <v>757</v>
       </c>
       <c r="C68" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>688.57142857142856</v>
       </c>
       <c r="D68" s="8">
-        <f>D69+B68</f>
+        <f t="shared" si="14"/>
         <v>452276</v>
       </c>
-      <c r="F68" s="8">
-        <f>D68/C68</f>
+      <c r="F68" s="10">
+        <f t="shared" si="9"/>
         <v>656.83236514522821</v>
       </c>
       <c r="G68" s="9">
-        <f>A68+F68</f>
+        <f t="shared" si="10"/>
         <v>44909.83236514523</v>
       </c>
     </row>
@@ -2006,19 +2015,19 @@
         <v>682</v>
       </c>
       <c r="C69" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>693.85714285714289</v>
       </c>
       <c r="D69" s="8">
-        <f>D70+B69</f>
+        <f t="shared" si="14"/>
         <v>451519</v>
       </c>
-      <c r="F69" s="8">
-        <f>D69/C69</f>
+      <c r="F69" s="10">
+        <f t="shared" si="9"/>
         <v>650.73769816759318</v>
       </c>
       <c r="G69" s="9">
-        <f>A69+F69</f>
+        <f t="shared" si="10"/>
         <v>44904.737698167592</v>
       </c>
     </row>
@@ -2030,19 +2039,19 @@
         <v>687</v>
       </c>
       <c r="C70" s="8">
-        <f t="shared" ref="C70:C75" si="8">AVERAGE(B64:B70)</f>
+        <f t="shared" ref="C70:C75" si="15">AVERAGE(B64:B70)</f>
         <v>675.14285714285711</v>
       </c>
       <c r="D70" s="8">
-        <f>D71+B70</f>
+        <f t="shared" si="14"/>
         <v>450837</v>
       </c>
-      <c r="F70" s="8">
-        <f>D70/C70</f>
+      <c r="F70" s="10">
+        <f t="shared" si="9"/>
         <v>667.76534066864156</v>
       </c>
       <c r="G70" s="9">
-        <f>A70+F70</f>
+        <f t="shared" si="10"/>
         <v>44922.765340668644</v>
       </c>
     </row>
@@ -2054,19 +2063,19 @@
         <v>584</v>
       </c>
       <c r="C71" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>689.71428571428567</v>
       </c>
       <c r="D71" s="8">
-        <f>D72+B71</f>
+        <f t="shared" si="14"/>
         <v>450150</v>
       </c>
-      <c r="F71" s="8">
-        <f>D71/C71</f>
+      <c r="F71" s="10">
+        <f t="shared" si="9"/>
         <v>652.66155758077889</v>
       </c>
       <c r="G71" s="9">
-        <f>A71+F71</f>
+        <f t="shared" si="10"/>
         <v>44908.661557580781</v>
       </c>
     </row>
@@ -2078,19 +2087,19 @@
         <v>1093</v>
       </c>
       <c r="C72" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>729.28571428571433</v>
       </c>
       <c r="D72" s="8">
-        <f>D73+B72</f>
+        <f t="shared" si="14"/>
         <v>449566</v>
       </c>
-      <c r="F72" s="8">
-        <f>D72/C72</f>
+      <c r="F72" s="10">
+        <f t="shared" si="9"/>
         <v>616.44701273261501</v>
       </c>
       <c r="G72" s="9">
-        <f>A72+F72</f>
+        <f t="shared" si="10"/>
         <v>44873.447012732613</v>
       </c>
     </row>
@@ -2102,19 +2111,19 @@
         <v>1173</v>
       </c>
       <c r="C73" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>804.57142857142856</v>
       </c>
       <c r="D73" s="8">
-        <f>D74+B73</f>
+        <f t="shared" si="14"/>
         <v>448473</v>
       </c>
-      <c r="F73" s="8">
-        <f>D73/C73</f>
+      <c r="F73" s="10">
+        <f t="shared" si="9"/>
         <v>557.40607244318187</v>
       </c>
       <c r="G73" s="9">
-        <f>A73+F73</f>
+        <f t="shared" si="10"/>
         <v>44815.406072443184</v>
       </c>
     </row>
@@ -2126,19 +2135,19 @@
         <v>1997</v>
       </c>
       <c r="C74" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>996.14285714285711</v>
       </c>
       <c r="D74" s="8">
-        <f>D75+B74</f>
+        <f t="shared" si="14"/>
         <v>447300</v>
       </c>
-      <c r="F74" s="8">
-        <f>D74/C74</f>
+      <c r="F74" s="10">
+        <f t="shared" ref="F74:F99" si="16">D74/C74</f>
         <v>449.03198049619965</v>
       </c>
       <c r="G74" s="9">
-        <f>A74+F74</f>
+        <f t="shared" ref="G74:G105" si="17">A74+F74</f>
         <v>44708.031980496198</v>
       </c>
     </row>
@@ -2150,19 +2159,19 @@
         <v>1735</v>
       </c>
       <c r="C75" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1135.8571428571429</v>
       </c>
       <c r="D75" s="8">
-        <f>D76+B75</f>
+        <f t="shared" si="14"/>
         <v>445303</v>
       </c>
-      <c r="F75" s="8">
-        <f>D75/C75</f>
+      <c r="F75" s="10">
+        <f t="shared" si="16"/>
         <v>392.04137844296315</v>
       </c>
       <c r="G75" s="9">
-        <f>A75+F75</f>
+        <f t="shared" si="17"/>
         <v>44652.041378442962</v>
       </c>
     </row>
@@ -2178,15 +2187,15 @@
         <v>1257.2857142857142</v>
       </c>
       <c r="D76" s="8">
-        <f>D77+B76</f>
+        <f t="shared" si="14"/>
         <v>443568</v>
       </c>
-      <c r="F76" s="8">
-        <f>D76/C76</f>
+      <c r="F76" s="10">
+        <f t="shared" si="16"/>
         <v>352.79809112600844</v>
       </c>
       <c r="G76" s="9">
-        <f>A76+F76</f>
+        <f t="shared" si="17"/>
         <v>44613.798091126009</v>
       </c>
     </row>
@@ -2198,19 +2207,19 @@
         <v>1323</v>
       </c>
       <c r="C77" s="8">
-        <f t="shared" ref="C77:C78" si="9">(AVERAGE(B71:B77))</f>
+        <f t="shared" ref="C77:C78" si="18">(AVERAGE(B71:B77))</f>
         <v>1348.1428571428571</v>
       </c>
       <c r="D77" s="8">
-        <f>D78+B77</f>
+        <f t="shared" si="14"/>
         <v>442036</v>
       </c>
-      <c r="F77" s="8">
-        <f>D77/C77</f>
+      <c r="F77" s="10">
+        <f t="shared" si="16"/>
         <v>327.88513298717811</v>
       </c>
       <c r="G77" s="9">
-        <f>A77+F77</f>
+        <f t="shared" si="17"/>
         <v>44589.885132987176</v>
       </c>
     </row>
@@ -2222,19 +2231,19 @@
         <v>1518</v>
       </c>
       <c r="C78" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>1481.5714285714287</v>
       </c>
       <c r="D78" s="8">
-        <f>D79+B78</f>
+        <f t="shared" si="14"/>
         <v>440713</v>
       </c>
-      <c r="F78" s="8">
-        <f>D78/C78</f>
+      <c r="F78" s="10">
+        <f t="shared" si="16"/>
         <v>297.46321473339117</v>
       </c>
       <c r="G78" s="9">
-        <f>A78+F78</f>
+        <f t="shared" si="17"/>
         <v>44560.46321473339</v>
       </c>
     </row>
@@ -2246,19 +2255,19 @@
         <v>1664</v>
       </c>
       <c r="C79" s="8">
-        <f t="shared" ref="C79:C91" si="10">(AVERAGE(B73:B79))</f>
+        <f t="shared" ref="C79:C91" si="19">(AVERAGE(B73:B79))</f>
         <v>1563.1428571428571</v>
       </c>
       <c r="D79" s="8">
-        <f>D80+B79</f>
+        <f t="shared" si="14"/>
         <v>439195</v>
       </c>
-      <c r="F79" s="8">
-        <f>D79/C79</f>
+      <c r="F79" s="10">
+        <f t="shared" si="16"/>
         <v>280.96920124291722</v>
       </c>
       <c r="G79" s="9">
-        <f>A79+F79</f>
+        <f t="shared" si="17"/>
         <v>44544.969201242915</v>
       </c>
     </row>
@@ -2270,19 +2279,19 @@
         <v>1677</v>
       </c>
       <c r="C80" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>1635.1428571428571</v>
       </c>
       <c r="D80" s="8">
-        <f>D81+B80</f>
+        <f t="shared" si="14"/>
         <v>437531</v>
       </c>
-      <c r="F80" s="8">
-        <f>D80/C80</f>
+      <c r="F80" s="10">
+        <f t="shared" si="16"/>
         <v>267.57967849030229</v>
       </c>
       <c r="G80" s="9">
-        <f>A80+F80</f>
+        <f t="shared" si="17"/>
         <v>44532.5796784903</v>
       </c>
     </row>
@@ -2294,19 +2303,19 @@
         <v>1618</v>
       </c>
       <c r="C81" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>1581</v>
       </c>
       <c r="D81" s="8">
-        <f>D82+B81</f>
+        <f t="shared" si="14"/>
         <v>435854</v>
       </c>
-      <c r="F81" s="8">
-        <f>D81/C81</f>
+      <c r="F81" s="10">
+        <f t="shared" si="16"/>
         <v>275.68247944339026</v>
       </c>
       <c r="G81" s="9">
-        <f>A81+F81</f>
+        <f t="shared" si="17"/>
         <v>44541.682479443392</v>
       </c>
     </row>
@@ -2318,19 +2327,19 @@
         <v>1855</v>
       </c>
       <c r="C82" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>1598.1428571428571</v>
       </c>
       <c r="D82" s="8">
-        <f>D83+B82</f>
+        <f t="shared" si="14"/>
         <v>434236</v>
       </c>
-      <c r="F82" s="8">
-        <f>D82/C82</f>
+      <c r="F82" s="10">
+        <f t="shared" si="16"/>
         <v>271.71288102261553</v>
       </c>
       <c r="G82" s="9">
-        <f>A82+F82</f>
+        <f t="shared" si="17"/>
         <v>44538.712881022613</v>
       </c>
     </row>
@@ -2342,19 +2351,19 @@
         <v>1794</v>
       </c>
       <c r="C83" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>1635.5714285714287</v>
       </c>
       <c r="D83" s="8">
-        <f>D84+B83</f>
+        <f t="shared" si="14"/>
         <v>432381</v>
       </c>
-      <c r="F83" s="8">
-        <f>D83/C83</f>
+      <c r="F83" s="10">
+        <f t="shared" si="16"/>
         <v>264.36081753864966</v>
       </c>
       <c r="G83" s="9">
-        <f>A83+F83</f>
+        <f t="shared" si="17"/>
         <v>44532.360817538647</v>
       </c>
     </row>
@@ -2366,19 +2375,19 @@
         <v>1780</v>
       </c>
       <c r="C84" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>1700.8571428571429</v>
       </c>
       <c r="D84" s="8">
-        <f>D85+B84</f>
+        <f t="shared" si="14"/>
         <v>430587</v>
       </c>
-      <c r="F84" s="8">
-        <f>D84/C84</f>
+      <c r="F84" s="10">
+        <f t="shared" si="16"/>
         <v>253.15882748194187</v>
       </c>
       <c r="G84" s="9">
-        <f>A84+F84</f>
+        <f t="shared" si="17"/>
         <v>44522.158827481944</v>
       </c>
     </row>
@@ -2390,19 +2399,19 @@
         <v>2156</v>
       </c>
       <c r="C85" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>1792</v>
       </c>
       <c r="D85" s="8">
-        <f>D86+B85</f>
+        <f t="shared" si="14"/>
         <v>428807</v>
       </c>
-      <c r="F85" s="8">
-        <f>D85/C85</f>
+      <c r="F85" s="10">
+        <f t="shared" si="16"/>
         <v>239.28962053571428</v>
       </c>
       <c r="G85" s="9">
-        <f>A85+F85</f>
+        <f t="shared" si="17"/>
         <v>44509.289620535717</v>
       </c>
     </row>
@@ -2414,19 +2423,19 @@
         <v>1708</v>
       </c>
       <c r="C86" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>1798.2857142857142</v>
       </c>
       <c r="D86" s="8">
-        <f>D87+B86</f>
+        <f t="shared" si="14"/>
         <v>426651</v>
       </c>
-      <c r="F86" s="8">
-        <f>D86/C86</f>
+      <c r="F86" s="10">
+        <f t="shared" si="16"/>
         <v>237.25428979980936</v>
       </c>
       <c r="G86" s="9">
-        <f>A86+F86</f>
+        <f t="shared" si="17"/>
         <v>44508.254289799806</v>
       </c>
     </row>
@@ -2438,19 +2447,19 @@
         <v>1507</v>
       </c>
       <c r="C87" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>1774</v>
       </c>
       <c r="D87" s="8">
-        <f>D88+B87</f>
+        <f t="shared" si="14"/>
         <v>424943</v>
       </c>
-      <c r="F87" s="8">
-        <f>D87/C87</f>
+      <c r="F87" s="10">
+        <f t="shared" si="16"/>
         <v>239.53945885005638</v>
       </c>
       <c r="G87" s="9">
-        <f>A87+F87</f>
+        <f t="shared" si="17"/>
         <v>44511.539458850057</v>
       </c>
     </row>
@@ -2462,19 +2471,19 @@
         <v>1529</v>
       </c>
       <c r="C88" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>1761.2857142857142</v>
       </c>
       <c r="D88" s="8">
-        <f>D89+B88</f>
+        <f t="shared" si="14"/>
         <v>423436</v>
       </c>
-      <c r="F88" s="8">
-        <f>D88/C88</f>
+      <c r="F88" s="10">
+        <f t="shared" si="16"/>
         <v>240.41300997647824</v>
       </c>
       <c r="G88" s="9">
-        <f>A88+F88</f>
+        <f t="shared" si="17"/>
         <v>44513.413009976481</v>
       </c>
     </row>
@@ -2486,19 +2495,19 @@
         <v>1464</v>
       </c>
       <c r="C89" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>1705.4285714285713</v>
       </c>
       <c r="D89" s="8">
-        <f>D90+B89</f>
+        <f t="shared" si="14"/>
         <v>421907</v>
       </c>
-      <c r="F89" s="8">
-        <f>D89/C89</f>
+      <c r="F89" s="10">
+        <f t="shared" si="16"/>
         <v>247.39060144077737</v>
       </c>
       <c r="G89" s="9">
-        <f>A89+F89</f>
+        <f t="shared" si="17"/>
         <v>44521.390601440777</v>
       </c>
     </row>
@@ -2510,19 +2519,19 @@
         <v>1519</v>
       </c>
       <c r="C90" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>1666.1428571428571</v>
       </c>
       <c r="D90" s="8">
-        <f>D91+B90</f>
+        <f t="shared" si="14"/>
         <v>420443</v>
       </c>
-      <c r="F90" s="8">
-        <f>D90/C90</f>
+      <c r="F90" s="10">
+        <f t="shared" si="16"/>
         <v>252.34510846265971</v>
       </c>
       <c r="G90" s="9">
-        <f>A90+F90</f>
+        <f t="shared" si="17"/>
         <v>44527.345108462658</v>
       </c>
     </row>
@@ -2534,19 +2543,19 @@
         <v>1397</v>
       </c>
       <c r="C91" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>1611.4285714285713</v>
       </c>
       <c r="D91" s="8">
-        <f>D92+B91</f>
+        <f t="shared" si="14"/>
         <v>418924</v>
       </c>
-      <c r="F91" s="8">
-        <f>D91/C91</f>
+      <c r="F91" s="10">
+        <f t="shared" si="16"/>
         <v>259.97056737588656</v>
       </c>
       <c r="G91" s="9">
-        <f>A91+F91</f>
+        <f t="shared" si="17"/>
         <v>44535.970567375887</v>
       </c>
     </row>
@@ -2558,19 +2567,19 @@
         <v>1379</v>
       </c>
       <c r="C92" s="8">
-        <f t="shared" ref="C92:C98" si="11">(AVERAGE(B86:B92))</f>
+        <f t="shared" ref="C92:C97" si="20">(AVERAGE(B86:B92))</f>
         <v>1500.4285714285713</v>
       </c>
       <c r="D92" s="8">
-        <f>D93+B92</f>
+        <f t="shared" si="14"/>
         <v>417527</v>
       </c>
-      <c r="F92" s="8">
-        <f>D92/C92</f>
+      <c r="F92" s="10">
+        <f t="shared" si="16"/>
         <v>278.27182709701992</v>
       </c>
       <c r="G92" s="9">
-        <f>A92+F92</f>
+        <f t="shared" si="17"/>
         <v>44555.271827097022</v>
       </c>
     </row>
@@ -2582,19 +2591,19 @@
         <v>1473</v>
       </c>
       <c r="C93" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>1466.8571428571429</v>
       </c>
       <c r="D93" s="8">
-        <f>D94+B93</f>
+        <f t="shared" si="14"/>
         <v>416148</v>
       </c>
-      <c r="F93" s="8">
-        <f>D93/C93</f>
+      <c r="F93" s="10">
+        <f t="shared" si="16"/>
         <v>283.70042851577716</v>
       </c>
       <c r="G93" s="9">
-        <f>A93+F93</f>
+        <f t="shared" si="17"/>
         <v>44561.700428515775</v>
       </c>
     </row>
@@ -2606,18 +2615,18 @@
         <v>3206</v>
       </c>
       <c r="C94" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>1709.5714285714287</v>
       </c>
       <c r="D94" s="8">
         <v>414675</v>
       </c>
-      <c r="F94" s="8">
-        <f>D94/C94</f>
+      <c r="F94" s="10">
+        <f t="shared" si="16"/>
         <v>242.56079217849083</v>
       </c>
       <c r="G94" s="9">
-        <f>A94+F94</f>
+        <f t="shared" si="17"/>
         <v>44521.56079217849</v>
       </c>
     </row>
@@ -2629,19 +2638,19 @@
         <v>3205</v>
       </c>
       <c r="C95" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>1949</v>
       </c>
       <c r="D95" s="8">
         <f>(D94-B95)</f>
         <v>411470</v>
       </c>
-      <c r="F95" s="8">
-        <f>D95/C95</f>
+      <c r="F95" s="10">
+        <f t="shared" si="16"/>
         <v>211.11852231913801</v>
       </c>
       <c r="G95" s="9">
-        <f>A95+F95</f>
+        <f t="shared" si="17"/>
         <v>44491.118522319135</v>
       </c>
       <c r="H95" s="10"/>
@@ -2654,19 +2663,19 @@
         <v>2987</v>
       </c>
       <c r="C96" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>2166.5714285714284</v>
       </c>
       <c r="D96" s="8">
         <f>(D95-B96)</f>
         <v>408483</v>
       </c>
-      <c r="F96" s="8">
-        <f>D96/C96</f>
+      <c r="F96" s="10">
+        <f t="shared" si="16"/>
         <v>188.53890280891468</v>
       </c>
       <c r="G96" s="9">
-        <f>A96+F96</f>
+        <f t="shared" si="17"/>
         <v>44469.538902808912</v>
       </c>
       <c r="H96" s="10"/>
@@ -2679,56 +2688,84 @@
         <v>2951</v>
       </c>
       <c r="C97" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>2371.1428571428573</v>
       </c>
       <c r="D97" s="8">
         <f>(D96-B97)</f>
         <v>405532</v>
       </c>
-      <c r="F97" s="8">
-        <f>D97/C97</f>
+      <c r="F97" s="10">
+        <f t="shared" si="16"/>
         <v>171.02807567176768</v>
       </c>
       <c r="G97" s="9">
-        <f>A97+F97</f>
+        <f t="shared" si="17"/>
         <v>44453.028075671769</v>
       </c>
       <c r="H97" s="10"/>
     </row>
-    <row r="98" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="6">
+    <row r="98" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="7">
         <v>44283</v>
       </c>
-      <c r="B98" s="4">
+      <c r="B98" s="8">
         <v>2315</v>
       </c>
-      <c r="C98" s="3">
+      <c r="C98" s="10">
         <f>(AVERAGE(B92:B98))</f>
         <v>2502.2857142857142</v>
       </c>
-      <c r="D98" s="4">
+      <c r="D98" s="8">
         <f>(D97-B98)</f>
         <v>403217</v>
       </c>
-      <c r="F98" s="4">
-        <f>D98/C98</f>
+      <c r="F98" s="10">
+        <f t="shared" si="16"/>
         <v>161.1394724823019</v>
       </c>
-      <c r="G98" s="5">
-        <f>A98+F98</f>
+      <c r="G98" s="9">
+        <f t="shared" si="17"/>
         <v>44444.139472482304</v>
       </c>
-      <c r="H98" s="3">
+      <c r="H98" s="10">
         <f>D98/84</f>
         <v>4800.2023809523807</v>
       </c>
-      <c r="I98" s="4" t="s">
+      <c r="I98" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" s="1"/>
+    <row r="99" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="6">
+        <v>44284</v>
+      </c>
+      <c r="B99" s="4">
+        <v>2601</v>
+      </c>
+      <c r="C99" s="3">
+        <f>(AVERAGE(B93:B99))</f>
+        <v>2676.8571428571427</v>
+      </c>
+      <c r="D99" s="4">
+        <f>(D98-B99)</f>
+        <v>400616</v>
+      </c>
+      <c r="F99" s="3">
+        <f t="shared" si="16"/>
+        <v>149.65908848329599</v>
+      </c>
+      <c r="G99" s="5">
+        <f t="shared" si="17"/>
+        <v>44433.659088483299</v>
+      </c>
+      <c r="H99" s="3">
+        <f>D99/84</f>
+        <v>4769.2380952380954</v>
+      </c>
+      <c r="I99" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>

--- a/durham_daily_vaccinations.xlsx
+++ b/durham_daily_vaccinations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3876489E-64A9-954A-9860-A262FE48D9C3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BDEAA83-A848-2541-ACF1-7E3D2F85AAC2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19620" xr2:uid="{D878B493-02AB-054E-B330-D20DF148DE7B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>daily rate to achieve June 20 target</t>
+  </si>
+  <si>
+    <t>Total Doses</t>
   </si>
 </sst>
 </file>
@@ -444,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E82AD24-C064-B648-8062-B01E1A5F7A8D}">
   <dimension ref="A1:I106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="G101" sqref="G101"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="M90" sqref="M90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -454,6 +457,7 @@
     <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.6640625" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.5" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
@@ -472,6 +476,9 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
       <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
@@ -490,6 +497,10 @@
         <f t="shared" ref="D2:D33" si="0">D3+B2</f>
         <v>483505</v>
       </c>
+      <c r="E2" s="8">
+        <f>SUM(B2)</f>
+        <v>47</v>
+      </c>
       <c r="F2" s="10"/>
       <c r="G2" s="9"/>
     </row>
@@ -504,6 +515,10 @@
         <f t="shared" si="0"/>
         <v>483458</v>
       </c>
+      <c r="E3" s="8">
+        <f>E2+B3</f>
+        <v>170</v>
+      </c>
       <c r="F3" s="10"/>
       <c r="G3" s="9"/>
     </row>
@@ -518,6 +533,10 @@
         <f t="shared" si="0"/>
         <v>483335</v>
       </c>
+      <c r="E4" s="8">
+        <f>E3+B4</f>
+        <v>263</v>
+      </c>
       <c r="F4" s="10"/>
       <c r="G4" s="9"/>
     </row>
@@ -532,6 +551,10 @@
         <f t="shared" si="0"/>
         <v>483242</v>
       </c>
+      <c r="E5" s="8">
+        <f t="shared" ref="E5:E68" si="1">E4+B5</f>
+        <v>263</v>
+      </c>
       <c r="F5" s="10"/>
       <c r="G5" s="9"/>
     </row>
@@ -546,6 +569,10 @@
         <f t="shared" si="0"/>
         <v>483242</v>
       </c>
+      <c r="E6" s="8">
+        <f t="shared" si="1"/>
+        <v>263</v>
+      </c>
       <c r="F6" s="10"/>
       <c r="G6" s="9"/>
     </row>
@@ -560,6 +587,10 @@
         <f t="shared" si="0"/>
         <v>483242</v>
       </c>
+      <c r="E7" s="8">
+        <f t="shared" si="1"/>
+        <v>263</v>
+      </c>
       <c r="F7" s="10"/>
       <c r="G7" s="9"/>
     </row>
@@ -574,6 +605,10 @@
         <f t="shared" si="0"/>
         <v>483242</v>
       </c>
+      <c r="E8" s="8">
+        <f t="shared" si="1"/>
+        <v>418</v>
+      </c>
       <c r="F8" s="10"/>
       <c r="G8" s="9"/>
     </row>
@@ -588,6 +623,10 @@
         <f t="shared" si="0"/>
         <v>483087</v>
       </c>
+      <c r="E9" s="8">
+        <f t="shared" si="1"/>
+        <v>572</v>
+      </c>
       <c r="F9" s="10"/>
       <c r="G9" s="9"/>
     </row>
@@ -599,19 +638,23 @@
         <v>158</v>
       </c>
       <c r="C10" s="8">
-        <f t="shared" ref="C10" si="1">AVERAGE(B1:B10)</f>
+        <f t="shared" ref="C10" si="2">AVERAGE(B1:B10)</f>
         <v>81.111111111111114</v>
       </c>
       <c r="D10" s="8">
         <f t="shared" si="0"/>
         <v>482933</v>
       </c>
+      <c r="E10" s="8">
+        <f t="shared" si="1"/>
+        <v>730</v>
+      </c>
       <c r="F10" s="10">
-        <f t="shared" ref="F10:F41" si="2">D10/C10</f>
+        <f t="shared" ref="F10:F41" si="3">D10/C10</f>
         <v>5953.9684931506845</v>
       </c>
       <c r="G10" s="9">
-        <f t="shared" ref="G10:G41" si="3">A10+F10</f>
+        <f t="shared" ref="G10:G41" si="4">A10+F10</f>
         <v>50148.968493150685</v>
       </c>
     </row>
@@ -630,12 +673,16 @@
         <f t="shared" si="0"/>
         <v>482775</v>
       </c>
+      <c r="E11" s="8">
+        <f t="shared" si="1"/>
+        <v>958</v>
+      </c>
       <c r="F11" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5039.4050104384132</v>
       </c>
       <c r="G11" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>49235.405010438415</v>
       </c>
     </row>
@@ -654,12 +701,16 @@
         <f t="shared" si="0"/>
         <v>482547</v>
       </c>
+      <c r="E12" s="8">
+        <f t="shared" si="1"/>
+        <v>1181</v>
+      </c>
       <c r="F12" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4255.2645502645501</v>
       </c>
       <c r="G12" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>48452.264550264546</v>
       </c>
     </row>
@@ -678,12 +729,16 @@
         <f t="shared" si="0"/>
         <v>482324</v>
       </c>
+      <c r="E13" s="8">
+        <f t="shared" si="1"/>
+        <v>1488</v>
+      </c>
       <c r="F13" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3659.5144157814866</v>
       </c>
       <c r="G13" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>47857.514415781487</v>
       </c>
     </row>
@@ -695,19 +750,23 @@
         <v>234</v>
       </c>
       <c r="C14" s="8">
-        <f t="shared" ref="C14:C18" si="4">AVERAGE(B8:B14)</f>
+        <f t="shared" ref="C14:C18" si="5">AVERAGE(B8:B14)</f>
         <v>208.42857142857142</v>
       </c>
       <c r="D14" s="8">
         <f t="shared" si="0"/>
         <v>482017</v>
       </c>
+      <c r="E14" s="8">
+        <f t="shared" si="1"/>
+        <v>1722</v>
+      </c>
       <c r="F14" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2312.6244002741605</v>
       </c>
       <c r="G14" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>46511.624400274159</v>
       </c>
     </row>
@@ -719,19 +778,23 @@
         <v>225</v>
       </c>
       <c r="C15" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>218.42857142857142</v>
       </c>
       <c r="D15" s="8">
         <f t="shared" si="0"/>
         <v>481783</v>
       </c>
+      <c r="E15" s="8">
+        <f t="shared" si="1"/>
+        <v>1947</v>
+      </c>
       <c r="F15" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2205.6775670372795</v>
       </c>
       <c r="G15" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>46405.677567037281</v>
       </c>
     </row>
@@ -743,19 +806,23 @@
         <v>585</v>
       </c>
       <c r="C16" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>280</v>
       </c>
       <c r="D16" s="8">
         <f t="shared" si="0"/>
         <v>481558</v>
       </c>
+      <c r="E16" s="8">
+        <f t="shared" si="1"/>
+        <v>2532</v>
+      </c>
       <c r="F16" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1719.85</v>
       </c>
       <c r="G16" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45920.85</v>
       </c>
     </row>
@@ -767,19 +834,23 @@
         <v>598</v>
       </c>
       <c r="C17" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>342.85714285714283</v>
       </c>
       <c r="D17" s="8">
         <f t="shared" si="0"/>
         <v>480973</v>
       </c>
+      <c r="E17" s="8">
+        <f t="shared" si="1"/>
+        <v>3130</v>
+      </c>
       <c r="F17" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1402.8379166666668</v>
       </c>
       <c r="G17" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45604.837916666664</v>
       </c>
     </row>
@@ -791,19 +862,23 @@
         <v>855</v>
       </c>
       <c r="C18" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>432.42857142857144</v>
       </c>
       <c r="D18" s="8">
         <f t="shared" si="0"/>
         <v>480375</v>
       </c>
+      <c r="E18" s="8">
+        <f t="shared" si="1"/>
+        <v>3985</v>
+      </c>
       <c r="F18" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1110.8771060455897</v>
       </c>
       <c r="G18" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45313.877106045591</v>
       </c>
     </row>
@@ -815,19 +890,23 @@
         <v>824</v>
       </c>
       <c r="C19" s="8">
-        <f t="shared" ref="C19:C24" si="5">AVERAGE(B13:B19)</f>
+        <f t="shared" ref="C19:C24" si="6">AVERAGE(B13:B19)</f>
         <v>518.28571428571433</v>
       </c>
       <c r="D19" s="8">
         <f t="shared" si="0"/>
         <v>479520</v>
       </c>
+      <c r="E19" s="8">
+        <f t="shared" si="1"/>
+        <v>4809</v>
+      </c>
       <c r="F19" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>925.20396912899662</v>
       </c>
       <c r="G19" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45129.203969128997</v>
       </c>
     </row>
@@ -839,19 +918,23 @@
         <v>858</v>
       </c>
       <c r="C20" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>597</v>
       </c>
       <c r="D20" s="8">
         <f t="shared" si="0"/>
         <v>478696</v>
       </c>
+      <c r="E20" s="8">
+        <f t="shared" si="1"/>
+        <v>5667</v>
+      </c>
       <c r="F20" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>801.83584589614736</v>
       </c>
       <c r="G20" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45006.835845896145</v>
       </c>
     </row>
@@ -863,19 +946,23 @@
         <v>927</v>
       </c>
       <c r="C21" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>696</v>
       </c>
       <c r="D21" s="8">
         <f t="shared" si="0"/>
         <v>477838</v>
       </c>
+      <c r="E21" s="8">
+        <f t="shared" si="1"/>
+        <v>6594</v>
+      </c>
       <c r="F21" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>686.54885057471267</v>
       </c>
       <c r="G21" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44892.548850574713</v>
       </c>
     </row>
@@ -887,19 +974,23 @@
         <v>1030</v>
       </c>
       <c r="C22" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>811</v>
       </c>
       <c r="D22" s="8">
         <f t="shared" si="0"/>
         <v>476911</v>
       </c>
+      <c r="E22" s="8">
+        <f t="shared" si="1"/>
+        <v>7624</v>
+      </c>
       <c r="F22" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>588.05302096177559</v>
       </c>
       <c r="G22" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44795.053020961779</v>
       </c>
     </row>
@@ -911,19 +1002,23 @@
         <v>1403</v>
       </c>
       <c r="C23" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>927.85714285714289</v>
       </c>
       <c r="D23" s="8">
         <f t="shared" si="0"/>
         <v>475881</v>
       </c>
+      <c r="E23" s="8">
+        <f t="shared" si="1"/>
+        <v>9027</v>
+      </c>
       <c r="F23" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>512.88175519630488</v>
       </c>
       <c r="G23" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44720.881755196307</v>
       </c>
     </row>
@@ -935,19 +1030,23 @@
         <v>1043</v>
       </c>
       <c r="C24" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>991.42857142857144</v>
       </c>
       <c r="D24" s="8">
         <f t="shared" si="0"/>
         <v>474478</v>
       </c>
+      <c r="E24" s="8">
+        <f t="shared" si="1"/>
+        <v>10070</v>
+      </c>
       <c r="F24" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>478.58011527377522</v>
       </c>
       <c r="G24" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44687.580115273777</v>
       </c>
     </row>
@@ -959,19 +1058,23 @@
         <v>1074</v>
       </c>
       <c r="C25" s="8">
-        <f t="shared" ref="C25:C49" si="6">AVERAGE(B19:B25)</f>
+        <f t="shared" ref="C25:C49" si="7">AVERAGE(B19:B25)</f>
         <v>1022.7142857142857</v>
       </c>
       <c r="D25" s="8">
         <f t="shared" si="0"/>
         <v>473435</v>
       </c>
+      <c r="E25" s="8">
+        <f t="shared" si="1"/>
+        <v>11144</v>
+      </c>
       <c r="F25" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>462.92010057270573</v>
       </c>
       <c r="G25" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44672.920100572708</v>
       </c>
     </row>
@@ -983,19 +1086,23 @@
         <v>922</v>
       </c>
       <c r="C26" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1036.7142857142858</v>
       </c>
       <c r="D26" s="8">
         <f t="shared" si="0"/>
         <v>472361</v>
       </c>
+      <c r="E26" s="8">
+        <f t="shared" si="1"/>
+        <v>12066</v>
+      </c>
       <c r="F26" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>455.6327683615819</v>
       </c>
       <c r="G26" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44666.632768361582</v>
       </c>
     </row>
@@ -1007,19 +1114,23 @@
         <v>291</v>
       </c>
       <c r="C27" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>955.71428571428567</v>
       </c>
       <c r="D27" s="8">
         <f t="shared" si="0"/>
         <v>471439</v>
       </c>
+      <c r="E27" s="8">
+        <f t="shared" si="1"/>
+        <v>12357</v>
+      </c>
       <c r="F27" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>493.28445440956654</v>
       </c>
       <c r="G27" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44705.284454409564</v>
       </c>
     </row>
@@ -1031,19 +1142,23 @@
         <v>0</v>
       </c>
       <c r="C28" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>823.28571428571433</v>
       </c>
       <c r="D28" s="8">
         <f t="shared" si="0"/>
         <v>471148</v>
       </c>
+      <c r="E28" s="8">
+        <f t="shared" si="1"/>
+        <v>12357</v>
+      </c>
       <c r="F28" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>572.2776331771646</v>
       </c>
       <c r="G28" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44785.277633177167</v>
       </c>
     </row>
@@ -1055,19 +1170,23 @@
         <v>601</v>
       </c>
       <c r="C29" s="8">
-        <f t="shared" ref="C29:C34" si="7">AVERAGE(B22:B29)</f>
+        <f t="shared" ref="C29:C34" si="8">AVERAGE(B22:B29)</f>
         <v>795.5</v>
       </c>
       <c r="D29" s="8">
         <f t="shared" si="0"/>
         <v>471148</v>
       </c>
+      <c r="E29" s="8">
+        <f t="shared" si="1"/>
+        <v>12958</v>
+      </c>
       <c r="F29" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>592.26649905719671</v>
       </c>
       <c r="G29" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44806.266499057194</v>
       </c>
     </row>
@@ -1079,19 +1198,23 @@
         <v>831</v>
       </c>
       <c r="C30" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>770.625</v>
       </c>
       <c r="D30" s="8">
         <f t="shared" si="0"/>
         <v>470547</v>
       </c>
+      <c r="E30" s="8">
+        <f t="shared" si="1"/>
+        <v>13789</v>
+      </c>
       <c r="F30" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>610.60437956204385</v>
       </c>
       <c r="G30" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44825.604379562043</v>
       </c>
     </row>
@@ -1103,19 +1226,23 @@
         <v>603</v>
       </c>
       <c r="C31" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>670.625</v>
       </c>
       <c r="D31" s="8">
         <f t="shared" si="0"/>
         <v>469716</v>
       </c>
+      <c r="E31" s="8">
+        <f t="shared" si="1"/>
+        <v>14392</v>
+      </c>
       <c r="F31" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>700.41528424976696</v>
       </c>
       <c r="G31" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44916.415284249764</v>
       </c>
     </row>
@@ -1127,19 +1254,23 @@
         <v>514</v>
       </c>
       <c r="C32" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>604.5</v>
       </c>
       <c r="D32" s="8">
         <f t="shared" si="0"/>
         <v>469113</v>
       </c>
+      <c r="E32" s="8">
+        <f t="shared" si="1"/>
+        <v>14906</v>
+      </c>
       <c r="F32" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>776.03473945409428</v>
       </c>
       <c r="G32" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44993.034739454095</v>
       </c>
     </row>
@@ -1151,19 +1282,23 @@
         <v>278</v>
       </c>
       <c r="C33" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>505</v>
       </c>
       <c r="D33" s="8">
         <f t="shared" si="0"/>
         <v>468599</v>
       </c>
+      <c r="E33" s="8">
+        <f t="shared" si="1"/>
+        <v>15184</v>
+      </c>
       <c r="F33" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>927.91881188118816</v>
       </c>
       <c r="G33" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45145.918811881187</v>
       </c>
     </row>
@@ -1175,19 +1310,23 @@
         <v>261</v>
       </c>
       <c r="C34" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>422.375</v>
       </c>
       <c r="D34" s="8">
-        <f t="shared" ref="D34:D65" si="8">D35+B34</f>
+        <f t="shared" ref="D34:D65" si="9">D35+B34</f>
         <v>468321</v>
       </c>
+      <c r="E34" s="8">
+        <f t="shared" si="1"/>
+        <v>15445</v>
+      </c>
       <c r="F34" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1108.7801124593075</v>
       </c>
       <c r="G34" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45327.78011245931</v>
       </c>
     </row>
@@ -1199,19 +1338,23 @@
         <v>220</v>
       </c>
       <c r="C35" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>472.57142857142856</v>
       </c>
       <c r="D35" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>468060</v>
       </c>
+      <c r="E35" s="8">
+        <f t="shared" si="1"/>
+        <v>15665</v>
+      </c>
       <c r="F35" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>990.45344619105208</v>
       </c>
       <c r="G35" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45210.453446191052</v>
       </c>
     </row>
@@ -1223,19 +1366,23 @@
         <v>250</v>
       </c>
       <c r="C36" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>422.42857142857144</v>
       </c>
       <c r="D36" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>467840</v>
       </c>
+      <c r="E36" s="8">
+        <f t="shared" si="1"/>
+        <v>15915</v>
+      </c>
       <c r="F36" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1107.5008454514712</v>
       </c>
       <c r="G36" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45328.500845451468</v>
       </c>
     </row>
@@ -1247,19 +1394,23 @@
         <v>506</v>
       </c>
       <c r="C37" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>376</v>
       </c>
       <c r="D37" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>467590</v>
       </c>
+      <c r="E37" s="8">
+        <f t="shared" si="1"/>
+        <v>16421</v>
+      </c>
       <c r="F37" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1243.5904255319149</v>
       </c>
       <c r="G37" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45465.590425531918</v>
       </c>
     </row>
@@ -1271,19 +1422,23 @@
         <v>569</v>
       </c>
       <c r="C38" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>371.14285714285717</v>
       </c>
       <c r="D38" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>467084</v>
       </c>
+      <c r="E38" s="8">
+        <f t="shared" si="1"/>
+        <v>16990</v>
+      </c>
       <c r="F38" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1258.5019245573517</v>
       </c>
       <c r="G38" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45481.501924557349</v>
       </c>
     </row>
@@ -1295,19 +1450,23 @@
         <v>192</v>
       </c>
       <c r="C39" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>325.14285714285717</v>
       </c>
       <c r="D39" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>466515</v>
       </c>
+      <c r="E39" s="8">
+        <f t="shared" si="1"/>
+        <v>17182</v>
+      </c>
       <c r="F39" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1434.8000878734622</v>
       </c>
       <c r="G39" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45658.80008787346</v>
       </c>
     </row>
@@ -1319,19 +1478,23 @@
         <v>59</v>
       </c>
       <c r="C40" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>293.85714285714283</v>
       </c>
       <c r="D40" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>466323</v>
       </c>
+      <c r="E40" s="8">
+        <f t="shared" si="1"/>
+        <v>17241</v>
+      </c>
       <c r="F40" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1586.9037433155081</v>
       </c>
       <c r="G40" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45811.90374331551</v>
       </c>
     </row>
@@ -1343,19 +1506,23 @@
         <v>0</v>
       </c>
       <c r="C41" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>256.57142857142856</v>
       </c>
       <c r="D41" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>466264</v>
       </c>
+      <c r="E41" s="8">
+        <f t="shared" si="1"/>
+        <v>17241</v>
+      </c>
       <c r="F41" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1817.2873051224944</v>
       </c>
       <c r="G41" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>46043.287305122496</v>
       </c>
     </row>
@@ -1367,19 +1534,23 @@
         <v>0</v>
       </c>
       <c r="C42" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>225.14285714285714</v>
       </c>
       <c r="D42" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>466264</v>
       </c>
+      <c r="E42" s="8">
+        <f t="shared" si="1"/>
+        <v>17241</v>
+      </c>
       <c r="F42" s="10">
-        <f t="shared" ref="F42:F73" si="9">D42/C42</f>
+        <f t="shared" ref="F42:F73" si="10">D42/C42</f>
         <v>2070.9695431472082</v>
       </c>
       <c r="G42" s="9">
-        <f t="shared" ref="G42:G73" si="10">A42+F42</f>
+        <f t="shared" ref="G42:G73" si="11">A42+F42</f>
         <v>46297.969543147206</v>
       </c>
     </row>
@@ -1391,19 +1562,23 @@
         <v>261</v>
       </c>
       <c r="C43" s="8">
-        <f t="shared" ref="C43:C48" si="11">AVERAGE(B35:B43)</f>
+        <f t="shared" ref="C43:C48" si="12">AVERAGE(B35:B43)</f>
         <v>228.55555555555554</v>
       </c>
       <c r="D43" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>466264</v>
       </c>
+      <c r="E43" s="8">
+        <f t="shared" si="1"/>
+        <v>17502</v>
+      </c>
       <c r="F43" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2040.0466699076326</v>
       </c>
       <c r="G43" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>46268.046669907635</v>
       </c>
     </row>
@@ -1415,19 +1590,23 @@
         <v>340</v>
       </c>
       <c r="C44" s="8">
+        <f t="shared" si="12"/>
+        <v>241.88888888888889</v>
+      </c>
+      <c r="D44" s="8">
+        <f t="shared" si="9"/>
+        <v>466003</v>
+      </c>
+      <c r="E44" s="8">
+        <f t="shared" si="1"/>
+        <v>17842</v>
+      </c>
+      <c r="F44" s="10">
+        <f t="shared" si="10"/>
+        <v>1926.5167661920075</v>
+      </c>
+      <c r="G44" s="9">
         <f t="shared" si="11"/>
-        <v>241.88888888888889</v>
-      </c>
-      <c r="D44" s="8">
-        <f t="shared" si="8"/>
-        <v>466003</v>
-      </c>
-      <c r="F44" s="10">
-        <f t="shared" si="9"/>
-        <v>1926.5167661920075</v>
-      </c>
-      <c r="G44" s="9">
-        <f t="shared" si="10"/>
         <v>46155.516766192006</v>
       </c>
     </row>
@@ -1439,19 +1618,23 @@
         <v>452</v>
       </c>
       <c r="C45" s="8">
+        <f t="shared" si="12"/>
+        <v>264.33333333333331</v>
+      </c>
+      <c r="D45" s="8">
+        <f t="shared" si="9"/>
+        <v>465663</v>
+      </c>
+      <c r="E45" s="8">
+        <f t="shared" si="1"/>
+        <v>18294</v>
+      </c>
+      <c r="F45" s="10">
+        <f t="shared" si="10"/>
+        <v>1761.6506935687264</v>
+      </c>
+      <c r="G45" s="9">
         <f t="shared" si="11"/>
-        <v>264.33333333333331</v>
-      </c>
-      <c r="D45" s="8">
-        <f t="shared" si="8"/>
-        <v>465663</v>
-      </c>
-      <c r="F45" s="10">
-        <f t="shared" si="9"/>
-        <v>1761.6506935687264</v>
-      </c>
-      <c r="G45" s="9">
-        <f t="shared" si="10"/>
         <v>45991.650693568728</v>
       </c>
     </row>
@@ -1463,19 +1646,23 @@
         <v>264</v>
       </c>
       <c r="C46" s="8">
+        <f t="shared" si="12"/>
+        <v>237.44444444444446</v>
+      </c>
+      <c r="D46" s="8">
+        <f t="shared" si="9"/>
+        <v>465211</v>
+      </c>
+      <c r="E46" s="8">
+        <f t="shared" si="1"/>
+        <v>18558</v>
+      </c>
+      <c r="F46" s="10">
+        <f t="shared" si="10"/>
+        <v>1959.241459990641</v>
+      </c>
+      <c r="G46" s="9">
         <f t="shared" si="11"/>
-        <v>237.44444444444446</v>
-      </c>
-      <c r="D46" s="8">
-        <f t="shared" si="8"/>
-        <v>465211</v>
-      </c>
-      <c r="F46" s="10">
-        <f t="shared" si="9"/>
-        <v>1959.241459990641</v>
-      </c>
-      <c r="G46" s="9">
-        <f t="shared" si="10"/>
         <v>46190.241459990641</v>
       </c>
     </row>
@@ -1487,19 +1674,23 @@
         <v>512</v>
       </c>
       <c r="C47" s="8">
+        <f t="shared" si="12"/>
+        <v>231.11111111111111</v>
+      </c>
+      <c r="D47" s="8">
+        <f t="shared" si="9"/>
+        <v>464947</v>
+      </c>
+      <c r="E47" s="8">
+        <f t="shared" si="1"/>
+        <v>19070</v>
+      </c>
+      <c r="F47" s="10">
+        <f t="shared" si="10"/>
+        <v>2011.7899038461537</v>
+      </c>
+      <c r="G47" s="9">
         <f t="shared" si="11"/>
-        <v>231.11111111111111</v>
-      </c>
-      <c r="D47" s="8">
-        <f t="shared" si="8"/>
-        <v>464947</v>
-      </c>
-      <c r="F47" s="10">
-        <f t="shared" si="9"/>
-        <v>2011.7899038461537</v>
-      </c>
-      <c r="G47" s="9">
-        <f t="shared" si="10"/>
         <v>46243.789903846155</v>
       </c>
     </row>
@@ -1511,19 +1702,23 @@
         <v>512</v>
       </c>
       <c r="C48" s="8">
+        <f t="shared" si="12"/>
+        <v>266.66666666666669</v>
+      </c>
+      <c r="D48" s="8">
+        <f t="shared" si="9"/>
+        <v>464435</v>
+      </c>
+      <c r="E48" s="8">
+        <f t="shared" si="1"/>
+        <v>19582</v>
+      </c>
+      <c r="F48" s="10">
+        <f t="shared" si="10"/>
+        <v>1741.6312499999999</v>
+      </c>
+      <c r="G48" s="9">
         <f t="shared" si="11"/>
-        <v>266.66666666666669</v>
-      </c>
-      <c r="D48" s="8">
-        <f t="shared" si="8"/>
-        <v>464435</v>
-      </c>
-      <c r="F48" s="10">
-        <f t="shared" si="9"/>
-        <v>1741.6312499999999</v>
-      </c>
-      <c r="G48" s="9">
-        <f t="shared" si="10"/>
         <v>45974.631249999999</v>
       </c>
     </row>
@@ -1535,19 +1730,23 @@
         <v>515</v>
       </c>
       <c r="C49" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>408</v>
       </c>
       <c r="D49" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>463923</v>
       </c>
+      <c r="E49" s="8">
+        <f t="shared" si="1"/>
+        <v>20097</v>
+      </c>
       <c r="F49" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1137.0661764705883</v>
       </c>
       <c r="G49" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>45371.066176470587</v>
       </c>
     </row>
@@ -1559,19 +1758,23 @@
         <v>539</v>
       </c>
       <c r="C50" s="8">
-        <f t="shared" ref="C50:C69" si="12">AVERAGE(B44:B50)</f>
+        <f t="shared" ref="C50:C69" si="13">AVERAGE(B44:B50)</f>
         <v>447.71428571428572</v>
       </c>
       <c r="D50" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>463408</v>
       </c>
+      <c r="E50" s="8">
+        <f t="shared" si="1"/>
+        <v>20636</v>
+      </c>
       <c r="F50" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1035.0529674537331</v>
       </c>
       <c r="G50" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>45270.052967453732</v>
       </c>
     </row>
@@ -1583,19 +1786,23 @@
         <v>602</v>
       </c>
       <c r="C51" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>485.14285714285717</v>
       </c>
       <c r="D51" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>462869</v>
       </c>
+      <c r="E51" s="8">
+        <f t="shared" si="1"/>
+        <v>21238</v>
+      </c>
       <c r="F51" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>954.08804475853935</v>
       </c>
       <c r="G51" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>45190.088044758537</v>
       </c>
     </row>
@@ -1607,19 +1814,23 @@
         <v>417</v>
       </c>
       <c r="C52" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>480.14285714285717</v>
       </c>
       <c r="D52" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>462267</v>
       </c>
+      <c r="E52" s="8">
+        <f t="shared" si="1"/>
+        <v>21655</v>
+      </c>
       <c r="F52" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>962.76971139541797</v>
       </c>
       <c r="G52" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>45199.76971139542</v>
       </c>
     </row>
@@ -1631,19 +1842,23 @@
         <v>619</v>
       </c>
       <c r="C53" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>530.85714285714289</v>
       </c>
       <c r="D53" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>461850</v>
       </c>
+      <c r="E53" s="8">
+        <f t="shared" si="1"/>
+        <v>22274</v>
+      </c>
       <c r="F53" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>870.00807319698595</v>
       </c>
       <c r="G53" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>45108.008073196987</v>
       </c>
     </row>
@@ -1655,19 +1870,23 @@
         <v>627</v>
       </c>
       <c r="C54" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>547.28571428571433</v>
       </c>
       <c r="D54" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>461231</v>
       </c>
+      <c r="E54" s="8">
+        <f t="shared" si="1"/>
+        <v>22901</v>
+      </c>
       <c r="F54" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>842.76089793787514</v>
       </c>
       <c r="G54" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>45081.760897937878</v>
       </c>
     </row>
@@ -1679,19 +1898,23 @@
         <v>575</v>
       </c>
       <c r="C55" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>556.28571428571433</v>
       </c>
       <c r="D55" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>460604</v>
       </c>
+      <c r="E55" s="8">
+        <f t="shared" si="1"/>
+        <v>23476</v>
+      </c>
       <c r="F55" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>827.99897277863374</v>
       </c>
       <c r="G55" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>45067.998972778631</v>
       </c>
     </row>
@@ -1703,19 +1926,23 @@
         <v>412</v>
       </c>
       <c r="C56" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>541.57142857142856</v>
       </c>
       <c r="D56" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>460029</v>
       </c>
+      <c r="E56" s="8">
+        <f t="shared" si="1"/>
+        <v>23888</v>
+      </c>
       <c r="F56" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>849.43365866525983</v>
       </c>
       <c r="G56" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>45090.433658665257</v>
       </c>
     </row>
@@ -1727,19 +1954,23 @@
         <v>0</v>
       </c>
       <c r="C57" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>464.57142857142856</v>
       </c>
       <c r="D57" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>459617</v>
       </c>
+      <c r="E57" s="8">
+        <f t="shared" si="1"/>
+        <v>23888</v>
+      </c>
       <c r="F57" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>989.33548585485858</v>
       </c>
       <c r="G57" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>45231.335485854856</v>
       </c>
     </row>
@@ -1751,19 +1982,23 @@
         <v>560</v>
       </c>
       <c r="C58" s="8">
-        <f t="shared" ref="C58:C63" si="13">AVERAGE(B51:B58)</f>
+        <f t="shared" ref="C58:C63" si="14">AVERAGE(B51:B58)</f>
         <v>476.5</v>
       </c>
       <c r="D58" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>459617</v>
       </c>
+      <c r="E58" s="8">
+        <f t="shared" si="1"/>
+        <v>24448</v>
+      </c>
       <c r="F58" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>964.56873032528858</v>
       </c>
       <c r="G58" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>45207.568730325285</v>
       </c>
     </row>
@@ -1775,19 +2010,23 @@
         <v>599</v>
       </c>
       <c r="C59" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>476.125</v>
       </c>
       <c r="D59" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>459057</v>
       </c>
+      <c r="E59" s="8">
+        <f t="shared" si="1"/>
+        <v>25047</v>
+      </c>
       <c r="F59" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>964.15227093725389</v>
       </c>
       <c r="G59" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>45208.152270937251</v>
       </c>
     </row>
@@ -1799,19 +2038,23 @@
         <v>999</v>
       </c>
       <c r="C60" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>548.875</v>
       </c>
       <c r="D60" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>458458</v>
       </c>
+      <c r="E60" s="8">
+        <f t="shared" si="1"/>
+        <v>26046</v>
+      </c>
       <c r="F60" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>835.26850375768618</v>
       </c>
       <c r="G60" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>45080.268503757688</v>
       </c>
     </row>
@@ -1823,19 +2066,23 @@
         <v>1120</v>
       </c>
       <c r="C61" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>611.5</v>
       </c>
       <c r="D61" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>457459</v>
       </c>
+      <c r="E61" s="8">
+        <f t="shared" si="1"/>
+        <v>27166</v>
+      </c>
       <c r="F61" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>748.09321340964846</v>
       </c>
       <c r="G61" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>44994.093213409651</v>
       </c>
     </row>
@@ -1847,19 +2094,23 @@
         <v>645</v>
       </c>
       <c r="C62" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>613.75</v>
       </c>
       <c r="D62" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>456339</v>
       </c>
+      <c r="E62" s="8">
+        <f t="shared" si="1"/>
+        <v>27811</v>
+      </c>
       <c r="F62" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>743.52586558044811</v>
       </c>
       <c r="G62" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>44990.52586558045</v>
       </c>
     </row>
@@ -1871,19 +2122,23 @@
         <v>818</v>
       </c>
       <c r="C63" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>644.125</v>
       </c>
       <c r="D63" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>455694</v>
       </c>
+      <c r="E63" s="8">
+        <f t="shared" si="1"/>
+        <v>28629</v>
+      </c>
       <c r="F63" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>707.46206093537739</v>
       </c>
       <c r="G63" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>44955.462060935381</v>
       </c>
     </row>
@@ -1895,19 +2150,23 @@
         <v>482</v>
       </c>
       <c r="C64" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>746.14285714285711</v>
       </c>
       <c r="D64" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>454876</v>
       </c>
+      <c r="E64" s="8">
+        <f t="shared" si="1"/>
+        <v>29111</v>
+      </c>
       <c r="F64" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>609.63660731380435</v>
       </c>
       <c r="G64" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>44858.636607313805</v>
       </c>
     </row>
@@ -1919,19 +2178,23 @@
         <v>816</v>
       </c>
       <c r="C65" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>782.71428571428567</v>
       </c>
       <c r="D65" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>454394</v>
       </c>
+      <c r="E65" s="8">
+        <f t="shared" si="1"/>
+        <v>29927</v>
+      </c>
       <c r="F65" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>580.53622923891226</v>
       </c>
       <c r="G65" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>44830.536229238911</v>
       </c>
     </row>
@@ -1943,19 +2206,23 @@
         <v>646</v>
       </c>
       <c r="C66" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>789.42857142857144</v>
       </c>
       <c r="D66" s="8">
-        <f t="shared" ref="D66:D93" si="14">D67+B66</f>
+        <f t="shared" ref="D66:D93" si="15">D67+B66</f>
         <v>453578</v>
       </c>
+      <c r="E66" s="8">
+        <f t="shared" si="1"/>
+        <v>30573</v>
+      </c>
       <c r="F66" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>574.56496561708286</v>
       </c>
       <c r="G66" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>44825.564965617086</v>
       </c>
     </row>
@@ -1967,19 +2234,23 @@
         <v>656</v>
       </c>
       <c r="C67" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>740.42857142857144</v>
       </c>
       <c r="D67" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>452932</v>
       </c>
+      <c r="E67" s="8">
+        <f t="shared" si="1"/>
+        <v>31229</v>
+      </c>
       <c r="F67" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>611.71599459772335</v>
       </c>
       <c r="G67" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>44863.715994597726</v>
       </c>
     </row>
@@ -1991,19 +2262,23 @@
         <v>757</v>
       </c>
       <c r="C68" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>688.57142857142856</v>
       </c>
       <c r="D68" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>452276</v>
       </c>
+      <c r="E68" s="8">
+        <f t="shared" si="1"/>
+        <v>31986</v>
+      </c>
       <c r="F68" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>656.83236514522821</v>
       </c>
       <c r="G68" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>44909.83236514523</v>
       </c>
     </row>
@@ -2015,19 +2290,23 @@
         <v>682</v>
       </c>
       <c r="C69" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>693.85714285714289</v>
       </c>
       <c r="D69" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>451519</v>
       </c>
+      <c r="E69" s="8">
+        <f t="shared" ref="E69:E100" si="16">E68+B69</f>
+        <v>32668</v>
+      </c>
       <c r="F69" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>650.73769816759318</v>
       </c>
       <c r="G69" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>44904.737698167592</v>
       </c>
     </row>
@@ -2039,19 +2318,23 @@
         <v>687</v>
       </c>
       <c r="C70" s="8">
-        <f t="shared" ref="C70:C75" si="15">AVERAGE(B64:B70)</f>
+        <f t="shared" ref="C70:C75" si="17">AVERAGE(B64:B70)</f>
         <v>675.14285714285711</v>
       </c>
       <c r="D70" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>450837</v>
       </c>
+      <c r="E70" s="8">
+        <f t="shared" si="16"/>
+        <v>33355</v>
+      </c>
       <c r="F70" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>667.76534066864156</v>
       </c>
       <c r="G70" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>44922.765340668644</v>
       </c>
     </row>
@@ -2063,19 +2346,23 @@
         <v>584</v>
       </c>
       <c r="C71" s="8">
+        <f t="shared" si="17"/>
+        <v>689.71428571428567</v>
+      </c>
+      <c r="D71" s="8">
         <f t="shared" si="15"/>
-        <v>689.71428571428567</v>
-      </c>
-      <c r="D71" s="8">
-        <f t="shared" si="14"/>
         <v>450150</v>
       </c>
+      <c r="E71" s="8">
+        <f t="shared" si="16"/>
+        <v>33939</v>
+      </c>
       <c r="F71" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>652.66155758077889</v>
       </c>
       <c r="G71" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>44908.661557580781</v>
       </c>
     </row>
@@ -2087,19 +2374,23 @@
         <v>1093</v>
       </c>
       <c r="C72" s="8">
+        <f t="shared" si="17"/>
+        <v>729.28571428571433</v>
+      </c>
+      <c r="D72" s="8">
         <f t="shared" si="15"/>
-        <v>729.28571428571433</v>
-      </c>
-      <c r="D72" s="8">
-        <f t="shared" si="14"/>
         <v>449566</v>
       </c>
+      <c r="E72" s="8">
+        <f t="shared" si="16"/>
+        <v>35032</v>
+      </c>
       <c r="F72" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>616.44701273261501</v>
       </c>
       <c r="G72" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>44873.447012732613</v>
       </c>
     </row>
@@ -2111,19 +2402,23 @@
         <v>1173</v>
       </c>
       <c r="C73" s="8">
+        <f t="shared" si="17"/>
+        <v>804.57142857142856</v>
+      </c>
+      <c r="D73" s="8">
         <f t="shared" si="15"/>
-        <v>804.57142857142856</v>
-      </c>
-      <c r="D73" s="8">
-        <f t="shared" si="14"/>
         <v>448473</v>
       </c>
+      <c r="E73" s="8">
+        <f t="shared" si="16"/>
+        <v>36205</v>
+      </c>
       <c r="F73" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>557.40607244318187</v>
       </c>
       <c r="G73" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>44815.406072443184</v>
       </c>
     </row>
@@ -2135,19 +2430,23 @@
         <v>1997</v>
       </c>
       <c r="C74" s="8">
+        <f t="shared" si="17"/>
+        <v>996.14285714285711</v>
+      </c>
+      <c r="D74" s="8">
         <f t="shared" si="15"/>
-        <v>996.14285714285711</v>
-      </c>
-      <c r="D74" s="8">
-        <f t="shared" si="14"/>
         <v>447300</v>
       </c>
+      <c r="E74" s="8">
+        <f t="shared" si="16"/>
+        <v>38202</v>
+      </c>
       <c r="F74" s="10">
-        <f t="shared" ref="F74:F99" si="16">D74/C74</f>
+        <f t="shared" ref="F74:F99" si="18">D74/C74</f>
         <v>449.03198049619965</v>
       </c>
       <c r="G74" s="9">
-        <f t="shared" ref="G74:G105" si="17">A74+F74</f>
+        <f t="shared" ref="G74:G99" si="19">A74+F74</f>
         <v>44708.031980496198</v>
       </c>
     </row>
@@ -2159,19 +2458,23 @@
         <v>1735</v>
       </c>
       <c r="C75" s="8">
+        <f t="shared" si="17"/>
+        <v>1135.8571428571429</v>
+      </c>
+      <c r="D75" s="8">
         <f t="shared" si="15"/>
-        <v>1135.8571428571429</v>
-      </c>
-      <c r="D75" s="8">
-        <f t="shared" si="14"/>
         <v>445303</v>
       </c>
+      <c r="E75" s="8">
+        <f t="shared" si="16"/>
+        <v>39937</v>
+      </c>
       <c r="F75" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>392.04137844296315</v>
       </c>
       <c r="G75" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>44652.041378442962</v>
       </c>
     </row>
@@ -2187,15 +2490,19 @@
         <v>1257.2857142857142</v>
       </c>
       <c r="D76" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>443568</v>
       </c>
+      <c r="E76" s="8">
+        <f t="shared" si="16"/>
+        <v>41469</v>
+      </c>
       <c r="F76" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>352.79809112600844</v>
       </c>
       <c r="G76" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>44613.798091126009</v>
       </c>
     </row>
@@ -2207,19 +2514,23 @@
         <v>1323</v>
       </c>
       <c r="C77" s="8">
-        <f t="shared" ref="C77:C78" si="18">(AVERAGE(B71:B77))</f>
+        <f t="shared" ref="C77:C78" si="20">(AVERAGE(B71:B77))</f>
         <v>1348.1428571428571</v>
       </c>
       <c r="D77" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>442036</v>
       </c>
+      <c r="E77" s="8">
+        <f t="shared" si="16"/>
+        <v>42792</v>
+      </c>
       <c r="F77" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>327.88513298717811</v>
       </c>
       <c r="G77" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>44589.885132987176</v>
       </c>
     </row>
@@ -2231,19 +2542,23 @@
         <v>1518</v>
       </c>
       <c r="C78" s="8">
+        <f t="shared" si="20"/>
+        <v>1481.5714285714287</v>
+      </c>
+      <c r="D78" s="8">
+        <f t="shared" si="15"/>
+        <v>440713</v>
+      </c>
+      <c r="E78" s="8">
+        <f t="shared" si="16"/>
+        <v>44310</v>
+      </c>
+      <c r="F78" s="10">
         <f t="shared" si="18"/>
-        <v>1481.5714285714287</v>
-      </c>
-      <c r="D78" s="8">
-        <f t="shared" si="14"/>
-        <v>440713</v>
-      </c>
-      <c r="F78" s="10">
-        <f t="shared" si="16"/>
         <v>297.46321473339117</v>
       </c>
       <c r="G78" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>44560.46321473339</v>
       </c>
     </row>
@@ -2255,19 +2570,23 @@
         <v>1664</v>
       </c>
       <c r="C79" s="8">
-        <f t="shared" ref="C79:C91" si="19">(AVERAGE(B73:B79))</f>
+        <f t="shared" ref="C79:C91" si="21">(AVERAGE(B73:B79))</f>
         <v>1563.1428571428571</v>
       </c>
       <c r="D79" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>439195</v>
       </c>
+      <c r="E79" s="8">
+        <f t="shared" si="16"/>
+        <v>45974</v>
+      </c>
       <c r="F79" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>280.96920124291722</v>
       </c>
       <c r="G79" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>44544.969201242915</v>
       </c>
     </row>
@@ -2279,19 +2598,23 @@
         <v>1677</v>
       </c>
       <c r="C80" s="8">
+        <f t="shared" si="21"/>
+        <v>1635.1428571428571</v>
+      </c>
+      <c r="D80" s="8">
+        <f t="shared" si="15"/>
+        <v>437531</v>
+      </c>
+      <c r="E80" s="8">
+        <f t="shared" si="16"/>
+        <v>47651</v>
+      </c>
+      <c r="F80" s="10">
+        <f t="shared" si="18"/>
+        <v>267.57967849030229</v>
+      </c>
+      <c r="G80" s="9">
         <f t="shared" si="19"/>
-        <v>1635.1428571428571</v>
-      </c>
-      <c r="D80" s="8">
-        <f t="shared" si="14"/>
-        <v>437531</v>
-      </c>
-      <c r="F80" s="10">
-        <f t="shared" si="16"/>
-        <v>267.57967849030229</v>
-      </c>
-      <c r="G80" s="9">
-        <f t="shared" si="17"/>
         <v>44532.5796784903</v>
       </c>
     </row>
@@ -2303,19 +2626,23 @@
         <v>1618</v>
       </c>
       <c r="C81" s="8">
+        <f t="shared" si="21"/>
+        <v>1581</v>
+      </c>
+      <c r="D81" s="8">
+        <f t="shared" si="15"/>
+        <v>435854</v>
+      </c>
+      <c r="E81" s="8">
+        <f t="shared" si="16"/>
+        <v>49269</v>
+      </c>
+      <c r="F81" s="10">
+        <f t="shared" si="18"/>
+        <v>275.68247944339026</v>
+      </c>
+      <c r="G81" s="9">
         <f t="shared" si="19"/>
-        <v>1581</v>
-      </c>
-      <c r="D81" s="8">
-        <f t="shared" si="14"/>
-        <v>435854</v>
-      </c>
-      <c r="F81" s="10">
-        <f t="shared" si="16"/>
-        <v>275.68247944339026</v>
-      </c>
-      <c r="G81" s="9">
-        <f t="shared" si="17"/>
         <v>44541.682479443392</v>
       </c>
     </row>
@@ -2327,19 +2654,23 @@
         <v>1855</v>
       </c>
       <c r="C82" s="8">
+        <f t="shared" si="21"/>
+        <v>1598.1428571428571</v>
+      </c>
+      <c r="D82" s="8">
+        <f t="shared" si="15"/>
+        <v>434236</v>
+      </c>
+      <c r="E82" s="8">
+        <f t="shared" si="16"/>
+        <v>51124</v>
+      </c>
+      <c r="F82" s="10">
+        <f t="shared" si="18"/>
+        <v>271.71288102261553</v>
+      </c>
+      <c r="G82" s="9">
         <f t="shared" si="19"/>
-        <v>1598.1428571428571</v>
-      </c>
-      <c r="D82" s="8">
-        <f t="shared" si="14"/>
-        <v>434236</v>
-      </c>
-      <c r="F82" s="10">
-        <f t="shared" si="16"/>
-        <v>271.71288102261553</v>
-      </c>
-      <c r="G82" s="9">
-        <f t="shared" si="17"/>
         <v>44538.712881022613</v>
       </c>
     </row>
@@ -2351,19 +2682,23 @@
         <v>1794</v>
       </c>
       <c r="C83" s="8">
+        <f t="shared" si="21"/>
+        <v>1635.5714285714287</v>
+      </c>
+      <c r="D83" s="8">
+        <f t="shared" si="15"/>
+        <v>432381</v>
+      </c>
+      <c r="E83" s="8">
+        <f t="shared" si="16"/>
+        <v>52918</v>
+      </c>
+      <c r="F83" s="10">
+        <f t="shared" si="18"/>
+        <v>264.36081753864966</v>
+      </c>
+      <c r="G83" s="9">
         <f t="shared" si="19"/>
-        <v>1635.5714285714287</v>
-      </c>
-      <c r="D83" s="8">
-        <f t="shared" si="14"/>
-        <v>432381</v>
-      </c>
-      <c r="F83" s="10">
-        <f t="shared" si="16"/>
-        <v>264.36081753864966</v>
-      </c>
-      <c r="G83" s="9">
-        <f t="shared" si="17"/>
         <v>44532.360817538647</v>
       </c>
     </row>
@@ -2375,19 +2710,23 @@
         <v>1780</v>
       </c>
       <c r="C84" s="8">
+        <f t="shared" si="21"/>
+        <v>1700.8571428571429</v>
+      </c>
+      <c r="D84" s="8">
+        <f t="shared" si="15"/>
+        <v>430587</v>
+      </c>
+      <c r="E84" s="8">
+        <f t="shared" si="16"/>
+        <v>54698</v>
+      </c>
+      <c r="F84" s="10">
+        <f t="shared" si="18"/>
+        <v>253.15882748194187</v>
+      </c>
+      <c r="G84" s="9">
         <f t="shared" si="19"/>
-        <v>1700.8571428571429</v>
-      </c>
-      <c r="D84" s="8">
-        <f t="shared" si="14"/>
-        <v>430587</v>
-      </c>
-      <c r="F84" s="10">
-        <f t="shared" si="16"/>
-        <v>253.15882748194187</v>
-      </c>
-      <c r="G84" s="9">
-        <f t="shared" si="17"/>
         <v>44522.158827481944</v>
       </c>
     </row>
@@ -2399,19 +2738,23 @@
         <v>2156</v>
       </c>
       <c r="C85" s="8">
+        <f t="shared" si="21"/>
+        <v>1792</v>
+      </c>
+      <c r="D85" s="8">
+        <f t="shared" si="15"/>
+        <v>428807</v>
+      </c>
+      <c r="E85" s="8">
+        <f t="shared" si="16"/>
+        <v>56854</v>
+      </c>
+      <c r="F85" s="10">
+        <f t="shared" si="18"/>
+        <v>239.28962053571428</v>
+      </c>
+      <c r="G85" s="9">
         <f t="shared" si="19"/>
-        <v>1792</v>
-      </c>
-      <c r="D85" s="8">
-        <f t="shared" si="14"/>
-        <v>428807</v>
-      </c>
-      <c r="F85" s="10">
-        <f t="shared" si="16"/>
-        <v>239.28962053571428</v>
-      </c>
-      <c r="G85" s="9">
-        <f t="shared" si="17"/>
         <v>44509.289620535717</v>
       </c>
     </row>
@@ -2423,19 +2766,23 @@
         <v>1708</v>
       </c>
       <c r="C86" s="8">
+        <f t="shared" si="21"/>
+        <v>1798.2857142857142</v>
+      </c>
+      <c r="D86" s="8">
+        <f t="shared" si="15"/>
+        <v>426651</v>
+      </c>
+      <c r="E86" s="8">
+        <f t="shared" si="16"/>
+        <v>58562</v>
+      </c>
+      <c r="F86" s="10">
+        <f t="shared" si="18"/>
+        <v>237.25428979980936</v>
+      </c>
+      <c r="G86" s="9">
         <f t="shared" si="19"/>
-        <v>1798.2857142857142</v>
-      </c>
-      <c r="D86" s="8">
-        <f t="shared" si="14"/>
-        <v>426651</v>
-      </c>
-      <c r="F86" s="10">
-        <f t="shared" si="16"/>
-        <v>237.25428979980936</v>
-      </c>
-      <c r="G86" s="9">
-        <f t="shared" si="17"/>
         <v>44508.254289799806</v>
       </c>
     </row>
@@ -2447,19 +2794,23 @@
         <v>1507</v>
       </c>
       <c r="C87" s="8">
+        <f t="shared" si="21"/>
+        <v>1774</v>
+      </c>
+      <c r="D87" s="8">
+        <f t="shared" si="15"/>
+        <v>424943</v>
+      </c>
+      <c r="E87" s="8">
+        <f t="shared" si="16"/>
+        <v>60069</v>
+      </c>
+      <c r="F87" s="10">
+        <f t="shared" si="18"/>
+        <v>239.53945885005638</v>
+      </c>
+      <c r="G87" s="9">
         <f t="shared" si="19"/>
-        <v>1774</v>
-      </c>
-      <c r="D87" s="8">
-        <f t="shared" si="14"/>
-        <v>424943</v>
-      </c>
-      <c r="F87" s="10">
-        <f t="shared" si="16"/>
-        <v>239.53945885005638</v>
-      </c>
-      <c r="G87" s="9">
-        <f t="shared" si="17"/>
         <v>44511.539458850057</v>
       </c>
     </row>
@@ -2471,19 +2822,23 @@
         <v>1529</v>
       </c>
       <c r="C88" s="8">
+        <f t="shared" si="21"/>
+        <v>1761.2857142857142</v>
+      </c>
+      <c r="D88" s="8">
+        <f t="shared" si="15"/>
+        <v>423436</v>
+      </c>
+      <c r="E88" s="8">
+        <f t="shared" si="16"/>
+        <v>61598</v>
+      </c>
+      <c r="F88" s="10">
+        <f t="shared" si="18"/>
+        <v>240.41300997647824</v>
+      </c>
+      <c r="G88" s="9">
         <f t="shared" si="19"/>
-        <v>1761.2857142857142</v>
-      </c>
-      <c r="D88" s="8">
-        <f t="shared" si="14"/>
-        <v>423436</v>
-      </c>
-      <c r="F88" s="10">
-        <f t="shared" si="16"/>
-        <v>240.41300997647824</v>
-      </c>
-      <c r="G88" s="9">
-        <f t="shared" si="17"/>
         <v>44513.413009976481</v>
       </c>
     </row>
@@ -2495,19 +2850,23 @@
         <v>1464</v>
       </c>
       <c r="C89" s="8">
+        <f t="shared" si="21"/>
+        <v>1705.4285714285713</v>
+      </c>
+      <c r="D89" s="8">
+        <f t="shared" si="15"/>
+        <v>421907</v>
+      </c>
+      <c r="E89" s="8">
+        <f t="shared" si="16"/>
+        <v>63062</v>
+      </c>
+      <c r="F89" s="10">
+        <f t="shared" si="18"/>
+        <v>247.39060144077737</v>
+      </c>
+      <c r="G89" s="9">
         <f t="shared" si="19"/>
-        <v>1705.4285714285713</v>
-      </c>
-      <c r="D89" s="8">
-        <f t="shared" si="14"/>
-        <v>421907</v>
-      </c>
-      <c r="F89" s="10">
-        <f t="shared" si="16"/>
-        <v>247.39060144077737</v>
-      </c>
-      <c r="G89" s="9">
-        <f t="shared" si="17"/>
         <v>44521.390601440777</v>
       </c>
     </row>
@@ -2519,19 +2878,23 @@
         <v>1519</v>
       </c>
       <c r="C90" s="8">
+        <f t="shared" si="21"/>
+        <v>1666.1428571428571</v>
+      </c>
+      <c r="D90" s="8">
+        <f t="shared" si="15"/>
+        <v>420443</v>
+      </c>
+      <c r="E90" s="8">
+        <f t="shared" si="16"/>
+        <v>64581</v>
+      </c>
+      <c r="F90" s="10">
+        <f t="shared" si="18"/>
+        <v>252.34510846265971</v>
+      </c>
+      <c r="G90" s="9">
         <f t="shared" si="19"/>
-        <v>1666.1428571428571</v>
-      </c>
-      <c r="D90" s="8">
-        <f t="shared" si="14"/>
-        <v>420443</v>
-      </c>
-      <c r="F90" s="10">
-        <f t="shared" si="16"/>
-        <v>252.34510846265971</v>
-      </c>
-      <c r="G90" s="9">
-        <f t="shared" si="17"/>
         <v>44527.345108462658</v>
       </c>
     </row>
@@ -2543,19 +2906,23 @@
         <v>1397</v>
       </c>
       <c r="C91" s="8">
+        <f t="shared" si="21"/>
+        <v>1611.4285714285713</v>
+      </c>
+      <c r="D91" s="8">
+        <f t="shared" si="15"/>
+        <v>418924</v>
+      </c>
+      <c r="E91" s="8">
+        <f t="shared" si="16"/>
+        <v>65978</v>
+      </c>
+      <c r="F91" s="10">
+        <f t="shared" si="18"/>
+        <v>259.97056737588656</v>
+      </c>
+      <c r="G91" s="9">
         <f t="shared" si="19"/>
-        <v>1611.4285714285713</v>
-      </c>
-      <c r="D91" s="8">
-        <f t="shared" si="14"/>
-        <v>418924</v>
-      </c>
-      <c r="F91" s="10">
-        <f t="shared" si="16"/>
-        <v>259.97056737588656</v>
-      </c>
-      <c r="G91" s="9">
-        <f t="shared" si="17"/>
         <v>44535.970567375887</v>
       </c>
     </row>
@@ -2567,19 +2934,23 @@
         <v>1379</v>
       </c>
       <c r="C92" s="8">
-        <f t="shared" ref="C92:C97" si="20">(AVERAGE(B86:B92))</f>
+        <f t="shared" ref="C92:C97" si="22">(AVERAGE(B86:B92))</f>
         <v>1500.4285714285713</v>
       </c>
       <c r="D92" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>417527</v>
       </c>
+      <c r="E92" s="8">
+        <f t="shared" si="16"/>
+        <v>67357</v>
+      </c>
       <c r="F92" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>278.27182709701992</v>
       </c>
       <c r="G92" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>44555.271827097022</v>
       </c>
     </row>
@@ -2591,19 +2962,23 @@
         <v>1473</v>
       </c>
       <c r="C93" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1466.8571428571429</v>
       </c>
       <c r="D93" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>416148</v>
       </c>
+      <c r="E93" s="8">
+        <f t="shared" si="16"/>
+        <v>68830</v>
+      </c>
       <c r="F93" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>283.70042851577716</v>
       </c>
       <c r="G93" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>44561.700428515775</v>
       </c>
     </row>
@@ -2615,18 +2990,22 @@
         <v>3206</v>
       </c>
       <c r="C94" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1709.5714285714287</v>
       </c>
       <c r="D94" s="8">
         <v>414675</v>
       </c>
+      <c r="E94" s="8">
+        <f t="shared" si="16"/>
+        <v>72036</v>
+      </c>
       <c r="F94" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>242.56079217849083</v>
       </c>
       <c r="G94" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>44521.56079217849</v>
       </c>
     </row>
@@ -2638,19 +3017,23 @@
         <v>3205</v>
       </c>
       <c r="C95" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1949</v>
       </c>
       <c r="D95" s="8">
         <f>(D94-B95)</f>
         <v>411470</v>
       </c>
+      <c r="E95" s="8">
+        <f t="shared" si="16"/>
+        <v>75241</v>
+      </c>
       <c r="F95" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>211.11852231913801</v>
       </c>
       <c r="G95" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>44491.118522319135</v>
       </c>
       <c r="H95" s="10"/>
@@ -2663,19 +3046,23 @@
         <v>2987</v>
       </c>
       <c r="C96" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2166.5714285714284</v>
       </c>
       <c r="D96" s="8">
         <f>(D95-B96)</f>
         <v>408483</v>
       </c>
+      <c r="E96" s="8">
+        <f t="shared" si="16"/>
+        <v>78228</v>
+      </c>
       <c r="F96" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>188.53890280891468</v>
       </c>
       <c r="G96" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>44469.538902808912</v>
       </c>
       <c r="H96" s="10"/>
@@ -2688,19 +3075,23 @@
         <v>2951</v>
       </c>
       <c r="C97" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2371.1428571428573</v>
       </c>
       <c r="D97" s="8">
         <f>(D96-B97)</f>
         <v>405532</v>
       </c>
+      <c r="E97" s="8">
+        <f t="shared" si="16"/>
+        <v>81179</v>
+      </c>
       <c r="F97" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>171.02807567176768</v>
       </c>
       <c r="G97" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>44453.028075671769</v>
       </c>
       <c r="H97" s="10"/>
@@ -2720,12 +3111,16 @@
         <f>(D97-B98)</f>
         <v>403217</v>
       </c>
+      <c r="E98" s="8">
+        <f t="shared" si="16"/>
+        <v>83494</v>
+      </c>
       <c r="F98" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>161.1394724823019</v>
       </c>
       <c r="G98" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>44444.139472482304</v>
       </c>
       <c r="H98" s="10">
@@ -2736,39 +3131,75 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="6">
+    <row r="99" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="7">
         <v>44284</v>
       </c>
-      <c r="B99" s="4">
+      <c r="B99" s="8">
         <v>2601</v>
       </c>
-      <c r="C99" s="3">
+      <c r="C99" s="10">
         <f>(AVERAGE(B93:B99))</f>
         <v>2676.8571428571427</v>
       </c>
-      <c r="D99" s="4">
+      <c r="D99" s="8">
         <f>(D98-B99)</f>
         <v>400616</v>
       </c>
-      <c r="F99" s="3">
+      <c r="E99" s="8">
         <f t="shared" si="16"/>
+        <v>86095</v>
+      </c>
+      <c r="F99" s="10">
+        <f t="shared" si="18"/>
         <v>149.65908848329599</v>
       </c>
-      <c r="G99" s="5">
-        <f t="shared" si="17"/>
+      <c r="G99" s="9">
+        <f t="shared" si="19"/>
         <v>44433.659088483299</v>
       </c>
-      <c r="H99" s="3">
+      <c r="H99" s="10">
         <f>D99/84</f>
         <v>4769.2380952380954</v>
       </c>
-      <c r="I99" s="4" t="s">
+      <c r="I99" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A100" s="1"/>
+    <row r="100" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="6">
+        <v>44285</v>
+      </c>
+      <c r="B100" s="4">
+        <v>3184</v>
+      </c>
+      <c r="C100" s="3">
+        <f>(AVERAGE(B94:B100))</f>
+        <v>2921.2857142857142</v>
+      </c>
+      <c r="D100" s="4">
+        <f>(D99-B100)</f>
+        <v>397432</v>
+      </c>
+      <c r="E100" s="4">
+        <f t="shared" si="16"/>
+        <v>89279</v>
+      </c>
+      <c r="F100" s="3">
+        <f t="shared" ref="F100" si="23">D100/C100</f>
+        <v>136.04694606093207</v>
+      </c>
+      <c r="G100" s="5">
+        <f t="shared" ref="G100" si="24">A100+F100</f>
+        <v>44421.046946060931</v>
+      </c>
+      <c r="H100" s="3">
+        <f t="shared" ref="H100:H101" si="25">D100/84</f>
+        <v>4731.333333333333</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>

--- a/durham_daily_vaccinations.xlsx
+++ b/durham_daily_vaccinations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BDEAA83-A848-2541-ACF1-7E3D2F85AAC2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583B8644-3A72-EC44-9613-0F1347C05496}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19620" xr2:uid="{D878B493-02AB-054E-B330-D20DF148DE7B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -448,7 +448,7 @@
   <dimension ref="A1:I106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="M90" sqref="M90"/>
+      <selection activeCell="K83" sqref="K83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3021,7 +3021,7 @@
         <v>1949</v>
       </c>
       <c r="D95" s="8">
-        <f>(D94-B95)</f>
+        <f t="shared" ref="D95:D100" si="23">(D94-B95)</f>
         <v>411470</v>
       </c>
       <c r="E95" s="8">
@@ -3050,7 +3050,7 @@
         <v>2166.5714285714284</v>
       </c>
       <c r="D96" s="8">
-        <f>(D95-B96)</f>
+        <f t="shared" si="23"/>
         <v>408483</v>
       </c>
       <c r="E96" s="8">
@@ -3079,7 +3079,7 @@
         <v>2371.1428571428573</v>
       </c>
       <c r="D97" s="8">
-        <f>(D96-B97)</f>
+        <f t="shared" si="23"/>
         <v>405532</v>
       </c>
       <c r="E97" s="8">
@@ -3108,7 +3108,7 @@
         <v>2502.2857142857142</v>
       </c>
       <c r="D98" s="8">
-        <f>(D97-B98)</f>
+        <f t="shared" si="23"/>
         <v>403217</v>
       </c>
       <c r="E98" s="8">
@@ -3143,7 +3143,7 @@
         <v>2676.8571428571427</v>
       </c>
       <c r="D99" s="8">
-        <f>(D98-B99)</f>
+        <f t="shared" si="23"/>
         <v>400616</v>
       </c>
       <c r="E99" s="8">
@@ -3166,43 +3166,75 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="6">
+    <row r="100" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="7">
         <v>44285</v>
       </c>
-      <c r="B100" s="4">
+      <c r="B100" s="8">
         <v>3184</v>
       </c>
-      <c r="C100" s="3">
+      <c r="C100" s="10">
         <f>(AVERAGE(B94:B100))</f>
         <v>2921.2857142857142</v>
       </c>
-      <c r="D100" s="4">
-        <f>(D99-B100)</f>
+      <c r="D100" s="8">
+        <f t="shared" si="23"/>
         <v>397432</v>
       </c>
-      <c r="E100" s="4">
+      <c r="E100" s="8">
         <f t="shared" si="16"/>
         <v>89279</v>
       </c>
-      <c r="F100" s="3">
-        <f t="shared" ref="F100" si="23">D100/C100</f>
+      <c r="F100" s="10">
+        <f t="shared" ref="F100" si="24">D100/C100</f>
         <v>136.04694606093207</v>
       </c>
-      <c r="G100" s="5">
-        <f t="shared" ref="G100" si="24">A100+F100</f>
+      <c r="G100" s="9">
+        <f t="shared" ref="G100" si="25">A100+F100</f>
         <v>44421.046946060931</v>
       </c>
-      <c r="H100" s="3">
-        <f t="shared" ref="H100:H101" si="25">D100/84</f>
+      <c r="H100" s="10">
+        <f t="shared" ref="H100:H101" si="26">D100/84</f>
         <v>4731.333333333333</v>
       </c>
-      <c r="I100" s="4" t="s">
+      <c r="I100" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101" s="1"/>
+    <row r="101" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="6">
+        <v>44286</v>
+      </c>
+      <c r="B101" s="4">
+        <v>3774</v>
+      </c>
+      <c r="C101" s="3">
+        <f>(AVERAGE(B95:B101))</f>
+        <v>3002.4285714285716</v>
+      </c>
+      <c r="D101" s="4">
+        <f t="shared" ref="D101" si="27">(D100-B101)</f>
+        <v>393658</v>
+      </c>
+      <c r="E101" s="4">
+        <f t="shared" ref="E101" si="28">E100+B101</f>
+        <v>93053</v>
+      </c>
+      <c r="F101" s="3">
+        <f t="shared" ref="F101" si="29">D101/C101</f>
+        <v>131.11319408098205</v>
+      </c>
+      <c r="G101" s="5">
+        <f t="shared" ref="G101" si="30">A101+F101</f>
+        <v>44417.113194080979</v>
+      </c>
+      <c r="H101" s="3">
+        <f t="shared" si="26"/>
+        <v>4686.4047619047615</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>

--- a/durham_daily_vaccinations.xlsx
+++ b/durham_daily_vaccinations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583B8644-3A72-EC44-9613-0F1347C05496}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E8A5FA-24E1-8743-8EF8-B56F902C2B37}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19620" xr2:uid="{D878B493-02AB-054E-B330-D20DF148DE7B}"/>
+    <workbookView xWindow="-37760" yWindow="280" windowWidth="33600" windowHeight="19620" xr2:uid="{D878B493-02AB-054E-B330-D20DF148DE7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -445,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E82AD24-C064-B648-8062-B01E1A5F7A8D}">
-  <dimension ref="A1:I106"/>
+  <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="K83" sqref="K83"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="F105" sqref="F105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3067,7 +3067,7 @@
       </c>
       <c r="H96" s="10"/>
     </row>
-    <row r="97" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="7">
         <v>44282</v>
       </c>
@@ -3096,7 +3096,7 @@
       </c>
       <c r="H97" s="10"/>
     </row>
-    <row r="98" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="7">
         <v>44283</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="7">
         <v>44284</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="7">
         <v>44285</v>
       </c>
@@ -3201,54 +3201,88 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="6">
+    <row r="101" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="7">
         <v>44286</v>
       </c>
-      <c r="B101" s="4">
+      <c r="B101" s="8">
         <v>3774</v>
       </c>
-      <c r="C101" s="3">
+      <c r="C101" s="10">
         <f>(AVERAGE(B95:B101))</f>
         <v>3002.4285714285716</v>
       </c>
-      <c r="D101" s="4">
+      <c r="D101" s="8">
         <f t="shared" ref="D101" si="27">(D100-B101)</f>
         <v>393658</v>
       </c>
-      <c r="E101" s="4">
+      <c r="E101" s="8">
         <f t="shared" ref="E101" si="28">E100+B101</f>
         <v>93053</v>
       </c>
-      <c r="F101" s="3">
+      <c r="F101" s="10">
         <f t="shared" ref="F101" si="29">D101/C101</f>
         <v>131.11319408098205</v>
       </c>
-      <c r="G101" s="5">
+      <c r="G101" s="9">
         <f t="shared" ref="G101" si="30">A101+F101</f>
         <v>44417.113194080979</v>
       </c>
-      <c r="H101" s="3">
+      <c r="H101" s="10">
         <f t="shared" si="26"/>
         <v>4686.4047619047615</v>
       </c>
-      <c r="I101" s="4" t="s">
+      <c r="I101" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102" s="1"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A102" s="6">
+        <v>44287</v>
+      </c>
+      <c r="B102" s="4">
+        <v>3672</v>
+      </c>
+      <c r="C102" s="3">
+        <f>(AVERAGE(B96:B102))</f>
+        <v>3069.1428571428573</v>
+      </c>
+      <c r="D102" s="4">
+        <f t="shared" ref="D102" si="31">(D101-B102)</f>
+        <v>389986</v>
+      </c>
+      <c r="E102" s="4">
+        <f t="shared" ref="E102" si="32">E101+B102</f>
+        <v>96725</v>
+      </c>
+      <c r="F102" s="3">
+        <f t="shared" ref="F102" si="33">D102/C102</f>
+        <v>127.06674734686277</v>
+      </c>
+      <c r="G102" s="5">
+        <f t="shared" ref="G102" si="34">A102+F102</f>
+        <v>44414.066747346864</v>
+      </c>
+      <c r="H102" s="3">
+        <f t="shared" ref="H102" si="35">D102/84</f>
+        <v>4642.6904761904761</v>
+      </c>
+      <c r="I102" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J102" s="4"/>
+      <c r="K102" s="4"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
     </row>
   </sheetData>

--- a/durham_daily_vaccinations.xlsx
+++ b/durham_daily_vaccinations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E8A5FA-24E1-8743-8EF8-B56F902C2B37}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5461A983-8AFC-5348-B535-335EE9301F98}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37760" yWindow="280" windowWidth="33600" windowHeight="19620" xr2:uid="{D878B493-02AB-054E-B330-D20DF148DE7B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19680" xr2:uid="{D878B493-02AB-054E-B330-D20DF148DE7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -445,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E82AD24-C064-B648-8062-B01E1A5F7A8D}">
-  <dimension ref="A1:K106"/>
+  <dimension ref="A1:I108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="F105" sqref="F105"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2925,6 +2925,10 @@
         <f t="shared" si="19"/>
         <v>44535.970567375887</v>
       </c>
+      <c r="H91" s="10">
+        <f t="shared" ref="H91:H97" si="22">D91/84</f>
+        <v>4987.1904761904761</v>
+      </c>
     </row>
     <row r="92" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="7">
@@ -2934,7 +2938,7 @@
         <v>1379</v>
       </c>
       <c r="C92" s="8">
-        <f t="shared" ref="C92:C97" si="22">(AVERAGE(B86:B92))</f>
+        <f t="shared" ref="C92:C97" si="23">(AVERAGE(B86:B92))</f>
         <v>1500.4285714285713</v>
       </c>
       <c r="D92" s="8">
@@ -2953,6 +2957,10 @@
         <f t="shared" si="19"/>
         <v>44555.271827097022</v>
       </c>
+      <c r="H92" s="10">
+        <f t="shared" si="22"/>
+        <v>4970.5595238095239</v>
+      </c>
     </row>
     <row r="93" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="7">
@@ -2962,7 +2970,7 @@
         <v>1473</v>
       </c>
       <c r="C93" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1466.8571428571429</v>
       </c>
       <c r="D93" s="8">
@@ -2981,6 +2989,10 @@
         <f t="shared" si="19"/>
         <v>44561.700428515775</v>
       </c>
+      <c r="H93" s="10">
+        <f t="shared" si="22"/>
+        <v>4954.1428571428569</v>
+      </c>
     </row>
     <row r="94" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="7">
@@ -2990,7 +3002,7 @@
         <v>3206</v>
       </c>
       <c r="C94" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1709.5714285714287</v>
       </c>
       <c r="D94" s="8">
@@ -3008,6 +3020,10 @@
         <f t="shared" si="19"/>
         <v>44521.56079217849</v>
       </c>
+      <c r="H94" s="10">
+        <f t="shared" si="22"/>
+        <v>4936.6071428571431</v>
+      </c>
     </row>
     <row r="95" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="7">
@@ -3017,11 +3033,11 @@
         <v>3205</v>
       </c>
       <c r="C95" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1949</v>
       </c>
       <c r="D95" s="8">
-        <f t="shared" ref="D95:D100" si="23">(D94-B95)</f>
+        <f t="shared" ref="D95:D100" si="24">(D94-B95)</f>
         <v>411470</v>
       </c>
       <c r="E95" s="8">
@@ -3036,7 +3052,10 @@
         <f t="shared" si="19"/>
         <v>44491.118522319135</v>
       </c>
-      <c r="H95" s="10"/>
+      <c r="H95" s="10">
+        <f t="shared" si="22"/>
+        <v>4898.4523809523807</v>
+      </c>
     </row>
     <row r="96" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="7">
@@ -3046,11 +3065,11 @@
         <v>2987</v>
       </c>
       <c r="C96" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2166.5714285714284</v>
       </c>
       <c r="D96" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>408483</v>
       </c>
       <c r="E96" s="8">
@@ -3065,9 +3084,12 @@
         <f t="shared" si="19"/>
         <v>44469.538902808912</v>
       </c>
-      <c r="H96" s="10"/>
-    </row>
-    <row r="97" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H96" s="10">
+        <f t="shared" si="22"/>
+        <v>4862.8928571428569</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="7">
         <v>44282</v>
       </c>
@@ -3075,11 +3097,11 @@
         <v>2951</v>
       </c>
       <c r="C97" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2371.1428571428573</v>
       </c>
       <c r="D97" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>405532</v>
       </c>
       <c r="E97" s="8">
@@ -3094,9 +3116,12 @@
         <f t="shared" si="19"/>
         <v>44453.028075671769</v>
       </c>
-      <c r="H97" s="10"/>
-    </row>
-    <row r="98" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H97" s="10">
+        <f t="shared" si="22"/>
+        <v>4827.7619047619046</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="7">
         <v>44283</v>
       </c>
@@ -3104,11 +3129,11 @@
         <v>2315</v>
       </c>
       <c r="C98" s="10">
-        <f>(AVERAGE(B92:B98))</f>
+        <f t="shared" ref="C98:C103" si="25">(AVERAGE(B92:B98))</f>
         <v>2502.2857142857142</v>
       </c>
       <c r="D98" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>403217</v>
       </c>
       <c r="E98" s="8">
@@ -3127,11 +3152,8 @@
         <f>D98/84</f>
         <v>4800.2023809523807</v>
       </c>
-      <c r="I98" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="7">
         <v>44284</v>
       </c>
@@ -3139,11 +3161,11 @@
         <v>2601</v>
       </c>
       <c r="C99" s="10">
-        <f>(AVERAGE(B93:B99))</f>
+        <f t="shared" si="25"/>
         <v>2676.8571428571427</v>
       </c>
       <c r="D99" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>400616</v>
       </c>
       <c r="E99" s="8">
@@ -3162,11 +3184,8 @@
         <f>D99/84</f>
         <v>4769.2380952380954</v>
       </c>
-      <c r="I99" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="7">
         <v>44285</v>
       </c>
@@ -3174,11 +3193,11 @@
         <v>3184</v>
       </c>
       <c r="C100" s="10">
-        <f>(AVERAGE(B94:B100))</f>
+        <f t="shared" si="25"/>
         <v>2921.2857142857142</v>
       </c>
       <c r="D100" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>397432</v>
       </c>
       <c r="E100" s="8">
@@ -3186,22 +3205,19 @@
         <v>89279</v>
       </c>
       <c r="F100" s="10">
-        <f t="shared" ref="F100" si="24">D100/C100</f>
+        <f t="shared" ref="F100" si="26">D100/C100</f>
         <v>136.04694606093207</v>
       </c>
       <c r="G100" s="9">
-        <f t="shared" ref="G100" si="25">A100+F100</f>
+        <f t="shared" ref="G100" si="27">A100+F100</f>
         <v>44421.046946060931</v>
       </c>
       <c r="H100" s="10">
-        <f t="shared" ref="H100:H101" si="26">D100/84</f>
+        <f t="shared" ref="H100:H101" si="28">D100/84</f>
         <v>4731.333333333333</v>
       </c>
-      <c r="I100" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="7">
         <v>44286</v>
       </c>
@@ -3209,81 +3225,119 @@
         <v>3774</v>
       </c>
       <c r="C101" s="10">
-        <f>(AVERAGE(B95:B101))</f>
+        <f t="shared" si="25"/>
         <v>3002.4285714285716</v>
       </c>
       <c r="D101" s="8">
-        <f t="shared" ref="D101" si="27">(D100-B101)</f>
+        <f t="shared" ref="D101" si="29">(D100-B101)</f>
         <v>393658</v>
       </c>
       <c r="E101" s="8">
-        <f t="shared" ref="E101" si="28">E100+B101</f>
+        <f t="shared" ref="E101" si="30">E100+B101</f>
         <v>93053</v>
       </c>
       <c r="F101" s="10">
-        <f t="shared" ref="F101" si="29">D101/C101</f>
+        <f t="shared" ref="F101" si="31">D101/C101</f>
         <v>131.11319408098205</v>
       </c>
       <c r="G101" s="9">
-        <f t="shared" ref="G101" si="30">A101+F101</f>
+        <f t="shared" ref="G101" si="32">A101+F101</f>
         <v>44417.113194080979</v>
       </c>
       <c r="H101" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>4686.4047619047615</v>
       </c>
-      <c r="I101" s="8" t="s">
+    </row>
+    <row r="102" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="7">
+        <v>44287</v>
+      </c>
+      <c r="B102" s="8">
+        <v>3672</v>
+      </c>
+      <c r="C102" s="10">
+        <f t="shared" si="25"/>
+        <v>3069.1428571428573</v>
+      </c>
+      <c r="D102" s="8">
+        <f t="shared" ref="D102" si="33">(D101-B102)</f>
+        <v>389986</v>
+      </c>
+      <c r="E102" s="8">
+        <f t="shared" ref="E102" si="34">E101+B102</f>
+        <v>96725</v>
+      </c>
+      <c r="F102" s="10">
+        <f t="shared" ref="F102" si="35">D102/C102</f>
+        <v>127.06674734686277</v>
+      </c>
+      <c r="G102" s="9">
+        <f t="shared" ref="G102" si="36">A102+F102</f>
+        <v>44414.066747346864</v>
+      </c>
+      <c r="H102" s="10">
+        <f t="shared" ref="H102" si="37">D102/84</f>
+        <v>4642.6904761904761</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="6">
+        <v>44288</v>
+      </c>
+      <c r="B103" s="4">
+        <v>3385</v>
+      </c>
+      <c r="C103" s="3">
+        <f t="shared" si="25"/>
+        <v>3126</v>
+      </c>
+      <c r="D103" s="4">
+        <f t="shared" ref="D103" si="38">(D102-B103)</f>
+        <v>386601</v>
+      </c>
+      <c r="E103" s="4">
+        <f t="shared" ref="E103" si="39">E102+B103</f>
+        <v>100110</v>
+      </c>
+      <c r="F103" s="3">
+        <f t="shared" ref="F103" si="40">D103/C103</f>
+        <v>123.67274472168906</v>
+      </c>
+      <c r="G103" s="5">
+        <f t="shared" ref="G103" si="41">A103+F103</f>
+        <v>44411.672744721691</v>
+      </c>
+      <c r="H103" s="3">
+        <f t="shared" ref="H103" si="42">D103/84</f>
+        <v>4602.3928571428569</v>
+      </c>
+      <c r="I103" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A102" s="6">
-        <v>44287</v>
-      </c>
-      <c r="B102" s="4">
-        <v>3672</v>
-      </c>
-      <c r="C102" s="3">
-        <f>(AVERAGE(B96:B102))</f>
-        <v>3069.1428571428573</v>
-      </c>
-      <c r="D102" s="4">
-        <f t="shared" ref="D102" si="31">(D101-B102)</f>
-        <v>389986</v>
-      </c>
-      <c r="E102" s="4">
-        <f t="shared" ref="E102" si="32">E101+B102</f>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" s="1"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105" s="1"/>
+      <c r="B105">
+        <f>SUM(B2:B102)</f>
         <v>96725</v>
       </c>
-      <c r="F102" s="3">
-        <f t="shared" ref="F102" si="33">D102/C102</f>
-        <v>127.06674734686277</v>
-      </c>
-      <c r="G102" s="5">
-        <f t="shared" ref="G102" si="34">A102+F102</f>
-        <v>44414.066747346864</v>
-      </c>
-      <c r="H102" s="3">
-        <f t="shared" ref="H102" si="35">D102/84</f>
-        <v>4642.6904761904761</v>
-      </c>
-      <c r="I102" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J102" s="4"/>
-      <c r="K102" s="4"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A103" s="1"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A104" s="1"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A105" s="1"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
+      <c r="B106">
+        <f>B105-(98790+1320)</f>
+        <v>-3385</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B108">
+        <f>SUM(B2:B103)</f>
+        <v>100110</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/durham_daily_vaccinations.xlsx
+++ b/durham_daily_vaccinations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5461A983-8AFC-5348-B535-335EE9301F98}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63BD7CD-F525-1C4A-9E5E-8E5F2B6DBCFA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19680" xr2:uid="{D878B493-02AB-054E-B330-D20DF148DE7B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19660" xr2:uid="{D878B493-02AB-054E-B330-D20DF148DE7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -445,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E82AD24-C064-B648-8062-B01E1A5F7A8D}">
-  <dimension ref="A1:I108"/>
+  <dimension ref="A1:I110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+      <selection activeCell="G108" sqref="G108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2875,11 +2875,11 @@
         <v>44275</v>
       </c>
       <c r="B90" s="8">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="C90" s="8">
         <f t="shared" si="21"/>
-        <v>1666.1428571428571</v>
+        <v>1666</v>
       </c>
       <c r="D90" s="8">
         <f t="shared" si="15"/>
@@ -2887,15 +2887,15 @@
       </c>
       <c r="E90" s="8">
         <f t="shared" si="16"/>
-        <v>64581</v>
+        <v>64580</v>
       </c>
       <c r="F90" s="10">
         <f t="shared" si="18"/>
-        <v>252.34510846265971</v>
+        <v>252.36674669867946</v>
       </c>
       <c r="G90" s="9">
         <f t="shared" si="19"/>
-        <v>44527.345108462658</v>
+        <v>44527.366746698681</v>
       </c>
     </row>
     <row r="91" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -2903,7 +2903,7 @@
         <v>44276</v>
       </c>
       <c r="B91" s="8">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="C91" s="8">
         <f t="shared" si="21"/>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="D91" s="8">
         <f t="shared" si="15"/>
-        <v>418924</v>
+        <v>418925</v>
       </c>
       <c r="E91" s="8">
         <f t="shared" si="16"/>
@@ -2919,15 +2919,15 @@
       </c>
       <c r="F91" s="10">
         <f t="shared" si="18"/>
-        <v>259.97056737588656</v>
+        <v>259.97118794326241</v>
       </c>
       <c r="G91" s="9">
         <f t="shared" si="19"/>
-        <v>44535.970567375887</v>
+        <v>44535.971187943265</v>
       </c>
       <c r="H91" s="10">
         <f t="shared" ref="H91:H97" si="22">D91/84</f>
-        <v>4987.1904761904761</v>
+        <v>4987.2023809523807</v>
       </c>
     </row>
     <row r="92" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -3030,31 +3030,31 @@
         <v>44280</v>
       </c>
       <c r="B95" s="8">
-        <v>3205</v>
+        <v>3206</v>
       </c>
       <c r="C95" s="10">
         <f t="shared" si="23"/>
-        <v>1949</v>
+        <v>1949.1428571428571</v>
       </c>
       <c r="D95" s="8">
         <f t="shared" ref="D95:D100" si="24">(D94-B95)</f>
-        <v>411470</v>
+        <v>411469</v>
       </c>
       <c r="E95" s="8">
         <f t="shared" si="16"/>
-        <v>75241</v>
+        <v>75242</v>
       </c>
       <c r="F95" s="10">
         <f t="shared" si="18"/>
-        <v>211.11852231913801</v>
+        <v>211.10253591322194</v>
       </c>
       <c r="G95" s="9">
         <f t="shared" si="19"/>
-        <v>44491.118522319135</v>
+        <v>44491.102535913225</v>
       </c>
       <c r="H95" s="10">
         <f t="shared" si="22"/>
-        <v>4898.4523809523807</v>
+        <v>4898.4404761904761</v>
       </c>
     </row>
     <row r="96" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -3066,27 +3066,27 @@
       </c>
       <c r="C96" s="10">
         <f t="shared" si="23"/>
-        <v>2166.5714285714284</v>
+        <v>2166.7142857142858</v>
       </c>
       <c r="D96" s="8">
         <f t="shared" si="24"/>
-        <v>408483</v>
+        <v>408482</v>
       </c>
       <c r="E96" s="8">
         <f t="shared" si="16"/>
-        <v>78228</v>
+        <v>78229</v>
       </c>
       <c r="F96" s="10">
         <f t="shared" si="18"/>
-        <v>188.53890280891468</v>
+        <v>188.52601041735346</v>
       </c>
       <c r="G96" s="9">
         <f t="shared" si="19"/>
-        <v>44469.538902808912</v>
+        <v>44469.52601041735</v>
       </c>
       <c r="H96" s="10">
         <f t="shared" si="22"/>
-        <v>4862.8928571428569</v>
+        <v>4862.8809523809523</v>
       </c>
     </row>
     <row r="97" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -3094,11 +3094,11 @@
         <v>44282</v>
       </c>
       <c r="B97" s="8">
-        <v>2951</v>
+        <v>2950</v>
       </c>
       <c r="C97" s="10">
         <f t="shared" si="23"/>
-        <v>2371.1428571428573</v>
+        <v>2371.2857142857142</v>
       </c>
       <c r="D97" s="8">
         <f t="shared" si="24"/>
@@ -3110,11 +3110,11 @@
       </c>
       <c r="F97" s="10">
         <f t="shared" si="18"/>
-        <v>171.02807567176768</v>
+        <v>171.01777215494909</v>
       </c>
       <c r="G97" s="9">
         <f t="shared" si="19"/>
-        <v>44453.028075671769</v>
+        <v>44453.017772154948</v>
       </c>
       <c r="H97" s="10">
         <f t="shared" si="22"/>
@@ -3158,31 +3158,31 @@
         <v>44284</v>
       </c>
       <c r="B99" s="8">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="C99" s="10">
         <f t="shared" si="25"/>
-        <v>2676.8571428571427</v>
+        <v>2676.7142857142858</v>
       </c>
       <c r="D99" s="8">
         <f t="shared" si="24"/>
-        <v>400616</v>
+        <v>400617</v>
       </c>
       <c r="E99" s="8">
         <f t="shared" si="16"/>
-        <v>86095</v>
+        <v>86094</v>
       </c>
       <c r="F99" s="10">
         <f t="shared" si="18"/>
-        <v>149.65908848329599</v>
+        <v>149.66744943160592</v>
       </c>
       <c r="G99" s="9">
         <f t="shared" si="19"/>
-        <v>44433.659088483299</v>
+        <v>44433.667449431603</v>
       </c>
       <c r="H99" s="10">
         <f>D99/84</f>
-        <v>4769.2380952380954</v>
+        <v>4769.25</v>
       </c>
     </row>
     <row r="100" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -3194,27 +3194,27 @@
       </c>
       <c r="C100" s="10">
         <f t="shared" si="25"/>
-        <v>2921.2857142857142</v>
+        <v>2921.1428571428573</v>
       </c>
       <c r="D100" s="8">
         <f t="shared" si="24"/>
-        <v>397432</v>
+        <v>397433</v>
       </c>
       <c r="E100" s="8">
         <f t="shared" si="16"/>
-        <v>89279</v>
+        <v>89278</v>
       </c>
       <c r="F100" s="10">
         <f t="shared" ref="F100" si="26">D100/C100</f>
-        <v>136.04694606093207</v>
+        <v>136.05394170579029</v>
       </c>
       <c r="G100" s="9">
         <f t="shared" ref="G100" si="27">A100+F100</f>
-        <v>44421.046946060931</v>
+        <v>44421.053941705788</v>
       </c>
       <c r="H100" s="10">
         <f t="shared" ref="H100:H101" si="28">D100/84</f>
-        <v>4731.333333333333</v>
+        <v>4731.3452380952385</v>
       </c>
     </row>
     <row r="101" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -3226,27 +3226,27 @@
       </c>
       <c r="C101" s="10">
         <f t="shared" si="25"/>
-        <v>3002.4285714285716</v>
+        <v>3002.2857142857142</v>
       </c>
       <c r="D101" s="8">
         <f t="shared" ref="D101" si="29">(D100-B101)</f>
-        <v>393658</v>
+        <v>393659</v>
       </c>
       <c r="E101" s="8">
         <f t="shared" ref="E101" si="30">E100+B101</f>
-        <v>93053</v>
+        <v>93052</v>
       </c>
       <c r="F101" s="10">
         <f t="shared" ref="F101" si="31">D101/C101</f>
-        <v>131.11319408098205</v>
+        <v>131.11976589265322</v>
       </c>
       <c r="G101" s="9">
         <f t="shared" ref="G101" si="32">A101+F101</f>
-        <v>44417.113194080979</v>
+        <v>44417.119765892654</v>
       </c>
       <c r="H101" s="10">
         <f t="shared" si="28"/>
-        <v>4686.4047619047615</v>
+        <v>4686.416666666667</v>
       </c>
     </row>
     <row r="102" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -3254,11 +3254,11 @@
         <v>44287</v>
       </c>
       <c r="B102" s="8">
-        <v>3672</v>
+        <v>3673</v>
       </c>
       <c r="C102" s="10">
         <f t="shared" si="25"/>
-        <v>3069.1428571428573</v>
+        <v>3069</v>
       </c>
       <c r="D102" s="8">
         <f t="shared" ref="D102" si="33">(D101-B102)</f>
@@ -3270,73 +3270,108 @@
       </c>
       <c r="F102" s="10">
         <f t="shared" ref="F102" si="35">D102/C102</f>
-        <v>127.06674734686277</v>
+        <v>127.07266210492017</v>
       </c>
       <c r="G102" s="9">
         <f t="shared" ref="G102" si="36">A102+F102</f>
-        <v>44414.066747346864</v>
+        <v>44414.072662104918</v>
       </c>
       <c r="H102" s="10">
         <f t="shared" ref="H102" si="37">D102/84</f>
         <v>4642.6904761904761</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="6">
+    <row r="103" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="7">
         <v>44288</v>
       </c>
-      <c r="B103" s="4">
-        <v>3385</v>
-      </c>
-      <c r="C103" s="3">
+      <c r="B103" s="8">
+        <v>3387</v>
+      </c>
+      <c r="C103" s="10">
         <f t="shared" si="25"/>
-        <v>3126</v>
-      </c>
-      <c r="D103" s="4">
+        <v>3126.1428571428573</v>
+      </c>
+      <c r="D103" s="8">
         <f t="shared" ref="D103" si="38">(D102-B103)</f>
-        <v>386601</v>
-      </c>
-      <c r="E103" s="4">
+        <v>386599</v>
+      </c>
+      <c r="E103" s="8">
         <f t="shared" ref="E103" si="39">E102+B103</f>
-        <v>100110</v>
-      </c>
-      <c r="F103" s="3">
+        <v>100112</v>
+      </c>
+      <c r="F103" s="10">
         <f t="shared" ref="F103" si="40">D103/C103</f>
-        <v>123.67274472168906</v>
-      </c>
-      <c r="G103" s="5">
+        <v>123.66645341132386</v>
+      </c>
+      <c r="G103" s="9">
         <f t="shared" ref="G103" si="41">A103+F103</f>
-        <v>44411.672744721691</v>
-      </c>
-      <c r="H103" s="3">
+        <v>44411.666453411322</v>
+      </c>
+      <c r="H103" s="10">
         <f t="shared" ref="H103" si="42">D103/84</f>
-        <v>4602.3928571428569</v>
-      </c>
-      <c r="I103" s="4" t="s">
+        <v>4602.3690476190477</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="6">
+        <v>44289</v>
+      </c>
+      <c r="B104" s="4">
+        <v>3560</v>
+      </c>
+      <c r="C104" s="3">
+        <f>(AVERAGE(B98:B104))</f>
+        <v>3213.2857142857142</v>
+      </c>
+      <c r="D104" s="4">
+        <f t="shared" ref="D104" si="43">(D103-B104)</f>
+        <v>383039</v>
+      </c>
+      <c r="E104" s="4">
+        <f t="shared" ref="E104" si="44">E103+B104</f>
+        <v>103672</v>
+      </c>
+      <c r="F104" s="3">
+        <f t="shared" ref="F104" si="45">D104/C104</f>
+        <v>119.20477481883253</v>
+      </c>
+      <c r="G104" s="5">
+        <f t="shared" ref="G104" si="46">A104+F104</f>
+        <v>44408.204774818834</v>
+      </c>
+      <c r="H104" s="3">
+        <f t="shared" ref="H104" si="47">D104/84</f>
+        <v>4559.9880952380954</v>
+      </c>
+      <c r="I104" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104" s="1"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
-      <c r="B105">
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" s="1"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" s="1"/>
+      <c r="B107">
         <f>SUM(B2:B102)</f>
         <v>96725</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A106" s="1"/>
-      <c r="B106">
-        <f>B105-(98790+1320)</f>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108" s="1"/>
+      <c r="B108">
+        <f>B107-(98790+1320)</f>
         <v>-3385</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B108">
-        <f>SUM(B2:B103)</f>
-        <v>100110</v>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B110">
+        <f>SUM(B2:B104)</f>
+        <v>103672</v>
       </c>
     </row>
   </sheetData>

--- a/durham_daily_vaccinations.xlsx
+++ b/durham_daily_vaccinations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63BD7CD-F525-1C4A-9E5E-8E5F2B6DBCFA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F888ACB-1772-A341-B3CC-253D6199C165}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19660" xr2:uid="{D878B493-02AB-054E-B330-D20DF148DE7B}"/>
   </bookViews>
@@ -447,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E82AD24-C064-B648-8062-B01E1A5F7A8D}">
   <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="G108" sqref="G108"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3313,43 +3313,72 @@
         <v>4602.3690476190477</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="6">
+    <row r="104" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="7">
         <v>44289</v>
       </c>
-      <c r="B104" s="4">
+      <c r="B104" s="8">
         <v>3560</v>
       </c>
-      <c r="C104" s="3">
+      <c r="C104" s="10">
         <f>(AVERAGE(B98:B104))</f>
         <v>3213.2857142857142</v>
       </c>
-      <c r="D104" s="4">
+      <c r="D104" s="8">
         <f t="shared" ref="D104" si="43">(D103-B104)</f>
         <v>383039</v>
       </c>
-      <c r="E104" s="4">
+      <c r="E104" s="8">
         <f t="shared" ref="E104" si="44">E103+B104</f>
         <v>103672</v>
       </c>
-      <c r="F104" s="3">
+      <c r="F104" s="10">
         <f t="shared" ref="F104" si="45">D104/C104</f>
         <v>119.20477481883253</v>
       </c>
-      <c r="G104" s="5">
+      <c r="G104" s="9">
         <f t="shared" ref="G104" si="46">A104+F104</f>
         <v>44408.204774818834</v>
       </c>
-      <c r="H104" s="3">
+      <c r="H104" s="10">
         <f t="shared" ref="H104" si="47">D104/84</f>
         <v>4559.9880952380954</v>
       </c>
-      <c r="I104" s="4" t="s">
+    </row>
+    <row r="105" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="6">
+        <v>44290</v>
+      </c>
+      <c r="B105" s="4">
+        <v>3752</v>
+      </c>
+      <c r="C105" s="3">
+        <f>(AVERAGE(B99:B105))</f>
+        <v>3418.5714285714284</v>
+      </c>
+      <c r="D105" s="4">
+        <f t="shared" ref="D105" si="48">(D104-B105)</f>
+        <v>379287</v>
+      </c>
+      <c r="E105" s="4">
+        <f t="shared" ref="E105" si="49">E104+B105</f>
+        <v>107424</v>
+      </c>
+      <c r="F105" s="3">
+        <f t="shared" ref="F105" si="50">D105/C105</f>
+        <v>110.94897618052654</v>
+      </c>
+      <c r="G105" s="5">
+        <f t="shared" ref="G105" si="51">A105+F105</f>
+        <v>44400.948976180523</v>
+      </c>
+      <c r="H105" s="3">
+        <f t="shared" ref="H105" si="52">D105/84</f>
+        <v>4515.3214285714284</v>
+      </c>
+      <c r="I105" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" s="1"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
@@ -3370,8 +3399,8 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B110">
-        <f>SUM(B2:B104)</f>
-        <v>103672</v>
+        <f>SUM(B2:B105)</f>
+        <v>107424</v>
       </c>
     </row>
   </sheetData>

--- a/durham_daily_vaccinations.xlsx
+++ b/durham_daily_vaccinations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F888ACB-1772-A341-B3CC-253D6199C165}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D33EEDF-BB08-EA4D-8DCF-DF1AF1D3BA32}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19660" xr2:uid="{D878B493-02AB-054E-B330-D20DF148DE7B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19640" xr2:uid="{D878B493-02AB-054E-B330-D20DF148DE7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -447,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E82AD24-C064-B648-8062-B01E1A5F7A8D}">
   <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="E108" sqref="E108"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3345,62 +3345,91 @@
         <v>4559.9880952380954</v>
       </c>
     </row>
-    <row r="105" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="6">
+    <row r="105" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="7">
         <v>44290</v>
       </c>
-      <c r="B105" s="4">
+      <c r="B105" s="8">
         <v>3752</v>
       </c>
-      <c r="C105" s="3">
+      <c r="C105" s="10">
         <f>(AVERAGE(B99:B105))</f>
         <v>3418.5714285714284</v>
       </c>
-      <c r="D105" s="4">
+      <c r="D105" s="8">
         <f t="shared" ref="D105" si="48">(D104-B105)</f>
         <v>379287</v>
       </c>
-      <c r="E105" s="4">
+      <c r="E105" s="8">
         <f t="shared" ref="E105" si="49">E104+B105</f>
         <v>107424</v>
       </c>
-      <c r="F105" s="3">
+      <c r="F105" s="10">
         <f t="shared" ref="F105" si="50">D105/C105</f>
         <v>110.94897618052654</v>
       </c>
-      <c r="G105" s="5">
+      <c r="G105" s="9">
         <f t="shared" ref="G105" si="51">A105+F105</f>
         <v>44400.948976180523</v>
       </c>
-      <c r="H105" s="3">
+      <c r="H105" s="10">
         <f t="shared" ref="H105" si="52">D105/84</f>
         <v>4515.3214285714284</v>
       </c>
-      <c r="I105" s="4" t="s">
+    </row>
+    <row r="106" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="6">
+        <v>44291</v>
+      </c>
+      <c r="B106" s="4">
+        <v>3759</v>
+      </c>
+      <c r="C106" s="3">
+        <f>(AVERAGE(B100:B106))</f>
+        <v>3584.1428571428573</v>
+      </c>
+      <c r="D106" s="4">
+        <f t="shared" ref="D106" si="53">(D105-B106)</f>
+        <v>375528</v>
+      </c>
+      <c r="E106" s="4">
+        <f t="shared" ref="E106" si="54">E105+B106</f>
+        <v>111183</v>
+      </c>
+      <c r="F106" s="3">
+        <f t="shared" ref="F106" si="55">D106/C106</f>
+        <v>104.77484156403204</v>
+      </c>
+      <c r="G106" s="5">
+        <f t="shared" ref="G106" si="56">A106+F106</f>
+        <v>44395.774841564031</v>
+      </c>
+      <c r="H106" s="3">
+        <f t="shared" ref="H106" si="57">D106/84</f>
+        <v>4470.5714285714284</v>
+      </c>
+      <c r="I106" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A106" s="1"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
-      <c r="B107">
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108" s="1"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" s="1"/>
+      <c r="B109">
         <f>SUM(B2:B102)</f>
         <v>96725</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A108" s="1"/>
-      <c r="B108">
-        <f>B107-(98790+1320)</f>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110" s="1"/>
+      <c r="B110">
+        <f>B109-(98790+1320)</f>
         <v>-3385</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B110">
-        <f>SUM(B2:B105)</f>
-        <v>107424</v>
       </c>
     </row>
   </sheetData>

--- a/durham_daily_vaccinations.xlsx
+++ b/durham_daily_vaccinations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D33EEDF-BB08-EA4D-8DCF-DF1AF1D3BA32}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E560A463-16DB-9848-86B5-115914E457F9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19640" xr2:uid="{D878B493-02AB-054E-B330-D20DF148DE7B}"/>
   </bookViews>
@@ -445,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E82AD24-C064-B648-8062-B01E1A5F7A8D}">
-  <dimension ref="A1:I110"/>
+  <dimension ref="A1:I111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="E110" sqref="E110"/>
+      <selection activeCell="G112" sqref="G112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3377,58 +3377,90 @@
         <v>4515.3214285714284</v>
       </c>
     </row>
-    <row r="106" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="6">
+    <row r="106" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="7">
         <v>44291</v>
       </c>
-      <c r="B106" s="4">
+      <c r="B106" s="8">
         <v>3759</v>
       </c>
-      <c r="C106" s="3">
+      <c r="C106" s="10">
         <f>(AVERAGE(B100:B106))</f>
         <v>3584.1428571428573</v>
       </c>
-      <c r="D106" s="4">
+      <c r="D106" s="8">
         <f t="shared" ref="D106" si="53">(D105-B106)</f>
         <v>375528</v>
       </c>
-      <c r="E106" s="4">
+      <c r="E106" s="8">
         <f t="shared" ref="E106" si="54">E105+B106</f>
         <v>111183</v>
       </c>
-      <c r="F106" s="3">
+      <c r="F106" s="10">
         <f t="shared" ref="F106" si="55">D106/C106</f>
         <v>104.77484156403204</v>
       </c>
-      <c r="G106" s="5">
+      <c r="G106" s="9">
         <f t="shared" ref="G106" si="56">A106+F106</f>
         <v>44395.774841564031</v>
       </c>
-      <c r="H106" s="3">
+      <c r="H106" s="10">
         <f t="shared" ref="H106" si="57">D106/84</f>
         <v>4470.5714285714284</v>
       </c>
-      <c r="I106" s="4" t="s">
+    </row>
+    <row r="107" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="6">
+        <v>44292</v>
+      </c>
+      <c r="B107" s="4">
+        <v>3299</v>
+      </c>
+      <c r="C107" s="3">
+        <f>(AVERAGE(B101:B107))</f>
+        <v>3600.5714285714284</v>
+      </c>
+      <c r="D107" s="4">
+        <f t="shared" ref="D107" si="58">(D106-B107)</f>
+        <v>372229</v>
+      </c>
+      <c r="E107" s="4">
+        <f t="shared" ref="E107" si="59">E106+B107</f>
+        <v>114482</v>
+      </c>
+      <c r="F107" s="3">
+        <f t="shared" ref="F107" si="60">D107/C107</f>
+        <v>103.38053483574036</v>
+      </c>
+      <c r="G107" s="5">
+        <f t="shared" ref="G107" si="61">A107+F107</f>
+        <v>44395.380534835742</v>
+      </c>
+      <c r="H107" s="3">
+        <f t="shared" ref="H107" si="62">D107/84</f>
+        <v>4431.2976190476193</v>
+      </c>
+      <c r="I107" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A107" s="1"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
-      <c r="B109">
-        <f>SUM(B2:B102)</f>
-        <v>96725</v>
-      </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110">
-        <f>B109-(98790+1320)</f>
+        <f>SUM(B2:B102)</f>
+        <v>96725</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111" s="1"/>
+      <c r="B111">
+        <f>B110-(98790+1320)</f>
         <v>-3385</v>
       </c>
     </row>

--- a/durham_daily_vaccinations.xlsx
+++ b/durham_daily_vaccinations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E560A463-16DB-9848-86B5-115914E457F9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCEEF266-8123-0742-B922-89A80EF2ED0D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19640" xr2:uid="{D878B493-02AB-054E-B330-D20DF148DE7B}"/>
   </bookViews>
@@ -445,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E82AD24-C064-B648-8062-B01E1A5F7A8D}">
-  <dimension ref="A1:I111"/>
+  <dimension ref="A1:I113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="G112" sqref="G112"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="J115" sqref="J115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3409,58 +3409,93 @@
         <v>4470.5714285714284</v>
       </c>
     </row>
-    <row r="107" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="6">
+    <row r="107" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="7">
         <v>44292</v>
       </c>
-      <c r="B107" s="4">
-        <v>3299</v>
-      </c>
-      <c r="C107" s="3">
+      <c r="B107" s="8">
+        <v>3303</v>
+      </c>
+      <c r="C107" s="10">
         <f>(AVERAGE(B101:B107))</f>
-        <v>3600.5714285714284</v>
-      </c>
-      <c r="D107" s="4">
+        <v>3601.1428571428573</v>
+      </c>
+      <c r="D107" s="8">
         <f t="shared" ref="D107" si="58">(D106-B107)</f>
-        <v>372229</v>
-      </c>
-      <c r="E107" s="4">
+        <v>372225</v>
+      </c>
+      <c r="E107" s="8">
         <f t="shared" ref="E107" si="59">E106+B107</f>
-        <v>114482</v>
-      </c>
-      <c r="F107" s="3">
+        <v>114486</v>
+      </c>
+      <c r="F107" s="10">
         <f t="shared" ref="F107" si="60">D107/C107</f>
-        <v>103.38053483574036</v>
-      </c>
-      <c r="G107" s="5">
+        <v>103.36301967629323</v>
+      </c>
+      <c r="G107" s="9">
         <f t="shared" ref="G107" si="61">A107+F107</f>
-        <v>44395.380534835742</v>
-      </c>
-      <c r="H107" s="3">
+        <v>44395.36301967629</v>
+      </c>
+      <c r="H107" s="10">
         <f t="shared" ref="H107" si="62">D107/84</f>
-        <v>4431.2976190476193</v>
-      </c>
-      <c r="I107" s="4" t="s">
+        <v>4431.25</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="6">
+        <v>44293</v>
+      </c>
+      <c r="B108" s="4">
+        <v>3096</v>
+      </c>
+      <c r="C108" s="3">
+        <f>(AVERAGE(B102:B108))</f>
+        <v>3504.2857142857142</v>
+      </c>
+      <c r="D108" s="4">
+        <f t="shared" ref="D108" si="63">(D107-B108)</f>
+        <v>369129</v>
+      </c>
+      <c r="E108" s="4">
+        <f t="shared" ref="E108" si="64">E107+B108</f>
+        <v>117582</v>
+      </c>
+      <c r="F108" s="3">
+        <f t="shared" ref="F108" si="65">D108/C108</f>
+        <v>105.33644516918059</v>
+      </c>
+      <c r="G108" s="5">
+        <f t="shared" ref="G108" si="66">A108+F108</f>
+        <v>44398.336445169181</v>
+      </c>
+      <c r="H108" s="3">
+        <f t="shared" ref="H108" si="67">D108/84</f>
+        <v>4394.3928571428569</v>
+      </c>
+      <c r="I108" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A108" s="1"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
-      <c r="B110">
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111" s="1"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112" s="1"/>
+      <c r="B112">
         <f>SUM(B2:B102)</f>
         <v>96725</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A111" s="1"/>
-      <c r="B111">
-        <f>B110-(98790+1320)</f>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="1"/>
+      <c r="B113">
+        <f>B112-(98790+1320)</f>
         <v>-3385</v>
       </c>
     </row>

--- a/durham_daily_vaccinations.xlsx
+++ b/durham_daily_vaccinations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCEEF266-8123-0742-B922-89A80EF2ED0D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1AC9654-85CA-B24E-B184-34FFC1AF0A58}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19640" xr2:uid="{D878B493-02AB-054E-B330-D20DF148DE7B}"/>
   </bookViews>
@@ -445,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E82AD24-C064-B648-8062-B01E1A5F7A8D}">
-  <dimension ref="A1:I113"/>
+  <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="J115" sqref="J115"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="I113" sqref="I113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3441,43 +3441,72 @@
         <v>4431.25</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="6">
+    <row r="108" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="7">
         <v>44293</v>
       </c>
-      <c r="B108" s="4">
+      <c r="B108" s="8">
         <v>3096</v>
       </c>
-      <c r="C108" s="3">
+      <c r="C108" s="10">
         <f>(AVERAGE(B102:B108))</f>
         <v>3504.2857142857142</v>
       </c>
-      <c r="D108" s="4">
+      <c r="D108" s="8">
         <f t="shared" ref="D108" si="63">(D107-B108)</f>
         <v>369129</v>
       </c>
-      <c r="E108" s="4">
+      <c r="E108" s="8">
         <f t="shared" ref="E108" si="64">E107+B108</f>
         <v>117582</v>
       </c>
-      <c r="F108" s="3">
+      <c r="F108" s="10">
         <f t="shared" ref="F108" si="65">D108/C108</f>
         <v>105.33644516918059</v>
       </c>
-      <c r="G108" s="5">
+      <c r="G108" s="9">
         <f t="shared" ref="G108" si="66">A108+F108</f>
         <v>44398.336445169181</v>
       </c>
-      <c r="H108" s="3">
+      <c r="H108" s="10">
         <f t="shared" ref="H108" si="67">D108/84</f>
         <v>4394.3928571428569</v>
       </c>
-      <c r="I108" s="4" t="s">
+    </row>
+    <row r="109" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="6">
+        <v>44294</v>
+      </c>
+      <c r="B109" s="4">
+        <v>2524</v>
+      </c>
+      <c r="C109" s="3">
+        <f>(AVERAGE(B103:B109))</f>
+        <v>3340.1428571428573</v>
+      </c>
+      <c r="D109" s="4">
+        <f t="shared" ref="D109" si="68">(D108-B109)</f>
+        <v>366605</v>
+      </c>
+      <c r="E109" s="4">
+        <f t="shared" ref="E109" si="69">E108+B109</f>
+        <v>120106</v>
+      </c>
+      <c r="F109" s="3">
+        <f t="shared" ref="F109" si="70">D109/C109</f>
+        <v>109.75728155339806</v>
+      </c>
+      <c r="G109" s="5">
+        <f t="shared" ref="G109" si="71">A109+F109</f>
+        <v>44403.7572815534</v>
+      </c>
+      <c r="H109" s="3">
+        <f t="shared" ref="H109" si="72">D109/84</f>
+        <v>4364.3452380952385</v>
+      </c>
+      <c r="I109" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A109" s="1"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
@@ -3487,15 +3516,18 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
-      <c r="B112">
-        <f>SUM(B2:B102)</f>
-        <v>96725</v>
-      </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113">
-        <f>B112-(98790+1320)</f>
+        <f>SUM(B2:B102)</f>
+        <v>96725</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="1"/>
+      <c r="B114">
+        <f>B113-(98790+1320)</f>
         <v>-3385</v>
       </c>
     </row>

--- a/durham_daily_vaccinations.xlsx
+++ b/durham_daily_vaccinations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1AC9654-85CA-B24E-B184-34FFC1AF0A58}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96CBF10-08DD-F545-95FF-0C7A4AD81415}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19640" xr2:uid="{D878B493-02AB-054E-B330-D20DF148DE7B}"/>
   </bookViews>
@@ -448,7 +448,7 @@
   <dimension ref="A1:I114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="I113" sqref="I113"/>
+      <selection activeCell="I117" sqref="I117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3321,27 +3321,27 @@
         <v>3560</v>
       </c>
       <c r="C104" s="10">
-        <f>(AVERAGE(B98:B104))</f>
+        <f t="shared" ref="C104:C110" si="43">(AVERAGE(B98:B104))</f>
         <v>3213.2857142857142</v>
       </c>
       <c r="D104" s="8">
-        <f t="shared" ref="D104" si="43">(D103-B104)</f>
+        <f t="shared" ref="D104" si="44">(D103-B104)</f>
         <v>383039</v>
       </c>
       <c r="E104" s="8">
-        <f t="shared" ref="E104" si="44">E103+B104</f>
+        <f t="shared" ref="E104" si="45">E103+B104</f>
         <v>103672</v>
       </c>
       <c r="F104" s="10">
-        <f t="shared" ref="F104" si="45">D104/C104</f>
+        <f t="shared" ref="F104" si="46">D104/C104</f>
         <v>119.20477481883253</v>
       </c>
       <c r="G104" s="9">
-        <f t="shared" ref="G104" si="46">A104+F104</f>
+        <f t="shared" ref="G104" si="47">A104+F104</f>
         <v>44408.204774818834</v>
       </c>
       <c r="H104" s="10">
-        <f t="shared" ref="H104" si="47">D104/84</f>
+        <f t="shared" ref="H104" si="48">D104/84</f>
         <v>4559.9880952380954</v>
       </c>
     </row>
@@ -3353,27 +3353,27 @@
         <v>3752</v>
       </c>
       <c r="C105" s="10">
-        <f>(AVERAGE(B99:B105))</f>
+        <f t="shared" si="43"/>
         <v>3418.5714285714284</v>
       </c>
       <c r="D105" s="8">
-        <f t="shared" ref="D105" si="48">(D104-B105)</f>
+        <f t="shared" ref="D105" si="49">(D104-B105)</f>
         <v>379287</v>
       </c>
       <c r="E105" s="8">
-        <f t="shared" ref="E105" si="49">E104+B105</f>
+        <f t="shared" ref="E105" si="50">E104+B105</f>
         <v>107424</v>
       </c>
       <c r="F105" s="10">
-        <f t="shared" ref="F105" si="50">D105/C105</f>
+        <f t="shared" ref="F105" si="51">D105/C105</f>
         <v>110.94897618052654</v>
       </c>
       <c r="G105" s="9">
-        <f t="shared" ref="G105" si="51">A105+F105</f>
+        <f t="shared" ref="G105" si="52">A105+F105</f>
         <v>44400.948976180523</v>
       </c>
       <c r="H105" s="10">
-        <f t="shared" ref="H105" si="52">D105/84</f>
+        <f t="shared" ref="H105" si="53">D105/84</f>
         <v>4515.3214285714284</v>
       </c>
     </row>
@@ -3385,27 +3385,27 @@
         <v>3759</v>
       </c>
       <c r="C106" s="10">
-        <f>(AVERAGE(B100:B106))</f>
+        <f t="shared" si="43"/>
         <v>3584.1428571428573</v>
       </c>
       <c r="D106" s="8">
-        <f t="shared" ref="D106" si="53">(D105-B106)</f>
+        <f t="shared" ref="D106" si="54">(D105-B106)</f>
         <v>375528</v>
       </c>
       <c r="E106" s="8">
-        <f t="shared" ref="E106" si="54">E105+B106</f>
+        <f t="shared" ref="E106" si="55">E105+B106</f>
         <v>111183</v>
       </c>
       <c r="F106" s="10">
-        <f t="shared" ref="F106" si="55">D106/C106</f>
+        <f t="shared" ref="F106" si="56">D106/C106</f>
         <v>104.77484156403204</v>
       </c>
       <c r="G106" s="9">
-        <f t="shared" ref="G106" si="56">A106+F106</f>
+        <f t="shared" ref="G106" si="57">A106+F106</f>
         <v>44395.774841564031</v>
       </c>
       <c r="H106" s="10">
-        <f t="shared" ref="H106" si="57">D106/84</f>
+        <f t="shared" ref="H106" si="58">D106/84</f>
         <v>4470.5714285714284</v>
       </c>
     </row>
@@ -3417,27 +3417,27 @@
         <v>3303</v>
       </c>
       <c r="C107" s="10">
-        <f>(AVERAGE(B101:B107))</f>
+        <f t="shared" si="43"/>
         <v>3601.1428571428573</v>
       </c>
       <c r="D107" s="8">
-        <f t="shared" ref="D107" si="58">(D106-B107)</f>
+        <f t="shared" ref="D107" si="59">(D106-B107)</f>
         <v>372225</v>
       </c>
       <c r="E107" s="8">
-        <f t="shared" ref="E107" si="59">E106+B107</f>
+        <f t="shared" ref="E107" si="60">E106+B107</f>
         <v>114486</v>
       </c>
       <c r="F107" s="10">
-        <f t="shared" ref="F107" si="60">D107/C107</f>
+        <f t="shared" ref="F107" si="61">D107/C107</f>
         <v>103.36301967629323</v>
       </c>
       <c r="G107" s="9">
-        <f t="shared" ref="G107" si="61">A107+F107</f>
+        <f t="shared" ref="G107" si="62">A107+F107</f>
         <v>44395.36301967629</v>
       </c>
       <c r="H107" s="10">
-        <f t="shared" ref="H107" si="62">D107/84</f>
+        <f t="shared" ref="H107" si="63">D107/84</f>
         <v>4431.25</v>
       </c>
     </row>
@@ -3449,67 +3449,96 @@
         <v>3096</v>
       </c>
       <c r="C108" s="10">
-        <f>(AVERAGE(B102:B108))</f>
+        <f t="shared" si="43"/>
         <v>3504.2857142857142</v>
       </c>
       <c r="D108" s="8">
-        <f t="shared" ref="D108" si="63">(D107-B108)</f>
+        <f t="shared" ref="D108" si="64">(D107-B108)</f>
         <v>369129</v>
       </c>
       <c r="E108" s="8">
-        <f t="shared" ref="E108" si="64">E107+B108</f>
+        <f t="shared" ref="E108" si="65">E107+B108</f>
         <v>117582</v>
       </c>
       <c r="F108" s="10">
-        <f t="shared" ref="F108" si="65">D108/C108</f>
+        <f t="shared" ref="F108" si="66">D108/C108</f>
         <v>105.33644516918059</v>
       </c>
       <c r="G108" s="9">
-        <f t="shared" ref="G108" si="66">A108+F108</f>
+        <f t="shared" ref="G108" si="67">A108+F108</f>
         <v>44398.336445169181</v>
       </c>
       <c r="H108" s="10">
-        <f t="shared" ref="H108" si="67">D108/84</f>
+        <f t="shared" ref="H108" si="68">D108/84</f>
         <v>4394.3928571428569</v>
       </c>
     </row>
-    <row r="109" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="6">
+    <row r="109" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="7">
         <v>44294</v>
       </c>
-      <c r="B109" s="4">
+      <c r="B109" s="8">
         <v>2524</v>
       </c>
-      <c r="C109" s="3">
-        <f>(AVERAGE(B103:B109))</f>
+      <c r="C109" s="10">
+        <f t="shared" si="43"/>
         <v>3340.1428571428573</v>
       </c>
-      <c r="D109" s="4">
-        <f t="shared" ref="D109" si="68">(D108-B109)</f>
+      <c r="D109" s="8">
+        <f t="shared" ref="D109" si="69">(D108-B109)</f>
         <v>366605</v>
       </c>
-      <c r="E109" s="4">
-        <f t="shared" ref="E109" si="69">E108+B109</f>
+      <c r="E109" s="8">
+        <f t="shared" ref="E109" si="70">E108+B109</f>
         <v>120106</v>
       </c>
-      <c r="F109" s="3">
-        <f t="shared" ref="F109" si="70">D109/C109</f>
+      <c r="F109" s="10">
+        <f t="shared" ref="F109" si="71">D109/C109</f>
         <v>109.75728155339806</v>
       </c>
-      <c r="G109" s="5">
-        <f t="shared" ref="G109" si="71">A109+F109</f>
+      <c r="G109" s="9">
+        <f t="shared" ref="G109" si="72">A109+F109</f>
         <v>44403.7572815534</v>
       </c>
-      <c r="H109" s="3">
-        <f t="shared" ref="H109" si="72">D109/84</f>
+      <c r="H109" s="10">
+        <f t="shared" ref="H109" si="73">D109/84</f>
         <v>4364.3452380952385</v>
       </c>
-      <c r="I109" s="4" t="s">
+    </row>
+    <row r="110" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="6">
+        <v>44295</v>
+      </c>
+      <c r="B110" s="4">
+        <v>3979</v>
+      </c>
+      <c r="C110" s="3">
+        <f t="shared" si="43"/>
+        <v>3424.7142857142858</v>
+      </c>
+      <c r="D110" s="4">
+        <f t="shared" ref="D110" si="74">(D109-B110)</f>
+        <v>362626</v>
+      </c>
+      <c r="E110" s="4">
+        <f t="shared" ref="E110" si="75">E109+B110</f>
+        <v>124085</v>
+      </c>
+      <c r="F110" s="3">
+        <f t="shared" ref="F110" si="76">D110/C110</f>
+        <v>105.88503733366704</v>
+      </c>
+      <c r="G110" s="5">
+        <f t="shared" ref="G110" si="77">A110+F110</f>
+        <v>44400.885037333668</v>
+      </c>
+      <c r="H110" s="3">
+        <f t="shared" ref="H110" si="78">D110/84</f>
+        <v>4316.9761904761908</v>
+      </c>
+      <c r="I110" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A110" s="1"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>

--- a/durham_daily_vaccinations.xlsx
+++ b/durham_daily_vaccinations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96CBF10-08DD-F545-95FF-0C7A4AD81415}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1345FF16-5C39-534F-A357-EC407FC38714}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19640" xr2:uid="{D878B493-02AB-054E-B330-D20DF148DE7B}"/>
+    <workbookView xWindow="-38400" yWindow="-780" windowWidth="38400" windowHeight="21140" xr2:uid="{D878B493-02AB-054E-B330-D20DF148DE7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -445,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E82AD24-C064-B648-8062-B01E1A5F7A8D}">
-  <dimension ref="A1:I114"/>
+  <dimension ref="A1:I117"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="I117" sqref="I117"/>
+      <selection activeCell="H120" sqref="H120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3505,60 +3505,84 @@
         <v>4364.3452380952385</v>
       </c>
     </row>
-    <row r="110" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="6">
+    <row r="110" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="7">
         <v>44295</v>
       </c>
-      <c r="B110" s="4">
+      <c r="B110" s="8">
         <v>3979</v>
       </c>
-      <c r="C110" s="3">
+      <c r="C110" s="10">
         <f t="shared" si="43"/>
         <v>3424.7142857142858</v>
       </c>
-      <c r="D110" s="4">
+      <c r="D110" s="8">
         <f t="shared" ref="D110" si="74">(D109-B110)</f>
         <v>362626</v>
       </c>
-      <c r="E110" s="4">
+      <c r="E110" s="8">
         <f t="shared" ref="E110" si="75">E109+B110</f>
         <v>124085</v>
       </c>
-      <c r="F110" s="3">
+      <c r="F110" s="10">
         <f t="shared" ref="F110" si="76">D110/C110</f>
         <v>105.88503733366704</v>
       </c>
-      <c r="G110" s="5">
+      <c r="G110" s="9">
         <f t="shared" ref="G110" si="77">A110+F110</f>
         <v>44400.885037333668</v>
       </c>
-      <c r="H110" s="3">
+      <c r="H110" s="10">
         <f t="shared" ref="H110" si="78">D110/84</f>
         <v>4316.9761904761908</v>
       </c>
-      <c r="I110" s="4" t="s">
+    </row>
+    <row r="111" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="6">
+        <v>44296</v>
+      </c>
+      <c r="B111" s="4">
+        <v>3984</v>
+      </c>
+      <c r="C111" s="3">
+        <f t="shared" ref="C111" si="79">(AVERAGE(B105:B111))</f>
+        <v>3485.2857142857142</v>
+      </c>
+      <c r="D111" s="4">
+        <f t="shared" ref="D111" si="80">(D110-B111)</f>
+        <v>358642</v>
+      </c>
+      <c r="E111" s="4">
+        <f t="shared" ref="E111" si="81">E110+B111</f>
+        <v>128069</v>
+      </c>
+      <c r="F111" s="3">
+        <f t="shared" ref="F111" si="82">D111/C111</f>
+        <v>102.90175021519039</v>
+      </c>
+      <c r="G111" s="5">
+        <f t="shared" ref="G111" si="83">A111+F111</f>
+        <v>44398.901750215191</v>
+      </c>
+      <c r="H111" s="3">
+        <f t="shared" ref="H111" si="84">D111/84</f>
+        <v>4269.5476190476193</v>
+      </c>
+      <c r="I111" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A111" s="1"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="1"/>
-      <c r="B113">
-        <f>SUM(B2:B102)</f>
-        <v>96725</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
-      <c r="B114">
-        <f>B113-(98790+1320)</f>
-        <v>-3385</v>
-      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" s="1"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/durham_daily_vaccinations.xlsx
+++ b/durham_daily_vaccinations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1345FF16-5C39-534F-A357-EC407FC38714}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0935FB3-AA0F-0940-B8D6-48FD786138C5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-780" windowWidth="38400" windowHeight="21140" xr2:uid="{D878B493-02AB-054E-B330-D20DF148DE7B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19680" xr2:uid="{D878B493-02AB-054E-B330-D20DF148DE7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -448,7 +448,7 @@
   <dimension ref="A1:I117"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="H120" sqref="H120"/>
+      <selection activeCell="H125" sqref="H125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3537,43 +3537,72 @@
         <v>4316.9761904761908</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="6">
+    <row r="111" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="7">
         <v>44296</v>
       </c>
-      <c r="B111" s="4">
+      <c r="B111" s="8">
         <v>3984</v>
       </c>
-      <c r="C111" s="3">
+      <c r="C111" s="10">
         <f t="shared" ref="C111" si="79">(AVERAGE(B105:B111))</f>
         <v>3485.2857142857142</v>
       </c>
-      <c r="D111" s="4">
+      <c r="D111" s="8">
         <f t="shared" ref="D111" si="80">(D110-B111)</f>
         <v>358642</v>
       </c>
-      <c r="E111" s="4">
+      <c r="E111" s="8">
         <f t="shared" ref="E111" si="81">E110+B111</f>
         <v>128069</v>
       </c>
-      <c r="F111" s="3">
+      <c r="F111" s="10">
         <f t="shared" ref="F111" si="82">D111/C111</f>
         <v>102.90175021519039</v>
       </c>
-      <c r="G111" s="5">
+      <c r="G111" s="9">
         <f t="shared" ref="G111" si="83">A111+F111</f>
         <v>44398.901750215191</v>
       </c>
-      <c r="H111" s="3">
+      <c r="H111" s="10">
         <f t="shared" ref="H111" si="84">D111/84</f>
         <v>4269.5476190476193</v>
       </c>
-      <c r="I111" s="4" t="s">
+    </row>
+    <row r="112" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="6">
+        <v>44297</v>
+      </c>
+      <c r="B112" s="4">
+        <v>3936</v>
+      </c>
+      <c r="C112" s="3">
+        <f t="shared" ref="C112" si="85">(AVERAGE(B106:B112))</f>
+        <v>3511.5714285714284</v>
+      </c>
+      <c r="D112" s="4">
+        <f t="shared" ref="D112" si="86">(D111-B112)</f>
+        <v>354706</v>
+      </c>
+      <c r="E112" s="4">
+        <f t="shared" ref="E112" si="87">E111+B112</f>
+        <v>132005</v>
+      </c>
+      <c r="F112" s="3">
+        <f t="shared" ref="F112" si="88">D112/C112</f>
+        <v>101.01061795695863</v>
+      </c>
+      <c r="G112" s="5">
+        <f t="shared" ref="G112" si="89">A112+F112</f>
+        <v>44398.010617956956</v>
+      </c>
+      <c r="H112" s="3">
+        <f t="shared" ref="H112" si="90">D112/84</f>
+        <v>4222.6904761904761</v>
+      </c>
+      <c r="I112" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A112" s="1"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>

--- a/durham_daily_vaccinations.xlsx
+++ b/durham_daily_vaccinations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0935FB3-AA0F-0940-B8D6-48FD786138C5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92F454F-22CE-794B-9525-B01ABDEA6AC9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19680" xr2:uid="{D878B493-02AB-054E-B330-D20DF148DE7B}"/>
   </bookViews>
@@ -448,7 +448,7 @@
   <dimension ref="A1:I117"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="H125" sqref="H125"/>
+      <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3089,7 +3089,7 @@
         <v>4862.8809523809523</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="7">
         <v>44282</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>4827.7619047619046</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="7">
         <v>44283</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>4800.2023809523807</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="7">
         <v>44284</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>4769.25</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="7">
         <v>44285</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>4731.3452380952385</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="7">
         <v>44286</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>4686.416666666667</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="7">
         <v>44287</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>4642.6904761904761</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="7">
         <v>44288</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>4602.3690476190477</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="7">
         <v>44289</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>4559.9880952380954</v>
       </c>
     </row>
-    <row r="105" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="7">
         <v>44290</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>4515.3214285714284</v>
       </c>
     </row>
-    <row r="106" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="7">
         <v>44291</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>4470.5714285714284</v>
       </c>
     </row>
-    <row r="107" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="7">
         <v>44292</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>4431.25</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="7">
         <v>44293</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>4394.3928571428569</v>
       </c>
     </row>
-    <row r="109" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="7">
         <v>44294</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>4364.3452380952385</v>
       </c>
     </row>
-    <row r="110" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="7">
         <v>44295</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>4316.9761904761908</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="7">
         <v>44296</v>
       </c>
@@ -3569,48 +3569,80 @@
         <v>4269.5476190476193</v>
       </c>
     </row>
-    <row r="112" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="6">
+    <row r="112" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="7">
         <v>44297</v>
       </c>
-      <c r="B112" s="4">
+      <c r="B112" s="8">
         <v>3936</v>
       </c>
-      <c r="C112" s="3">
+      <c r="C112" s="10">
         <f t="shared" ref="C112" si="85">(AVERAGE(B106:B112))</f>
         <v>3511.5714285714284</v>
       </c>
-      <c r="D112" s="4">
+      <c r="D112" s="8">
         <f t="shared" ref="D112" si="86">(D111-B112)</f>
         <v>354706</v>
       </c>
-      <c r="E112" s="4">
+      <c r="E112" s="8">
         <f t="shared" ref="E112" si="87">E111+B112</f>
         <v>132005</v>
       </c>
-      <c r="F112" s="3">
+      <c r="F112" s="10">
         <f t="shared" ref="F112" si="88">D112/C112</f>
         <v>101.01061795695863</v>
       </c>
-      <c r="G112" s="5">
+      <c r="G112" s="9">
         <f t="shared" ref="G112" si="89">A112+F112</f>
         <v>44398.010617956956</v>
       </c>
-      <c r="H112" s="3">
+      <c r="H112" s="10">
         <f t="shared" ref="H112" si="90">D112/84</f>
         <v>4222.6904761904761</v>
       </c>
-      <c r="I112" s="4" t="s">
+    </row>
+    <row r="113" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="6">
+        <v>44298</v>
+      </c>
+      <c r="B113" s="4">
+        <v>3709</v>
+      </c>
+      <c r="C113" s="3">
+        <f t="shared" ref="C113" si="91">(AVERAGE(B107:B113))</f>
+        <v>3504.4285714285716</v>
+      </c>
+      <c r="D113" s="4">
+        <f t="shared" ref="D113" si="92">(D112-B113)</f>
+        <v>350997</v>
+      </c>
+      <c r="E113" s="4">
+        <f t="shared" ref="E113" si="93">E112+B113</f>
+        <v>135714</v>
+      </c>
+      <c r="F113" s="3">
+        <f t="shared" ref="F113" si="94">D113/C113</f>
+        <v>100.15812645224409</v>
+      </c>
+      <c r="G113" s="5">
+        <f t="shared" ref="G113" si="95">A113+F113</f>
+        <v>44398.158126452247</v>
+      </c>
+      <c r="H113" s="3">
+        <f t="shared" ref="H113" si="96">D113/84</f>
+        <v>4178.5357142857147</v>
+      </c>
+      <c r="I113" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
     </row>
   </sheetData>

--- a/durham_daily_vaccinations.xlsx
+++ b/durham_daily_vaccinations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92F454F-22CE-794B-9525-B01ABDEA6AC9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6126D7-DB43-AF48-91AE-FD0C36D9FE01}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19680" xr2:uid="{D878B493-02AB-054E-B330-D20DF148DE7B}"/>
   </bookViews>
@@ -448,7 +448,7 @@
   <dimension ref="A1:I117"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C114" sqref="C114"/>
+      <selection activeCell="G118" sqref="G118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3478,31 +3478,31 @@
         <v>44294</v>
       </c>
       <c r="B109" s="8">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="C109" s="10">
         <f t="shared" si="43"/>
-        <v>3340.1428571428573</v>
+        <v>3340</v>
       </c>
       <c r="D109" s="8">
         <f t="shared" ref="D109" si="69">(D108-B109)</f>
-        <v>366605</v>
+        <v>366606</v>
       </c>
       <c r="E109" s="8">
         <f t="shared" ref="E109" si="70">E108+B109</f>
-        <v>120106</v>
+        <v>120105</v>
       </c>
       <c r="F109" s="10">
         <f t="shared" ref="F109" si="71">D109/C109</f>
-        <v>109.75728155339806</v>
+        <v>109.76227544910179</v>
       </c>
       <c r="G109" s="9">
         <f t="shared" ref="G109" si="72">A109+F109</f>
-        <v>44403.7572815534</v>
+        <v>44403.762275449102</v>
       </c>
       <c r="H109" s="10">
         <f t="shared" ref="H109" si="73">D109/84</f>
-        <v>4364.3452380952385</v>
+        <v>4364.3571428571431</v>
       </c>
     </row>
     <row r="110" spans="1:8" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3514,27 +3514,27 @@
       </c>
       <c r="C110" s="10">
         <f t="shared" si="43"/>
-        <v>3424.7142857142858</v>
+        <v>3424.5714285714284</v>
       </c>
       <c r="D110" s="8">
         <f t="shared" ref="D110" si="74">(D109-B110)</f>
-        <v>362626</v>
+        <v>362627</v>
       </c>
       <c r="E110" s="8">
         <f t="shared" ref="E110" si="75">E109+B110</f>
-        <v>124085</v>
+        <v>124084</v>
       </c>
       <c r="F110" s="10">
         <f t="shared" ref="F110" si="76">D110/C110</f>
-        <v>105.88503733366704</v>
+        <v>105.88974637076589</v>
       </c>
       <c r="G110" s="9">
         <f t="shared" ref="G110" si="77">A110+F110</f>
-        <v>44400.885037333668</v>
+        <v>44400.889746370769</v>
       </c>
       <c r="H110" s="10">
         <f t="shared" ref="H110" si="78">D110/84</f>
-        <v>4316.9761904761908</v>
+        <v>4316.9880952380954</v>
       </c>
     </row>
     <row r="111" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -3546,27 +3546,27 @@
       </c>
       <c r="C111" s="10">
         <f t="shared" ref="C111" si="79">(AVERAGE(B105:B111))</f>
-        <v>3485.2857142857142</v>
+        <v>3485.1428571428573</v>
       </c>
       <c r="D111" s="8">
         <f t="shared" ref="D111" si="80">(D110-B111)</f>
-        <v>358642</v>
+        <v>358643</v>
       </c>
       <c r="E111" s="8">
         <f t="shared" ref="E111" si="81">E110+B111</f>
-        <v>128069</v>
+        <v>128068</v>
       </c>
       <c r="F111" s="10">
         <f t="shared" ref="F111" si="82">D111/C111</f>
-        <v>102.90175021519039</v>
+        <v>102.90625512379079</v>
       </c>
       <c r="G111" s="9">
         <f t="shared" ref="G111" si="83">A111+F111</f>
-        <v>44398.901750215191</v>
+        <v>44398.906255123788</v>
       </c>
       <c r="H111" s="10">
         <f t="shared" ref="H111" si="84">D111/84</f>
-        <v>4269.5476190476193</v>
+        <v>4269.5595238095239</v>
       </c>
     </row>
     <row r="112" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -3578,66 +3578,95 @@
       </c>
       <c r="C112" s="10">
         <f t="shared" ref="C112" si="85">(AVERAGE(B106:B112))</f>
-        <v>3511.5714285714284</v>
+        <v>3511.4285714285716</v>
       </c>
       <c r="D112" s="8">
         <f t="shared" ref="D112" si="86">(D111-B112)</f>
-        <v>354706</v>
+        <v>354707</v>
       </c>
       <c r="E112" s="8">
         <f t="shared" ref="E112" si="87">E111+B112</f>
-        <v>132005</v>
+        <v>132004</v>
       </c>
       <c r="F112" s="10">
         <f t="shared" ref="F112" si="88">D112/C112</f>
-        <v>101.01061795695863</v>
+        <v>101.01501220504475</v>
       </c>
       <c r="G112" s="9">
         <f t="shared" ref="G112" si="89">A112+F112</f>
-        <v>44398.010617956956</v>
+        <v>44398.015012205047</v>
       </c>
       <c r="H112" s="10">
         <f t="shared" ref="H112" si="90">D112/84</f>
-        <v>4222.6904761904761</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="6">
+        <v>4222.7023809523807</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="7">
         <v>44298</v>
       </c>
-      <c r="B113" s="4">
+      <c r="B113" s="8">
         <v>3709</v>
       </c>
-      <c r="C113" s="3">
+      <c r="C113" s="10">
         <f t="shared" ref="C113" si="91">(AVERAGE(B107:B113))</f>
-        <v>3504.4285714285716</v>
-      </c>
-      <c r="D113" s="4">
+        <v>3504.2857142857142</v>
+      </c>
+      <c r="D113" s="8">
         <f t="shared" ref="D113" si="92">(D112-B113)</f>
-        <v>350997</v>
-      </c>
-      <c r="E113" s="4">
+        <v>350998</v>
+      </c>
+      <c r="E113" s="8">
         <f t="shared" ref="E113" si="93">E112+B113</f>
-        <v>135714</v>
-      </c>
-      <c r="F113" s="3">
+        <v>135713</v>
+      </c>
+      <c r="F113" s="10">
         <f t="shared" ref="F113" si="94">D113/C113</f>
-        <v>100.15812645224409</v>
-      </c>
-      <c r="G113" s="5">
+        <v>100.16249490419894</v>
+      </c>
+      <c r="G113" s="9">
         <f t="shared" ref="G113" si="95">A113+F113</f>
-        <v>44398.158126452247</v>
-      </c>
-      <c r="H113" s="3">
+        <v>44398.162494904202</v>
+      </c>
+      <c r="H113" s="10">
         <f t="shared" ref="H113" si="96">D113/84</f>
-        <v>4178.5357142857147</v>
-      </c>
-      <c r="I113" s="4" t="s">
+        <v>4178.5476190476193</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="6">
+        <v>44299</v>
+      </c>
+      <c r="B114" s="4">
+        <v>4332</v>
+      </c>
+      <c r="C114" s="3">
+        <f t="shared" ref="C114" si="97">(AVERAGE(B108:B114))</f>
+        <v>3651.2857142857142</v>
+      </c>
+      <c r="D114" s="4">
+        <f t="shared" ref="D114" si="98">(D113-B114)</f>
+        <v>346666</v>
+      </c>
+      <c r="E114" s="4">
+        <f t="shared" ref="E114" si="99">E113+B114</f>
+        <v>140045</v>
+      </c>
+      <c r="F114" s="3">
+        <f t="shared" ref="F114" si="100">D114/C114</f>
+        <v>94.943542392112363</v>
+      </c>
+      <c r="G114" s="5">
+        <f t="shared" ref="G114" si="101">A114+F114</f>
+        <v>44393.94354239211</v>
+      </c>
+      <c r="H114" s="3">
+        <f t="shared" ref="H114" si="102">D114/84</f>
+        <v>4126.9761904761908</v>
+      </c>
+      <c r="I114" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A114" s="1"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>

--- a/durham_daily_vaccinations.xlsx
+++ b/durham_daily_vaccinations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6126D7-DB43-AF48-91AE-FD0C36D9FE01}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E690B059-E343-1F48-8A73-ED7211085410}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19680" xr2:uid="{D878B493-02AB-054E-B330-D20DF148DE7B}"/>
+    <workbookView xWindow="-38400" yWindow="-780" windowWidth="38400" windowHeight="21140" xr2:uid="{D878B493-02AB-054E-B330-D20DF148DE7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -448,7 +448,7 @@
   <dimension ref="A1:I117"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="G118" sqref="G118"/>
+      <selection activeCell="G122" sqref="G122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3633,43 +3633,72 @@
         <v>4178.5476190476193</v>
       </c>
     </row>
-    <row r="114" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="6">
+    <row r="114" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="7">
         <v>44299</v>
       </c>
-      <c r="B114" s="4">
+      <c r="B114" s="8">
         <v>4332</v>
       </c>
-      <c r="C114" s="3">
+      <c r="C114" s="10">
         <f t="shared" ref="C114" si="97">(AVERAGE(B108:B114))</f>
         <v>3651.2857142857142</v>
       </c>
-      <c r="D114" s="4">
+      <c r="D114" s="8">
         <f t="shared" ref="D114" si="98">(D113-B114)</f>
         <v>346666</v>
       </c>
-      <c r="E114" s="4">
+      <c r="E114" s="8">
         <f t="shared" ref="E114" si="99">E113+B114</f>
         <v>140045</v>
       </c>
-      <c r="F114" s="3">
+      <c r="F114" s="10">
         <f t="shared" ref="F114" si="100">D114/C114</f>
         <v>94.943542392112363</v>
       </c>
-      <c r="G114" s="5">
+      <c r="G114" s="9">
         <f t="shared" ref="G114" si="101">A114+F114</f>
         <v>44393.94354239211</v>
       </c>
-      <c r="H114" s="3">
+      <c r="H114" s="10">
         <f t="shared" ref="H114" si="102">D114/84</f>
         <v>4126.9761904761908</v>
       </c>
-      <c r="I114" s="4" t="s">
+    </row>
+    <row r="115" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="6">
+        <v>44300</v>
+      </c>
+      <c r="B115" s="4">
+        <v>4109</v>
+      </c>
+      <c r="C115" s="3">
+        <f t="shared" ref="C115" si="103">(AVERAGE(B109:B115))</f>
+        <v>3796</v>
+      </c>
+      <c r="D115" s="4">
+        <f t="shared" ref="D115" si="104">(D114-B115)</f>
+        <v>342557</v>
+      </c>
+      <c r="E115" s="4">
+        <f t="shared" ref="E115" si="105">E114+B115</f>
+        <v>144154</v>
+      </c>
+      <c r="F115" s="3">
+        <f t="shared" ref="F115" si="106">D115/C115</f>
+        <v>90.241570073761849</v>
+      </c>
+      <c r="G115" s="5">
+        <f t="shared" ref="G115" si="107">A115+F115</f>
+        <v>44390.241570073762</v>
+      </c>
+      <c r="H115" s="3">
+        <f t="shared" ref="H115" si="108">D115/84</f>
+        <v>4078.0595238095239</v>
+      </c>
+      <c r="I115" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A115" s="1"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>

--- a/durham_daily_vaccinations.xlsx
+++ b/durham_daily_vaccinations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E690B059-E343-1F48-8A73-ED7211085410}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BE9C73-E154-D546-99B1-67D7C338C32A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-780" windowWidth="38400" windowHeight="21140" xr2:uid="{D878B493-02AB-054E-B330-D20DF148DE7B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19660" xr2:uid="{D878B493-02AB-054E-B330-D20DF148DE7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -448,7 +448,7 @@
   <dimension ref="A1:I117"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="G122" sqref="G122"/>
+      <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3665,38 +3665,70 @@
         <v>4126.9761904761908</v>
       </c>
     </row>
-    <row r="115" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="6">
+    <row r="115" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="7">
         <v>44300</v>
       </c>
-      <c r="B115" s="4">
+      <c r="B115" s="8">
         <v>4109</v>
       </c>
-      <c r="C115" s="3">
+      <c r="C115" s="10">
         <f t="shared" ref="C115" si="103">(AVERAGE(B109:B115))</f>
         <v>3796</v>
       </c>
-      <c r="D115" s="4">
+      <c r="D115" s="8">
         <f t="shared" ref="D115" si="104">(D114-B115)</f>
         <v>342557</v>
       </c>
-      <c r="E115" s="4">
+      <c r="E115" s="8">
         <f t="shared" ref="E115" si="105">E114+B115</f>
         <v>144154</v>
       </c>
-      <c r="F115" s="3">
+      <c r="F115" s="10">
         <f t="shared" ref="F115" si="106">D115/C115</f>
         <v>90.241570073761849</v>
       </c>
-      <c r="G115" s="5">
+      <c r="G115" s="9">
         <f t="shared" ref="G115" si="107">A115+F115</f>
         <v>44390.241570073762</v>
       </c>
-      <c r="H115" s="3">
+      <c r="H115" s="10">
         <f t="shared" ref="H115" si="108">D115/84</f>
         <v>4078.0595238095239</v>
       </c>
-      <c r="I115" s="4" t="s">
+    </row>
+    <row r="116" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="6">
+        <v>44301</v>
+      </c>
+      <c r="B116" s="4">
+        <v>3377</v>
+      </c>
+      <c r="C116" s="3">
+        <f t="shared" ref="C116" si="109">(AVERAGE(B110:B116))</f>
+        <v>3918</v>
+      </c>
+      <c r="D116" s="4">
+        <f t="shared" ref="D116" si="110">(D115-B116)</f>
+        <v>339180</v>
+      </c>
+      <c r="E116" s="4">
+        <f t="shared" ref="E116" si="111">E115+B116</f>
+        <v>147531</v>
+      </c>
+      <c r="F116" s="3">
+        <f t="shared" ref="F116" si="112">D116/C116</f>
+        <v>86.569678407350693</v>
+      </c>
+      <c r="G116" s="5">
+        <f t="shared" ref="G116" si="113">A116+F116</f>
+        <v>44387.569678407352</v>
+      </c>
+      <c r="H116" s="3">
+        <f t="shared" ref="H116" si="114">D116/84</f>
+        <v>4037.8571428571427</v>
+      </c>
+      <c r="I116" s="4" t="s">
         <v>6</v>
       </c>
     </row>

--- a/durham_daily_vaccinations.xlsx
+++ b/durham_daily_vaccinations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BE9C73-E154-D546-99B1-67D7C338C32A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE351B76-C898-644D-806E-B92887B22A33}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19660" xr2:uid="{D878B493-02AB-054E-B330-D20DF148DE7B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>Total Doses</t>
+  </si>
+  <si>
+    <t>People Fully Vax</t>
+  </si>
+  <si>
+    <t>People one dose</t>
   </si>
 </sst>
 </file>
@@ -445,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E82AD24-C064-B648-8062-B01E1A5F7A8D}">
-  <dimension ref="A1:I117"/>
+  <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="M121" sqref="M121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -458,12 +464,13 @@
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -479,14 +486,20 @@
       <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>44187</v>
       </c>
@@ -501,10 +514,10 @@
         <f>SUM(B2)</f>
         <v>47</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H2" s="10"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>44188</v>
       </c>
@@ -519,10 +532,10 @@
         <f>E2+B3</f>
         <v>170</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H3" s="10"/>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>44189</v>
       </c>
@@ -537,10 +550,10 @@
         <f>E3+B4</f>
         <v>263</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H4" s="10"/>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>44190</v>
       </c>
@@ -555,10 +568,10 @@
         <f t="shared" ref="E5:E68" si="1">E4+B5</f>
         <v>263</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H5" s="10"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>44191</v>
       </c>
@@ -573,10 +586,10 @@
         <f t="shared" si="1"/>
         <v>263</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H6" s="10"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>44192</v>
       </c>
@@ -591,10 +604,10 @@
         <f t="shared" si="1"/>
         <v>263</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H7" s="10"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>44193</v>
       </c>
@@ -609,10 +622,10 @@
         <f t="shared" si="1"/>
         <v>418</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H8" s="10"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>44194</v>
       </c>
@@ -627,10 +640,10 @@
         <f t="shared" si="1"/>
         <v>572</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H9" s="10"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>44195</v>
       </c>
@@ -649,16 +662,16 @@
         <f t="shared" si="1"/>
         <v>730</v>
       </c>
-      <c r="F10" s="10">
-        <f t="shared" ref="F10:F41" si="3">D10/C10</f>
+      <c r="H10" s="10">
+        <f t="shared" ref="H10:H41" si="3">D10/C10</f>
         <v>5953.9684931506845</v>
       </c>
-      <c r="G10" s="9">
-        <f t="shared" ref="G10:G41" si="4">A10+F10</f>
+      <c r="I10" s="9">
+        <f t="shared" ref="I10:I41" si="4">A10+H10</f>
         <v>50148.968493150685</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>44196</v>
       </c>
@@ -677,16 +690,16 @@
         <f t="shared" si="1"/>
         <v>958</v>
       </c>
-      <c r="F11" s="10">
+      <c r="H11" s="10">
         <f t="shared" si="3"/>
         <v>5039.4050104384132</v>
       </c>
-      <c r="G11" s="9">
+      <c r="I11" s="9">
         <f t="shared" si="4"/>
         <v>49235.405010438415</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>44197</v>
       </c>
@@ -705,16 +718,16 @@
         <f t="shared" si="1"/>
         <v>1181</v>
       </c>
-      <c r="F12" s="10">
+      <c r="H12" s="10">
         <f t="shared" si="3"/>
         <v>4255.2645502645501</v>
       </c>
-      <c r="G12" s="9">
+      <c r="I12" s="9">
         <f t="shared" si="4"/>
         <v>48452.264550264546</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>44198</v>
       </c>
@@ -733,16 +746,16 @@
         <f t="shared" si="1"/>
         <v>1488</v>
       </c>
-      <c r="F13" s="10">
+      <c r="H13" s="10">
         <f t="shared" si="3"/>
         <v>3659.5144157814866</v>
       </c>
-      <c r="G13" s="9">
+      <c r="I13" s="9">
         <f t="shared" si="4"/>
         <v>47857.514415781487</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>44199</v>
       </c>
@@ -761,16 +774,16 @@
         <f t="shared" si="1"/>
         <v>1722</v>
       </c>
-      <c r="F14" s="10">
+      <c r="H14" s="10">
         <f t="shared" si="3"/>
         <v>2312.6244002741605</v>
       </c>
-      <c r="G14" s="9">
+      <c r="I14" s="9">
         <f t="shared" si="4"/>
         <v>46511.624400274159</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>44200</v>
       </c>
@@ -789,16 +802,16 @@
         <f t="shared" si="1"/>
         <v>1947</v>
       </c>
-      <c r="F15" s="10">
+      <c r="H15" s="10">
         <f t="shared" si="3"/>
         <v>2205.6775670372795</v>
       </c>
-      <c r="G15" s="9">
+      <c r="I15" s="9">
         <f t="shared" si="4"/>
         <v>46405.677567037281</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>44201</v>
       </c>
@@ -817,16 +830,16 @@
         <f t="shared" si="1"/>
         <v>2532</v>
       </c>
-      <c r="F16" s="10">
+      <c r="H16" s="10">
         <f t="shared" si="3"/>
         <v>1719.85</v>
       </c>
-      <c r="G16" s="9">
+      <c r="I16" s="9">
         <f t="shared" si="4"/>
         <v>45920.85</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>44202</v>
       </c>
@@ -845,16 +858,16 @@
         <f t="shared" si="1"/>
         <v>3130</v>
       </c>
-      <c r="F17" s="10">
+      <c r="H17" s="10">
         <f t="shared" si="3"/>
         <v>1402.8379166666668</v>
       </c>
-      <c r="G17" s="9">
+      <c r="I17" s="9">
         <f t="shared" si="4"/>
         <v>45604.837916666664</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>44203</v>
       </c>
@@ -873,16 +886,16 @@
         <f t="shared" si="1"/>
         <v>3985</v>
       </c>
-      <c r="F18" s="10">
+      <c r="H18" s="10">
         <f t="shared" si="3"/>
         <v>1110.8771060455897</v>
       </c>
-      <c r="G18" s="9">
+      <c r="I18" s="9">
         <f t="shared" si="4"/>
         <v>45313.877106045591</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>44204</v>
       </c>
@@ -901,16 +914,16 @@
         <f t="shared" si="1"/>
         <v>4809</v>
       </c>
-      <c r="F19" s="10">
+      <c r="H19" s="10">
         <f t="shared" si="3"/>
         <v>925.20396912899662</v>
       </c>
-      <c r="G19" s="9">
+      <c r="I19" s="9">
         <f t="shared" si="4"/>
         <v>45129.203969128997</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>44205</v>
       </c>
@@ -929,16 +942,16 @@
         <f t="shared" si="1"/>
         <v>5667</v>
       </c>
-      <c r="F20" s="10">
+      <c r="H20" s="10">
         <f t="shared" si="3"/>
         <v>801.83584589614736</v>
       </c>
-      <c r="G20" s="9">
+      <c r="I20" s="9">
         <f t="shared" si="4"/>
         <v>45006.835845896145</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>44206</v>
       </c>
@@ -957,16 +970,16 @@
         <f t="shared" si="1"/>
         <v>6594</v>
       </c>
-      <c r="F21" s="10">
+      <c r="H21" s="10">
         <f t="shared" si="3"/>
         <v>686.54885057471267</v>
       </c>
-      <c r="G21" s="9">
+      <c r="I21" s="9">
         <f t="shared" si="4"/>
         <v>44892.548850574713</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>44207</v>
       </c>
@@ -985,16 +998,16 @@
         <f t="shared" si="1"/>
         <v>7624</v>
       </c>
-      <c r="F22" s="10">
+      <c r="H22" s="10">
         <f t="shared" si="3"/>
         <v>588.05302096177559</v>
       </c>
-      <c r="G22" s="9">
+      <c r="I22" s="9">
         <f t="shared" si="4"/>
         <v>44795.053020961779</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>44208</v>
       </c>
@@ -1013,16 +1026,16 @@
         <f t="shared" si="1"/>
         <v>9027</v>
       </c>
-      <c r="F23" s="10">
+      <c r="H23" s="10">
         <f t="shared" si="3"/>
         <v>512.88175519630488</v>
       </c>
-      <c r="G23" s="9">
+      <c r="I23" s="9">
         <f t="shared" si="4"/>
         <v>44720.881755196307</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>44209</v>
       </c>
@@ -1041,16 +1054,16 @@
         <f t="shared" si="1"/>
         <v>10070</v>
       </c>
-      <c r="F24" s="10">
+      <c r="H24" s="10">
         <f t="shared" si="3"/>
         <v>478.58011527377522</v>
       </c>
-      <c r="G24" s="9">
+      <c r="I24" s="9">
         <f t="shared" si="4"/>
         <v>44687.580115273777</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>44210</v>
       </c>
@@ -1069,16 +1082,16 @@
         <f t="shared" si="1"/>
         <v>11144</v>
       </c>
-      <c r="F25" s="10">
+      <c r="H25" s="10">
         <f t="shared" si="3"/>
         <v>462.92010057270573</v>
       </c>
-      <c r="G25" s="9">
+      <c r="I25" s="9">
         <f t="shared" si="4"/>
         <v>44672.920100572708</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>44211</v>
       </c>
@@ -1097,16 +1110,16 @@
         <f t="shared" si="1"/>
         <v>12066</v>
       </c>
-      <c r="F26" s="10">
+      <c r="H26" s="10">
         <f t="shared" si="3"/>
         <v>455.6327683615819</v>
       </c>
-      <c r="G26" s="9">
+      <c r="I26" s="9">
         <f t="shared" si="4"/>
         <v>44666.632768361582</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>44212</v>
       </c>
@@ -1125,16 +1138,16 @@
         <f t="shared" si="1"/>
         <v>12357</v>
       </c>
-      <c r="F27" s="10">
+      <c r="H27" s="10">
         <f t="shared" si="3"/>
         <v>493.28445440956654</v>
       </c>
-      <c r="G27" s="9">
+      <c r="I27" s="9">
         <f t="shared" si="4"/>
         <v>44705.284454409564</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>44213</v>
       </c>
@@ -1153,16 +1166,16 @@
         <f t="shared" si="1"/>
         <v>12357</v>
       </c>
-      <c r="F28" s="10">
+      <c r="H28" s="10">
         <f t="shared" si="3"/>
         <v>572.2776331771646</v>
       </c>
-      <c r="G28" s="9">
+      <c r="I28" s="9">
         <f t="shared" si="4"/>
         <v>44785.277633177167</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>44214</v>
       </c>
@@ -1181,16 +1194,16 @@
         <f t="shared" si="1"/>
         <v>12958</v>
       </c>
-      <c r="F29" s="10">
+      <c r="H29" s="10">
         <f t="shared" si="3"/>
         <v>592.26649905719671</v>
       </c>
-      <c r="G29" s="9">
+      <c r="I29" s="9">
         <f t="shared" si="4"/>
         <v>44806.266499057194</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>44215</v>
       </c>
@@ -1209,16 +1222,16 @@
         <f t="shared" si="1"/>
         <v>13789</v>
       </c>
-      <c r="F30" s="10">
+      <c r="H30" s="10">
         <f t="shared" si="3"/>
         <v>610.60437956204385</v>
       </c>
-      <c r="G30" s="9">
+      <c r="I30" s="9">
         <f t="shared" si="4"/>
         <v>44825.604379562043</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>44216</v>
       </c>
@@ -1237,16 +1250,16 @@
         <f t="shared" si="1"/>
         <v>14392</v>
       </c>
-      <c r="F31" s="10">
+      <c r="H31" s="10">
         <f t="shared" si="3"/>
         <v>700.41528424976696</v>
       </c>
-      <c r="G31" s="9">
+      <c r="I31" s="9">
         <f t="shared" si="4"/>
         <v>44916.415284249764</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>44217</v>
       </c>
@@ -1265,16 +1278,16 @@
         <f t="shared" si="1"/>
         <v>14906</v>
       </c>
-      <c r="F32" s="10">
+      <c r="H32" s="10">
         <f t="shared" si="3"/>
         <v>776.03473945409428</v>
       </c>
-      <c r="G32" s="9">
+      <c r="I32" s="9">
         <f t="shared" si="4"/>
         <v>44993.034739454095</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>44218</v>
       </c>
@@ -1293,16 +1306,16 @@
         <f t="shared" si="1"/>
         <v>15184</v>
       </c>
-      <c r="F33" s="10">
+      <c r="H33" s="10">
         <f t="shared" si="3"/>
         <v>927.91881188118816</v>
       </c>
-      <c r="G33" s="9">
+      <c r="I33" s="9">
         <f t="shared" si="4"/>
         <v>45145.918811881187</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>44219</v>
       </c>
@@ -1321,16 +1334,16 @@
         <f t="shared" si="1"/>
         <v>15445</v>
       </c>
-      <c r="F34" s="10">
+      <c r="H34" s="10">
         <f t="shared" si="3"/>
         <v>1108.7801124593075</v>
       </c>
-      <c r="G34" s="9">
+      <c r="I34" s="9">
         <f t="shared" si="4"/>
         <v>45327.78011245931</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>44220</v>
       </c>
@@ -1349,16 +1362,16 @@
         <f t="shared" si="1"/>
         <v>15665</v>
       </c>
-      <c r="F35" s="10">
+      <c r="H35" s="10">
         <f t="shared" si="3"/>
         <v>990.45344619105208</v>
       </c>
-      <c r="G35" s="9">
+      <c r="I35" s="9">
         <f t="shared" si="4"/>
         <v>45210.453446191052</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>44221</v>
       </c>
@@ -1377,16 +1390,16 @@
         <f t="shared" si="1"/>
         <v>15915</v>
       </c>
-      <c r="F36" s="10">
+      <c r="H36" s="10">
         <f t="shared" si="3"/>
         <v>1107.5008454514712</v>
       </c>
-      <c r="G36" s="9">
+      <c r="I36" s="9">
         <f t="shared" si="4"/>
         <v>45328.500845451468</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>44222</v>
       </c>
@@ -1405,16 +1418,16 @@
         <f t="shared" si="1"/>
         <v>16421</v>
       </c>
-      <c r="F37" s="10">
+      <c r="H37" s="10">
         <f t="shared" si="3"/>
         <v>1243.5904255319149</v>
       </c>
-      <c r="G37" s="9">
+      <c r="I37" s="9">
         <f t="shared" si="4"/>
         <v>45465.590425531918</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <v>44223</v>
       </c>
@@ -1433,16 +1446,16 @@
         <f t="shared" si="1"/>
         <v>16990</v>
       </c>
-      <c r="F38" s="10">
+      <c r="H38" s="10">
         <f t="shared" si="3"/>
         <v>1258.5019245573517</v>
       </c>
-      <c r="G38" s="9">
+      <c r="I38" s="9">
         <f t="shared" si="4"/>
         <v>45481.501924557349</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>44224</v>
       </c>
@@ -1461,16 +1474,16 @@
         <f t="shared" si="1"/>
         <v>17182</v>
       </c>
-      <c r="F39" s="10">
+      <c r="H39" s="10">
         <f t="shared" si="3"/>
         <v>1434.8000878734622</v>
       </c>
-      <c r="G39" s="9">
+      <c r="I39" s="9">
         <f t="shared" si="4"/>
         <v>45658.80008787346</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>44225</v>
       </c>
@@ -1489,16 +1502,16 @@
         <f t="shared" si="1"/>
         <v>17241</v>
       </c>
-      <c r="F40" s="10">
+      <c r="H40" s="10">
         <f t="shared" si="3"/>
         <v>1586.9037433155081</v>
       </c>
-      <c r="G40" s="9">
+      <c r="I40" s="9">
         <f t="shared" si="4"/>
         <v>45811.90374331551</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <v>44226</v>
       </c>
@@ -1517,16 +1530,16 @@
         <f t="shared" si="1"/>
         <v>17241</v>
       </c>
-      <c r="F41" s="10">
+      <c r="H41" s="10">
         <f t="shared" si="3"/>
         <v>1817.2873051224944</v>
       </c>
-      <c r="G41" s="9">
+      <c r="I41" s="9">
         <f t="shared" si="4"/>
         <v>46043.287305122496</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>44227</v>
       </c>
@@ -1545,16 +1558,16 @@
         <f t="shared" si="1"/>
         <v>17241</v>
       </c>
-      <c r="F42" s="10">
-        <f t="shared" ref="F42:F73" si="10">D42/C42</f>
+      <c r="H42" s="10">
+        <f t="shared" ref="H42:H73" si="10">D42/C42</f>
         <v>2070.9695431472082</v>
       </c>
-      <c r="G42" s="9">
-        <f t="shared" ref="G42:G73" si="11">A42+F42</f>
+      <c r="I42" s="9">
+        <f t="shared" ref="I42:I73" si="11">A42+H42</f>
         <v>46297.969543147206</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <v>44228</v>
       </c>
@@ -1573,16 +1586,16 @@
         <f t="shared" si="1"/>
         <v>17502</v>
       </c>
-      <c r="F43" s="10">
+      <c r="H43" s="10">
         <f t="shared" si="10"/>
         <v>2040.0466699076326</v>
       </c>
-      <c r="G43" s="9">
+      <c r="I43" s="9">
         <f t="shared" si="11"/>
         <v>46268.046669907635</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>44229</v>
       </c>
@@ -1601,16 +1614,16 @@
         <f t="shared" si="1"/>
         <v>17842</v>
       </c>
-      <c r="F44" s="10">
+      <c r="H44" s="10">
         <f t="shared" si="10"/>
         <v>1926.5167661920075</v>
       </c>
-      <c r="G44" s="9">
+      <c r="I44" s="9">
         <f t="shared" si="11"/>
         <v>46155.516766192006</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
         <v>44230</v>
       </c>
@@ -1629,16 +1642,16 @@
         <f t="shared" si="1"/>
         <v>18294</v>
       </c>
-      <c r="F45" s="10">
+      <c r="H45" s="10">
         <f t="shared" si="10"/>
         <v>1761.6506935687264</v>
       </c>
-      <c r="G45" s="9">
+      <c r="I45" s="9">
         <f t="shared" si="11"/>
         <v>45991.650693568728</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
         <v>44231</v>
       </c>
@@ -1657,16 +1670,16 @@
         <f t="shared" si="1"/>
         <v>18558</v>
       </c>
-      <c r="F46" s="10">
+      <c r="H46" s="10">
         <f t="shared" si="10"/>
         <v>1959.241459990641</v>
       </c>
-      <c r="G46" s="9">
+      <c r="I46" s="9">
         <f t="shared" si="11"/>
         <v>46190.241459990641</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
         <v>44232</v>
       </c>
@@ -1685,16 +1698,16 @@
         <f t="shared" si="1"/>
         <v>19070</v>
       </c>
-      <c r="F47" s="10">
+      <c r="H47" s="10">
         <f t="shared" si="10"/>
         <v>2011.7899038461537</v>
       </c>
-      <c r="G47" s="9">
+      <c r="I47" s="9">
         <f t="shared" si="11"/>
         <v>46243.789903846155</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
         <v>44233</v>
       </c>
@@ -1713,16 +1726,16 @@
         <f t="shared" si="1"/>
         <v>19582</v>
       </c>
-      <c r="F48" s="10">
+      <c r="H48" s="10">
         <f t="shared" si="10"/>
         <v>1741.6312499999999</v>
       </c>
-      <c r="G48" s="9">
+      <c r="I48" s="9">
         <f t="shared" si="11"/>
         <v>45974.631249999999</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
         <v>44234</v>
       </c>
@@ -1741,16 +1754,16 @@
         <f t="shared" si="1"/>
         <v>20097</v>
       </c>
-      <c r="F49" s="10">
+      <c r="H49" s="10">
         <f t="shared" si="10"/>
         <v>1137.0661764705883</v>
       </c>
-      <c r="G49" s="9">
+      <c r="I49" s="9">
         <f t="shared" si="11"/>
         <v>45371.066176470587</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
         <v>44235</v>
       </c>
@@ -1769,16 +1782,16 @@
         <f t="shared" si="1"/>
         <v>20636</v>
       </c>
-      <c r="F50" s="10">
+      <c r="H50" s="10">
         <f t="shared" si="10"/>
         <v>1035.0529674537331</v>
       </c>
-      <c r="G50" s="9">
+      <c r="I50" s="9">
         <f t="shared" si="11"/>
         <v>45270.052967453732</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
         <v>44236</v>
       </c>
@@ -1797,16 +1810,16 @@
         <f t="shared" si="1"/>
         <v>21238</v>
       </c>
-      <c r="F51" s="10">
+      <c r="H51" s="10">
         <f t="shared" si="10"/>
         <v>954.08804475853935</v>
       </c>
-      <c r="G51" s="9">
+      <c r="I51" s="9">
         <f t="shared" si="11"/>
         <v>45190.088044758537</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
         <v>44237</v>
       </c>
@@ -1825,16 +1838,16 @@
         <f t="shared" si="1"/>
         <v>21655</v>
       </c>
-      <c r="F52" s="10">
+      <c r="H52" s="10">
         <f t="shared" si="10"/>
         <v>962.76971139541797</v>
       </c>
-      <c r="G52" s="9">
+      <c r="I52" s="9">
         <f t="shared" si="11"/>
         <v>45199.76971139542</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
         <v>44238</v>
       </c>
@@ -1853,16 +1866,16 @@
         <f t="shared" si="1"/>
         <v>22274</v>
       </c>
-      <c r="F53" s="10">
+      <c r="H53" s="10">
         <f t="shared" si="10"/>
         <v>870.00807319698595</v>
       </c>
-      <c r="G53" s="9">
+      <c r="I53" s="9">
         <f t="shared" si="11"/>
         <v>45108.008073196987</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
         <v>44239</v>
       </c>
@@ -1881,16 +1894,16 @@
         <f t="shared" si="1"/>
         <v>22901</v>
       </c>
-      <c r="F54" s="10">
+      <c r="H54" s="10">
         <f t="shared" si="10"/>
         <v>842.76089793787514</v>
       </c>
-      <c r="G54" s="9">
+      <c r="I54" s="9">
         <f t="shared" si="11"/>
         <v>45081.760897937878</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="7">
         <v>44240</v>
       </c>
@@ -1909,16 +1922,16 @@
         <f t="shared" si="1"/>
         <v>23476</v>
       </c>
-      <c r="F55" s="10">
+      <c r="H55" s="10">
         <f t="shared" si="10"/>
         <v>827.99897277863374</v>
       </c>
-      <c r="G55" s="9">
+      <c r="I55" s="9">
         <f t="shared" si="11"/>
         <v>45067.998972778631</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
         <v>44241</v>
       </c>
@@ -1937,16 +1950,16 @@
         <f t="shared" si="1"/>
         <v>23888</v>
       </c>
-      <c r="F56" s="10">
+      <c r="H56" s="10">
         <f t="shared" si="10"/>
         <v>849.43365866525983</v>
       </c>
-      <c r="G56" s="9">
+      <c r="I56" s="9">
         <f t="shared" si="11"/>
         <v>45090.433658665257</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
         <v>44242</v>
       </c>
@@ -1965,16 +1978,16 @@
         <f t="shared" si="1"/>
         <v>23888</v>
       </c>
-      <c r="F57" s="10">
+      <c r="H57" s="10">
         <f t="shared" si="10"/>
         <v>989.33548585485858</v>
       </c>
-      <c r="G57" s="9">
+      <c r="I57" s="9">
         <f t="shared" si="11"/>
         <v>45231.335485854856</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="7">
         <v>44243</v>
       </c>
@@ -1993,16 +2006,16 @@
         <f t="shared" si="1"/>
         <v>24448</v>
       </c>
-      <c r="F58" s="10">
+      <c r="H58" s="10">
         <f t="shared" si="10"/>
         <v>964.56873032528858</v>
       </c>
-      <c r="G58" s="9">
+      <c r="I58" s="9">
         <f t="shared" si="11"/>
         <v>45207.568730325285</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
         <v>44244</v>
       </c>
@@ -2021,16 +2034,16 @@
         <f t="shared" si="1"/>
         <v>25047</v>
       </c>
-      <c r="F59" s="10">
+      <c r="H59" s="10">
         <f t="shared" si="10"/>
         <v>964.15227093725389</v>
       </c>
-      <c r="G59" s="9">
+      <c r="I59" s="9">
         <f t="shared" si="11"/>
         <v>45208.152270937251</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
         <v>44245</v>
       </c>
@@ -2049,16 +2062,16 @@
         <f t="shared" si="1"/>
         <v>26046</v>
       </c>
-      <c r="F60" s="10">
+      <c r="H60" s="10">
         <f t="shared" si="10"/>
         <v>835.26850375768618</v>
       </c>
-      <c r="G60" s="9">
+      <c r="I60" s="9">
         <f t="shared" si="11"/>
         <v>45080.268503757688</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="7">
         <v>44246</v>
       </c>
@@ -2077,16 +2090,16 @@
         <f t="shared" si="1"/>
         <v>27166</v>
       </c>
-      <c r="F61" s="10">
+      <c r="H61" s="10">
         <f t="shared" si="10"/>
         <v>748.09321340964846</v>
       </c>
-      <c r="G61" s="9">
+      <c r="I61" s="9">
         <f t="shared" si="11"/>
         <v>44994.093213409651</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
         <v>44247</v>
       </c>
@@ -2105,16 +2118,16 @@
         <f t="shared" si="1"/>
         <v>27811</v>
       </c>
-      <c r="F62" s="10">
+      <c r="H62" s="10">
         <f t="shared" si="10"/>
         <v>743.52586558044811</v>
       </c>
-      <c r="G62" s="9">
+      <c r="I62" s="9">
         <f t="shared" si="11"/>
         <v>44990.52586558045</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="7">
         <v>44248</v>
       </c>
@@ -2133,16 +2146,16 @@
         <f t="shared" si="1"/>
         <v>28629</v>
       </c>
-      <c r="F63" s="10">
+      <c r="H63" s="10">
         <f t="shared" si="10"/>
         <v>707.46206093537739</v>
       </c>
-      <c r="G63" s="9">
+      <c r="I63" s="9">
         <f t="shared" si="11"/>
         <v>44955.462060935381</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
         <v>44249</v>
       </c>
@@ -2161,16 +2174,16 @@
         <f t="shared" si="1"/>
         <v>29111</v>
       </c>
-      <c r="F64" s="10">
+      <c r="H64" s="10">
         <f t="shared" si="10"/>
         <v>609.63660731380435</v>
       </c>
-      <c r="G64" s="9">
+      <c r="I64" s="9">
         <f t="shared" si="11"/>
         <v>44858.636607313805</v>
       </c>
     </row>
-    <row r="65" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="7">
         <v>44250</v>
       </c>
@@ -2189,16 +2202,16 @@
         <f t="shared" si="1"/>
         <v>29927</v>
       </c>
-      <c r="F65" s="10">
+      <c r="H65" s="10">
         <f t="shared" si="10"/>
         <v>580.53622923891226</v>
       </c>
-      <c r="G65" s="9">
+      <c r="I65" s="9">
         <f t="shared" si="11"/>
         <v>44830.536229238911</v>
       </c>
     </row>
-    <row r="66" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="7">
         <v>44251</v>
       </c>
@@ -2217,16 +2230,16 @@
         <f t="shared" si="1"/>
         <v>30573</v>
       </c>
-      <c r="F66" s="10">
+      <c r="H66" s="10">
         <f t="shared" si="10"/>
         <v>574.56496561708286</v>
       </c>
-      <c r="G66" s="9">
+      <c r="I66" s="9">
         <f t="shared" si="11"/>
         <v>44825.564965617086</v>
       </c>
     </row>
-    <row r="67" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="7">
         <v>44252</v>
       </c>
@@ -2245,16 +2258,16 @@
         <f t="shared" si="1"/>
         <v>31229</v>
       </c>
-      <c r="F67" s="10">
+      <c r="H67" s="10">
         <f t="shared" si="10"/>
         <v>611.71599459772335</v>
       </c>
-      <c r="G67" s="9">
+      <c r="I67" s="9">
         <f t="shared" si="11"/>
         <v>44863.715994597726</v>
       </c>
     </row>
-    <row r="68" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7">
         <v>44253</v>
       </c>
@@ -2273,16 +2286,16 @@
         <f t="shared" si="1"/>
         <v>31986</v>
       </c>
-      <c r="F68" s="10">
+      <c r="H68" s="10">
         <f t="shared" si="10"/>
         <v>656.83236514522821</v>
       </c>
-      <c r="G68" s="9">
+      <c r="I68" s="9">
         <f t="shared" si="11"/>
         <v>44909.83236514523</v>
       </c>
     </row>
-    <row r="69" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="7">
         <v>44254</v>
       </c>
@@ -2301,16 +2314,16 @@
         <f t="shared" ref="E69:E100" si="16">E68+B69</f>
         <v>32668</v>
       </c>
-      <c r="F69" s="10">
+      <c r="H69" s="10">
         <f t="shared" si="10"/>
         <v>650.73769816759318</v>
       </c>
-      <c r="G69" s="9">
+      <c r="I69" s="9">
         <f t="shared" si="11"/>
         <v>44904.737698167592</v>
       </c>
     </row>
-    <row r="70" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="7">
         <v>44255</v>
       </c>
@@ -2329,16 +2342,16 @@
         <f t="shared" si="16"/>
         <v>33355</v>
       </c>
-      <c r="F70" s="10">
+      <c r="H70" s="10">
         <f t="shared" si="10"/>
         <v>667.76534066864156</v>
       </c>
-      <c r="G70" s="9">
+      <c r="I70" s="9">
         <f t="shared" si="11"/>
         <v>44922.765340668644</v>
       </c>
     </row>
-    <row r="71" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="7">
         <v>44256</v>
       </c>
@@ -2357,16 +2370,16 @@
         <f t="shared" si="16"/>
         <v>33939</v>
       </c>
-      <c r="F71" s="10">
+      <c r="H71" s="10">
         <f t="shared" si="10"/>
         <v>652.66155758077889</v>
       </c>
-      <c r="G71" s="9">
+      <c r="I71" s="9">
         <f t="shared" si="11"/>
         <v>44908.661557580781</v>
       </c>
     </row>
-    <row r="72" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="7">
         <v>44257</v>
       </c>
@@ -2385,16 +2398,16 @@
         <f t="shared" si="16"/>
         <v>35032</v>
       </c>
-      <c r="F72" s="10">
+      <c r="H72" s="10">
         <f t="shared" si="10"/>
         <v>616.44701273261501</v>
       </c>
-      <c r="G72" s="9">
+      <c r="I72" s="9">
         <f t="shared" si="11"/>
         <v>44873.447012732613</v>
       </c>
     </row>
-    <row r="73" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="7">
         <v>44258</v>
       </c>
@@ -2413,16 +2426,16 @@
         <f t="shared" si="16"/>
         <v>36205</v>
       </c>
-      <c r="F73" s="10">
+      <c r="H73" s="10">
         <f t="shared" si="10"/>
         <v>557.40607244318187</v>
       </c>
-      <c r="G73" s="9">
+      <c r="I73" s="9">
         <f t="shared" si="11"/>
         <v>44815.406072443184</v>
       </c>
     </row>
-    <row r="74" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7">
         <v>44259</v>
       </c>
@@ -2441,16 +2454,16 @@
         <f t="shared" si="16"/>
         <v>38202</v>
       </c>
-      <c r="F74" s="10">
-        <f t="shared" ref="F74:F99" si="18">D74/C74</f>
+      <c r="H74" s="10">
+        <f t="shared" ref="H74:H99" si="18">D74/C74</f>
         <v>449.03198049619965</v>
       </c>
-      <c r="G74" s="9">
-        <f t="shared" ref="G74:G99" si="19">A74+F74</f>
+      <c r="I74" s="9">
+        <f t="shared" ref="I74:I99" si="19">A74+H74</f>
         <v>44708.031980496198</v>
       </c>
     </row>
-    <row r="75" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="7">
         <v>44260</v>
       </c>
@@ -2469,16 +2482,16 @@
         <f t="shared" si="16"/>
         <v>39937</v>
       </c>
-      <c r="F75" s="10">
+      <c r="H75" s="10">
         <f t="shared" si="18"/>
         <v>392.04137844296315</v>
       </c>
-      <c r="G75" s="9">
+      <c r="I75" s="9">
         <f t="shared" si="19"/>
         <v>44652.041378442962</v>
       </c>
     </row>
-    <row r="76" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="7">
         <v>44261</v>
       </c>
@@ -2497,16 +2510,16 @@
         <f t="shared" si="16"/>
         <v>41469</v>
       </c>
-      <c r="F76" s="10">
+      <c r="H76" s="10">
         <f t="shared" si="18"/>
         <v>352.79809112600844</v>
       </c>
-      <c r="G76" s="9">
+      <c r="I76" s="9">
         <f t="shared" si="19"/>
         <v>44613.798091126009</v>
       </c>
     </row>
-    <row r="77" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="7">
         <v>44262</v>
       </c>
@@ -2525,16 +2538,16 @@
         <f t="shared" si="16"/>
         <v>42792</v>
       </c>
-      <c r="F77" s="10">
+      <c r="H77" s="10">
         <f t="shared" si="18"/>
         <v>327.88513298717811</v>
       </c>
-      <c r="G77" s="9">
+      <c r="I77" s="9">
         <f t="shared" si="19"/>
         <v>44589.885132987176</v>
       </c>
     </row>
-    <row r="78" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="7">
         <v>44263</v>
       </c>
@@ -2553,16 +2566,16 @@
         <f t="shared" si="16"/>
         <v>44310</v>
       </c>
-      <c r="F78" s="10">
+      <c r="H78" s="10">
         <f t="shared" si="18"/>
         <v>297.46321473339117</v>
       </c>
-      <c r="G78" s="9">
+      <c r="I78" s="9">
         <f t="shared" si="19"/>
         <v>44560.46321473339</v>
       </c>
     </row>
-    <row r="79" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="7">
         <v>44264</v>
       </c>
@@ -2581,16 +2594,16 @@
         <f t="shared" si="16"/>
         <v>45974</v>
       </c>
-      <c r="F79" s="10">
+      <c r="H79" s="10">
         <f t="shared" si="18"/>
         <v>280.96920124291722</v>
       </c>
-      <c r="G79" s="9">
+      <c r="I79" s="9">
         <f t="shared" si="19"/>
         <v>44544.969201242915</v>
       </c>
     </row>
-    <row r="80" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="7">
         <v>44265</v>
       </c>
@@ -2609,16 +2622,16 @@
         <f t="shared" si="16"/>
         <v>47651</v>
       </c>
-      <c r="F80" s="10">
+      <c r="H80" s="10">
         <f t="shared" si="18"/>
         <v>267.57967849030229</v>
       </c>
-      <c r="G80" s="9">
+      <c r="I80" s="9">
         <f t="shared" si="19"/>
         <v>44532.5796784903</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="7">
         <v>44266</v>
       </c>
@@ -2637,16 +2650,16 @@
         <f t="shared" si="16"/>
         <v>49269</v>
       </c>
-      <c r="F81" s="10">
+      <c r="H81" s="10">
         <f t="shared" si="18"/>
         <v>275.68247944339026</v>
       </c>
-      <c r="G81" s="9">
+      <c r="I81" s="9">
         <f t="shared" si="19"/>
         <v>44541.682479443392</v>
       </c>
     </row>
-    <row r="82" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="7">
         <v>44267</v>
       </c>
@@ -2665,16 +2678,16 @@
         <f t="shared" si="16"/>
         <v>51124</v>
       </c>
-      <c r="F82" s="10">
+      <c r="H82" s="10">
         <f t="shared" si="18"/>
         <v>271.71288102261553</v>
       </c>
-      <c r="G82" s="9">
+      <c r="I82" s="9">
         <f t="shared" si="19"/>
         <v>44538.712881022613</v>
       </c>
     </row>
-    <row r="83" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="7">
         <v>44268</v>
       </c>
@@ -2693,16 +2706,16 @@
         <f t="shared" si="16"/>
         <v>52918</v>
       </c>
-      <c r="F83" s="10">
+      <c r="H83" s="10">
         <f t="shared" si="18"/>
         <v>264.36081753864966</v>
       </c>
-      <c r="G83" s="9">
+      <c r="I83" s="9">
         <f t="shared" si="19"/>
         <v>44532.360817538647</v>
       </c>
     </row>
-    <row r="84" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="7">
         <v>44269</v>
       </c>
@@ -2721,16 +2734,16 @@
         <f t="shared" si="16"/>
         <v>54698</v>
       </c>
-      <c r="F84" s="10">
+      <c r="H84" s="10">
         <f t="shared" si="18"/>
         <v>253.15882748194187</v>
       </c>
-      <c r="G84" s="9">
+      <c r="I84" s="9">
         <f t="shared" si="19"/>
         <v>44522.158827481944</v>
       </c>
     </row>
-    <row r="85" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="7">
         <v>44270</v>
       </c>
@@ -2749,16 +2762,16 @@
         <f t="shared" si="16"/>
         <v>56854</v>
       </c>
-      <c r="F85" s="10">
+      <c r="H85" s="10">
         <f t="shared" si="18"/>
         <v>239.28962053571428</v>
       </c>
-      <c r="G85" s="9">
+      <c r="I85" s="9">
         <f t="shared" si="19"/>
         <v>44509.289620535717</v>
       </c>
     </row>
-    <row r="86" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="7">
         <v>44271</v>
       </c>
@@ -2777,16 +2790,16 @@
         <f t="shared" si="16"/>
         <v>58562</v>
       </c>
-      <c r="F86" s="10">
+      <c r="H86" s="10">
         <f t="shared" si="18"/>
         <v>237.25428979980936</v>
       </c>
-      <c r="G86" s="9">
+      <c r="I86" s="9">
         <f t="shared" si="19"/>
         <v>44508.254289799806</v>
       </c>
     </row>
-    <row r="87" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="7">
         <v>44272</v>
       </c>
@@ -2805,16 +2818,16 @@
         <f t="shared" si="16"/>
         <v>60069</v>
       </c>
-      <c r="F87" s="10">
+      <c r="H87" s="10">
         <f t="shared" si="18"/>
         <v>239.53945885005638</v>
       </c>
-      <c r="G87" s="9">
+      <c r="I87" s="9">
         <f t="shared" si="19"/>
         <v>44511.539458850057</v>
       </c>
     </row>
-    <row r="88" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="7">
         <v>44273</v>
       </c>
@@ -2833,16 +2846,16 @@
         <f t="shared" si="16"/>
         <v>61598</v>
       </c>
-      <c r="F88" s="10">
+      <c r="H88" s="10">
         <f t="shared" si="18"/>
         <v>240.41300997647824</v>
       </c>
-      <c r="G88" s="9">
+      <c r="I88" s="9">
         <f t="shared" si="19"/>
         <v>44513.413009976481</v>
       </c>
     </row>
-    <row r="89" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="7">
         <v>44274</v>
       </c>
@@ -2861,16 +2874,16 @@
         <f t="shared" si="16"/>
         <v>63062</v>
       </c>
-      <c r="F89" s="10">
+      <c r="H89" s="10">
         <f t="shared" si="18"/>
         <v>247.39060144077737</v>
       </c>
-      <c r="G89" s="9">
+      <c r="I89" s="9">
         <f t="shared" si="19"/>
         <v>44521.390601440777</v>
       </c>
     </row>
-    <row r="90" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="7">
         <v>44275</v>
       </c>
@@ -2889,16 +2902,16 @@
         <f t="shared" si="16"/>
         <v>64580</v>
       </c>
-      <c r="F90" s="10">
+      <c r="H90" s="10">
         <f t="shared" si="18"/>
         <v>252.36674669867946</v>
       </c>
-      <c r="G90" s="9">
+      <c r="I90" s="9">
         <f t="shared" si="19"/>
         <v>44527.366746698681</v>
       </c>
     </row>
-    <row r="91" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="7">
         <v>44276</v>
       </c>
@@ -2917,20 +2930,20 @@
         <f t="shared" si="16"/>
         <v>65978</v>
       </c>
-      <c r="F91" s="10">
+      <c r="H91" s="10">
         <f t="shared" si="18"/>
         <v>259.97118794326241</v>
       </c>
-      <c r="G91" s="9">
+      <c r="I91" s="9">
         <f t="shared" si="19"/>
         <v>44535.971187943265</v>
       </c>
-      <c r="H91" s="10">
-        <f t="shared" ref="H91:H97" si="22">D91/84</f>
+      <c r="J91" s="10">
+        <f t="shared" ref="J91:J97" si="22">D91/84</f>
         <v>4987.2023809523807</v>
       </c>
     </row>
-    <row r="92" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="7">
         <v>44277</v>
       </c>
@@ -2949,20 +2962,20 @@
         <f t="shared" si="16"/>
         <v>67357</v>
       </c>
-      <c r="F92" s="10">
+      <c r="H92" s="10">
         <f t="shared" si="18"/>
         <v>278.27182709701992</v>
       </c>
-      <c r="G92" s="9">
+      <c r="I92" s="9">
         <f t="shared" si="19"/>
         <v>44555.271827097022</v>
       </c>
-      <c r="H92" s="10">
+      <c r="J92" s="10">
         <f t="shared" si="22"/>
         <v>4970.5595238095239</v>
       </c>
     </row>
-    <row r="93" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="7">
         <v>44278</v>
       </c>
@@ -2981,20 +2994,20 @@
         <f t="shared" si="16"/>
         <v>68830</v>
       </c>
-      <c r="F93" s="10">
+      <c r="H93" s="10">
         <f t="shared" si="18"/>
         <v>283.70042851577716</v>
       </c>
-      <c r="G93" s="9">
+      <c r="I93" s="9">
         <f t="shared" si="19"/>
         <v>44561.700428515775</v>
       </c>
-      <c r="H93" s="10">
+      <c r="J93" s="10">
         <f t="shared" si="22"/>
         <v>4954.1428571428569</v>
       </c>
     </row>
-    <row r="94" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="7">
         <v>44279</v>
       </c>
@@ -3012,20 +3025,20 @@
         <f t="shared" si="16"/>
         <v>72036</v>
       </c>
-      <c r="F94" s="10">
+      <c r="H94" s="10">
         <f t="shared" si="18"/>
         <v>242.56079217849083</v>
       </c>
-      <c r="G94" s="9">
+      <c r="I94" s="9">
         <f t="shared" si="19"/>
         <v>44521.56079217849</v>
       </c>
-      <c r="H94" s="10">
+      <c r="J94" s="10">
         <f t="shared" si="22"/>
         <v>4936.6071428571431</v>
       </c>
     </row>
-    <row r="95" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="7">
         <v>44280</v>
       </c>
@@ -3044,20 +3057,20 @@
         <f t="shared" si="16"/>
         <v>75242</v>
       </c>
-      <c r="F95" s="10">
+      <c r="H95" s="10">
         <f t="shared" si="18"/>
         <v>211.10253591322194</v>
       </c>
-      <c r="G95" s="9">
+      <c r="I95" s="9">
         <f t="shared" si="19"/>
         <v>44491.102535913225</v>
       </c>
-      <c r="H95" s="10">
+      <c r="J95" s="10">
         <f t="shared" si="22"/>
         <v>4898.4404761904761</v>
       </c>
     </row>
-    <row r="96" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="7">
         <v>44281</v>
       </c>
@@ -3076,20 +3089,20 @@
         <f t="shared" si="16"/>
         <v>78229</v>
       </c>
-      <c r="F96" s="10">
+      <c r="H96" s="10">
         <f t="shared" si="18"/>
         <v>188.52601041735346</v>
       </c>
-      <c r="G96" s="9">
+      <c r="I96" s="9">
         <f t="shared" si="19"/>
         <v>44469.52601041735</v>
       </c>
-      <c r="H96" s="10">
+      <c r="J96" s="10">
         <f t="shared" si="22"/>
         <v>4862.8809523809523</v>
       </c>
     </row>
-    <row r="97" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="7">
         <v>44282</v>
       </c>
@@ -3108,20 +3121,20 @@
         <f t="shared" si="16"/>
         <v>81179</v>
       </c>
-      <c r="F97" s="10">
+      <c r="H97" s="10">
         <f t="shared" si="18"/>
         <v>171.01777215494909</v>
       </c>
-      <c r="G97" s="9">
+      <c r="I97" s="9">
         <f t="shared" si="19"/>
         <v>44453.017772154948</v>
       </c>
-      <c r="H97" s="10">
+      <c r="J97" s="10">
         <f t="shared" si="22"/>
         <v>4827.7619047619046</v>
       </c>
     </row>
-    <row r="98" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="7">
         <v>44283</v>
       </c>
@@ -3140,20 +3153,20 @@
         <f t="shared" si="16"/>
         <v>83494</v>
       </c>
-      <c r="F98" s="10">
+      <c r="H98" s="10">
         <f t="shared" si="18"/>
         <v>161.1394724823019</v>
       </c>
-      <c r="G98" s="9">
+      <c r="I98" s="9">
         <f t="shared" si="19"/>
         <v>44444.139472482304</v>
       </c>
-      <c r="H98" s="10">
+      <c r="J98" s="10">
         <f>D98/84</f>
         <v>4800.2023809523807</v>
       </c>
     </row>
-    <row r="99" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="7">
         <v>44284</v>
       </c>
@@ -3172,20 +3185,20 @@
         <f t="shared" si="16"/>
         <v>86094</v>
       </c>
-      <c r="F99" s="10">
+      <c r="H99" s="10">
         <f t="shared" si="18"/>
         <v>149.66744943160592</v>
       </c>
-      <c r="G99" s="9">
+      <c r="I99" s="9">
         <f t="shared" si="19"/>
         <v>44433.667449431603</v>
       </c>
-      <c r="H99" s="10">
+      <c r="J99" s="10">
         <f>D99/84</f>
         <v>4769.25</v>
       </c>
     </row>
-    <row r="100" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="7">
         <v>44285</v>
       </c>
@@ -3204,20 +3217,20 @@
         <f t="shared" si="16"/>
         <v>89278</v>
       </c>
-      <c r="F100" s="10">
-        <f t="shared" ref="F100" si="26">D100/C100</f>
+      <c r="H100" s="10">
+        <f t="shared" ref="H100" si="26">D100/C100</f>
         <v>136.05394170579029</v>
       </c>
-      <c r="G100" s="9">
-        <f t="shared" ref="G100" si="27">A100+F100</f>
+      <c r="I100" s="9">
+        <f t="shared" ref="I100" si="27">A100+H100</f>
         <v>44421.053941705788</v>
       </c>
-      <c r="H100" s="10">
-        <f t="shared" ref="H100:H101" si="28">D100/84</f>
+      <c r="J100" s="10">
+        <f t="shared" ref="J100:J101" si="28">D100/84</f>
         <v>4731.3452380952385</v>
       </c>
     </row>
-    <row r="101" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="7">
         <v>44286</v>
       </c>
@@ -3236,20 +3249,20 @@
         <f t="shared" ref="E101" si="30">E100+B101</f>
         <v>93052</v>
       </c>
-      <c r="F101" s="10">
-        <f t="shared" ref="F101" si="31">D101/C101</f>
+      <c r="H101" s="10">
+        <f t="shared" ref="H101" si="31">D101/C101</f>
         <v>131.11976589265322</v>
       </c>
-      <c r="G101" s="9">
-        <f t="shared" ref="G101" si="32">A101+F101</f>
+      <c r="I101" s="9">
+        <f t="shared" ref="I101" si="32">A101+H101</f>
         <v>44417.119765892654</v>
       </c>
-      <c r="H101" s="10">
+      <c r="J101" s="10">
         <f t="shared" si="28"/>
         <v>4686.416666666667</v>
       </c>
     </row>
-    <row r="102" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="7">
         <v>44287</v>
       </c>
@@ -3268,20 +3281,20 @@
         <f t="shared" ref="E102" si="34">E101+B102</f>
         <v>96725</v>
       </c>
-      <c r="F102" s="10">
-        <f t="shared" ref="F102" si="35">D102/C102</f>
+      <c r="H102" s="10">
+        <f t="shared" ref="H102" si="35">D102/C102</f>
         <v>127.07266210492017</v>
       </c>
-      <c r="G102" s="9">
-        <f t="shared" ref="G102" si="36">A102+F102</f>
+      <c r="I102" s="9">
+        <f t="shared" ref="I102" si="36">A102+H102</f>
         <v>44414.072662104918</v>
       </c>
-      <c r="H102" s="10">
-        <f t="shared" ref="H102" si="37">D102/84</f>
+      <c r="J102" s="10">
+        <f t="shared" ref="J102" si="37">D102/84</f>
         <v>4642.6904761904761</v>
       </c>
     </row>
-    <row r="103" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="7">
         <v>44288</v>
       </c>
@@ -3300,20 +3313,20 @@
         <f t="shared" ref="E103" si="39">E102+B103</f>
         <v>100112</v>
       </c>
-      <c r="F103" s="10">
-        <f t="shared" ref="F103" si="40">D103/C103</f>
+      <c r="H103" s="10">
+        <f t="shared" ref="H103" si="40">D103/C103</f>
         <v>123.66645341132386</v>
       </c>
-      <c r="G103" s="9">
-        <f t="shared" ref="G103" si="41">A103+F103</f>
+      <c r="I103" s="9">
+        <f t="shared" ref="I103" si="41">A103+H103</f>
         <v>44411.666453411322</v>
       </c>
-      <c r="H103" s="10">
-        <f t="shared" ref="H103" si="42">D103/84</f>
+      <c r="J103" s="10">
+        <f t="shared" ref="J103" si="42">D103/84</f>
         <v>4602.3690476190477</v>
       </c>
     </row>
-    <row r="104" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="7">
         <v>44289</v>
       </c>
@@ -3332,20 +3345,20 @@
         <f t="shared" ref="E104" si="45">E103+B104</f>
         <v>103672</v>
       </c>
-      <c r="F104" s="10">
-        <f t="shared" ref="F104" si="46">D104/C104</f>
+      <c r="H104" s="10">
+        <f t="shared" ref="H104" si="46">D104/C104</f>
         <v>119.20477481883253</v>
       </c>
-      <c r="G104" s="9">
-        <f t="shared" ref="G104" si="47">A104+F104</f>
+      <c r="I104" s="9">
+        <f t="shared" ref="I104" si="47">A104+H104</f>
         <v>44408.204774818834</v>
       </c>
-      <c r="H104" s="10">
-        <f t="shared" ref="H104" si="48">D104/84</f>
+      <c r="J104" s="10">
+        <f t="shared" ref="J104" si="48">D104/84</f>
         <v>4559.9880952380954</v>
       </c>
     </row>
-    <row r="105" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="7">
         <v>44290</v>
       </c>
@@ -3364,20 +3377,20 @@
         <f t="shared" ref="E105" si="50">E104+B105</f>
         <v>107424</v>
       </c>
-      <c r="F105" s="10">
-        <f t="shared" ref="F105" si="51">D105/C105</f>
+      <c r="H105" s="10">
+        <f t="shared" ref="H105" si="51">D105/C105</f>
         <v>110.94897618052654</v>
       </c>
-      <c r="G105" s="9">
-        <f t="shared" ref="G105" si="52">A105+F105</f>
+      <c r="I105" s="9">
+        <f t="shared" ref="I105" si="52">A105+H105</f>
         <v>44400.948976180523</v>
       </c>
-      <c r="H105" s="10">
-        <f t="shared" ref="H105" si="53">D105/84</f>
+      <c r="J105" s="10">
+        <f t="shared" ref="J105" si="53">D105/84</f>
         <v>4515.3214285714284</v>
       </c>
     </row>
-    <row r="106" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="7">
         <v>44291</v>
       </c>
@@ -3396,20 +3409,20 @@
         <f t="shared" ref="E106" si="55">E105+B106</f>
         <v>111183</v>
       </c>
-      <c r="F106" s="10">
-        <f t="shared" ref="F106" si="56">D106/C106</f>
+      <c r="H106" s="10">
+        <f t="shared" ref="H106" si="56">D106/C106</f>
         <v>104.77484156403204</v>
       </c>
-      <c r="G106" s="9">
-        <f t="shared" ref="G106" si="57">A106+F106</f>
+      <c r="I106" s="9">
+        <f t="shared" ref="I106" si="57">A106+H106</f>
         <v>44395.774841564031</v>
       </c>
-      <c r="H106" s="10">
-        <f t="shared" ref="H106" si="58">D106/84</f>
+      <c r="J106" s="10">
+        <f t="shared" ref="J106" si="58">D106/84</f>
         <v>4470.5714285714284</v>
       </c>
     </row>
-    <row r="107" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="7">
         <v>44292</v>
       </c>
@@ -3428,20 +3441,20 @@
         <f t="shared" ref="E107" si="60">E106+B107</f>
         <v>114486</v>
       </c>
-      <c r="F107" s="10">
-        <f t="shared" ref="F107" si="61">D107/C107</f>
+      <c r="H107" s="10">
+        <f t="shared" ref="H107" si="61">D107/C107</f>
         <v>103.36301967629323</v>
       </c>
-      <c r="G107" s="9">
-        <f t="shared" ref="G107" si="62">A107+F107</f>
+      <c r="I107" s="9">
+        <f t="shared" ref="I107" si="62">A107+H107</f>
         <v>44395.36301967629</v>
       </c>
-      <c r="H107" s="10">
-        <f t="shared" ref="H107" si="63">D107/84</f>
+      <c r="J107" s="10">
+        <f t="shared" ref="J107" si="63">D107/84</f>
         <v>4431.25</v>
       </c>
     </row>
-    <row r="108" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="7">
         <v>44293</v>
       </c>
@@ -3460,20 +3473,20 @@
         <f t="shared" ref="E108" si="65">E107+B108</f>
         <v>117582</v>
       </c>
-      <c r="F108" s="10">
-        <f t="shared" ref="F108" si="66">D108/C108</f>
+      <c r="H108" s="10">
+        <f t="shared" ref="H108" si="66">D108/C108</f>
         <v>105.33644516918059</v>
       </c>
-      <c r="G108" s="9">
-        <f t="shared" ref="G108" si="67">A108+F108</f>
+      <c r="I108" s="9">
+        <f t="shared" ref="I108" si="67">A108+H108</f>
         <v>44398.336445169181</v>
       </c>
-      <c r="H108" s="10">
-        <f t="shared" ref="H108" si="68">D108/84</f>
+      <c r="J108" s="10">
+        <f t="shared" ref="J108" si="68">D108/84</f>
         <v>4394.3928571428569</v>
       </c>
     </row>
-    <row r="109" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="7">
         <v>44294</v>
       </c>
@@ -3492,20 +3505,20 @@
         <f t="shared" ref="E109" si="70">E108+B109</f>
         <v>120105</v>
       </c>
-      <c r="F109" s="10">
-        <f t="shared" ref="F109" si="71">D109/C109</f>
+      <c r="H109" s="10">
+        <f t="shared" ref="H109" si="71">D109/C109</f>
         <v>109.76227544910179</v>
       </c>
-      <c r="G109" s="9">
-        <f t="shared" ref="G109" si="72">A109+F109</f>
+      <c r="I109" s="9">
+        <f t="shared" ref="I109" si="72">A109+H109</f>
         <v>44403.762275449102</v>
       </c>
-      <c r="H109" s="10">
-        <f t="shared" ref="H109" si="73">D109/84</f>
+      <c r="J109" s="10">
+        <f t="shared" ref="J109" si="73">D109/84</f>
         <v>4364.3571428571431</v>
       </c>
     </row>
-    <row r="110" spans="1:8" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="7">
         <v>44295</v>
       </c>
@@ -3524,20 +3537,20 @@
         <f t="shared" ref="E110" si="75">E109+B110</f>
         <v>124084</v>
       </c>
-      <c r="F110" s="10">
-        <f t="shared" ref="F110" si="76">D110/C110</f>
+      <c r="H110" s="10">
+        <f t="shared" ref="H110" si="76">D110/C110</f>
         <v>105.88974637076589</v>
       </c>
-      <c r="G110" s="9">
-        <f t="shared" ref="G110" si="77">A110+F110</f>
+      <c r="I110" s="9">
+        <f t="shared" ref="I110" si="77">A110+H110</f>
         <v>44400.889746370769</v>
       </c>
-      <c r="H110" s="10">
-        <f t="shared" ref="H110" si="78">D110/84</f>
+      <c r="J110" s="10">
+        <f t="shared" ref="J110" si="78">D110/84</f>
         <v>4316.9880952380954</v>
       </c>
     </row>
-    <row r="111" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="7">
         <v>44296</v>
       </c>
@@ -3556,20 +3569,20 @@
         <f t="shared" ref="E111" si="81">E110+B111</f>
         <v>128068</v>
       </c>
-      <c r="F111" s="10">
-        <f t="shared" ref="F111" si="82">D111/C111</f>
+      <c r="H111" s="10">
+        <f t="shared" ref="H111" si="82">D111/C111</f>
         <v>102.90625512379079</v>
       </c>
-      <c r="G111" s="9">
-        <f t="shared" ref="G111" si="83">A111+F111</f>
+      <c r="I111" s="9">
+        <f t="shared" ref="I111" si="83">A111+H111</f>
         <v>44398.906255123788</v>
       </c>
-      <c r="H111" s="10">
-        <f t="shared" ref="H111" si="84">D111/84</f>
+      <c r="J111" s="10">
+        <f t="shared" ref="J111" si="84">D111/84</f>
         <v>4269.5595238095239</v>
       </c>
     </row>
-    <row r="112" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="7">
         <v>44297</v>
       </c>
@@ -3588,20 +3601,20 @@
         <f t="shared" ref="E112" si="87">E111+B112</f>
         <v>132004</v>
       </c>
-      <c r="F112" s="10">
-        <f t="shared" ref="F112" si="88">D112/C112</f>
+      <c r="H112" s="10">
+        <f t="shared" ref="H112" si="88">D112/C112</f>
         <v>101.01501220504475</v>
       </c>
-      <c r="G112" s="9">
-        <f t="shared" ref="G112" si="89">A112+F112</f>
+      <c r="I112" s="9">
+        <f t="shared" ref="I112" si="89">A112+H112</f>
         <v>44398.015012205047</v>
       </c>
-      <c r="H112" s="10">
-        <f t="shared" ref="H112" si="90">D112/84</f>
+      <c r="J112" s="10">
+        <f t="shared" ref="J112" si="90">D112/84</f>
         <v>4222.7023809523807</v>
       </c>
     </row>
-    <row r="113" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="7">
         <v>44298</v>
       </c>
@@ -3620,20 +3633,20 @@
         <f t="shared" ref="E113" si="93">E112+B113</f>
         <v>135713</v>
       </c>
-      <c r="F113" s="10">
-        <f t="shared" ref="F113" si="94">D113/C113</f>
+      <c r="H113" s="10">
+        <f t="shared" ref="H113" si="94">D113/C113</f>
         <v>100.16249490419894</v>
       </c>
-      <c r="G113" s="9">
-        <f t="shared" ref="G113" si="95">A113+F113</f>
+      <c r="I113" s="9">
+        <f t="shared" ref="I113" si="95">A113+H113</f>
         <v>44398.162494904202</v>
       </c>
-      <c r="H113" s="10">
-        <f t="shared" ref="H113" si="96">D113/84</f>
+      <c r="J113" s="10">
+        <f t="shared" ref="J113" si="96">D113/84</f>
         <v>4178.5476190476193</v>
       </c>
     </row>
-    <row r="114" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="7">
         <v>44299</v>
       </c>
@@ -3652,20 +3665,20 @@
         <f t="shared" ref="E114" si="99">E113+B114</f>
         <v>140045</v>
       </c>
-      <c r="F114" s="10">
-        <f t="shared" ref="F114" si="100">D114/C114</f>
+      <c r="H114" s="10">
+        <f t="shared" ref="H114" si="100">D114/C114</f>
         <v>94.943542392112363</v>
       </c>
-      <c r="G114" s="9">
-        <f t="shared" ref="G114" si="101">A114+F114</f>
+      <c r="I114" s="9">
+        <f t="shared" ref="I114" si="101">A114+H114</f>
         <v>44393.94354239211</v>
       </c>
-      <c r="H114" s="10">
-        <f t="shared" ref="H114" si="102">D114/84</f>
+      <c r="J114" s="10">
+        <f t="shared" ref="J114" si="102">D114/84</f>
         <v>4126.9761904761908</v>
       </c>
     </row>
-    <row r="115" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="7">
         <v>44300</v>
       </c>
@@ -3677,27 +3690,27 @@
         <v>3796</v>
       </c>
       <c r="D115" s="8">
-        <f t="shared" ref="D115" si="104">(D114-B115)</f>
+        <f>(D114-B115)</f>
         <v>342557</v>
       </c>
       <c r="E115" s="8">
-        <f t="shared" ref="E115" si="105">E114+B115</f>
+        <f t="shared" ref="E115" si="104">E114+B115</f>
         <v>144154</v>
       </c>
-      <c r="F115" s="10">
-        <f t="shared" ref="F115" si="106">D115/C115</f>
+      <c r="H115" s="10">
+        <f t="shared" ref="H115" si="105">D115/C115</f>
         <v>90.241570073761849</v>
       </c>
-      <c r="G115" s="9">
-        <f t="shared" ref="G115" si="107">A115+F115</f>
+      <c r="I115" s="9">
+        <f t="shared" ref="I115" si="106">A115+H115</f>
         <v>44390.241570073762</v>
       </c>
-      <c r="H115" s="10">
-        <f t="shared" ref="H115" si="108">D115/84</f>
+      <c r="J115" s="10">
+        <f t="shared" ref="J115" si="107">D115/84</f>
         <v>4078.0595238095239</v>
       </c>
     </row>
-    <row r="116" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="6">
         <v>44301</v>
       </c>
@@ -3705,34 +3718,41 @@
         <v>3377</v>
       </c>
       <c r="C116" s="3">
-        <f t="shared" ref="C116" si="109">(AVERAGE(B110:B116))</f>
+        <f t="shared" ref="C116" si="108">(AVERAGE(B110:B116))</f>
         <v>3918</v>
       </c>
       <c r="D116" s="4">
-        <f t="shared" ref="D116" si="110">(D115-B116)</f>
-        <v>339180</v>
+        <f>(D115-B116)+G116</f>
+        <v>353486</v>
       </c>
       <c r="E116" s="4">
-        <f t="shared" ref="E116" si="111">E115+B116</f>
+        <f t="shared" ref="E116" si="109">E115+B116</f>
         <v>147531</v>
       </c>
-      <c r="F116" s="3">
-        <f t="shared" ref="F116" si="112">D116/C116</f>
-        <v>86.569678407350693</v>
-      </c>
-      <c r="G116" s="5">
-        <f t="shared" ref="G116" si="113">A116+F116</f>
-        <v>44387.569678407352</v>
+      <c r="F116" s="4">
+        <f>(E116-G116)</f>
+        <v>133225</v>
+      </c>
+      <c r="G116" s="4">
+        <v>14306</v>
       </c>
       <c r="H116" s="3">
-        <f t="shared" ref="H116" si="114">D116/84</f>
-        <v>4037.8571428571427</v>
-      </c>
-      <c r="I116" s="4" t="s">
+        <f>D116/C116</f>
+        <v>90.221031138335888</v>
+      </c>
+      <c r="I116" s="5">
+        <f>A116+H116</f>
+        <v>44391.221031138339</v>
+      </c>
+      <c r="J116" s="3">
+        <f t="shared" ref="J116" si="110">D116/84</f>
+        <v>4208.166666666667</v>
+      </c>
+      <c r="K116" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
     </row>
   </sheetData>

--- a/durham_daily_vaccinations.xlsx
+++ b/durham_daily_vaccinations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE351B76-C898-644D-806E-B92887B22A33}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C6D1E7-4E4C-0746-A26A-8DBA24E0CC99}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19660" xr2:uid="{D878B493-02AB-054E-B330-D20DF148DE7B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>People one dose</t>
+  </si>
+  <si>
+    <t>Coming Soon</t>
   </si>
 </sst>
 </file>
@@ -122,19 +125,50 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -453,3307 +487,3572 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E82AD24-C064-B648-8062-B01E1A5F7A8D}">
   <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="M121" sqref="M121"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="I121" sqref="I121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
+    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
         <v>44187</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="5">
         <v>47</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="5">
         <f t="shared" ref="D2:D33" si="0">D3+B2</f>
         <v>483505</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="5">
         <f>SUM(B2)</f>
         <v>47</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>44188</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="5">
         <v>123</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="5">
         <f t="shared" si="0"/>
         <v>483458</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="5">
         <f>E2+B3</f>
         <v>170</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
         <v>44189</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="5">
         <v>93</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="5">
         <f t="shared" si="0"/>
         <v>483335</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="5">
         <f>E3+B4</f>
         <v>263</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="9"/>
-    </row>
-    <row r="5" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
         <v>44190</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="5">
         <v>0</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="5">
         <f t="shared" si="0"/>
         <v>483242</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="5">
         <f t="shared" ref="E5:E68" si="1">E4+B5</f>
         <v>263</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
         <v>44191</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="5">
         <v>0</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="5">
         <f t="shared" si="0"/>
         <v>483242</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="5">
         <f t="shared" si="1"/>
         <v>263</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
         <v>44192</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="5">
         <v>0</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="5">
         <f t="shared" si="0"/>
         <v>483242</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="5">
         <f t="shared" si="1"/>
         <v>263</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="9"/>
-    </row>
-    <row r="8" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
         <v>44193</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="5">
         <v>155</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="5">
         <f t="shared" si="0"/>
         <v>483242</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="5">
         <f t="shared" si="1"/>
         <v>418</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
         <v>44194</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="5">
         <v>154</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="5">
         <f t="shared" si="0"/>
         <v>483087</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="5">
         <f t="shared" si="1"/>
         <v>572</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
         <v>44195</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="5">
         <v>158</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="5">
         <f t="shared" ref="C10" si="2">AVERAGE(B1:B10)</f>
         <v>81.111111111111114</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="5">
         <f t="shared" si="0"/>
         <v>482933</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="5">
         <f t="shared" si="1"/>
         <v>730</v>
       </c>
-      <c r="H10" s="10">
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="6">
         <f t="shared" ref="H10:H41" si="3">D10/C10</f>
         <v>5953.9684931506845</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="7">
         <f t="shared" ref="I10:I41" si="4">A10+H10</f>
         <v>50148.968493150685</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
+    <row r="11" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
         <v>44196</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="5">
         <v>228</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="5">
         <f>AVERAGE(B2:B11)</f>
         <v>95.8</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="5">
         <f t="shared" si="0"/>
         <v>482775</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="5">
         <f t="shared" si="1"/>
         <v>958</v>
       </c>
-      <c r="H11" s="10">
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="6">
         <f t="shared" si="3"/>
         <v>5039.4050104384132</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="7">
         <f t="shared" si="4"/>
         <v>49235.405010438415</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
+    <row r="12" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
         <v>44197</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="5">
         <v>223</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="5">
         <f>AVERAGE(B3:B12)</f>
         <v>113.4</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="5">
         <f t="shared" si="0"/>
         <v>482547</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="5">
         <f t="shared" si="1"/>
         <v>1181</v>
       </c>
-      <c r="H12" s="10">
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="6">
         <f t="shared" si="3"/>
         <v>4255.2645502645501</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="7">
         <f t="shared" si="4"/>
         <v>48452.264550264546</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
+    <row r="13" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
         <v>44198</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="5">
         <v>307</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="5">
         <f>AVERAGE(B4:B13)</f>
         <v>131.80000000000001</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="5">
         <f t="shared" si="0"/>
         <v>482324</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="5">
         <f t="shared" si="1"/>
         <v>1488</v>
       </c>
-      <c r="H13" s="10">
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="6">
         <f t="shared" si="3"/>
         <v>3659.5144157814866</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="7">
         <f t="shared" si="4"/>
         <v>47857.514415781487</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
+    <row r="14" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
         <v>44199</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="5">
         <v>234</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="5">
         <f t="shared" ref="C14:C18" si="5">AVERAGE(B8:B14)</f>
         <v>208.42857142857142</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="5">
         <f t="shared" si="0"/>
         <v>482017</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="5">
         <f t="shared" si="1"/>
         <v>1722</v>
       </c>
-      <c r="H14" s="10">
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="6">
         <f t="shared" si="3"/>
         <v>2312.6244002741605</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="7">
         <f t="shared" si="4"/>
         <v>46511.624400274159</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
+    <row r="15" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
         <v>44200</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="5">
         <v>225</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="5">
         <f t="shared" si="5"/>
         <v>218.42857142857142</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="5">
         <f t="shared" si="0"/>
         <v>481783</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="5">
         <f t="shared" si="1"/>
         <v>1947</v>
       </c>
-      <c r="H15" s="10">
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="6">
         <f t="shared" si="3"/>
         <v>2205.6775670372795</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="7">
         <f t="shared" si="4"/>
         <v>46405.677567037281</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
+    <row r="16" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
         <v>44201</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="5">
         <v>585</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="5">
         <f t="shared" si="5"/>
         <v>280</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="5">
         <f t="shared" si="0"/>
         <v>481558</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="5">
         <f t="shared" si="1"/>
         <v>2532</v>
       </c>
-      <c r="H16" s="10">
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="6">
         <f t="shared" si="3"/>
         <v>1719.85</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="7">
         <f t="shared" si="4"/>
         <v>45920.85</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
+    <row r="17" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
         <v>44202</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="5">
         <v>598</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="5">
         <f t="shared" si="5"/>
         <v>342.85714285714283</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="5">
         <f t="shared" si="0"/>
         <v>480973</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="5">
         <f t="shared" si="1"/>
         <v>3130</v>
       </c>
-      <c r="H17" s="10">
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="6">
         <f t="shared" si="3"/>
         <v>1402.8379166666668</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="7">
         <f t="shared" si="4"/>
         <v>45604.837916666664</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
+    <row r="18" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
         <v>44203</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="5">
         <v>855</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="5">
         <f t="shared" si="5"/>
         <v>432.42857142857144</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="5">
         <f t="shared" si="0"/>
         <v>480375</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="5">
         <f t="shared" si="1"/>
         <v>3985</v>
       </c>
-      <c r="H18" s="10">
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="6">
         <f t="shared" si="3"/>
         <v>1110.8771060455897</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="7">
         <f t="shared" si="4"/>
         <v>45313.877106045591</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
+    <row r="19" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
         <v>44204</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="5">
         <v>824</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="5">
         <f t="shared" ref="C19:C24" si="6">AVERAGE(B13:B19)</f>
         <v>518.28571428571433</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="5">
         <f t="shared" si="0"/>
         <v>479520</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="5">
         <f t="shared" si="1"/>
         <v>4809</v>
       </c>
-      <c r="H19" s="10">
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="6">
         <f t="shared" si="3"/>
         <v>925.20396912899662</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="7">
         <f t="shared" si="4"/>
         <v>45129.203969128997</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
+    <row r="20" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
         <v>44205</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="5">
         <v>858</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="5">
         <f t="shared" si="6"/>
         <v>597</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="5">
         <f t="shared" si="0"/>
         <v>478696</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="5">
         <f t="shared" si="1"/>
         <v>5667</v>
       </c>
-      <c r="H20" s="10">
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="6">
         <f t="shared" si="3"/>
         <v>801.83584589614736</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="7">
         <f t="shared" si="4"/>
         <v>45006.835845896145</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
+    <row r="21" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
         <v>44206</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="5">
         <v>927</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="5">
         <f t="shared" si="6"/>
         <v>696</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="5">
         <f t="shared" si="0"/>
         <v>477838</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="5">
         <f t="shared" si="1"/>
         <v>6594</v>
       </c>
-      <c r="H21" s="10">
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="6">
         <f t="shared" si="3"/>
         <v>686.54885057471267</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="7">
         <f t="shared" si="4"/>
         <v>44892.548850574713</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
+    <row r="22" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
         <v>44207</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="5">
         <v>1030</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="5">
         <f t="shared" si="6"/>
         <v>811</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="5">
         <f t="shared" si="0"/>
         <v>476911</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="5">
         <f t="shared" si="1"/>
         <v>7624</v>
       </c>
-      <c r="H22" s="10">
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="6">
         <f t="shared" si="3"/>
         <v>588.05302096177559</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="7">
         <f t="shared" si="4"/>
         <v>44795.053020961779</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="7">
+    <row r="23" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
         <v>44208</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="5">
         <v>1403</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="5">
         <f t="shared" si="6"/>
         <v>927.85714285714289</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="5">
         <f t="shared" si="0"/>
         <v>475881</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="5">
         <f t="shared" si="1"/>
         <v>9027</v>
       </c>
-      <c r="H23" s="10">
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="6">
         <f t="shared" si="3"/>
         <v>512.88175519630488</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="7">
         <f t="shared" si="4"/>
         <v>44720.881755196307</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="7">
+    <row r="24" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
         <v>44209</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="5">
         <v>1043</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="5">
         <f t="shared" si="6"/>
         <v>991.42857142857144</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="5">
         <f t="shared" si="0"/>
         <v>474478</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="5">
         <f t="shared" si="1"/>
         <v>10070</v>
       </c>
-      <c r="H24" s="10">
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="6">
         <f t="shared" si="3"/>
         <v>478.58011527377522</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="7">
         <f t="shared" si="4"/>
         <v>44687.580115273777</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="7">
+    <row r="25" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
         <v>44210</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="5">
         <v>1074</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="5">
         <f t="shared" ref="C25:C49" si="7">AVERAGE(B19:B25)</f>
         <v>1022.7142857142857</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="5">
         <f t="shared" si="0"/>
         <v>473435</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="5">
         <f t="shared" si="1"/>
         <v>11144</v>
       </c>
-      <c r="H25" s="10">
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="6">
         <f t="shared" si="3"/>
         <v>462.92010057270573</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="7">
         <f t="shared" si="4"/>
         <v>44672.920100572708</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="7">
+    <row r="26" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
         <v>44211</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="5">
         <v>922</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="5">
         <f t="shared" si="7"/>
         <v>1036.7142857142858</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="5">
         <f t="shared" si="0"/>
         <v>472361</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="5">
         <f t="shared" si="1"/>
         <v>12066</v>
       </c>
-      <c r="H26" s="10">
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="6">
         <f t="shared" si="3"/>
         <v>455.6327683615819</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="7">
         <f t="shared" si="4"/>
         <v>44666.632768361582</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="7">
+    <row r="27" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
         <v>44212</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="5">
         <v>291</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="5">
         <f t="shared" si="7"/>
         <v>955.71428571428567</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="5">
         <f t="shared" si="0"/>
         <v>471439</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="5">
         <f t="shared" si="1"/>
         <v>12357</v>
       </c>
-      <c r="H27" s="10">
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="6">
         <f t="shared" si="3"/>
         <v>493.28445440956654</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="7">
         <f t="shared" si="4"/>
         <v>44705.284454409564</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="7">
+    <row r="28" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
         <v>44213</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="5">
         <v>0</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="5">
         <f t="shared" si="7"/>
         <v>823.28571428571433</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="5">
         <f t="shared" si="0"/>
         <v>471148</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="5">
         <f t="shared" si="1"/>
         <v>12357</v>
       </c>
-      <c r="H28" s="10">
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="6">
         <f t="shared" si="3"/>
         <v>572.2776331771646</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I28" s="7">
         <f t="shared" si="4"/>
         <v>44785.277633177167</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="7">
+    <row r="29" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
         <v>44214</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="5">
         <v>601</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="5">
         <f t="shared" ref="C29:C34" si="8">AVERAGE(B22:B29)</f>
         <v>795.5</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="5">
         <f t="shared" si="0"/>
         <v>471148</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="5">
         <f t="shared" si="1"/>
         <v>12958</v>
       </c>
-      <c r="H29" s="10">
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="6">
         <f t="shared" si="3"/>
         <v>592.26649905719671</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="7">
         <f t="shared" si="4"/>
         <v>44806.266499057194</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="7">
+    <row r="30" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
         <v>44215</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="5">
         <v>831</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="5">
         <f t="shared" si="8"/>
         <v>770.625</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="5">
         <f t="shared" si="0"/>
         <v>470547</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="5">
         <f t="shared" si="1"/>
         <v>13789</v>
       </c>
-      <c r="H30" s="10">
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="6">
         <f t="shared" si="3"/>
         <v>610.60437956204385</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" s="7">
         <f t="shared" si="4"/>
         <v>44825.604379562043</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="7">
+    <row r="31" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
         <v>44216</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="5">
         <v>603</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="5">
         <f t="shared" si="8"/>
         <v>670.625</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="5">
         <f t="shared" si="0"/>
         <v>469716</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="5">
         <f t="shared" si="1"/>
         <v>14392</v>
       </c>
-      <c r="H31" s="10">
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="6">
         <f t="shared" si="3"/>
         <v>700.41528424976696</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I31" s="7">
         <f t="shared" si="4"/>
         <v>44916.415284249764</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="7">
+    <row r="32" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
         <v>44217</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="5">
         <v>514</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="5">
         <f t="shared" si="8"/>
         <v>604.5</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="5">
         <f t="shared" si="0"/>
         <v>469113</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="5">
         <f t="shared" si="1"/>
         <v>14906</v>
       </c>
-      <c r="H32" s="10">
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="6">
         <f t="shared" si="3"/>
         <v>776.03473945409428</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I32" s="7">
         <f t="shared" si="4"/>
         <v>44993.034739454095</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="7">
+    <row r="33" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
         <v>44218</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="5">
         <v>278</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="5">
         <f t="shared" si="8"/>
         <v>505</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="5">
         <f t="shared" si="0"/>
         <v>468599</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="5">
         <f t="shared" si="1"/>
         <v>15184</v>
       </c>
-      <c r="H33" s="10">
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="6">
         <f t="shared" si="3"/>
         <v>927.91881188118816</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I33" s="7">
         <f t="shared" si="4"/>
         <v>45145.918811881187</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="7">
+    <row r="34" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
         <v>44219</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34" s="5">
         <v>261</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="5">
         <f t="shared" si="8"/>
         <v>422.375</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="5">
         <f t="shared" ref="D34:D65" si="9">D35+B34</f>
         <v>468321</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="5">
         <f t="shared" si="1"/>
         <v>15445</v>
       </c>
-      <c r="H34" s="10">
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="6">
         <f t="shared" si="3"/>
         <v>1108.7801124593075</v>
       </c>
-      <c r="I34" s="9">
+      <c r="I34" s="7">
         <f t="shared" si="4"/>
         <v>45327.78011245931</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="7">
+    <row r="35" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
         <v>44220</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="5">
         <v>220</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="5">
         <f t="shared" si="7"/>
         <v>472.57142857142856</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="5">
         <f t="shared" si="9"/>
         <v>468060</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="5">
         <f t="shared" si="1"/>
         <v>15665</v>
       </c>
-      <c r="H35" s="10">
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="6">
         <f t="shared" si="3"/>
         <v>990.45344619105208</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I35" s="7">
         <f t="shared" si="4"/>
         <v>45210.453446191052</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="7">
+    <row r="36" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
         <v>44221</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36" s="5">
         <v>250</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="5">
         <f t="shared" si="7"/>
         <v>422.42857142857144</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="5">
         <f t="shared" si="9"/>
         <v>467840</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="5">
         <f t="shared" si="1"/>
         <v>15915</v>
       </c>
-      <c r="H36" s="10">
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="6">
         <f t="shared" si="3"/>
         <v>1107.5008454514712</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I36" s="7">
         <f t="shared" si="4"/>
         <v>45328.500845451468</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="7">
+    <row r="37" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
         <v>44222</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="5">
         <v>506</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="5">
         <f t="shared" si="7"/>
         <v>376</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="5">
         <f t="shared" si="9"/>
         <v>467590</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="5">
         <f t="shared" si="1"/>
         <v>16421</v>
       </c>
-      <c r="H37" s="10">
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="6">
         <f t="shared" si="3"/>
         <v>1243.5904255319149</v>
       </c>
-      <c r="I37" s="9">
+      <c r="I37" s="7">
         <f t="shared" si="4"/>
         <v>45465.590425531918</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="7">
+    <row r="38" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
         <v>44223</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38" s="5">
         <v>569</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="5">
         <f t="shared" si="7"/>
         <v>371.14285714285717</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="5">
         <f t="shared" si="9"/>
         <v>467084</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38" s="5">
         <f t="shared" si="1"/>
         <v>16990</v>
       </c>
-      <c r="H38" s="10">
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="6">
         <f t="shared" si="3"/>
         <v>1258.5019245573517</v>
       </c>
-      <c r="I38" s="9">
+      <c r="I38" s="7">
         <f t="shared" si="4"/>
         <v>45481.501924557349</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="7">
+    <row r="39" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
         <v>44224</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="5">
         <v>192</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="5">
         <f t="shared" si="7"/>
         <v>325.14285714285717</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="5">
         <f t="shared" si="9"/>
         <v>466515</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E39" s="5">
         <f t="shared" si="1"/>
         <v>17182</v>
       </c>
-      <c r="H39" s="10">
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="6">
         <f t="shared" si="3"/>
         <v>1434.8000878734622</v>
       </c>
-      <c r="I39" s="9">
+      <c r="I39" s="7">
         <f t="shared" si="4"/>
         <v>45658.80008787346</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="7">
+    <row r="40" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
         <v>44225</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40" s="5">
         <v>59</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="5">
         <f t="shared" si="7"/>
         <v>293.85714285714283</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="5">
         <f t="shared" si="9"/>
         <v>466323</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E40" s="5">
         <f t="shared" si="1"/>
         <v>17241</v>
       </c>
-      <c r="H40" s="10">
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="6">
         <f t="shared" si="3"/>
         <v>1586.9037433155081</v>
       </c>
-      <c r="I40" s="9">
+      <c r="I40" s="7">
         <f t="shared" si="4"/>
         <v>45811.90374331551</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="7">
+    <row r="41" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
         <v>44226</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B41" s="5">
         <v>0</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="5">
         <f t="shared" si="7"/>
         <v>256.57142857142856</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="5">
         <f t="shared" si="9"/>
         <v>466264</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41" s="5">
         <f t="shared" si="1"/>
         <v>17241</v>
       </c>
-      <c r="H41" s="10">
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="6">
         <f t="shared" si="3"/>
         <v>1817.2873051224944</v>
       </c>
-      <c r="I41" s="9">
+      <c r="I41" s="7">
         <f t="shared" si="4"/>
         <v>46043.287305122496</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="7">
+    <row r="42" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
         <v>44227</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42" s="5">
         <v>0</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="5">
         <f t="shared" si="7"/>
         <v>225.14285714285714</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="5">
         <f t="shared" si="9"/>
         <v>466264</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E42" s="5">
         <f t="shared" si="1"/>
         <v>17241</v>
       </c>
-      <c r="H42" s="10">
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="6">
         <f t="shared" ref="H42:H73" si="10">D42/C42</f>
         <v>2070.9695431472082</v>
       </c>
-      <c r="I42" s="9">
+      <c r="I42" s="7">
         <f t="shared" ref="I42:I73" si="11">A42+H42</f>
         <v>46297.969543147206</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="7">
+    <row r="43" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
         <v>44228</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43" s="5">
         <v>261</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="5">
         <f t="shared" ref="C43:C48" si="12">AVERAGE(B35:B43)</f>
         <v>228.55555555555554</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="5">
         <f t="shared" si="9"/>
         <v>466264</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E43" s="5">
         <f t="shared" si="1"/>
         <v>17502</v>
       </c>
-      <c r="H43" s="10">
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="6">
         <f t="shared" si="10"/>
         <v>2040.0466699076326</v>
       </c>
-      <c r="I43" s="9">
+      <c r="I43" s="7">
         <f t="shared" si="11"/>
         <v>46268.046669907635</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="7">
+    <row r="44" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
         <v>44229</v>
       </c>
-      <c r="B44" s="8">
+      <c r="B44" s="5">
         <v>340</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="5">
         <f t="shared" si="12"/>
         <v>241.88888888888889</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="5">
         <f t="shared" si="9"/>
         <v>466003</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E44" s="5">
         <f t="shared" si="1"/>
         <v>17842</v>
       </c>
-      <c r="H44" s="10">
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="6">
         <f t="shared" si="10"/>
         <v>1926.5167661920075</v>
       </c>
-      <c r="I44" s="9">
+      <c r="I44" s="7">
         <f t="shared" si="11"/>
         <v>46155.516766192006</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="7">
+    <row r="45" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
         <v>44230</v>
       </c>
-      <c r="B45" s="8">
+      <c r="B45" s="5">
         <v>452</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="5">
         <f t="shared" si="12"/>
         <v>264.33333333333331</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="5">
         <f t="shared" si="9"/>
         <v>465663</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E45" s="5">
         <f t="shared" si="1"/>
         <v>18294</v>
       </c>
-      <c r="H45" s="10">
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="6">
         <f t="shared" si="10"/>
         <v>1761.6506935687264</v>
       </c>
-      <c r="I45" s="9">
+      <c r="I45" s="7">
         <f t="shared" si="11"/>
         <v>45991.650693568728</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="7">
+    <row r="46" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
         <v>44231</v>
       </c>
-      <c r="B46" s="8">
+      <c r="B46" s="5">
         <v>264</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="5">
         <f t="shared" si="12"/>
         <v>237.44444444444446</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="5">
         <f t="shared" si="9"/>
         <v>465211</v>
       </c>
-      <c r="E46" s="8">
+      <c r="E46" s="5">
         <f t="shared" si="1"/>
         <v>18558</v>
       </c>
-      <c r="H46" s="10">
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="6">
         <f t="shared" si="10"/>
         <v>1959.241459990641</v>
       </c>
-      <c r="I46" s="9">
+      <c r="I46" s="7">
         <f t="shared" si="11"/>
         <v>46190.241459990641</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="7">
+    <row r="47" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="4">
         <v>44232</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B47" s="5">
         <v>512</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="5">
         <f t="shared" si="12"/>
         <v>231.11111111111111</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="5">
         <f t="shared" si="9"/>
         <v>464947</v>
       </c>
-      <c r="E47" s="8">
+      <c r="E47" s="5">
         <f t="shared" si="1"/>
         <v>19070</v>
       </c>
-      <c r="H47" s="10">
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="6">
         <f t="shared" si="10"/>
         <v>2011.7899038461537</v>
       </c>
-      <c r="I47" s="9">
+      <c r="I47" s="7">
         <f t="shared" si="11"/>
         <v>46243.789903846155</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="7">
+    <row r="48" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
         <v>44233</v>
       </c>
-      <c r="B48" s="8">
+      <c r="B48" s="5">
         <v>512</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="5">
         <f t="shared" si="12"/>
         <v>266.66666666666669</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="5">
         <f t="shared" si="9"/>
         <v>464435</v>
       </c>
-      <c r="E48" s="8">
+      <c r="E48" s="5">
         <f t="shared" si="1"/>
         <v>19582</v>
       </c>
-      <c r="H48" s="10">
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="6">
         <f t="shared" si="10"/>
         <v>1741.6312499999999</v>
       </c>
-      <c r="I48" s="9">
+      <c r="I48" s="7">
         <f t="shared" si="11"/>
         <v>45974.631249999999</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="7">
+    <row r="49" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="4">
         <v>44234</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49" s="5">
         <v>515</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="5">
         <f t="shared" si="7"/>
         <v>408</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="5">
         <f t="shared" si="9"/>
         <v>463923</v>
       </c>
-      <c r="E49" s="8">
+      <c r="E49" s="5">
         <f t="shared" si="1"/>
         <v>20097</v>
       </c>
-      <c r="H49" s="10">
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="6">
         <f t="shared" si="10"/>
         <v>1137.0661764705883</v>
       </c>
-      <c r="I49" s="9">
+      <c r="I49" s="7">
         <f t="shared" si="11"/>
         <v>45371.066176470587</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="7">
+    <row r="50" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
         <v>44235</v>
       </c>
-      <c r="B50" s="8">
+      <c r="B50" s="5">
         <v>539</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="5">
         <f t="shared" ref="C50:C69" si="13">AVERAGE(B44:B50)</f>
         <v>447.71428571428572</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D50" s="5">
         <f t="shared" si="9"/>
         <v>463408</v>
       </c>
-      <c r="E50" s="8">
+      <c r="E50" s="5">
         <f t="shared" si="1"/>
         <v>20636</v>
       </c>
-      <c r="H50" s="10">
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="6">
         <f t="shared" si="10"/>
         <v>1035.0529674537331</v>
       </c>
-      <c r="I50" s="9">
+      <c r="I50" s="7">
         <f t="shared" si="11"/>
         <v>45270.052967453732</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="7">
+    <row r="51" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
         <v>44236</v>
       </c>
-      <c r="B51" s="8">
+      <c r="B51" s="5">
         <v>602</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51" s="5">
         <f t="shared" si="13"/>
         <v>485.14285714285717</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D51" s="5">
         <f t="shared" si="9"/>
         <v>462869</v>
       </c>
-      <c r="E51" s="8">
+      <c r="E51" s="5">
         <f t="shared" si="1"/>
         <v>21238</v>
       </c>
-      <c r="H51" s="10">
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="6">
         <f t="shared" si="10"/>
         <v>954.08804475853935</v>
       </c>
-      <c r="I51" s="9">
+      <c r="I51" s="7">
         <f t="shared" si="11"/>
         <v>45190.088044758537</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="7">
+    <row r="52" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
         <v>44237</v>
       </c>
-      <c r="B52" s="8">
+      <c r="B52" s="5">
         <v>417</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C52" s="5">
         <f t="shared" si="13"/>
         <v>480.14285714285717</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D52" s="5">
         <f t="shared" si="9"/>
         <v>462267</v>
       </c>
-      <c r="E52" s="8">
+      <c r="E52" s="5">
         <f t="shared" si="1"/>
         <v>21655</v>
       </c>
-      <c r="H52" s="10">
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="6">
         <f t="shared" si="10"/>
         <v>962.76971139541797</v>
       </c>
-      <c r="I52" s="9">
+      <c r="I52" s="7">
         <f t="shared" si="11"/>
         <v>45199.76971139542</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="7">
+    <row r="53" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="4">
         <v>44238</v>
       </c>
-      <c r="B53" s="8">
+      <c r="B53" s="5">
         <v>619</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C53" s="5">
         <f t="shared" si="13"/>
         <v>530.85714285714289</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D53" s="5">
         <f t="shared" si="9"/>
         <v>461850</v>
       </c>
-      <c r="E53" s="8">
+      <c r="E53" s="5">
         <f t="shared" si="1"/>
         <v>22274</v>
       </c>
-      <c r="H53" s="10">
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="6">
         <f t="shared" si="10"/>
         <v>870.00807319698595</v>
       </c>
-      <c r="I53" s="9">
+      <c r="I53" s="7">
         <f t="shared" si="11"/>
         <v>45108.008073196987</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="7">
+    <row r="54" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
         <v>44239</v>
       </c>
-      <c r="B54" s="8">
+      <c r="B54" s="5">
         <v>627</v>
       </c>
-      <c r="C54" s="8">
+      <c r="C54" s="5">
         <f t="shared" si="13"/>
         <v>547.28571428571433</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D54" s="5">
         <f t="shared" si="9"/>
         <v>461231</v>
       </c>
-      <c r="E54" s="8">
+      <c r="E54" s="5">
         <f t="shared" si="1"/>
         <v>22901</v>
       </c>
-      <c r="H54" s="10">
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="6">
         <f t="shared" si="10"/>
         <v>842.76089793787514</v>
       </c>
-      <c r="I54" s="9">
+      <c r="I54" s="7">
         <f t="shared" si="11"/>
         <v>45081.760897937878</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="7">
+    <row r="55" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="4">
         <v>44240</v>
       </c>
-      <c r="B55" s="8">
+      <c r="B55" s="5">
         <v>575</v>
       </c>
-      <c r="C55" s="8">
+      <c r="C55" s="5">
         <f t="shared" si="13"/>
         <v>556.28571428571433</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D55" s="5">
         <f t="shared" si="9"/>
         <v>460604</v>
       </c>
-      <c r="E55" s="8">
+      <c r="E55" s="5">
         <f t="shared" si="1"/>
         <v>23476</v>
       </c>
-      <c r="H55" s="10">
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="6">
         <f t="shared" si="10"/>
         <v>827.99897277863374</v>
       </c>
-      <c r="I55" s="9">
+      <c r="I55" s="7">
         <f t="shared" si="11"/>
         <v>45067.998972778631</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="7">
+    <row r="56" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
         <v>44241</v>
       </c>
-      <c r="B56" s="8">
+      <c r="B56" s="5">
         <v>412</v>
       </c>
-      <c r="C56" s="8">
+      <c r="C56" s="5">
         <f t="shared" si="13"/>
         <v>541.57142857142856</v>
       </c>
-      <c r="D56" s="8">
+      <c r="D56" s="5">
         <f t="shared" si="9"/>
         <v>460029</v>
       </c>
-      <c r="E56" s="8">
+      <c r="E56" s="5">
         <f t="shared" si="1"/>
         <v>23888</v>
       </c>
-      <c r="H56" s="10">
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="6">
         <f t="shared" si="10"/>
         <v>849.43365866525983</v>
       </c>
-      <c r="I56" s="9">
+      <c r="I56" s="7">
         <f t="shared" si="11"/>
         <v>45090.433658665257</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="7">
+    <row r="57" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
         <v>44242</v>
       </c>
-      <c r="B57" s="8">
+      <c r="B57" s="5">
         <v>0</v>
       </c>
-      <c r="C57" s="8">
+      <c r="C57" s="5">
         <f t="shared" si="13"/>
         <v>464.57142857142856</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D57" s="5">
         <f t="shared" si="9"/>
         <v>459617</v>
       </c>
-      <c r="E57" s="8">
+      <c r="E57" s="5">
         <f t="shared" si="1"/>
         <v>23888</v>
       </c>
-      <c r="H57" s="10">
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="6">
         <f t="shared" si="10"/>
         <v>989.33548585485858</v>
       </c>
-      <c r="I57" s="9">
+      <c r="I57" s="7">
         <f t="shared" si="11"/>
         <v>45231.335485854856</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="7">
+    <row r="58" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="4">
         <v>44243</v>
       </c>
-      <c r="B58" s="8">
+      <c r="B58" s="5">
         <v>560</v>
       </c>
-      <c r="C58" s="8">
+      <c r="C58" s="5">
         <f t="shared" ref="C58:C63" si="14">AVERAGE(B51:B58)</f>
         <v>476.5</v>
       </c>
-      <c r="D58" s="8">
+      <c r="D58" s="5">
         <f t="shared" si="9"/>
         <v>459617</v>
       </c>
-      <c r="E58" s="8">
+      <c r="E58" s="5">
         <f t="shared" si="1"/>
         <v>24448</v>
       </c>
-      <c r="H58" s="10">
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="6">
         <f t="shared" si="10"/>
         <v>964.56873032528858</v>
       </c>
-      <c r="I58" s="9">
+      <c r="I58" s="7">
         <f t="shared" si="11"/>
         <v>45207.568730325285</v>
       </c>
     </row>
-    <row r="59" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="7">
+    <row r="59" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="4">
         <v>44244</v>
       </c>
-      <c r="B59" s="8">
+      <c r="B59" s="5">
         <v>599</v>
       </c>
-      <c r="C59" s="8">
+      <c r="C59" s="5">
         <f t="shared" si="14"/>
         <v>476.125</v>
       </c>
-      <c r="D59" s="8">
+      <c r="D59" s="5">
         <f t="shared" si="9"/>
         <v>459057</v>
       </c>
-      <c r="E59" s="8">
+      <c r="E59" s="5">
         <f t="shared" si="1"/>
         <v>25047</v>
       </c>
-      <c r="H59" s="10">
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="6">
         <f t="shared" si="10"/>
         <v>964.15227093725389</v>
       </c>
-      <c r="I59" s="9">
+      <c r="I59" s="7">
         <f t="shared" si="11"/>
         <v>45208.152270937251</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="7">
+    <row r="60" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="4">
         <v>44245</v>
       </c>
-      <c r="B60" s="8">
+      <c r="B60" s="5">
         <v>999</v>
       </c>
-      <c r="C60" s="8">
+      <c r="C60" s="5">
         <f t="shared" si="14"/>
         <v>548.875</v>
       </c>
-      <c r="D60" s="8">
+      <c r="D60" s="5">
         <f t="shared" si="9"/>
         <v>458458</v>
       </c>
-      <c r="E60" s="8">
+      <c r="E60" s="5">
         <f t="shared" si="1"/>
         <v>26046</v>
       </c>
-      <c r="H60" s="10">
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="6">
         <f t="shared" si="10"/>
         <v>835.26850375768618</v>
       </c>
-      <c r="I60" s="9">
+      <c r="I60" s="7">
         <f t="shared" si="11"/>
         <v>45080.268503757688</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="7">
+    <row r="61" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="4">
         <v>44246</v>
       </c>
-      <c r="B61" s="8">
+      <c r="B61" s="5">
         <v>1120</v>
       </c>
-      <c r="C61" s="8">
+      <c r="C61" s="5">
         <f t="shared" si="14"/>
         <v>611.5</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D61" s="5">
         <f t="shared" si="9"/>
         <v>457459</v>
       </c>
-      <c r="E61" s="8">
+      <c r="E61" s="5">
         <f t="shared" si="1"/>
         <v>27166</v>
       </c>
-      <c r="H61" s="10">
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="6">
         <f t="shared" si="10"/>
         <v>748.09321340964846</v>
       </c>
-      <c r="I61" s="9">
+      <c r="I61" s="7">
         <f t="shared" si="11"/>
         <v>44994.093213409651</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="7">
+    <row r="62" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="4">
         <v>44247</v>
       </c>
-      <c r="B62" s="8">
+      <c r="B62" s="5">
         <v>645</v>
       </c>
-      <c r="C62" s="8">
+      <c r="C62" s="5">
         <f t="shared" si="14"/>
         <v>613.75</v>
       </c>
-      <c r="D62" s="8">
+      <c r="D62" s="5">
         <f t="shared" si="9"/>
         <v>456339</v>
       </c>
-      <c r="E62" s="8">
+      <c r="E62" s="5">
         <f t="shared" si="1"/>
         <v>27811</v>
       </c>
-      <c r="H62" s="10">
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="6">
         <f t="shared" si="10"/>
         <v>743.52586558044811</v>
       </c>
-      <c r="I62" s="9">
+      <c r="I62" s="7">
         <f t="shared" si="11"/>
         <v>44990.52586558045</v>
       </c>
     </row>
-    <row r="63" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="7">
+    <row r="63" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="4">
         <v>44248</v>
       </c>
-      <c r="B63" s="8">
+      <c r="B63" s="5">
         <v>818</v>
       </c>
-      <c r="C63" s="8">
+      <c r="C63" s="5">
         <f t="shared" si="14"/>
         <v>644.125</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D63" s="5">
         <f t="shared" si="9"/>
         <v>455694</v>
       </c>
-      <c r="E63" s="8">
+      <c r="E63" s="5">
         <f t="shared" si="1"/>
         <v>28629</v>
       </c>
-      <c r="H63" s="10">
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="6">
         <f t="shared" si="10"/>
         <v>707.46206093537739</v>
       </c>
-      <c r="I63" s="9">
+      <c r="I63" s="7">
         <f t="shared" si="11"/>
         <v>44955.462060935381</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="7">
+    <row r="64" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="4">
         <v>44249</v>
       </c>
-      <c r="B64" s="8">
+      <c r="B64" s="5">
         <v>482</v>
       </c>
-      <c r="C64" s="8">
+      <c r="C64" s="5">
         <f t="shared" si="13"/>
         <v>746.14285714285711</v>
       </c>
-      <c r="D64" s="8">
+      <c r="D64" s="5">
         <f t="shared" si="9"/>
         <v>454876</v>
       </c>
-      <c r="E64" s="8">
+      <c r="E64" s="5">
         <f t="shared" si="1"/>
         <v>29111</v>
       </c>
-      <c r="H64" s="10">
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="6">
         <f t="shared" si="10"/>
         <v>609.63660731380435</v>
       </c>
-      <c r="I64" s="9">
+      <c r="I64" s="7">
         <f t="shared" si="11"/>
         <v>44858.636607313805</v>
       </c>
     </row>
-    <row r="65" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="7">
+    <row r="65" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="4">
         <v>44250</v>
       </c>
-      <c r="B65" s="8">
+      <c r="B65" s="5">
         <v>816</v>
       </c>
-      <c r="C65" s="8">
+      <c r="C65" s="5">
         <f t="shared" si="13"/>
         <v>782.71428571428567</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D65" s="5">
         <f t="shared" si="9"/>
         <v>454394</v>
       </c>
-      <c r="E65" s="8">
+      <c r="E65" s="5">
         <f t="shared" si="1"/>
         <v>29927</v>
       </c>
-      <c r="H65" s="10">
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="6">
         <f t="shared" si="10"/>
         <v>580.53622923891226</v>
       </c>
-      <c r="I65" s="9">
+      <c r="I65" s="7">
         <f t="shared" si="11"/>
         <v>44830.536229238911</v>
       </c>
     </row>
-    <row r="66" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="7">
+    <row r="66" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="4">
         <v>44251</v>
       </c>
-      <c r="B66" s="8">
+      <c r="B66" s="5">
         <v>646</v>
       </c>
-      <c r="C66" s="8">
+      <c r="C66" s="5">
         <f t="shared" si="13"/>
         <v>789.42857142857144</v>
       </c>
-      <c r="D66" s="8">
+      <c r="D66" s="5">
         <f t="shared" ref="D66:D93" si="15">D67+B66</f>
         <v>453578</v>
       </c>
-      <c r="E66" s="8">
+      <c r="E66" s="5">
         <f t="shared" si="1"/>
         <v>30573</v>
       </c>
-      <c r="H66" s="10">
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="6">
         <f t="shared" si="10"/>
         <v>574.56496561708286</v>
       </c>
-      <c r="I66" s="9">
+      <c r="I66" s="7">
         <f t="shared" si="11"/>
         <v>44825.564965617086</v>
       </c>
     </row>
-    <row r="67" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="7">
+    <row r="67" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="4">
         <v>44252</v>
       </c>
-      <c r="B67" s="8">
+      <c r="B67" s="5">
         <v>656</v>
       </c>
-      <c r="C67" s="8">
+      <c r="C67" s="5">
         <f t="shared" si="13"/>
         <v>740.42857142857144</v>
       </c>
-      <c r="D67" s="8">
+      <c r="D67" s="5">
         <f t="shared" si="15"/>
         <v>452932</v>
       </c>
-      <c r="E67" s="8">
+      <c r="E67" s="5">
         <f t="shared" si="1"/>
         <v>31229</v>
       </c>
-      <c r="H67" s="10">
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="6">
         <f t="shared" si="10"/>
         <v>611.71599459772335</v>
       </c>
-      <c r="I67" s="9">
+      <c r="I67" s="7">
         <f t="shared" si="11"/>
         <v>44863.715994597726</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="7">
+    <row r="68" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="4">
         <v>44253</v>
       </c>
-      <c r="B68" s="8">
+      <c r="B68" s="5">
         <v>757</v>
       </c>
-      <c r="C68" s="8">
+      <c r="C68" s="5">
         <f t="shared" si="13"/>
         <v>688.57142857142856</v>
       </c>
-      <c r="D68" s="8">
+      <c r="D68" s="5">
         <f t="shared" si="15"/>
         <v>452276</v>
       </c>
-      <c r="E68" s="8">
+      <c r="E68" s="5">
         <f t="shared" si="1"/>
         <v>31986</v>
       </c>
-      <c r="H68" s="10">
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="6">
         <f t="shared" si="10"/>
         <v>656.83236514522821</v>
       </c>
-      <c r="I68" s="9">
+      <c r="I68" s="7">
         <f t="shared" si="11"/>
         <v>44909.83236514523</v>
       </c>
     </row>
-    <row r="69" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="7">
+    <row r="69" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="4">
         <v>44254</v>
       </c>
-      <c r="B69" s="8">
+      <c r="B69" s="5">
         <v>682</v>
       </c>
-      <c r="C69" s="8">
+      <c r="C69" s="5">
         <f t="shared" si="13"/>
         <v>693.85714285714289</v>
       </c>
-      <c r="D69" s="8">
+      <c r="D69" s="5">
         <f t="shared" si="15"/>
         <v>451519</v>
       </c>
-      <c r="E69" s="8">
+      <c r="E69" s="5">
         <f t="shared" ref="E69:E100" si="16">E68+B69</f>
         <v>32668</v>
       </c>
-      <c r="H69" s="10">
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="6">
         <f t="shared" si="10"/>
         <v>650.73769816759318</v>
       </c>
-      <c r="I69" s="9">
+      <c r="I69" s="7">
         <f t="shared" si="11"/>
         <v>44904.737698167592</v>
       </c>
     </row>
-    <row r="70" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="7">
+    <row r="70" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="4">
         <v>44255</v>
       </c>
-      <c r="B70" s="8">
+      <c r="B70" s="5">
         <v>687</v>
       </c>
-      <c r="C70" s="8">
+      <c r="C70" s="5">
         <f t="shared" ref="C70:C75" si="17">AVERAGE(B64:B70)</f>
         <v>675.14285714285711</v>
       </c>
-      <c r="D70" s="8">
+      <c r="D70" s="5">
         <f t="shared" si="15"/>
         <v>450837</v>
       </c>
-      <c r="E70" s="8">
+      <c r="E70" s="5">
         <f t="shared" si="16"/>
         <v>33355</v>
       </c>
-      <c r="H70" s="10">
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="6">
         <f t="shared" si="10"/>
         <v>667.76534066864156</v>
       </c>
-      <c r="I70" s="9">
+      <c r="I70" s="7">
         <f t="shared" si="11"/>
         <v>44922.765340668644</v>
       </c>
     </row>
-    <row r="71" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="7">
+    <row r="71" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="4">
         <v>44256</v>
       </c>
-      <c r="B71" s="8">
+      <c r="B71" s="5">
         <v>584</v>
       </c>
-      <c r="C71" s="8">
+      <c r="C71" s="5">
         <f t="shared" si="17"/>
         <v>689.71428571428567</v>
       </c>
-      <c r="D71" s="8">
+      <c r="D71" s="5">
         <f t="shared" si="15"/>
         <v>450150</v>
       </c>
-      <c r="E71" s="8">
+      <c r="E71" s="5">
         <f t="shared" si="16"/>
         <v>33939</v>
       </c>
-      <c r="H71" s="10">
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="6">
         <f t="shared" si="10"/>
         <v>652.66155758077889</v>
       </c>
-      <c r="I71" s="9">
+      <c r="I71" s="7">
         <f t="shared" si="11"/>
         <v>44908.661557580781</v>
       </c>
     </row>
-    <row r="72" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="7">
+    <row r="72" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="4">
         <v>44257</v>
       </c>
-      <c r="B72" s="8">
+      <c r="B72" s="5">
         <v>1093</v>
       </c>
-      <c r="C72" s="8">
+      <c r="C72" s="5">
         <f t="shared" si="17"/>
         <v>729.28571428571433</v>
       </c>
-      <c r="D72" s="8">
+      <c r="D72" s="5">
         <f t="shared" si="15"/>
         <v>449566</v>
       </c>
-      <c r="E72" s="8">
+      <c r="E72" s="5">
         <f t="shared" si="16"/>
         <v>35032</v>
       </c>
-      <c r="H72" s="10">
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="6">
         <f t="shared" si="10"/>
         <v>616.44701273261501</v>
       </c>
-      <c r="I72" s="9">
+      <c r="I72" s="7">
         <f t="shared" si="11"/>
         <v>44873.447012732613</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="7">
+    <row r="73" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="4">
         <v>44258</v>
       </c>
-      <c r="B73" s="8">
+      <c r="B73" s="5">
         <v>1173</v>
       </c>
-      <c r="C73" s="8">
+      <c r="C73" s="5">
         <f t="shared" si="17"/>
         <v>804.57142857142856</v>
       </c>
-      <c r="D73" s="8">
+      <c r="D73" s="5">
         <f t="shared" si="15"/>
         <v>448473</v>
       </c>
-      <c r="E73" s="8">
+      <c r="E73" s="5">
         <f t="shared" si="16"/>
         <v>36205</v>
       </c>
-      <c r="H73" s="10">
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="6">
         <f t="shared" si="10"/>
         <v>557.40607244318187</v>
       </c>
-      <c r="I73" s="9">
+      <c r="I73" s="7">
         <f t="shared" si="11"/>
         <v>44815.406072443184</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="7">
+    <row r="74" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="4">
         <v>44259</v>
       </c>
-      <c r="B74" s="8">
+      <c r="B74" s="5">
         <v>1997</v>
       </c>
-      <c r="C74" s="8">
+      <c r="C74" s="5">
         <f t="shared" si="17"/>
         <v>996.14285714285711</v>
       </c>
-      <c r="D74" s="8">
+      <c r="D74" s="5">
         <f t="shared" si="15"/>
         <v>447300</v>
       </c>
-      <c r="E74" s="8">
+      <c r="E74" s="5">
         <f t="shared" si="16"/>
         <v>38202</v>
       </c>
-      <c r="H74" s="10">
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="6">
         <f t="shared" ref="H74:H99" si="18">D74/C74</f>
         <v>449.03198049619965</v>
       </c>
-      <c r="I74" s="9">
+      <c r="I74" s="7">
         <f t="shared" ref="I74:I99" si="19">A74+H74</f>
         <v>44708.031980496198</v>
       </c>
     </row>
-    <row r="75" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="7">
+    <row r="75" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="4">
         <v>44260</v>
       </c>
-      <c r="B75" s="8">
+      <c r="B75" s="5">
         <v>1735</v>
       </c>
-      <c r="C75" s="8">
+      <c r="C75" s="5">
         <f t="shared" si="17"/>
         <v>1135.8571428571429</v>
       </c>
-      <c r="D75" s="8">
+      <c r="D75" s="5">
         <f t="shared" si="15"/>
         <v>445303</v>
       </c>
-      <c r="E75" s="8">
+      <c r="E75" s="5">
         <f t="shared" si="16"/>
         <v>39937</v>
       </c>
-      <c r="H75" s="10">
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="6">
         <f t="shared" si="18"/>
         <v>392.04137844296315</v>
       </c>
-      <c r="I75" s="9">
+      <c r="I75" s="7">
         <f t="shared" si="19"/>
         <v>44652.041378442962</v>
       </c>
     </row>
-    <row r="76" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="7">
+    <row r="76" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="4">
         <v>44261</v>
       </c>
-      <c r="B76" s="8">
+      <c r="B76" s="5">
         <v>1532</v>
       </c>
-      <c r="C76" s="8">
+      <c r="C76" s="5">
         <f>AVERAGE(B70:B76)</f>
         <v>1257.2857142857142</v>
       </c>
-      <c r="D76" s="8">
+      <c r="D76" s="5">
         <f t="shared" si="15"/>
         <v>443568</v>
       </c>
-      <c r="E76" s="8">
+      <c r="E76" s="5">
         <f t="shared" si="16"/>
         <v>41469</v>
       </c>
-      <c r="H76" s="10">
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="6">
         <f t="shared" si="18"/>
         <v>352.79809112600844</v>
       </c>
-      <c r="I76" s="9">
+      <c r="I76" s="7">
         <f t="shared" si="19"/>
         <v>44613.798091126009</v>
       </c>
     </row>
-    <row r="77" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="7">
+    <row r="77" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="4">
         <v>44262</v>
       </c>
-      <c r="B77" s="8">
+      <c r="B77" s="5">
         <v>1323</v>
       </c>
-      <c r="C77" s="8">
+      <c r="C77" s="5">
         <f t="shared" ref="C77:C78" si="20">(AVERAGE(B71:B77))</f>
         <v>1348.1428571428571</v>
       </c>
-      <c r="D77" s="8">
+      <c r="D77" s="5">
         <f t="shared" si="15"/>
         <v>442036</v>
       </c>
-      <c r="E77" s="8">
+      <c r="E77" s="5">
         <f t="shared" si="16"/>
         <v>42792</v>
       </c>
-      <c r="H77" s="10">
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="6">
         <f t="shared" si="18"/>
         <v>327.88513298717811</v>
       </c>
-      <c r="I77" s="9">
+      <c r="I77" s="7">
         <f t="shared" si="19"/>
         <v>44589.885132987176</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="7">
+    <row r="78" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="4">
         <v>44263</v>
       </c>
-      <c r="B78" s="8">
+      <c r="B78" s="5">
         <v>1518</v>
       </c>
-      <c r="C78" s="8">
+      <c r="C78" s="5">
         <f t="shared" si="20"/>
         <v>1481.5714285714287</v>
       </c>
-      <c r="D78" s="8">
+      <c r="D78" s="5">
         <f t="shared" si="15"/>
         <v>440713</v>
       </c>
-      <c r="E78" s="8">
+      <c r="E78" s="5">
         <f t="shared" si="16"/>
         <v>44310</v>
       </c>
-      <c r="H78" s="10">
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="6">
         <f t="shared" si="18"/>
         <v>297.46321473339117</v>
       </c>
-      <c r="I78" s="9">
+      <c r="I78" s="7">
         <f t="shared" si="19"/>
         <v>44560.46321473339</v>
       </c>
     </row>
-    <row r="79" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="7">
+    <row r="79" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="4">
         <v>44264</v>
       </c>
-      <c r="B79" s="8">
+      <c r="B79" s="5">
         <v>1664</v>
       </c>
-      <c r="C79" s="8">
+      <c r="C79" s="5">
         <f t="shared" ref="C79:C91" si="21">(AVERAGE(B73:B79))</f>
         <v>1563.1428571428571</v>
       </c>
-      <c r="D79" s="8">
+      <c r="D79" s="5">
         <f t="shared" si="15"/>
         <v>439195</v>
       </c>
-      <c r="E79" s="8">
+      <c r="E79" s="5">
         <f t="shared" si="16"/>
         <v>45974</v>
       </c>
-      <c r="H79" s="10">
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="6">
         <f t="shared" si="18"/>
         <v>280.96920124291722</v>
       </c>
-      <c r="I79" s="9">
+      <c r="I79" s="7">
         <f t="shared" si="19"/>
         <v>44544.969201242915</v>
       </c>
     </row>
-    <row r="80" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="7">
+    <row r="80" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="4">
         <v>44265</v>
       </c>
-      <c r="B80" s="8">
+      <c r="B80" s="5">
         <v>1677</v>
       </c>
-      <c r="C80" s="8">
+      <c r="C80" s="5">
         <f t="shared" si="21"/>
         <v>1635.1428571428571</v>
       </c>
-      <c r="D80" s="8">
+      <c r="D80" s="5">
         <f t="shared" si="15"/>
         <v>437531</v>
       </c>
-      <c r="E80" s="8">
+      <c r="E80" s="5">
         <f t="shared" si="16"/>
         <v>47651</v>
       </c>
-      <c r="H80" s="10">
+      <c r="F80" s="13"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="6">
         <f t="shared" si="18"/>
         <v>267.57967849030229</v>
       </c>
-      <c r="I80" s="9">
+      <c r="I80" s="7">
         <f t="shared" si="19"/>
         <v>44532.5796784903</v>
       </c>
     </row>
-    <row r="81" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="7">
+    <row r="81" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="4">
         <v>44266</v>
       </c>
-      <c r="B81" s="8">
+      <c r="B81" s="5">
         <v>1618</v>
       </c>
-      <c r="C81" s="8">
+      <c r="C81" s="5">
         <f t="shared" si="21"/>
         <v>1581</v>
       </c>
-      <c r="D81" s="8">
+      <c r="D81" s="5">
         <f t="shared" si="15"/>
         <v>435854</v>
       </c>
-      <c r="E81" s="8">
+      <c r="E81" s="5">
         <f t="shared" si="16"/>
         <v>49269</v>
       </c>
-      <c r="H81" s="10">
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="6">
         <f t="shared" si="18"/>
         <v>275.68247944339026</v>
       </c>
-      <c r="I81" s="9">
+      <c r="I81" s="7">
         <f t="shared" si="19"/>
         <v>44541.682479443392</v>
       </c>
     </row>
-    <row r="82" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="7">
+    <row r="82" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="4">
         <v>44267</v>
       </c>
-      <c r="B82" s="8">
+      <c r="B82" s="5">
         <v>1855</v>
       </c>
-      <c r="C82" s="8">
+      <c r="C82" s="5">
         <f t="shared" si="21"/>
         <v>1598.1428571428571</v>
       </c>
-      <c r="D82" s="8">
+      <c r="D82" s="5">
         <f t="shared" si="15"/>
         <v>434236</v>
       </c>
-      <c r="E82" s="8">
+      <c r="E82" s="5">
         <f t="shared" si="16"/>
         <v>51124</v>
       </c>
-      <c r="H82" s="10">
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="6">
         <f t="shared" si="18"/>
         <v>271.71288102261553</v>
       </c>
-      <c r="I82" s="9">
+      <c r="I82" s="7">
         <f t="shared" si="19"/>
         <v>44538.712881022613</v>
       </c>
     </row>
-    <row r="83" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="7">
+    <row r="83" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="4">
         <v>44268</v>
       </c>
-      <c r="B83" s="8">
+      <c r="B83" s="5">
         <v>1794</v>
       </c>
-      <c r="C83" s="8">
+      <c r="C83" s="5">
         <f t="shared" si="21"/>
         <v>1635.5714285714287</v>
       </c>
-      <c r="D83" s="8">
+      <c r="D83" s="5">
         <f t="shared" si="15"/>
         <v>432381</v>
       </c>
-      <c r="E83" s="8">
+      <c r="E83" s="5">
         <f t="shared" si="16"/>
         <v>52918</v>
       </c>
-      <c r="H83" s="10">
+      <c r="F83" s="13"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="6">
         <f t="shared" si="18"/>
         <v>264.36081753864966</v>
       </c>
-      <c r="I83" s="9">
+      <c r="I83" s="7">
         <f t="shared" si="19"/>
         <v>44532.360817538647</v>
       </c>
     </row>
-    <row r="84" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="7">
+    <row r="84" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="4">
         <v>44269</v>
       </c>
-      <c r="B84" s="8">
+      <c r="B84" s="5">
         <v>1780</v>
       </c>
-      <c r="C84" s="8">
+      <c r="C84" s="5">
         <f t="shared" si="21"/>
         <v>1700.8571428571429</v>
       </c>
-      <c r="D84" s="8">
+      <c r="D84" s="5">
         <f t="shared" si="15"/>
         <v>430587</v>
       </c>
-      <c r="E84" s="8">
+      <c r="E84" s="5">
         <f t="shared" si="16"/>
         <v>54698</v>
       </c>
-      <c r="H84" s="10">
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="6">
         <f t="shared" si="18"/>
         <v>253.15882748194187</v>
       </c>
-      <c r="I84" s="9">
+      <c r="I84" s="7">
         <f t="shared" si="19"/>
         <v>44522.158827481944</v>
       </c>
     </row>
-    <row r="85" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="7">
+    <row r="85" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="4">
         <v>44270</v>
       </c>
-      <c r="B85" s="8">
+      <c r="B85" s="5">
         <v>2156</v>
       </c>
-      <c r="C85" s="8">
+      <c r="C85" s="5">
         <f t="shared" si="21"/>
         <v>1792</v>
       </c>
-      <c r="D85" s="8">
+      <c r="D85" s="5">
         <f t="shared" si="15"/>
         <v>428807</v>
       </c>
-      <c r="E85" s="8">
+      <c r="E85" s="5">
         <f t="shared" si="16"/>
         <v>56854</v>
       </c>
-      <c r="H85" s="10">
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="6">
         <f t="shared" si="18"/>
         <v>239.28962053571428</v>
       </c>
-      <c r="I85" s="9">
+      <c r="I85" s="7">
         <f t="shared" si="19"/>
         <v>44509.289620535717</v>
       </c>
     </row>
-    <row r="86" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="7">
+    <row r="86" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="4">
         <v>44271</v>
       </c>
-      <c r="B86" s="8">
+      <c r="B86" s="5">
         <v>1708</v>
       </c>
-      <c r="C86" s="8">
+      <c r="C86" s="5">
         <f t="shared" si="21"/>
         <v>1798.2857142857142</v>
       </c>
-      <c r="D86" s="8">
+      <c r="D86" s="5">
         <f t="shared" si="15"/>
         <v>426651</v>
       </c>
-      <c r="E86" s="8">
+      <c r="E86" s="5">
         <f t="shared" si="16"/>
         <v>58562</v>
       </c>
-      <c r="H86" s="10">
+      <c r="F86" s="13"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="6">
         <f t="shared" si="18"/>
         <v>237.25428979980936</v>
       </c>
-      <c r="I86" s="9">
+      <c r="I86" s="7">
         <f t="shared" si="19"/>
         <v>44508.254289799806</v>
       </c>
     </row>
-    <row r="87" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="7">
+    <row r="87" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="4">
         <v>44272</v>
       </c>
-      <c r="B87" s="8">
+      <c r="B87" s="5">
         <v>1507</v>
       </c>
-      <c r="C87" s="8">
+      <c r="C87" s="5">
         <f t="shared" si="21"/>
         <v>1774</v>
       </c>
-      <c r="D87" s="8">
+      <c r="D87" s="5">
         <f t="shared" si="15"/>
         <v>424943</v>
       </c>
-      <c r="E87" s="8">
+      <c r="E87" s="5">
         <f t="shared" si="16"/>
         <v>60069</v>
       </c>
-      <c r="H87" s="10">
+      <c r="F87" s="13"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="6">
         <f t="shared" si="18"/>
         <v>239.53945885005638</v>
       </c>
-      <c r="I87" s="9">
+      <c r="I87" s="7">
         <f t="shared" si="19"/>
         <v>44511.539458850057</v>
       </c>
     </row>
-    <row r="88" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="7">
+    <row r="88" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="4">
         <v>44273</v>
       </c>
-      <c r="B88" s="8">
+      <c r="B88" s="5">
         <v>1529</v>
       </c>
-      <c r="C88" s="8">
+      <c r="C88" s="5">
         <f t="shared" si="21"/>
         <v>1761.2857142857142</v>
       </c>
-      <c r="D88" s="8">
+      <c r="D88" s="5">
         <f t="shared" si="15"/>
         <v>423436</v>
       </c>
-      <c r="E88" s="8">
+      <c r="E88" s="5">
         <f t="shared" si="16"/>
         <v>61598</v>
       </c>
-      <c r="H88" s="10">
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="6">
         <f t="shared" si="18"/>
         <v>240.41300997647824</v>
       </c>
-      <c r="I88" s="9">
+      <c r="I88" s="7">
         <f t="shared" si="19"/>
         <v>44513.413009976481</v>
       </c>
     </row>
-    <row r="89" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="7">
+    <row r="89" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="4">
         <v>44274</v>
       </c>
-      <c r="B89" s="8">
+      <c r="B89" s="5">
         <v>1464</v>
       </c>
-      <c r="C89" s="8">
+      <c r="C89" s="5">
         <f t="shared" si="21"/>
         <v>1705.4285714285713</v>
       </c>
-      <c r="D89" s="8">
+      <c r="D89" s="5">
         <f t="shared" si="15"/>
         <v>421907</v>
       </c>
-      <c r="E89" s="8">
+      <c r="E89" s="5">
         <f t="shared" si="16"/>
         <v>63062</v>
       </c>
-      <c r="H89" s="10">
+      <c r="F89" s="13"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="6">
         <f t="shared" si="18"/>
         <v>247.39060144077737</v>
       </c>
-      <c r="I89" s="9">
+      <c r="I89" s="7">
         <f t="shared" si="19"/>
         <v>44521.390601440777</v>
       </c>
     </row>
-    <row r="90" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="7">
+    <row r="90" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="4">
         <v>44275</v>
       </c>
-      <c r="B90" s="8">
+      <c r="B90" s="5">
         <v>1518</v>
       </c>
-      <c r="C90" s="8">
+      <c r="C90" s="5">
         <f t="shared" si="21"/>
         <v>1666</v>
       </c>
-      <c r="D90" s="8">
+      <c r="D90" s="5">
         <f t="shared" si="15"/>
         <v>420443</v>
       </c>
-      <c r="E90" s="8">
+      <c r="E90" s="5">
         <f t="shared" si="16"/>
         <v>64580</v>
       </c>
-      <c r="H90" s="10">
+      <c r="F90" s="13"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="6">
         <f t="shared" si="18"/>
         <v>252.36674669867946</v>
       </c>
-      <c r="I90" s="9">
+      <c r="I90" s="7">
         <f t="shared" si="19"/>
         <v>44527.366746698681</v>
       </c>
     </row>
-    <row r="91" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="7">
+    <row r="91" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="4">
         <v>44276</v>
       </c>
-      <c r="B91" s="8">
+      <c r="B91" s="5">
         <v>1398</v>
       </c>
-      <c r="C91" s="8">
+      <c r="C91" s="5">
         <f t="shared" si="21"/>
         <v>1611.4285714285713</v>
       </c>
-      <c r="D91" s="8">
+      <c r="D91" s="5">
         <f t="shared" si="15"/>
         <v>418925</v>
       </c>
-      <c r="E91" s="8">
+      <c r="E91" s="5">
         <f t="shared" si="16"/>
         <v>65978</v>
       </c>
-      <c r="H91" s="10">
+      <c r="F91" s="13"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="6">
         <f t="shared" si="18"/>
         <v>259.97118794326241</v>
       </c>
-      <c r="I91" s="9">
+      <c r="I91" s="7">
         <f t="shared" si="19"/>
         <v>44535.971187943265</v>
       </c>
-      <c r="J91" s="10">
+      <c r="J91" s="6">
         <f t="shared" ref="J91:J97" si="22">D91/84</f>
         <v>4987.2023809523807</v>
       </c>
     </row>
-    <row r="92" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="7">
+    <row r="92" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="4">
         <v>44277</v>
       </c>
-      <c r="B92" s="8">
+      <c r="B92" s="5">
         <v>1379</v>
       </c>
-      <c r="C92" s="8">
+      <c r="C92" s="5">
         <f t="shared" ref="C92:C97" si="23">(AVERAGE(B86:B92))</f>
         <v>1500.4285714285713</v>
       </c>
-      <c r="D92" s="8">
+      <c r="D92" s="5">
         <f t="shared" si="15"/>
         <v>417527</v>
       </c>
-      <c r="E92" s="8">
+      <c r="E92" s="5">
         <f t="shared" si="16"/>
         <v>67357</v>
       </c>
-      <c r="H92" s="10">
+      <c r="F92" s="13"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="6">
         <f t="shared" si="18"/>
         <v>278.27182709701992</v>
       </c>
-      <c r="I92" s="9">
+      <c r="I92" s="7">
         <f t="shared" si="19"/>
         <v>44555.271827097022</v>
       </c>
-      <c r="J92" s="10">
+      <c r="J92" s="6">
         <f t="shared" si="22"/>
         <v>4970.5595238095239</v>
       </c>
     </row>
-    <row r="93" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="7">
+    <row r="93" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="4">
         <v>44278</v>
       </c>
-      <c r="B93" s="8">
+      <c r="B93" s="5">
         <v>1473</v>
       </c>
-      <c r="C93" s="8">
+      <c r="C93" s="5">
         <f t="shared" si="23"/>
         <v>1466.8571428571429</v>
       </c>
-      <c r="D93" s="8">
+      <c r="D93" s="5">
         <f t="shared" si="15"/>
         <v>416148</v>
       </c>
-      <c r="E93" s="8">
+      <c r="E93" s="5">
         <f t="shared" si="16"/>
         <v>68830</v>
       </c>
-      <c r="H93" s="10">
+      <c r="F93" s="13"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="6">
         <f t="shared" si="18"/>
         <v>283.70042851577716</v>
       </c>
-      <c r="I93" s="9">
+      <c r="I93" s="7">
         <f t="shared" si="19"/>
         <v>44561.700428515775</v>
       </c>
-      <c r="J93" s="10">
+      <c r="J93" s="6">
         <f t="shared" si="22"/>
         <v>4954.1428571428569</v>
       </c>
     </row>
-    <row r="94" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="7">
+    <row r="94" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="4">
         <v>44279</v>
       </c>
-      <c r="B94" s="8">
+      <c r="B94" s="5">
         <v>3206</v>
       </c>
-      <c r="C94" s="10">
+      <c r="C94" s="6">
         <f t="shared" si="23"/>
         <v>1709.5714285714287</v>
       </c>
-      <c r="D94" s="8">
+      <c r="D94" s="5">
         <v>414675</v>
       </c>
-      <c r="E94" s="8">
+      <c r="E94" s="5">
         <f t="shared" si="16"/>
         <v>72036</v>
       </c>
-      <c r="H94" s="10">
+      <c r="F94" s="13"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="6">
         <f t="shared" si="18"/>
         <v>242.56079217849083</v>
       </c>
-      <c r="I94" s="9">
+      <c r="I94" s="7">
         <f t="shared" si="19"/>
         <v>44521.56079217849</v>
       </c>
-      <c r="J94" s="10">
+      <c r="J94" s="6">
         <f t="shared" si="22"/>
         <v>4936.6071428571431</v>
       </c>
     </row>
-    <row r="95" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="7">
+    <row r="95" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="4">
         <v>44280</v>
       </c>
-      <c r="B95" s="8">
+      <c r="B95" s="5">
         <v>3206</v>
       </c>
-      <c r="C95" s="10">
+      <c r="C95" s="6">
         <f t="shared" si="23"/>
         <v>1949.1428571428571</v>
       </c>
-      <c r="D95" s="8">
+      <c r="D95" s="5">
         <f t="shared" ref="D95:D100" si="24">(D94-B95)</f>
         <v>411469</v>
       </c>
-      <c r="E95" s="8">
+      <c r="E95" s="5">
         <f t="shared" si="16"/>
         <v>75242</v>
       </c>
-      <c r="H95" s="10">
+      <c r="F95" s="13"/>
+      <c r="G95" s="13"/>
+      <c r="H95" s="6">
         <f t="shared" si="18"/>
         <v>211.10253591322194</v>
       </c>
-      <c r="I95" s="9">
+      <c r="I95" s="7">
         <f t="shared" si="19"/>
         <v>44491.102535913225</v>
       </c>
-      <c r="J95" s="10">
+      <c r="J95" s="6">
         <f t="shared" si="22"/>
         <v>4898.4404761904761</v>
       </c>
     </row>
-    <row r="96" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="7">
+    <row r="96" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="4">
         <v>44281</v>
       </c>
-      <c r="B96" s="8">
+      <c r="B96" s="5">
         <v>2987</v>
       </c>
-      <c r="C96" s="10">
+      <c r="C96" s="6">
         <f t="shared" si="23"/>
         <v>2166.7142857142858</v>
       </c>
-      <c r="D96" s="8">
+      <c r="D96" s="5">
         <f t="shared" si="24"/>
         <v>408482</v>
       </c>
-      <c r="E96" s="8">
+      <c r="E96" s="5">
         <f t="shared" si="16"/>
         <v>78229</v>
       </c>
-      <c r="H96" s="10">
+      <c r="F96" s="13"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="6">
         <f t="shared" si="18"/>
         <v>188.52601041735346</v>
       </c>
-      <c r="I96" s="9">
+      <c r="I96" s="7">
         <f t="shared" si="19"/>
         <v>44469.52601041735</v>
       </c>
-      <c r="J96" s="10">
+      <c r="J96" s="6">
         <f t="shared" si="22"/>
         <v>4862.8809523809523</v>
       </c>
     </row>
-    <row r="97" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="7">
+    <row r="97" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="4">
         <v>44282</v>
       </c>
-      <c r="B97" s="8">
+      <c r="B97" s="5">
         <v>2950</v>
       </c>
-      <c r="C97" s="10">
+      <c r="C97" s="6">
         <f t="shared" si="23"/>
         <v>2371.2857142857142</v>
       </c>
-      <c r="D97" s="8">
+      <c r="D97" s="5">
         <f t="shared" si="24"/>
         <v>405532</v>
       </c>
-      <c r="E97" s="8">
+      <c r="E97" s="5">
         <f t="shared" si="16"/>
         <v>81179</v>
       </c>
-      <c r="H97" s="10">
+      <c r="F97" s="13"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="6">
         <f t="shared" si="18"/>
         <v>171.01777215494909</v>
       </c>
-      <c r="I97" s="9">
+      <c r="I97" s="7">
         <f t="shared" si="19"/>
         <v>44453.017772154948</v>
       </c>
-      <c r="J97" s="10">
+      <c r="J97" s="6">
         <f t="shared" si="22"/>
         <v>4827.7619047619046</v>
       </c>
     </row>
-    <row r="98" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="7">
+    <row r="98" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="4">
         <v>44283</v>
       </c>
-      <c r="B98" s="8">
+      <c r="B98" s="5">
         <v>2315</v>
       </c>
-      <c r="C98" s="10">
+      <c r="C98" s="6">
         <f t="shared" ref="C98:C103" si="25">(AVERAGE(B92:B98))</f>
         <v>2502.2857142857142</v>
       </c>
-      <c r="D98" s="8">
+      <c r="D98" s="5">
         <f t="shared" si="24"/>
         <v>403217</v>
       </c>
-      <c r="E98" s="8">
+      <c r="E98" s="5">
         <f t="shared" si="16"/>
         <v>83494</v>
       </c>
-      <c r="H98" s="10">
+      <c r="F98" s="13"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="6">
         <f t="shared" si="18"/>
         <v>161.1394724823019</v>
       </c>
-      <c r="I98" s="9">
+      <c r="I98" s="7">
         <f t="shared" si="19"/>
         <v>44444.139472482304</v>
       </c>
-      <c r="J98" s="10">
+      <c r="J98" s="6">
         <f>D98/84</f>
         <v>4800.2023809523807</v>
       </c>
     </row>
-    <row r="99" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="7">
+    <row r="99" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="4">
         <v>44284</v>
       </c>
-      <c r="B99" s="8">
+      <c r="B99" s="5">
         <v>2600</v>
       </c>
-      <c r="C99" s="10">
+      <c r="C99" s="6">
         <f t="shared" si="25"/>
         <v>2676.7142857142858</v>
       </c>
-      <c r="D99" s="8">
+      <c r="D99" s="5">
         <f t="shared" si="24"/>
         <v>400617</v>
       </c>
-      <c r="E99" s="8">
+      <c r="E99" s="5">
         <f t="shared" si="16"/>
         <v>86094</v>
       </c>
-      <c r="H99" s="10">
+      <c r="F99" s="13"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="6">
         <f t="shared" si="18"/>
         <v>149.66744943160592</v>
       </c>
-      <c r="I99" s="9">
+      <c r="I99" s="7">
         <f t="shared" si="19"/>
         <v>44433.667449431603</v>
       </c>
-      <c r="J99" s="10">
+      <c r="J99" s="6">
         <f>D99/84</f>
         <v>4769.25</v>
       </c>
     </row>
-    <row r="100" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="7">
+    <row r="100" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="4">
         <v>44285</v>
       </c>
-      <c r="B100" s="8">
+      <c r="B100" s="5">
         <v>3184</v>
       </c>
-      <c r="C100" s="10">
+      <c r="C100" s="6">
         <f t="shared" si="25"/>
         <v>2921.1428571428573</v>
       </c>
-      <c r="D100" s="8">
+      <c r="D100" s="5">
         <f t="shared" si="24"/>
         <v>397433</v>
       </c>
-      <c r="E100" s="8">
+      <c r="E100" s="5">
         <f t="shared" si="16"/>
         <v>89278</v>
       </c>
-      <c r="H100" s="10">
+      <c r="F100" s="13"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="6">
         <f t="shared" ref="H100" si="26">D100/C100</f>
         <v>136.05394170579029</v>
       </c>
-      <c r="I100" s="9">
+      <c r="I100" s="7">
         <f t="shared" ref="I100" si="27">A100+H100</f>
         <v>44421.053941705788</v>
       </c>
-      <c r="J100" s="10">
+      <c r="J100" s="6">
         <f t="shared" ref="J100:J101" si="28">D100/84</f>
         <v>4731.3452380952385</v>
       </c>
     </row>
-    <row r="101" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="7">
+    <row r="101" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="4">
         <v>44286</v>
       </c>
-      <c r="B101" s="8">
+      <c r="B101" s="5">
         <v>3774</v>
       </c>
-      <c r="C101" s="10">
+      <c r="C101" s="6">
         <f t="shared" si="25"/>
         <v>3002.2857142857142</v>
       </c>
-      <c r="D101" s="8">
+      <c r="D101" s="5">
         <f t="shared" ref="D101" si="29">(D100-B101)</f>
         <v>393659</v>
       </c>
-      <c r="E101" s="8">
+      <c r="E101" s="5">
         <f t="shared" ref="E101" si="30">E100+B101</f>
         <v>93052</v>
       </c>
-      <c r="H101" s="10">
+      <c r="F101" s="13"/>
+      <c r="G101" s="13"/>
+      <c r="H101" s="6">
         <f t="shared" ref="H101" si="31">D101/C101</f>
         <v>131.11976589265322</v>
       </c>
-      <c r="I101" s="9">
+      <c r="I101" s="7">
         <f t="shared" ref="I101" si="32">A101+H101</f>
         <v>44417.119765892654</v>
       </c>
-      <c r="J101" s="10">
+      <c r="J101" s="6">
         <f t="shared" si="28"/>
         <v>4686.416666666667</v>
       </c>
     </row>
-    <row r="102" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="7">
+    <row r="102" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="4">
         <v>44287</v>
       </c>
-      <c r="B102" s="8">
+      <c r="B102" s="5">
         <v>3673</v>
       </c>
-      <c r="C102" s="10">
+      <c r="C102" s="6">
         <f t="shared" si="25"/>
         <v>3069</v>
       </c>
-      <c r="D102" s="8">
+      <c r="D102" s="5">
         <f t="shared" ref="D102" si="33">(D101-B102)</f>
         <v>389986</v>
       </c>
-      <c r="E102" s="8">
+      <c r="E102" s="5">
         <f t="shared" ref="E102" si="34">E101+B102</f>
         <v>96725</v>
       </c>
-      <c r="H102" s="10">
+      <c r="F102" s="13"/>
+      <c r="G102" s="13"/>
+      <c r="H102" s="6">
         <f t="shared" ref="H102" si="35">D102/C102</f>
         <v>127.07266210492017</v>
       </c>
-      <c r="I102" s="9">
+      <c r="I102" s="7">
         <f t="shared" ref="I102" si="36">A102+H102</f>
         <v>44414.072662104918</v>
       </c>
-      <c r="J102" s="10">
+      <c r="J102" s="6">
         <f t="shared" ref="J102" si="37">D102/84</f>
         <v>4642.6904761904761</v>
       </c>
     </row>
-    <row r="103" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="7">
+    <row r="103" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="4">
         <v>44288</v>
       </c>
-      <c r="B103" s="8">
+      <c r="B103" s="5">
         <v>3387</v>
       </c>
-      <c r="C103" s="10">
+      <c r="C103" s="6">
         <f t="shared" si="25"/>
         <v>3126.1428571428573</v>
       </c>
-      <c r="D103" s="8">
+      <c r="D103" s="5">
         <f t="shared" ref="D103" si="38">(D102-B103)</f>
         <v>386599</v>
       </c>
-      <c r="E103" s="8">
+      <c r="E103" s="5">
         <f t="shared" ref="E103" si="39">E102+B103</f>
         <v>100112</v>
       </c>
-      <c r="H103" s="10">
+      <c r="F103" s="13"/>
+      <c r="G103" s="13"/>
+      <c r="H103" s="6">
         <f t="shared" ref="H103" si="40">D103/C103</f>
         <v>123.66645341132386</v>
       </c>
-      <c r="I103" s="9">
+      <c r="I103" s="7">
         <f t="shared" ref="I103" si="41">A103+H103</f>
         <v>44411.666453411322</v>
       </c>
-      <c r="J103" s="10">
+      <c r="J103" s="6">
         <f t="shared" ref="J103" si="42">D103/84</f>
         <v>4602.3690476190477</v>
       </c>
     </row>
-    <row r="104" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="7">
+    <row r="104" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="4">
         <v>44289</v>
       </c>
-      <c r="B104" s="8">
+      <c r="B104" s="5">
         <v>3560</v>
       </c>
-      <c r="C104" s="10">
+      <c r="C104" s="6">
         <f t="shared" ref="C104:C110" si="43">(AVERAGE(B98:B104))</f>
         <v>3213.2857142857142</v>
       </c>
-      <c r="D104" s="8">
+      <c r="D104" s="5">
         <f t="shared" ref="D104" si="44">(D103-B104)</f>
         <v>383039</v>
       </c>
-      <c r="E104" s="8">
+      <c r="E104" s="5">
         <f t="shared" ref="E104" si="45">E103+B104</f>
         <v>103672</v>
       </c>
-      <c r="H104" s="10">
+      <c r="F104" s="13"/>
+      <c r="G104" s="13"/>
+      <c r="H104" s="6">
         <f t="shared" ref="H104" si="46">D104/C104</f>
         <v>119.20477481883253</v>
       </c>
-      <c r="I104" s="9">
+      <c r="I104" s="7">
         <f t="shared" ref="I104" si="47">A104+H104</f>
         <v>44408.204774818834</v>
       </c>
-      <c r="J104" s="10">
+      <c r="J104" s="6">
         <f t="shared" ref="J104" si="48">D104/84</f>
         <v>4559.9880952380954</v>
       </c>
     </row>
-    <row r="105" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="7">
+    <row r="105" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="4">
         <v>44290</v>
       </c>
-      <c r="B105" s="8">
+      <c r="B105" s="5">
         <v>3752</v>
       </c>
-      <c r="C105" s="10">
+      <c r="C105" s="6">
         <f t="shared" si="43"/>
         <v>3418.5714285714284</v>
       </c>
-      <c r="D105" s="8">
+      <c r="D105" s="5">
         <f t="shared" ref="D105" si="49">(D104-B105)</f>
         <v>379287</v>
       </c>
-      <c r="E105" s="8">
+      <c r="E105" s="5">
         <f t="shared" ref="E105" si="50">E104+B105</f>
         <v>107424</v>
       </c>
-      <c r="H105" s="10">
+      <c r="F105" s="13"/>
+      <c r="G105" s="13"/>
+      <c r="H105" s="6">
         <f t="shared" ref="H105" si="51">D105/C105</f>
         <v>110.94897618052654</v>
       </c>
-      <c r="I105" s="9">
+      <c r="I105" s="7">
         <f t="shared" ref="I105" si="52">A105+H105</f>
         <v>44400.948976180523</v>
       </c>
-      <c r="J105" s="10">
+      <c r="J105" s="6">
         <f t="shared" ref="J105" si="53">D105/84</f>
         <v>4515.3214285714284</v>
       </c>
     </row>
-    <row r="106" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="7">
+    <row r="106" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="4">
         <v>44291</v>
       </c>
-      <c r="B106" s="8">
+      <c r="B106" s="5">
         <v>3759</v>
       </c>
-      <c r="C106" s="10">
+      <c r="C106" s="6">
         <f t="shared" si="43"/>
         <v>3584.1428571428573</v>
       </c>
-      <c r="D106" s="8">
+      <c r="D106" s="5">
         <f t="shared" ref="D106" si="54">(D105-B106)</f>
         <v>375528</v>
       </c>
-      <c r="E106" s="8">
+      <c r="E106" s="5">
         <f t="shared" ref="E106" si="55">E105+B106</f>
         <v>111183</v>
       </c>
-      <c r="H106" s="10">
+      <c r="F106" s="13"/>
+      <c r="G106" s="13"/>
+      <c r="H106" s="6">
         <f t="shared" ref="H106" si="56">D106/C106</f>
         <v>104.77484156403204</v>
       </c>
-      <c r="I106" s="9">
+      <c r="I106" s="7">
         <f t="shared" ref="I106" si="57">A106+H106</f>
         <v>44395.774841564031</v>
       </c>
-      <c r="J106" s="10">
+      <c r="J106" s="6">
         <f t="shared" ref="J106" si="58">D106/84</f>
         <v>4470.5714285714284</v>
       </c>
     </row>
-    <row r="107" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="7">
+    <row r="107" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="4">
         <v>44292</v>
       </c>
-      <c r="B107" s="8">
+      <c r="B107" s="5">
         <v>3303</v>
       </c>
-      <c r="C107" s="10">
+      <c r="C107" s="6">
         <f t="shared" si="43"/>
         <v>3601.1428571428573</v>
       </c>
-      <c r="D107" s="8">
+      <c r="D107" s="5">
         <f t="shared" ref="D107" si="59">(D106-B107)</f>
         <v>372225</v>
       </c>
-      <c r="E107" s="8">
+      <c r="E107" s="5">
         <f t="shared" ref="E107" si="60">E106+B107</f>
         <v>114486</v>
       </c>
-      <c r="H107" s="10">
+      <c r="F107" s="13"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="6">
         <f t="shared" ref="H107" si="61">D107/C107</f>
         <v>103.36301967629323</v>
       </c>
-      <c r="I107" s="9">
+      <c r="I107" s="7">
         <f t="shared" ref="I107" si="62">A107+H107</f>
         <v>44395.36301967629</v>
       </c>
-      <c r="J107" s="10">
+      <c r="J107" s="6">
         <f t="shared" ref="J107" si="63">D107/84</f>
         <v>4431.25</v>
       </c>
     </row>
-    <row r="108" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="7">
+    <row r="108" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="4">
         <v>44293</v>
       </c>
-      <c r="B108" s="8">
+      <c r="B108" s="5">
         <v>3096</v>
       </c>
-      <c r="C108" s="10">
+      <c r="C108" s="6">
         <f t="shared" si="43"/>
         <v>3504.2857142857142</v>
       </c>
-      <c r="D108" s="8">
+      <c r="D108" s="5">
         <f t="shared" ref="D108" si="64">(D107-B108)</f>
         <v>369129</v>
       </c>
-      <c r="E108" s="8">
+      <c r="E108" s="5">
         <f t="shared" ref="E108" si="65">E107+B108</f>
         <v>117582</v>
       </c>
-      <c r="H108" s="10">
+      <c r="F108" s="13"/>
+      <c r="G108" s="13"/>
+      <c r="H108" s="6">
         <f t="shared" ref="H108" si="66">D108/C108</f>
         <v>105.33644516918059</v>
       </c>
-      <c r="I108" s="9">
+      <c r="I108" s="7">
         <f t="shared" ref="I108" si="67">A108+H108</f>
         <v>44398.336445169181</v>
       </c>
-      <c r="J108" s="10">
+      <c r="J108" s="6">
         <f t="shared" ref="J108" si="68">D108/84</f>
         <v>4394.3928571428569</v>
       </c>
     </row>
-    <row r="109" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="7">
+    <row r="109" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="4">
         <v>44294</v>
       </c>
-      <c r="B109" s="8">
+      <c r="B109" s="5">
         <v>2523</v>
       </c>
-      <c r="C109" s="10">
+      <c r="C109" s="6">
         <f t="shared" si="43"/>
         <v>3340</v>
       </c>
-      <c r="D109" s="8">
+      <c r="D109" s="5">
         <f t="shared" ref="D109" si="69">(D108-B109)</f>
         <v>366606</v>
       </c>
-      <c r="E109" s="8">
+      <c r="E109" s="5">
         <f t="shared" ref="E109" si="70">E108+B109</f>
         <v>120105</v>
       </c>
-      <c r="H109" s="10">
+      <c r="F109" s="13"/>
+      <c r="G109" s="13"/>
+      <c r="H109" s="6">
         <f t="shared" ref="H109" si="71">D109/C109</f>
         <v>109.76227544910179</v>
       </c>
-      <c r="I109" s="9">
+      <c r="I109" s="7">
         <f t="shared" ref="I109" si="72">A109+H109</f>
         <v>44403.762275449102</v>
       </c>
-      <c r="J109" s="10">
+      <c r="J109" s="6">
         <f t="shared" ref="J109" si="73">D109/84</f>
         <v>4364.3571428571431</v>
       </c>
     </row>
-    <row r="110" spans="1:10" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="7">
+    <row r="110" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="4">
         <v>44295</v>
       </c>
-      <c r="B110" s="8">
+      <c r="B110" s="5">
         <v>3979</v>
       </c>
-      <c r="C110" s="10">
+      <c r="C110" s="6">
         <f t="shared" si="43"/>
         <v>3424.5714285714284</v>
       </c>
-      <c r="D110" s="8">
+      <c r="D110" s="5">
         <f t="shared" ref="D110" si="74">(D109-B110)</f>
         <v>362627</v>
       </c>
-      <c r="E110" s="8">
+      <c r="E110" s="5">
         <f t="shared" ref="E110" si="75">E109+B110</f>
         <v>124084</v>
       </c>
-      <c r="H110" s="10">
+      <c r="F110" s="13"/>
+      <c r="G110" s="13"/>
+      <c r="H110" s="6">
         <f t="shared" ref="H110" si="76">D110/C110</f>
         <v>105.88974637076589</v>
       </c>
-      <c r="I110" s="9">
+      <c r="I110" s="7">
         <f t="shared" ref="I110" si="77">A110+H110</f>
         <v>44400.889746370769</v>
       </c>
-      <c r="J110" s="10">
+      <c r="J110" s="6">
         <f t="shared" ref="J110" si="78">D110/84</f>
         <v>4316.9880952380954</v>
       </c>
     </row>
-    <row r="111" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="7">
+    <row r="111" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="4">
         <v>44296</v>
       </c>
-      <c r="B111" s="8">
+      <c r="B111" s="5">
         <v>3984</v>
       </c>
-      <c r="C111" s="10">
+      <c r="C111" s="6">
         <f t="shared" ref="C111" si="79">(AVERAGE(B105:B111))</f>
         <v>3485.1428571428573</v>
       </c>
-      <c r="D111" s="8">
+      <c r="D111" s="5">
         <f t="shared" ref="D111" si="80">(D110-B111)</f>
         <v>358643</v>
       </c>
-      <c r="E111" s="8">
+      <c r="E111" s="5">
         <f t="shared" ref="E111" si="81">E110+B111</f>
         <v>128068</v>
       </c>
-      <c r="H111" s="10">
+      <c r="F111" s="13"/>
+      <c r="G111" s="13"/>
+      <c r="H111" s="6">
         <f t="shared" ref="H111" si="82">D111/C111</f>
         <v>102.90625512379079</v>
       </c>
-      <c r="I111" s="9">
+      <c r="I111" s="7">
         <f t="shared" ref="I111" si="83">A111+H111</f>
         <v>44398.906255123788</v>
       </c>
-      <c r="J111" s="10">
+      <c r="J111" s="6">
         <f t="shared" ref="J111" si="84">D111/84</f>
         <v>4269.5595238095239</v>
       </c>
     </row>
-    <row r="112" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="7">
+    <row r="112" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="4">
         <v>44297</v>
       </c>
-      <c r="B112" s="8">
+      <c r="B112" s="5">
         <v>3936</v>
       </c>
-      <c r="C112" s="10">
+      <c r="C112" s="6">
         <f t="shared" ref="C112" si="85">(AVERAGE(B106:B112))</f>
         <v>3511.4285714285716</v>
       </c>
-      <c r="D112" s="8">
+      <c r="D112" s="5">
         <f t="shared" ref="D112" si="86">(D111-B112)</f>
         <v>354707</v>
       </c>
-      <c r="E112" s="8">
+      <c r="E112" s="5">
         <f t="shared" ref="E112" si="87">E111+B112</f>
         <v>132004</v>
       </c>
-      <c r="H112" s="10">
+      <c r="F112" s="13"/>
+      <c r="G112" s="13"/>
+      <c r="H112" s="6">
         <f t="shared" ref="H112" si="88">D112/C112</f>
         <v>101.01501220504475</v>
       </c>
-      <c r="I112" s="9">
+      <c r="I112" s="7">
         <f t="shared" ref="I112" si="89">A112+H112</f>
         <v>44398.015012205047</v>
       </c>
-      <c r="J112" s="10">
+      <c r="J112" s="6">
         <f t="shared" ref="J112" si="90">D112/84</f>
         <v>4222.7023809523807</v>
       </c>
     </row>
-    <row r="113" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="7">
+    <row r="113" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="4">
         <v>44298</v>
       </c>
-      <c r="B113" s="8">
+      <c r="B113" s="5">
         <v>3709</v>
       </c>
-      <c r="C113" s="10">
+      <c r="C113" s="6">
         <f t="shared" ref="C113" si="91">(AVERAGE(B107:B113))</f>
         <v>3504.2857142857142</v>
       </c>
-      <c r="D113" s="8">
-        <f t="shared" ref="D113" si="92">(D112-B113)</f>
+      <c r="D113" s="5">
+        <f t="shared" ref="D113:D117" si="92">(D112-B113)</f>
         <v>350998</v>
       </c>
-      <c r="E113" s="8">
+      <c r="E113" s="5">
         <f t="shared" ref="E113" si="93">E112+B113</f>
         <v>135713</v>
       </c>
-      <c r="H113" s="10">
+      <c r="F113" s="13"/>
+      <c r="G113" s="13"/>
+      <c r="H113" s="6">
         <f t="shared" ref="H113" si="94">D113/C113</f>
         <v>100.16249490419894</v>
       </c>
-      <c r="I113" s="9">
+      <c r="I113" s="7">
         <f t="shared" ref="I113" si="95">A113+H113</f>
         <v>44398.162494904202</v>
       </c>
-      <c r="J113" s="10">
+      <c r="J113" s="6">
         <f t="shared" ref="J113" si="96">D113/84</f>
         <v>4178.5476190476193</v>
       </c>
     </row>
-    <row r="114" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="7">
+    <row r="114" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="4">
         <v>44299</v>
       </c>
-      <c r="B114" s="8">
+      <c r="B114" s="5">
         <v>4332</v>
       </c>
-      <c r="C114" s="10">
+      <c r="C114" s="6">
         <f t="shared" ref="C114" si="97">(AVERAGE(B108:B114))</f>
         <v>3651.2857142857142</v>
       </c>
-      <c r="D114" s="8">
-        <f t="shared" ref="D114" si="98">(D113-B114)</f>
+      <c r="D114" s="5">
+        <f t="shared" si="92"/>
         <v>346666</v>
       </c>
-      <c r="E114" s="8">
-        <f t="shared" ref="E114" si="99">E113+B114</f>
+      <c r="E114" s="5">
+        <f t="shared" ref="E114" si="98">E113+B114</f>
         <v>140045</v>
       </c>
-      <c r="H114" s="10">
-        <f t="shared" ref="H114" si="100">D114/C114</f>
+      <c r="F114" s="13"/>
+      <c r="G114" s="13"/>
+      <c r="H114" s="6">
+        <f t="shared" ref="H114" si="99">D114/C114</f>
         <v>94.943542392112363</v>
       </c>
-      <c r="I114" s="9">
-        <f t="shared" ref="I114" si="101">A114+H114</f>
+      <c r="I114" s="7">
+        <f t="shared" ref="I114" si="100">A114+H114</f>
         <v>44393.94354239211</v>
       </c>
-      <c r="J114" s="10">
-        <f t="shared" ref="J114" si="102">D114/84</f>
+      <c r="J114" s="6">
+        <f t="shared" ref="J114" si="101">D114/84</f>
         <v>4126.9761904761908</v>
       </c>
     </row>
-    <row r="115" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="7">
+    <row r="115" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="4">
         <v>44300</v>
       </c>
-      <c r="B115" s="8">
+      <c r="B115" s="5">
         <v>4109</v>
       </c>
-      <c r="C115" s="10">
-        <f t="shared" ref="C115" si="103">(AVERAGE(B109:B115))</f>
+      <c r="C115" s="6">
+        <f t="shared" ref="C115" si="102">(AVERAGE(B109:B115))</f>
         <v>3796</v>
       </c>
-      <c r="D115" s="8">
-        <f>(D114-B115)</f>
+      <c r="D115" s="5">
+        <f t="shared" si="92"/>
         <v>342557</v>
       </c>
-      <c r="E115" s="8">
-        <f t="shared" ref="E115" si="104">E114+B115</f>
+      <c r="E115" s="5">
+        <f t="shared" ref="E115" si="103">E114+B115</f>
         <v>144154</v>
       </c>
-      <c r="H115" s="10">
-        <f t="shared" ref="H115" si="105">D115/C115</f>
+      <c r="F115" s="13"/>
+      <c r="G115" s="13"/>
+      <c r="H115" s="6">
+        <f t="shared" ref="H115" si="104">D115/C115</f>
         <v>90.241570073761849</v>
       </c>
-      <c r="I115" s="9">
-        <f t="shared" ref="I115" si="106">A115+H115</f>
+      <c r="I115" s="7">
+        <f t="shared" ref="I115" si="105">A115+H115</f>
         <v>44390.241570073762</v>
       </c>
-      <c r="J115" s="10">
-        <f t="shared" ref="J115" si="107">D115/84</f>
+      <c r="J115" s="6">
+        <f t="shared" ref="J115" si="106">D115/84</f>
         <v>4078.0595238095239</v>
       </c>
     </row>
-    <row r="116" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="6">
+    <row r="116" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="4">
         <v>44301</v>
       </c>
-      <c r="B116" s="4">
+      <c r="B116" s="5">
         <v>3377</v>
       </c>
-      <c r="C116" s="3">
-        <f t="shared" ref="C116" si="108">(AVERAGE(B110:B116))</f>
+      <c r="C116" s="6">
+        <f t="shared" ref="C116" si="107">(AVERAGE(B110:B116))</f>
         <v>3918</v>
       </c>
-      <c r="D116" s="4">
-        <f>(D115-B116)+G116</f>
-        <v>353486</v>
-      </c>
-      <c r="E116" s="4">
-        <f t="shared" ref="E116" si="109">E115+B116</f>
+      <c r="D116" s="5">
+        <f t="shared" si="92"/>
+        <v>339180</v>
+      </c>
+      <c r="E116" s="5">
+        <f t="shared" ref="E116" si="108">E115+B116</f>
         <v>147531</v>
       </c>
-      <c r="F116" s="4">
+      <c r="F116" s="13">
         <f>(E116-G116)</f>
         <v>133225</v>
       </c>
-      <c r="G116" s="4">
+      <c r="G116" s="13">
         <v>14306</v>
       </c>
-      <c r="H116" s="3">
+      <c r="H116" s="6">
         <f>D116/C116</f>
-        <v>90.221031138335888</v>
-      </c>
-      <c r="I116" s="5">
+        <v>86.569678407350693</v>
+      </c>
+      <c r="I116" s="7">
         <f>A116+H116</f>
-        <v>44391.221031138339</v>
-      </c>
-      <c r="J116" s="3">
-        <f t="shared" ref="J116" si="110">D116/84</f>
-        <v>4208.166666666667</v>
-      </c>
-      <c r="K116" s="4" t="s">
+        <v>44387.569678407352</v>
+      </c>
+      <c r="J116" s="6">
+        <f t="shared" ref="J116" si="109">D116/84</f>
+        <v>4037.8571428571427</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="8">
+        <v>44302</v>
+      </c>
+      <c r="B117" s="9">
+        <v>3912</v>
+      </c>
+      <c r="C117" s="10">
+        <f t="shared" ref="C117" si="110">(AVERAGE(B111:B117))</f>
+        <v>3908.4285714285716</v>
+      </c>
+      <c r="D117" s="9">
+        <f t="shared" si="92"/>
+        <v>335268</v>
+      </c>
+      <c r="E117" s="9">
+        <f t="shared" ref="E117" si="111">E116+B117</f>
+        <v>151443</v>
+      </c>
+      <c r="F117" s="14" t="e">
+        <f>(E117-G117)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G117" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H117" s="10">
+        <f>D117/C117</f>
+        <v>85.780766840893307</v>
+      </c>
+      <c r="I117" s="11">
+        <f>A117+H117</f>
+        <v>44387.780766840893</v>
+      </c>
+      <c r="J117" s="10">
+        <f t="shared" ref="J117" si="112">D117/84</f>
+        <v>3991.2857142857142</v>
+      </c>
+      <c r="K117" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A117" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/durham_daily_vaccinations.xlsx
+++ b/durham_daily_vaccinations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C6D1E7-4E4C-0746-A26A-8DBA24E0CC99}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7463F1-39A0-6446-A4EB-504A130A382D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19660" xr2:uid="{D878B493-02AB-054E-B330-D20DF148DE7B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19640" xr2:uid="{D878B493-02AB-054E-B330-D20DF148DE7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -63,7 +63,10 @@
     <t>People one dose</t>
   </si>
   <si>
-    <t>Coming Soon</t>
+    <t>Second Doses</t>
+  </si>
+  <si>
+    <t>Doses administered in fully vaccinated persons</t>
   </si>
 </sst>
 </file>
@@ -485,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E82AD24-C064-B648-8062-B01E1A5F7A8D}">
-  <dimension ref="A1:K117"/>
+  <dimension ref="A1:M118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="I121" sqref="I121"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -499,13 +502,15 @@
     <col min="4" max="4" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="14.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="40.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -527,14 +532,20 @@
       <c r="G1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>44187</v>
       </c>
@@ -551,10 +562,14 @@
       </c>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H2" s="13"/>
+      <c r="I2" s="13">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>44188</v>
       </c>
@@ -571,10 +586,14 @@
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H3" s="13"/>
+      <c r="I3" s="13">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>44189</v>
       </c>
@@ -591,10 +610,14 @@
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H4" s="13"/>
+      <c r="I4" s="13">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>44190</v>
       </c>
@@ -611,10 +634,14 @@
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H5" s="13"/>
+      <c r="I5" s="13">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>44191</v>
       </c>
@@ -631,10 +658,14 @@
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H6" s="13"/>
+      <c r="I6" s="13">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>44192</v>
       </c>
@@ -651,10 +682,14 @@
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H7" s="13"/>
+      <c r="I7" s="13">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>44193</v>
       </c>
@@ -671,10 +706,14 @@
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H8" s="13"/>
+      <c r="I8" s="13">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>44194</v>
       </c>
@@ -691,10 +730,14 @@
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H9" s="13"/>
+      <c r="I9" s="13">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>44195</v>
       </c>
@@ -715,16 +758,20 @@
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
-      <c r="H10" s="6">
-        <f t="shared" ref="H10:H41" si="3">D10/C10</f>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <f t="shared" ref="J10:J41" si="3">D10/C10</f>
         <v>5953.9684931506845</v>
       </c>
-      <c r="I10" s="7">
-        <f t="shared" ref="I10:I41" si="4">A10+H10</f>
+      <c r="K10" s="7">
+        <f t="shared" ref="K10:K41" si="4">A10+J10</f>
         <v>50148.968493150685</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>44196</v>
       </c>
@@ -745,16 +792,20 @@
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
-      <c r="H11" s="6">
+      <c r="H11" s="13"/>
+      <c r="I11" s="13">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
         <f t="shared" si="3"/>
         <v>5039.4050104384132</v>
       </c>
-      <c r="I11" s="7">
+      <c r="K11" s="7">
         <f t="shared" si="4"/>
         <v>49235.405010438415</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>44197</v>
       </c>
@@ -775,16 +826,20 @@
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
-      <c r="H12" s="6">
+      <c r="H12" s="13"/>
+      <c r="I12" s="13">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6">
         <f t="shared" si="3"/>
         <v>4255.2645502645501</v>
       </c>
-      <c r="I12" s="7">
+      <c r="K12" s="7">
         <f t="shared" si="4"/>
         <v>48452.264550264546</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>44198</v>
       </c>
@@ -805,16 +860,20 @@
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
-      <c r="H13" s="6">
+      <c r="H13" s="13"/>
+      <c r="I13" s="13">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
         <f t="shared" si="3"/>
         <v>3659.5144157814866</v>
       </c>
-      <c r="I13" s="7">
+      <c r="K13" s="7">
         <f t="shared" si="4"/>
         <v>47857.514415781487</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>44199</v>
       </c>
@@ -835,16 +894,20 @@
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
-      <c r="H14" s="6">
+      <c r="H14" s="13"/>
+      <c r="I14" s="13">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6">
         <f t="shared" si="3"/>
         <v>2312.6244002741605</v>
       </c>
-      <c r="I14" s="7">
+      <c r="K14" s="7">
         <f t="shared" si="4"/>
         <v>46511.624400274159</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>44200</v>
       </c>
@@ -865,16 +928,20 @@
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
-      <c r="H15" s="6">
+      <c r="H15" s="13"/>
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="6">
         <f t="shared" si="3"/>
         <v>2205.6775670372795</v>
       </c>
-      <c r="I15" s="7">
+      <c r="K15" s="7">
         <f t="shared" si="4"/>
         <v>46405.677567037281</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>44201</v>
       </c>
@@ -895,16 +962,20 @@
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
-      <c r="H16" s="6">
+      <c r="H16" s="13"/>
+      <c r="I16" s="13">
+        <v>0</v>
+      </c>
+      <c r="J16" s="6">
         <f t="shared" si="3"/>
         <v>1719.85</v>
       </c>
-      <c r="I16" s="7">
+      <c r="K16" s="7">
         <f t="shared" si="4"/>
         <v>45920.85</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>44202</v>
       </c>
@@ -925,16 +996,20 @@
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
-      <c r="H17" s="6">
+      <c r="H17" s="13"/>
+      <c r="I17" s="13">
+        <v>0</v>
+      </c>
+      <c r="J17" s="6">
         <f t="shared" si="3"/>
         <v>1402.8379166666668</v>
       </c>
-      <c r="I17" s="7">
+      <c r="K17" s="7">
         <f t="shared" si="4"/>
         <v>45604.837916666664</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>44203</v>
       </c>
@@ -955,16 +1030,20 @@
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
-      <c r="H18" s="6">
+      <c r="H18" s="13"/>
+      <c r="I18" s="13">
+        <v>0</v>
+      </c>
+      <c r="J18" s="6">
         <f t="shared" si="3"/>
         <v>1110.8771060455897</v>
       </c>
-      <c r="I18" s="7">
+      <c r="K18" s="7">
         <f t="shared" si="4"/>
         <v>45313.877106045591</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>44204</v>
       </c>
@@ -985,16 +1064,20 @@
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
-      <c r="H19" s="6">
+      <c r="H19" s="13"/>
+      <c r="I19" s="13">
+        <v>0</v>
+      </c>
+      <c r="J19" s="6">
         <f t="shared" si="3"/>
         <v>925.20396912899662</v>
       </c>
-      <c r="I19" s="7">
+      <c r="K19" s="7">
         <f t="shared" si="4"/>
         <v>45129.203969128997</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>44205</v>
       </c>
@@ -1015,16 +1098,20 @@
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
-      <c r="H20" s="6">
+      <c r="H20" s="13"/>
+      <c r="I20" s="13">
+        <v>0</v>
+      </c>
+      <c r="J20" s="6">
         <f t="shared" si="3"/>
         <v>801.83584589614736</v>
       </c>
-      <c r="I20" s="7">
+      <c r="K20" s="7">
         <f t="shared" si="4"/>
         <v>45006.835845896145</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>44206</v>
       </c>
@@ -1045,16 +1132,20 @@
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
-      <c r="H21" s="6">
+      <c r="H21" s="13"/>
+      <c r="I21" s="13">
+        <v>0</v>
+      </c>
+      <c r="J21" s="6">
         <f t="shared" si="3"/>
         <v>686.54885057471267</v>
       </c>
-      <c r="I21" s="7">
+      <c r="K21" s="7">
         <f t="shared" si="4"/>
         <v>44892.548850574713</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>44207</v>
       </c>
@@ -1075,16 +1166,20 @@
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
-      <c r="H22" s="6">
+      <c r="H22" s="13"/>
+      <c r="I22" s="13">
+        <v>0</v>
+      </c>
+      <c r="J22" s="6">
         <f t="shared" si="3"/>
         <v>588.05302096177559</v>
       </c>
-      <c r="I22" s="7">
+      <c r="K22" s="7">
         <f t="shared" si="4"/>
         <v>44795.053020961779</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>44208</v>
       </c>
@@ -1105,16 +1200,20 @@
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
-      <c r="H23" s="6">
+      <c r="H23" s="13"/>
+      <c r="I23" s="13">
+        <v>0</v>
+      </c>
+      <c r="J23" s="6">
         <f t="shared" si="3"/>
         <v>512.88175519630488</v>
       </c>
-      <c r="I23" s="7">
+      <c r="K23" s="7">
         <f t="shared" si="4"/>
         <v>44720.881755196307</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>44209</v>
       </c>
@@ -1135,16 +1234,20 @@
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
-      <c r="H24" s="6">
+      <c r="H24" s="13"/>
+      <c r="I24" s="13">
+        <v>0</v>
+      </c>
+      <c r="J24" s="6">
         <f t="shared" si="3"/>
         <v>478.58011527377522</v>
       </c>
-      <c r="I24" s="7">
+      <c r="K24" s="7">
         <f t="shared" si="4"/>
         <v>44687.580115273777</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>44210</v>
       </c>
@@ -1165,16 +1268,20 @@
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
-      <c r="H25" s="6">
+      <c r="H25" s="13"/>
+      <c r="I25" s="13">
+        <v>0</v>
+      </c>
+      <c r="J25" s="6">
         <f t="shared" si="3"/>
         <v>462.92010057270573</v>
       </c>
-      <c r="I25" s="7">
+      <c r="K25" s="7">
         <f t="shared" si="4"/>
         <v>44672.920100572708</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>44211</v>
       </c>
@@ -1195,16 +1302,20 @@
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
-      <c r="H26" s="6">
+      <c r="H26" s="13"/>
+      <c r="I26" s="13">
+        <v>0</v>
+      </c>
+      <c r="J26" s="6">
         <f t="shared" si="3"/>
         <v>455.6327683615819</v>
       </c>
-      <c r="I26" s="7">
+      <c r="K26" s="7">
         <f t="shared" si="4"/>
         <v>44666.632768361582</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>44212</v>
       </c>
@@ -1225,16 +1336,20 @@
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
-      <c r="H27" s="6">
+      <c r="H27" s="13"/>
+      <c r="I27" s="13">
+        <v>0</v>
+      </c>
+      <c r="J27" s="6">
         <f t="shared" si="3"/>
         <v>493.28445440956654</v>
       </c>
-      <c r="I27" s="7">
+      <c r="K27" s="7">
         <f t="shared" si="4"/>
         <v>44705.284454409564</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>44213</v>
       </c>
@@ -1255,16 +1370,20 @@
       </c>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
-      <c r="H28" s="6">
+      <c r="H28" s="13"/>
+      <c r="I28" s="13">
+        <v>0</v>
+      </c>
+      <c r="J28" s="6">
         <f t="shared" si="3"/>
         <v>572.2776331771646</v>
       </c>
-      <c r="I28" s="7">
+      <c r="K28" s="7">
         <f t="shared" si="4"/>
         <v>44785.277633177167</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>44214</v>
       </c>
@@ -1285,16 +1404,20 @@
       </c>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
-      <c r="H29" s="6">
+      <c r="H29" s="13"/>
+      <c r="I29" s="13">
+        <v>0</v>
+      </c>
+      <c r="J29" s="6">
         <f t="shared" si="3"/>
         <v>592.26649905719671</v>
       </c>
-      <c r="I29" s="7">
+      <c r="K29" s="7">
         <f t="shared" si="4"/>
         <v>44806.266499057194</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>44215</v>
       </c>
@@ -1315,16 +1438,20 @@
       </c>
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
-      <c r="H30" s="6">
+      <c r="H30" s="13"/>
+      <c r="I30" s="13">
+        <v>0</v>
+      </c>
+      <c r="J30" s="6">
         <f t="shared" si="3"/>
         <v>610.60437956204385</v>
       </c>
-      <c r="I30" s="7">
+      <c r="K30" s="7">
         <f t="shared" si="4"/>
         <v>44825.604379562043</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>44216</v>
       </c>
@@ -1345,16 +1472,20 @@
       </c>
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
-      <c r="H31" s="6">
+      <c r="H31" s="13"/>
+      <c r="I31" s="13">
+        <v>0</v>
+      </c>
+      <c r="J31" s="6">
         <f t="shared" si="3"/>
         <v>700.41528424976696</v>
       </c>
-      <c r="I31" s="7">
+      <c r="K31" s="7">
         <f t="shared" si="4"/>
         <v>44916.415284249764</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>44217</v>
       </c>
@@ -1375,16 +1506,20 @@
       </c>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
-      <c r="H32" s="6">
+      <c r="H32" s="13"/>
+      <c r="I32" s="13">
+        <v>0</v>
+      </c>
+      <c r="J32" s="6">
         <f t="shared" si="3"/>
         <v>776.03473945409428</v>
       </c>
-      <c r="I32" s="7">
+      <c r="K32" s="7">
         <f t="shared" si="4"/>
         <v>44993.034739454095</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>44218</v>
       </c>
@@ -1405,16 +1540,20 @@
       </c>
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
-      <c r="H33" s="6">
+      <c r="H33" s="13"/>
+      <c r="I33" s="13">
+        <v>0</v>
+      </c>
+      <c r="J33" s="6">
         <f t="shared" si="3"/>
         <v>927.91881188118816</v>
       </c>
-      <c r="I33" s="7">
+      <c r="K33" s="7">
         <f t="shared" si="4"/>
         <v>45145.918811881187</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>44219</v>
       </c>
@@ -1435,16 +1574,20 @@
       </c>
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
-      <c r="H34" s="6">
+      <c r="H34" s="13"/>
+      <c r="I34" s="13">
+        <v>0</v>
+      </c>
+      <c r="J34" s="6">
         <f t="shared" si="3"/>
         <v>1108.7801124593075</v>
       </c>
-      <c r="I34" s="7">
+      <c r="K34" s="7">
         <f t="shared" si="4"/>
         <v>45327.78011245931</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>44220</v>
       </c>
@@ -1465,16 +1608,20 @@
       </c>
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
-      <c r="H35" s="6">
+      <c r="H35" s="13"/>
+      <c r="I35" s="13">
+        <v>0</v>
+      </c>
+      <c r="J35" s="6">
         <f t="shared" si="3"/>
         <v>990.45344619105208</v>
       </c>
-      <c r="I35" s="7">
+      <c r="K35" s="7">
         <f t="shared" si="4"/>
         <v>45210.453446191052</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>44221</v>
       </c>
@@ -1495,16 +1642,20 @@
       </c>
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
-      <c r="H36" s="6">
+      <c r="H36" s="13"/>
+      <c r="I36" s="13">
+        <v>0</v>
+      </c>
+      <c r="J36" s="6">
         <f t="shared" si="3"/>
         <v>1107.5008454514712</v>
       </c>
-      <c r="I36" s="7">
+      <c r="K36" s="7">
         <f t="shared" si="4"/>
         <v>45328.500845451468</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>44222</v>
       </c>
@@ -1525,16 +1676,20 @@
       </c>
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
-      <c r="H37" s="6">
+      <c r="H37" s="13"/>
+      <c r="I37" s="13">
+        <v>0</v>
+      </c>
+      <c r="J37" s="6">
         <f t="shared" si="3"/>
         <v>1243.5904255319149</v>
       </c>
-      <c r="I37" s="7">
+      <c r="K37" s="7">
         <f t="shared" si="4"/>
         <v>45465.590425531918</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>44223</v>
       </c>
@@ -1555,16 +1710,20 @@
       </c>
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
-      <c r="H38" s="6">
+      <c r="H38" s="13"/>
+      <c r="I38" s="13">
+        <v>0</v>
+      </c>
+      <c r="J38" s="6">
         <f t="shared" si="3"/>
         <v>1258.5019245573517</v>
       </c>
-      <c r="I38" s="7">
+      <c r="K38" s="7">
         <f t="shared" si="4"/>
         <v>45481.501924557349</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>44224</v>
       </c>
@@ -1585,16 +1744,20 @@
       </c>
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
-      <c r="H39" s="6">
+      <c r="H39" s="13"/>
+      <c r="I39" s="13">
+        <v>0</v>
+      </c>
+      <c r="J39" s="6">
         <f t="shared" si="3"/>
         <v>1434.8000878734622</v>
       </c>
-      <c r="I39" s="7">
+      <c r="K39" s="7">
         <f t="shared" si="4"/>
         <v>45658.80008787346</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>44225</v>
       </c>
@@ -1615,16 +1778,20 @@
       </c>
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
-      <c r="H40" s="6">
+      <c r="H40" s="13"/>
+      <c r="I40" s="13">
+        <v>0</v>
+      </c>
+      <c r="J40" s="6">
         <f t="shared" si="3"/>
         <v>1586.9037433155081</v>
       </c>
-      <c r="I40" s="7">
+      <c r="K40" s="7">
         <f t="shared" si="4"/>
         <v>45811.90374331551</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>44226</v>
       </c>
@@ -1645,16 +1812,20 @@
       </c>
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
-      <c r="H41" s="6">
+      <c r="H41" s="13"/>
+      <c r="I41" s="13">
+        <v>0</v>
+      </c>
+      <c r="J41" s="6">
         <f t="shared" si="3"/>
         <v>1817.2873051224944</v>
       </c>
-      <c r="I41" s="7">
+      <c r="K41" s="7">
         <f t="shared" si="4"/>
         <v>46043.287305122496</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>44227</v>
       </c>
@@ -1675,16 +1846,20 @@
       </c>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
-      <c r="H42" s="6">
-        <f t="shared" ref="H42:H73" si="10">D42/C42</f>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13">
+        <v>0</v>
+      </c>
+      <c r="J42" s="6">
+        <f t="shared" ref="J42:J73" si="10">D42/C42</f>
         <v>2070.9695431472082</v>
       </c>
-      <c r="I42" s="7">
-        <f t="shared" ref="I42:I73" si="11">A42+H42</f>
+      <c r="K42" s="7">
+        <f t="shared" ref="K42:K73" si="11">A42+J42</f>
         <v>46297.969543147206</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>44228</v>
       </c>
@@ -1705,16 +1880,20 @@
       </c>
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
-      <c r="H43" s="6">
+      <c r="H43" s="13"/>
+      <c r="I43" s="13">
+        <v>0</v>
+      </c>
+      <c r="J43" s="6">
         <f t="shared" si="10"/>
         <v>2040.0466699076326</v>
       </c>
-      <c r="I43" s="7">
+      <c r="K43" s="7">
         <f t="shared" si="11"/>
         <v>46268.046669907635</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>44229</v>
       </c>
@@ -1735,16 +1914,20 @@
       </c>
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
-      <c r="H44" s="6">
+      <c r="H44" s="13"/>
+      <c r="I44" s="13">
+        <v>0</v>
+      </c>
+      <c r="J44" s="6">
         <f t="shared" si="10"/>
         <v>1926.5167661920075</v>
       </c>
-      <c r="I44" s="7">
+      <c r="K44" s="7">
         <f t="shared" si="11"/>
         <v>46155.516766192006</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>44230</v>
       </c>
@@ -1765,16 +1948,20 @@
       </c>
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
-      <c r="H45" s="6">
+      <c r="H45" s="13"/>
+      <c r="I45" s="13">
+        <v>0</v>
+      </c>
+      <c r="J45" s="6">
         <f t="shared" si="10"/>
         <v>1761.6506935687264</v>
       </c>
-      <c r="I45" s="7">
+      <c r="K45" s="7">
         <f t="shared" si="11"/>
         <v>45991.650693568728</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>44231</v>
       </c>
@@ -1795,16 +1982,20 @@
       </c>
       <c r="F46" s="13"/>
       <c r="G46" s="13"/>
-      <c r="H46" s="6">
+      <c r="H46" s="13"/>
+      <c r="I46" s="13">
+        <v>0</v>
+      </c>
+      <c r="J46" s="6">
         <f t="shared" si="10"/>
         <v>1959.241459990641</v>
       </c>
-      <c r="I46" s="7">
+      <c r="K46" s="7">
         <f t="shared" si="11"/>
         <v>46190.241459990641</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>44232</v>
       </c>
@@ -1825,16 +2016,20 @@
       </c>
       <c r="F47" s="13"/>
       <c r="G47" s="13"/>
-      <c r="H47" s="6">
+      <c r="H47" s="13"/>
+      <c r="I47" s="13">
+        <v>0</v>
+      </c>
+      <c r="J47" s="6">
         <f t="shared" si="10"/>
         <v>2011.7899038461537</v>
       </c>
-      <c r="I47" s="7">
+      <c r="K47" s="7">
         <f t="shared" si="11"/>
         <v>46243.789903846155</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>44233</v>
       </c>
@@ -1855,16 +2050,20 @@
       </c>
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
-      <c r="H48" s="6">
+      <c r="H48" s="13"/>
+      <c r="I48" s="13">
+        <v>0</v>
+      </c>
+      <c r="J48" s="6">
         <f t="shared" si="10"/>
         <v>1741.6312499999999</v>
       </c>
-      <c r="I48" s="7">
+      <c r="K48" s="7">
         <f t="shared" si="11"/>
         <v>45974.631249999999</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>44234</v>
       </c>
@@ -1885,16 +2084,20 @@
       </c>
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
-      <c r="H49" s="6">
+      <c r="H49" s="13"/>
+      <c r="I49" s="13">
+        <v>0</v>
+      </c>
+      <c r="J49" s="6">
         <f t="shared" si="10"/>
         <v>1137.0661764705883</v>
       </c>
-      <c r="I49" s="7">
+      <c r="K49" s="7">
         <f t="shared" si="11"/>
         <v>45371.066176470587</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>44235</v>
       </c>
@@ -1915,16 +2118,20 @@
       </c>
       <c r="F50" s="13"/>
       <c r="G50" s="13"/>
-      <c r="H50" s="6">
+      <c r="H50" s="13"/>
+      <c r="I50" s="13">
+        <v>0</v>
+      </c>
+      <c r="J50" s="6">
         <f t="shared" si="10"/>
         <v>1035.0529674537331</v>
       </c>
-      <c r="I50" s="7">
+      <c r="K50" s="7">
         <f t="shared" si="11"/>
         <v>45270.052967453732</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>44236</v>
       </c>
@@ -1945,16 +2152,20 @@
       </c>
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
-      <c r="H51" s="6">
+      <c r="H51" s="13"/>
+      <c r="I51" s="13">
+        <v>0</v>
+      </c>
+      <c r="J51" s="6">
         <f t="shared" si="10"/>
         <v>954.08804475853935</v>
       </c>
-      <c r="I51" s="7">
+      <c r="K51" s="7">
         <f t="shared" si="11"/>
         <v>45190.088044758537</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>44237</v>
       </c>
@@ -1975,16 +2186,20 @@
       </c>
       <c r="F52" s="13"/>
       <c r="G52" s="13"/>
-      <c r="H52" s="6">
+      <c r="H52" s="13"/>
+      <c r="I52" s="13">
+        <v>0</v>
+      </c>
+      <c r="J52" s="6">
         <f t="shared" si="10"/>
         <v>962.76971139541797</v>
       </c>
-      <c r="I52" s="7">
+      <c r="K52" s="7">
         <f t="shared" si="11"/>
         <v>45199.76971139542</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>44238</v>
       </c>
@@ -2005,16 +2220,20 @@
       </c>
       <c r="F53" s="13"/>
       <c r="G53" s="13"/>
-      <c r="H53" s="6">
+      <c r="H53" s="13"/>
+      <c r="I53" s="13">
+        <v>0</v>
+      </c>
+      <c r="J53" s="6">
         <f t="shared" si="10"/>
         <v>870.00807319698595</v>
       </c>
-      <c r="I53" s="7">
+      <c r="K53" s="7">
         <f t="shared" si="11"/>
         <v>45108.008073196987</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>44239</v>
       </c>
@@ -2035,16 +2254,20 @@
       </c>
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
-      <c r="H54" s="6">
+      <c r="H54" s="13"/>
+      <c r="I54" s="13">
+        <v>0</v>
+      </c>
+      <c r="J54" s="6">
         <f t="shared" si="10"/>
         <v>842.76089793787514</v>
       </c>
-      <c r="I54" s="7">
+      <c r="K54" s="7">
         <f t="shared" si="11"/>
         <v>45081.760897937878</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>44240</v>
       </c>
@@ -2065,16 +2288,20 @@
       </c>
       <c r="F55" s="13"/>
       <c r="G55" s="13"/>
-      <c r="H55" s="6">
+      <c r="H55" s="13"/>
+      <c r="I55" s="13">
+        <v>0</v>
+      </c>
+      <c r="J55" s="6">
         <f t="shared" si="10"/>
         <v>827.99897277863374</v>
       </c>
-      <c r="I55" s="7">
+      <c r="K55" s="7">
         <f t="shared" si="11"/>
         <v>45067.998972778631</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>44241</v>
       </c>
@@ -2095,16 +2322,20 @@
       </c>
       <c r="F56" s="13"/>
       <c r="G56" s="13"/>
-      <c r="H56" s="6">
+      <c r="H56" s="13"/>
+      <c r="I56" s="13">
+        <v>0</v>
+      </c>
+      <c r="J56" s="6">
         <f t="shared" si="10"/>
         <v>849.43365866525983</v>
       </c>
-      <c r="I56" s="7">
+      <c r="K56" s="7">
         <f t="shared" si="11"/>
         <v>45090.433658665257</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>44242</v>
       </c>
@@ -2125,16 +2356,20 @@
       </c>
       <c r="F57" s="13"/>
       <c r="G57" s="13"/>
-      <c r="H57" s="6">
+      <c r="H57" s="13"/>
+      <c r="I57" s="13">
+        <v>0</v>
+      </c>
+      <c r="J57" s="6">
         <f t="shared" si="10"/>
         <v>989.33548585485858</v>
       </c>
-      <c r="I57" s="7">
+      <c r="K57" s="7">
         <f t="shared" si="11"/>
         <v>45231.335485854856</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>44243</v>
       </c>
@@ -2155,16 +2390,20 @@
       </c>
       <c r="F58" s="13"/>
       <c r="G58" s="13"/>
-      <c r="H58" s="6">
+      <c r="H58" s="13"/>
+      <c r="I58" s="13">
+        <v>0</v>
+      </c>
+      <c r="J58" s="6">
         <f t="shared" si="10"/>
         <v>964.56873032528858</v>
       </c>
-      <c r="I58" s="7">
+      <c r="K58" s="7">
         <f t="shared" si="11"/>
         <v>45207.568730325285</v>
       </c>
     </row>
-    <row r="59" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>44244</v>
       </c>
@@ -2185,16 +2424,20 @@
       </c>
       <c r="F59" s="13"/>
       <c r="G59" s="13"/>
-      <c r="H59" s="6">
+      <c r="H59" s="13"/>
+      <c r="I59" s="13">
+        <v>0</v>
+      </c>
+      <c r="J59" s="6">
         <f t="shared" si="10"/>
         <v>964.15227093725389</v>
       </c>
-      <c r="I59" s="7">
+      <c r="K59" s="7">
         <f t="shared" si="11"/>
         <v>45208.152270937251</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>44245</v>
       </c>
@@ -2215,16 +2458,20 @@
       </c>
       <c r="F60" s="13"/>
       <c r="G60" s="13"/>
-      <c r="H60" s="6">
+      <c r="H60" s="13"/>
+      <c r="I60" s="13">
+        <v>0</v>
+      </c>
+      <c r="J60" s="6">
         <f t="shared" si="10"/>
         <v>835.26850375768618</v>
       </c>
-      <c r="I60" s="7">
+      <c r="K60" s="7">
         <f t="shared" si="11"/>
         <v>45080.268503757688</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>44246</v>
       </c>
@@ -2245,16 +2492,20 @@
       </c>
       <c r="F61" s="13"/>
       <c r="G61" s="13"/>
-      <c r="H61" s="6">
+      <c r="H61" s="13"/>
+      <c r="I61" s="13">
+        <v>0</v>
+      </c>
+      <c r="J61" s="6">
         <f t="shared" si="10"/>
         <v>748.09321340964846</v>
       </c>
-      <c r="I61" s="7">
+      <c r="K61" s="7">
         <f t="shared" si="11"/>
         <v>44994.093213409651</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>44247</v>
       </c>
@@ -2275,16 +2526,20 @@
       </c>
       <c r="F62" s="13"/>
       <c r="G62" s="13"/>
-      <c r="H62" s="6">
+      <c r="H62" s="13"/>
+      <c r="I62" s="13">
+        <v>0</v>
+      </c>
+      <c r="J62" s="6">
         <f t="shared" si="10"/>
         <v>743.52586558044811</v>
       </c>
-      <c r="I62" s="7">
+      <c r="K62" s="7">
         <f t="shared" si="11"/>
         <v>44990.52586558045</v>
       </c>
     </row>
-    <row r="63" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>44248</v>
       </c>
@@ -2305,16 +2560,20 @@
       </c>
       <c r="F63" s="13"/>
       <c r="G63" s="13"/>
-      <c r="H63" s="6">
+      <c r="H63" s="13"/>
+      <c r="I63" s="13">
+        <v>0</v>
+      </c>
+      <c r="J63" s="6">
         <f t="shared" si="10"/>
         <v>707.46206093537739</v>
       </c>
-      <c r="I63" s="7">
+      <c r="K63" s="7">
         <f t="shared" si="11"/>
         <v>44955.462060935381</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>44249</v>
       </c>
@@ -2335,16 +2594,20 @@
       </c>
       <c r="F64" s="13"/>
       <c r="G64" s="13"/>
-      <c r="H64" s="6">
+      <c r="H64" s="13"/>
+      <c r="I64" s="13">
+        <v>0</v>
+      </c>
+      <c r="J64" s="6">
         <f t="shared" si="10"/>
         <v>609.63660731380435</v>
       </c>
-      <c r="I64" s="7">
+      <c r="K64" s="7">
         <f t="shared" si="11"/>
         <v>44858.636607313805</v>
       </c>
     </row>
-    <row r="65" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>44250</v>
       </c>
@@ -2365,16 +2628,20 @@
       </c>
       <c r="F65" s="13"/>
       <c r="G65" s="13"/>
-      <c r="H65" s="6">
+      <c r="H65" s="13"/>
+      <c r="I65" s="13">
+        <v>0</v>
+      </c>
+      <c r="J65" s="6">
         <f t="shared" si="10"/>
         <v>580.53622923891226</v>
       </c>
-      <c r="I65" s="7">
+      <c r="K65" s="7">
         <f t="shared" si="11"/>
         <v>44830.536229238911</v>
       </c>
     </row>
-    <row r="66" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>44251</v>
       </c>
@@ -2395,16 +2662,20 @@
       </c>
       <c r="F66" s="13"/>
       <c r="G66" s="13"/>
-      <c r="H66" s="6">
+      <c r="H66" s="13"/>
+      <c r="I66" s="13">
+        <v>0</v>
+      </c>
+      <c r="J66" s="6">
         <f t="shared" si="10"/>
         <v>574.56496561708286</v>
       </c>
-      <c r="I66" s="7">
+      <c r="K66" s="7">
         <f t="shared" si="11"/>
         <v>44825.564965617086</v>
       </c>
     </row>
-    <row r="67" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>44252</v>
       </c>
@@ -2425,16 +2696,20 @@
       </c>
       <c r="F67" s="13"/>
       <c r="G67" s="13"/>
-      <c r="H67" s="6">
+      <c r="H67" s="13"/>
+      <c r="I67" s="13">
+        <v>0</v>
+      </c>
+      <c r="J67" s="6">
         <f t="shared" si="10"/>
         <v>611.71599459772335</v>
       </c>
-      <c r="I67" s="7">
+      <c r="K67" s="7">
         <f t="shared" si="11"/>
         <v>44863.715994597726</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>44253</v>
       </c>
@@ -2455,16 +2730,20 @@
       </c>
       <c r="F68" s="13"/>
       <c r="G68" s="13"/>
-      <c r="H68" s="6">
+      <c r="H68" s="13"/>
+      <c r="I68" s="13">
+        <v>0</v>
+      </c>
+      <c r="J68" s="6">
         <f t="shared" si="10"/>
         <v>656.83236514522821</v>
       </c>
-      <c r="I68" s="7">
+      <c r="K68" s="7">
         <f t="shared" si="11"/>
         <v>44909.83236514523</v>
       </c>
     </row>
-    <row r="69" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>44254</v>
       </c>
@@ -2485,16 +2764,20 @@
       </c>
       <c r="F69" s="13"/>
       <c r="G69" s="13"/>
-      <c r="H69" s="6">
+      <c r="H69" s="13"/>
+      <c r="I69" s="13">
+        <v>0</v>
+      </c>
+      <c r="J69" s="6">
         <f t="shared" si="10"/>
         <v>650.73769816759318</v>
       </c>
-      <c r="I69" s="7">
+      <c r="K69" s="7">
         <f t="shared" si="11"/>
         <v>44904.737698167592</v>
       </c>
     </row>
-    <row r="70" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>44255</v>
       </c>
@@ -2515,16 +2798,20 @@
       </c>
       <c r="F70" s="13"/>
       <c r="G70" s="13"/>
-      <c r="H70" s="6">
+      <c r="H70" s="13"/>
+      <c r="I70" s="13">
+        <v>0</v>
+      </c>
+      <c r="J70" s="6">
         <f t="shared" si="10"/>
         <v>667.76534066864156</v>
       </c>
-      <c r="I70" s="7">
+      <c r="K70" s="7">
         <f t="shared" si="11"/>
         <v>44922.765340668644</v>
       </c>
     </row>
-    <row r="71" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>44256</v>
       </c>
@@ -2545,16 +2832,20 @@
       </c>
       <c r="F71" s="13"/>
       <c r="G71" s="13"/>
-      <c r="H71" s="6">
+      <c r="H71" s="13"/>
+      <c r="I71" s="13">
+        <v>0</v>
+      </c>
+      <c r="J71" s="6">
         <f t="shared" si="10"/>
         <v>652.66155758077889</v>
       </c>
-      <c r="I71" s="7">
+      <c r="K71" s="7">
         <f t="shared" si="11"/>
         <v>44908.661557580781</v>
       </c>
     </row>
-    <row r="72" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>44257</v>
       </c>
@@ -2575,16 +2866,20 @@
       </c>
       <c r="F72" s="13"/>
       <c r="G72" s="13"/>
-      <c r="H72" s="6">
+      <c r="H72" s="13"/>
+      <c r="I72" s="13">
+        <v>0</v>
+      </c>
+      <c r="J72" s="6">
         <f t="shared" si="10"/>
         <v>616.44701273261501</v>
       </c>
-      <c r="I72" s="7">
+      <c r="K72" s="7">
         <f t="shared" si="11"/>
         <v>44873.447012732613</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>44258</v>
       </c>
@@ -2605,16 +2900,20 @@
       </c>
       <c r="F73" s="13"/>
       <c r="G73" s="13"/>
-      <c r="H73" s="6">
+      <c r="H73" s="13"/>
+      <c r="I73" s="13">
+        <v>0</v>
+      </c>
+      <c r="J73" s="6">
         <f t="shared" si="10"/>
         <v>557.40607244318187</v>
       </c>
-      <c r="I73" s="7">
+      <c r="K73" s="7">
         <f t="shared" si="11"/>
         <v>44815.406072443184</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>44259</v>
       </c>
@@ -2635,16 +2934,20 @@
       </c>
       <c r="F74" s="13"/>
       <c r="G74" s="13"/>
-      <c r="H74" s="6">
-        <f t="shared" ref="H74:H99" si="18">D74/C74</f>
+      <c r="H74" s="13"/>
+      <c r="I74" s="13">
+        <v>0</v>
+      </c>
+      <c r="J74" s="6">
+        <f t="shared" ref="J74:J99" si="18">D74/C74</f>
         <v>449.03198049619965</v>
       </c>
-      <c r="I74" s="7">
-        <f t="shared" ref="I74:I99" si="19">A74+H74</f>
+      <c r="K74" s="7">
+        <f t="shared" ref="K74:K99" si="19">A74+J74</f>
         <v>44708.031980496198</v>
       </c>
     </row>
-    <row r="75" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>44260</v>
       </c>
@@ -2665,16 +2968,20 @@
       </c>
       <c r="F75" s="13"/>
       <c r="G75" s="13"/>
-      <c r="H75" s="6">
+      <c r="H75" s="13"/>
+      <c r="I75" s="13">
+        <v>0</v>
+      </c>
+      <c r="J75" s="6">
         <f t="shared" si="18"/>
         <v>392.04137844296315</v>
       </c>
-      <c r="I75" s="7">
+      <c r="K75" s="7">
         <f t="shared" si="19"/>
         <v>44652.041378442962</v>
       </c>
     </row>
-    <row r="76" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>44261</v>
       </c>
@@ -2695,16 +3002,20 @@
       </c>
       <c r="F76" s="13"/>
       <c r="G76" s="13"/>
-      <c r="H76" s="6">
+      <c r="H76" s="13"/>
+      <c r="I76" s="13">
+        <v>0</v>
+      </c>
+      <c r="J76" s="6">
         <f t="shared" si="18"/>
         <v>352.79809112600844</v>
       </c>
-      <c r="I76" s="7">
+      <c r="K76" s="7">
         <f t="shared" si="19"/>
         <v>44613.798091126009</v>
       </c>
     </row>
-    <row r="77" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>44262</v>
       </c>
@@ -2725,16 +3036,20 @@
       </c>
       <c r="F77" s="13"/>
       <c r="G77" s="13"/>
-      <c r="H77" s="6">
+      <c r="H77" s="13"/>
+      <c r="I77" s="13">
+        <v>0</v>
+      </c>
+      <c r="J77" s="6">
         <f t="shared" si="18"/>
         <v>327.88513298717811</v>
       </c>
-      <c r="I77" s="7">
+      <c r="K77" s="7">
         <f t="shared" si="19"/>
         <v>44589.885132987176</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>44263</v>
       </c>
@@ -2755,16 +3070,20 @@
       </c>
       <c r="F78" s="13"/>
       <c r="G78" s="13"/>
-      <c r="H78" s="6">
+      <c r="H78" s="13"/>
+      <c r="I78" s="13">
+        <v>0</v>
+      </c>
+      <c r="J78" s="6">
         <f t="shared" si="18"/>
         <v>297.46321473339117</v>
       </c>
-      <c r="I78" s="7">
+      <c r="K78" s="7">
         <f t="shared" si="19"/>
         <v>44560.46321473339</v>
       </c>
     </row>
-    <row r="79" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>44264</v>
       </c>
@@ -2785,16 +3104,20 @@
       </c>
       <c r="F79" s="13"/>
       <c r="G79" s="13"/>
-      <c r="H79" s="6">
+      <c r="H79" s="13"/>
+      <c r="I79" s="13">
+        <v>0</v>
+      </c>
+      <c r="J79" s="6">
         <f t="shared" si="18"/>
         <v>280.96920124291722</v>
       </c>
-      <c r="I79" s="7">
+      <c r="K79" s="7">
         <f t="shared" si="19"/>
         <v>44544.969201242915</v>
       </c>
     </row>
-    <row r="80" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>44265</v>
       </c>
@@ -2815,16 +3138,20 @@
       </c>
       <c r="F80" s="13"/>
       <c r="G80" s="13"/>
-      <c r="H80" s="6">
+      <c r="H80" s="13"/>
+      <c r="I80" s="13">
+        <v>0</v>
+      </c>
+      <c r="J80" s="6">
         <f t="shared" si="18"/>
         <v>267.57967849030229</v>
       </c>
-      <c r="I80" s="7">
+      <c r="K80" s="7">
         <f t="shared" si="19"/>
         <v>44532.5796784903</v>
       </c>
     </row>
-    <row r="81" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>44266</v>
       </c>
@@ -2845,16 +3172,20 @@
       </c>
       <c r="F81" s="13"/>
       <c r="G81" s="13"/>
-      <c r="H81" s="6">
+      <c r="H81" s="13"/>
+      <c r="I81" s="13">
+        <v>0</v>
+      </c>
+      <c r="J81" s="6">
         <f t="shared" si="18"/>
         <v>275.68247944339026</v>
       </c>
-      <c r="I81" s="7">
+      <c r="K81" s="7">
         <f t="shared" si="19"/>
         <v>44541.682479443392</v>
       </c>
     </row>
-    <row r="82" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>44267</v>
       </c>
@@ -2875,16 +3206,20 @@
       </c>
       <c r="F82" s="13"/>
       <c r="G82" s="13"/>
-      <c r="H82" s="6">
+      <c r="H82" s="13"/>
+      <c r="I82" s="13">
+        <v>0</v>
+      </c>
+      <c r="J82" s="6">
         <f t="shared" si="18"/>
         <v>271.71288102261553</v>
       </c>
-      <c r="I82" s="7">
+      <c r="K82" s="7">
         <f t="shared" si="19"/>
         <v>44538.712881022613</v>
       </c>
     </row>
-    <row r="83" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>44268</v>
       </c>
@@ -2905,16 +3240,20 @@
       </c>
       <c r="F83" s="13"/>
       <c r="G83" s="13"/>
-      <c r="H83" s="6">
+      <c r="H83" s="13"/>
+      <c r="I83" s="13">
+        <v>0</v>
+      </c>
+      <c r="J83" s="6">
         <f t="shared" si="18"/>
         <v>264.36081753864966</v>
       </c>
-      <c r="I83" s="7">
+      <c r="K83" s="7">
         <f t="shared" si="19"/>
         <v>44532.360817538647</v>
       </c>
     </row>
-    <row r="84" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>44269</v>
       </c>
@@ -2935,16 +3274,20 @@
       </c>
       <c r="F84" s="13"/>
       <c r="G84" s="13"/>
-      <c r="H84" s="6">
+      <c r="H84" s="13"/>
+      <c r="I84" s="13">
+        <v>0</v>
+      </c>
+      <c r="J84" s="6">
         <f t="shared" si="18"/>
         <v>253.15882748194187</v>
       </c>
-      <c r="I84" s="7">
+      <c r="K84" s="7">
         <f t="shared" si="19"/>
         <v>44522.158827481944</v>
       </c>
     </row>
-    <row r="85" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>44270</v>
       </c>
@@ -2965,16 +3308,20 @@
       </c>
       <c r="F85" s="13"/>
       <c r="G85" s="13"/>
-      <c r="H85" s="6">
+      <c r="H85" s="13"/>
+      <c r="I85" s="13">
+        <v>0</v>
+      </c>
+      <c r="J85" s="6">
         <f t="shared" si="18"/>
         <v>239.28962053571428</v>
       </c>
-      <c r="I85" s="7">
+      <c r="K85" s="7">
         <f t="shared" si="19"/>
         <v>44509.289620535717</v>
       </c>
     </row>
-    <row r="86" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>44271</v>
       </c>
@@ -2995,16 +3342,20 @@
       </c>
       <c r="F86" s="13"/>
       <c r="G86" s="13"/>
-      <c r="H86" s="6">
+      <c r="H86" s="13"/>
+      <c r="I86" s="13">
+        <v>0</v>
+      </c>
+      <c r="J86" s="6">
         <f t="shared" si="18"/>
         <v>237.25428979980936</v>
       </c>
-      <c r="I86" s="7">
+      <c r="K86" s="7">
         <f t="shared" si="19"/>
         <v>44508.254289799806</v>
       </c>
     </row>
-    <row r="87" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>44272</v>
       </c>
@@ -3025,16 +3376,20 @@
       </c>
       <c r="F87" s="13"/>
       <c r="G87" s="13"/>
-      <c r="H87" s="6">
+      <c r="H87" s="13"/>
+      <c r="I87" s="13">
+        <v>0</v>
+      </c>
+      <c r="J87" s="6">
         <f t="shared" si="18"/>
         <v>239.53945885005638</v>
       </c>
-      <c r="I87" s="7">
+      <c r="K87" s="7">
         <f t="shared" si="19"/>
         <v>44511.539458850057</v>
       </c>
     </row>
-    <row r="88" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>44273</v>
       </c>
@@ -3055,16 +3410,20 @@
       </c>
       <c r="F88" s="13"/>
       <c r="G88" s="13"/>
-      <c r="H88" s="6">
+      <c r="H88" s="13"/>
+      <c r="I88" s="13">
+        <v>0</v>
+      </c>
+      <c r="J88" s="6">
         <f t="shared" si="18"/>
         <v>240.41300997647824</v>
       </c>
-      <c r="I88" s="7">
+      <c r="K88" s="7">
         <f t="shared" si="19"/>
         <v>44513.413009976481</v>
       </c>
     </row>
-    <row r="89" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>44274</v>
       </c>
@@ -3085,16 +3444,20 @@
       </c>
       <c r="F89" s="13"/>
       <c r="G89" s="13"/>
-      <c r="H89" s="6">
+      <c r="H89" s="13"/>
+      <c r="I89" s="13">
+        <v>0</v>
+      </c>
+      <c r="J89" s="6">
         <f t="shared" si="18"/>
         <v>247.39060144077737</v>
       </c>
-      <c r="I89" s="7">
+      <c r="K89" s="7">
         <f t="shared" si="19"/>
         <v>44521.390601440777</v>
       </c>
     </row>
-    <row r="90" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>44275</v>
       </c>
@@ -3115,16 +3478,20 @@
       </c>
       <c r="F90" s="13"/>
       <c r="G90" s="13"/>
-      <c r="H90" s="6">
+      <c r="H90" s="13"/>
+      <c r="I90" s="13">
+        <v>0</v>
+      </c>
+      <c r="J90" s="6">
         <f t="shared" si="18"/>
         <v>252.36674669867946</v>
       </c>
-      <c r="I90" s="7">
+      <c r="K90" s="7">
         <f t="shared" si="19"/>
         <v>44527.366746698681</v>
       </c>
     </row>
-    <row r="91" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>44276</v>
       </c>
@@ -3145,20 +3512,24 @@
       </c>
       <c r="F91" s="13"/>
       <c r="G91" s="13"/>
-      <c r="H91" s="6">
+      <c r="H91" s="13"/>
+      <c r="I91" s="13">
+        <v>0</v>
+      </c>
+      <c r="J91" s="6">
         <f t="shared" si="18"/>
         <v>259.97118794326241</v>
       </c>
-      <c r="I91" s="7">
+      <c r="K91" s="7">
         <f t="shared" si="19"/>
         <v>44535.971187943265</v>
       </c>
-      <c r="J91" s="6">
-        <f t="shared" ref="J91:J97" si="22">D91/84</f>
+      <c r="L91" s="6">
+        <f t="shared" ref="L91:L97" si="22">D91/84</f>
         <v>4987.2023809523807</v>
       </c>
     </row>
-    <row r="92" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>44277</v>
       </c>
@@ -3179,20 +3550,24 @@
       </c>
       <c r="F92" s="13"/>
       <c r="G92" s="13"/>
-      <c r="H92" s="6">
+      <c r="H92" s="13"/>
+      <c r="I92" s="13">
+        <v>0</v>
+      </c>
+      <c r="J92" s="6">
         <f t="shared" si="18"/>
         <v>278.27182709701992</v>
       </c>
-      <c r="I92" s="7">
+      <c r="K92" s="7">
         <f t="shared" si="19"/>
         <v>44555.271827097022</v>
       </c>
-      <c r="J92" s="6">
+      <c r="L92" s="6">
         <f t="shared" si="22"/>
         <v>4970.5595238095239</v>
       </c>
     </row>
-    <row r="93" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>44278</v>
       </c>
@@ -3213,20 +3588,24 @@
       </c>
       <c r="F93" s="13"/>
       <c r="G93" s="13"/>
-      <c r="H93" s="6">
+      <c r="H93" s="13"/>
+      <c r="I93" s="13">
+        <v>0</v>
+      </c>
+      <c r="J93" s="6">
         <f t="shared" si="18"/>
         <v>283.70042851577716</v>
       </c>
-      <c r="I93" s="7">
+      <c r="K93" s="7">
         <f t="shared" si="19"/>
         <v>44561.700428515775</v>
       </c>
-      <c r="J93" s="6">
+      <c r="L93" s="6">
         <f t="shared" si="22"/>
         <v>4954.1428571428569</v>
       </c>
     </row>
-    <row r="94" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>44279</v>
       </c>
@@ -3246,20 +3625,24 @@
       </c>
       <c r="F94" s="13"/>
       <c r="G94" s="13"/>
-      <c r="H94" s="6">
+      <c r="H94" s="13"/>
+      <c r="I94" s="13">
+        <v>0</v>
+      </c>
+      <c r="J94" s="6">
         <f t="shared" si="18"/>
         <v>242.56079217849083</v>
       </c>
-      <c r="I94" s="7">
+      <c r="K94" s="7">
         <f t="shared" si="19"/>
         <v>44521.56079217849</v>
       </c>
-      <c r="J94" s="6">
+      <c r="L94" s="6">
         <f t="shared" si="22"/>
         <v>4936.6071428571431</v>
       </c>
     </row>
-    <row r="95" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>44280</v>
       </c>
@@ -3280,20 +3663,24 @@
       </c>
       <c r="F95" s="13"/>
       <c r="G95" s="13"/>
-      <c r="H95" s="6">
+      <c r="H95" s="13"/>
+      <c r="I95" s="13">
+        <v>0</v>
+      </c>
+      <c r="J95" s="6">
         <f t="shared" si="18"/>
         <v>211.10253591322194</v>
       </c>
-      <c r="I95" s="7">
+      <c r="K95" s="7">
         <f t="shared" si="19"/>
         <v>44491.102535913225</v>
       </c>
-      <c r="J95" s="6">
+      <c r="L95" s="6">
         <f t="shared" si="22"/>
         <v>4898.4404761904761</v>
       </c>
     </row>
-    <row r="96" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>44281</v>
       </c>
@@ -3314,20 +3701,24 @@
       </c>
       <c r="F96" s="13"/>
       <c r="G96" s="13"/>
-      <c r="H96" s="6">
+      <c r="H96" s="13"/>
+      <c r="I96" s="13">
+        <v>0</v>
+      </c>
+      <c r="J96" s="6">
         <f t="shared" si="18"/>
         <v>188.52601041735346</v>
       </c>
-      <c r="I96" s="7">
+      <c r="K96" s="7">
         <f t="shared" si="19"/>
         <v>44469.52601041735</v>
       </c>
-      <c r="J96" s="6">
+      <c r="L96" s="6">
         <f t="shared" si="22"/>
         <v>4862.8809523809523</v>
       </c>
     </row>
-    <row r="97" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>44282</v>
       </c>
@@ -3348,20 +3739,24 @@
       </c>
       <c r="F97" s="13"/>
       <c r="G97" s="13"/>
-      <c r="H97" s="6">
+      <c r="H97" s="13"/>
+      <c r="I97" s="13">
+        <v>0</v>
+      </c>
+      <c r="J97" s="6">
         <f t="shared" si="18"/>
         <v>171.01777215494909</v>
       </c>
-      <c r="I97" s="7">
+      <c r="K97" s="7">
         <f t="shared" si="19"/>
         <v>44453.017772154948</v>
       </c>
-      <c r="J97" s="6">
+      <c r="L97" s="6">
         <f t="shared" si="22"/>
         <v>4827.7619047619046</v>
       </c>
     </row>
-    <row r="98" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>44283</v>
       </c>
@@ -3382,20 +3777,24 @@
       </c>
       <c r="F98" s="13"/>
       <c r="G98" s="13"/>
-      <c r="H98" s="6">
+      <c r="H98" s="13"/>
+      <c r="I98" s="13">
+        <v>0</v>
+      </c>
+      <c r="J98" s="6">
         <f t="shared" si="18"/>
         <v>161.1394724823019</v>
       </c>
-      <c r="I98" s="7">
+      <c r="K98" s="7">
         <f t="shared" si="19"/>
         <v>44444.139472482304</v>
       </c>
-      <c r="J98" s="6">
+      <c r="L98" s="6">
         <f>D98/84</f>
         <v>4800.2023809523807</v>
       </c>
     </row>
-    <row r="99" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>44284</v>
       </c>
@@ -3416,20 +3815,24 @@
       </c>
       <c r="F99" s="13"/>
       <c r="G99" s="13"/>
-      <c r="H99" s="6">
+      <c r="H99" s="13"/>
+      <c r="I99" s="13">
+        <v>0</v>
+      </c>
+      <c r="J99" s="6">
         <f t="shared" si="18"/>
         <v>149.66744943160592</v>
       </c>
-      <c r="I99" s="7">
+      <c r="K99" s="7">
         <f t="shared" si="19"/>
         <v>44433.667449431603</v>
       </c>
-      <c r="J99" s="6">
+      <c r="L99" s="6">
         <f>D99/84</f>
         <v>4769.25</v>
       </c>
     </row>
-    <row r="100" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>44285</v>
       </c>
@@ -3450,20 +3853,24 @@
       </c>
       <c r="F100" s="13"/>
       <c r="G100" s="13"/>
-      <c r="H100" s="6">
-        <f t="shared" ref="H100" si="26">D100/C100</f>
+      <c r="H100" s="13"/>
+      <c r="I100" s="13">
+        <v>0</v>
+      </c>
+      <c r="J100" s="6">
+        <f t="shared" ref="J100" si="26">D100/C100</f>
         <v>136.05394170579029</v>
       </c>
-      <c r="I100" s="7">
-        <f t="shared" ref="I100" si="27">A100+H100</f>
+      <c r="K100" s="7">
+        <f t="shared" ref="K100" si="27">A100+J100</f>
         <v>44421.053941705788</v>
       </c>
-      <c r="J100" s="6">
-        <f t="shared" ref="J100:J101" si="28">D100/84</f>
+      <c r="L100" s="6">
+        <f t="shared" ref="L100:L101" si="28">D100/84</f>
         <v>4731.3452380952385</v>
       </c>
     </row>
-    <row r="101" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>44286</v>
       </c>
@@ -3484,20 +3891,24 @@
       </c>
       <c r="F101" s="13"/>
       <c r="G101" s="13"/>
-      <c r="H101" s="6">
-        <f t="shared" ref="H101" si="31">D101/C101</f>
+      <c r="H101" s="13"/>
+      <c r="I101" s="13">
+        <v>0</v>
+      </c>
+      <c r="J101" s="6">
+        <f t="shared" ref="J101" si="31">D101/C101</f>
         <v>131.11976589265322</v>
       </c>
-      <c r="I101" s="7">
-        <f t="shared" ref="I101" si="32">A101+H101</f>
+      <c r="K101" s="7">
+        <f t="shared" ref="K101" si="32">A101+J101</f>
         <v>44417.119765892654</v>
       </c>
-      <c r="J101" s="6">
+      <c r="L101" s="6">
         <f t="shared" si="28"/>
         <v>4686.416666666667</v>
       </c>
     </row>
-    <row r="102" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>44287</v>
       </c>
@@ -3518,20 +3929,24 @@
       </c>
       <c r="F102" s="13"/>
       <c r="G102" s="13"/>
-      <c r="H102" s="6">
-        <f t="shared" ref="H102" si="35">D102/C102</f>
+      <c r="H102" s="13"/>
+      <c r="I102" s="13">
+        <v>0</v>
+      </c>
+      <c r="J102" s="6">
+        <f t="shared" ref="J102" si="35">D102/C102</f>
         <v>127.07266210492017</v>
       </c>
-      <c r="I102" s="7">
-        <f t="shared" ref="I102" si="36">A102+H102</f>
+      <c r="K102" s="7">
+        <f t="shared" ref="K102" si="36">A102+J102</f>
         <v>44414.072662104918</v>
       </c>
-      <c r="J102" s="6">
-        <f t="shared" ref="J102" si="37">D102/84</f>
+      <c r="L102" s="6">
+        <f t="shared" ref="L102" si="37">D102/84</f>
         <v>4642.6904761904761</v>
       </c>
     </row>
-    <row r="103" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <v>44288</v>
       </c>
@@ -3552,20 +3967,24 @@
       </c>
       <c r="F103" s="13"/>
       <c r="G103" s="13"/>
-      <c r="H103" s="6">
-        <f t="shared" ref="H103" si="40">D103/C103</f>
+      <c r="H103" s="13"/>
+      <c r="I103" s="13">
+        <v>0</v>
+      </c>
+      <c r="J103" s="6">
+        <f t="shared" ref="J103" si="40">D103/C103</f>
         <v>123.66645341132386</v>
       </c>
-      <c r="I103" s="7">
-        <f t="shared" ref="I103" si="41">A103+H103</f>
+      <c r="K103" s="7">
+        <f t="shared" ref="K103" si="41">A103+J103</f>
         <v>44411.666453411322</v>
       </c>
-      <c r="J103" s="6">
-        <f t="shared" ref="J103" si="42">D103/84</f>
+      <c r="L103" s="6">
+        <f t="shared" ref="L103" si="42">D103/84</f>
         <v>4602.3690476190477</v>
       </c>
     </row>
-    <row r="104" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
         <v>44289</v>
       </c>
@@ -3586,20 +4005,24 @@
       </c>
       <c r="F104" s="13"/>
       <c r="G104" s="13"/>
-      <c r="H104" s="6">
-        <f t="shared" ref="H104" si="46">D104/C104</f>
+      <c r="H104" s="13"/>
+      <c r="I104" s="13">
+        <v>0</v>
+      </c>
+      <c r="J104" s="6">
+        <f t="shared" ref="J104" si="46">D104/C104</f>
         <v>119.20477481883253</v>
       </c>
-      <c r="I104" s="7">
-        <f t="shared" ref="I104" si="47">A104+H104</f>
+      <c r="K104" s="7">
+        <f t="shared" ref="K104" si="47">A104+J104</f>
         <v>44408.204774818834</v>
       </c>
-      <c r="J104" s="6">
-        <f t="shared" ref="J104" si="48">D104/84</f>
+      <c r="L104" s="6">
+        <f t="shared" ref="L104" si="48">D104/84</f>
         <v>4559.9880952380954</v>
       </c>
     </row>
-    <row r="105" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
         <v>44290</v>
       </c>
@@ -3620,20 +4043,24 @@
       </c>
       <c r="F105" s="13"/>
       <c r="G105" s="13"/>
-      <c r="H105" s="6">
-        <f t="shared" ref="H105" si="51">D105/C105</f>
+      <c r="H105" s="13"/>
+      <c r="I105" s="13">
+        <v>0</v>
+      </c>
+      <c r="J105" s="6">
+        <f t="shared" ref="J105" si="51">D105/C105</f>
         <v>110.94897618052654</v>
       </c>
-      <c r="I105" s="7">
-        <f t="shared" ref="I105" si="52">A105+H105</f>
+      <c r="K105" s="7">
+        <f t="shared" ref="K105" si="52">A105+J105</f>
         <v>44400.948976180523</v>
       </c>
-      <c r="J105" s="6">
-        <f t="shared" ref="J105" si="53">D105/84</f>
+      <c r="L105" s="6">
+        <f t="shared" ref="L105" si="53">D105/84</f>
         <v>4515.3214285714284</v>
       </c>
     </row>
-    <row r="106" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
         <v>44291</v>
       </c>
@@ -3654,20 +4081,24 @@
       </c>
       <c r="F106" s="13"/>
       <c r="G106" s="13"/>
-      <c r="H106" s="6">
-        <f t="shared" ref="H106" si="56">D106/C106</f>
+      <c r="H106" s="13"/>
+      <c r="I106" s="13">
+        <v>0</v>
+      </c>
+      <c r="J106" s="6">
+        <f t="shared" ref="J106" si="56">D106/C106</f>
         <v>104.77484156403204</v>
       </c>
-      <c r="I106" s="7">
-        <f t="shared" ref="I106" si="57">A106+H106</f>
+      <c r="K106" s="7">
+        <f t="shared" ref="K106" si="57">A106+J106</f>
         <v>44395.774841564031</v>
       </c>
-      <c r="J106" s="6">
-        <f t="shared" ref="J106" si="58">D106/84</f>
+      <c r="L106" s="6">
+        <f t="shared" ref="L106" si="58">D106/84</f>
         <v>4470.5714285714284</v>
       </c>
     </row>
-    <row r="107" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
         <v>44292</v>
       </c>
@@ -3688,20 +4119,24 @@
       </c>
       <c r="F107" s="13"/>
       <c r="G107" s="13"/>
-      <c r="H107" s="6">
-        <f t="shared" ref="H107" si="61">D107/C107</f>
+      <c r="H107" s="13"/>
+      <c r="I107" s="13">
+        <v>0</v>
+      </c>
+      <c r="J107" s="6">
+        <f t="shared" ref="J107" si="61">D107/C107</f>
         <v>103.36301967629323</v>
       </c>
-      <c r="I107" s="7">
-        <f t="shared" ref="I107" si="62">A107+H107</f>
+      <c r="K107" s="7">
+        <f t="shared" ref="K107" si="62">A107+J107</f>
         <v>44395.36301967629</v>
       </c>
-      <c r="J107" s="6">
-        <f t="shared" ref="J107" si="63">D107/84</f>
+      <c r="L107" s="6">
+        <f t="shared" ref="L107" si="63">D107/84</f>
         <v>4431.25</v>
       </c>
     </row>
-    <row r="108" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
         <v>44293</v>
       </c>
@@ -3722,20 +4157,24 @@
       </c>
       <c r="F108" s="13"/>
       <c r="G108" s="13"/>
-      <c r="H108" s="6">
-        <f t="shared" ref="H108" si="66">D108/C108</f>
+      <c r="H108" s="13"/>
+      <c r="I108" s="13">
+        <v>0</v>
+      </c>
+      <c r="J108" s="6">
+        <f t="shared" ref="J108" si="66">D108/C108</f>
         <v>105.33644516918059</v>
       </c>
-      <c r="I108" s="7">
-        <f t="shared" ref="I108" si="67">A108+H108</f>
+      <c r="K108" s="7">
+        <f t="shared" ref="K108" si="67">A108+J108</f>
         <v>44398.336445169181</v>
       </c>
-      <c r="J108" s="6">
-        <f t="shared" ref="J108" si="68">D108/84</f>
+      <c r="L108" s="6">
+        <f t="shared" ref="L108" si="68">D108/84</f>
         <v>4394.3928571428569</v>
       </c>
     </row>
-    <row r="109" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
         <v>44294</v>
       </c>
@@ -3756,20 +4195,24 @@
       </c>
       <c r="F109" s="13"/>
       <c r="G109" s="13"/>
-      <c r="H109" s="6">
-        <f t="shared" ref="H109" si="71">D109/C109</f>
+      <c r="H109" s="13"/>
+      <c r="I109" s="13">
+        <v>0</v>
+      </c>
+      <c r="J109" s="6">
+        <f t="shared" ref="J109" si="71">D109/C109</f>
         <v>109.76227544910179</v>
       </c>
-      <c r="I109" s="7">
-        <f t="shared" ref="I109" si="72">A109+H109</f>
+      <c r="K109" s="7">
+        <f t="shared" ref="K109" si="72">A109+J109</f>
         <v>44403.762275449102</v>
       </c>
-      <c r="J109" s="6">
-        <f t="shared" ref="J109" si="73">D109/84</f>
+      <c r="L109" s="6">
+        <f t="shared" ref="L109" si="73">D109/84</f>
         <v>4364.3571428571431</v>
       </c>
     </row>
-    <row r="110" spans="1:10" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
         <v>44295</v>
       </c>
@@ -3790,20 +4233,24 @@
       </c>
       <c r="F110" s="13"/>
       <c r="G110" s="13"/>
-      <c r="H110" s="6">
-        <f t="shared" ref="H110" si="76">D110/C110</f>
+      <c r="H110" s="13"/>
+      <c r="I110" s="13">
+        <v>0</v>
+      </c>
+      <c r="J110" s="6">
+        <f t="shared" ref="J110" si="76">D110/C110</f>
         <v>105.88974637076589</v>
       </c>
-      <c r="I110" s="7">
-        <f t="shared" ref="I110" si="77">A110+H110</f>
+      <c r="K110" s="7">
+        <f t="shared" ref="K110" si="77">A110+J110</f>
         <v>44400.889746370769</v>
       </c>
-      <c r="J110" s="6">
-        <f t="shared" ref="J110" si="78">D110/84</f>
+      <c r="L110" s="6">
+        <f t="shared" ref="L110" si="78">D110/84</f>
         <v>4316.9880952380954</v>
       </c>
     </row>
-    <row r="111" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
         <v>44296</v>
       </c>
@@ -3824,20 +4271,24 @@
       </c>
       <c r="F111" s="13"/>
       <c r="G111" s="13"/>
-      <c r="H111" s="6">
-        <f t="shared" ref="H111" si="82">D111/C111</f>
+      <c r="H111" s="13"/>
+      <c r="I111" s="13">
+        <v>0</v>
+      </c>
+      <c r="J111" s="6">
+        <f t="shared" ref="J111" si="82">D111/C111</f>
         <v>102.90625512379079</v>
       </c>
-      <c r="I111" s="7">
-        <f t="shared" ref="I111" si="83">A111+H111</f>
+      <c r="K111" s="7">
+        <f t="shared" ref="K111" si="83">A111+J111</f>
         <v>44398.906255123788</v>
       </c>
-      <c r="J111" s="6">
-        <f t="shared" ref="J111" si="84">D111/84</f>
+      <c r="L111" s="6">
+        <f t="shared" ref="L111" si="84">D111/84</f>
         <v>4269.5595238095239</v>
       </c>
     </row>
-    <row r="112" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
         <v>44297</v>
       </c>
@@ -3858,20 +4309,24 @@
       </c>
       <c r="F112" s="13"/>
       <c r="G112" s="13"/>
-      <c r="H112" s="6">
-        <f t="shared" ref="H112" si="88">D112/C112</f>
+      <c r="H112" s="13"/>
+      <c r="I112" s="13">
+        <v>0</v>
+      </c>
+      <c r="J112" s="6">
+        <f t="shared" ref="J112" si="88">D112/C112</f>
         <v>101.01501220504475</v>
       </c>
-      <c r="I112" s="7">
-        <f t="shared" ref="I112" si="89">A112+H112</f>
+      <c r="K112" s="7">
+        <f t="shared" ref="K112" si="89">A112+J112</f>
         <v>44398.015012205047</v>
       </c>
-      <c r="J112" s="6">
-        <f t="shared" ref="J112" si="90">D112/84</f>
+      <c r="L112" s="6">
+        <f t="shared" ref="L112" si="90">D112/84</f>
         <v>4222.7023809523807</v>
       </c>
     </row>
-    <row r="113" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
         <v>44298</v>
       </c>
@@ -3883,7 +4338,7 @@
         <v>3504.2857142857142</v>
       </c>
       <c r="D113" s="5">
-        <f t="shared" ref="D113:D117" si="92">(D112-B113)</f>
+        <f t="shared" ref="D113:D115" si="92">(D112-B113)</f>
         <v>350998</v>
       </c>
       <c r="E113" s="5">
@@ -3892,20 +4347,24 @@
       </c>
       <c r="F113" s="13"/>
       <c r="G113" s="13"/>
-      <c r="H113" s="6">
-        <f t="shared" ref="H113" si="94">D113/C113</f>
+      <c r="H113" s="13"/>
+      <c r="I113" s="13">
+        <v>0</v>
+      </c>
+      <c r="J113" s="6">
+        <f t="shared" ref="J113" si="94">D113/C113</f>
         <v>100.16249490419894</v>
       </c>
-      <c r="I113" s="7">
-        <f t="shared" ref="I113" si="95">A113+H113</f>
+      <c r="K113" s="7">
+        <f t="shared" ref="K113" si="95">A113+J113</f>
         <v>44398.162494904202</v>
       </c>
-      <c r="J113" s="6">
-        <f t="shared" ref="J113" si="96">D113/84</f>
+      <c r="L113" s="6">
+        <f t="shared" ref="L113" si="96">D113/84</f>
         <v>4178.5476190476193</v>
       </c>
     </row>
-    <row r="114" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
         <v>44299</v>
       </c>
@@ -3926,20 +4385,24 @@
       </c>
       <c r="F114" s="13"/>
       <c r="G114" s="13"/>
-      <c r="H114" s="6">
-        <f t="shared" ref="H114" si="99">D114/C114</f>
+      <c r="H114" s="13"/>
+      <c r="I114" s="13">
+        <v>0</v>
+      </c>
+      <c r="J114" s="6">
+        <f t="shared" ref="J114" si="99">D114/C114</f>
         <v>94.943542392112363</v>
       </c>
-      <c r="I114" s="7">
-        <f t="shared" ref="I114" si="100">A114+H114</f>
+      <c r="K114" s="7">
+        <f t="shared" ref="K114" si="100">A114+J114</f>
         <v>44393.94354239211</v>
       </c>
-      <c r="J114" s="6">
-        <f t="shared" ref="J114" si="101">D114/84</f>
+      <c r="L114" s="6">
+        <f t="shared" ref="L114" si="101">D114/84</f>
         <v>4126.9761904761908</v>
       </c>
     </row>
-    <row r="115" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="4">
         <v>44300</v>
       </c>
@@ -3960,20 +4423,24 @@
       </c>
       <c r="F115" s="13"/>
       <c r="G115" s="13"/>
-      <c r="H115" s="6">
-        <f t="shared" ref="H115" si="104">D115/C115</f>
+      <c r="H115" s="13"/>
+      <c r="I115" s="13">
+        <v>0</v>
+      </c>
+      <c r="J115" s="6">
+        <f t="shared" ref="J115" si="104">D115/C115</f>
         <v>90.241570073761849</v>
       </c>
-      <c r="I115" s="7">
-        <f t="shared" ref="I115" si="105">A115+H115</f>
+      <c r="K115" s="7">
+        <f t="shared" ref="K115" si="105">A115+J115</f>
         <v>44390.241570073762</v>
       </c>
-      <c r="J115" s="6">
-        <f t="shared" ref="J115" si="106">D115/84</f>
+      <c r="L115" s="6">
+        <f t="shared" ref="L115" si="106">D115/84</f>
         <v>4078.0595238095239</v>
       </c>
     </row>
-    <row r="116" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
         <v>44301</v>
       </c>
@@ -3985,8 +4452,8 @@
         <v>3918</v>
       </c>
       <c r="D116" s="5">
-        <f t="shared" si="92"/>
-        <v>339180</v>
+        <f>(D115-B116)-I116</f>
+        <v>332027</v>
       </c>
       <c r="E116" s="5">
         <f t="shared" ref="E116" si="108">E115+B116</f>
@@ -3999,58 +4466,122 @@
       <c r="G116" s="13">
         <v>14306</v>
       </c>
-      <c r="H116" s="6">
+      <c r="H116" s="13">
+        <f>(G116*2)</f>
+        <v>28612</v>
+      </c>
+      <c r="I116" s="13">
+        <f>G116/2</f>
+        <v>7153</v>
+      </c>
+      <c r="J116" s="6">
         <f>D116/C116</f>
-        <v>86.569678407350693</v>
-      </c>
-      <c r="I116" s="7">
-        <f>A116+H116</f>
-        <v>44387.569678407352</v>
-      </c>
-      <c r="J116" s="6">
-        <f t="shared" ref="J116" si="109">D116/84</f>
-        <v>4037.8571428571427</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="8">
+        <v>84.744002041858096</v>
+      </c>
+      <c r="K116" s="7">
+        <f>A116+J116</f>
+        <v>44385.744002041858</v>
+      </c>
+      <c r="L116" s="6">
+        <f t="shared" ref="L116" si="109">D116/84</f>
+        <v>3952.7023809523807</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" s="5" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="4">
         <v>44302</v>
       </c>
-      <c r="B117" s="9">
+      <c r="B117" s="5">
         <v>3912</v>
       </c>
-      <c r="C117" s="10">
+      <c r="C117" s="6">
         <f t="shared" ref="C117" si="110">(AVERAGE(B111:B117))</f>
         <v>3908.4285714285716</v>
       </c>
-      <c r="D117" s="9">
-        <f t="shared" si="92"/>
-        <v>335268</v>
-      </c>
-      <c r="E117" s="9">
+      <c r="D117" s="5">
+        <f>(D116-B117)-I117</f>
+        <v>328115</v>
+      </c>
+      <c r="E117" s="5">
         <f t="shared" ref="E117" si="111">E116+B117</f>
         <v>151443</v>
       </c>
-      <c r="F117" s="14" t="e">
+      <c r="F117" s="13">
         <f>(E117-G117)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G117" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H117" s="10">
+        <v>137137</v>
+      </c>
+      <c r="G117" s="13">
+        <v>14306</v>
+      </c>
+      <c r="H117" s="13">
+        <f>(G117*2)</f>
+        <v>28612</v>
+      </c>
+      <c r="I117" s="13">
+        <v>0</v>
+      </c>
+      <c r="J117" s="6">
         <f>D117/C117</f>
-        <v>85.780766840893307</v>
-      </c>
-      <c r="I117" s="11">
-        <f>A117+H117</f>
-        <v>44387.780766840893</v>
-      </c>
-      <c r="J117" s="10">
-        <f t="shared" ref="J117" si="112">D117/84</f>
-        <v>3991.2857142857142</v>
-      </c>
-      <c r="K117" s="9" t="s">
+        <v>83.950619540187873</v>
+      </c>
+      <c r="K117" s="7">
+        <f>A117+J117</f>
+        <v>44385.950619540185</v>
+      </c>
+      <c r="L117" s="6">
+        <f t="shared" ref="L117" si="112">D117/84</f>
+        <v>3906.1309523809523</v>
+      </c>
+      <c r="M117" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" s="9" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="8">
+        <v>44303</v>
+      </c>
+      <c r="B118" s="9">
+        <v>3956</v>
+      </c>
+      <c r="C118" s="10">
+        <f t="shared" ref="C118" si="113">(AVERAGE(B112:B118))</f>
+        <v>3904.4285714285716</v>
+      </c>
+      <c r="D118" s="9">
+        <f>(D117-B118)-I118</f>
+        <v>324159</v>
+      </c>
+      <c r="E118" s="9">
+        <f t="shared" ref="E118" si="114">E117+B118</f>
+        <v>155399</v>
+      </c>
+      <c r="F118" s="14">
+        <f>(E118-G118)</f>
+        <v>141093</v>
+      </c>
+      <c r="G118" s="14">
+        <v>14306</v>
+      </c>
+      <c r="H118" s="14">
+        <f>(G118*2)</f>
+        <v>28612</v>
+      </c>
+      <c r="I118" s="14">
+        <v>0</v>
+      </c>
+      <c r="J118" s="10">
+        <f>D118/C118</f>
+        <v>83.023416633127212</v>
+      </c>
+      <c r="K118" s="11">
+        <f>A118+J118</f>
+        <v>44386.023416633128</v>
+      </c>
+      <c r="L118" s="10">
+        <f t="shared" ref="L118" si="115">D118/84</f>
+        <v>3859.0357142857142</v>
+      </c>
+      <c r="M118" s="9" t="s">
         <v>6</v>
       </c>
     </row>

--- a/durham_daily_vaccinations.xlsx
+++ b/durham_daily_vaccinations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7463F1-39A0-6446-A4EB-504A130A382D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A97649-0C2B-CF48-A3A3-EB9F1CAD0CA0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19640" xr2:uid="{D878B493-02AB-054E-B330-D20DF148DE7B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -488,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E82AD24-C064-B648-8062-B01E1A5F7A8D}">
-  <dimension ref="A1:M118"/>
+  <dimension ref="A1:M119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="E129" sqref="E129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4293,19 +4293,19 @@
         <v>44297</v>
       </c>
       <c r="B112" s="5">
-        <v>3936</v>
+        <v>3935</v>
       </c>
       <c r="C112" s="6">
         <f t="shared" ref="C112" si="85">(AVERAGE(B106:B112))</f>
-        <v>3511.4285714285716</v>
+        <v>3511.2857142857142</v>
       </c>
       <c r="D112" s="5">
         <f t="shared" ref="D112" si="86">(D111-B112)</f>
-        <v>354707</v>
+        <v>354708</v>
       </c>
       <c r="E112" s="5">
         <f t="shared" ref="E112" si="87">E111+B112</f>
-        <v>132004</v>
+        <v>132003</v>
       </c>
       <c r="F112" s="13"/>
       <c r="G112" s="13"/>
@@ -4315,15 +4315,15 @@
       </c>
       <c r="J112" s="6">
         <f t="shared" ref="J112" si="88">D112/C112</f>
-        <v>101.01501220504475</v>
+        <v>101.01940681069206</v>
       </c>
       <c r="K112" s="7">
         <f t="shared" ref="K112" si="89">A112+J112</f>
-        <v>44398.015012205047</v>
+        <v>44398.019406810694</v>
       </c>
       <c r="L112" s="6">
         <f t="shared" ref="L112" si="90">D112/84</f>
-        <v>4222.7023809523807</v>
+        <v>4222.7142857142853</v>
       </c>
     </row>
     <row r="113" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -4335,15 +4335,15 @@
       </c>
       <c r="C113" s="6">
         <f t="shared" ref="C113" si="91">(AVERAGE(B107:B113))</f>
-        <v>3504.2857142857142</v>
+        <v>3504.1428571428573</v>
       </c>
       <c r="D113" s="5">
         <f t="shared" ref="D113:D115" si="92">(D112-B113)</f>
-        <v>350998</v>
+        <v>350999</v>
       </c>
       <c r="E113" s="5">
         <f t="shared" ref="E113" si="93">E112+B113</f>
-        <v>135713</v>
+        <v>135712</v>
       </c>
       <c r="F113" s="13"/>
       <c r="G113" s="13"/>
@@ -4353,15 +4353,15 @@
       </c>
       <c r="J113" s="6">
         <f t="shared" ref="J113" si="94">D113/C113</f>
-        <v>100.16249490419894</v>
+        <v>100.16686371234049</v>
       </c>
       <c r="K113" s="7">
         <f t="shared" ref="K113" si="95">A113+J113</f>
-        <v>44398.162494904202</v>
+        <v>44398.166863712344</v>
       </c>
       <c r="L113" s="6">
         <f t="shared" ref="L113" si="96">D113/84</f>
-        <v>4178.5476190476193</v>
+        <v>4178.5595238095239</v>
       </c>
     </row>
     <row r="114" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4373,15 +4373,15 @@
       </c>
       <c r="C114" s="6">
         <f t="shared" ref="C114" si="97">(AVERAGE(B108:B114))</f>
-        <v>3651.2857142857142</v>
+        <v>3651.1428571428573</v>
       </c>
       <c r="D114" s="5">
         <f t="shared" si="92"/>
-        <v>346666</v>
+        <v>346667</v>
       </c>
       <c r="E114" s="5">
         <f t="shared" ref="E114" si="98">E113+B114</f>
-        <v>140045</v>
+        <v>140044</v>
       </c>
       <c r="F114" s="13"/>
       <c r="G114" s="13"/>
@@ -4391,15 +4391,15 @@
       </c>
       <c r="J114" s="6">
         <f t="shared" ref="J114" si="99">D114/C114</f>
-        <v>94.943542392112363</v>
+        <v>94.947531105720316</v>
       </c>
       <c r="K114" s="7">
         <f t="shared" ref="K114" si="100">A114+J114</f>
-        <v>44393.94354239211</v>
+        <v>44393.947531105718</v>
       </c>
       <c r="L114" s="6">
         <f t="shared" ref="L114" si="101">D114/84</f>
-        <v>4126.9761904761908</v>
+        <v>4126.9880952380954</v>
       </c>
     </row>
     <row r="115" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4407,19 +4407,19 @@
         <v>44300</v>
       </c>
       <c r="B115" s="5">
-        <v>4109</v>
+        <v>4111</v>
       </c>
       <c r="C115" s="6">
         <f t="shared" ref="C115" si="102">(AVERAGE(B109:B115))</f>
-        <v>3796</v>
+        <v>3796.1428571428573</v>
       </c>
       <c r="D115" s="5">
         <f t="shared" si="92"/>
-        <v>342557</v>
+        <v>342556</v>
       </c>
       <c r="E115" s="5">
         <f t="shared" ref="E115" si="103">E114+B115</f>
-        <v>144154</v>
+        <v>144155</v>
       </c>
       <c r="F115" s="13"/>
       <c r="G115" s="13"/>
@@ -4429,15 +4429,15 @@
       </c>
       <c r="J115" s="6">
         <f t="shared" ref="J115" si="104">D115/C115</f>
-        <v>90.241570073761849</v>
+        <v>90.237910661197446</v>
       </c>
       <c r="K115" s="7">
         <f t="shared" ref="K115" si="105">A115+J115</f>
-        <v>44390.241570073762</v>
+        <v>44390.237910661199</v>
       </c>
       <c r="L115" s="6">
         <f t="shared" ref="L115" si="106">D115/84</f>
-        <v>4078.0595238095239</v>
+        <v>4078.0476190476193</v>
       </c>
     </row>
     <row r="116" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4449,19 +4449,19 @@
       </c>
       <c r="C116" s="6">
         <f t="shared" ref="C116" si="107">(AVERAGE(B110:B116))</f>
-        <v>3918</v>
+        <v>3918.1428571428573</v>
       </c>
       <c r="D116" s="5">
         <f>(D115-B116)-I116</f>
-        <v>332027</v>
+        <v>332026</v>
       </c>
       <c r="E116" s="5">
         <f t="shared" ref="E116" si="108">E115+B116</f>
-        <v>147531</v>
+        <v>147532</v>
       </c>
       <c r="F116" s="13">
         <f>(E116-G116)</f>
-        <v>133225</v>
+        <v>133226</v>
       </c>
       <c r="G116" s="13">
         <v>14306</v>
@@ -4476,15 +4476,15 @@
       </c>
       <c r="J116" s="6">
         <f>D116/C116</f>
-        <v>84.744002041858096</v>
+        <v>84.740657016808257</v>
       </c>
       <c r="K116" s="7">
         <f>A116+J116</f>
-        <v>44385.744002041858</v>
+        <v>44385.74065701681</v>
       </c>
       <c r="L116" s="6">
         <f t="shared" ref="L116" si="109">D116/84</f>
-        <v>3952.7023809523807</v>
+        <v>3952.6904761904761</v>
       </c>
     </row>
     <row r="117" spans="1:13" s="5" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -4492,23 +4492,23 @@
         <v>44302</v>
       </c>
       <c r="B117" s="5">
-        <v>3912</v>
+        <v>3918</v>
       </c>
       <c r="C117" s="6">
         <f t="shared" ref="C117" si="110">(AVERAGE(B111:B117))</f>
-        <v>3908.4285714285716</v>
+        <v>3909.4285714285716</v>
       </c>
       <c r="D117" s="5">
-        <f>(D116-B117)-I117</f>
-        <v>328115</v>
+        <f>(D116-B117)</f>
+        <v>328108</v>
       </c>
       <c r="E117" s="5">
         <f t="shared" ref="E117" si="111">E116+B117</f>
-        <v>151443</v>
+        <v>151450</v>
       </c>
       <c r="F117" s="13">
         <f>(E117-G117)</f>
-        <v>137137</v>
+        <v>137144</v>
       </c>
       <c r="G117" s="13">
         <v>14306</v>
@@ -4518,70 +4518,116 @@
         <v>28612</v>
       </c>
       <c r="I117" s="13">
-        <v>0</v>
+        <f t="shared" ref="I117:I118" si="112">G117/2</f>
+        <v>7153</v>
       </c>
       <c r="J117" s="6">
         <f>D117/C117</f>
-        <v>83.950619540187873</v>
+        <v>83.927355112182994</v>
       </c>
       <c r="K117" s="7">
         <f>A117+J117</f>
-        <v>44385.950619540185</v>
+        <v>44385.927355112181</v>
       </c>
       <c r="L117" s="6">
-        <f t="shared" ref="L117" si="112">D117/84</f>
-        <v>3906.1309523809523</v>
-      </c>
-      <c r="M117" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" s="9" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="8">
+        <f t="shared" ref="L117" si="113">D117/84</f>
+        <v>3906.0476190476193</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" s="5" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="4">
         <v>44303</v>
       </c>
-      <c r="B118" s="9">
+      <c r="B118" s="5">
         <v>3956</v>
       </c>
-      <c r="C118" s="10">
-        <f t="shared" ref="C118" si="113">(AVERAGE(B112:B118))</f>
-        <v>3904.4285714285716</v>
-      </c>
-      <c r="D118" s="9">
-        <f>(D117-B118)-I118</f>
-        <v>324159</v>
-      </c>
-      <c r="E118" s="9">
-        <f t="shared" ref="E118" si="114">E117+B118</f>
-        <v>155399</v>
-      </c>
-      <c r="F118" s="14">
+      <c r="C118" s="6">
+        <f t="shared" ref="C118" si="114">(AVERAGE(B112:B118))</f>
+        <v>3905.4285714285716</v>
+      </c>
+      <c r="D118" s="5">
+        <f>(D117-B118)</f>
+        <v>324152</v>
+      </c>
+      <c r="E118" s="5">
+        <f t="shared" ref="E118" si="115">E117+B118</f>
+        <v>155406</v>
+      </c>
+      <c r="F118" s="13">
         <f>(E118-G118)</f>
-        <v>141093</v>
-      </c>
-      <c r="G118" s="14">
+        <v>141100</v>
+      </c>
+      <c r="G118" s="13">
         <v>14306</v>
       </c>
-      <c r="H118" s="14">
+      <c r="H118" s="13">
         <f>(G118*2)</f>
         <v>28612</v>
       </c>
-      <c r="I118" s="14">
-        <v>0</v>
-      </c>
-      <c r="J118" s="10">
+      <c r="I118" s="13">
+        <f t="shared" si="112"/>
+        <v>7153</v>
+      </c>
+      <c r="J118" s="6">
         <f>D118/C118</f>
-        <v>83.023416633127212</v>
-      </c>
-      <c r="K118" s="11">
+        <v>83.000365791206377</v>
+      </c>
+      <c r="K118" s="7">
         <f>A118+J118</f>
-        <v>44386.023416633128</v>
-      </c>
-      <c r="L118" s="10">
-        <f t="shared" ref="L118" si="115">D118/84</f>
-        <v>3859.0357142857142</v>
-      </c>
-      <c r="M118" s="9" t="s">
+        <v>44386.000365791209</v>
+      </c>
+      <c r="L118" s="6">
+        <f t="shared" ref="L118" si="116">D118/84</f>
+        <v>3858.9523809523807</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" s="9" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="8">
+        <v>44304</v>
+      </c>
+      <c r="B119" s="9">
+        <v>3541</v>
+      </c>
+      <c r="C119" s="10">
+        <f t="shared" ref="C119" si="117">(AVERAGE(B113:B119))</f>
+        <v>3849.1428571428573</v>
+      </c>
+      <c r="D119" s="9">
+        <f>(D118-B119)</f>
+        <v>320611</v>
+      </c>
+      <c r="E119" s="9">
+        <f t="shared" ref="E119" si="118">E118+B119</f>
+        <v>158947</v>
+      </c>
+      <c r="F119" s="14">
+        <f>(E119-G119)</f>
+        <v>144641</v>
+      </c>
+      <c r="G119" s="14">
+        <v>14306</v>
+      </c>
+      <c r="H119" s="14">
+        <f>(G119*2)</f>
+        <v>28612</v>
+      </c>
+      <c r="I119" s="14">
+        <f t="shared" ref="I119" si="119">G119/2</f>
+        <v>7153</v>
+      </c>
+      <c r="J119" s="10">
+        <f>D119/C119</f>
+        <v>83.29412856294536</v>
+      </c>
+      <c r="K119" s="11">
+        <f>A119+J119</f>
+        <v>44387.294128562942</v>
+      </c>
+      <c r="L119" s="10">
+        <f t="shared" ref="L119" si="120">D119/84</f>
+        <v>3816.7976190476193</v>
+      </c>
+      <c r="M119" s="9" t="s">
         <v>6</v>
       </c>
     </row>

--- a/durham_daily_vaccinations.xlsx
+++ b/durham_daily_vaccinations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A97649-0C2B-CF48-A3A3-EB9F1CAD0CA0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9497D4D4-4CF5-7A45-ABB5-5C87EE4CBF59}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19640" xr2:uid="{D878B493-02AB-054E-B330-D20DF148DE7B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -51,9 +51,6 @@
     <t>days left to complete 1 dose</t>
   </si>
   <si>
-    <t>daily rate to achieve June 20 target</t>
-  </si>
-  <si>
     <t>Total Doses</t>
   </si>
   <si>
@@ -67,6 +64,12 @@
   </si>
   <si>
     <t>Doses administered in fully vaccinated persons</t>
+  </si>
+  <si>
+    <t>population left (second dose)</t>
+  </si>
+  <si>
+    <t>Second Doses (Sum)</t>
   </si>
 </sst>
 </file>
@@ -488,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E82AD24-C064-B648-8062-B01E1A5F7A8D}">
-  <dimension ref="A1:M119"/>
+  <dimension ref="A1:N120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="E129" sqref="E129"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="H128" sqref="H128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -503,14 +506,15 @@
     <col min="5" max="5" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="14.5" style="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="40.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="18" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -524,28 +528,34 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="H1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="12" t="s">
+      <c r="K1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>44187</v>
       </c>
@@ -566,10 +576,20 @@
       <c r="I2" s="13">
         <v>0</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="7"/>
-    </row>
-    <row r="3" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J2" s="13">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="5">
+        <f>(N2-J2)</f>
+        <v>483505</v>
+      </c>
+      <c r="N2" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>44188</v>
       </c>
@@ -590,10 +610,20 @@
       <c r="I3" s="13">
         <v>0</v>
       </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="7"/>
-    </row>
-    <row r="4" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J3" s="13">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="5">
+        <f t="shared" ref="M3:M66" si="1">(N3-J3)</f>
+        <v>483505</v>
+      </c>
+      <c r="N3" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>44189</v>
       </c>
@@ -614,10 +644,20 @@
       <c r="I4" s="13">
         <v>0</v>
       </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J4" s="13">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="5">
+        <f t="shared" si="1"/>
+        <v>483505</v>
+      </c>
+      <c r="N4" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>44190</v>
       </c>
@@ -629,7 +669,7 @@
         <v>483242</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" ref="E5:E68" si="1">E4+B5</f>
+        <f t="shared" ref="E5:E68" si="2">E4+B5</f>
         <v>263</v>
       </c>
       <c r="F5" s="13"/>
@@ -638,10 +678,20 @@
       <c r="I5" s="13">
         <v>0</v>
       </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="7"/>
-    </row>
-    <row r="6" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J5" s="13">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="5">
+        <f t="shared" si="1"/>
+        <v>483505</v>
+      </c>
+      <c r="N5" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>44191</v>
       </c>
@@ -653,7 +703,7 @@
         <v>483242</v>
       </c>
       <c r="E6" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>263</v>
       </c>
       <c r="F6" s="13"/>
@@ -662,10 +712,20 @@
       <c r="I6" s="13">
         <v>0</v>
       </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="7"/>
-    </row>
-    <row r="7" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J6" s="13">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="5">
+        <f t="shared" si="1"/>
+        <v>483505</v>
+      </c>
+      <c r="N6" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>44192</v>
       </c>
@@ -677,7 +737,7 @@
         <v>483242</v>
       </c>
       <c r="E7" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>263</v>
       </c>
       <c r="F7" s="13"/>
@@ -686,10 +746,20 @@
       <c r="I7" s="13">
         <v>0</v>
       </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="7"/>
-    </row>
-    <row r="8" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J7" s="13">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="5">
+        <f t="shared" si="1"/>
+        <v>483505</v>
+      </c>
+      <c r="N7" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>44193</v>
       </c>
@@ -701,7 +771,7 @@
         <v>483242</v>
       </c>
       <c r="E8" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>418</v>
       </c>
       <c r="F8" s="13"/>
@@ -710,10 +780,20 @@
       <c r="I8" s="13">
         <v>0</v>
       </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J8" s="13">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="5">
+        <f t="shared" si="1"/>
+        <v>483505</v>
+      </c>
+      <c r="N8" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>44194</v>
       </c>
@@ -725,7 +805,7 @@
         <v>483087</v>
       </c>
       <c r="E9" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>572</v>
       </c>
       <c r="F9" s="13"/>
@@ -734,10 +814,20 @@
       <c r="I9" s="13">
         <v>0</v>
       </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J9" s="13">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="5">
+        <f t="shared" si="1"/>
+        <v>483505</v>
+      </c>
+      <c r="N9" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>44195</v>
       </c>
@@ -745,7 +835,7 @@
         <v>158</v>
       </c>
       <c r="C10" s="5">
-        <f t="shared" ref="C10" si="2">AVERAGE(B1:B10)</f>
+        <f t="shared" ref="C10" si="3">AVERAGE(B1:B10)</f>
         <v>81.111111111111114</v>
       </c>
       <c r="D10" s="5">
@@ -753,7 +843,7 @@
         <v>482933</v>
       </c>
       <c r="E10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>730</v>
       </c>
       <c r="F10" s="13"/>
@@ -762,16 +852,26 @@
       <c r="I10" s="13">
         <v>0</v>
       </c>
-      <c r="J10" s="6">
-        <f t="shared" ref="J10:J41" si="3">D10/C10</f>
+      <c r="J10" s="13">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
+        <f t="shared" ref="K10:K41" si="4">D10/C10</f>
         <v>5953.9684931506845</v>
       </c>
-      <c r="K10" s="7">
-        <f t="shared" ref="K10:K41" si="4">A10+J10</f>
+      <c r="L10" s="7">
+        <f t="shared" ref="L10:L41" si="5">A10+K10</f>
         <v>50148.968493150685</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M10" s="5">
+        <f t="shared" si="1"/>
+        <v>483505</v>
+      </c>
+      <c r="N10" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>44196</v>
       </c>
@@ -787,7 +887,7 @@
         <v>482775</v>
       </c>
       <c r="E11" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>958</v>
       </c>
       <c r="F11" s="13"/>
@@ -796,16 +896,26 @@
       <c r="I11" s="13">
         <v>0</v>
       </c>
-      <c r="J11" s="6">
-        <f t="shared" si="3"/>
+      <c r="J11" s="13">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
+        <f t="shared" si="4"/>
         <v>5039.4050104384132</v>
       </c>
-      <c r="K11" s="7">
-        <f t="shared" si="4"/>
+      <c r="L11" s="7">
+        <f t="shared" si="5"/>
         <v>49235.405010438415</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M11" s="5">
+        <f t="shared" si="1"/>
+        <v>483505</v>
+      </c>
+      <c r="N11" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>44197</v>
       </c>
@@ -821,7 +931,7 @@
         <v>482547</v>
       </c>
       <c r="E12" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1181</v>
       </c>
       <c r="F12" s="13"/>
@@ -830,16 +940,26 @@
       <c r="I12" s="13">
         <v>0</v>
       </c>
-      <c r="J12" s="6">
-        <f t="shared" si="3"/>
+      <c r="J12" s="13">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6">
+        <f t="shared" si="4"/>
         <v>4255.2645502645501</v>
       </c>
-      <c r="K12" s="7">
-        <f t="shared" si="4"/>
+      <c r="L12" s="7">
+        <f t="shared" si="5"/>
         <v>48452.264550264546</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M12" s="5">
+        <f t="shared" si="1"/>
+        <v>483505</v>
+      </c>
+      <c r="N12" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>44198</v>
       </c>
@@ -855,7 +975,7 @@
         <v>482324</v>
       </c>
       <c r="E13" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1488</v>
       </c>
       <c r="F13" s="13"/>
@@ -864,16 +984,26 @@
       <c r="I13" s="13">
         <v>0</v>
       </c>
-      <c r="J13" s="6">
-        <f t="shared" si="3"/>
+      <c r="J13" s="13">
+        <v>0</v>
+      </c>
+      <c r="K13" s="6">
+        <f t="shared" si="4"/>
         <v>3659.5144157814866</v>
       </c>
-      <c r="K13" s="7">
-        <f t="shared" si="4"/>
+      <c r="L13" s="7">
+        <f t="shared" si="5"/>
         <v>47857.514415781487</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M13" s="5">
+        <f t="shared" si="1"/>
+        <v>483505</v>
+      </c>
+      <c r="N13" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>44199</v>
       </c>
@@ -881,7 +1011,7 @@
         <v>234</v>
       </c>
       <c r="C14" s="5">
-        <f t="shared" ref="C14:C18" si="5">AVERAGE(B8:B14)</f>
+        <f t="shared" ref="C14:C18" si="6">AVERAGE(B8:B14)</f>
         <v>208.42857142857142</v>
       </c>
       <c r="D14" s="5">
@@ -889,7 +1019,7 @@
         <v>482017</v>
       </c>
       <c r="E14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1722</v>
       </c>
       <c r="F14" s="13"/>
@@ -898,16 +1028,26 @@
       <c r="I14" s="13">
         <v>0</v>
       </c>
-      <c r="J14" s="6">
-        <f t="shared" si="3"/>
+      <c r="J14" s="13">
+        <v>0</v>
+      </c>
+      <c r="K14" s="6">
+        <f t="shared" si="4"/>
         <v>2312.6244002741605</v>
       </c>
-      <c r="K14" s="7">
-        <f t="shared" si="4"/>
+      <c r="L14" s="7">
+        <f t="shared" si="5"/>
         <v>46511.624400274159</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M14" s="5">
+        <f t="shared" si="1"/>
+        <v>483505</v>
+      </c>
+      <c r="N14" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>44200</v>
       </c>
@@ -915,7 +1055,7 @@
         <v>225</v>
       </c>
       <c r="C15" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>218.42857142857142</v>
       </c>
       <c r="D15" s="5">
@@ -923,7 +1063,7 @@
         <v>481783</v>
       </c>
       <c r="E15" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1947</v>
       </c>
       <c r="F15" s="13"/>
@@ -932,16 +1072,26 @@
       <c r="I15" s="13">
         <v>0</v>
       </c>
-      <c r="J15" s="6">
-        <f t="shared" si="3"/>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="6">
+        <f t="shared" si="4"/>
         <v>2205.6775670372795</v>
       </c>
-      <c r="K15" s="7">
-        <f t="shared" si="4"/>
+      <c r="L15" s="7">
+        <f t="shared" si="5"/>
         <v>46405.677567037281</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M15" s="5">
+        <f t="shared" si="1"/>
+        <v>483505</v>
+      </c>
+      <c r="N15" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>44201</v>
       </c>
@@ -949,7 +1099,7 @@
         <v>585</v>
       </c>
       <c r="C16" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>280</v>
       </c>
       <c r="D16" s="5">
@@ -957,7 +1107,7 @@
         <v>481558</v>
       </c>
       <c r="E16" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2532</v>
       </c>
       <c r="F16" s="13"/>
@@ -966,16 +1116,26 @@
       <c r="I16" s="13">
         <v>0</v>
       </c>
-      <c r="J16" s="6">
-        <f t="shared" si="3"/>
+      <c r="J16" s="13">
+        <v>0</v>
+      </c>
+      <c r="K16" s="6">
+        <f t="shared" si="4"/>
         <v>1719.85</v>
       </c>
-      <c r="K16" s="7">
-        <f t="shared" si="4"/>
+      <c r="L16" s="7">
+        <f t="shared" si="5"/>
         <v>45920.85</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M16" s="5">
+        <f t="shared" si="1"/>
+        <v>483505</v>
+      </c>
+      <c r="N16" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>44202</v>
       </c>
@@ -983,7 +1143,7 @@
         <v>598</v>
       </c>
       <c r="C17" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>342.85714285714283</v>
       </c>
       <c r="D17" s="5">
@@ -991,7 +1151,7 @@
         <v>480973</v>
       </c>
       <c r="E17" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3130</v>
       </c>
       <c r="F17" s="13"/>
@@ -1000,16 +1160,26 @@
       <c r="I17" s="13">
         <v>0</v>
       </c>
-      <c r="J17" s="6">
-        <f t="shared" si="3"/>
+      <c r="J17" s="13">
+        <v>0</v>
+      </c>
+      <c r="K17" s="6">
+        <f t="shared" si="4"/>
         <v>1402.8379166666668</v>
       </c>
-      <c r="K17" s="7">
-        <f t="shared" si="4"/>
+      <c r="L17" s="7">
+        <f t="shared" si="5"/>
         <v>45604.837916666664</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M17" s="5">
+        <f t="shared" si="1"/>
+        <v>483505</v>
+      </c>
+      <c r="N17" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>44203</v>
       </c>
@@ -1017,7 +1187,7 @@
         <v>855</v>
       </c>
       <c r="C18" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>432.42857142857144</v>
       </c>
       <c r="D18" s="5">
@@ -1025,7 +1195,7 @@
         <v>480375</v>
       </c>
       <c r="E18" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3985</v>
       </c>
       <c r="F18" s="13"/>
@@ -1034,16 +1204,26 @@
       <c r="I18" s="13">
         <v>0</v>
       </c>
-      <c r="J18" s="6">
-        <f t="shared" si="3"/>
+      <c r="J18" s="13">
+        <v>0</v>
+      </c>
+      <c r="K18" s="6">
+        <f t="shared" si="4"/>
         <v>1110.8771060455897</v>
       </c>
-      <c r="K18" s="7">
-        <f t="shared" si="4"/>
+      <c r="L18" s="7">
+        <f t="shared" si="5"/>
         <v>45313.877106045591</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M18" s="5">
+        <f t="shared" si="1"/>
+        <v>483505</v>
+      </c>
+      <c r="N18" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>44204</v>
       </c>
@@ -1051,7 +1231,7 @@
         <v>824</v>
       </c>
       <c r="C19" s="5">
-        <f t="shared" ref="C19:C24" si="6">AVERAGE(B13:B19)</f>
+        <f t="shared" ref="C19:C24" si="7">AVERAGE(B13:B19)</f>
         <v>518.28571428571433</v>
       </c>
       <c r="D19" s="5">
@@ -1059,7 +1239,7 @@
         <v>479520</v>
       </c>
       <c r="E19" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4809</v>
       </c>
       <c r="F19" s="13"/>
@@ -1068,16 +1248,26 @@
       <c r="I19" s="13">
         <v>0</v>
       </c>
-      <c r="J19" s="6">
-        <f t="shared" si="3"/>
+      <c r="J19" s="13">
+        <v>0</v>
+      </c>
+      <c r="K19" s="6">
+        <f t="shared" si="4"/>
         <v>925.20396912899662</v>
       </c>
-      <c r="K19" s="7">
-        <f t="shared" si="4"/>
+      <c r="L19" s="7">
+        <f t="shared" si="5"/>
         <v>45129.203969128997</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M19" s="5">
+        <f t="shared" si="1"/>
+        <v>483505</v>
+      </c>
+      <c r="N19" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>44205</v>
       </c>
@@ -1085,7 +1275,7 @@
         <v>858</v>
       </c>
       <c r="C20" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>597</v>
       </c>
       <c r="D20" s="5">
@@ -1093,7 +1283,7 @@
         <v>478696</v>
       </c>
       <c r="E20" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5667</v>
       </c>
       <c r="F20" s="13"/>
@@ -1102,16 +1292,26 @@
       <c r="I20" s="13">
         <v>0</v>
       </c>
-      <c r="J20" s="6">
-        <f t="shared" si="3"/>
+      <c r="J20" s="13">
+        <v>0</v>
+      </c>
+      <c r="K20" s="6">
+        <f t="shared" si="4"/>
         <v>801.83584589614736</v>
       </c>
-      <c r="K20" s="7">
-        <f t="shared" si="4"/>
+      <c r="L20" s="7">
+        <f t="shared" si="5"/>
         <v>45006.835845896145</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M20" s="5">
+        <f t="shared" si="1"/>
+        <v>483505</v>
+      </c>
+      <c r="N20" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>44206</v>
       </c>
@@ -1119,7 +1319,7 @@
         <v>927</v>
       </c>
       <c r="C21" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>696</v>
       </c>
       <c r="D21" s="5">
@@ -1127,7 +1327,7 @@
         <v>477838</v>
       </c>
       <c r="E21" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6594</v>
       </c>
       <c r="F21" s="13"/>
@@ -1136,16 +1336,26 @@
       <c r="I21" s="13">
         <v>0</v>
       </c>
-      <c r="J21" s="6">
-        <f t="shared" si="3"/>
+      <c r="J21" s="13">
+        <v>0</v>
+      </c>
+      <c r="K21" s="6">
+        <f t="shared" si="4"/>
         <v>686.54885057471267</v>
       </c>
-      <c r="K21" s="7">
-        <f t="shared" si="4"/>
+      <c r="L21" s="7">
+        <f t="shared" si="5"/>
         <v>44892.548850574713</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M21" s="5">
+        <f t="shared" si="1"/>
+        <v>483505</v>
+      </c>
+      <c r="N21" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>44207</v>
       </c>
@@ -1153,7 +1363,7 @@
         <v>1030</v>
       </c>
       <c r="C22" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>811</v>
       </c>
       <c r="D22" s="5">
@@ -1161,7 +1371,7 @@
         <v>476911</v>
       </c>
       <c r="E22" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7624</v>
       </c>
       <c r="F22" s="13"/>
@@ -1170,16 +1380,26 @@
       <c r="I22" s="13">
         <v>0</v>
       </c>
-      <c r="J22" s="6">
-        <f t="shared" si="3"/>
+      <c r="J22" s="13">
+        <v>0</v>
+      </c>
+      <c r="K22" s="6">
+        <f t="shared" si="4"/>
         <v>588.05302096177559</v>
       </c>
-      <c r="K22" s="7">
-        <f t="shared" si="4"/>
+      <c r="L22" s="7">
+        <f t="shared" si="5"/>
         <v>44795.053020961779</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M22" s="5">
+        <f t="shared" si="1"/>
+        <v>483505</v>
+      </c>
+      <c r="N22" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>44208</v>
       </c>
@@ -1187,7 +1407,7 @@
         <v>1403</v>
       </c>
       <c r="C23" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>927.85714285714289</v>
       </c>
       <c r="D23" s="5">
@@ -1195,7 +1415,7 @@
         <v>475881</v>
       </c>
       <c r="E23" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9027</v>
       </c>
       <c r="F23" s="13"/>
@@ -1204,16 +1424,26 @@
       <c r="I23" s="13">
         <v>0</v>
       </c>
-      <c r="J23" s="6">
-        <f t="shared" si="3"/>
+      <c r="J23" s="13">
+        <v>0</v>
+      </c>
+      <c r="K23" s="6">
+        <f t="shared" si="4"/>
         <v>512.88175519630488</v>
       </c>
-      <c r="K23" s="7">
-        <f t="shared" si="4"/>
+      <c r="L23" s="7">
+        <f t="shared" si="5"/>
         <v>44720.881755196307</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M23" s="5">
+        <f t="shared" si="1"/>
+        <v>483505</v>
+      </c>
+      <c r="N23" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>44209</v>
       </c>
@@ -1221,7 +1451,7 @@
         <v>1043</v>
       </c>
       <c r="C24" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>991.42857142857144</v>
       </c>
       <c r="D24" s="5">
@@ -1229,7 +1459,7 @@
         <v>474478</v>
       </c>
       <c r="E24" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10070</v>
       </c>
       <c r="F24" s="13"/>
@@ -1238,16 +1468,26 @@
       <c r="I24" s="13">
         <v>0</v>
       </c>
-      <c r="J24" s="6">
-        <f t="shared" si="3"/>
+      <c r="J24" s="13">
+        <v>0</v>
+      </c>
+      <c r="K24" s="6">
+        <f t="shared" si="4"/>
         <v>478.58011527377522</v>
       </c>
-      <c r="K24" s="7">
-        <f t="shared" si="4"/>
+      <c r="L24" s="7">
+        <f t="shared" si="5"/>
         <v>44687.580115273777</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M24" s="5">
+        <f t="shared" si="1"/>
+        <v>483505</v>
+      </c>
+      <c r="N24" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>44210</v>
       </c>
@@ -1255,7 +1495,7 @@
         <v>1074</v>
       </c>
       <c r="C25" s="5">
-        <f t="shared" ref="C25:C49" si="7">AVERAGE(B19:B25)</f>
+        <f t="shared" ref="C25:C49" si="8">AVERAGE(B19:B25)</f>
         <v>1022.7142857142857</v>
       </c>
       <c r="D25" s="5">
@@ -1263,7 +1503,7 @@
         <v>473435</v>
       </c>
       <c r="E25" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11144</v>
       </c>
       <c r="F25" s="13"/>
@@ -1272,16 +1512,26 @@
       <c r="I25" s="13">
         <v>0</v>
       </c>
-      <c r="J25" s="6">
-        <f t="shared" si="3"/>
+      <c r="J25" s="13">
+        <v>0</v>
+      </c>
+      <c r="K25" s="6">
+        <f t="shared" si="4"/>
         <v>462.92010057270573</v>
       </c>
-      <c r="K25" s="7">
-        <f t="shared" si="4"/>
+      <c r="L25" s="7">
+        <f t="shared" si="5"/>
         <v>44672.920100572708</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M25" s="5">
+        <f t="shared" si="1"/>
+        <v>483505</v>
+      </c>
+      <c r="N25" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>44211</v>
       </c>
@@ -1289,7 +1539,7 @@
         <v>922</v>
       </c>
       <c r="C26" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1036.7142857142858</v>
       </c>
       <c r="D26" s="5">
@@ -1297,7 +1547,7 @@
         <v>472361</v>
       </c>
       <c r="E26" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12066</v>
       </c>
       <c r="F26" s="13"/>
@@ -1306,16 +1556,26 @@
       <c r="I26" s="13">
         <v>0</v>
       </c>
-      <c r="J26" s="6">
-        <f t="shared" si="3"/>
+      <c r="J26" s="13">
+        <v>0</v>
+      </c>
+      <c r="K26" s="6">
+        <f t="shared" si="4"/>
         <v>455.6327683615819</v>
       </c>
-      <c r="K26" s="7">
-        <f t="shared" si="4"/>
+      <c r="L26" s="7">
+        <f t="shared" si="5"/>
         <v>44666.632768361582</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M26" s="5">
+        <f t="shared" si="1"/>
+        <v>483505</v>
+      </c>
+      <c r="N26" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>44212</v>
       </c>
@@ -1323,7 +1583,7 @@
         <v>291</v>
       </c>
       <c r="C27" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>955.71428571428567</v>
       </c>
       <c r="D27" s="5">
@@ -1331,7 +1591,7 @@
         <v>471439</v>
       </c>
       <c r="E27" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12357</v>
       </c>
       <c r="F27" s="13"/>
@@ -1340,16 +1600,26 @@
       <c r="I27" s="13">
         <v>0</v>
       </c>
-      <c r="J27" s="6">
-        <f t="shared" si="3"/>
+      <c r="J27" s="13">
+        <v>0</v>
+      </c>
+      <c r="K27" s="6">
+        <f t="shared" si="4"/>
         <v>493.28445440956654</v>
       </c>
-      <c r="K27" s="7">
-        <f t="shared" si="4"/>
+      <c r="L27" s="7">
+        <f t="shared" si="5"/>
         <v>44705.284454409564</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M27" s="5">
+        <f t="shared" si="1"/>
+        <v>483505</v>
+      </c>
+      <c r="N27" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>44213</v>
       </c>
@@ -1357,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>823.28571428571433</v>
       </c>
       <c r="D28" s="5">
@@ -1365,7 +1635,7 @@
         <v>471148</v>
       </c>
       <c r="E28" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12357</v>
       </c>
       <c r="F28" s="13"/>
@@ -1374,16 +1644,26 @@
       <c r="I28" s="13">
         <v>0</v>
       </c>
-      <c r="J28" s="6">
-        <f t="shared" si="3"/>
+      <c r="J28" s="13">
+        <v>0</v>
+      </c>
+      <c r="K28" s="6">
+        <f t="shared" si="4"/>
         <v>572.2776331771646</v>
       </c>
-      <c r="K28" s="7">
-        <f t="shared" si="4"/>
+      <c r="L28" s="7">
+        <f t="shared" si="5"/>
         <v>44785.277633177167</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M28" s="5">
+        <f t="shared" si="1"/>
+        <v>483505</v>
+      </c>
+      <c r="N28" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>44214</v>
       </c>
@@ -1391,7 +1671,7 @@
         <v>601</v>
       </c>
       <c r="C29" s="5">
-        <f t="shared" ref="C29:C34" si="8">AVERAGE(B22:B29)</f>
+        <f t="shared" ref="C29:C34" si="9">AVERAGE(B22:B29)</f>
         <v>795.5</v>
       </c>
       <c r="D29" s="5">
@@ -1399,7 +1679,7 @@
         <v>471148</v>
       </c>
       <c r="E29" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12958</v>
       </c>
       <c r="F29" s="13"/>
@@ -1408,16 +1688,26 @@
       <c r="I29" s="13">
         <v>0</v>
       </c>
-      <c r="J29" s="6">
-        <f t="shared" si="3"/>
+      <c r="J29" s="13">
+        <v>0</v>
+      </c>
+      <c r="K29" s="6">
+        <f t="shared" si="4"/>
         <v>592.26649905719671</v>
       </c>
-      <c r="K29" s="7">
-        <f t="shared" si="4"/>
+      <c r="L29" s="7">
+        <f t="shared" si="5"/>
         <v>44806.266499057194</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M29" s="5">
+        <f t="shared" si="1"/>
+        <v>483505</v>
+      </c>
+      <c r="N29" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>44215</v>
       </c>
@@ -1425,7 +1715,7 @@
         <v>831</v>
       </c>
       <c r="C30" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>770.625</v>
       </c>
       <c r="D30" s="5">
@@ -1433,7 +1723,7 @@
         <v>470547</v>
       </c>
       <c r="E30" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13789</v>
       </c>
       <c r="F30" s="13"/>
@@ -1442,16 +1732,26 @@
       <c r="I30" s="13">
         <v>0</v>
       </c>
-      <c r="J30" s="6">
-        <f t="shared" si="3"/>
+      <c r="J30" s="13">
+        <v>0</v>
+      </c>
+      <c r="K30" s="6">
+        <f t="shared" si="4"/>
         <v>610.60437956204385</v>
       </c>
-      <c r="K30" s="7">
-        <f t="shared" si="4"/>
+      <c r="L30" s="7">
+        <f t="shared" si="5"/>
         <v>44825.604379562043</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M30" s="5">
+        <f t="shared" si="1"/>
+        <v>483505</v>
+      </c>
+      <c r="N30" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>44216</v>
       </c>
@@ -1459,7 +1759,7 @@
         <v>603</v>
       </c>
       <c r="C31" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>670.625</v>
       </c>
       <c r="D31" s="5">
@@ -1467,7 +1767,7 @@
         <v>469716</v>
       </c>
       <c r="E31" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14392</v>
       </c>
       <c r="F31" s="13"/>
@@ -1476,16 +1776,26 @@
       <c r="I31" s="13">
         <v>0</v>
       </c>
-      <c r="J31" s="6">
-        <f t="shared" si="3"/>
+      <c r="J31" s="13">
+        <v>0</v>
+      </c>
+      <c r="K31" s="6">
+        <f t="shared" si="4"/>
         <v>700.41528424976696</v>
       </c>
-      <c r="K31" s="7">
-        <f t="shared" si="4"/>
+      <c r="L31" s="7">
+        <f t="shared" si="5"/>
         <v>44916.415284249764</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M31" s="5">
+        <f t="shared" si="1"/>
+        <v>483505</v>
+      </c>
+      <c r="N31" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>44217</v>
       </c>
@@ -1493,7 +1803,7 @@
         <v>514</v>
       </c>
       <c r="C32" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>604.5</v>
       </c>
       <c r="D32" s="5">
@@ -1501,7 +1811,7 @@
         <v>469113</v>
       </c>
       <c r="E32" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14906</v>
       </c>
       <c r="F32" s="13"/>
@@ -1510,16 +1820,26 @@
       <c r="I32" s="13">
         <v>0</v>
       </c>
-      <c r="J32" s="6">
-        <f t="shared" si="3"/>
+      <c r="J32" s="13">
+        <v>0</v>
+      </c>
+      <c r="K32" s="6">
+        <f t="shared" si="4"/>
         <v>776.03473945409428</v>
       </c>
-      <c r="K32" s="7">
-        <f t="shared" si="4"/>
+      <c r="L32" s="7">
+        <f t="shared" si="5"/>
         <v>44993.034739454095</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M32" s="5">
+        <f t="shared" si="1"/>
+        <v>483505</v>
+      </c>
+      <c r="N32" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>44218</v>
       </c>
@@ -1527,7 +1847,7 @@
         <v>278</v>
       </c>
       <c r="C33" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>505</v>
       </c>
       <c r="D33" s="5">
@@ -1535,7 +1855,7 @@
         <v>468599</v>
       </c>
       <c r="E33" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15184</v>
       </c>
       <c r="F33" s="13"/>
@@ -1544,16 +1864,26 @@
       <c r="I33" s="13">
         <v>0</v>
       </c>
-      <c r="J33" s="6">
-        <f t="shared" si="3"/>
+      <c r="J33" s="13">
+        <v>0</v>
+      </c>
+      <c r="K33" s="6">
+        <f t="shared" si="4"/>
         <v>927.91881188118816</v>
       </c>
-      <c r="K33" s="7">
-        <f t="shared" si="4"/>
+      <c r="L33" s="7">
+        <f t="shared" si="5"/>
         <v>45145.918811881187</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M33" s="5">
+        <f t="shared" si="1"/>
+        <v>483505</v>
+      </c>
+      <c r="N33" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>44219</v>
       </c>
@@ -1561,15 +1891,15 @@
         <v>261</v>
       </c>
       <c r="C34" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>422.375</v>
       </c>
       <c r="D34" s="5">
-        <f t="shared" ref="D34:D65" si="9">D35+B34</f>
+        <f t="shared" ref="D34:D65" si="10">D35+B34</f>
         <v>468321</v>
       </c>
       <c r="E34" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15445</v>
       </c>
       <c r="F34" s="13"/>
@@ -1578,16 +1908,26 @@
       <c r="I34" s="13">
         <v>0</v>
       </c>
-      <c r="J34" s="6">
-        <f t="shared" si="3"/>
+      <c r="J34" s="13">
+        <v>0</v>
+      </c>
+      <c r="K34" s="6">
+        <f t="shared" si="4"/>
         <v>1108.7801124593075</v>
       </c>
-      <c r="K34" s="7">
-        <f t="shared" si="4"/>
+      <c r="L34" s="7">
+        <f t="shared" si="5"/>
         <v>45327.78011245931</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M34" s="5">
+        <f t="shared" si="1"/>
+        <v>483505</v>
+      </c>
+      <c r="N34" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>44220</v>
       </c>
@@ -1595,15 +1935,15 @@
         <v>220</v>
       </c>
       <c r="C35" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>472.57142857142856</v>
       </c>
       <c r="D35" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>468060</v>
       </c>
       <c r="E35" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15665</v>
       </c>
       <c r="F35" s="13"/>
@@ -1612,16 +1952,26 @@
       <c r="I35" s="13">
         <v>0</v>
       </c>
-      <c r="J35" s="6">
-        <f t="shared" si="3"/>
+      <c r="J35" s="13">
+        <v>0</v>
+      </c>
+      <c r="K35" s="6">
+        <f t="shared" si="4"/>
         <v>990.45344619105208</v>
       </c>
-      <c r="K35" s="7">
-        <f t="shared" si="4"/>
+      <c r="L35" s="7">
+        <f t="shared" si="5"/>
         <v>45210.453446191052</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M35" s="5">
+        <f t="shared" si="1"/>
+        <v>483505</v>
+      </c>
+      <c r="N35" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>44221</v>
       </c>
@@ -1629,15 +1979,15 @@
         <v>250</v>
       </c>
       <c r="C36" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>422.42857142857144</v>
       </c>
       <c r="D36" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>467840</v>
       </c>
       <c r="E36" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15915</v>
       </c>
       <c r="F36" s="13"/>
@@ -1646,16 +1996,26 @@
       <c r="I36" s="13">
         <v>0</v>
       </c>
-      <c r="J36" s="6">
-        <f t="shared" si="3"/>
+      <c r="J36" s="13">
+        <v>0</v>
+      </c>
+      <c r="K36" s="6">
+        <f t="shared" si="4"/>
         <v>1107.5008454514712</v>
       </c>
-      <c r="K36" s="7">
-        <f t="shared" si="4"/>
+      <c r="L36" s="7">
+        <f t="shared" si="5"/>
         <v>45328.500845451468</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M36" s="5">
+        <f t="shared" si="1"/>
+        <v>483505</v>
+      </c>
+      <c r="N36" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>44222</v>
       </c>
@@ -1663,15 +2023,15 @@
         <v>506</v>
       </c>
       <c r="C37" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>376</v>
       </c>
       <c r="D37" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>467590</v>
       </c>
       <c r="E37" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16421</v>
       </c>
       <c r="F37" s="13"/>
@@ -1680,16 +2040,26 @@
       <c r="I37" s="13">
         <v>0</v>
       </c>
-      <c r="J37" s="6">
-        <f t="shared" si="3"/>
+      <c r="J37" s="13">
+        <v>0</v>
+      </c>
+      <c r="K37" s="6">
+        <f t="shared" si="4"/>
         <v>1243.5904255319149</v>
       </c>
-      <c r="K37" s="7">
-        <f t="shared" si="4"/>
+      <c r="L37" s="7">
+        <f t="shared" si="5"/>
         <v>45465.590425531918</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M37" s="5">
+        <f t="shared" si="1"/>
+        <v>483505</v>
+      </c>
+      <c r="N37" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>44223</v>
       </c>
@@ -1697,15 +2067,15 @@
         <v>569</v>
       </c>
       <c r="C38" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>371.14285714285717</v>
       </c>
       <c r="D38" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>467084</v>
       </c>
       <c r="E38" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16990</v>
       </c>
       <c r="F38" s="13"/>
@@ -1714,16 +2084,26 @@
       <c r="I38" s="13">
         <v>0</v>
       </c>
-      <c r="J38" s="6">
-        <f t="shared" si="3"/>
+      <c r="J38" s="13">
+        <v>0</v>
+      </c>
+      <c r="K38" s="6">
+        <f t="shared" si="4"/>
         <v>1258.5019245573517</v>
       </c>
-      <c r="K38" s="7">
-        <f t="shared" si="4"/>
+      <c r="L38" s="7">
+        <f t="shared" si="5"/>
         <v>45481.501924557349</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M38" s="5">
+        <f t="shared" si="1"/>
+        <v>483505</v>
+      </c>
+      <c r="N38" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>44224</v>
       </c>
@@ -1731,15 +2111,15 @@
         <v>192</v>
       </c>
       <c r="C39" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>325.14285714285717</v>
       </c>
       <c r="D39" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>466515</v>
       </c>
       <c r="E39" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17182</v>
       </c>
       <c r="F39" s="13"/>
@@ -1748,16 +2128,26 @@
       <c r="I39" s="13">
         <v>0</v>
       </c>
-      <c r="J39" s="6">
-        <f t="shared" si="3"/>
+      <c r="J39" s="13">
+        <v>0</v>
+      </c>
+      <c r="K39" s="6">
+        <f t="shared" si="4"/>
         <v>1434.8000878734622</v>
       </c>
-      <c r="K39" s="7">
-        <f t="shared" si="4"/>
+      <c r="L39" s="7">
+        <f t="shared" si="5"/>
         <v>45658.80008787346</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M39" s="5">
+        <f t="shared" si="1"/>
+        <v>483505</v>
+      </c>
+      <c r="N39" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>44225</v>
       </c>
@@ -1765,15 +2155,15 @@
         <v>59</v>
       </c>
       <c r="C40" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>293.85714285714283</v>
       </c>
       <c r="D40" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>466323</v>
       </c>
       <c r="E40" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17241</v>
       </c>
       <c r="F40" s="13"/>
@@ -1782,16 +2172,26 @@
       <c r="I40" s="13">
         <v>0</v>
       </c>
-      <c r="J40" s="6">
-        <f t="shared" si="3"/>
+      <c r="J40" s="13">
+        <v>0</v>
+      </c>
+      <c r="K40" s="6">
+        <f t="shared" si="4"/>
         <v>1586.9037433155081</v>
       </c>
-      <c r="K40" s="7">
-        <f t="shared" si="4"/>
+      <c r="L40" s="7">
+        <f t="shared" si="5"/>
         <v>45811.90374331551</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M40" s="5">
+        <f t="shared" si="1"/>
+        <v>483505</v>
+      </c>
+      <c r="N40" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>44226</v>
       </c>
@@ -1799,15 +2199,15 @@
         <v>0</v>
       </c>
       <c r="C41" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>256.57142857142856</v>
       </c>
       <c r="D41" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>466264</v>
       </c>
       <c r="E41" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17241</v>
       </c>
       <c r="F41" s="13"/>
@@ -1816,16 +2216,26 @@
       <c r="I41" s="13">
         <v>0</v>
       </c>
-      <c r="J41" s="6">
-        <f t="shared" si="3"/>
+      <c r="J41" s="13">
+        <v>0</v>
+      </c>
+      <c r="K41" s="6">
+        <f t="shared" si="4"/>
         <v>1817.2873051224944</v>
       </c>
-      <c r="K41" s="7">
-        <f t="shared" si="4"/>
+      <c r="L41" s="7">
+        <f t="shared" si="5"/>
         <v>46043.287305122496</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M41" s="5">
+        <f t="shared" si="1"/>
+        <v>483505</v>
+      </c>
+      <c r="N41" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>44227</v>
       </c>
@@ -1833,15 +2243,15 @@
         <v>0</v>
       </c>
       <c r="C42" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>225.14285714285714</v>
       </c>
       <c r="D42" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>466264</v>
       </c>
       <c r="E42" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17241</v>
       </c>
       <c r="F42" s="13"/>
@@ -1850,16 +2260,26 @@
       <c r="I42" s="13">
         <v>0</v>
       </c>
-      <c r="J42" s="6">
-        <f t="shared" ref="J42:J73" si="10">D42/C42</f>
+      <c r="J42" s="13">
+        <v>0</v>
+      </c>
+      <c r="K42" s="6">
+        <f t="shared" ref="K42:K73" si="11">D42/C42</f>
         <v>2070.9695431472082</v>
       </c>
-      <c r="K42" s="7">
-        <f t="shared" ref="K42:K73" si="11">A42+J42</f>
+      <c r="L42" s="7">
+        <f t="shared" ref="L42:L73" si="12">A42+K42</f>
         <v>46297.969543147206</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M42" s="5">
+        <f t="shared" si="1"/>
+        <v>483505</v>
+      </c>
+      <c r="N42" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>44228</v>
       </c>
@@ -1867,15 +2287,15 @@
         <v>261</v>
       </c>
       <c r="C43" s="5">
-        <f t="shared" ref="C43:C48" si="12">AVERAGE(B35:B43)</f>
+        <f t="shared" ref="C43:C48" si="13">AVERAGE(B35:B43)</f>
         <v>228.55555555555554</v>
       </c>
       <c r="D43" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>466264</v>
       </c>
       <c r="E43" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17502</v>
       </c>
       <c r="F43" s="13"/>
@@ -1884,16 +2304,26 @@
       <c r="I43" s="13">
         <v>0</v>
       </c>
-      <c r="J43" s="6">
-        <f t="shared" si="10"/>
+      <c r="J43" s="13">
+        <v>0</v>
+      </c>
+      <c r="K43" s="6">
+        <f t="shared" si="11"/>
         <v>2040.0466699076326</v>
       </c>
-      <c r="K43" s="7">
-        <f t="shared" si="11"/>
+      <c r="L43" s="7">
+        <f t="shared" si="12"/>
         <v>46268.046669907635</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M43" s="5">
+        <f t="shared" si="1"/>
+        <v>483505</v>
+      </c>
+      <c r="N43" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>44229</v>
       </c>
@@ -1901,15 +2331,15 @@
         <v>340</v>
       </c>
       <c r="C44" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>241.88888888888889</v>
       </c>
       <c r="D44" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>466003</v>
       </c>
       <c r="E44" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17842</v>
       </c>
       <c r="F44" s="13"/>
@@ -1918,16 +2348,26 @@
       <c r="I44" s="13">
         <v>0</v>
       </c>
-      <c r="J44" s="6">
-        <f t="shared" si="10"/>
+      <c r="J44" s="13">
+        <v>0</v>
+      </c>
+      <c r="K44" s="6">
+        <f t="shared" si="11"/>
         <v>1926.5167661920075</v>
       </c>
-      <c r="K44" s="7">
-        <f t="shared" si="11"/>
+      <c r="L44" s="7">
+        <f t="shared" si="12"/>
         <v>46155.516766192006</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M44" s="5">
+        <f t="shared" si="1"/>
+        <v>483505</v>
+      </c>
+      <c r="N44" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>44230</v>
       </c>
@@ -1935,15 +2375,15 @@
         <v>452</v>
       </c>
       <c r="C45" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>264.33333333333331</v>
       </c>
       <c r="D45" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>465663</v>
       </c>
       <c r="E45" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18294</v>
       </c>
       <c r="F45" s="13"/>
@@ -1952,16 +2392,26 @@
       <c r="I45" s="13">
         <v>0</v>
       </c>
-      <c r="J45" s="6">
-        <f t="shared" si="10"/>
+      <c r="J45" s="13">
+        <v>0</v>
+      </c>
+      <c r="K45" s="6">
+        <f t="shared" si="11"/>
         <v>1761.6506935687264</v>
       </c>
-      <c r="K45" s="7">
-        <f t="shared" si="11"/>
+      <c r="L45" s="7">
+        <f t="shared" si="12"/>
         <v>45991.650693568728</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M45" s="5">
+        <f t="shared" si="1"/>
+        <v>483505</v>
+      </c>
+      <c r="N45" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>44231</v>
       </c>
@@ -1969,15 +2419,15 @@
         <v>264</v>
       </c>
       <c r="C46" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>237.44444444444446</v>
       </c>
       <c r="D46" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>465211</v>
       </c>
       <c r="E46" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18558</v>
       </c>
       <c r="F46" s="13"/>
@@ -1986,16 +2436,26 @@
       <c r="I46" s="13">
         <v>0</v>
       </c>
-      <c r="J46" s="6">
-        <f t="shared" si="10"/>
+      <c r="J46" s="13">
+        <v>0</v>
+      </c>
+      <c r="K46" s="6">
+        <f t="shared" si="11"/>
         <v>1959.241459990641</v>
       </c>
-      <c r="K46" s="7">
-        <f t="shared" si="11"/>
+      <c r="L46" s="7">
+        <f t="shared" si="12"/>
         <v>46190.241459990641</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M46" s="5">
+        <f t="shared" si="1"/>
+        <v>483505</v>
+      </c>
+      <c r="N46" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>44232</v>
       </c>
@@ -2003,15 +2463,15 @@
         <v>512</v>
       </c>
       <c r="C47" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>231.11111111111111</v>
       </c>
       <c r="D47" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>464947</v>
       </c>
       <c r="E47" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19070</v>
       </c>
       <c r="F47" s="13"/>
@@ -2020,16 +2480,26 @@
       <c r="I47" s="13">
         <v>0</v>
       </c>
-      <c r="J47" s="6">
-        <f t="shared" si="10"/>
+      <c r="J47" s="13">
+        <v>0</v>
+      </c>
+      <c r="K47" s="6">
+        <f t="shared" si="11"/>
         <v>2011.7899038461537</v>
       </c>
-      <c r="K47" s="7">
-        <f t="shared" si="11"/>
+      <c r="L47" s="7">
+        <f t="shared" si="12"/>
         <v>46243.789903846155</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M47" s="5">
+        <f t="shared" si="1"/>
+        <v>483505</v>
+      </c>
+      <c r="N47" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>44233</v>
       </c>
@@ -2037,15 +2507,15 @@
         <v>512</v>
       </c>
       <c r="C48" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>266.66666666666669</v>
       </c>
       <c r="D48" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>464435</v>
       </c>
       <c r="E48" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19582</v>
       </c>
       <c r="F48" s="13"/>
@@ -2054,16 +2524,26 @@
       <c r="I48" s="13">
         <v>0</v>
       </c>
-      <c r="J48" s="6">
-        <f t="shared" si="10"/>
+      <c r="J48" s="13">
+        <v>0</v>
+      </c>
+      <c r="K48" s="6">
+        <f t="shared" si="11"/>
         <v>1741.6312499999999</v>
       </c>
-      <c r="K48" s="7">
-        <f t="shared" si="11"/>
+      <c r="L48" s="7">
+        <f t="shared" si="12"/>
         <v>45974.631249999999</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M48" s="5">
+        <f t="shared" si="1"/>
+        <v>483505</v>
+      </c>
+      <c r="N48" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>44234</v>
       </c>
@@ -2071,15 +2551,15 @@
         <v>515</v>
       </c>
       <c r="C49" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>408</v>
       </c>
       <c r="D49" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>463923</v>
       </c>
       <c r="E49" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20097</v>
       </c>
       <c r="F49" s="13"/>
@@ -2088,16 +2568,26 @@
       <c r="I49" s="13">
         <v>0</v>
       </c>
-      <c r="J49" s="6">
-        <f t="shared" si="10"/>
+      <c r="J49" s="13">
+        <v>0</v>
+      </c>
+      <c r="K49" s="6">
+        <f t="shared" si="11"/>
         <v>1137.0661764705883</v>
       </c>
-      <c r="K49" s="7">
-        <f t="shared" si="11"/>
+      <c r="L49" s="7">
+        <f t="shared" si="12"/>
         <v>45371.066176470587</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M49" s="5">
+        <f t="shared" si="1"/>
+        <v>483505</v>
+      </c>
+      <c r="N49" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>44235</v>
       </c>
@@ -2105,15 +2595,15 @@
         <v>539</v>
       </c>
       <c r="C50" s="5">
-        <f t="shared" ref="C50:C69" si="13">AVERAGE(B44:B50)</f>
+        <f t="shared" ref="C50:C69" si="14">AVERAGE(B44:B50)</f>
         <v>447.71428571428572</v>
       </c>
       <c r="D50" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>463408</v>
       </c>
       <c r="E50" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20636</v>
       </c>
       <c r="F50" s="13"/>
@@ -2122,16 +2612,26 @@
       <c r="I50" s="13">
         <v>0</v>
       </c>
-      <c r="J50" s="6">
-        <f t="shared" si="10"/>
+      <c r="J50" s="13">
+        <v>0</v>
+      </c>
+      <c r="K50" s="6">
+        <f t="shared" si="11"/>
         <v>1035.0529674537331</v>
       </c>
-      <c r="K50" s="7">
-        <f t="shared" si="11"/>
+      <c r="L50" s="7">
+        <f t="shared" si="12"/>
         <v>45270.052967453732</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M50" s="5">
+        <f t="shared" si="1"/>
+        <v>483505</v>
+      </c>
+      <c r="N50" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>44236</v>
       </c>
@@ -2139,15 +2639,15 @@
         <v>602</v>
       </c>
       <c r="C51" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>485.14285714285717</v>
       </c>
       <c r="D51" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>462869</v>
       </c>
       <c r="E51" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21238</v>
       </c>
       <c r="F51" s="13"/>
@@ -2156,16 +2656,26 @@
       <c r="I51" s="13">
         <v>0</v>
       </c>
-      <c r="J51" s="6">
-        <f t="shared" si="10"/>
+      <c r="J51" s="13">
+        <v>0</v>
+      </c>
+      <c r="K51" s="6">
+        <f t="shared" si="11"/>
         <v>954.08804475853935</v>
       </c>
-      <c r="K51" s="7">
-        <f t="shared" si="11"/>
+      <c r="L51" s="7">
+        <f t="shared" si="12"/>
         <v>45190.088044758537</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M51" s="5">
+        <f t="shared" si="1"/>
+        <v>483505</v>
+      </c>
+      <c r="N51" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>44237</v>
       </c>
@@ -2173,15 +2683,15 @@
         <v>417</v>
       </c>
       <c r="C52" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>480.14285714285717</v>
       </c>
       <c r="D52" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>462267</v>
       </c>
       <c r="E52" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21655</v>
       </c>
       <c r="F52" s="13"/>
@@ -2190,16 +2700,26 @@
       <c r="I52" s="13">
         <v>0</v>
       </c>
-      <c r="J52" s="6">
-        <f t="shared" si="10"/>
+      <c r="J52" s="13">
+        <v>0</v>
+      </c>
+      <c r="K52" s="6">
+        <f t="shared" si="11"/>
         <v>962.76971139541797</v>
       </c>
-      <c r="K52" s="7">
-        <f t="shared" si="11"/>
+      <c r="L52" s="7">
+        <f t="shared" si="12"/>
         <v>45199.76971139542</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M52" s="5">
+        <f t="shared" si="1"/>
+        <v>483505</v>
+      </c>
+      <c r="N52" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>44238</v>
       </c>
@@ -2207,15 +2727,15 @@
         <v>619</v>
       </c>
       <c r="C53" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>530.85714285714289</v>
       </c>
       <c r="D53" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>461850</v>
       </c>
       <c r="E53" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22274</v>
       </c>
       <c r="F53" s="13"/>
@@ -2224,16 +2744,26 @@
       <c r="I53" s="13">
         <v>0</v>
       </c>
-      <c r="J53" s="6">
-        <f t="shared" si="10"/>
+      <c r="J53" s="13">
+        <v>0</v>
+      </c>
+      <c r="K53" s="6">
+        <f t="shared" si="11"/>
         <v>870.00807319698595</v>
       </c>
-      <c r="K53" s="7">
-        <f t="shared" si="11"/>
+      <c r="L53" s="7">
+        <f t="shared" si="12"/>
         <v>45108.008073196987</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M53" s="5">
+        <f t="shared" si="1"/>
+        <v>483505</v>
+      </c>
+      <c r="N53" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>44239</v>
       </c>
@@ -2241,15 +2771,15 @@
         <v>627</v>
       </c>
       <c r="C54" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>547.28571428571433</v>
       </c>
       <c r="D54" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>461231</v>
       </c>
       <c r="E54" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22901</v>
       </c>
       <c r="F54" s="13"/>
@@ -2258,16 +2788,26 @@
       <c r="I54" s="13">
         <v>0</v>
       </c>
-      <c r="J54" s="6">
-        <f t="shared" si="10"/>
+      <c r="J54" s="13">
+        <v>0</v>
+      </c>
+      <c r="K54" s="6">
+        <f t="shared" si="11"/>
         <v>842.76089793787514</v>
       </c>
-      <c r="K54" s="7">
-        <f t="shared" si="11"/>
+      <c r="L54" s="7">
+        <f t="shared" si="12"/>
         <v>45081.760897937878</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M54" s="5">
+        <f t="shared" si="1"/>
+        <v>483505</v>
+      </c>
+      <c r="N54" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>44240</v>
       </c>
@@ -2275,15 +2815,15 @@
         <v>575</v>
       </c>
       <c r="C55" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>556.28571428571433</v>
       </c>
       <c r="D55" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>460604</v>
       </c>
       <c r="E55" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23476</v>
       </c>
       <c r="F55" s="13"/>
@@ -2292,16 +2832,26 @@
       <c r="I55" s="13">
         <v>0</v>
       </c>
-      <c r="J55" s="6">
-        <f t="shared" si="10"/>
+      <c r="J55" s="13">
+        <v>0</v>
+      </c>
+      <c r="K55" s="6">
+        <f t="shared" si="11"/>
         <v>827.99897277863374</v>
       </c>
-      <c r="K55" s="7">
-        <f t="shared" si="11"/>
+      <c r="L55" s="7">
+        <f t="shared" si="12"/>
         <v>45067.998972778631</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M55" s="5">
+        <f t="shared" si="1"/>
+        <v>483505</v>
+      </c>
+      <c r="N55" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>44241</v>
       </c>
@@ -2309,15 +2859,15 @@
         <v>412</v>
       </c>
       <c r="C56" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>541.57142857142856</v>
       </c>
       <c r="D56" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>460029</v>
       </c>
       <c r="E56" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23888</v>
       </c>
       <c r="F56" s="13"/>
@@ -2326,16 +2876,26 @@
       <c r="I56" s="13">
         <v>0</v>
       </c>
-      <c r="J56" s="6">
-        <f t="shared" si="10"/>
+      <c r="J56" s="13">
+        <v>0</v>
+      </c>
+      <c r="K56" s="6">
+        <f t="shared" si="11"/>
         <v>849.43365866525983</v>
       </c>
-      <c r="K56" s="7">
-        <f t="shared" si="11"/>
+      <c r="L56" s="7">
+        <f t="shared" si="12"/>
         <v>45090.433658665257</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M56" s="5">
+        <f t="shared" si="1"/>
+        <v>483505</v>
+      </c>
+      <c r="N56" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>44242</v>
       </c>
@@ -2343,15 +2903,15 @@
         <v>0</v>
       </c>
       <c r="C57" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>464.57142857142856</v>
       </c>
       <c r="D57" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>459617</v>
       </c>
       <c r="E57" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23888</v>
       </c>
       <c r="F57" s="13"/>
@@ -2360,16 +2920,26 @@
       <c r="I57" s="13">
         <v>0</v>
       </c>
-      <c r="J57" s="6">
-        <f t="shared" si="10"/>
+      <c r="J57" s="13">
+        <v>0</v>
+      </c>
+      <c r="K57" s="6">
+        <f t="shared" si="11"/>
         <v>989.33548585485858</v>
       </c>
-      <c r="K57" s="7">
-        <f t="shared" si="11"/>
+      <c r="L57" s="7">
+        <f t="shared" si="12"/>
         <v>45231.335485854856</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M57" s="5">
+        <f t="shared" si="1"/>
+        <v>483505</v>
+      </c>
+      <c r="N57" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>44243</v>
       </c>
@@ -2377,15 +2947,15 @@
         <v>560</v>
       </c>
       <c r="C58" s="5">
-        <f t="shared" ref="C58:C63" si="14">AVERAGE(B51:B58)</f>
+        <f t="shared" ref="C58:C63" si="15">AVERAGE(B51:B58)</f>
         <v>476.5</v>
       </c>
       <c r="D58" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>459617</v>
       </c>
       <c r="E58" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24448</v>
       </c>
       <c r="F58" s="13"/>
@@ -2394,16 +2964,26 @@
       <c r="I58" s="13">
         <v>0</v>
       </c>
-      <c r="J58" s="6">
-        <f t="shared" si="10"/>
+      <c r="J58" s="13">
+        <v>0</v>
+      </c>
+      <c r="K58" s="6">
+        <f t="shared" si="11"/>
         <v>964.56873032528858</v>
       </c>
-      <c r="K58" s="7">
-        <f t="shared" si="11"/>
+      <c r="L58" s="7">
+        <f t="shared" si="12"/>
         <v>45207.568730325285</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M58" s="5">
+        <f t="shared" si="1"/>
+        <v>483505</v>
+      </c>
+      <c r="N58" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>44244</v>
       </c>
@@ -2411,15 +2991,15 @@
         <v>599</v>
       </c>
       <c r="C59" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>476.125</v>
       </c>
       <c r="D59" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>459057</v>
       </c>
       <c r="E59" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25047</v>
       </c>
       <c r="F59" s="13"/>
@@ -2428,16 +3008,26 @@
       <c r="I59" s="13">
         <v>0</v>
       </c>
-      <c r="J59" s="6">
-        <f t="shared" si="10"/>
+      <c r="J59" s="13">
+        <v>0</v>
+      </c>
+      <c r="K59" s="6">
+        <f t="shared" si="11"/>
         <v>964.15227093725389</v>
       </c>
-      <c r="K59" s="7">
-        <f t="shared" si="11"/>
+      <c r="L59" s="7">
+        <f t="shared" si="12"/>
         <v>45208.152270937251</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M59" s="5">
+        <f t="shared" si="1"/>
+        <v>483505</v>
+      </c>
+      <c r="N59" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>44245</v>
       </c>
@@ -2445,15 +3035,15 @@
         <v>999</v>
       </c>
       <c r="C60" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>548.875</v>
       </c>
       <c r="D60" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>458458</v>
       </c>
       <c r="E60" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26046</v>
       </c>
       <c r="F60" s="13"/>
@@ -2462,16 +3052,26 @@
       <c r="I60" s="13">
         <v>0</v>
       </c>
-      <c r="J60" s="6">
-        <f t="shared" si="10"/>
+      <c r="J60" s="13">
+        <v>0</v>
+      </c>
+      <c r="K60" s="6">
+        <f t="shared" si="11"/>
         <v>835.26850375768618</v>
       </c>
-      <c r="K60" s="7">
-        <f t="shared" si="11"/>
+      <c r="L60" s="7">
+        <f t="shared" si="12"/>
         <v>45080.268503757688</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M60" s="5">
+        <f t="shared" si="1"/>
+        <v>483505</v>
+      </c>
+      <c r="N60" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>44246</v>
       </c>
@@ -2479,15 +3079,15 @@
         <v>1120</v>
       </c>
       <c r="C61" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>611.5</v>
       </c>
       <c r="D61" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>457459</v>
       </c>
       <c r="E61" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27166</v>
       </c>
       <c r="F61" s="13"/>
@@ -2496,16 +3096,26 @@
       <c r="I61" s="13">
         <v>0</v>
       </c>
-      <c r="J61" s="6">
-        <f t="shared" si="10"/>
+      <c r="J61" s="13">
+        <v>0</v>
+      </c>
+      <c r="K61" s="6">
+        <f t="shared" si="11"/>
         <v>748.09321340964846</v>
       </c>
-      <c r="K61" s="7">
-        <f t="shared" si="11"/>
+      <c r="L61" s="7">
+        <f t="shared" si="12"/>
         <v>44994.093213409651</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M61" s="5">
+        <f t="shared" si="1"/>
+        <v>483505</v>
+      </c>
+      <c r="N61" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>44247</v>
       </c>
@@ -2513,15 +3123,15 @@
         <v>645</v>
       </c>
       <c r="C62" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>613.75</v>
       </c>
       <c r="D62" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>456339</v>
       </c>
       <c r="E62" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27811</v>
       </c>
       <c r="F62" s="13"/>
@@ -2530,16 +3140,26 @@
       <c r="I62" s="13">
         <v>0</v>
       </c>
-      <c r="J62" s="6">
-        <f t="shared" si="10"/>
+      <c r="J62" s="13">
+        <v>0</v>
+      </c>
+      <c r="K62" s="6">
+        <f t="shared" si="11"/>
         <v>743.52586558044811</v>
       </c>
-      <c r="K62" s="7">
-        <f t="shared" si="11"/>
+      <c r="L62" s="7">
+        <f t="shared" si="12"/>
         <v>44990.52586558045</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M62" s="5">
+        <f t="shared" si="1"/>
+        <v>483505</v>
+      </c>
+      <c r="N62" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>44248</v>
       </c>
@@ -2547,15 +3167,15 @@
         <v>818</v>
       </c>
       <c r="C63" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>644.125</v>
       </c>
       <c r="D63" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>455694</v>
       </c>
       <c r="E63" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28629</v>
       </c>
       <c r="F63" s="13"/>
@@ -2564,16 +3184,26 @@
       <c r="I63" s="13">
         <v>0</v>
       </c>
-      <c r="J63" s="6">
-        <f t="shared" si="10"/>
+      <c r="J63" s="13">
+        <v>0</v>
+      </c>
+      <c r="K63" s="6">
+        <f t="shared" si="11"/>
         <v>707.46206093537739</v>
       </c>
-      <c r="K63" s="7">
-        <f t="shared" si="11"/>
+      <c r="L63" s="7">
+        <f t="shared" si="12"/>
         <v>44955.462060935381</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M63" s="5">
+        <f t="shared" si="1"/>
+        <v>483505</v>
+      </c>
+      <c r="N63" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>44249</v>
       </c>
@@ -2581,15 +3211,15 @@
         <v>482</v>
       </c>
       <c r="C64" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>746.14285714285711</v>
       </c>
       <c r="D64" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>454876</v>
       </c>
       <c r="E64" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29111</v>
       </c>
       <c r="F64" s="13"/>
@@ -2598,16 +3228,26 @@
       <c r="I64" s="13">
         <v>0</v>
       </c>
-      <c r="J64" s="6">
-        <f t="shared" si="10"/>
+      <c r="J64" s="13">
+        <v>0</v>
+      </c>
+      <c r="K64" s="6">
+        <f t="shared" si="11"/>
         <v>609.63660731380435</v>
       </c>
-      <c r="K64" s="7">
-        <f t="shared" si="11"/>
+      <c r="L64" s="7">
+        <f t="shared" si="12"/>
         <v>44858.636607313805</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M64" s="5">
+        <f t="shared" si="1"/>
+        <v>483505</v>
+      </c>
+      <c r="N64" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>44250</v>
       </c>
@@ -2615,15 +3255,15 @@
         <v>816</v>
       </c>
       <c r="C65" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>782.71428571428567</v>
       </c>
       <c r="D65" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>454394</v>
       </c>
       <c r="E65" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29927</v>
       </c>
       <c r="F65" s="13"/>
@@ -2632,16 +3272,26 @@
       <c r="I65" s="13">
         <v>0</v>
       </c>
-      <c r="J65" s="6">
-        <f t="shared" si="10"/>
+      <c r="J65" s="13">
+        <v>0</v>
+      </c>
+      <c r="K65" s="6">
+        <f t="shared" si="11"/>
         <v>580.53622923891226</v>
       </c>
-      <c r="K65" s="7">
-        <f t="shared" si="11"/>
+      <c r="L65" s="7">
+        <f t="shared" si="12"/>
         <v>44830.536229238911</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M65" s="5">
+        <f t="shared" si="1"/>
+        <v>483505</v>
+      </c>
+      <c r="N65" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>44251</v>
       </c>
@@ -2649,15 +3299,15 @@
         <v>646</v>
       </c>
       <c r="C66" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>789.42857142857144</v>
       </c>
       <c r="D66" s="5">
-        <f t="shared" ref="D66:D93" si="15">D67+B66</f>
+        <f t="shared" ref="D66:D93" si="16">D67+B66</f>
         <v>453578</v>
       </c>
       <c r="E66" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30573</v>
       </c>
       <c r="F66" s="13"/>
@@ -2666,16 +3316,26 @@
       <c r="I66" s="13">
         <v>0</v>
       </c>
-      <c r="J66" s="6">
-        <f t="shared" si="10"/>
+      <c r="J66" s="13">
+        <v>0</v>
+      </c>
+      <c r="K66" s="6">
+        <f t="shared" si="11"/>
         <v>574.56496561708286</v>
       </c>
-      <c r="K66" s="7">
-        <f t="shared" si="11"/>
+      <c r="L66" s="7">
+        <f t="shared" si="12"/>
         <v>44825.564965617086</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M66" s="5">
+        <f t="shared" si="1"/>
+        <v>483505</v>
+      </c>
+      <c r="N66" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>44252</v>
       </c>
@@ -2683,15 +3343,15 @@
         <v>656</v>
       </c>
       <c r="C67" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>740.42857142857144</v>
       </c>
       <c r="D67" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>452932</v>
       </c>
       <c r="E67" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31229</v>
       </c>
       <c r="F67" s="13"/>
@@ -2700,16 +3360,26 @@
       <c r="I67" s="13">
         <v>0</v>
       </c>
-      <c r="J67" s="6">
-        <f t="shared" si="10"/>
+      <c r="J67" s="13">
+        <v>0</v>
+      </c>
+      <c r="K67" s="6">
+        <f t="shared" si="11"/>
         <v>611.71599459772335</v>
       </c>
-      <c r="K67" s="7">
-        <f t="shared" si="11"/>
+      <c r="L67" s="7">
+        <f t="shared" si="12"/>
         <v>44863.715994597726</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M67" s="5">
+        <f t="shared" ref="M67:N120" si="17">(N67-J67)</f>
+        <v>483505</v>
+      </c>
+      <c r="N67" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>44253</v>
       </c>
@@ -2717,15 +3387,15 @@
         <v>757</v>
       </c>
       <c r="C68" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>688.57142857142856</v>
       </c>
       <c r="D68" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>452276</v>
       </c>
       <c r="E68" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31986</v>
       </c>
       <c r="F68" s="13"/>
@@ -2734,16 +3404,26 @@
       <c r="I68" s="13">
         <v>0</v>
       </c>
-      <c r="J68" s="6">
-        <f t="shared" si="10"/>
+      <c r="J68" s="13">
+        <v>0</v>
+      </c>
+      <c r="K68" s="6">
+        <f t="shared" si="11"/>
         <v>656.83236514522821</v>
       </c>
-      <c r="K68" s="7">
-        <f t="shared" si="11"/>
+      <c r="L68" s="7">
+        <f t="shared" si="12"/>
         <v>44909.83236514523</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M68" s="5">
+        <f t="shared" si="17"/>
+        <v>483505</v>
+      </c>
+      <c r="N68" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>44254</v>
       </c>
@@ -2751,15 +3431,15 @@
         <v>682</v>
       </c>
       <c r="C69" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>693.85714285714289</v>
       </c>
       <c r="D69" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>451519</v>
       </c>
       <c r="E69" s="5">
-        <f t="shared" ref="E69:E100" si="16">E68+B69</f>
+        <f t="shared" ref="E69:E100" si="18">E68+B69</f>
         <v>32668</v>
       </c>
       <c r="F69" s="13"/>
@@ -2768,16 +3448,26 @@
       <c r="I69" s="13">
         <v>0</v>
       </c>
-      <c r="J69" s="6">
-        <f t="shared" si="10"/>
+      <c r="J69" s="13">
+        <v>0</v>
+      </c>
+      <c r="K69" s="6">
+        <f t="shared" si="11"/>
         <v>650.73769816759318</v>
       </c>
-      <c r="K69" s="7">
-        <f t="shared" si="11"/>
+      <c r="L69" s="7">
+        <f t="shared" si="12"/>
         <v>44904.737698167592</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M69" s="5">
+        <f t="shared" si="17"/>
+        <v>483505</v>
+      </c>
+      <c r="N69" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>44255</v>
       </c>
@@ -2785,15 +3475,15 @@
         <v>687</v>
       </c>
       <c r="C70" s="5">
-        <f t="shared" ref="C70:C75" si="17">AVERAGE(B64:B70)</f>
+        <f t="shared" ref="C70:C75" si="19">AVERAGE(B64:B70)</f>
         <v>675.14285714285711</v>
       </c>
       <c r="D70" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>450837</v>
       </c>
       <c r="E70" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>33355</v>
       </c>
       <c r="F70" s="13"/>
@@ -2802,16 +3492,26 @@
       <c r="I70" s="13">
         <v>0</v>
       </c>
-      <c r="J70" s="6">
-        <f t="shared" si="10"/>
+      <c r="J70" s="13">
+        <v>0</v>
+      </c>
+      <c r="K70" s="6">
+        <f t="shared" si="11"/>
         <v>667.76534066864156</v>
       </c>
-      <c r="K70" s="7">
-        <f t="shared" si="11"/>
+      <c r="L70" s="7">
+        <f t="shared" si="12"/>
         <v>44922.765340668644</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M70" s="5">
+        <f t="shared" si="17"/>
+        <v>483505</v>
+      </c>
+      <c r="N70" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>44256</v>
       </c>
@@ -2819,15 +3519,15 @@
         <v>584</v>
       </c>
       <c r="C71" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>689.71428571428567</v>
       </c>
       <c r="D71" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>450150</v>
       </c>
       <c r="E71" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>33939</v>
       </c>
       <c r="F71" s="13"/>
@@ -2836,16 +3536,26 @@
       <c r="I71" s="13">
         <v>0</v>
       </c>
-      <c r="J71" s="6">
-        <f t="shared" si="10"/>
+      <c r="J71" s="13">
+        <v>0</v>
+      </c>
+      <c r="K71" s="6">
+        <f t="shared" si="11"/>
         <v>652.66155758077889</v>
       </c>
-      <c r="K71" s="7">
-        <f t="shared" si="11"/>
+      <c r="L71" s="7">
+        <f t="shared" si="12"/>
         <v>44908.661557580781</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M71" s="5">
+        <f t="shared" si="17"/>
+        <v>483505</v>
+      </c>
+      <c r="N71" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>44257</v>
       </c>
@@ -2853,15 +3563,15 @@
         <v>1093</v>
       </c>
       <c r="C72" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>729.28571428571433</v>
       </c>
       <c r="D72" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>449566</v>
       </c>
       <c r="E72" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>35032</v>
       </c>
       <c r="F72" s="13"/>
@@ -2870,16 +3580,26 @@
       <c r="I72" s="13">
         <v>0</v>
       </c>
-      <c r="J72" s="6">
-        <f t="shared" si="10"/>
+      <c r="J72" s="13">
+        <v>0</v>
+      </c>
+      <c r="K72" s="6">
+        <f t="shared" si="11"/>
         <v>616.44701273261501</v>
       </c>
-      <c r="K72" s="7">
-        <f t="shared" si="11"/>
+      <c r="L72" s="7">
+        <f t="shared" si="12"/>
         <v>44873.447012732613</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M72" s="5">
+        <f t="shared" si="17"/>
+        <v>483505</v>
+      </c>
+      <c r="N72" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>44258</v>
       </c>
@@ -2887,15 +3607,15 @@
         <v>1173</v>
       </c>
       <c r="C73" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>804.57142857142856</v>
       </c>
       <c r="D73" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>448473</v>
       </c>
       <c r="E73" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>36205</v>
       </c>
       <c r="F73" s="13"/>
@@ -2904,16 +3624,26 @@
       <c r="I73" s="13">
         <v>0</v>
       </c>
-      <c r="J73" s="6">
-        <f t="shared" si="10"/>
+      <c r="J73" s="13">
+        <v>0</v>
+      </c>
+      <c r="K73" s="6">
+        <f t="shared" si="11"/>
         <v>557.40607244318187</v>
       </c>
-      <c r="K73" s="7">
-        <f t="shared" si="11"/>
+      <c r="L73" s="7">
+        <f t="shared" si="12"/>
         <v>44815.406072443184</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M73" s="5">
+        <f t="shared" si="17"/>
+        <v>483505</v>
+      </c>
+      <c r="N73" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>44259</v>
       </c>
@@ -2921,15 +3651,15 @@
         <v>1997</v>
       </c>
       <c r="C74" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>996.14285714285711</v>
       </c>
       <c r="D74" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>447300</v>
       </c>
       <c r="E74" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>38202</v>
       </c>
       <c r="F74" s="13"/>
@@ -2938,16 +3668,26 @@
       <c r="I74" s="13">
         <v>0</v>
       </c>
-      <c r="J74" s="6">
-        <f t="shared" ref="J74:J99" si="18">D74/C74</f>
+      <c r="J74" s="13">
+        <v>0</v>
+      </c>
+      <c r="K74" s="6">
+        <f t="shared" ref="K74:K99" si="20">D74/C74</f>
         <v>449.03198049619965</v>
       </c>
-      <c r="K74" s="7">
-        <f t="shared" ref="K74:K99" si="19">A74+J74</f>
+      <c r="L74" s="7">
+        <f t="shared" ref="L74:L99" si="21">A74+K74</f>
         <v>44708.031980496198</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M74" s="5">
+        <f t="shared" si="17"/>
+        <v>483505</v>
+      </c>
+      <c r="N74" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>44260</v>
       </c>
@@ -2955,15 +3695,15 @@
         <v>1735</v>
       </c>
       <c r="C75" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1135.8571428571429</v>
       </c>
       <c r="D75" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>445303</v>
       </c>
       <c r="E75" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>39937</v>
       </c>
       <c r="F75" s="13"/>
@@ -2972,16 +3712,26 @@
       <c r="I75" s="13">
         <v>0</v>
       </c>
-      <c r="J75" s="6">
-        <f t="shared" si="18"/>
+      <c r="J75" s="13">
+        <v>0</v>
+      </c>
+      <c r="K75" s="6">
+        <f t="shared" si="20"/>
         <v>392.04137844296315</v>
       </c>
-      <c r="K75" s="7">
-        <f t="shared" si="19"/>
+      <c r="L75" s="7">
+        <f t="shared" si="21"/>
         <v>44652.041378442962</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M75" s="5">
+        <f t="shared" si="17"/>
+        <v>483505</v>
+      </c>
+      <c r="N75" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>44261</v>
       </c>
@@ -2993,11 +3743,11 @@
         <v>1257.2857142857142</v>
       </c>
       <c r="D76" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>443568</v>
       </c>
       <c r="E76" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>41469</v>
       </c>
       <c r="F76" s="13"/>
@@ -3006,16 +3756,26 @@
       <c r="I76" s="13">
         <v>0</v>
       </c>
-      <c r="J76" s="6">
-        <f t="shared" si="18"/>
+      <c r="J76" s="13">
+        <v>0</v>
+      </c>
+      <c r="K76" s="6">
+        <f t="shared" si="20"/>
         <v>352.79809112600844</v>
       </c>
-      <c r="K76" s="7">
-        <f t="shared" si="19"/>
+      <c r="L76" s="7">
+        <f t="shared" si="21"/>
         <v>44613.798091126009</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M76" s="5">
+        <f t="shared" si="17"/>
+        <v>483505</v>
+      </c>
+      <c r="N76" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>44262</v>
       </c>
@@ -3023,15 +3783,15 @@
         <v>1323</v>
       </c>
       <c r="C77" s="5">
-        <f t="shared" ref="C77:C78" si="20">(AVERAGE(B71:B77))</f>
+        <f t="shared" ref="C77:C78" si="22">(AVERAGE(B71:B77))</f>
         <v>1348.1428571428571</v>
       </c>
       <c r="D77" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>442036</v>
       </c>
       <c r="E77" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>42792</v>
       </c>
       <c r="F77" s="13"/>
@@ -3040,16 +3800,26 @@
       <c r="I77" s="13">
         <v>0</v>
       </c>
-      <c r="J77" s="6">
-        <f t="shared" si="18"/>
+      <c r="J77" s="13">
+        <v>0</v>
+      </c>
+      <c r="K77" s="6">
+        <f t="shared" si="20"/>
         <v>327.88513298717811</v>
       </c>
-      <c r="K77" s="7">
-        <f t="shared" si="19"/>
+      <c r="L77" s="7">
+        <f t="shared" si="21"/>
         <v>44589.885132987176</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M77" s="5">
+        <f t="shared" si="17"/>
+        <v>483505</v>
+      </c>
+      <c r="N77" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>44263</v>
       </c>
@@ -3057,15 +3827,15 @@
         <v>1518</v>
       </c>
       <c r="C78" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1481.5714285714287</v>
       </c>
       <c r="D78" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>440713</v>
       </c>
       <c r="E78" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>44310</v>
       </c>
       <c r="F78" s="13"/>
@@ -3074,16 +3844,26 @@
       <c r="I78" s="13">
         <v>0</v>
       </c>
-      <c r="J78" s="6">
-        <f t="shared" si="18"/>
+      <c r="J78" s="13">
+        <v>0</v>
+      </c>
+      <c r="K78" s="6">
+        <f t="shared" si="20"/>
         <v>297.46321473339117</v>
       </c>
-      <c r="K78" s="7">
-        <f t="shared" si="19"/>
+      <c r="L78" s="7">
+        <f t="shared" si="21"/>
         <v>44560.46321473339</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M78" s="5">
+        <f t="shared" si="17"/>
+        <v>483505</v>
+      </c>
+      <c r="N78" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>44264</v>
       </c>
@@ -3091,15 +3871,15 @@
         <v>1664</v>
       </c>
       <c r="C79" s="5">
-        <f t="shared" ref="C79:C91" si="21">(AVERAGE(B73:B79))</f>
+        <f t="shared" ref="C79:C91" si="23">(AVERAGE(B73:B79))</f>
         <v>1563.1428571428571</v>
       </c>
       <c r="D79" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>439195</v>
       </c>
       <c r="E79" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>45974</v>
       </c>
       <c r="F79" s="13"/>
@@ -3108,16 +3888,26 @@
       <c r="I79" s="13">
         <v>0</v>
       </c>
-      <c r="J79" s="6">
-        <f t="shared" si="18"/>
+      <c r="J79" s="13">
+        <v>0</v>
+      </c>
+      <c r="K79" s="6">
+        <f t="shared" si="20"/>
         <v>280.96920124291722</v>
       </c>
-      <c r="K79" s="7">
-        <f t="shared" si="19"/>
+      <c r="L79" s="7">
+        <f t="shared" si="21"/>
         <v>44544.969201242915</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M79" s="5">
+        <f t="shared" si="17"/>
+        <v>483505</v>
+      </c>
+      <c r="N79" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>44265</v>
       </c>
@@ -3125,15 +3915,15 @@
         <v>1677</v>
       </c>
       <c r="C80" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1635.1428571428571</v>
       </c>
       <c r="D80" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>437531</v>
       </c>
       <c r="E80" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>47651</v>
       </c>
       <c r="F80" s="13"/>
@@ -3142,16 +3932,26 @@
       <c r="I80" s="13">
         <v>0</v>
       </c>
-      <c r="J80" s="6">
-        <f t="shared" si="18"/>
+      <c r="J80" s="13">
+        <v>0</v>
+      </c>
+      <c r="K80" s="6">
+        <f t="shared" si="20"/>
         <v>267.57967849030229</v>
       </c>
-      <c r="K80" s="7">
-        <f t="shared" si="19"/>
+      <c r="L80" s="7">
+        <f t="shared" si="21"/>
         <v>44532.5796784903</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M80" s="5">
+        <f t="shared" si="17"/>
+        <v>483505</v>
+      </c>
+      <c r="N80" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>44266</v>
       </c>
@@ -3159,15 +3959,15 @@
         <v>1618</v>
       </c>
       <c r="C81" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1581</v>
       </c>
       <c r="D81" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>435854</v>
       </c>
       <c r="E81" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>49269</v>
       </c>
       <c r="F81" s="13"/>
@@ -3176,16 +3976,26 @@
       <c r="I81" s="13">
         <v>0</v>
       </c>
-      <c r="J81" s="6">
-        <f t="shared" si="18"/>
+      <c r="J81" s="13">
+        <v>0</v>
+      </c>
+      <c r="K81" s="6">
+        <f t="shared" si="20"/>
         <v>275.68247944339026</v>
       </c>
-      <c r="K81" s="7">
-        <f t="shared" si="19"/>
+      <c r="L81" s="7">
+        <f t="shared" si="21"/>
         <v>44541.682479443392</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M81" s="5">
+        <f t="shared" si="17"/>
+        <v>483505</v>
+      </c>
+      <c r="N81" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>44267</v>
       </c>
@@ -3193,15 +4003,15 @@
         <v>1855</v>
       </c>
       <c r="C82" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1598.1428571428571</v>
       </c>
       <c r="D82" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>434236</v>
       </c>
       <c r="E82" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>51124</v>
       </c>
       <c r="F82" s="13"/>
@@ -3210,16 +4020,26 @@
       <c r="I82" s="13">
         <v>0</v>
       </c>
-      <c r="J82" s="6">
-        <f t="shared" si="18"/>
+      <c r="J82" s="13">
+        <v>0</v>
+      </c>
+      <c r="K82" s="6">
+        <f t="shared" si="20"/>
         <v>271.71288102261553</v>
       </c>
-      <c r="K82" s="7">
-        <f t="shared" si="19"/>
+      <c r="L82" s="7">
+        <f t="shared" si="21"/>
         <v>44538.712881022613</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M82" s="5">
+        <f t="shared" si="17"/>
+        <v>483505</v>
+      </c>
+      <c r="N82" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>44268</v>
       </c>
@@ -3227,15 +4047,15 @@
         <v>1794</v>
       </c>
       <c r="C83" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1635.5714285714287</v>
       </c>
       <c r="D83" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>432381</v>
       </c>
       <c r="E83" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>52918</v>
       </c>
       <c r="F83" s="13"/>
@@ -3244,16 +4064,26 @@
       <c r="I83" s="13">
         <v>0</v>
       </c>
-      <c r="J83" s="6">
-        <f t="shared" si="18"/>
+      <c r="J83" s="13">
+        <v>0</v>
+      </c>
+      <c r="K83" s="6">
+        <f t="shared" si="20"/>
         <v>264.36081753864966</v>
       </c>
-      <c r="K83" s="7">
-        <f t="shared" si="19"/>
+      <c r="L83" s="7">
+        <f t="shared" si="21"/>
         <v>44532.360817538647</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M83" s="5">
+        <f t="shared" si="17"/>
+        <v>483505</v>
+      </c>
+      <c r="N83" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>44269</v>
       </c>
@@ -3261,15 +4091,15 @@
         <v>1780</v>
       </c>
       <c r="C84" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1700.8571428571429</v>
       </c>
       <c r="D84" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>430587</v>
       </c>
       <c r="E84" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>54698</v>
       </c>
       <c r="F84" s="13"/>
@@ -3278,16 +4108,26 @@
       <c r="I84" s="13">
         <v>0</v>
       </c>
-      <c r="J84" s="6">
-        <f t="shared" si="18"/>
+      <c r="J84" s="13">
+        <v>0</v>
+      </c>
+      <c r="K84" s="6">
+        <f t="shared" si="20"/>
         <v>253.15882748194187</v>
       </c>
-      <c r="K84" s="7">
-        <f t="shared" si="19"/>
+      <c r="L84" s="7">
+        <f t="shared" si="21"/>
         <v>44522.158827481944</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M84" s="5">
+        <f t="shared" si="17"/>
+        <v>483505</v>
+      </c>
+      <c r="N84" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>44270</v>
       </c>
@@ -3295,15 +4135,15 @@
         <v>2156</v>
       </c>
       <c r="C85" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1792</v>
       </c>
       <c r="D85" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>428807</v>
       </c>
       <c r="E85" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>56854</v>
       </c>
       <c r="F85" s="13"/>
@@ -3312,16 +4152,26 @@
       <c r="I85" s="13">
         <v>0</v>
       </c>
-      <c r="J85" s="6">
-        <f t="shared" si="18"/>
+      <c r="J85" s="13">
+        <v>0</v>
+      </c>
+      <c r="K85" s="6">
+        <f t="shared" si="20"/>
         <v>239.28962053571428</v>
       </c>
-      <c r="K85" s="7">
-        <f t="shared" si="19"/>
+      <c r="L85" s="7">
+        <f t="shared" si="21"/>
         <v>44509.289620535717</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M85" s="5">
+        <f t="shared" si="17"/>
+        <v>483505</v>
+      </c>
+      <c r="N85" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>44271</v>
       </c>
@@ -3329,15 +4179,15 @@
         <v>1708</v>
       </c>
       <c r="C86" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1798.2857142857142</v>
       </c>
       <c r="D86" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>426651</v>
       </c>
       <c r="E86" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>58562</v>
       </c>
       <c r="F86" s="13"/>
@@ -3346,16 +4196,26 @@
       <c r="I86" s="13">
         <v>0</v>
       </c>
-      <c r="J86" s="6">
-        <f t="shared" si="18"/>
+      <c r="J86" s="13">
+        <v>0</v>
+      </c>
+      <c r="K86" s="6">
+        <f t="shared" si="20"/>
         <v>237.25428979980936</v>
       </c>
-      <c r="K86" s="7">
-        <f t="shared" si="19"/>
+      <c r="L86" s="7">
+        <f t="shared" si="21"/>
         <v>44508.254289799806</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M86" s="5">
+        <f t="shared" si="17"/>
+        <v>483505</v>
+      </c>
+      <c r="N86" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>44272</v>
       </c>
@@ -3363,15 +4223,15 @@
         <v>1507</v>
       </c>
       <c r="C87" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1774</v>
       </c>
       <c r="D87" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>424943</v>
       </c>
       <c r="E87" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>60069</v>
       </c>
       <c r="F87" s="13"/>
@@ -3380,16 +4240,26 @@
       <c r="I87" s="13">
         <v>0</v>
       </c>
-      <c r="J87" s="6">
-        <f t="shared" si="18"/>
+      <c r="J87" s="13">
+        <v>0</v>
+      </c>
+      <c r="K87" s="6">
+        <f t="shared" si="20"/>
         <v>239.53945885005638</v>
       </c>
-      <c r="K87" s="7">
-        <f t="shared" si="19"/>
+      <c r="L87" s="7">
+        <f t="shared" si="21"/>
         <v>44511.539458850057</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M87" s="5">
+        <f t="shared" si="17"/>
+        <v>483505</v>
+      </c>
+      <c r="N87" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>44273</v>
       </c>
@@ -3397,15 +4267,15 @@
         <v>1529</v>
       </c>
       <c r="C88" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1761.2857142857142</v>
       </c>
       <c r="D88" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>423436</v>
       </c>
       <c r="E88" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>61598</v>
       </c>
       <c r="F88" s="13"/>
@@ -3414,16 +4284,26 @@
       <c r="I88" s="13">
         <v>0</v>
       </c>
-      <c r="J88" s="6">
-        <f t="shared" si="18"/>
+      <c r="J88" s="13">
+        <v>0</v>
+      </c>
+      <c r="K88" s="6">
+        <f t="shared" si="20"/>
         <v>240.41300997647824</v>
       </c>
-      <c r="K88" s="7">
-        <f t="shared" si="19"/>
+      <c r="L88" s="7">
+        <f t="shared" si="21"/>
         <v>44513.413009976481</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M88" s="5">
+        <f t="shared" si="17"/>
+        <v>483505</v>
+      </c>
+      <c r="N88" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>44274</v>
       </c>
@@ -3431,15 +4311,15 @@
         <v>1464</v>
       </c>
       <c r="C89" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1705.4285714285713</v>
       </c>
       <c r="D89" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>421907</v>
       </c>
       <c r="E89" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>63062</v>
       </c>
       <c r="F89" s="13"/>
@@ -3448,16 +4328,26 @@
       <c r="I89" s="13">
         <v>0</v>
       </c>
-      <c r="J89" s="6">
-        <f t="shared" si="18"/>
+      <c r="J89" s="13">
+        <v>0</v>
+      </c>
+      <c r="K89" s="6">
+        <f t="shared" si="20"/>
         <v>247.39060144077737</v>
       </c>
-      <c r="K89" s="7">
-        <f t="shared" si="19"/>
+      <c r="L89" s="7">
+        <f t="shared" si="21"/>
         <v>44521.390601440777</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M89" s="5">
+        <f t="shared" si="17"/>
+        <v>483505</v>
+      </c>
+      <c r="N89" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>44275</v>
       </c>
@@ -3465,15 +4355,15 @@
         <v>1518</v>
       </c>
       <c r="C90" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1666</v>
       </c>
       <c r="D90" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>420443</v>
       </c>
       <c r="E90" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>64580</v>
       </c>
       <c r="F90" s="13"/>
@@ -3482,16 +4372,26 @@
       <c r="I90" s="13">
         <v>0</v>
       </c>
-      <c r="J90" s="6">
-        <f t="shared" si="18"/>
+      <c r="J90" s="13">
+        <v>0</v>
+      </c>
+      <c r="K90" s="6">
+        <f t="shared" si="20"/>
         <v>252.36674669867946</v>
       </c>
-      <c r="K90" s="7">
-        <f t="shared" si="19"/>
+      <c r="L90" s="7">
+        <f t="shared" si="21"/>
         <v>44527.366746698681</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M90" s="5">
+        <f t="shared" si="17"/>
+        <v>483505</v>
+      </c>
+      <c r="N90" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>44276</v>
       </c>
@@ -3499,15 +4399,15 @@
         <v>1398</v>
       </c>
       <c r="C91" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1611.4285714285713</v>
       </c>
       <c r="D91" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>418925</v>
       </c>
       <c r="E91" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>65978</v>
       </c>
       <c r="F91" s="13"/>
@@ -3516,20 +4416,26 @@
       <c r="I91" s="13">
         <v>0</v>
       </c>
-      <c r="J91" s="6">
-        <f t="shared" si="18"/>
+      <c r="J91" s="13">
+        <v>0</v>
+      </c>
+      <c r="K91" s="6">
+        <f t="shared" si="20"/>
         <v>259.97118794326241</v>
       </c>
-      <c r="K91" s="7">
-        <f t="shared" si="19"/>
+      <c r="L91" s="7">
+        <f t="shared" si="21"/>
         <v>44535.971187943265</v>
       </c>
-      <c r="L91" s="6">
-        <f t="shared" ref="L91:L97" si="22">D91/84</f>
-        <v>4987.2023809523807</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M91" s="5">
+        <f t="shared" si="17"/>
+        <v>483505</v>
+      </c>
+      <c r="N91" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>44277</v>
       </c>
@@ -3537,15 +4443,15 @@
         <v>1379</v>
       </c>
       <c r="C92" s="5">
-        <f t="shared" ref="C92:C97" si="23">(AVERAGE(B86:B92))</f>
+        <f t="shared" ref="C92:C97" si="24">(AVERAGE(B86:B92))</f>
         <v>1500.4285714285713</v>
       </c>
       <c r="D92" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>417527</v>
       </c>
       <c r="E92" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>67357</v>
       </c>
       <c r="F92" s="13"/>
@@ -3554,20 +4460,26 @@
       <c r="I92" s="13">
         <v>0</v>
       </c>
-      <c r="J92" s="6">
-        <f t="shared" si="18"/>
+      <c r="J92" s="13">
+        <v>0</v>
+      </c>
+      <c r="K92" s="6">
+        <f t="shared" si="20"/>
         <v>278.27182709701992</v>
       </c>
-      <c r="K92" s="7">
-        <f t="shared" si="19"/>
+      <c r="L92" s="7">
+        <f t="shared" si="21"/>
         <v>44555.271827097022</v>
       </c>
-      <c r="L92" s="6">
-        <f t="shared" si="22"/>
-        <v>4970.5595238095239</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M92" s="5">
+        <f t="shared" si="17"/>
+        <v>483505</v>
+      </c>
+      <c r="N92" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>44278</v>
       </c>
@@ -3575,15 +4487,15 @@
         <v>1473</v>
       </c>
       <c r="C93" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1466.8571428571429</v>
       </c>
       <c r="D93" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>416148</v>
       </c>
       <c r="E93" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>68830</v>
       </c>
       <c r="F93" s="13"/>
@@ -3592,20 +4504,26 @@
       <c r="I93" s="13">
         <v>0</v>
       </c>
-      <c r="J93" s="6">
-        <f t="shared" si="18"/>
+      <c r="J93" s="13">
+        <v>0</v>
+      </c>
+      <c r="K93" s="6">
+        <f t="shared" si="20"/>
         <v>283.70042851577716</v>
       </c>
-      <c r="K93" s="7">
-        <f t="shared" si="19"/>
+      <c r="L93" s="7">
+        <f t="shared" si="21"/>
         <v>44561.700428515775</v>
       </c>
-      <c r="L93" s="6">
-        <f t="shared" si="22"/>
-        <v>4954.1428571428569</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M93" s="5">
+        <f t="shared" si="17"/>
+        <v>483505</v>
+      </c>
+      <c r="N93" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>44279</v>
       </c>
@@ -3613,14 +4531,14 @@
         <v>3206</v>
       </c>
       <c r="C94" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1709.5714285714287</v>
       </c>
       <c r="D94" s="5">
         <v>414675</v>
       </c>
       <c r="E94" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>72036</v>
       </c>
       <c r="F94" s="13"/>
@@ -3629,20 +4547,26 @@
       <c r="I94" s="13">
         <v>0</v>
       </c>
-      <c r="J94" s="6">
-        <f t="shared" si="18"/>
+      <c r="J94" s="13">
+        <v>0</v>
+      </c>
+      <c r="K94" s="6">
+        <f t="shared" si="20"/>
         <v>242.56079217849083</v>
       </c>
-      <c r="K94" s="7">
-        <f t="shared" si="19"/>
+      <c r="L94" s="7">
+        <f t="shared" si="21"/>
         <v>44521.56079217849</v>
       </c>
-      <c r="L94" s="6">
-        <f t="shared" si="22"/>
-        <v>4936.6071428571431</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M94" s="5">
+        <f t="shared" si="17"/>
+        <v>483505</v>
+      </c>
+      <c r="N94" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>44280</v>
       </c>
@@ -3650,15 +4574,15 @@
         <v>3206</v>
       </c>
       <c r="C95" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1949.1428571428571</v>
       </c>
       <c r="D95" s="5">
-        <f t="shared" ref="D95:D100" si="24">(D94-B95)</f>
+        <f t="shared" ref="D95:D100" si="25">(D94-B95)</f>
         <v>411469</v>
       </c>
       <c r="E95" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>75242</v>
       </c>
       <c r="F95" s="13"/>
@@ -3667,20 +4591,26 @@
       <c r="I95" s="13">
         <v>0</v>
       </c>
-      <c r="J95" s="6">
-        <f t="shared" si="18"/>
+      <c r="J95" s="13">
+        <v>0</v>
+      </c>
+      <c r="K95" s="6">
+        <f t="shared" si="20"/>
         <v>211.10253591322194</v>
       </c>
-      <c r="K95" s="7">
-        <f t="shared" si="19"/>
+      <c r="L95" s="7">
+        <f t="shared" si="21"/>
         <v>44491.102535913225</v>
       </c>
-      <c r="L95" s="6">
-        <f t="shared" si="22"/>
-        <v>4898.4404761904761</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M95" s="5">
+        <f t="shared" si="17"/>
+        <v>483505</v>
+      </c>
+      <c r="N95" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>44281</v>
       </c>
@@ -3688,15 +4618,15 @@
         <v>2987</v>
       </c>
       <c r="C96" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2166.7142857142858</v>
       </c>
       <c r="D96" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>408482</v>
       </c>
       <c r="E96" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>78229</v>
       </c>
       <c r="F96" s="13"/>
@@ -3705,20 +4635,26 @@
       <c r="I96" s="13">
         <v>0</v>
       </c>
-      <c r="J96" s="6">
-        <f t="shared" si="18"/>
+      <c r="J96" s="13">
+        <v>0</v>
+      </c>
+      <c r="K96" s="6">
+        <f t="shared" si="20"/>
         <v>188.52601041735346</v>
       </c>
-      <c r="K96" s="7">
-        <f t="shared" si="19"/>
+      <c r="L96" s="7">
+        <f t="shared" si="21"/>
         <v>44469.52601041735</v>
       </c>
-      <c r="L96" s="6">
-        <f t="shared" si="22"/>
-        <v>4862.8809523809523</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M96" s="5">
+        <f t="shared" si="17"/>
+        <v>483505</v>
+      </c>
+      <c r="N96" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>44282</v>
       </c>
@@ -3726,15 +4662,15 @@
         <v>2950</v>
       </c>
       <c r="C97" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2371.2857142857142</v>
       </c>
       <c r="D97" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>405532</v>
       </c>
       <c r="E97" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>81179</v>
       </c>
       <c r="F97" s="13"/>
@@ -3743,20 +4679,26 @@
       <c r="I97" s="13">
         <v>0</v>
       </c>
-      <c r="J97" s="6">
-        <f t="shared" si="18"/>
+      <c r="J97" s="13">
+        <v>0</v>
+      </c>
+      <c r="K97" s="6">
+        <f t="shared" si="20"/>
         <v>171.01777215494909</v>
       </c>
-      <c r="K97" s="7">
-        <f t="shared" si="19"/>
+      <c r="L97" s="7">
+        <f t="shared" si="21"/>
         <v>44453.017772154948</v>
       </c>
-      <c r="L97" s="6">
-        <f t="shared" si="22"/>
-        <v>4827.7619047619046</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M97" s="5">
+        <f t="shared" si="17"/>
+        <v>483505</v>
+      </c>
+      <c r="N97" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>44283</v>
       </c>
@@ -3764,15 +4706,15 @@
         <v>2315</v>
       </c>
       <c r="C98" s="6">
-        <f t="shared" ref="C98:C103" si="25">(AVERAGE(B92:B98))</f>
+        <f t="shared" ref="C98:C103" si="26">(AVERAGE(B92:B98))</f>
         <v>2502.2857142857142</v>
       </c>
       <c r="D98" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>403217</v>
       </c>
       <c r="E98" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>83494</v>
       </c>
       <c r="F98" s="13"/>
@@ -3781,20 +4723,26 @@
       <c r="I98" s="13">
         <v>0</v>
       </c>
-      <c r="J98" s="6">
-        <f t="shared" si="18"/>
+      <c r="J98" s="13">
+        <v>0</v>
+      </c>
+      <c r="K98" s="6">
+        <f t="shared" si="20"/>
         <v>161.1394724823019</v>
       </c>
-      <c r="K98" s="7">
-        <f t="shared" si="19"/>
+      <c r="L98" s="7">
+        <f t="shared" si="21"/>
         <v>44444.139472482304</v>
       </c>
-      <c r="L98" s="6">
-        <f>D98/84</f>
-        <v>4800.2023809523807</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M98" s="5">
+        <f t="shared" si="17"/>
+        <v>483505</v>
+      </c>
+      <c r="N98" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>44284</v>
       </c>
@@ -3802,15 +4750,15 @@
         <v>2600</v>
       </c>
       <c r="C99" s="6">
+        <f t="shared" si="26"/>
+        <v>2676.7142857142858</v>
+      </c>
+      <c r="D99" s="5">
         <f t="shared" si="25"/>
-        <v>2676.7142857142858</v>
-      </c>
-      <c r="D99" s="5">
-        <f t="shared" si="24"/>
         <v>400617</v>
       </c>
       <c r="E99" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>86094</v>
       </c>
       <c r="F99" s="13"/>
@@ -3819,20 +4767,26 @@
       <c r="I99" s="13">
         <v>0</v>
       </c>
-      <c r="J99" s="6">
-        <f t="shared" si="18"/>
+      <c r="J99" s="13">
+        <v>0</v>
+      </c>
+      <c r="K99" s="6">
+        <f t="shared" si="20"/>
         <v>149.66744943160592</v>
       </c>
-      <c r="K99" s="7">
-        <f t="shared" si="19"/>
+      <c r="L99" s="7">
+        <f t="shared" si="21"/>
         <v>44433.667449431603</v>
       </c>
-      <c r="L99" s="6">
-        <f>D99/84</f>
-        <v>4769.25</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M99" s="5">
+        <f t="shared" si="17"/>
+        <v>483505</v>
+      </c>
+      <c r="N99" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>44285</v>
       </c>
@@ -3840,15 +4794,15 @@
         <v>3184</v>
       </c>
       <c r="C100" s="6">
+        <f t="shared" si="26"/>
+        <v>2921.1428571428573</v>
+      </c>
+      <c r="D100" s="5">
         <f t="shared" si="25"/>
-        <v>2921.1428571428573</v>
-      </c>
-      <c r="D100" s="5">
-        <f t="shared" si="24"/>
         <v>397433</v>
       </c>
       <c r="E100" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>89278</v>
       </c>
       <c r="F100" s="13"/>
@@ -3857,20 +4811,26 @@
       <c r="I100" s="13">
         <v>0</v>
       </c>
-      <c r="J100" s="6">
-        <f t="shared" ref="J100" si="26">D100/C100</f>
+      <c r="J100" s="13">
+        <v>0</v>
+      </c>
+      <c r="K100" s="6">
+        <f t="shared" ref="K100" si="27">D100/C100</f>
         <v>136.05394170579029</v>
       </c>
-      <c r="K100" s="7">
-        <f t="shared" ref="K100" si="27">A100+J100</f>
+      <c r="L100" s="7">
+        <f t="shared" ref="L100" si="28">A100+K100</f>
         <v>44421.053941705788</v>
       </c>
-      <c r="L100" s="6">
-        <f t="shared" ref="L100:L101" si="28">D100/84</f>
-        <v>4731.3452380952385</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M100" s="5">
+        <f t="shared" si="17"/>
+        <v>483505</v>
+      </c>
+      <c r="N100" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>44286</v>
       </c>
@@ -3878,7 +4838,7 @@
         <v>3774</v>
       </c>
       <c r="C101" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>3002.2857142857142</v>
       </c>
       <c r="D101" s="5">
@@ -3895,20 +4855,26 @@
       <c r="I101" s="13">
         <v>0</v>
       </c>
-      <c r="J101" s="6">
-        <f t="shared" ref="J101" si="31">D101/C101</f>
+      <c r="J101" s="13">
+        <v>0</v>
+      </c>
+      <c r="K101" s="6">
+        <f t="shared" ref="K101" si="31">D101/C101</f>
         <v>131.11976589265322</v>
       </c>
-      <c r="K101" s="7">
-        <f t="shared" ref="K101" si="32">A101+J101</f>
+      <c r="L101" s="7">
+        <f t="shared" ref="L101" si="32">A101+K101</f>
         <v>44417.119765892654</v>
       </c>
-      <c r="L101" s="6">
-        <f t="shared" si="28"/>
-        <v>4686.416666666667</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M101" s="5">
+        <f t="shared" si="17"/>
+        <v>483505</v>
+      </c>
+      <c r="N101" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>44287</v>
       </c>
@@ -3916,7 +4882,7 @@
         <v>3673</v>
       </c>
       <c r="C102" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>3069</v>
       </c>
       <c r="D102" s="5">
@@ -3933,20 +4899,26 @@
       <c r="I102" s="13">
         <v>0</v>
       </c>
-      <c r="J102" s="6">
-        <f t="shared" ref="J102" si="35">D102/C102</f>
+      <c r="J102" s="13">
+        <v>0</v>
+      </c>
+      <c r="K102" s="6">
+        <f t="shared" ref="K102" si="35">D102/C102</f>
         <v>127.07266210492017</v>
       </c>
-      <c r="K102" s="7">
-        <f t="shared" ref="K102" si="36">A102+J102</f>
+      <c r="L102" s="7">
+        <f t="shared" ref="L102" si="36">A102+K102</f>
         <v>44414.072662104918</v>
       </c>
-      <c r="L102" s="6">
-        <f t="shared" ref="L102" si="37">D102/84</f>
-        <v>4642.6904761904761</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M102" s="5">
+        <f t="shared" si="17"/>
+        <v>483505</v>
+      </c>
+      <c r="N102" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <v>44288</v>
       </c>
@@ -3954,15 +4926,15 @@
         <v>3387</v>
       </c>
       <c r="C103" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>3126.1428571428573</v>
       </c>
       <c r="D103" s="5">
-        <f t="shared" ref="D103" si="38">(D102-B103)</f>
+        <f t="shared" ref="D103" si="37">(D102-B103)</f>
         <v>386599</v>
       </c>
       <c r="E103" s="5">
-        <f t="shared" ref="E103" si="39">E102+B103</f>
+        <f t="shared" ref="E103" si="38">E102+B103</f>
         <v>100112</v>
       </c>
       <c r="F103" s="13"/>
@@ -3971,20 +4943,26 @@
       <c r="I103" s="13">
         <v>0</v>
       </c>
-      <c r="J103" s="6">
-        <f t="shared" ref="J103" si="40">D103/C103</f>
+      <c r="J103" s="13">
+        <v>0</v>
+      </c>
+      <c r="K103" s="6">
+        <f t="shared" ref="K103" si="39">D103/C103</f>
         <v>123.66645341132386</v>
       </c>
-      <c r="K103" s="7">
-        <f t="shared" ref="K103" si="41">A103+J103</f>
+      <c r="L103" s="7">
+        <f t="shared" ref="L103" si="40">A103+K103</f>
         <v>44411.666453411322</v>
       </c>
-      <c r="L103" s="6">
-        <f t="shared" ref="L103" si="42">D103/84</f>
-        <v>4602.3690476190477</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M103" s="5">
+        <f t="shared" si="17"/>
+        <v>483505</v>
+      </c>
+      <c r="N103" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
         <v>44289</v>
       </c>
@@ -3992,15 +4970,15 @@
         <v>3560</v>
       </c>
       <c r="C104" s="6">
-        <f t="shared" ref="C104:C110" si="43">(AVERAGE(B98:B104))</f>
+        <f t="shared" ref="C104:C110" si="41">(AVERAGE(B98:B104))</f>
         <v>3213.2857142857142</v>
       </c>
       <c r="D104" s="5">
-        <f t="shared" ref="D104" si="44">(D103-B104)</f>
+        <f t="shared" ref="D104" si="42">(D103-B104)</f>
         <v>383039</v>
       </c>
       <c r="E104" s="5">
-        <f t="shared" ref="E104" si="45">E103+B104</f>
+        <f t="shared" ref="E104" si="43">E103+B104</f>
         <v>103672</v>
       </c>
       <c r="F104" s="13"/>
@@ -4009,20 +4987,26 @@
       <c r="I104" s="13">
         <v>0</v>
       </c>
-      <c r="J104" s="6">
-        <f t="shared" ref="J104" si="46">D104/C104</f>
+      <c r="J104" s="13">
+        <v>0</v>
+      </c>
+      <c r="K104" s="6">
+        <f t="shared" ref="K104" si="44">D104/C104</f>
         <v>119.20477481883253</v>
       </c>
-      <c r="K104" s="7">
-        <f t="shared" ref="K104" si="47">A104+J104</f>
+      <c r="L104" s="7">
+        <f t="shared" ref="L104" si="45">A104+K104</f>
         <v>44408.204774818834</v>
       </c>
-      <c r="L104" s="6">
-        <f t="shared" ref="L104" si="48">D104/84</f>
-        <v>4559.9880952380954</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M104" s="5">
+        <f t="shared" si="17"/>
+        <v>483505</v>
+      </c>
+      <c r="N104" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
         <v>44290</v>
       </c>
@@ -4030,15 +5014,15 @@
         <v>3752</v>
       </c>
       <c r="C105" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>3418.5714285714284</v>
       </c>
       <c r="D105" s="5">
-        <f t="shared" ref="D105" si="49">(D104-B105)</f>
+        <f t="shared" ref="D105" si="46">(D104-B105)</f>
         <v>379287</v>
       </c>
       <c r="E105" s="5">
-        <f t="shared" ref="E105" si="50">E104+B105</f>
+        <f t="shared" ref="E105" si="47">E104+B105</f>
         <v>107424</v>
       </c>
       <c r="F105" s="13"/>
@@ -4047,20 +5031,26 @@
       <c r="I105" s="13">
         <v>0</v>
       </c>
-      <c r="J105" s="6">
-        <f t="shared" ref="J105" si="51">D105/C105</f>
+      <c r="J105" s="13">
+        <v>0</v>
+      </c>
+      <c r="K105" s="6">
+        <f t="shared" ref="K105" si="48">D105/C105</f>
         <v>110.94897618052654</v>
       </c>
-      <c r="K105" s="7">
-        <f t="shared" ref="K105" si="52">A105+J105</f>
+      <c r="L105" s="7">
+        <f t="shared" ref="L105" si="49">A105+K105</f>
         <v>44400.948976180523</v>
       </c>
-      <c r="L105" s="6">
-        <f t="shared" ref="L105" si="53">D105/84</f>
-        <v>4515.3214285714284</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M105" s="5">
+        <f t="shared" si="17"/>
+        <v>483505</v>
+      </c>
+      <c r="N105" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
         <v>44291</v>
       </c>
@@ -4068,15 +5058,15 @@
         <v>3759</v>
       </c>
       <c r="C106" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>3584.1428571428573</v>
       </c>
       <c r="D106" s="5">
-        <f t="shared" ref="D106" si="54">(D105-B106)</f>
+        <f t="shared" ref="D106" si="50">(D105-B106)</f>
         <v>375528</v>
       </c>
       <c r="E106" s="5">
-        <f t="shared" ref="E106" si="55">E105+B106</f>
+        <f t="shared" ref="E106" si="51">E105+B106</f>
         <v>111183</v>
       </c>
       <c r="F106" s="13"/>
@@ -4085,20 +5075,26 @@
       <c r="I106" s="13">
         <v>0</v>
       </c>
-      <c r="J106" s="6">
-        <f t="shared" ref="J106" si="56">D106/C106</f>
+      <c r="J106" s="13">
+        <v>0</v>
+      </c>
+      <c r="K106" s="6">
+        <f t="shared" ref="K106" si="52">D106/C106</f>
         <v>104.77484156403204</v>
       </c>
-      <c r="K106" s="7">
-        <f t="shared" ref="K106" si="57">A106+J106</f>
+      <c r="L106" s="7">
+        <f t="shared" ref="L106" si="53">A106+K106</f>
         <v>44395.774841564031</v>
       </c>
-      <c r="L106" s="6">
-        <f t="shared" ref="L106" si="58">D106/84</f>
-        <v>4470.5714285714284</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M106" s="5">
+        <f t="shared" si="17"/>
+        <v>483505</v>
+      </c>
+      <c r="N106" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
         <v>44292</v>
       </c>
@@ -4106,15 +5102,15 @@
         <v>3303</v>
       </c>
       <c r="C107" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>3601.1428571428573</v>
       </c>
       <c r="D107" s="5">
-        <f t="shared" ref="D107" si="59">(D106-B107)</f>
+        <f t="shared" ref="D107" si="54">(D106-B107)</f>
         <v>372225</v>
       </c>
       <c r="E107" s="5">
-        <f t="shared" ref="E107" si="60">E106+B107</f>
+        <f t="shared" ref="E107" si="55">E106+B107</f>
         <v>114486</v>
       </c>
       <c r="F107" s="13"/>
@@ -4123,20 +5119,26 @@
       <c r="I107" s="13">
         <v>0</v>
       </c>
-      <c r="J107" s="6">
-        <f t="shared" ref="J107" si="61">D107/C107</f>
+      <c r="J107" s="13">
+        <v>0</v>
+      </c>
+      <c r="K107" s="6">
+        <f t="shared" ref="K107" si="56">D107/C107</f>
         <v>103.36301967629323</v>
       </c>
-      <c r="K107" s="7">
-        <f t="shared" ref="K107" si="62">A107+J107</f>
+      <c r="L107" s="7">
+        <f t="shared" ref="L107" si="57">A107+K107</f>
         <v>44395.36301967629</v>
       </c>
-      <c r="L107" s="6">
-        <f t="shared" ref="L107" si="63">D107/84</f>
-        <v>4431.25</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M107" s="5">
+        <f t="shared" si="17"/>
+        <v>483505</v>
+      </c>
+      <c r="N107" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
         <v>44293</v>
       </c>
@@ -4144,15 +5146,15 @@
         <v>3096</v>
       </c>
       <c r="C108" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>3504.2857142857142</v>
       </c>
       <c r="D108" s="5">
-        <f t="shared" ref="D108" si="64">(D107-B108)</f>
+        <f t="shared" ref="D108" si="58">(D107-B108)</f>
         <v>369129</v>
       </c>
       <c r="E108" s="5">
-        <f t="shared" ref="E108" si="65">E107+B108</f>
+        <f t="shared" ref="E108" si="59">E107+B108</f>
         <v>117582</v>
       </c>
       <c r="F108" s="13"/>
@@ -4161,20 +5163,26 @@
       <c r="I108" s="13">
         <v>0</v>
       </c>
-      <c r="J108" s="6">
-        <f t="shared" ref="J108" si="66">D108/C108</f>
+      <c r="J108" s="13">
+        <v>0</v>
+      </c>
+      <c r="K108" s="6">
+        <f t="shared" ref="K108" si="60">D108/C108</f>
         <v>105.33644516918059</v>
       </c>
-      <c r="K108" s="7">
-        <f t="shared" ref="K108" si="67">A108+J108</f>
+      <c r="L108" s="7">
+        <f t="shared" ref="L108" si="61">A108+K108</f>
         <v>44398.336445169181</v>
       </c>
-      <c r="L108" s="6">
-        <f t="shared" ref="L108" si="68">D108/84</f>
-        <v>4394.3928571428569</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M108" s="5">
+        <f t="shared" si="17"/>
+        <v>483505</v>
+      </c>
+      <c r="N108" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
         <v>44294</v>
       </c>
@@ -4182,15 +5190,15 @@
         <v>2523</v>
       </c>
       <c r="C109" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>3340</v>
       </c>
       <c r="D109" s="5">
-        <f t="shared" ref="D109" si="69">(D108-B109)</f>
+        <f t="shared" ref="D109" si="62">(D108-B109)</f>
         <v>366606</v>
       </c>
       <c r="E109" s="5">
-        <f t="shared" ref="E109" si="70">E108+B109</f>
+        <f t="shared" ref="E109" si="63">E108+B109</f>
         <v>120105</v>
       </c>
       <c r="F109" s="13"/>
@@ -4199,20 +5207,26 @@
       <c r="I109" s="13">
         <v>0</v>
       </c>
-      <c r="J109" s="6">
-        <f t="shared" ref="J109" si="71">D109/C109</f>
+      <c r="J109" s="13">
+        <v>0</v>
+      </c>
+      <c r="K109" s="6">
+        <f t="shared" ref="K109" si="64">D109/C109</f>
         <v>109.76227544910179</v>
       </c>
-      <c r="K109" s="7">
-        <f t="shared" ref="K109" si="72">A109+J109</f>
+      <c r="L109" s="7">
+        <f t="shared" ref="L109" si="65">A109+K109</f>
         <v>44403.762275449102</v>
       </c>
-      <c r="L109" s="6">
-        <f t="shared" ref="L109" si="73">D109/84</f>
-        <v>4364.3571428571431</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M109" s="5">
+        <f t="shared" si="17"/>
+        <v>483505</v>
+      </c>
+      <c r="N109" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
         <v>44295</v>
       </c>
@@ -4220,15 +5234,15 @@
         <v>3979</v>
       </c>
       <c r="C110" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>3424.5714285714284</v>
       </c>
       <c r="D110" s="5">
-        <f t="shared" ref="D110" si="74">(D109-B110)</f>
+        <f t="shared" ref="D110" si="66">(D109-B110)</f>
         <v>362627</v>
       </c>
       <c r="E110" s="5">
-        <f t="shared" ref="E110" si="75">E109+B110</f>
+        <f t="shared" ref="E110" si="67">E109+B110</f>
         <v>124084</v>
       </c>
       <c r="F110" s="13"/>
@@ -4237,20 +5251,26 @@
       <c r="I110" s="13">
         <v>0</v>
       </c>
-      <c r="J110" s="6">
-        <f t="shared" ref="J110" si="76">D110/C110</f>
+      <c r="J110" s="13">
+        <v>0</v>
+      </c>
+      <c r="K110" s="6">
+        <f t="shared" ref="K110" si="68">D110/C110</f>
         <v>105.88974637076589</v>
       </c>
-      <c r="K110" s="7">
-        <f t="shared" ref="K110" si="77">A110+J110</f>
+      <c r="L110" s="7">
+        <f t="shared" ref="L110" si="69">A110+K110</f>
         <v>44400.889746370769</v>
       </c>
-      <c r="L110" s="6">
-        <f t="shared" ref="L110" si="78">D110/84</f>
-        <v>4316.9880952380954</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M110" s="5">
+        <f t="shared" si="17"/>
+        <v>483505</v>
+      </c>
+      <c r="N110" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
         <v>44296</v>
       </c>
@@ -4258,15 +5278,15 @@
         <v>3984</v>
       </c>
       <c r="C111" s="6">
-        <f t="shared" ref="C111" si="79">(AVERAGE(B105:B111))</f>
+        <f t="shared" ref="C111" si="70">(AVERAGE(B105:B111))</f>
         <v>3485.1428571428573</v>
       </c>
       <c r="D111" s="5">
-        <f t="shared" ref="D111" si="80">(D110-B111)</f>
+        <f t="shared" ref="D111" si="71">(D110-B111)</f>
         <v>358643</v>
       </c>
       <c r="E111" s="5">
-        <f t="shared" ref="E111" si="81">E110+B111</f>
+        <f t="shared" ref="E111" si="72">E110+B111</f>
         <v>128068</v>
       </c>
       <c r="F111" s="13"/>
@@ -4275,20 +5295,26 @@
       <c r="I111" s="13">
         <v>0</v>
       </c>
-      <c r="J111" s="6">
-        <f t="shared" ref="J111" si="82">D111/C111</f>
+      <c r="J111" s="13">
+        <v>0</v>
+      </c>
+      <c r="K111" s="6">
+        <f t="shared" ref="K111" si="73">D111/C111</f>
         <v>102.90625512379079</v>
       </c>
-      <c r="K111" s="7">
-        <f t="shared" ref="K111" si="83">A111+J111</f>
+      <c r="L111" s="7">
+        <f t="shared" ref="L111" si="74">A111+K111</f>
         <v>44398.906255123788</v>
       </c>
-      <c r="L111" s="6">
-        <f t="shared" ref="L111" si="84">D111/84</f>
-        <v>4269.5595238095239</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M111" s="5">
+        <f t="shared" si="17"/>
+        <v>483505</v>
+      </c>
+      <c r="N111" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
         <v>44297</v>
       </c>
@@ -4296,15 +5322,15 @@
         <v>3935</v>
       </c>
       <c r="C112" s="6">
-        <f t="shared" ref="C112" si="85">(AVERAGE(B106:B112))</f>
+        <f t="shared" ref="C112" si="75">(AVERAGE(B106:B112))</f>
         <v>3511.2857142857142</v>
       </c>
       <c r="D112" s="5">
-        <f t="shared" ref="D112" si="86">(D111-B112)</f>
+        <f t="shared" ref="D112" si="76">(D111-B112)</f>
         <v>354708</v>
       </c>
       <c r="E112" s="5">
-        <f t="shared" ref="E112" si="87">E111+B112</f>
+        <f t="shared" ref="E112" si="77">E111+B112</f>
         <v>132003</v>
       </c>
       <c r="F112" s="13"/>
@@ -4313,20 +5339,26 @@
       <c r="I112" s="13">
         <v>0</v>
       </c>
-      <c r="J112" s="6">
-        <f t="shared" ref="J112" si="88">D112/C112</f>
+      <c r="J112" s="13">
+        <v>0</v>
+      </c>
+      <c r="K112" s="6">
+        <f t="shared" ref="K112" si="78">D112/C112</f>
         <v>101.01940681069206</v>
       </c>
-      <c r="K112" s="7">
-        <f t="shared" ref="K112" si="89">A112+J112</f>
+      <c r="L112" s="7">
+        <f t="shared" ref="L112" si="79">A112+K112</f>
         <v>44398.019406810694</v>
       </c>
-      <c r="L112" s="6">
-        <f t="shared" ref="L112" si="90">D112/84</f>
-        <v>4222.7142857142853</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M112" s="5">
+        <f t="shared" si="17"/>
+        <v>483505</v>
+      </c>
+      <c r="N112" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
         <v>44298</v>
       </c>
@@ -4334,15 +5366,15 @@
         <v>3709</v>
       </c>
       <c r="C113" s="6">
-        <f t="shared" ref="C113" si="91">(AVERAGE(B107:B113))</f>
+        <f t="shared" ref="C113" si="80">(AVERAGE(B107:B113))</f>
         <v>3504.1428571428573</v>
       </c>
       <c r="D113" s="5">
-        <f t="shared" ref="D113:D115" si="92">(D112-B113)</f>
+        <f t="shared" ref="D113:D115" si="81">(D112-B113)</f>
         <v>350999</v>
       </c>
       <c r="E113" s="5">
-        <f t="shared" ref="E113" si="93">E112+B113</f>
+        <f t="shared" ref="E113" si="82">E112+B113</f>
         <v>135712</v>
       </c>
       <c r="F113" s="13"/>
@@ -4351,20 +5383,26 @@
       <c r="I113" s="13">
         <v>0</v>
       </c>
-      <c r="J113" s="6">
-        <f t="shared" ref="J113" si="94">D113/C113</f>
+      <c r="J113" s="13">
+        <v>0</v>
+      </c>
+      <c r="K113" s="6">
+        <f t="shared" ref="K113" si="83">D113/C113</f>
         <v>100.16686371234049</v>
       </c>
-      <c r="K113" s="7">
-        <f t="shared" ref="K113" si="95">A113+J113</f>
+      <c r="L113" s="7">
+        <f t="shared" ref="L113" si="84">A113+K113</f>
         <v>44398.166863712344</v>
       </c>
-      <c r="L113" s="6">
-        <f t="shared" ref="L113" si="96">D113/84</f>
-        <v>4178.5595238095239</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M113" s="5">
+        <f t="shared" si="17"/>
+        <v>483505</v>
+      </c>
+      <c r="N113" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
         <v>44299</v>
       </c>
@@ -4372,15 +5410,15 @@
         <v>4332</v>
       </c>
       <c r="C114" s="6">
-        <f t="shared" ref="C114" si="97">(AVERAGE(B108:B114))</f>
+        <f t="shared" ref="C114" si="85">(AVERAGE(B108:B114))</f>
         <v>3651.1428571428573</v>
       </c>
       <c r="D114" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="81"/>
         <v>346667</v>
       </c>
       <c r="E114" s="5">
-        <f t="shared" ref="E114" si="98">E113+B114</f>
+        <f t="shared" ref="E114" si="86">E113+B114</f>
         <v>140044</v>
       </c>
       <c r="F114" s="13"/>
@@ -4389,20 +5427,26 @@
       <c r="I114" s="13">
         <v>0</v>
       </c>
-      <c r="J114" s="6">
-        <f t="shared" ref="J114" si="99">D114/C114</f>
+      <c r="J114" s="13">
+        <v>0</v>
+      </c>
+      <c r="K114" s="6">
+        <f t="shared" ref="K114" si="87">D114/C114</f>
         <v>94.947531105720316</v>
       </c>
-      <c r="K114" s="7">
-        <f t="shared" ref="K114" si="100">A114+J114</f>
+      <c r="L114" s="7">
+        <f t="shared" ref="L114" si="88">A114+K114</f>
         <v>44393.947531105718</v>
       </c>
-      <c r="L114" s="6">
-        <f t="shared" ref="L114" si="101">D114/84</f>
-        <v>4126.9880952380954</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M114" s="5">
+        <f t="shared" si="17"/>
+        <v>483505</v>
+      </c>
+      <c r="N114" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="4">
         <v>44300</v>
       </c>
@@ -4410,15 +5454,15 @@
         <v>4111</v>
       </c>
       <c r="C115" s="6">
-        <f t="shared" ref="C115" si="102">(AVERAGE(B109:B115))</f>
+        <f t="shared" ref="C115" si="89">(AVERAGE(B109:B115))</f>
         <v>3796.1428571428573</v>
       </c>
       <c r="D115" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="81"/>
         <v>342556</v>
       </c>
       <c r="E115" s="5">
-        <f t="shared" ref="E115" si="103">E114+B115</f>
+        <f t="shared" ref="E115" si="90">E114+B115</f>
         <v>144155</v>
       </c>
       <c r="F115" s="13"/>
@@ -4427,20 +5471,26 @@
       <c r="I115" s="13">
         <v>0</v>
       </c>
-      <c r="J115" s="6">
-        <f t="shared" ref="J115" si="104">D115/C115</f>
+      <c r="J115" s="13">
+        <v>0</v>
+      </c>
+      <c r="K115" s="6">
+        <f t="shared" ref="K115" si="91">D115/C115</f>
         <v>90.237910661197446</v>
       </c>
-      <c r="K115" s="7">
-        <f t="shared" ref="K115" si="105">A115+J115</f>
+      <c r="L115" s="7">
+        <f t="shared" ref="L115" si="92">A115+K115</f>
         <v>44390.237910661199</v>
       </c>
-      <c r="L115" s="6">
-        <f t="shared" ref="L115" si="106">D115/84</f>
-        <v>4078.0476190476193</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M115" s="5">
+        <f t="shared" si="17"/>
+        <v>483505</v>
+      </c>
+      <c r="N115" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
         <v>44301</v>
       </c>
@@ -4448,7 +5498,7 @@
         <v>3377</v>
       </c>
       <c r="C116" s="6">
-        <f t="shared" ref="C116" si="107">(AVERAGE(B110:B116))</f>
+        <f t="shared" ref="C116" si="93">(AVERAGE(B110:B116))</f>
         <v>3918.1428571428573</v>
       </c>
       <c r="D116" s="5">
@@ -4456,7 +5506,7 @@
         <v>332026</v>
       </c>
       <c r="E116" s="5">
-        <f t="shared" ref="E116" si="108">E115+B116</f>
+        <f t="shared" ref="E116" si="94">E115+B116</f>
         <v>147532</v>
       </c>
       <c r="F116" s="13">
@@ -4474,20 +5524,26 @@
         <f>G116/2</f>
         <v>7153</v>
       </c>
-      <c r="J116" s="6">
+      <c r="J116" s="13">
+        <v>7153</v>
+      </c>
+      <c r="K116" s="6">
         <f>D116/C116</f>
         <v>84.740657016808257</v>
       </c>
-      <c r="K116" s="7">
-        <f>A116+J116</f>
+      <c r="L116" s="7">
+        <f>A116+K116</f>
         <v>44385.74065701681</v>
       </c>
-      <c r="L116" s="6">
-        <f t="shared" ref="L116" si="109">D116/84</f>
-        <v>3952.6904761904761</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" s="5" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M116" s="5">
+        <f t="shared" si="17"/>
+        <v>476352</v>
+      </c>
+      <c r="N116" s="5">
+        <v>483505</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" s="5" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="4">
         <v>44302</v>
       </c>
@@ -4495,7 +5551,7 @@
         <v>3918</v>
       </c>
       <c r="C117" s="6">
-        <f t="shared" ref="C117" si="110">(AVERAGE(B111:B117))</f>
+        <f t="shared" ref="C117" si="95">(AVERAGE(B111:B117))</f>
         <v>3909.4285714285716</v>
       </c>
       <c r="D117" s="5">
@@ -4503,7 +5559,7 @@
         <v>328108</v>
       </c>
       <c r="E117" s="5">
-        <f t="shared" ref="E117" si="111">E116+B117</f>
+        <f t="shared" ref="E117" si="96">E116+B117</f>
         <v>151450</v>
       </c>
       <c r="F117" s="13">
@@ -4518,23 +5574,28 @@
         <v>28612</v>
       </c>
       <c r="I117" s="13">
-        <f t="shared" ref="I117:I118" si="112">G117/2</f>
+        <f t="shared" ref="I117:I118" si="97">G117/2</f>
         <v>7153</v>
       </c>
-      <c r="J117" s="6">
+      <c r="J117" s="13">
+        <v>7153</v>
+      </c>
+      <c r="K117" s="6">
         <f>D117/C117</f>
         <v>83.927355112182994</v>
       </c>
-      <c r="K117" s="7">
-        <f>A117+J117</f>
+      <c r="L117" s="7">
+        <f>A117+K117</f>
         <v>44385.927355112181</v>
       </c>
-      <c r="L117" s="6">
-        <f t="shared" ref="L117" si="113">D117/84</f>
-        <v>3906.0476190476193</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" s="5" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M117" s="5">
+        <v>476352</v>
+      </c>
+      <c r="N117" s="5">
+        <v>476352</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4">
         <v>44303</v>
       </c>
@@ -4542,7 +5603,7 @@
         <v>3956</v>
       </c>
       <c r="C118" s="6">
-        <f t="shared" ref="C118" si="114">(AVERAGE(B112:B118))</f>
+        <f t="shared" ref="C118" si="98">(AVERAGE(B112:B118))</f>
         <v>3905.4285714285716</v>
       </c>
       <c r="D118" s="5">
@@ -4550,7 +5611,7 @@
         <v>324152</v>
       </c>
       <c r="E118" s="5">
-        <f t="shared" ref="E118" si="115">E117+B118</f>
+        <f t="shared" ref="E118" si="99">E117+B118</f>
         <v>155406</v>
       </c>
       <c r="F118" s="13">
@@ -4565,70 +5626,129 @@
         <v>28612</v>
       </c>
       <c r="I118" s="13">
-        <f t="shared" si="112"/>
+        <f t="shared" si="97"/>
         <v>7153</v>
       </c>
-      <c r="J118" s="6">
+      <c r="J118" s="13">
+        <v>7153</v>
+      </c>
+      <c r="K118" s="6">
         <f>D118/C118</f>
         <v>83.000365791206377</v>
       </c>
-      <c r="K118" s="7">
-        <f>A118+J118</f>
+      <c r="L118" s="7">
+        <f>A118+K118</f>
         <v>44386.000365791209</v>
       </c>
-      <c r="L118" s="6">
-        <f t="shared" ref="L118" si="116">D118/84</f>
-        <v>3858.9523809523807</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" s="9" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="8">
+      <c r="M118" s="5">
+        <v>476352</v>
+      </c>
+      <c r="N118" s="5">
+        <v>476352</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" s="5" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="4">
         <v>44304</v>
       </c>
-      <c r="B119" s="9">
+      <c r="B119" s="5">
         <v>3541</v>
       </c>
-      <c r="C119" s="10">
-        <f t="shared" ref="C119" si="117">(AVERAGE(B113:B119))</f>
+      <c r="C119" s="6">
+        <f t="shared" ref="C119" si="100">(AVERAGE(B113:B119))</f>
         <v>3849.1428571428573</v>
       </c>
-      <c r="D119" s="9">
+      <c r="D119" s="5">
         <f>(D118-B119)</f>
         <v>320611</v>
       </c>
-      <c r="E119" s="9">
-        <f t="shared" ref="E119" si="118">E118+B119</f>
+      <c r="E119" s="5">
+        <f t="shared" ref="E119" si="101">E118+B119</f>
         <v>158947</v>
       </c>
-      <c r="F119" s="14">
+      <c r="F119" s="13">
         <f>(E119-G119)</f>
         <v>144641</v>
       </c>
-      <c r="G119" s="14">
+      <c r="G119" s="13">
         <v>14306</v>
       </c>
-      <c r="H119" s="14">
+      <c r="H119" s="13">
         <f>(G119*2)</f>
         <v>28612</v>
       </c>
-      <c r="I119" s="14">
-        <f t="shared" ref="I119" si="119">G119/2</f>
+      <c r="I119" s="13">
+        <f t="shared" ref="I119" si="102">G119/2</f>
         <v>7153</v>
       </c>
-      <c r="J119" s="10">
+      <c r="J119" s="13">
+        <v>7153</v>
+      </c>
+      <c r="K119" s="6">
         <f>D119/C119</f>
         <v>83.29412856294536</v>
       </c>
-      <c r="K119" s="11">
-        <f>A119+J119</f>
+      <c r="L119" s="7">
+        <f>A119+K119</f>
         <v>44387.294128562942</v>
       </c>
-      <c r="L119" s="10">
-        <f t="shared" ref="L119" si="120">D119/84</f>
-        <v>3816.7976190476193</v>
-      </c>
-      <c r="M119" s="9" t="s">
-        <v>6</v>
+      <c r="M119" s="5">
+        <v>476352</v>
+      </c>
+      <c r="N119" s="5">
+        <v>476352</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" s="9" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="8">
+        <v>44305</v>
+      </c>
+      <c r="B120" s="9">
+        <v>2101</v>
+      </c>
+      <c r="C120" s="10">
+        <f t="shared" ref="C120" si="103">(AVERAGE(B114:B120))</f>
+        <v>3619.4285714285716</v>
+      </c>
+      <c r="D120" s="9">
+        <f>(D119-B120)</f>
+        <v>318510</v>
+      </c>
+      <c r="E120" s="9">
+        <f t="shared" ref="E120" si="104">E119+B120</f>
+        <v>161048</v>
+      </c>
+      <c r="F120" s="14">
+        <f>(E120-G120)</f>
+        <v>146742</v>
+      </c>
+      <c r="G120" s="14">
+        <v>14306</v>
+      </c>
+      <c r="H120" s="14">
+        <f>(G120*2)</f>
+        <v>28612</v>
+      </c>
+      <c r="I120" s="14">
+        <f t="shared" ref="I120" si="105">G120/2</f>
+        <v>7153</v>
+      </c>
+      <c r="J120" s="14">
+        <v>7153</v>
+      </c>
+      <c r="K120" s="10">
+        <f>D120/C120</f>
+        <v>88.000078939059037</v>
+      </c>
+      <c r="L120" s="11">
+        <f>A120+K120</f>
+        <v>44393.000078939061</v>
+      </c>
+      <c r="M120" s="9">
+        <v>476352</v>
+      </c>
+      <c r="N120" s="9">
+        <v>476352</v>
       </c>
     </row>
   </sheetData>

--- a/durham_daily_vaccinations.xlsx
+++ b/durham_daily_vaccinations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9497D4D4-4CF5-7A45-ABB5-5C87EE4CBF59}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A62332D-AF53-1C41-8D2B-7A01CB12C4AF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19640" xr2:uid="{D878B493-02AB-054E-B330-D20DF148DE7B}"/>
   </bookViews>
@@ -491,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E82AD24-C064-B648-8062-B01E1A5F7A8D}">
-  <dimension ref="A1:N120"/>
+  <dimension ref="A1:N121"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="H128" sqref="H128"/>
+      <selection activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3372,7 +3372,7 @@
         <v>44863.715994597726</v>
       </c>
       <c r="M67" s="5">
-        <f t="shared" ref="M67:N120" si="17">(N67-J67)</f>
+        <f t="shared" ref="M67:M116" si="17">(N67-J67)</f>
         <v>483505</v>
       </c>
       <c r="N67" s="5">
@@ -5451,19 +5451,19 @@
         <v>44300</v>
       </c>
       <c r="B115" s="5">
-        <v>4111</v>
+        <v>4112</v>
       </c>
       <c r="C115" s="6">
         <f t="shared" ref="C115" si="89">(AVERAGE(B109:B115))</f>
-        <v>3796.1428571428573</v>
+        <v>3796.2857142857142</v>
       </c>
       <c r="D115" s="5">
         <f t="shared" si="81"/>
-        <v>342556</v>
+        <v>342555</v>
       </c>
       <c r="E115" s="5">
         <f t="shared" ref="E115" si="90">E114+B115</f>
-        <v>144155</v>
+        <v>144156</v>
       </c>
       <c r="F115" s="13"/>
       <c r="G115" s="13"/>
@@ -5476,11 +5476,11 @@
       </c>
       <c r="K115" s="6">
         <f t="shared" ref="K115" si="91">D115/C115</f>
-        <v>90.237910661197446</v>
+        <v>90.234251524046059</v>
       </c>
       <c r="L115" s="7">
         <f t="shared" ref="L115" si="92">A115+K115</f>
-        <v>44390.237910661199</v>
+        <v>44390.234251524045</v>
       </c>
       <c r="M115" s="5">
         <f t="shared" si="17"/>
@@ -5499,19 +5499,19 @@
       </c>
       <c r="C116" s="6">
         <f t="shared" ref="C116" si="93">(AVERAGE(B110:B116))</f>
-        <v>3918.1428571428573</v>
+        <v>3918.2857142857142</v>
       </c>
       <c r="D116" s="5">
         <f>(D115-B116)-I116</f>
-        <v>332026</v>
+        <v>332025</v>
       </c>
       <c r="E116" s="5">
         <f t="shared" ref="E116" si="94">E115+B116</f>
-        <v>147532</v>
+        <v>147533</v>
       </c>
       <c r="F116" s="13">
         <f>(E116-G116)</f>
-        <v>133226</v>
+        <v>133227</v>
       </c>
       <c r="G116" s="13">
         <v>14306</v>
@@ -5529,11 +5529,11 @@
       </c>
       <c r="K116" s="6">
         <f>D116/C116</f>
-        <v>84.740657016808257</v>
+        <v>84.737312235671581</v>
       </c>
       <c r="L116" s="7">
         <f>A116+K116</f>
-        <v>44385.74065701681</v>
+        <v>44385.737312235673</v>
       </c>
       <c r="M116" s="5">
         <f t="shared" si="17"/>
@@ -5552,19 +5552,19 @@
       </c>
       <c r="C117" s="6">
         <f t="shared" ref="C117" si="95">(AVERAGE(B111:B117))</f>
-        <v>3909.4285714285716</v>
+        <v>3909.5714285714284</v>
       </c>
       <c r="D117" s="5">
         <f>(D116-B117)</f>
-        <v>328108</v>
+        <v>328107</v>
       </c>
       <c r="E117" s="5">
         <f t="shared" ref="E117" si="96">E116+B117</f>
-        <v>151450</v>
+        <v>151451</v>
       </c>
       <c r="F117" s="13">
         <f>(E117-G117)</f>
-        <v>137144</v>
+        <v>137145</v>
       </c>
       <c r="G117" s="13">
         <v>14306</v>
@@ -5582,11 +5582,11 @@
       </c>
       <c r="K117" s="6">
         <f>D117/C117</f>
-        <v>83.927355112182994</v>
+        <v>83.924032594000082</v>
       </c>
       <c r="L117" s="7">
         <f>A117+K117</f>
-        <v>44385.927355112181</v>
+        <v>44385.924032593997</v>
       </c>
       <c r="M117" s="5">
         <v>476352</v>
@@ -5604,19 +5604,19 @@
       </c>
       <c r="C118" s="6">
         <f t="shared" ref="C118" si="98">(AVERAGE(B112:B118))</f>
-        <v>3905.4285714285716</v>
+        <v>3905.5714285714284</v>
       </c>
       <c r="D118" s="5">
         <f>(D117-B118)</f>
-        <v>324152</v>
+        <v>324151</v>
       </c>
       <c r="E118" s="5">
         <f t="shared" ref="E118" si="99">E117+B118</f>
-        <v>155406</v>
+        <v>155407</v>
       </c>
       <c r="F118" s="13">
         <f>(E118-G118)</f>
-        <v>141100</v>
+        <v>141101</v>
       </c>
       <c r="G118" s="13">
         <v>14306</v>
@@ -5634,11 +5634,11 @@
       </c>
       <c r="K118" s="6">
         <f>D118/C118</f>
-        <v>83.000365791206377</v>
+        <v>82.997073777387612</v>
       </c>
       <c r="L118" s="7">
         <f>A118+K118</f>
-        <v>44386.000365791209</v>
+        <v>44385.997073777391</v>
       </c>
       <c r="M118" s="5">
         <v>476352</v>
@@ -5656,19 +5656,19 @@
       </c>
       <c r="C119" s="6">
         <f t="shared" ref="C119" si="100">(AVERAGE(B113:B119))</f>
-        <v>3849.1428571428573</v>
+        <v>3849.2857142857142</v>
       </c>
       <c r="D119" s="5">
         <f>(D118-B119)</f>
-        <v>320611</v>
+        <v>320610</v>
       </c>
       <c r="E119" s="5">
         <f t="shared" ref="E119" si="101">E118+B119</f>
-        <v>158947</v>
+        <v>158948</v>
       </c>
       <c r="F119" s="13">
         <f>(E119-G119)</f>
-        <v>144641</v>
+        <v>144642</v>
       </c>
       <c r="G119" s="13">
         <v>14306</v>
@@ -5686,11 +5686,11 @@
       </c>
       <c r="K119" s="6">
         <f>D119/C119</f>
-        <v>83.29412856294536</v>
+        <v>83.290777509742071</v>
       </c>
       <c r="L119" s="7">
         <f>A119+K119</f>
-        <v>44387.294128562942</v>
+        <v>44387.290777509741</v>
       </c>
       <c r="M119" s="5">
         <v>476352</v>
@@ -5699,55 +5699,106 @@
         <v>476352</v>
       </c>
     </row>
-    <row r="120" spans="1:14" s="9" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="8">
+    <row r="120" spans="1:14" s="5" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="4">
         <v>44305</v>
       </c>
-      <c r="B120" s="9">
-        <v>2101</v>
-      </c>
-      <c r="C120" s="10">
+      <c r="B120" s="5">
+        <v>3001</v>
+      </c>
+      <c r="C120" s="6">
         <f t="shared" ref="C120" si="103">(AVERAGE(B114:B120))</f>
-        <v>3619.4285714285716</v>
-      </c>
-      <c r="D120" s="9">
+        <v>3748.1428571428573</v>
+      </c>
+      <c r="D120" s="5">
         <f>(D119-B120)</f>
-        <v>318510</v>
-      </c>
-      <c r="E120" s="9">
+        <v>317609</v>
+      </c>
+      <c r="E120" s="5">
         <f t="shared" ref="E120" si="104">E119+B120</f>
-        <v>161048</v>
-      </c>
-      <c r="F120" s="14">
+        <v>161949</v>
+      </c>
+      <c r="F120" s="13">
         <f>(E120-G120)</f>
-        <v>146742</v>
-      </c>
-      <c r="G120" s="14">
+        <v>147643</v>
+      </c>
+      <c r="G120" s="13">
         <v>14306</v>
       </c>
-      <c r="H120" s="14">
+      <c r="H120" s="13">
         <f>(G120*2)</f>
         <v>28612</v>
       </c>
-      <c r="I120" s="14">
+      <c r="I120" s="13">
         <f t="shared" ref="I120" si="105">G120/2</f>
         <v>7153</v>
       </c>
-      <c r="J120" s="14">
+      <c r="J120" s="13">
         <v>7153</v>
       </c>
-      <c r="K120" s="10">
+      <c r="K120" s="6">
         <f>D120/C120</f>
-        <v>88.000078939059037</v>
-      </c>
-      <c r="L120" s="11">
+        <v>84.737698669817433</v>
+      </c>
+      <c r="L120" s="7">
         <f>A120+K120</f>
-        <v>44393.000078939061</v>
-      </c>
-      <c r="M120" s="9">
+        <v>44389.737698669815</v>
+      </c>
+      <c r="M120" s="5">
         <v>476352</v>
       </c>
-      <c r="N120" s="9">
+      <c r="N120" s="5">
+        <v>476352</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" s="9" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="8">
+        <v>44306</v>
+      </c>
+      <c r="B121" s="9">
+        <v>3058</v>
+      </c>
+      <c r="C121" s="10">
+        <f t="shared" ref="C121" si="106">(AVERAGE(B115:B121))</f>
+        <v>3566.1428571428573</v>
+      </c>
+      <c r="D121" s="9">
+        <f>(D120-B121)</f>
+        <v>314551</v>
+      </c>
+      <c r="E121" s="9">
+        <f t="shared" ref="E121" si="107">E120+B121</f>
+        <v>165007</v>
+      </c>
+      <c r="F121" s="14">
+        <f>(E121-G121)</f>
+        <v>150701</v>
+      </c>
+      <c r="G121" s="14">
+        <v>14306</v>
+      </c>
+      <c r="H121" s="14">
+        <v>28612</v>
+      </c>
+      <c r="I121" s="14">
+        <f t="shared" ref="I121" si="108">G121/2</f>
+        <v>7153</v>
+      </c>
+      <c r="J121" s="14">
+        <v>7154</v>
+      </c>
+      <c r="K121" s="10">
+        <f>D121/C121</f>
+        <v>88.204823138244592</v>
+      </c>
+      <c r="L121" s="11">
+        <f>A121+K121</f>
+        <v>44394.204823138243</v>
+      </c>
+      <c r="M121" s="9">
+        <v>476352</v>
+      </c>
+      <c r="N121" s="9">
         <v>476352</v>
       </c>
     </row>

--- a/durham_daily_vaccinations.xlsx
+++ b/durham_daily_vaccinations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A62332D-AF53-1C41-8D2B-7A01CB12C4AF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7D8D75-D0AF-634B-9D1C-EE31270ED231}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19640" xr2:uid="{D878B493-02AB-054E-B330-D20DF148DE7B}"/>
   </bookViews>
@@ -491,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E82AD24-C064-B648-8062-B01E1A5F7A8D}">
-  <dimension ref="A1:N121"/>
+  <dimension ref="A1:N122"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="C115" sqref="C115"/>
+      <selection activeCell="H132" sqref="H132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5510,7 +5510,7 @@
         <v>147533</v>
       </c>
       <c r="F116" s="13">
-        <f>(E116-G116)</f>
+        <f t="shared" ref="F116:F122" si="95">(E116-G116)</f>
         <v>133227</v>
       </c>
       <c r="G116" s="13">
@@ -5528,11 +5528,11 @@
         <v>7153</v>
       </c>
       <c r="K116" s="6">
-        <f>D116/C116</f>
+        <f t="shared" ref="K116:K121" si="96">D116/C116</f>
         <v>84.737312235671581</v>
       </c>
       <c r="L116" s="7">
-        <f>A116+K116</f>
+        <f t="shared" ref="L116:L121" si="97">A116+K116</f>
         <v>44385.737312235673</v>
       </c>
       <c r="M116" s="5">
@@ -5551,7 +5551,7 @@
         <v>3918</v>
       </c>
       <c r="C117" s="6">
-        <f t="shared" ref="C117" si="95">(AVERAGE(B111:B117))</f>
+        <f t="shared" ref="C117" si="98">(AVERAGE(B111:B117))</f>
         <v>3909.5714285714284</v>
       </c>
       <c r="D117" s="5">
@@ -5559,11 +5559,11 @@
         <v>328107</v>
       </c>
       <c r="E117" s="5">
-        <f t="shared" ref="E117" si="96">E116+B117</f>
+        <f t="shared" ref="E117" si="99">E116+B117</f>
         <v>151451</v>
       </c>
       <c r="F117" s="13">
-        <f>(E117-G117)</f>
+        <f t="shared" si="95"/>
         <v>137145</v>
       </c>
       <c r="G117" s="13">
@@ -5574,18 +5574,18 @@
         <v>28612</v>
       </c>
       <c r="I117" s="13">
-        <f t="shared" ref="I117:I118" si="97">G117/2</f>
+        <f t="shared" ref="I117:I118" si="100">G117/2</f>
         <v>7153</v>
       </c>
       <c r="J117" s="13">
         <v>7153</v>
       </c>
       <c r="K117" s="6">
-        <f>D117/C117</f>
+        <f t="shared" si="96"/>
         <v>83.924032594000082</v>
       </c>
       <c r="L117" s="7">
-        <f>A117+K117</f>
+        <f t="shared" si="97"/>
         <v>44385.924032593997</v>
       </c>
       <c r="M117" s="5">
@@ -5603,7 +5603,7 @@
         <v>3956</v>
       </c>
       <c r="C118" s="6">
-        <f t="shared" ref="C118" si="98">(AVERAGE(B112:B118))</f>
+        <f t="shared" ref="C118" si="101">(AVERAGE(B112:B118))</f>
         <v>3905.5714285714284</v>
       </c>
       <c r="D118" s="5">
@@ -5611,11 +5611,11 @@
         <v>324151</v>
       </c>
       <c r="E118" s="5">
-        <f t="shared" ref="E118" si="99">E117+B118</f>
+        <f t="shared" ref="E118" si="102">E117+B118</f>
         <v>155407</v>
       </c>
       <c r="F118" s="13">
-        <f>(E118-G118)</f>
+        <f t="shared" si="95"/>
         <v>141101</v>
       </c>
       <c r="G118" s="13">
@@ -5626,18 +5626,18 @@
         <v>28612</v>
       </c>
       <c r="I118" s="13">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>7153</v>
       </c>
       <c r="J118" s="13">
         <v>7153</v>
       </c>
       <c r="K118" s="6">
-        <f>D118/C118</f>
+        <f t="shared" si="96"/>
         <v>82.997073777387612</v>
       </c>
       <c r="L118" s="7">
-        <f>A118+K118</f>
+        <f t="shared" si="97"/>
         <v>44385.997073777391</v>
       </c>
       <c r="M118" s="5">
@@ -5655,7 +5655,7 @@
         <v>3541</v>
       </c>
       <c r="C119" s="6">
-        <f t="shared" ref="C119" si="100">(AVERAGE(B113:B119))</f>
+        <f t="shared" ref="C119" si="103">(AVERAGE(B113:B119))</f>
         <v>3849.2857142857142</v>
       </c>
       <c r="D119" s="5">
@@ -5663,11 +5663,11 @@
         <v>320610</v>
       </c>
       <c r="E119" s="5">
-        <f t="shared" ref="E119" si="101">E118+B119</f>
+        <f t="shared" ref="E119" si="104">E118+B119</f>
         <v>158948</v>
       </c>
       <c r="F119" s="13">
-        <f>(E119-G119)</f>
+        <f t="shared" si="95"/>
         <v>144642</v>
       </c>
       <c r="G119" s="13">
@@ -5678,18 +5678,18 @@
         <v>28612</v>
       </c>
       <c r="I119" s="13">
-        <f t="shared" ref="I119" si="102">G119/2</f>
+        <f t="shared" ref="I119" si="105">G119/2</f>
         <v>7153</v>
       </c>
       <c r="J119" s="13">
         <v>7153</v>
       </c>
       <c r="K119" s="6">
-        <f>D119/C119</f>
+        <f t="shared" si="96"/>
         <v>83.290777509742071</v>
       </c>
       <c r="L119" s="7">
-        <f>A119+K119</f>
+        <f t="shared" si="97"/>
         <v>44387.290777509741</v>
       </c>
       <c r="M119" s="5">
@@ -5699,28 +5699,28 @@
         <v>476352</v>
       </c>
     </row>
-    <row r="120" spans="1:14" s="5" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4">
         <v>44305</v>
       </c>
       <c r="B120" s="5">
-        <v>3001</v>
+        <v>3672</v>
       </c>
       <c r="C120" s="6">
-        <f t="shared" ref="C120" si="103">(AVERAGE(B114:B120))</f>
-        <v>3748.1428571428573</v>
+        <f t="shared" ref="C120" si="106">(AVERAGE(B114:B120))</f>
+        <v>3844</v>
       </c>
       <c r="D120" s="5">
         <f>(D119-B120)</f>
-        <v>317609</v>
+        <v>316938</v>
       </c>
       <c r="E120" s="5">
-        <f t="shared" ref="E120" si="104">E119+B120</f>
-        <v>161949</v>
+        <f t="shared" ref="E120" si="107">E119+B120</f>
+        <v>162620</v>
       </c>
       <c r="F120" s="13">
-        <f>(E120-G120)</f>
-        <v>147643</v>
+        <f t="shared" si="95"/>
+        <v>148314</v>
       </c>
       <c r="G120" s="13">
         <v>14306</v>
@@ -5730,19 +5730,19 @@
         <v>28612</v>
       </c>
       <c r="I120" s="13">
-        <f t="shared" ref="I120" si="105">G120/2</f>
+        <f t="shared" ref="I120" si="108">G120/2</f>
         <v>7153</v>
       </c>
       <c r="J120" s="13">
         <v>7153</v>
       </c>
       <c r="K120" s="6">
-        <f>D120/C120</f>
-        <v>84.737698669817433</v>
+        <f t="shared" si="96"/>
+        <v>82.450052029136316</v>
       </c>
       <c r="L120" s="7">
-        <f>A120+K120</f>
-        <v>44389.737698669815</v>
+        <f t="shared" si="97"/>
+        <v>44387.450052029133</v>
       </c>
       <c r="M120" s="5">
         <v>476352</v>
@@ -5751,54 +5751,105 @@
         <v>476352</v>
       </c>
     </row>
-    <row r="121" spans="1:14" s="9" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="8">
+    <row r="121" spans="1:14" s="5" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="4">
         <v>44306</v>
       </c>
-      <c r="B121" s="9">
+      <c r="B121" s="5">
         <v>3058</v>
       </c>
-      <c r="C121" s="10">
-        <f t="shared" ref="C121" si="106">(AVERAGE(B115:B121))</f>
-        <v>3566.1428571428573</v>
-      </c>
-      <c r="D121" s="9">
+      <c r="C121" s="6">
+        <f t="shared" ref="C121" si="109">(AVERAGE(B115:B121))</f>
+        <v>3662</v>
+      </c>
+      <c r="D121" s="5">
         <f>(D120-B121)</f>
-        <v>314551</v>
-      </c>
-      <c r="E121" s="9">
-        <f t="shared" ref="E121" si="107">E120+B121</f>
-        <v>165007</v>
-      </c>
-      <c r="F121" s="14">
-        <f>(E121-G121)</f>
-        <v>150701</v>
-      </c>
-      <c r="G121" s="14">
+        <v>313880</v>
+      </c>
+      <c r="E121" s="5">
+        <f t="shared" ref="E121" si="110">E120+B121</f>
+        <v>165678</v>
+      </c>
+      <c r="F121" s="13">
+        <f t="shared" si="95"/>
+        <v>151372</v>
+      </c>
+      <c r="G121" s="13">
         <v>14306</v>
       </c>
-      <c r="H121" s="14">
+      <c r="H121" s="13">
         <v>28612</v>
       </c>
-      <c r="I121" s="14">
-        <f t="shared" ref="I121" si="108">G121/2</f>
+      <c r="I121" s="13">
+        <f t="shared" ref="I121" si="111">G121/2</f>
         <v>7153</v>
       </c>
-      <c r="J121" s="14">
-        <v>7154</v>
-      </c>
-      <c r="K121" s="10">
-        <f>D121/C121</f>
-        <v>88.204823138244592</v>
-      </c>
-      <c r="L121" s="11">
-        <f>A121+K121</f>
-        <v>44394.204823138243</v>
-      </c>
-      <c r="M121" s="9">
+      <c r="J121" s="13">
+        <v>7153</v>
+      </c>
+      <c r="K121" s="6">
+        <f t="shared" si="96"/>
+        <v>85.71272528672857</v>
+      </c>
+      <c r="L121" s="7">
+        <f t="shared" si="97"/>
+        <v>44391.712725286729</v>
+      </c>
+      <c r="M121" s="5">
         <v>476352</v>
       </c>
-      <c r="N121" s="9">
+      <c r="N121" s="5">
+        <v>476352</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" s="9" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="8">
+        <v>44307</v>
+      </c>
+      <c r="B122" s="9">
+        <v>3698</v>
+      </c>
+      <c r="C122" s="10">
+        <f t="shared" ref="C122" si="112">(AVERAGE(B116:B122))</f>
+        <v>3602.8571428571427</v>
+      </c>
+      <c r="D122" s="9">
+        <f>(D121-B122)</f>
+        <v>310182</v>
+      </c>
+      <c r="E122" s="9">
+        <f t="shared" ref="E122" si="113">E121+B122</f>
+        <v>169376</v>
+      </c>
+      <c r="F122" s="14">
+        <f t="shared" si="95"/>
+        <v>155070</v>
+      </c>
+      <c r="G122" s="14">
+        <v>14306</v>
+      </c>
+      <c r="H122" s="14">
+        <v>28612</v>
+      </c>
+      <c r="I122" s="14">
+        <f t="shared" ref="I122" si="114">G122/2</f>
+        <v>7153</v>
+      </c>
+      <c r="J122" s="14">
+        <v>7153</v>
+      </c>
+      <c r="K122" s="10">
+        <f t="shared" ref="K122" si="115">D122/C122</f>
+        <v>86.093338620142745</v>
+      </c>
+      <c r="L122" s="11">
+        <f t="shared" ref="L122" si="116">A122+K122</f>
+        <v>44393.093338620143</v>
+      </c>
+      <c r="M122" s="9">
+        <v>476352</v>
+      </c>
+      <c r="N122" s="9">
         <v>476352</v>
       </c>
     </row>

--- a/durham_daily_vaccinations.xlsx
+++ b/durham_daily_vaccinations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7D8D75-D0AF-634B-9D1C-EE31270ED231}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BAB4EBE-0A24-FB40-9EED-7CE5EAD92FD4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19640" xr2:uid="{D878B493-02AB-054E-B330-D20DF148DE7B}"/>
+    <workbookView xWindow="-38400" yWindow="-780" windowWidth="38400" windowHeight="21140" xr2:uid="{D878B493-02AB-054E-B330-D20DF148DE7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -491,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E82AD24-C064-B648-8062-B01E1A5F7A8D}">
-  <dimension ref="A1:N122"/>
+  <dimension ref="A1:N123"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="H132" sqref="H132"/>
+      <selection activeCell="I129" sqref="I129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5555,11 +5555,11 @@
         <v>3909.5714285714284</v>
       </c>
       <c r="D117" s="5">
-        <f>(D116-B117)</f>
+        <f t="shared" ref="D117:D122" si="99">(D116-B117)</f>
         <v>328107</v>
       </c>
       <c r="E117" s="5">
-        <f t="shared" ref="E117" si="99">E116+B117</f>
+        <f t="shared" ref="E117" si="100">E116+B117</f>
         <v>151451</v>
       </c>
       <c r="F117" s="13">
@@ -5574,7 +5574,7 @@
         <v>28612</v>
       </c>
       <c r="I117" s="13">
-        <f t="shared" ref="I117:I118" si="100">G117/2</f>
+        <f t="shared" ref="I117:I118" si="101">G117/2</f>
         <v>7153</v>
       </c>
       <c r="J117" s="13">
@@ -5603,15 +5603,15 @@
         <v>3956</v>
       </c>
       <c r="C118" s="6">
-        <f t="shared" ref="C118" si="101">(AVERAGE(B112:B118))</f>
+        <f t="shared" ref="C118" si="102">(AVERAGE(B112:B118))</f>
         <v>3905.5714285714284</v>
       </c>
       <c r="D118" s="5">
-        <f>(D117-B118)</f>
+        <f t="shared" si="99"/>
         <v>324151</v>
       </c>
       <c r="E118" s="5">
-        <f t="shared" ref="E118" si="102">E117+B118</f>
+        <f t="shared" ref="E118" si="103">E117+B118</f>
         <v>155407</v>
       </c>
       <c r="F118" s="13">
@@ -5626,7 +5626,7 @@
         <v>28612</v>
       </c>
       <c r="I118" s="13">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>7153</v>
       </c>
       <c r="J118" s="13">
@@ -5655,15 +5655,15 @@
         <v>3541</v>
       </c>
       <c r="C119" s="6">
-        <f t="shared" ref="C119" si="103">(AVERAGE(B113:B119))</f>
+        <f t="shared" ref="C119" si="104">(AVERAGE(B113:B119))</f>
         <v>3849.2857142857142</v>
       </c>
       <c r="D119" s="5">
-        <f>(D118-B119)</f>
+        <f t="shared" si="99"/>
         <v>320610</v>
       </c>
       <c r="E119" s="5">
-        <f t="shared" ref="E119" si="104">E118+B119</f>
+        <f t="shared" ref="E119" si="105">E118+B119</f>
         <v>158948</v>
       </c>
       <c r="F119" s="13">
@@ -5678,7 +5678,7 @@
         <v>28612</v>
       </c>
       <c r="I119" s="13">
-        <f t="shared" ref="I119" si="105">G119/2</f>
+        <f t="shared" ref="I119" si="106">G119/2</f>
         <v>7153</v>
       </c>
       <c r="J119" s="13">
@@ -5704,23 +5704,23 @@
         <v>44305</v>
       </c>
       <c r="B120" s="5">
-        <v>3672</v>
+        <v>3831</v>
       </c>
       <c r="C120" s="6">
-        <f t="shared" ref="C120" si="106">(AVERAGE(B114:B120))</f>
-        <v>3844</v>
+        <f t="shared" ref="C120" si="107">(AVERAGE(B114:B120))</f>
+        <v>3866.7142857142858</v>
       </c>
       <c r="D120" s="5">
-        <f>(D119-B120)</f>
-        <v>316938</v>
+        <f t="shared" si="99"/>
+        <v>316779</v>
       </c>
       <c r="E120" s="5">
-        <f t="shared" ref="E120" si="107">E119+B120</f>
-        <v>162620</v>
+        <f t="shared" ref="E120" si="108">E119+B120</f>
+        <v>162779</v>
       </c>
       <c r="F120" s="13">
         <f t="shared" si="95"/>
-        <v>148314</v>
+        <v>148473</v>
       </c>
       <c r="G120" s="13">
         <v>14306</v>
@@ -5730,7 +5730,7 @@
         <v>28612</v>
       </c>
       <c r="I120" s="13">
-        <f t="shared" ref="I120" si="108">G120/2</f>
+        <f t="shared" ref="I120" si="109">G120/2</f>
         <v>7153</v>
       </c>
       <c r="J120" s="13">
@@ -5738,11 +5738,11 @@
       </c>
       <c r="K120" s="6">
         <f t="shared" si="96"/>
-        <v>82.450052029136316</v>
+        <v>81.924594524697966</v>
       </c>
       <c r="L120" s="7">
         <f t="shared" si="97"/>
-        <v>44387.450052029133</v>
+        <v>44386.924594524695</v>
       </c>
       <c r="M120" s="5">
         <v>476352</v>
@@ -5759,20 +5759,20 @@
         <v>3058</v>
       </c>
       <c r="C121" s="6">
-        <f t="shared" ref="C121" si="109">(AVERAGE(B115:B121))</f>
-        <v>3662</v>
+        <f t="shared" ref="C121" si="110">(AVERAGE(B115:B121))</f>
+        <v>3684.7142857142858</v>
       </c>
       <c r="D121" s="5">
-        <f>(D120-B121)</f>
-        <v>313880</v>
+        <f t="shared" si="99"/>
+        <v>313721</v>
       </c>
       <c r="E121" s="5">
-        <f t="shared" ref="E121" si="110">E120+B121</f>
-        <v>165678</v>
+        <f t="shared" ref="E121" si="111">E120+B121</f>
+        <v>165837</v>
       </c>
       <c r="F121" s="13">
         <f t="shared" si="95"/>
-        <v>151372</v>
+        <v>151531</v>
       </c>
       <c r="G121" s="13">
         <v>14306</v>
@@ -5781,7 +5781,7 @@
         <v>28612</v>
       </c>
       <c r="I121" s="13">
-        <f t="shared" ref="I121" si="111">G121/2</f>
+        <f t="shared" ref="I121" si="112">G121/2</f>
         <v>7153</v>
       </c>
       <c r="J121" s="13">
@@ -5789,11 +5789,11 @@
       </c>
       <c r="K121" s="6">
         <f t="shared" si="96"/>
-        <v>85.71272528672857</v>
+        <v>85.141201101073932</v>
       </c>
       <c r="L121" s="7">
         <f t="shared" si="97"/>
-        <v>44391.712725286729</v>
+        <v>44391.141201101076</v>
       </c>
       <c r="M121" s="5">
         <v>476352</v>
@@ -5802,54 +5802,105 @@
         <v>476352</v>
       </c>
     </row>
-    <row r="122" spans="1:14" s="9" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="8">
+    <row r="122" spans="1:14" s="5" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="4">
         <v>44307</v>
       </c>
-      <c r="B122" s="9">
-        <v>3698</v>
-      </c>
-      <c r="C122" s="10">
-        <f t="shared" ref="C122" si="112">(AVERAGE(B116:B122))</f>
-        <v>3602.8571428571427</v>
-      </c>
-      <c r="D122" s="9">
-        <f>(D121-B122)</f>
-        <v>310182</v>
-      </c>
-      <c r="E122" s="9">
-        <f t="shared" ref="E122" si="113">E121+B122</f>
-        <v>169376</v>
-      </c>
-      <c r="F122" s="14">
+      <c r="B122" s="5">
+        <v>3700</v>
+      </c>
+      <c r="C122" s="6">
+        <f t="shared" ref="C122" si="113">(AVERAGE(B116:B122))</f>
+        <v>3625.8571428571427</v>
+      </c>
+      <c r="D122" s="5">
+        <f t="shared" si="99"/>
+        <v>310021</v>
+      </c>
+      <c r="E122" s="5">
+        <f t="shared" ref="E122" si="114">E121+B122</f>
+        <v>169537</v>
+      </c>
+      <c r="F122" s="13">
         <f t="shared" si="95"/>
-        <v>155070</v>
-      </c>
-      <c r="G122" s="14">
+        <v>155231</v>
+      </c>
+      <c r="G122" s="13">
         <v>14306</v>
       </c>
-      <c r="H122" s="14">
+      <c r="H122" s="13">
         <v>28612</v>
       </c>
-      <c r="I122" s="14">
-        <f t="shared" ref="I122" si="114">G122/2</f>
+      <c r="I122" s="13">
+        <f t="shared" ref="I122" si="115">G122/2</f>
         <v>7153</v>
       </c>
-      <c r="J122" s="14">
+      <c r="J122" s="13">
         <v>7153</v>
       </c>
-      <c r="K122" s="10">
-        <f t="shared" ref="K122" si="115">D122/C122</f>
-        <v>86.093338620142745</v>
-      </c>
-      <c r="L122" s="11">
-        <f t="shared" ref="L122" si="116">A122+K122</f>
-        <v>44393.093338620143</v>
-      </c>
-      <c r="M122" s="9">
+      <c r="K122" s="6">
+        <f t="shared" ref="K122" si="116">D122/C122</f>
+        <v>85.502817067885431</v>
+      </c>
+      <c r="L122" s="7">
+        <f t="shared" ref="L122" si="117">A122+K122</f>
+        <v>44392.502817067885</v>
+      </c>
+      <c r="M122" s="5">
         <v>476352</v>
       </c>
-      <c r="N122" s="9">
+      <c r="N122" s="5">
+        <v>476352</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" s="9" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="8">
+        <v>44308</v>
+      </c>
+      <c r="B123" s="9">
+        <v>3874</v>
+      </c>
+      <c r="C123" s="10">
+        <f t="shared" ref="C123" si="118">(AVERAGE(B117:B123))</f>
+        <v>3696.8571428571427</v>
+      </c>
+      <c r="D123" s="9">
+        <f t="shared" ref="D123" si="119">(D122-B123)</f>
+        <v>306147</v>
+      </c>
+      <c r="E123" s="9">
+        <f t="shared" ref="E123" si="120">E122+B123</f>
+        <v>173411</v>
+      </c>
+      <c r="F123" s="14">
+        <f t="shared" ref="F123" si="121">(E123-G123)</f>
+        <v>159105</v>
+      </c>
+      <c r="G123" s="14">
+        <v>14306</v>
+      </c>
+      <c r="H123" s="14">
+        <v>28612</v>
+      </c>
+      <c r="I123" s="14">
+        <f t="shared" ref="I123" si="122">G123/2</f>
+        <v>7153</v>
+      </c>
+      <c r="J123" s="14">
+        <v>7153</v>
+      </c>
+      <c r="K123" s="10">
+        <f t="shared" ref="K123" si="123">D123/C123</f>
+        <v>82.812775330396477</v>
+      </c>
+      <c r="L123" s="11">
+        <f t="shared" ref="L123" si="124">A123+K123</f>
+        <v>44390.8127753304</v>
+      </c>
+      <c r="M123" s="9">
+        <v>476352</v>
+      </c>
+      <c r="N123" s="9">
         <v>476352</v>
       </c>
     </row>

--- a/durham_daily_vaccinations.xlsx
+++ b/durham_daily_vaccinations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BAB4EBE-0A24-FB40-9EED-7CE5EAD92FD4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D3E20A-F5E8-164A-8ABF-104F22E8F724}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-780" windowWidth="38400" windowHeight="21140" xr2:uid="{D878B493-02AB-054E-B330-D20DF148DE7B}"/>
   </bookViews>
@@ -491,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E82AD24-C064-B648-8062-B01E1A5F7A8D}">
-  <dimension ref="A1:N123"/>
+  <dimension ref="A1:N124"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="I129" sqref="I129"/>
+      <selection activeCell="H130" sqref="H130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5853,54 +5853,105 @@
         <v>476352</v>
       </c>
     </row>
-    <row r="123" spans="1:14" s="9" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="8">
+    <row r="123" spans="1:14" s="5" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="4">
         <v>44308</v>
       </c>
-      <c r="B123" s="9">
+      <c r="B123" s="5">
         <v>3874</v>
       </c>
-      <c r="C123" s="10">
+      <c r="C123" s="6">
         <f t="shared" ref="C123" si="118">(AVERAGE(B117:B123))</f>
         <v>3696.8571428571427</v>
       </c>
-      <c r="D123" s="9">
+      <c r="D123" s="5">
         <f t="shared" ref="D123" si="119">(D122-B123)</f>
         <v>306147</v>
       </c>
-      <c r="E123" s="9">
+      <c r="E123" s="5">
         <f t="shared" ref="E123" si="120">E122+B123</f>
         <v>173411</v>
       </c>
-      <c r="F123" s="14">
+      <c r="F123" s="13">
         <f t="shared" ref="F123" si="121">(E123-G123)</f>
         <v>159105</v>
       </c>
-      <c r="G123" s="14">
+      <c r="G123" s="13">
         <v>14306</v>
       </c>
-      <c r="H123" s="14">
+      <c r="H123" s="13">
         <v>28612</v>
       </c>
-      <c r="I123" s="14">
+      <c r="I123" s="13">
         <f t="shared" ref="I123" si="122">G123/2</f>
         <v>7153</v>
       </c>
-      <c r="J123" s="14">
+      <c r="J123" s="13">
         <v>7153</v>
       </c>
-      <c r="K123" s="10">
+      <c r="K123" s="6">
         <f t="shared" ref="K123" si="123">D123/C123</f>
         <v>82.812775330396477</v>
       </c>
-      <c r="L123" s="11">
+      <c r="L123" s="7">
         <f t="shared" ref="L123" si="124">A123+K123</f>
         <v>44390.8127753304</v>
       </c>
-      <c r="M123" s="9">
+      <c r="M123" s="5">
         <v>476352</v>
       </c>
-      <c r="N123" s="9">
+      <c r="N123" s="5">
+        <v>476352</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" s="9" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="8">
+        <v>44309</v>
+      </c>
+      <c r="B124" s="9">
+        <v>3214</v>
+      </c>
+      <c r="C124" s="10">
+        <f t="shared" ref="C124" si="125">(AVERAGE(B118:B124))</f>
+        <v>3596.2857142857142</v>
+      </c>
+      <c r="D124" s="9">
+        <f t="shared" ref="D124" si="126">(D123-B124)</f>
+        <v>302933</v>
+      </c>
+      <c r="E124" s="9">
+        <f t="shared" ref="E124" si="127">E123+B124</f>
+        <v>176625</v>
+      </c>
+      <c r="F124" s="14">
+        <f t="shared" ref="F124" si="128">(E124-G124)</f>
+        <v>162319</v>
+      </c>
+      <c r="G124" s="14">
+        <v>14306</v>
+      </c>
+      <c r="H124" s="14">
+        <v>28612</v>
+      </c>
+      <c r="I124" s="14">
+        <f t="shared" ref="I124" si="129">G124/2</f>
+        <v>7153</v>
+      </c>
+      <c r="J124" s="14">
+        <v>7153</v>
+      </c>
+      <c r="K124" s="10">
+        <f t="shared" ref="K124" si="130">D124/C124</f>
+        <v>84.234964646063403</v>
+      </c>
+      <c r="L124" s="11">
+        <f t="shared" ref="L124" si="131">A124+K124</f>
+        <v>44393.234964646064</v>
+      </c>
+      <c r="M124" s="9">
+        <v>476352</v>
+      </c>
+      <c r="N124" s="9">
         <v>476352</v>
       </c>
     </row>

--- a/durham_daily_vaccinations.xlsx
+++ b/durham_daily_vaccinations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D3E20A-F5E8-164A-8ABF-104F22E8F724}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA404EB-78A2-4242-A6F1-5B12B9F49160}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-780" windowWidth="38400" windowHeight="21140" xr2:uid="{D878B493-02AB-054E-B330-D20DF148DE7B}"/>
   </bookViews>
@@ -491,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E82AD24-C064-B648-8062-B01E1A5F7A8D}">
-  <dimension ref="A1:N124"/>
+  <dimension ref="A1:N125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="H130" sqref="H130"/>
+      <selection activeCell="I132" sqref="I132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5904,54 +5904,105 @@
         <v>476352</v>
       </c>
     </row>
-    <row r="124" spans="1:14" s="9" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="8">
+    <row r="124" spans="1:14" s="5" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="4">
         <v>44309</v>
       </c>
-      <c r="B124" s="9">
+      <c r="B124" s="5">
         <v>3214</v>
       </c>
-      <c r="C124" s="10">
+      <c r="C124" s="6">
         <f t="shared" ref="C124" si="125">(AVERAGE(B118:B124))</f>
         <v>3596.2857142857142</v>
       </c>
-      <c r="D124" s="9">
+      <c r="D124" s="5">
         <f t="shared" ref="D124" si="126">(D123-B124)</f>
         <v>302933</v>
       </c>
-      <c r="E124" s="9">
+      <c r="E124" s="5">
         <f t="shared" ref="E124" si="127">E123+B124</f>
         <v>176625</v>
       </c>
-      <c r="F124" s="14">
+      <c r="F124" s="13">
         <f t="shared" ref="F124" si="128">(E124-G124)</f>
         <v>162319</v>
       </c>
-      <c r="G124" s="14">
+      <c r="G124" s="13">
         <v>14306</v>
       </c>
-      <c r="H124" s="14">
+      <c r="H124" s="13">
         <v>28612</v>
       </c>
-      <c r="I124" s="14">
+      <c r="I124" s="13">
         <f t="shared" ref="I124" si="129">G124/2</f>
         <v>7153</v>
       </c>
-      <c r="J124" s="14">
+      <c r="J124" s="13">
         <v>7153</v>
       </c>
-      <c r="K124" s="10">
+      <c r="K124" s="6">
         <f t="shared" ref="K124" si="130">D124/C124</f>
         <v>84.234964646063403</v>
       </c>
-      <c r="L124" s="11">
+      <c r="L124" s="7">
         <f t="shared" ref="L124" si="131">A124+K124</f>
         <v>44393.234964646064</v>
       </c>
-      <c r="M124" s="9">
+      <c r="M124" s="5">
         <v>476352</v>
       </c>
-      <c r="N124" s="9">
+      <c r="N124" s="5">
+        <v>476352</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" s="9" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="8">
+        <v>44310</v>
+      </c>
+      <c r="B125" s="9">
+        <v>3579</v>
+      </c>
+      <c r="C125" s="10">
+        <f t="shared" ref="C125" si="132">(AVERAGE(B119:B125))</f>
+        <v>3542.4285714285716</v>
+      </c>
+      <c r="D125" s="9">
+        <f t="shared" ref="D125" si="133">(D124-B125)</f>
+        <v>299354</v>
+      </c>
+      <c r="E125" s="9">
+        <f t="shared" ref="E125" si="134">E124+B125</f>
+        <v>180204</v>
+      </c>
+      <c r="F125" s="14">
+        <f t="shared" ref="F125" si="135">(E125-G125)</f>
+        <v>165898</v>
+      </c>
+      <c r="G125" s="14">
+        <v>14306</v>
+      </c>
+      <c r="H125" s="14">
+        <v>28612</v>
+      </c>
+      <c r="I125" s="14">
+        <f t="shared" ref="I125" si="136">G125/2</f>
+        <v>7153</v>
+      </c>
+      <c r="J125" s="14">
+        <v>7153</v>
+      </c>
+      <c r="K125" s="10">
+        <f t="shared" ref="K125" si="137">D125/C125</f>
+        <v>84.505303060854132</v>
+      </c>
+      <c r="L125" s="11">
+        <f t="shared" ref="L125" si="138">A125+K125</f>
+        <v>44394.505303060854</v>
+      </c>
+      <c r="M125" s="9">
+        <v>476352</v>
+      </c>
+      <c r="N125" s="9">
         <v>476352</v>
       </c>
     </row>

--- a/durham_daily_vaccinations.xlsx
+++ b/durham_daily_vaccinations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA404EB-78A2-4242-A6F1-5B12B9F49160}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF261809-D861-5941-8548-CF7201342F34}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-780" windowWidth="38400" windowHeight="21140" xr2:uid="{D878B493-02AB-054E-B330-D20DF148DE7B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19660" xr2:uid="{D878B493-02AB-054E-B330-D20DF148DE7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -491,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E82AD24-C064-B648-8062-B01E1A5F7A8D}">
-  <dimension ref="A1:N125"/>
+  <dimension ref="A1:N127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="I132" sqref="I132"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="J128" sqref="J128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -563,8 +563,7 @@
         <v>47</v>
       </c>
       <c r="D2" s="5">
-        <f t="shared" ref="D2:D33" si="0">D3+B2</f>
-        <v>483505</v>
+        <v>529633</v>
       </c>
       <c r="E2" s="5">
         <f>SUM(B2)</f>
@@ -597,8 +596,8 @@
         <v>123</v>
       </c>
       <c r="D3" s="5">
-        <f t="shared" si="0"/>
-        <v>483458</v>
+        <f>D2-B3</f>
+        <v>529510</v>
       </c>
       <c r="E3" s="5">
         <f>E2+B3</f>
@@ -616,7 +615,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="7"/>
       <c r="M3" s="5">
-        <f t="shared" ref="M3:M66" si="1">(N3-J3)</f>
+        <f t="shared" ref="M3:M66" si="0">(N3-J3)</f>
         <v>483505</v>
       </c>
       <c r="N3" s="5">
@@ -631,8 +630,8 @@
         <v>93</v>
       </c>
       <c r="D4" s="5">
-        <f t="shared" si="0"/>
-        <v>483335</v>
+        <f t="shared" ref="D4:D67" si="1">D3-B4</f>
+        <v>529417</v>
       </c>
       <c r="E4" s="5">
         <f>E3+B4</f>
@@ -650,7 +649,7 @@
       <c r="K4" s="6"/>
       <c r="L4" s="7"/>
       <c r="M4" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>483505</v>
       </c>
       <c r="N4" s="5">
@@ -665,8 +664,8 @@
         <v>0</v>
       </c>
       <c r="D5" s="5">
-        <f t="shared" si="0"/>
-        <v>483242</v>
+        <f t="shared" si="1"/>
+        <v>529417</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:E68" si="2">E4+B5</f>
@@ -684,7 +683,7 @@
       <c r="K5" s="6"/>
       <c r="L5" s="7"/>
       <c r="M5" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>483505</v>
       </c>
       <c r="N5" s="5">
@@ -699,8 +698,8 @@
         <v>0</v>
       </c>
       <c r="D6" s="5">
-        <f t="shared" si="0"/>
-        <v>483242</v>
+        <f t="shared" si="1"/>
+        <v>529417</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" si="2"/>
@@ -718,7 +717,7 @@
       <c r="K6" s="6"/>
       <c r="L6" s="7"/>
       <c r="M6" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>483505</v>
       </c>
       <c r="N6" s="5">
@@ -733,8 +732,8 @@
         <v>0</v>
       </c>
       <c r="D7" s="5">
-        <f t="shared" si="0"/>
-        <v>483242</v>
+        <f t="shared" si="1"/>
+        <v>529417</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" si="2"/>
@@ -752,7 +751,7 @@
       <c r="K7" s="6"/>
       <c r="L7" s="7"/>
       <c r="M7" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>483505</v>
       </c>
       <c r="N7" s="5">
@@ -767,8 +766,8 @@
         <v>155</v>
       </c>
       <c r="D8" s="5">
-        <f t="shared" si="0"/>
-        <v>483242</v>
+        <f t="shared" si="1"/>
+        <v>529262</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="2"/>
@@ -786,7 +785,7 @@
       <c r="K8" s="6"/>
       <c r="L8" s="7"/>
       <c r="M8" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>483505</v>
       </c>
       <c r="N8" s="5">
@@ -801,8 +800,8 @@
         <v>154</v>
       </c>
       <c r="D9" s="5">
-        <f t="shared" si="0"/>
-        <v>483087</v>
+        <f t="shared" si="1"/>
+        <v>529108</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" si="2"/>
@@ -820,7 +819,7 @@
       <c r="K9" s="6"/>
       <c r="L9" s="7"/>
       <c r="M9" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>483505</v>
       </c>
       <c r="N9" s="5">
@@ -839,8 +838,8 @@
         <v>81.111111111111114</v>
       </c>
       <c r="D10" s="5">
-        <f t="shared" si="0"/>
-        <v>482933</v>
+        <f t="shared" si="1"/>
+        <v>528950</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" si="2"/>
@@ -857,14 +856,14 @@
       </c>
       <c r="K10" s="6">
         <f t="shared" ref="K10:K41" si="4">D10/C10</f>
-        <v>5953.9684931506845</v>
+        <v>6521.3013698630139</v>
       </c>
       <c r="L10" s="7">
         <f t="shared" ref="L10:L41" si="5">A10+K10</f>
-        <v>50148.968493150685</v>
+        <v>50716.301369863017</v>
       </c>
       <c r="M10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>483505</v>
       </c>
       <c r="N10" s="5">
@@ -883,8 +882,8 @@
         <v>95.8</v>
       </c>
       <c r="D11" s="5">
-        <f t="shared" si="0"/>
-        <v>482775</v>
+        <f t="shared" si="1"/>
+        <v>528722</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" si="2"/>
@@ -901,14 +900,14 @@
       </c>
       <c r="K11" s="6">
         <f t="shared" si="4"/>
-        <v>5039.4050104384132</v>
+        <v>5519.0187891440501</v>
       </c>
       <c r="L11" s="7">
         <f t="shared" si="5"/>
-        <v>49235.405010438415</v>
+        <v>49715.018789144051</v>
       </c>
       <c r="M11" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>483505</v>
       </c>
       <c r="N11" s="5">
@@ -927,8 +926,8 @@
         <v>113.4</v>
       </c>
       <c r="D12" s="5">
-        <f t="shared" si="0"/>
-        <v>482547</v>
+        <f t="shared" si="1"/>
+        <v>528499</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" si="2"/>
@@ -945,14 +944,14 @@
       </c>
       <c r="K12" s="6">
         <f t="shared" si="4"/>
-        <v>4255.2645502645501</v>
+        <v>4660.4850088183421</v>
       </c>
       <c r="L12" s="7">
         <f t="shared" si="5"/>
-        <v>48452.264550264546</v>
+        <v>48857.485008818345</v>
       </c>
       <c r="M12" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>483505</v>
       </c>
       <c r="N12" s="5">
@@ -971,8 +970,8 @@
         <v>131.80000000000001</v>
       </c>
       <c r="D13" s="5">
-        <f t="shared" si="0"/>
-        <v>482324</v>
+        <f t="shared" si="1"/>
+        <v>528192</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" si="2"/>
@@ -989,14 +988,14 @@
       </c>
       <c r="K13" s="6">
         <f t="shared" si="4"/>
-        <v>3659.5144157814866</v>
+        <v>4007.5265553869494</v>
       </c>
       <c r="L13" s="7">
         <f t="shared" si="5"/>
-        <v>47857.514415781487</v>
+        <v>48205.526555386947</v>
       </c>
       <c r="M13" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>483505</v>
       </c>
       <c r="N13" s="5">
@@ -1015,8 +1014,8 @@
         <v>208.42857142857142</v>
       </c>
       <c r="D14" s="5">
-        <f t="shared" si="0"/>
-        <v>482017</v>
+        <f t="shared" si="1"/>
+        <v>527958</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" si="2"/>
@@ -1033,14 +1032,14 @@
       </c>
       <c r="K14" s="6">
         <f t="shared" si="4"/>
-        <v>2312.6244002741605</v>
+        <v>2533.0404386566142</v>
       </c>
       <c r="L14" s="7">
         <f t="shared" si="5"/>
-        <v>46511.624400274159</v>
+        <v>46732.040438656615</v>
       </c>
       <c r="M14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>483505</v>
       </c>
       <c r="N14" s="5">
@@ -1059,8 +1058,8 @@
         <v>218.42857142857142</v>
       </c>
       <c r="D15" s="5">
-        <f t="shared" si="0"/>
-        <v>481783</v>
+        <f t="shared" si="1"/>
+        <v>527733</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" si="2"/>
@@ -1077,14 +1076,14 @@
       </c>
       <c r="K15" s="6">
         <f t="shared" si="4"/>
-        <v>2205.6775670372795</v>
+        <v>2416.0438194898629</v>
       </c>
       <c r="L15" s="7">
         <f t="shared" si="5"/>
-        <v>46405.677567037281</v>
+        <v>46616.04381948986</v>
       </c>
       <c r="M15" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>483505</v>
       </c>
       <c r="N15" s="5">
@@ -1103,8 +1102,8 @@
         <v>280</v>
       </c>
       <c r="D16" s="5">
-        <f t="shared" si="0"/>
-        <v>481558</v>
+        <f t="shared" si="1"/>
+        <v>527148</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" si="2"/>
@@ -1121,14 +1120,14 @@
       </c>
       <c r="K16" s="6">
         <f t="shared" si="4"/>
-        <v>1719.85</v>
+        <v>1882.6714285714286</v>
       </c>
       <c r="L16" s="7">
         <f t="shared" si="5"/>
-        <v>45920.85</v>
+        <v>46083.671428571426</v>
       </c>
       <c r="M16" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>483505</v>
       </c>
       <c r="N16" s="5">
@@ -1147,8 +1146,8 @@
         <v>342.85714285714283</v>
       </c>
       <c r="D17" s="5">
-        <f t="shared" si="0"/>
-        <v>480973</v>
+        <f t="shared" si="1"/>
+        <v>526550</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" si="2"/>
@@ -1165,14 +1164,14 @@
       </c>
       <c r="K17" s="6">
         <f t="shared" si="4"/>
-        <v>1402.8379166666668</v>
+        <v>1535.7708333333335</v>
       </c>
       <c r="L17" s="7">
         <f t="shared" si="5"/>
-        <v>45604.837916666664</v>
+        <v>45737.770833333336</v>
       </c>
       <c r="M17" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>483505</v>
       </c>
       <c r="N17" s="5">
@@ -1191,8 +1190,8 @@
         <v>432.42857142857144</v>
       </c>
       <c r="D18" s="5">
-        <f t="shared" si="0"/>
-        <v>480375</v>
+        <f t="shared" si="1"/>
+        <v>525695</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" si="2"/>
@@ -1209,14 +1208,14 @@
       </c>
       <c r="K18" s="6">
         <f t="shared" si="4"/>
-        <v>1110.8771060455897</v>
+        <v>1215.6805417905516</v>
       </c>
       <c r="L18" s="7">
         <f t="shared" si="5"/>
-        <v>45313.877106045591</v>
+        <v>45418.680541790549</v>
       </c>
       <c r="M18" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>483505</v>
       </c>
       <c r="N18" s="5">
@@ -1235,8 +1234,8 @@
         <v>518.28571428571433</v>
       </c>
       <c r="D19" s="5">
-        <f t="shared" si="0"/>
-        <v>479520</v>
+        <f t="shared" si="1"/>
+        <v>524871</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" si="2"/>
@@ -1253,14 +1252,14 @@
       </c>
       <c r="K19" s="6">
         <f t="shared" si="4"/>
-        <v>925.20396912899662</v>
+        <v>1012.7058985667034</v>
       </c>
       <c r="L19" s="7">
         <f t="shared" si="5"/>
-        <v>45129.203969128997</v>
+        <v>45216.705898566703</v>
       </c>
       <c r="M19" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>483505</v>
       </c>
       <c r="N19" s="5">
@@ -1279,8 +1278,8 @@
         <v>597</v>
       </c>
       <c r="D20" s="5">
-        <f t="shared" si="0"/>
-        <v>478696</v>
+        <f t="shared" si="1"/>
+        <v>524013</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" si="2"/>
@@ -1297,14 +1296,14 @@
       </c>
       <c r="K20" s="6">
         <f t="shared" si="4"/>
-        <v>801.83584589614736</v>
+        <v>877.7437185929648</v>
       </c>
       <c r="L20" s="7">
         <f t="shared" si="5"/>
-        <v>45006.835845896145</v>
+        <v>45082.743718592967</v>
       </c>
       <c r="M20" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>483505</v>
       </c>
       <c r="N20" s="5">
@@ -1323,8 +1322,8 @@
         <v>696</v>
       </c>
       <c r="D21" s="5">
-        <f t="shared" si="0"/>
-        <v>477838</v>
+        <f t="shared" si="1"/>
+        <v>523086</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" si="2"/>
@@ -1341,14 +1340,14 @@
       </c>
       <c r="K21" s="6">
         <f t="shared" si="4"/>
-        <v>686.54885057471267</v>
+        <v>751.56034482758616</v>
       </c>
       <c r="L21" s="7">
         <f t="shared" si="5"/>
-        <v>44892.548850574713</v>
+        <v>44957.560344827587</v>
       </c>
       <c r="M21" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>483505</v>
       </c>
       <c r="N21" s="5">
@@ -1367,8 +1366,8 @@
         <v>811</v>
       </c>
       <c r="D22" s="5">
-        <f t="shared" si="0"/>
-        <v>476911</v>
+        <f t="shared" si="1"/>
+        <v>522056</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" si="2"/>
@@ -1385,14 +1384,14 @@
       </c>
       <c r="K22" s="6">
         <f t="shared" si="4"/>
-        <v>588.05302096177559</v>
+        <v>643.71886559802715</v>
       </c>
       <c r="L22" s="7">
         <f t="shared" si="5"/>
-        <v>44795.053020961779</v>
+        <v>44850.718865598028</v>
       </c>
       <c r="M22" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>483505</v>
       </c>
       <c r="N22" s="5">
@@ -1411,8 +1410,8 @@
         <v>927.85714285714289</v>
       </c>
       <c r="D23" s="5">
-        <f t="shared" si="0"/>
-        <v>475881</v>
+        <f t="shared" si="1"/>
+        <v>520653</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" si="2"/>
@@ -1429,14 +1428,14 @@
       </c>
       <c r="K23" s="6">
         <f t="shared" si="4"/>
-        <v>512.88175519630488</v>
+        <v>561.13487297921472</v>
       </c>
       <c r="L23" s="7">
         <f t="shared" si="5"/>
-        <v>44720.881755196307</v>
+        <v>44769.134872979215</v>
       </c>
       <c r="M23" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>483505</v>
       </c>
       <c r="N23" s="5">
@@ -1455,8 +1454,8 @@
         <v>991.42857142857144</v>
       </c>
       <c r="D24" s="5">
-        <f t="shared" si="0"/>
-        <v>474478</v>
+        <f t="shared" si="1"/>
+        <v>519610</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" si="2"/>
@@ -1473,14 +1472,14 @@
       </c>
       <c r="K24" s="6">
         <f t="shared" si="4"/>
-        <v>478.58011527377522</v>
+        <v>524.10230547550429</v>
       </c>
       <c r="L24" s="7">
         <f t="shared" si="5"/>
-        <v>44687.580115273777</v>
+        <v>44733.102305475506</v>
       </c>
       <c r="M24" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>483505</v>
       </c>
       <c r="N24" s="5">
@@ -1499,8 +1498,8 @@
         <v>1022.7142857142857</v>
       </c>
       <c r="D25" s="5">
-        <f t="shared" si="0"/>
-        <v>473435</v>
+        <f t="shared" si="1"/>
+        <v>518536</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" si="2"/>
@@ -1517,14 +1516,14 @@
       </c>
       <c r="K25" s="6">
         <f t="shared" si="4"/>
-        <v>462.92010057270573</v>
+        <v>507.01941611956977</v>
       </c>
       <c r="L25" s="7">
         <f t="shared" si="5"/>
-        <v>44672.920100572708</v>
+        <v>44717.019416119569</v>
       </c>
       <c r="M25" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>483505</v>
       </c>
       <c r="N25" s="5">
@@ -1543,8 +1542,8 @@
         <v>1036.7142857142858</v>
       </c>
       <c r="D26" s="5">
-        <f t="shared" si="0"/>
-        <v>472361</v>
+        <f t="shared" si="1"/>
+        <v>517614</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" si="2"/>
@@ -1561,14 +1560,14 @@
       </c>
       <c r="K26" s="6">
         <f t="shared" si="4"/>
-        <v>455.6327683615819</v>
+        <v>499.28317486564691</v>
       </c>
       <c r="L26" s="7">
         <f t="shared" si="5"/>
-        <v>44666.632768361582</v>
+        <v>44710.283174865646</v>
       </c>
       <c r="M26" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>483505</v>
       </c>
       <c r="N26" s="5">
@@ -1587,8 +1586,8 @@
         <v>955.71428571428567</v>
       </c>
       <c r="D27" s="5">
-        <f t="shared" si="0"/>
-        <v>471439</v>
+        <f t="shared" si="1"/>
+        <v>517323</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" si="2"/>
@@ -1605,14 +1604,14 @@
       </c>
       <c r="K27" s="6">
         <f t="shared" si="4"/>
-        <v>493.28445440956654</v>
+        <v>541.29461883408078</v>
       </c>
       <c r="L27" s="7">
         <f t="shared" si="5"/>
-        <v>44705.284454409564</v>
+        <v>44753.294618834079</v>
       </c>
       <c r="M27" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>483505</v>
       </c>
       <c r="N27" s="5">
@@ -1631,8 +1630,8 @@
         <v>823.28571428571433</v>
       </c>
       <c r="D28" s="5">
-        <f t="shared" si="0"/>
-        <v>471148</v>
+        <f t="shared" si="1"/>
+        <v>517323</v>
       </c>
       <c r="E28" s="5">
         <f t="shared" si="2"/>
@@ -1649,14 +1648,14 @@
       </c>
       <c r="K28" s="6">
         <f t="shared" si="4"/>
-        <v>572.2776331771646</v>
+        <v>628.36387298282136</v>
       </c>
       <c r="L28" s="7">
         <f t="shared" si="5"/>
-        <v>44785.277633177167</v>
+        <v>44841.363872982824</v>
       </c>
       <c r="M28" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>483505</v>
       </c>
       <c r="N28" s="5">
@@ -1675,8 +1674,8 @@
         <v>795.5</v>
       </c>
       <c r="D29" s="5">
-        <f t="shared" si="0"/>
-        <v>471148</v>
+        <f t="shared" si="1"/>
+        <v>516722</v>
       </c>
       <c r="E29" s="5">
         <f t="shared" si="2"/>
@@ -1693,14 +1692,14 @@
       </c>
       <c r="K29" s="6">
         <f t="shared" si="4"/>
-        <v>592.26649905719671</v>
+        <v>649.55625392834691</v>
       </c>
       <c r="L29" s="7">
         <f t="shared" si="5"/>
-        <v>44806.266499057194</v>
+        <v>44863.556253928349</v>
       </c>
       <c r="M29" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>483505</v>
       </c>
       <c r="N29" s="5">
@@ -1719,8 +1718,8 @@
         <v>770.625</v>
       </c>
       <c r="D30" s="5">
-        <f t="shared" si="0"/>
-        <v>470547</v>
+        <f t="shared" si="1"/>
+        <v>515891</v>
       </c>
       <c r="E30" s="5">
         <f t="shared" si="2"/>
@@ -1737,14 +1736,14 @@
       </c>
       <c r="K30" s="6">
         <f t="shared" si="4"/>
-        <v>610.60437956204385</v>
+        <v>669.44493106244931</v>
       </c>
       <c r="L30" s="7">
         <f t="shared" si="5"/>
-        <v>44825.604379562043</v>
+        <v>44884.444931062448</v>
       </c>
       <c r="M30" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>483505</v>
       </c>
       <c r="N30" s="5">
@@ -1763,8 +1762,8 @@
         <v>670.625</v>
       </c>
       <c r="D31" s="5">
-        <f t="shared" si="0"/>
-        <v>469716</v>
+        <f t="shared" si="1"/>
+        <v>515288</v>
       </c>
       <c r="E31" s="5">
         <f t="shared" si="2"/>
@@ -1781,14 +1780,14 @@
       </c>
       <c r="K31" s="6">
         <f t="shared" si="4"/>
-        <v>700.41528424976696</v>
+        <v>768.36980428704567</v>
       </c>
       <c r="L31" s="7">
         <f t="shared" si="5"/>
-        <v>44916.415284249764</v>
+        <v>44984.369804287046</v>
       </c>
       <c r="M31" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>483505</v>
       </c>
       <c r="N31" s="5">
@@ -1807,8 +1806,8 @@
         <v>604.5</v>
       </c>
       <c r="D32" s="5">
-        <f t="shared" si="0"/>
-        <v>469113</v>
+        <f t="shared" si="1"/>
+        <v>514774</v>
       </c>
       <c r="E32" s="5">
         <f t="shared" si="2"/>
@@ -1825,14 +1824,14 @@
       </c>
       <c r="K32" s="6">
         <f t="shared" si="4"/>
-        <v>776.03473945409428</v>
+        <v>851.56989247311833</v>
       </c>
       <c r="L32" s="7">
         <f t="shared" si="5"/>
-        <v>44993.034739454095</v>
+        <v>45068.569892473119</v>
       </c>
       <c r="M32" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>483505</v>
       </c>
       <c r="N32" s="5">
@@ -1851,8 +1850,8 @@
         <v>505</v>
       </c>
       <c r="D33" s="5">
-        <f t="shared" si="0"/>
-        <v>468599</v>
+        <f t="shared" si="1"/>
+        <v>514496</v>
       </c>
       <c r="E33" s="5">
         <f t="shared" si="2"/>
@@ -1869,14 +1868,14 @@
       </c>
       <c r="K33" s="6">
         <f t="shared" si="4"/>
-        <v>927.91881188118816</v>
+        <v>1018.8039603960397</v>
       </c>
       <c r="L33" s="7">
         <f t="shared" si="5"/>
-        <v>45145.918811881187</v>
+        <v>45236.803960396042</v>
       </c>
       <c r="M33" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>483505</v>
       </c>
       <c r="N33" s="5">
@@ -1895,8 +1894,8 @@
         <v>422.375</v>
       </c>
       <c r="D34" s="5">
-        <f t="shared" ref="D34:D65" si="10">D35+B34</f>
-        <v>468321</v>
+        <f t="shared" si="1"/>
+        <v>514235</v>
       </c>
       <c r="E34" s="5">
         <f t="shared" si="2"/>
@@ -1913,14 +1912,14 @@
       </c>
       <c r="K34" s="6">
         <f t="shared" si="4"/>
-        <v>1108.7801124593075</v>
+        <v>1217.4844628588339</v>
       </c>
       <c r="L34" s="7">
         <f t="shared" si="5"/>
-        <v>45327.78011245931</v>
+        <v>45436.484462858833</v>
       </c>
       <c r="M34" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>483505</v>
       </c>
       <c r="N34" s="5">
@@ -1939,8 +1938,8 @@
         <v>472.57142857142856</v>
       </c>
       <c r="D35" s="5">
-        <f t="shared" si="10"/>
-        <v>468060</v>
+        <f t="shared" si="1"/>
+        <v>514015</v>
       </c>
       <c r="E35" s="5">
         <f t="shared" si="2"/>
@@ -1957,14 +1956,14 @@
       </c>
       <c r="K35" s="6">
         <f t="shared" si="4"/>
-        <v>990.45344619105208</v>
+        <v>1087.6980048367593</v>
       </c>
       <c r="L35" s="7">
         <f t="shared" si="5"/>
-        <v>45210.453446191052</v>
+        <v>45307.698004836762</v>
       </c>
       <c r="M35" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>483505</v>
       </c>
       <c r="N35" s="5">
@@ -1983,8 +1982,8 @@
         <v>422.42857142857144</v>
       </c>
       <c r="D36" s="5">
-        <f t="shared" si="10"/>
-        <v>467840</v>
+        <f t="shared" si="1"/>
+        <v>513765</v>
       </c>
       <c r="E36" s="5">
         <f t="shared" si="2"/>
@@ -2001,14 +2000,14 @@
       </c>
       <c r="K36" s="6">
         <f t="shared" si="4"/>
-        <v>1107.5008454514712</v>
+        <v>1216.2174501183631</v>
       </c>
       <c r="L36" s="7">
         <f t="shared" si="5"/>
-        <v>45328.500845451468</v>
+        <v>45437.217450118362</v>
       </c>
       <c r="M36" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>483505</v>
       </c>
       <c r="N36" s="5">
@@ -2027,8 +2026,8 @@
         <v>376</v>
       </c>
       <c r="D37" s="5">
-        <f t="shared" si="10"/>
-        <v>467590</v>
+        <f t="shared" si="1"/>
+        <v>513259</v>
       </c>
       <c r="E37" s="5">
         <f t="shared" si="2"/>
@@ -2045,14 +2044,14 @@
       </c>
       <c r="K37" s="6">
         <f t="shared" si="4"/>
-        <v>1243.5904255319149</v>
+        <v>1365.0505319148936</v>
       </c>
       <c r="L37" s="7">
         <f t="shared" si="5"/>
-        <v>45465.590425531918</v>
+        <v>45587.050531914894</v>
       </c>
       <c r="M37" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>483505</v>
       </c>
       <c r="N37" s="5">
@@ -2071,8 +2070,8 @@
         <v>371.14285714285717</v>
       </c>
       <c r="D38" s="5">
-        <f t="shared" si="10"/>
-        <v>467084</v>
+        <f t="shared" si="1"/>
+        <v>512690</v>
       </c>
       <c r="E38" s="5">
         <f t="shared" si="2"/>
@@ -2089,14 +2088,14 @@
       </c>
       <c r="K38" s="6">
         <f t="shared" si="4"/>
-        <v>1258.5019245573517</v>
+        <v>1381.3818321785989</v>
       </c>
       <c r="L38" s="7">
         <f t="shared" si="5"/>
-        <v>45481.501924557349</v>
+        <v>45604.381832178602</v>
       </c>
       <c r="M38" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>483505</v>
       </c>
       <c r="N38" s="5">
@@ -2115,8 +2114,8 @@
         <v>325.14285714285717</v>
       </c>
       <c r="D39" s="5">
-        <f t="shared" si="10"/>
-        <v>466515</v>
+        <f t="shared" si="1"/>
+        <v>512498</v>
       </c>
       <c r="E39" s="5">
         <f t="shared" si="2"/>
@@ -2133,14 +2132,14 @@
       </c>
       <c r="K39" s="6">
         <f t="shared" si="4"/>
-        <v>1434.8000878734622</v>
+        <v>1576.2240773286467</v>
       </c>
       <c r="L39" s="7">
         <f t="shared" si="5"/>
-        <v>45658.80008787346</v>
+        <v>45800.224077328647</v>
       </c>
       <c r="M39" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>483505</v>
       </c>
       <c r="N39" s="5">
@@ -2159,8 +2158,8 @@
         <v>293.85714285714283</v>
       </c>
       <c r="D40" s="5">
-        <f t="shared" si="10"/>
-        <v>466323</v>
+        <f t="shared" si="1"/>
+        <v>512439</v>
       </c>
       <c r="E40" s="5">
         <f t="shared" si="2"/>
@@ -2177,14 +2176,14 @@
       </c>
       <c r="K40" s="6">
         <f t="shared" si="4"/>
-        <v>1586.9037433155081</v>
+        <v>1743.8371414681576</v>
       </c>
       <c r="L40" s="7">
         <f t="shared" si="5"/>
-        <v>45811.90374331551</v>
+        <v>45968.837141468161</v>
       </c>
       <c r="M40" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>483505</v>
       </c>
       <c r="N40" s="5">
@@ -2203,8 +2202,8 @@
         <v>256.57142857142856</v>
       </c>
       <c r="D41" s="5">
-        <f t="shared" si="10"/>
-        <v>466264</v>
+        <f t="shared" si="1"/>
+        <v>512439</v>
       </c>
       <c r="E41" s="5">
         <f t="shared" si="2"/>
@@ -2221,14 +2220,14 @@
       </c>
       <c r="K41" s="6">
         <f t="shared" si="4"/>
-        <v>1817.2873051224944</v>
+        <v>1997.2566815144767</v>
       </c>
       <c r="L41" s="7">
         <f t="shared" si="5"/>
-        <v>46043.287305122496</v>
+        <v>46223.256681514475</v>
       </c>
       <c r="M41" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>483505</v>
       </c>
       <c r="N41" s="5">
@@ -2247,8 +2246,8 @@
         <v>225.14285714285714</v>
       </c>
       <c r="D42" s="5">
-        <f t="shared" si="10"/>
-        <v>466264</v>
+        <f t="shared" si="1"/>
+        <v>512439</v>
       </c>
       <c r="E42" s="5">
         <f t="shared" si="2"/>
@@ -2264,15 +2263,15 @@
         <v>0</v>
       </c>
       <c r="K42" s="6">
-        <f t="shared" ref="K42:K73" si="11">D42/C42</f>
-        <v>2070.9695431472082</v>
+        <f t="shared" ref="K42:K73" si="10">D42/C42</f>
+        <v>2276.0615482233502</v>
       </c>
       <c r="L42" s="7">
-        <f t="shared" ref="L42:L73" si="12">A42+K42</f>
-        <v>46297.969543147206</v>
+        <f t="shared" ref="L42:L73" si="11">A42+K42</f>
+        <v>46503.061548223348</v>
       </c>
       <c r="M42" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>483505</v>
       </c>
       <c r="N42" s="5">
@@ -2287,12 +2286,12 @@
         <v>261</v>
       </c>
       <c r="C43" s="5">
-        <f t="shared" ref="C43:C48" si="13">AVERAGE(B35:B43)</f>
+        <f t="shared" ref="C43:C48" si="12">AVERAGE(B35:B43)</f>
         <v>228.55555555555554</v>
       </c>
       <c r="D43" s="5">
-        <f t="shared" si="10"/>
-        <v>466264</v>
+        <f t="shared" si="1"/>
+        <v>512178</v>
       </c>
       <c r="E43" s="5">
         <f t="shared" si="2"/>
@@ -2308,15 +2307,15 @@
         <v>0</v>
       </c>
       <c r="K43" s="6">
+        <f t="shared" si="10"/>
+        <v>2240.9343704423918</v>
+      </c>
+      <c r="L43" s="7">
         <f t="shared" si="11"/>
-        <v>2040.0466699076326</v>
-      </c>
-      <c r="L43" s="7">
-        <f t="shared" si="12"/>
-        <v>46268.046669907635</v>
+        <v>46468.934370442395</v>
       </c>
       <c r="M43" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>483505</v>
       </c>
       <c r="N43" s="5">
@@ -2331,12 +2330,12 @@
         <v>340</v>
       </c>
       <c r="C44" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>241.88888888888889</v>
       </c>
       <c r="D44" s="5">
-        <f t="shared" si="10"/>
-        <v>466003</v>
+        <f t="shared" si="1"/>
+        <v>511838</v>
       </c>
       <c r="E44" s="5">
         <f t="shared" si="2"/>
@@ -2352,15 +2351,15 @@
         <v>0</v>
       </c>
       <c r="K44" s="6">
+        <f t="shared" si="10"/>
+        <v>2116.0045934772625</v>
+      </c>
+      <c r="L44" s="7">
         <f t="shared" si="11"/>
-        <v>1926.5167661920075</v>
-      </c>
-      <c r="L44" s="7">
-        <f t="shared" si="12"/>
-        <v>46155.516766192006</v>
+        <v>46345.004593477264</v>
       </c>
       <c r="M44" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>483505</v>
       </c>
       <c r="N44" s="5">
@@ -2375,12 +2374,12 @@
         <v>452</v>
       </c>
       <c r="C45" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>264.33333333333331</v>
       </c>
       <c r="D45" s="5">
-        <f t="shared" si="10"/>
-        <v>465663</v>
+        <f t="shared" si="1"/>
+        <v>511386</v>
       </c>
       <c r="E45" s="5">
         <f t="shared" si="2"/>
@@ -2396,15 +2395,15 @@
         <v>0</v>
       </c>
       <c r="K45" s="6">
+        <f t="shared" si="10"/>
+        <v>1934.6254728877682</v>
+      </c>
+      <c r="L45" s="7">
         <f t="shared" si="11"/>
-        <v>1761.6506935687264</v>
-      </c>
-      <c r="L45" s="7">
-        <f t="shared" si="12"/>
-        <v>45991.650693568728</v>
+        <v>46164.625472887768</v>
       </c>
       <c r="M45" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>483505</v>
       </c>
       <c r="N45" s="5">
@@ -2419,12 +2418,12 @@
         <v>264</v>
       </c>
       <c r="C46" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>237.44444444444446</v>
       </c>
       <c r="D46" s="5">
-        <f t="shared" si="10"/>
-        <v>465211</v>
+        <f t="shared" si="1"/>
+        <v>511122</v>
       </c>
       <c r="E46" s="5">
         <f t="shared" si="2"/>
@@ -2440,15 +2439,15 @@
         <v>0</v>
       </c>
       <c r="K46" s="6">
+        <f t="shared" si="10"/>
+        <v>2152.59616284511</v>
+      </c>
+      <c r="L46" s="7">
         <f t="shared" si="11"/>
-        <v>1959.241459990641</v>
-      </c>
-      <c r="L46" s="7">
-        <f t="shared" si="12"/>
-        <v>46190.241459990641</v>
+        <v>46383.596162845111</v>
       </c>
       <c r="M46" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>483505</v>
       </c>
       <c r="N46" s="5">
@@ -2463,12 +2462,12 @@
         <v>512</v>
       </c>
       <c r="C47" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>231.11111111111111</v>
       </c>
       <c r="D47" s="5">
-        <f t="shared" si="10"/>
-        <v>464947</v>
+        <f t="shared" si="1"/>
+        <v>510610</v>
       </c>
       <c r="E47" s="5">
         <f t="shared" si="2"/>
@@ -2484,15 +2483,15 @@
         <v>0</v>
       </c>
       <c r="K47" s="6">
+        <f t="shared" si="10"/>
+        <v>2209.3701923076924</v>
+      </c>
+      <c r="L47" s="7">
         <f t="shared" si="11"/>
-        <v>2011.7899038461537</v>
-      </c>
-      <c r="L47" s="7">
-        <f t="shared" si="12"/>
-        <v>46243.789903846155</v>
+        <v>46441.370192307695</v>
       </c>
       <c r="M47" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>483505</v>
       </c>
       <c r="N47" s="5">
@@ -2507,12 +2506,12 @@
         <v>512</v>
       </c>
       <c r="C48" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>266.66666666666669</v>
       </c>
       <c r="D48" s="5">
-        <f t="shared" si="10"/>
-        <v>464435</v>
+        <f t="shared" si="1"/>
+        <v>510098</v>
       </c>
       <c r="E48" s="5">
         <f t="shared" si="2"/>
@@ -2528,15 +2527,15 @@
         <v>0</v>
       </c>
       <c r="K48" s="6">
+        <f t="shared" si="10"/>
+        <v>1912.8674999999998</v>
+      </c>
+      <c r="L48" s="7">
         <f t="shared" si="11"/>
-        <v>1741.6312499999999</v>
-      </c>
-      <c r="L48" s="7">
-        <f t="shared" si="12"/>
-        <v>45974.631249999999</v>
+        <v>46145.8675</v>
       </c>
       <c r="M48" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>483505</v>
       </c>
       <c r="N48" s="5">
@@ -2555,8 +2554,8 @@
         <v>408</v>
       </c>
       <c r="D49" s="5">
-        <f t="shared" si="10"/>
-        <v>463923</v>
+        <f t="shared" si="1"/>
+        <v>509583</v>
       </c>
       <c r="E49" s="5">
         <f t="shared" si="2"/>
@@ -2572,15 +2571,15 @@
         <v>0</v>
       </c>
       <c r="K49" s="6">
+        <f t="shared" si="10"/>
+        <v>1248.9779411764705</v>
+      </c>
+      <c r="L49" s="7">
         <f t="shared" si="11"/>
-        <v>1137.0661764705883</v>
-      </c>
-      <c r="L49" s="7">
-        <f t="shared" si="12"/>
-        <v>45371.066176470587</v>
+        <v>45482.977941176468</v>
       </c>
       <c r="M49" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>483505</v>
       </c>
       <c r="N49" s="5">
@@ -2595,12 +2594,12 @@
         <v>539</v>
       </c>
       <c r="C50" s="5">
-        <f t="shared" ref="C50:C69" si="14">AVERAGE(B44:B50)</f>
+        <f t="shared" ref="C50:C69" si="13">AVERAGE(B44:B50)</f>
         <v>447.71428571428572</v>
       </c>
       <c r="D50" s="5">
-        <f t="shared" si="10"/>
-        <v>463408</v>
+        <f t="shared" si="1"/>
+        <v>509044</v>
       </c>
       <c r="E50" s="5">
         <f t="shared" si="2"/>
@@ -2616,15 +2615,15 @@
         <v>0</v>
       </c>
       <c r="K50" s="6">
+        <f t="shared" si="10"/>
+        <v>1136.9840459476707</v>
+      </c>
+      <c r="L50" s="7">
         <f t="shared" si="11"/>
-        <v>1035.0529674537331</v>
-      </c>
-      <c r="L50" s="7">
-        <f t="shared" si="12"/>
-        <v>45270.052967453732</v>
+        <v>45371.984045947669</v>
       </c>
       <c r="M50" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>483505</v>
       </c>
       <c r="N50" s="5">
@@ -2639,12 +2638,12 @@
         <v>602</v>
       </c>
       <c r="C51" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>485.14285714285717</v>
       </c>
       <c r="D51" s="5">
-        <f t="shared" si="10"/>
-        <v>462869</v>
+        <f t="shared" si="1"/>
+        <v>508442</v>
       </c>
       <c r="E51" s="5">
         <f t="shared" si="2"/>
@@ -2660,15 +2659,15 @@
         <v>0</v>
       </c>
       <c r="K51" s="6">
+        <f t="shared" si="10"/>
+        <v>1048.0253239104829</v>
+      </c>
+      <c r="L51" s="7">
         <f t="shared" si="11"/>
-        <v>954.08804475853935</v>
-      </c>
-      <c r="L51" s="7">
-        <f t="shared" si="12"/>
-        <v>45190.088044758537</v>
+        <v>45284.025323910486</v>
       </c>
       <c r="M51" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>483505</v>
       </c>
       <c r="N51" s="5">
@@ -2683,12 +2682,12 @@
         <v>417</v>
       </c>
       <c r="C52" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>480.14285714285717</v>
       </c>
       <c r="D52" s="5">
-        <f t="shared" si="10"/>
-        <v>462267</v>
+        <f t="shared" si="1"/>
+        <v>508025</v>
       </c>
       <c r="E52" s="5">
         <f t="shared" si="2"/>
@@ -2704,15 +2703,15 @@
         <v>0</v>
       </c>
       <c r="K52" s="6">
+        <f t="shared" si="10"/>
+        <v>1058.0705147277595</v>
+      </c>
+      <c r="L52" s="7">
         <f t="shared" si="11"/>
-        <v>962.76971139541797</v>
-      </c>
-      <c r="L52" s="7">
-        <f t="shared" si="12"/>
-        <v>45199.76971139542</v>
+        <v>45295.070514727762</v>
       </c>
       <c r="M52" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>483505</v>
       </c>
       <c r="N52" s="5">
@@ -2727,12 +2726,12 @@
         <v>619</v>
       </c>
       <c r="C53" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>530.85714285714289</v>
       </c>
       <c r="D53" s="5">
-        <f t="shared" si="10"/>
-        <v>461850</v>
+        <f t="shared" si="1"/>
+        <v>507406</v>
       </c>
       <c r="E53" s="5">
         <f t="shared" si="2"/>
@@ -2748,15 +2747,15 @@
         <v>0</v>
       </c>
       <c r="K53" s="6">
+        <f t="shared" si="10"/>
+        <v>955.82400430570499</v>
+      </c>
+      <c r="L53" s="7">
         <f t="shared" si="11"/>
-        <v>870.00807319698595</v>
-      </c>
-      <c r="L53" s="7">
-        <f t="shared" si="12"/>
-        <v>45108.008073196987</v>
+        <v>45193.824004305709</v>
       </c>
       <c r="M53" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>483505</v>
       </c>
       <c r="N53" s="5">
@@ -2771,12 +2770,12 @@
         <v>627</v>
       </c>
       <c r="C54" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>547.28571428571433</v>
       </c>
       <c r="D54" s="5">
-        <f t="shared" si="10"/>
-        <v>461231</v>
+        <f t="shared" si="1"/>
+        <v>506779</v>
       </c>
       <c r="E54" s="5">
         <f t="shared" si="2"/>
@@ -2792,15 +2791,15 @@
         <v>0</v>
       </c>
       <c r="K54" s="6">
+        <f t="shared" si="10"/>
+        <v>925.98616549203859</v>
+      </c>
+      <c r="L54" s="7">
         <f t="shared" si="11"/>
-        <v>842.76089793787514</v>
-      </c>
-      <c r="L54" s="7">
-        <f t="shared" si="12"/>
-        <v>45081.760897937878</v>
+        <v>45164.986165492039</v>
       </c>
       <c r="M54" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>483505</v>
       </c>
       <c r="N54" s="5">
@@ -2815,12 +2814,12 @@
         <v>575</v>
       </c>
       <c r="C55" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>556.28571428571433</v>
       </c>
       <c r="D55" s="5">
-        <f t="shared" si="10"/>
-        <v>460604</v>
+        <f t="shared" si="1"/>
+        <v>506204</v>
       </c>
       <c r="E55" s="5">
         <f t="shared" si="2"/>
@@ -2836,15 +2835,15 @@
         <v>0</v>
       </c>
       <c r="K55" s="6">
+        <f t="shared" si="10"/>
+        <v>909.97123780174616</v>
+      </c>
+      <c r="L55" s="7">
         <f t="shared" si="11"/>
-        <v>827.99897277863374</v>
-      </c>
-      <c r="L55" s="7">
-        <f t="shared" si="12"/>
-        <v>45067.998972778631</v>
+        <v>45149.971237801743</v>
       </c>
       <c r="M55" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>483505</v>
       </c>
       <c r="N55" s="5">
@@ -2859,12 +2858,12 @@
         <v>412</v>
       </c>
       <c r="C56" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>541.57142857142856</v>
       </c>
       <c r="D56" s="5">
-        <f t="shared" si="10"/>
-        <v>460029</v>
+        <f t="shared" si="1"/>
+        <v>505792</v>
       </c>
       <c r="E56" s="5">
         <f t="shared" si="2"/>
@@ -2880,15 +2879,15 @@
         <v>0</v>
       </c>
       <c r="K56" s="6">
+        <f t="shared" si="10"/>
+        <v>933.93405433922453</v>
+      </c>
+      <c r="L56" s="7">
         <f t="shared" si="11"/>
-        <v>849.43365866525983</v>
-      </c>
-      <c r="L56" s="7">
-        <f t="shared" si="12"/>
-        <v>45090.433658665257</v>
+        <v>45174.934054339225</v>
       </c>
       <c r="M56" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>483505</v>
       </c>
       <c r="N56" s="5">
@@ -2903,12 +2902,12 @@
         <v>0</v>
       </c>
       <c r="C57" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>464.57142857142856</v>
       </c>
       <c r="D57" s="5">
-        <f t="shared" si="10"/>
-        <v>459617</v>
+        <f t="shared" si="1"/>
+        <v>505792</v>
       </c>
       <c r="E57" s="5">
         <f t="shared" si="2"/>
@@ -2924,15 +2923,15 @@
         <v>0</v>
       </c>
       <c r="K57" s="6">
+        <f t="shared" si="10"/>
+        <v>1088.7281672816728</v>
+      </c>
+      <c r="L57" s="7">
         <f t="shared" si="11"/>
-        <v>989.33548585485858</v>
-      </c>
-      <c r="L57" s="7">
-        <f t="shared" si="12"/>
-        <v>45231.335485854856</v>
+        <v>45330.728167281675</v>
       </c>
       <c r="M57" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>483505</v>
       </c>
       <c r="N57" s="5">
@@ -2947,12 +2946,12 @@
         <v>560</v>
       </c>
       <c r="C58" s="5">
-        <f t="shared" ref="C58:C63" si="15">AVERAGE(B51:B58)</f>
+        <f t="shared" ref="C58:C63" si="14">AVERAGE(B51:B58)</f>
         <v>476.5</v>
       </c>
       <c r="D58" s="5">
-        <f t="shared" si="10"/>
-        <v>459617</v>
+        <f t="shared" si="1"/>
+        <v>505232</v>
       </c>
       <c r="E58" s="5">
         <f t="shared" si="2"/>
@@ -2968,15 +2967,15 @@
         <v>0</v>
       </c>
       <c r="K58" s="6">
+        <f t="shared" si="10"/>
+        <v>1060.2980062959077</v>
+      </c>
+      <c r="L58" s="7">
         <f t="shared" si="11"/>
-        <v>964.56873032528858</v>
-      </c>
-      <c r="L58" s="7">
-        <f t="shared" si="12"/>
-        <v>45207.568730325285</v>
+        <v>45303.29800629591</v>
       </c>
       <c r="M58" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>483505</v>
       </c>
       <c r="N58" s="5">
@@ -2991,12 +2990,12 @@
         <v>599</v>
       </c>
       <c r="C59" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>476.125</v>
       </c>
       <c r="D59" s="5">
-        <f t="shared" si="10"/>
-        <v>459057</v>
+        <f t="shared" si="1"/>
+        <v>504633</v>
       </c>
       <c r="E59" s="5">
         <f t="shared" si="2"/>
@@ -3012,15 +3011,15 @@
         <v>0</v>
       </c>
       <c r="K59" s="6">
+        <f t="shared" si="10"/>
+        <v>1059.8750328170124</v>
+      </c>
+      <c r="L59" s="7">
         <f t="shared" si="11"/>
-        <v>964.15227093725389</v>
-      </c>
-      <c r="L59" s="7">
-        <f t="shared" si="12"/>
-        <v>45208.152270937251</v>
+        <v>45303.875032817014</v>
       </c>
       <c r="M59" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>483505</v>
       </c>
       <c r="N59" s="5">
@@ -3035,12 +3034,12 @@
         <v>999</v>
       </c>
       <c r="C60" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>548.875</v>
       </c>
       <c r="D60" s="5">
-        <f t="shared" si="10"/>
-        <v>458458</v>
+        <f t="shared" si="1"/>
+        <v>503634</v>
       </c>
       <c r="E60" s="5">
         <f t="shared" si="2"/>
@@ -3056,15 +3055,15 @@
         <v>0</v>
       </c>
       <c r="K60" s="6">
+        <f t="shared" si="10"/>
+        <v>917.57503985424728</v>
+      </c>
+      <c r="L60" s="7">
         <f t="shared" si="11"/>
-        <v>835.26850375768618</v>
-      </c>
-      <c r="L60" s="7">
-        <f t="shared" si="12"/>
-        <v>45080.268503757688</v>
+        <v>45162.575039854244</v>
       </c>
       <c r="M60" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>483505</v>
       </c>
       <c r="N60" s="5">
@@ -3079,12 +3078,12 @@
         <v>1120</v>
       </c>
       <c r="C61" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>611.5</v>
       </c>
       <c r="D61" s="5">
-        <f t="shared" si="10"/>
-        <v>457459</v>
+        <f t="shared" si="1"/>
+        <v>502514</v>
       </c>
       <c r="E61" s="5">
         <f t="shared" si="2"/>
@@ -3100,15 +3099,15 @@
         <v>0</v>
       </c>
       <c r="K61" s="6">
+        <f t="shared" si="10"/>
+        <v>821.77269010629595</v>
+      </c>
+      <c r="L61" s="7">
         <f t="shared" si="11"/>
-        <v>748.09321340964846</v>
-      </c>
-      <c r="L61" s="7">
-        <f t="shared" si="12"/>
-        <v>44994.093213409651</v>
+        <v>45067.772690106292</v>
       </c>
       <c r="M61" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>483505</v>
       </c>
       <c r="N61" s="5">
@@ -3123,12 +3122,12 @@
         <v>645</v>
       </c>
       <c r="C62" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>613.75</v>
       </c>
       <c r="D62" s="5">
-        <f t="shared" si="10"/>
-        <v>456339</v>
+        <f t="shared" si="1"/>
+        <v>501869</v>
       </c>
       <c r="E62" s="5">
         <f t="shared" si="2"/>
@@ -3144,15 +3143,15 @@
         <v>0</v>
       </c>
       <c r="K62" s="6">
+        <f t="shared" si="10"/>
+        <v>817.70916496945006</v>
+      </c>
+      <c r="L62" s="7">
         <f t="shared" si="11"/>
-        <v>743.52586558044811</v>
-      </c>
-      <c r="L62" s="7">
-        <f t="shared" si="12"/>
-        <v>44990.52586558045</v>
+        <v>45064.709164969448</v>
       </c>
       <c r="M62" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>483505</v>
       </c>
       <c r="N62" s="5">
@@ -3167,12 +3166,12 @@
         <v>818</v>
       </c>
       <c r="C63" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>644.125</v>
       </c>
       <c r="D63" s="5">
-        <f t="shared" si="10"/>
-        <v>455694</v>
+        <f t="shared" si="1"/>
+        <v>501051</v>
       </c>
       <c r="E63" s="5">
         <f t="shared" si="2"/>
@@ -3188,15 +3187,15 @@
         <v>0</v>
       </c>
       <c r="K63" s="6">
+        <f t="shared" si="10"/>
+        <v>777.87851736852315</v>
+      </c>
+      <c r="L63" s="7">
         <f t="shared" si="11"/>
-        <v>707.46206093537739</v>
-      </c>
-      <c r="L63" s="7">
-        <f t="shared" si="12"/>
-        <v>44955.462060935381</v>
+        <v>45025.878517368525</v>
       </c>
       <c r="M63" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>483505</v>
       </c>
       <c r="N63" s="5">
@@ -3211,12 +3210,12 @@
         <v>482</v>
       </c>
       <c r="C64" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>746.14285714285711</v>
       </c>
       <c r="D64" s="5">
-        <f t="shared" si="10"/>
-        <v>454876</v>
+        <f t="shared" si="1"/>
+        <v>500569</v>
       </c>
       <c r="E64" s="5">
         <f t="shared" si="2"/>
@@ -3232,15 +3231,15 @@
         <v>0</v>
       </c>
       <c r="K64" s="6">
+        <f t="shared" si="10"/>
+        <v>670.87555044993303</v>
+      </c>
+      <c r="L64" s="7">
         <f t="shared" si="11"/>
-        <v>609.63660731380435</v>
-      </c>
-      <c r="L64" s="7">
-        <f t="shared" si="12"/>
-        <v>44858.636607313805</v>
+        <v>44919.875550449935</v>
       </c>
       <c r="M64" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>483505</v>
       </c>
       <c r="N64" s="5">
@@ -3255,12 +3254,12 @@
         <v>816</v>
       </c>
       <c r="C65" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>782.71428571428567</v>
       </c>
       <c r="D65" s="5">
-        <f t="shared" si="10"/>
-        <v>454394</v>
+        <f t="shared" si="1"/>
+        <v>499753</v>
       </c>
       <c r="E65" s="5">
         <f t="shared" si="2"/>
@@ -3276,15 +3275,15 @@
         <v>0</v>
       </c>
       <c r="K65" s="6">
+        <f t="shared" si="10"/>
+        <v>638.48713268844688</v>
+      </c>
+      <c r="L65" s="7">
         <f t="shared" si="11"/>
-        <v>580.53622923891226</v>
-      </c>
-      <c r="L65" s="7">
-        <f t="shared" si="12"/>
-        <v>44830.536229238911</v>
+        <v>44888.487132688446</v>
       </c>
       <c r="M65" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>483505</v>
       </c>
       <c r="N65" s="5">
@@ -3299,12 +3298,12 @@
         <v>646</v>
       </c>
       <c r="C66" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>789.42857142857144</v>
       </c>
       <c r="D66" s="5">
-        <f t="shared" ref="D66:D93" si="16">D67+B66</f>
-        <v>453578</v>
+        <f t="shared" si="1"/>
+        <v>499107</v>
       </c>
       <c r="E66" s="5">
         <f t="shared" si="2"/>
@@ -3320,15 +3319,15 @@
         <v>0</v>
       </c>
       <c r="K66" s="6">
+        <f t="shared" si="10"/>
+        <v>632.23832790445169</v>
+      </c>
+      <c r="L66" s="7">
         <f t="shared" si="11"/>
-        <v>574.56496561708286</v>
-      </c>
-      <c r="L66" s="7">
-        <f t="shared" si="12"/>
-        <v>44825.564965617086</v>
+        <v>44883.238327904452</v>
       </c>
       <c r="M66" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>483505</v>
       </c>
       <c r="N66" s="5">
@@ -3343,12 +3342,12 @@
         <v>656</v>
       </c>
       <c r="C67" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>740.42857142857144</v>
       </c>
       <c r="D67" s="5">
-        <f t="shared" si="16"/>
-        <v>452932</v>
+        <f t="shared" si="1"/>
+        <v>498451</v>
       </c>
       <c r="E67" s="5">
         <f t="shared" si="2"/>
@@ -3364,15 +3363,15 @@
         <v>0</v>
       </c>
       <c r="K67" s="6">
+        <f t="shared" si="10"/>
+        <v>673.19255257572831</v>
+      </c>
+      <c r="L67" s="7">
         <f t="shared" si="11"/>
-        <v>611.71599459772335</v>
-      </c>
-      <c r="L67" s="7">
-        <f t="shared" si="12"/>
-        <v>44863.715994597726</v>
+        <v>44925.192552575725</v>
       </c>
       <c r="M67" s="5">
-        <f t="shared" ref="M67:M116" si="17">(N67-J67)</f>
+        <f t="shared" ref="M67:M116" si="15">(N67-J67)</f>
         <v>483505</v>
       </c>
       <c r="N67" s="5">
@@ -3387,12 +3386,12 @@
         <v>757</v>
       </c>
       <c r="C68" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>688.57142857142856</v>
       </c>
       <c r="D68" s="5">
-        <f t="shared" si="16"/>
-        <v>452276</v>
+        <f t="shared" ref="D68:D126" si="16">D67-B68</f>
+        <v>497694</v>
       </c>
       <c r="E68" s="5">
         <f t="shared" si="2"/>
@@ -3408,15 +3407,15 @@
         <v>0</v>
       </c>
       <c r="K68" s="6">
+        <f t="shared" si="10"/>
+        <v>722.79211618257261</v>
+      </c>
+      <c r="L68" s="7">
         <f t="shared" si="11"/>
-        <v>656.83236514522821</v>
-      </c>
-      <c r="L68" s="7">
-        <f t="shared" si="12"/>
-        <v>44909.83236514523</v>
+        <v>44975.792116182572</v>
       </c>
       <c r="M68" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>483505</v>
       </c>
       <c r="N68" s="5">
@@ -3431,15 +3430,15 @@
         <v>682</v>
       </c>
       <c r="C69" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>693.85714285714289</v>
       </c>
       <c r="D69" s="5">
         <f t="shared" si="16"/>
-        <v>451519</v>
+        <v>497012</v>
       </c>
       <c r="E69" s="5">
-        <f t="shared" ref="E69:E100" si="18">E68+B69</f>
+        <f t="shared" ref="E69:E100" si="17">E68+B69</f>
         <v>32668</v>
       </c>
       <c r="F69" s="13"/>
@@ -3452,15 +3451,15 @@
         <v>0</v>
       </c>
       <c r="K69" s="6">
+        <f t="shared" si="10"/>
+        <v>716.30306773728637</v>
+      </c>
+      <c r="L69" s="7">
         <f t="shared" si="11"/>
-        <v>650.73769816759318</v>
-      </c>
-      <c r="L69" s="7">
-        <f t="shared" si="12"/>
-        <v>44904.737698167592</v>
+        <v>44970.303067737288</v>
       </c>
       <c r="M69" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>483505</v>
       </c>
       <c r="N69" s="5">
@@ -3475,15 +3474,15 @@
         <v>687</v>
       </c>
       <c r="C70" s="5">
-        <f t="shared" ref="C70:C75" si="19">AVERAGE(B64:B70)</f>
+        <f t="shared" ref="C70:C75" si="18">AVERAGE(B64:B70)</f>
         <v>675.14285714285711</v>
       </c>
       <c r="D70" s="5">
         <f t="shared" si="16"/>
-        <v>450837</v>
+        <v>496325</v>
       </c>
       <c r="E70" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>33355</v>
       </c>
       <c r="F70" s="13"/>
@@ -3496,15 +3495,15 @@
         <v>0</v>
       </c>
       <c r="K70" s="6">
+        <f t="shared" si="10"/>
+        <v>735.14071096064333</v>
+      </c>
+      <c r="L70" s="7">
         <f t="shared" si="11"/>
-        <v>667.76534066864156</v>
-      </c>
-      <c r="L70" s="7">
-        <f t="shared" si="12"/>
-        <v>44922.765340668644</v>
+        <v>44990.140710960644</v>
       </c>
       <c r="M70" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>483505</v>
       </c>
       <c r="N70" s="5">
@@ -3519,15 +3518,15 @@
         <v>584</v>
       </c>
       <c r="C71" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>689.71428571428567</v>
       </c>
       <c r="D71" s="5">
         <f t="shared" si="16"/>
-        <v>450150</v>
+        <v>495741</v>
       </c>
       <c r="E71" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>33939</v>
       </c>
       <c r="F71" s="13"/>
@@ -3540,15 +3539,15 @@
         <v>0</v>
       </c>
       <c r="K71" s="6">
+        <f t="shared" si="10"/>
+        <v>718.76284175642093</v>
+      </c>
+      <c r="L71" s="7">
         <f t="shared" si="11"/>
-        <v>652.66155758077889</v>
-      </c>
-      <c r="L71" s="7">
-        <f t="shared" si="12"/>
-        <v>44908.661557580781</v>
+        <v>44974.762841756419</v>
       </c>
       <c r="M71" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>483505</v>
       </c>
       <c r="N71" s="5">
@@ -3563,15 +3562,15 @@
         <v>1093</v>
       </c>
       <c r="C72" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>729.28571428571433</v>
       </c>
       <c r="D72" s="5">
         <f t="shared" si="16"/>
-        <v>449566</v>
+        <v>494648</v>
       </c>
       <c r="E72" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>35032</v>
       </c>
       <c r="F72" s="13"/>
@@ -3584,15 +3583,15 @@
         <v>0</v>
       </c>
       <c r="K72" s="6">
+        <f t="shared" si="10"/>
+        <v>678.26366307541616</v>
+      </c>
+      <c r="L72" s="7">
         <f t="shared" si="11"/>
-        <v>616.44701273261501</v>
-      </c>
-      <c r="L72" s="7">
-        <f t="shared" si="12"/>
-        <v>44873.447012732613</v>
+        <v>44935.263663075413</v>
       </c>
       <c r="M72" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>483505</v>
       </c>
       <c r="N72" s="5">
@@ -3607,15 +3606,15 @@
         <v>1173</v>
       </c>
       <c r="C73" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>804.57142857142856</v>
       </c>
       <c r="D73" s="5">
         <f t="shared" si="16"/>
-        <v>448473</v>
+        <v>493475</v>
       </c>
       <c r="E73" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>36205</v>
       </c>
       <c r="F73" s="13"/>
@@ -3628,15 +3627,15 @@
         <v>0</v>
       </c>
       <c r="K73" s="6">
+        <f t="shared" si="10"/>
+        <v>613.33895596590912</v>
+      </c>
+      <c r="L73" s="7">
         <f t="shared" si="11"/>
-        <v>557.40607244318187</v>
-      </c>
-      <c r="L73" s="7">
-        <f t="shared" si="12"/>
-        <v>44815.406072443184</v>
+        <v>44871.338955965912</v>
       </c>
       <c r="M73" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>483505</v>
       </c>
       <c r="N73" s="5">
@@ -3651,15 +3650,15 @@
         <v>1997</v>
       </c>
       <c r="C74" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>996.14285714285711</v>
       </c>
       <c r="D74" s="5">
         <f t="shared" si="16"/>
-        <v>447300</v>
+        <v>491478</v>
       </c>
       <c r="E74" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>38202</v>
       </c>
       <c r="F74" s="13"/>
@@ -3672,15 +3671,15 @@
         <v>0</v>
       </c>
       <c r="K74" s="6">
-        <f t="shared" ref="K74:K99" si="20">D74/C74</f>
-        <v>449.03198049619965</v>
+        <f t="shared" ref="K74:K99" si="19">D74/C74</f>
+        <v>493.38104115875524</v>
       </c>
       <c r="L74" s="7">
-        <f t="shared" ref="L74:L99" si="21">A74+K74</f>
-        <v>44708.031980496198</v>
+        <f t="shared" ref="L74:L99" si="20">A74+K74</f>
+        <v>44752.381041158755</v>
       </c>
       <c r="M74" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>483505</v>
       </c>
       <c r="N74" s="5">
@@ -3695,15 +3694,15 @@
         <v>1735</v>
       </c>
       <c r="C75" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>1135.8571428571429</v>
       </c>
       <c r="D75" s="5">
         <f t="shared" si="16"/>
-        <v>445303</v>
+        <v>489743</v>
       </c>
       <c r="E75" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>39937</v>
       </c>
       <c r="F75" s="13"/>
@@ -3716,15 +3715,15 @@
         <v>0</v>
       </c>
       <c r="K75" s="6">
+        <f t="shared" si="19"/>
+        <v>431.16601685322598</v>
+      </c>
+      <c r="L75" s="7">
         <f t="shared" si="20"/>
-        <v>392.04137844296315</v>
-      </c>
-      <c r="L75" s="7">
-        <f t="shared" si="21"/>
-        <v>44652.041378442962</v>
+        <v>44691.166016853225</v>
       </c>
       <c r="M75" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>483505</v>
       </c>
       <c r="N75" s="5">
@@ -3744,10 +3743,10 @@
       </c>
       <c r="D76" s="5">
         <f t="shared" si="16"/>
-        <v>443568</v>
+        <v>488211</v>
       </c>
       <c r="E76" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>41469</v>
       </c>
       <c r="F76" s="13"/>
@@ -3760,15 +3759,15 @@
         <v>0</v>
       </c>
       <c r="K76" s="6">
+        <f t="shared" si="19"/>
+        <v>388.30553346210661</v>
+      </c>
+      <c r="L76" s="7">
         <f t="shared" si="20"/>
-        <v>352.79809112600844</v>
-      </c>
-      <c r="L76" s="7">
-        <f t="shared" si="21"/>
-        <v>44613.798091126009</v>
+        <v>44649.305533462109</v>
       </c>
       <c r="M76" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>483505</v>
       </c>
       <c r="N76" s="5">
@@ -3783,15 +3782,15 @@
         <v>1323</v>
       </c>
       <c r="C77" s="5">
-        <f t="shared" ref="C77:C78" si="22">(AVERAGE(B71:B77))</f>
+        <f t="shared" ref="C77:C78" si="21">(AVERAGE(B71:B77))</f>
         <v>1348.1428571428571</v>
       </c>
       <c r="D77" s="5">
         <f t="shared" si="16"/>
-        <v>442036</v>
+        <v>486888</v>
       </c>
       <c r="E77" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>42792</v>
       </c>
       <c r="F77" s="13"/>
@@ -3804,15 +3803,15 @@
         <v>0</v>
       </c>
       <c r="K77" s="6">
+        <f t="shared" si="19"/>
+        <v>361.154604217442</v>
+      </c>
+      <c r="L77" s="7">
         <f t="shared" si="20"/>
-        <v>327.88513298717811</v>
-      </c>
-      <c r="L77" s="7">
-        <f t="shared" si="21"/>
-        <v>44589.885132987176</v>
+        <v>44623.154604217445</v>
       </c>
       <c r="M77" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>483505</v>
       </c>
       <c r="N77" s="5">
@@ -3827,15 +3826,15 @@
         <v>1518</v>
       </c>
       <c r="C78" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>1481.5714285714287</v>
       </c>
       <c r="D78" s="5">
         <f t="shared" si="16"/>
-        <v>440713</v>
+        <v>485370</v>
       </c>
       <c r="E78" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>44310</v>
       </c>
       <c r="F78" s="13"/>
@@ -3848,15 +3847,15 @@
         <v>0</v>
       </c>
       <c r="K78" s="6">
+        <f t="shared" si="19"/>
+        <v>327.60485970494648</v>
+      </c>
+      <c r="L78" s="7">
         <f t="shared" si="20"/>
-        <v>297.46321473339117</v>
-      </c>
-      <c r="L78" s="7">
-        <f t="shared" si="21"/>
-        <v>44560.46321473339</v>
+        <v>44590.604859704945</v>
       </c>
       <c r="M78" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>483505</v>
       </c>
       <c r="N78" s="5">
@@ -3871,15 +3870,15 @@
         <v>1664</v>
       </c>
       <c r="C79" s="5">
-        <f t="shared" ref="C79:C91" si="23">(AVERAGE(B73:B79))</f>
+        <f t="shared" ref="C79:C91" si="22">(AVERAGE(B73:B79))</f>
         <v>1563.1428571428571</v>
       </c>
       <c r="D79" s="5">
         <f t="shared" si="16"/>
-        <v>439195</v>
+        <v>483706</v>
       </c>
       <c r="E79" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>45974</v>
       </c>
       <c r="F79" s="13"/>
@@ -3892,15 +3891,15 @@
         <v>0</v>
       </c>
       <c r="K79" s="6">
+        <f t="shared" si="19"/>
+        <v>309.44452568086274</v>
+      </c>
+      <c r="L79" s="7">
         <f t="shared" si="20"/>
-        <v>280.96920124291722</v>
-      </c>
-      <c r="L79" s="7">
-        <f t="shared" si="21"/>
-        <v>44544.969201242915</v>
+        <v>44573.444525680861</v>
       </c>
       <c r="M79" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>483505</v>
       </c>
       <c r="N79" s="5">
@@ -3915,15 +3914,15 @@
         <v>1677</v>
       </c>
       <c r="C80" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>1635.1428571428571</v>
       </c>
       <c r="D80" s="5">
         <f t="shared" si="16"/>
-        <v>437531</v>
+        <v>482029</v>
       </c>
       <c r="E80" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>47651</v>
       </c>
       <c r="F80" s="13"/>
@@ -3936,15 +3935,15 @@
         <v>0</v>
       </c>
       <c r="K80" s="6">
+        <f t="shared" si="19"/>
+        <v>294.79320286562989</v>
+      </c>
+      <c r="L80" s="7">
         <f t="shared" si="20"/>
-        <v>267.57967849030229</v>
-      </c>
-      <c r="L80" s="7">
-        <f t="shared" si="21"/>
-        <v>44532.5796784903</v>
+        <v>44559.793202865629</v>
       </c>
       <c r="M80" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>483505</v>
       </c>
       <c r="N80" s="5">
@@ -3959,15 +3958,15 @@
         <v>1618</v>
       </c>
       <c r="C81" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>1581</v>
       </c>
       <c r="D81" s="5">
         <f t="shared" si="16"/>
-        <v>435854</v>
+        <v>480411</v>
       </c>
       <c r="E81" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>49269</v>
       </c>
       <c r="F81" s="13"/>
@@ -3980,15 +3979,15 @@
         <v>0</v>
       </c>
       <c r="K81" s="6">
+        <f t="shared" si="19"/>
+        <v>303.865275142315</v>
+      </c>
+      <c r="L81" s="7">
         <f t="shared" si="20"/>
-        <v>275.68247944339026</v>
-      </c>
-      <c r="L81" s="7">
-        <f t="shared" si="21"/>
-        <v>44541.682479443392</v>
+        <v>44569.865275142314</v>
       </c>
       <c r="M81" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>483505</v>
       </c>
       <c r="N81" s="5">
@@ -4003,15 +4002,15 @@
         <v>1855</v>
       </c>
       <c r="C82" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>1598.1428571428571</v>
       </c>
       <c r="D82" s="5">
         <f t="shared" si="16"/>
-        <v>434236</v>
+        <v>478556</v>
       </c>
       <c r="E82" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>51124</v>
       </c>
       <c r="F82" s="13"/>
@@ -4024,15 +4023,15 @@
         <v>0</v>
       </c>
       <c r="K82" s="6">
+        <f t="shared" si="19"/>
+        <v>299.44507017073391</v>
+      </c>
+      <c r="L82" s="7">
         <f t="shared" si="20"/>
-        <v>271.71288102261553</v>
-      </c>
-      <c r="L82" s="7">
-        <f t="shared" si="21"/>
-        <v>44538.712881022613</v>
+        <v>44566.445070170732</v>
       </c>
       <c r="M82" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>483505</v>
       </c>
       <c r="N82" s="5">
@@ -4047,15 +4046,15 @@
         <v>1794</v>
       </c>
       <c r="C83" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>1635.5714285714287</v>
       </c>
       <c r="D83" s="5">
         <f t="shared" si="16"/>
-        <v>432381</v>
+        <v>476762</v>
       </c>
       <c r="E83" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>52918</v>
       </c>
       <c r="F83" s="13"/>
@@ -4068,15 +4067,15 @@
         <v>0</v>
       </c>
       <c r="K83" s="6">
+        <f t="shared" si="19"/>
+        <v>291.49567647829502</v>
+      </c>
+      <c r="L83" s="7">
         <f t="shared" si="20"/>
-        <v>264.36081753864966</v>
-      </c>
-      <c r="L83" s="7">
-        <f t="shared" si="21"/>
-        <v>44532.360817538647</v>
+        <v>44559.495676478298</v>
       </c>
       <c r="M83" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>483505</v>
       </c>
       <c r="N83" s="5">
@@ -4091,15 +4090,15 @@
         <v>1780</v>
       </c>
       <c r="C84" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>1700.8571428571429</v>
       </c>
       <c r="D84" s="5">
         <f t="shared" si="16"/>
-        <v>430587</v>
+        <v>474982</v>
       </c>
       <c r="E84" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>54698</v>
       </c>
       <c r="F84" s="13"/>
@@ -4112,15 +4111,15 @@
         <v>0</v>
       </c>
       <c r="K84" s="6">
+        <f t="shared" si="19"/>
+        <v>279.26037292121617</v>
+      </c>
+      <c r="L84" s="7">
         <f t="shared" si="20"/>
-        <v>253.15882748194187</v>
-      </c>
-      <c r="L84" s="7">
-        <f t="shared" si="21"/>
-        <v>44522.158827481944</v>
+        <v>44548.260372921213</v>
       </c>
       <c r="M84" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>483505</v>
       </c>
       <c r="N84" s="5">
@@ -4135,15 +4134,15 @@
         <v>2156</v>
       </c>
       <c r="C85" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>1792</v>
       </c>
       <c r="D85" s="5">
         <f t="shared" si="16"/>
-        <v>428807</v>
+        <v>472826</v>
       </c>
       <c r="E85" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>56854</v>
       </c>
       <c r="F85" s="13"/>
@@ -4156,15 +4155,15 @@
         <v>0</v>
       </c>
       <c r="K85" s="6">
+        <f t="shared" si="19"/>
+        <v>263.85379464285717</v>
+      </c>
+      <c r="L85" s="7">
         <f t="shared" si="20"/>
-        <v>239.28962053571428</v>
-      </c>
-      <c r="L85" s="7">
-        <f t="shared" si="21"/>
-        <v>44509.289620535717</v>
+        <v>44533.853794642855</v>
       </c>
       <c r="M85" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>483505</v>
       </c>
       <c r="N85" s="5">
@@ -4179,15 +4178,15 @@
         <v>1708</v>
       </c>
       <c r="C86" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>1798.2857142857142</v>
       </c>
       <c r="D86" s="5">
         <f t="shared" si="16"/>
-        <v>426651</v>
+        <v>471118</v>
       </c>
       <c r="E86" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>58562</v>
       </c>
       <c r="F86" s="13"/>
@@ -4200,15 +4199,15 @@
         <v>0</v>
       </c>
       <c r="K86" s="6">
+        <f t="shared" si="19"/>
+        <v>261.98172863044169</v>
+      </c>
+      <c r="L86" s="7">
         <f t="shared" si="20"/>
-        <v>237.25428979980936</v>
-      </c>
-      <c r="L86" s="7">
-        <f t="shared" si="21"/>
-        <v>44508.254289799806</v>
+        <v>44532.981728630439</v>
       </c>
       <c r="M86" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>483505</v>
       </c>
       <c r="N86" s="5">
@@ -4223,15 +4222,15 @@
         <v>1507</v>
       </c>
       <c r="C87" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>1774</v>
       </c>
       <c r="D87" s="5">
         <f t="shared" si="16"/>
-        <v>424943</v>
+        <v>469611</v>
       </c>
       <c r="E87" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>60069</v>
       </c>
       <c r="F87" s="13"/>
@@ -4244,15 +4243,15 @@
         <v>0</v>
       </c>
       <c r="K87" s="6">
+        <f t="shared" si="19"/>
+        <v>264.7187147688839</v>
+      </c>
+      <c r="L87" s="7">
         <f t="shared" si="20"/>
-        <v>239.53945885005638</v>
-      </c>
-      <c r="L87" s="7">
-        <f t="shared" si="21"/>
-        <v>44511.539458850057</v>
+        <v>44536.718714768882</v>
       </c>
       <c r="M87" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>483505</v>
       </c>
       <c r="N87" s="5">
@@ -4267,15 +4266,15 @@
         <v>1529</v>
       </c>
       <c r="C88" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>1761.2857142857142</v>
       </c>
       <c r="D88" s="5">
         <f t="shared" si="16"/>
-        <v>423436</v>
+        <v>468082</v>
       </c>
       <c r="E88" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>61598</v>
       </c>
       <c r="F88" s="13"/>
@@ -4288,15 +4287,15 @@
         <v>0</v>
       </c>
       <c r="K88" s="6">
+        <f t="shared" si="19"/>
+        <v>265.76153783761862</v>
+      </c>
+      <c r="L88" s="7">
         <f t="shared" si="20"/>
-        <v>240.41300997647824</v>
-      </c>
-      <c r="L88" s="7">
-        <f t="shared" si="21"/>
-        <v>44513.413009976481</v>
+        <v>44538.761537837621</v>
       </c>
       <c r="M88" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>483505</v>
       </c>
       <c r="N88" s="5">
@@ -4311,15 +4310,15 @@
         <v>1464</v>
       </c>
       <c r="C89" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>1705.4285714285713</v>
       </c>
       <c r="D89" s="5">
         <f t="shared" si="16"/>
-        <v>421907</v>
+        <v>466618</v>
       </c>
       <c r="E89" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>63062</v>
       </c>
       <c r="F89" s="13"/>
@@ -4332,15 +4331,15 @@
         <v>0</v>
       </c>
       <c r="K89" s="6">
+        <f t="shared" si="19"/>
+        <v>273.60747193834817</v>
+      </c>
+      <c r="L89" s="7">
         <f t="shared" si="20"/>
-        <v>247.39060144077737</v>
-      </c>
-      <c r="L89" s="7">
-        <f t="shared" si="21"/>
-        <v>44521.390601440777</v>
+        <v>44547.607471938347</v>
       </c>
       <c r="M89" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>483505</v>
       </c>
       <c r="N89" s="5">
@@ -4355,15 +4354,15 @@
         <v>1518</v>
       </c>
       <c r="C90" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>1666</v>
       </c>
       <c r="D90" s="5">
         <f t="shared" si="16"/>
-        <v>420443</v>
+        <v>465100</v>
       </c>
       <c r="E90" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>64580</v>
       </c>
       <c r="F90" s="13"/>
@@ -4376,15 +4375,15 @@
         <v>0</v>
       </c>
       <c r="K90" s="6">
+        <f t="shared" si="19"/>
+        <v>279.17166866746697</v>
+      </c>
+      <c r="L90" s="7">
         <f t="shared" si="20"/>
-        <v>252.36674669867946</v>
-      </c>
-      <c r="L90" s="7">
-        <f t="shared" si="21"/>
-        <v>44527.366746698681</v>
+        <v>44554.17166866747</v>
       </c>
       <c r="M90" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>483505</v>
       </c>
       <c r="N90" s="5">
@@ -4399,15 +4398,15 @@
         <v>1398</v>
       </c>
       <c r="C91" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>1611.4285714285713</v>
       </c>
       <c r="D91" s="5">
         <f t="shared" si="16"/>
-        <v>418925</v>
+        <v>463702</v>
       </c>
       <c r="E91" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>65978</v>
       </c>
       <c r="F91" s="13"/>
@@ -4420,15 +4419,15 @@
         <v>0</v>
       </c>
       <c r="K91" s="6">
+        <f t="shared" si="19"/>
+        <v>287.75833333333333</v>
+      </c>
+      <c r="L91" s="7">
         <f t="shared" si="20"/>
-        <v>259.97118794326241</v>
-      </c>
-      <c r="L91" s="7">
-        <f t="shared" si="21"/>
-        <v>44535.971187943265</v>
+        <v>44563.758333333331</v>
       </c>
       <c r="M91" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>483505</v>
       </c>
       <c r="N91" s="5">
@@ -4443,15 +4442,15 @@
         <v>1379</v>
       </c>
       <c r="C92" s="5">
-        <f t="shared" ref="C92:C97" si="24">(AVERAGE(B86:B92))</f>
+        <f t="shared" ref="C92:C97" si="23">(AVERAGE(B86:B92))</f>
         <v>1500.4285714285713</v>
       </c>
       <c r="D92" s="5">
         <f t="shared" si="16"/>
-        <v>417527</v>
+        <v>462323</v>
       </c>
       <c r="E92" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>67357</v>
       </c>
       <c r="F92" s="13"/>
@@ -4464,15 +4463,15 @@
         <v>0</v>
       </c>
       <c r="K92" s="6">
+        <f t="shared" si="19"/>
+        <v>308.12729696277256</v>
+      </c>
+      <c r="L92" s="7">
         <f t="shared" si="20"/>
-        <v>278.27182709701992</v>
-      </c>
-      <c r="L92" s="7">
-        <f t="shared" si="21"/>
-        <v>44555.271827097022</v>
+        <v>44585.127296962775</v>
       </c>
       <c r="M92" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>483505</v>
       </c>
       <c r="N92" s="5">
@@ -4487,15 +4486,15 @@
         <v>1473</v>
       </c>
       <c r="C93" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>1466.8571428571429</v>
       </c>
       <c r="D93" s="5">
         <f t="shared" si="16"/>
-        <v>416148</v>
+        <v>460850</v>
       </c>
       <c r="E93" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>68830</v>
       </c>
       <c r="F93" s="13"/>
@@ -4508,15 +4507,15 @@
         <v>0</v>
       </c>
       <c r="K93" s="6">
+        <f t="shared" si="19"/>
+        <v>314.17510712894426</v>
+      </c>
+      <c r="L93" s="7">
         <f t="shared" si="20"/>
-        <v>283.70042851577716</v>
-      </c>
-      <c r="L93" s="7">
-        <f t="shared" si="21"/>
-        <v>44561.700428515775</v>
+        <v>44592.175107128947</v>
       </c>
       <c r="M93" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>483505</v>
       </c>
       <c r="N93" s="5">
@@ -4531,14 +4530,15 @@
         <v>3206</v>
       </c>
       <c r="C94" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>1709.5714285714287</v>
       </c>
       <c r="D94" s="5">
-        <v>414675</v>
+        <f t="shared" si="16"/>
+        <v>457644</v>
       </c>
       <c r="E94" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>72036</v>
       </c>
       <c r="F94" s="13"/>
@@ -4551,15 +4551,15 @@
         <v>0</v>
       </c>
       <c r="K94" s="6">
+        <f t="shared" si="19"/>
+        <v>267.69516169466033</v>
+      </c>
+      <c r="L94" s="7">
         <f t="shared" si="20"/>
-        <v>242.56079217849083</v>
-      </c>
-      <c r="L94" s="7">
-        <f t="shared" si="21"/>
-        <v>44521.56079217849</v>
+        <v>44546.695161694661</v>
       </c>
       <c r="M94" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>483505</v>
       </c>
       <c r="N94" s="5">
@@ -4574,15 +4574,15 @@
         <v>3206</v>
       </c>
       <c r="C95" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>1949.1428571428571</v>
       </c>
       <c r="D95" s="5">
-        <f t="shared" ref="D95:D100" si="25">(D94-B95)</f>
-        <v>411469</v>
+        <f t="shared" si="16"/>
+        <v>454438</v>
       </c>
       <c r="E95" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>75242</v>
       </c>
       <c r="F95" s="13"/>
@@ -4595,15 +4595,15 @@
         <v>0</v>
       </c>
       <c r="K95" s="6">
+        <f t="shared" si="19"/>
+        <v>233.14761067135737</v>
+      </c>
+      <c r="L95" s="7">
         <f t="shared" si="20"/>
-        <v>211.10253591322194</v>
-      </c>
-      <c r="L95" s="7">
-        <f t="shared" si="21"/>
-        <v>44491.102535913225</v>
+        <v>44513.14761067136</v>
       </c>
       <c r="M95" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>483505</v>
       </c>
       <c r="N95" s="5">
@@ -4618,15 +4618,15 @@
         <v>2987</v>
       </c>
       <c r="C96" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>2166.7142857142858</v>
       </c>
       <c r="D96" s="5">
-        <f t="shared" si="25"/>
-        <v>408482</v>
+        <f t="shared" si="16"/>
+        <v>451451</v>
       </c>
       <c r="E96" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>78229</v>
       </c>
       <c r="F96" s="13"/>
@@ -4639,15 +4639,15 @@
         <v>0</v>
       </c>
       <c r="K96" s="6">
+        <f t="shared" si="19"/>
+        <v>208.3574207160282</v>
+      </c>
+      <c r="L96" s="7">
         <f t="shared" si="20"/>
-        <v>188.52601041735346</v>
-      </c>
-      <c r="L96" s="7">
-        <f t="shared" si="21"/>
-        <v>44469.52601041735</v>
+        <v>44489.357420716027</v>
       </c>
       <c r="M96" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>483505</v>
       </c>
       <c r="N96" s="5">
@@ -4662,15 +4662,15 @@
         <v>2950</v>
       </c>
       <c r="C97" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>2371.2857142857142</v>
       </c>
       <c r="D97" s="5">
-        <f t="shared" si="25"/>
-        <v>405532</v>
+        <f t="shared" si="16"/>
+        <v>448501</v>
       </c>
       <c r="E97" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>81179</v>
       </c>
       <c r="F97" s="13"/>
@@ -4683,15 +4683,15 @@
         <v>0</v>
       </c>
       <c r="K97" s="6">
+        <f t="shared" si="19"/>
+        <v>189.1383215856377</v>
+      </c>
+      <c r="L97" s="7">
         <f t="shared" si="20"/>
-        <v>171.01777215494909</v>
-      </c>
-      <c r="L97" s="7">
-        <f t="shared" si="21"/>
-        <v>44453.017772154948</v>
+        <v>44471.13832158564</v>
       </c>
       <c r="M97" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>483505</v>
       </c>
       <c r="N97" s="5">
@@ -4706,15 +4706,15 @@
         <v>2315</v>
       </c>
       <c r="C98" s="6">
-        <f t="shared" ref="C98:C103" si="26">(AVERAGE(B92:B98))</f>
+        <f t="shared" ref="C98:C103" si="24">(AVERAGE(B92:B98))</f>
         <v>2502.2857142857142</v>
       </c>
       <c r="D98" s="5">
-        <f t="shared" si="25"/>
-        <v>403217</v>
+        <f t="shared" si="16"/>
+        <v>446186</v>
       </c>
       <c r="E98" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>83494</v>
       </c>
       <c r="F98" s="13"/>
@@ -4727,15 +4727,15 @@
         <v>0</v>
       </c>
       <c r="K98" s="6">
+        <f t="shared" si="19"/>
+        <v>178.31137245946564</v>
+      </c>
+      <c r="L98" s="7">
         <f t="shared" si="20"/>
-        <v>161.1394724823019</v>
-      </c>
-      <c r="L98" s="7">
-        <f t="shared" si="21"/>
-        <v>44444.139472482304</v>
+        <v>44461.311372459466</v>
       </c>
       <c r="M98" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>483505</v>
       </c>
       <c r="N98" s="5">
@@ -4750,15 +4750,15 @@
         <v>2600</v>
       </c>
       <c r="C99" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>2676.7142857142858</v>
       </c>
       <c r="D99" s="5">
-        <f t="shared" si="25"/>
-        <v>400617</v>
+        <f t="shared" si="16"/>
+        <v>443586</v>
       </c>
       <c r="E99" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>86094</v>
       </c>
       <c r="F99" s="13"/>
@@ -4771,15 +4771,15 @@
         <v>0</v>
       </c>
       <c r="K99" s="6">
+        <f t="shared" si="19"/>
+        <v>165.72033943534183</v>
+      </c>
+      <c r="L99" s="7">
         <f t="shared" si="20"/>
-        <v>149.66744943160592</v>
-      </c>
-      <c r="L99" s="7">
-        <f t="shared" si="21"/>
-        <v>44433.667449431603</v>
+        <v>44449.720339435342</v>
       </c>
       <c r="M99" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>483505</v>
       </c>
       <c r="N99" s="5">
@@ -4794,15 +4794,15 @@
         <v>3184</v>
       </c>
       <c r="C100" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>2921.1428571428573</v>
       </c>
       <c r="D100" s="5">
-        <f t="shared" si="25"/>
-        <v>397433</v>
+        <f t="shared" si="16"/>
+        <v>440402</v>
       </c>
       <c r="E100" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>89278</v>
       </c>
       <c r="F100" s="13"/>
@@ -4815,15 +4815,15 @@
         <v>0</v>
       </c>
       <c r="K100" s="6">
-        <f t="shared" ref="K100" si="27">D100/C100</f>
-        <v>136.05394170579029</v>
+        <f t="shared" ref="K100" si="25">D100/C100</f>
+        <v>150.76359546165884</v>
       </c>
       <c r="L100" s="7">
-        <f t="shared" ref="L100" si="28">A100+K100</f>
-        <v>44421.053941705788</v>
+        <f t="shared" ref="L100" si="26">A100+K100</f>
+        <v>44435.763595461656</v>
       </c>
       <c r="M100" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>483505</v>
       </c>
       <c r="N100" s="5">
@@ -4838,15 +4838,15 @@
         <v>3774</v>
       </c>
       <c r="C101" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>3002.2857142857142</v>
       </c>
       <c r="D101" s="5">
-        <f t="shared" ref="D101" si="29">(D100-B101)</f>
-        <v>393659</v>
+        <f t="shared" si="16"/>
+        <v>436628</v>
       </c>
       <c r="E101" s="5">
-        <f t="shared" ref="E101" si="30">E100+B101</f>
+        <f t="shared" ref="E101" si="27">E100+B101</f>
         <v>93052</v>
       </c>
       <c r="F101" s="13"/>
@@ -4859,15 +4859,15 @@
         <v>0</v>
       </c>
       <c r="K101" s="6">
-        <f t="shared" ref="K101" si="31">D101/C101</f>
-        <v>131.11976589265322</v>
+        <f t="shared" ref="K101" si="28">D101/C101</f>
+        <v>145.4318614389037</v>
       </c>
       <c r="L101" s="7">
-        <f t="shared" ref="L101" si="32">A101+K101</f>
-        <v>44417.119765892654</v>
+        <f t="shared" ref="L101" si="29">A101+K101</f>
+        <v>44431.431861438905</v>
       </c>
       <c r="M101" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>483505</v>
       </c>
       <c r="N101" s="5">
@@ -4882,15 +4882,15 @@
         <v>3673</v>
       </c>
       <c r="C102" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>3069</v>
       </c>
       <c r="D102" s="5">
-        <f t="shared" ref="D102" si="33">(D101-B102)</f>
-        <v>389986</v>
+        <f t="shared" si="16"/>
+        <v>432955</v>
       </c>
       <c r="E102" s="5">
-        <f t="shared" ref="E102" si="34">E101+B102</f>
+        <f t="shared" ref="E102" si="30">E101+B102</f>
         <v>96725</v>
       </c>
       <c r="F102" s="13"/>
@@ -4903,15 +4903,15 @@
         <v>0</v>
       </c>
       <c r="K102" s="6">
-        <f t="shared" ref="K102" si="35">D102/C102</f>
-        <v>127.07266210492017</v>
+        <f t="shared" ref="K102" si="31">D102/C102</f>
+        <v>141.07363962202672</v>
       </c>
       <c r="L102" s="7">
-        <f t="shared" ref="L102" si="36">A102+K102</f>
-        <v>44414.072662104918</v>
+        <f t="shared" ref="L102" si="32">A102+K102</f>
+        <v>44428.073639622024</v>
       </c>
       <c r="M102" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>483505</v>
       </c>
       <c r="N102" s="5">
@@ -4926,15 +4926,15 @@
         <v>3387</v>
       </c>
       <c r="C103" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>3126.1428571428573</v>
       </c>
       <c r="D103" s="5">
-        <f t="shared" ref="D103" si="37">(D102-B103)</f>
-        <v>386599</v>
+        <f t="shared" si="16"/>
+        <v>429568</v>
       </c>
       <c r="E103" s="5">
-        <f t="shared" ref="E103" si="38">E102+B103</f>
+        <f t="shared" ref="E103" si="33">E102+B103</f>
         <v>100112</v>
       </c>
       <c r="F103" s="13"/>
@@ -4947,15 +4947,15 @@
         <v>0</v>
       </c>
       <c r="K103" s="6">
-        <f t="shared" ref="K103" si="39">D103/C103</f>
-        <v>123.66645341132386</v>
+        <f t="shared" ref="K103" si="34">D103/C103</f>
+        <v>137.41150664899692</v>
       </c>
       <c r="L103" s="7">
-        <f t="shared" ref="L103" si="40">A103+K103</f>
-        <v>44411.666453411322</v>
+        <f t="shared" ref="L103" si="35">A103+K103</f>
+        <v>44425.411506648998</v>
       </c>
       <c r="M103" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>483505</v>
       </c>
       <c r="N103" s="5">
@@ -4970,15 +4970,15 @@
         <v>3560</v>
       </c>
       <c r="C104" s="6">
-        <f t="shared" ref="C104:C110" si="41">(AVERAGE(B98:B104))</f>
+        <f t="shared" ref="C104:C110" si="36">(AVERAGE(B98:B104))</f>
         <v>3213.2857142857142</v>
       </c>
       <c r="D104" s="5">
-        <f t="shared" ref="D104" si="42">(D103-B104)</f>
-        <v>383039</v>
+        <f t="shared" si="16"/>
+        <v>426008</v>
       </c>
       <c r="E104" s="5">
-        <f t="shared" ref="E104" si="43">E103+B104</f>
+        <f t="shared" ref="E104" si="37">E103+B104</f>
         <v>103672</v>
       </c>
       <c r="F104" s="13"/>
@@ -4991,15 +4991,15 @@
         <v>0</v>
       </c>
       <c r="K104" s="6">
-        <f t="shared" ref="K104" si="44">D104/C104</f>
-        <v>119.20477481883253</v>
+        <f t="shared" ref="K104" si="38">D104/C104</f>
+        <v>132.57706842128661</v>
       </c>
       <c r="L104" s="7">
-        <f t="shared" ref="L104" si="45">A104+K104</f>
-        <v>44408.204774818834</v>
+        <f t="shared" ref="L104" si="39">A104+K104</f>
+        <v>44421.577068421284</v>
       </c>
       <c r="M104" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>483505</v>
       </c>
       <c r="N104" s="5">
@@ -5014,15 +5014,15 @@
         <v>3752</v>
       </c>
       <c r="C105" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>3418.5714285714284</v>
       </c>
       <c r="D105" s="5">
-        <f t="shared" ref="D105" si="46">(D104-B105)</f>
-        <v>379287</v>
+        <f t="shared" si="16"/>
+        <v>422256</v>
       </c>
       <c r="E105" s="5">
-        <f t="shared" ref="E105" si="47">E104+B105</f>
+        <f t="shared" ref="E105" si="40">E104+B105</f>
         <v>107424</v>
       </c>
       <c r="F105" s="13"/>
@@ -5035,15 +5035,15 @@
         <v>0</v>
       </c>
       <c r="K105" s="6">
-        <f t="shared" ref="K105" si="48">D105/C105</f>
-        <v>110.94897618052654</v>
+        <f t="shared" ref="K105" si="41">D105/C105</f>
+        <v>123.51826159632262</v>
       </c>
       <c r="L105" s="7">
-        <f t="shared" ref="L105" si="49">A105+K105</f>
-        <v>44400.948976180523</v>
+        <f t="shared" ref="L105" si="42">A105+K105</f>
+        <v>44413.51826159632</v>
       </c>
       <c r="M105" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>483505</v>
       </c>
       <c r="N105" s="5">
@@ -5058,15 +5058,15 @@
         <v>3759</v>
       </c>
       <c r="C106" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>3584.1428571428573</v>
       </c>
       <c r="D106" s="5">
-        <f t="shared" ref="D106" si="50">(D105-B106)</f>
-        <v>375528</v>
+        <f t="shared" si="16"/>
+        <v>418497</v>
       </c>
       <c r="E106" s="5">
-        <f t="shared" ref="E106" si="51">E105+B106</f>
+        <f t="shared" ref="E106" si="43">E105+B106</f>
         <v>111183</v>
       </c>
       <c r="F106" s="13"/>
@@ -5079,15 +5079,15 @@
         <v>0</v>
       </c>
       <c r="K106" s="6">
-        <f t="shared" ref="K106" si="52">D106/C106</f>
-        <v>104.77484156403204</v>
+        <f t="shared" ref="K106" si="44">D106/C106</f>
+        <v>116.76348200406552</v>
       </c>
       <c r="L106" s="7">
-        <f t="shared" ref="L106" si="53">A106+K106</f>
-        <v>44395.774841564031</v>
+        <f t="shared" ref="L106" si="45">A106+K106</f>
+        <v>44407.763482004062</v>
       </c>
       <c r="M106" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>483505</v>
       </c>
       <c r="N106" s="5">
@@ -5102,15 +5102,15 @@
         <v>3303</v>
       </c>
       <c r="C107" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>3601.1428571428573</v>
       </c>
       <c r="D107" s="5">
-        <f t="shared" ref="D107" si="54">(D106-B107)</f>
-        <v>372225</v>
+        <f t="shared" si="16"/>
+        <v>415194</v>
       </c>
       <c r="E107" s="5">
-        <f t="shared" ref="E107" si="55">E106+B107</f>
+        <f t="shared" ref="E107" si="46">E106+B107</f>
         <v>114486</v>
       </c>
       <c r="F107" s="13"/>
@@ -5123,15 +5123,15 @@
         <v>0</v>
       </c>
       <c r="K107" s="6">
-        <f t="shared" ref="K107" si="56">D107/C107</f>
-        <v>103.36301967629323</v>
+        <f t="shared" ref="K107" si="47">D107/C107</f>
+        <v>115.29506505871151</v>
       </c>
       <c r="L107" s="7">
-        <f t="shared" ref="L107" si="57">A107+K107</f>
-        <v>44395.36301967629</v>
+        <f t="shared" ref="L107" si="48">A107+K107</f>
+        <v>44407.295065058708</v>
       </c>
       <c r="M107" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>483505</v>
       </c>
       <c r="N107" s="5">
@@ -5146,15 +5146,15 @@
         <v>3096</v>
       </c>
       <c r="C108" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>3504.2857142857142</v>
       </c>
       <c r="D108" s="5">
-        <f t="shared" ref="D108" si="58">(D107-B108)</f>
-        <v>369129</v>
+        <f t="shared" si="16"/>
+        <v>412098</v>
       </c>
       <c r="E108" s="5">
-        <f t="shared" ref="E108" si="59">E107+B108</f>
+        <f t="shared" ref="E108" si="49">E107+B108</f>
         <v>117582</v>
       </c>
       <c r="F108" s="13"/>
@@ -5167,15 +5167,15 @@
         <v>0</v>
       </c>
       <c r="K108" s="6">
-        <f t="shared" ref="K108" si="60">D108/C108</f>
-        <v>105.33644516918059</v>
+        <f t="shared" ref="K108" si="50">D108/C108</f>
+        <v>117.59828781084387</v>
       </c>
       <c r="L108" s="7">
-        <f t="shared" ref="L108" si="61">A108+K108</f>
-        <v>44398.336445169181</v>
+        <f t="shared" ref="L108" si="51">A108+K108</f>
+        <v>44410.598287810841</v>
       </c>
       <c r="M108" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>483505</v>
       </c>
       <c r="N108" s="5">
@@ -5190,15 +5190,15 @@
         <v>2523</v>
       </c>
       <c r="C109" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>3340</v>
       </c>
       <c r="D109" s="5">
-        <f t="shared" ref="D109" si="62">(D108-B109)</f>
-        <v>366606</v>
+        <f t="shared" si="16"/>
+        <v>409575</v>
       </c>
       <c r="E109" s="5">
-        <f t="shared" ref="E109" si="63">E108+B109</f>
+        <f t="shared" ref="E109" si="52">E108+B109</f>
         <v>120105</v>
       </c>
       <c r="F109" s="13"/>
@@ -5211,15 +5211,15 @@
         <v>0</v>
       </c>
       <c r="K109" s="6">
-        <f t="shared" ref="K109" si="64">D109/C109</f>
-        <v>109.76227544910179</v>
+        <f t="shared" ref="K109" si="53">D109/C109</f>
+        <v>122.62724550898204</v>
       </c>
       <c r="L109" s="7">
-        <f t="shared" ref="L109" si="65">A109+K109</f>
-        <v>44403.762275449102</v>
+        <f t="shared" ref="L109" si="54">A109+K109</f>
+        <v>44416.627245508986</v>
       </c>
       <c r="M109" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>483505</v>
       </c>
       <c r="N109" s="5">
@@ -5234,15 +5234,15 @@
         <v>3979</v>
       </c>
       <c r="C110" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="36"/>
         <v>3424.5714285714284</v>
       </c>
       <c r="D110" s="5">
-        <f t="shared" ref="D110" si="66">(D109-B110)</f>
-        <v>362627</v>
+        <f t="shared" si="16"/>
+        <v>405596</v>
       </c>
       <c r="E110" s="5">
-        <f t="shared" ref="E110" si="67">E109+B110</f>
+        <f t="shared" ref="E110" si="55">E109+B110</f>
         <v>124084</v>
       </c>
       <c r="F110" s="13"/>
@@ -5255,15 +5255,15 @@
         <v>0</v>
       </c>
       <c r="K110" s="6">
-        <f t="shared" ref="K110" si="68">D110/C110</f>
-        <v>105.88974637076589</v>
+        <f t="shared" ref="K110" si="56">D110/C110</f>
+        <v>118.43700984481896</v>
       </c>
       <c r="L110" s="7">
-        <f t="shared" ref="L110" si="69">A110+K110</f>
-        <v>44400.889746370769</v>
+        <f t="shared" ref="L110" si="57">A110+K110</f>
+        <v>44413.43700984482</v>
       </c>
       <c r="M110" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>483505</v>
       </c>
       <c r="N110" s="5">
@@ -5278,15 +5278,15 @@
         <v>3984</v>
       </c>
       <c r="C111" s="6">
-        <f t="shared" ref="C111" si="70">(AVERAGE(B105:B111))</f>
+        <f t="shared" ref="C111" si="58">(AVERAGE(B105:B111))</f>
         <v>3485.1428571428573</v>
       </c>
       <c r="D111" s="5">
-        <f t="shared" ref="D111" si="71">(D110-B111)</f>
-        <v>358643</v>
+        <f t="shared" si="16"/>
+        <v>401612</v>
       </c>
       <c r="E111" s="5">
-        <f t="shared" ref="E111" si="72">E110+B111</f>
+        <f t="shared" ref="E111" si="59">E110+B111</f>
         <v>128068</v>
       </c>
       <c r="F111" s="13"/>
@@ -5299,15 +5299,15 @@
         <v>0</v>
       </c>
       <c r="K111" s="6">
-        <f t="shared" ref="K111" si="73">D111/C111</f>
-        <v>102.90625512379079</v>
+        <f t="shared" ref="K111" si="60">D111/C111</f>
+        <v>115.23544843416953</v>
       </c>
       <c r="L111" s="7">
-        <f t="shared" ref="L111" si="74">A111+K111</f>
-        <v>44398.906255123788</v>
+        <f t="shared" ref="L111" si="61">A111+K111</f>
+        <v>44411.23544843417</v>
       </c>
       <c r="M111" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>483505</v>
       </c>
       <c r="N111" s="5">
@@ -5322,15 +5322,15 @@
         <v>3935</v>
       </c>
       <c r="C112" s="6">
-        <f t="shared" ref="C112" si="75">(AVERAGE(B106:B112))</f>
+        <f t="shared" ref="C112" si="62">(AVERAGE(B106:B112))</f>
         <v>3511.2857142857142</v>
       </c>
       <c r="D112" s="5">
-        <f t="shared" ref="D112" si="76">(D111-B112)</f>
-        <v>354708</v>
+        <f t="shared" si="16"/>
+        <v>397677</v>
       </c>
       <c r="E112" s="5">
-        <f t="shared" ref="E112" si="77">E111+B112</f>
+        <f t="shared" ref="E112" si="63">E111+B112</f>
         <v>132003</v>
       </c>
       <c r="F112" s="13"/>
@@ -5343,15 +5343,15 @@
         <v>0</v>
       </c>
       <c r="K112" s="6">
-        <f t="shared" ref="K112" si="78">D112/C112</f>
-        <v>101.01940681069206</v>
+        <f t="shared" ref="K112" si="64">D112/C112</f>
+        <v>113.25680458928353</v>
       </c>
       <c r="L112" s="7">
-        <f t="shared" ref="L112" si="79">A112+K112</f>
-        <v>44398.019406810694</v>
+        <f t="shared" ref="L112" si="65">A112+K112</f>
+        <v>44410.256804589284</v>
       </c>
       <c r="M112" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>483505</v>
       </c>
       <c r="N112" s="5">
@@ -5366,15 +5366,15 @@
         <v>3709</v>
       </c>
       <c r="C113" s="6">
-        <f t="shared" ref="C113" si="80">(AVERAGE(B107:B113))</f>
+        <f t="shared" ref="C113" si="66">(AVERAGE(B107:B113))</f>
         <v>3504.1428571428573</v>
       </c>
       <c r="D113" s="5">
-        <f t="shared" ref="D113:D115" si="81">(D112-B113)</f>
-        <v>350999</v>
+        <f t="shared" si="16"/>
+        <v>393968</v>
       </c>
       <c r="E113" s="5">
-        <f t="shared" ref="E113" si="82">E112+B113</f>
+        <f t="shared" ref="E113" si="67">E112+B113</f>
         <v>135712</v>
       </c>
       <c r="F113" s="13"/>
@@ -5387,15 +5387,15 @@
         <v>0</v>
       </c>
       <c r="K113" s="6">
-        <f t="shared" ref="K113" si="83">D113/C113</f>
-        <v>100.16686371234049</v>
+        <f t="shared" ref="K113" si="68">D113/C113</f>
+        <v>112.42920624566838</v>
       </c>
       <c r="L113" s="7">
-        <f t="shared" ref="L113" si="84">A113+K113</f>
-        <v>44398.166863712344</v>
+        <f t="shared" ref="L113" si="69">A113+K113</f>
+        <v>44410.429206245666</v>
       </c>
       <c r="M113" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>483505</v>
       </c>
       <c r="N113" s="5">
@@ -5410,15 +5410,15 @@
         <v>4332</v>
       </c>
       <c r="C114" s="6">
-        <f t="shared" ref="C114" si="85">(AVERAGE(B108:B114))</f>
+        <f t="shared" ref="C114" si="70">(AVERAGE(B108:B114))</f>
         <v>3651.1428571428573</v>
       </c>
       <c r="D114" s="5">
-        <f t="shared" si="81"/>
-        <v>346667</v>
+        <f t="shared" si="16"/>
+        <v>389636</v>
       </c>
       <c r="E114" s="5">
-        <f t="shared" ref="E114" si="86">E113+B114</f>
+        <f t="shared" ref="E114" si="71">E113+B114</f>
         <v>140044</v>
       </c>
       <c r="F114" s="13"/>
@@ -5431,15 +5431,15 @@
         <v>0</v>
       </c>
       <c r="K114" s="6">
-        <f t="shared" ref="K114" si="87">D114/C114</f>
-        <v>94.947531105720316</v>
+        <f t="shared" ref="K114" si="72">D114/C114</f>
+        <v>106.71617497456765</v>
       </c>
       <c r="L114" s="7">
-        <f t="shared" ref="L114" si="88">A114+K114</f>
-        <v>44393.947531105718</v>
+        <f t="shared" ref="L114" si="73">A114+K114</f>
+        <v>44405.716174974565</v>
       </c>
       <c r="M114" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>483505</v>
       </c>
       <c r="N114" s="5">
@@ -5454,15 +5454,15 @@
         <v>4112</v>
       </c>
       <c r="C115" s="6">
-        <f t="shared" ref="C115" si="89">(AVERAGE(B109:B115))</f>
+        <f t="shared" ref="C115" si="74">(AVERAGE(B109:B115))</f>
         <v>3796.2857142857142</v>
       </c>
       <c r="D115" s="5">
-        <f t="shared" si="81"/>
-        <v>342555</v>
+        <f t="shared" si="16"/>
+        <v>385524</v>
       </c>
       <c r="E115" s="5">
-        <f t="shared" ref="E115" si="90">E114+B115</f>
+        <f t="shared" ref="E115" si="75">E114+B115</f>
         <v>144156</v>
       </c>
       <c r="F115" s="13"/>
@@ -5475,15 +5475,15 @@
         <v>0</v>
       </c>
       <c r="K115" s="6">
-        <f t="shared" ref="K115" si="91">D115/C115</f>
-        <v>90.234251524046059</v>
+        <f t="shared" ref="K115" si="76">D115/C115</f>
+        <v>101.55294648904945</v>
       </c>
       <c r="L115" s="7">
-        <f t="shared" ref="L115" si="92">A115+K115</f>
-        <v>44390.234251524045</v>
+        <f t="shared" ref="L115" si="77">A115+K115</f>
+        <v>44401.55294648905</v>
       </c>
       <c r="M115" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>483505</v>
       </c>
       <c r="N115" s="5">
@@ -5498,19 +5498,19 @@
         <v>3377</v>
       </c>
       <c r="C116" s="6">
-        <f t="shared" ref="C116" si="93">(AVERAGE(B110:B116))</f>
+        <f t="shared" ref="C116" si="78">(AVERAGE(B110:B116))</f>
         <v>3918.2857142857142</v>
       </c>
       <c r="D116" s="5">
-        <f>(D115-B116)-I116</f>
-        <v>332025</v>
+        <f t="shared" si="16"/>
+        <v>382147</v>
       </c>
       <c r="E116" s="5">
-        <f t="shared" ref="E116" si="94">E115+B116</f>
+        <f t="shared" ref="E116" si="79">E115+B116</f>
         <v>147533</v>
       </c>
       <c r="F116" s="13">
-        <f t="shared" ref="F116:F122" si="95">(E116-G116)</f>
+        <f t="shared" ref="F116:F122" si="80">(E116-G116)</f>
         <v>133227</v>
       </c>
       <c r="G116" s="13">
@@ -5528,15 +5528,15 @@
         <v>7153</v>
       </c>
       <c r="K116" s="6">
-        <f t="shared" ref="K116:K121" si="96">D116/C116</f>
-        <v>84.737312235671581</v>
+        <f t="shared" ref="K116:K121" si="81">D116/C116</f>
+        <v>97.529130815225315</v>
       </c>
       <c r="L116" s="7">
-        <f t="shared" ref="L116:L121" si="97">A116+K116</f>
-        <v>44385.737312235673</v>
+        <f t="shared" ref="L116:L121" si="82">A116+K116</f>
+        <v>44398.529130815223</v>
       </c>
       <c r="M116" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>476352</v>
       </c>
       <c r="N116" s="5">
@@ -5551,19 +5551,19 @@
         <v>3918</v>
       </c>
       <c r="C117" s="6">
-        <f t="shared" ref="C117" si="98">(AVERAGE(B111:B117))</f>
+        <f t="shared" ref="C117" si="83">(AVERAGE(B111:B117))</f>
         <v>3909.5714285714284</v>
       </c>
       <c r="D117" s="5">
-        <f t="shared" ref="D117:D122" si="99">(D116-B117)</f>
-        <v>328107</v>
+        <f t="shared" si="16"/>
+        <v>378229</v>
       </c>
       <c r="E117" s="5">
-        <f t="shared" ref="E117" si="100">E116+B117</f>
+        <f t="shared" ref="E117" si="84">E116+B117</f>
         <v>151451</v>
       </c>
       <c r="F117" s="13">
-        <f t="shared" si="95"/>
+        <f t="shared" si="80"/>
         <v>137145</v>
       </c>
       <c r="G117" s="13">
@@ -5574,19 +5574,19 @@
         <v>28612</v>
       </c>
       <c r="I117" s="13">
-        <f t="shared" ref="I117:I118" si="101">G117/2</f>
+        <f t="shared" ref="I117:I118" si="85">G117/2</f>
         <v>7153</v>
       </c>
       <c r="J117" s="13">
         <v>7153</v>
       </c>
       <c r="K117" s="6">
-        <f t="shared" si="96"/>
-        <v>83.924032594000082</v>
+        <f t="shared" si="81"/>
+        <v>96.744363649651049</v>
       </c>
       <c r="L117" s="7">
-        <f t="shared" si="97"/>
-        <v>44385.924032593997</v>
+        <f t="shared" si="82"/>
+        <v>44398.744363649654</v>
       </c>
       <c r="M117" s="5">
         <v>476352</v>
@@ -5603,19 +5603,19 @@
         <v>3956</v>
       </c>
       <c r="C118" s="6">
-        <f t="shared" ref="C118" si="102">(AVERAGE(B112:B118))</f>
+        <f t="shared" ref="C118" si="86">(AVERAGE(B112:B118))</f>
         <v>3905.5714285714284</v>
       </c>
       <c r="D118" s="5">
-        <f t="shared" si="99"/>
-        <v>324151</v>
+        <f t="shared" si="16"/>
+        <v>374273</v>
       </c>
       <c r="E118" s="5">
-        <f t="shared" ref="E118" si="103">E117+B118</f>
+        <f t="shared" ref="E118" si="87">E117+B118</f>
         <v>155407</v>
       </c>
       <c r="F118" s="13">
-        <f t="shared" si="95"/>
+        <f t="shared" si="80"/>
         <v>141101</v>
       </c>
       <c r="G118" s="13">
@@ -5626,19 +5626,19 @@
         <v>28612</v>
       </c>
       <c r="I118" s="13">
-        <f t="shared" si="101"/>
+        <f t="shared" si="85"/>
         <v>7153</v>
       </c>
       <c r="J118" s="13">
         <v>7153</v>
       </c>
       <c r="K118" s="6">
-        <f t="shared" si="96"/>
-        <v>82.997073777387612</v>
+        <f t="shared" si="81"/>
+        <v>95.83053513296025</v>
       </c>
       <c r="L118" s="7">
-        <f t="shared" si="97"/>
-        <v>44385.997073777391</v>
+        <f t="shared" si="82"/>
+        <v>44398.830535132962</v>
       </c>
       <c r="M118" s="5">
         <v>476352</v>
@@ -5652,23 +5652,23 @@
         <v>44304</v>
       </c>
       <c r="B119" s="5">
-        <v>3541</v>
+        <v>3540</v>
       </c>
       <c r="C119" s="6">
-        <f t="shared" ref="C119" si="104">(AVERAGE(B113:B119))</f>
-        <v>3849.2857142857142</v>
+        <f t="shared" ref="C119" si="88">(AVERAGE(B113:B119))</f>
+        <v>3849.1428571428573</v>
       </c>
       <c r="D119" s="5">
-        <f t="shared" si="99"/>
-        <v>320610</v>
+        <f t="shared" si="16"/>
+        <v>370733</v>
       </c>
       <c r="E119" s="5">
-        <f t="shared" ref="E119" si="105">E118+B119</f>
-        <v>158948</v>
+        <f t="shared" ref="E119" si="89">E118+B119</f>
+        <v>158947</v>
       </c>
       <c r="F119" s="13">
-        <f t="shared" si="95"/>
-        <v>144642</v>
+        <f t="shared" si="80"/>
+        <v>144641</v>
       </c>
       <c r="G119" s="13">
         <v>14306</v>
@@ -5678,19 +5678,19 @@
         <v>28612</v>
       </c>
       <c r="I119" s="13">
-        <f t="shared" ref="I119" si="106">G119/2</f>
+        <f t="shared" ref="I119" si="90">G119/2</f>
         <v>7153</v>
       </c>
       <c r="J119" s="13">
         <v>7153</v>
       </c>
       <c r="K119" s="6">
-        <f t="shared" si="96"/>
-        <v>83.290777509742071</v>
+        <f t="shared" si="81"/>
+        <v>96.315728919239902</v>
       </c>
       <c r="L119" s="7">
-        <f t="shared" si="97"/>
-        <v>44387.290777509741</v>
+        <f t="shared" si="82"/>
+        <v>44400.315728919239</v>
       </c>
       <c r="M119" s="5">
         <v>476352</v>
@@ -5707,20 +5707,20 @@
         <v>3831</v>
       </c>
       <c r="C120" s="6">
-        <f t="shared" ref="C120" si="107">(AVERAGE(B114:B120))</f>
-        <v>3866.7142857142858</v>
+        <f t="shared" ref="C120" si="91">(AVERAGE(B114:B120))</f>
+        <v>3866.5714285714284</v>
       </c>
       <c r="D120" s="5">
-        <f t="shared" si="99"/>
-        <v>316779</v>
+        <f t="shared" si="16"/>
+        <v>366902</v>
       </c>
       <c r="E120" s="5">
-        <f t="shared" ref="E120" si="108">E119+B120</f>
-        <v>162779</v>
+        <f t="shared" ref="E120" si="92">E119+B120</f>
+        <v>162778</v>
       </c>
       <c r="F120" s="13">
-        <f t="shared" si="95"/>
-        <v>148473</v>
+        <f t="shared" si="80"/>
+        <v>148472</v>
       </c>
       <c r="G120" s="13">
         <v>14306</v>
@@ -5730,19 +5730,19 @@
         <v>28612</v>
       </c>
       <c r="I120" s="13">
-        <f t="shared" ref="I120" si="109">G120/2</f>
+        <f t="shared" ref="I120" si="93">G120/2</f>
         <v>7153</v>
       </c>
       <c r="J120" s="13">
         <v>7153</v>
       </c>
       <c r="K120" s="6">
-        <f t="shared" si="96"/>
-        <v>81.924594524697966</v>
+        <f t="shared" si="81"/>
+        <v>94.890785487327278</v>
       </c>
       <c r="L120" s="7">
-        <f t="shared" si="97"/>
-        <v>44386.924594524695</v>
+        <f t="shared" si="82"/>
+        <v>44399.890785487325</v>
       </c>
       <c r="M120" s="5">
         <v>476352</v>
@@ -5759,20 +5759,20 @@
         <v>3058</v>
       </c>
       <c r="C121" s="6">
-        <f t="shared" ref="C121" si="110">(AVERAGE(B115:B121))</f>
-        <v>3684.7142857142858</v>
+        <f t="shared" ref="C121" si="94">(AVERAGE(B115:B121))</f>
+        <v>3684.5714285714284</v>
       </c>
       <c r="D121" s="5">
-        <f t="shared" si="99"/>
-        <v>313721</v>
+        <f t="shared" si="16"/>
+        <v>363844</v>
       </c>
       <c r="E121" s="5">
-        <f t="shared" ref="E121" si="111">E120+B121</f>
-        <v>165837</v>
+        <f t="shared" ref="E121" si="95">E120+B121</f>
+        <v>165836</v>
       </c>
       <c r="F121" s="13">
-        <f t="shared" si="95"/>
-        <v>151531</v>
+        <f t="shared" si="80"/>
+        <v>151530</v>
       </c>
       <c r="G121" s="13">
         <v>14306</v>
@@ -5781,19 +5781,19 @@
         <v>28612</v>
       </c>
       <c r="I121" s="13">
-        <f t="shared" ref="I121" si="112">G121/2</f>
+        <f t="shared" ref="I121" si="96">G121/2</f>
         <v>7153</v>
       </c>
       <c r="J121" s="13">
         <v>7153</v>
       </c>
       <c r="K121" s="6">
-        <f t="shared" si="96"/>
-        <v>85.141201101073932</v>
+        <f t="shared" si="81"/>
+        <v>98.747983870967744</v>
       </c>
       <c r="L121" s="7">
-        <f t="shared" si="97"/>
-        <v>44391.141201101076</v>
+        <f t="shared" si="82"/>
+        <v>44404.74798387097</v>
       </c>
       <c r="M121" s="5">
         <v>476352</v>
@@ -5810,20 +5810,20 @@
         <v>3700</v>
       </c>
       <c r="C122" s="6">
-        <f t="shared" ref="C122" si="113">(AVERAGE(B116:B122))</f>
-        <v>3625.8571428571427</v>
+        <f t="shared" ref="C122" si="97">(AVERAGE(B116:B122))</f>
+        <v>3625.7142857142858</v>
       </c>
       <c r="D122" s="5">
-        <f t="shared" si="99"/>
-        <v>310021</v>
+        <f t="shared" si="16"/>
+        <v>360144</v>
       </c>
       <c r="E122" s="5">
-        <f t="shared" ref="E122" si="114">E121+B122</f>
-        <v>169537</v>
+        <f t="shared" ref="E122" si="98">E121+B122</f>
+        <v>169536</v>
       </c>
       <c r="F122" s="13">
-        <f t="shared" si="95"/>
-        <v>155231</v>
+        <f t="shared" si="80"/>
+        <v>155230</v>
       </c>
       <c r="G122" s="13">
         <v>14306</v>
@@ -5832,19 +5832,19 @@
         <v>28612</v>
       </c>
       <c r="I122" s="13">
-        <f t="shared" ref="I122" si="115">G122/2</f>
+        <f t="shared" ref="I122" si="99">G122/2</f>
         <v>7153</v>
       </c>
       <c r="J122" s="13">
         <v>7153</v>
       </c>
       <c r="K122" s="6">
-        <f t="shared" ref="K122" si="116">D122/C122</f>
-        <v>85.502817067885431</v>
+        <f t="shared" ref="K122" si="100">D122/C122</f>
+        <v>99.330496453900707</v>
       </c>
       <c r="L122" s="7">
-        <f t="shared" ref="L122" si="117">A122+K122</f>
-        <v>44392.502817067885</v>
+        <f t="shared" ref="L122" si="101">A122+K122</f>
+        <v>44406.330496453898</v>
       </c>
       <c r="M122" s="5">
         <v>476352</v>
@@ -5858,23 +5858,23 @@
         <v>44308</v>
       </c>
       <c r="B123" s="5">
-        <v>3874</v>
+        <v>3877</v>
       </c>
       <c r="C123" s="6">
-        <f t="shared" ref="C123" si="118">(AVERAGE(B117:B123))</f>
-        <v>3696.8571428571427</v>
+        <f t="shared" ref="C123" si="102">(AVERAGE(B117:B123))</f>
+        <v>3697.1428571428573</v>
       </c>
       <c r="D123" s="5">
-        <f t="shared" ref="D123" si="119">(D122-B123)</f>
-        <v>306147</v>
+        <f t="shared" si="16"/>
+        <v>356267</v>
       </c>
       <c r="E123" s="5">
-        <f t="shared" ref="E123" si="120">E122+B123</f>
-        <v>173411</v>
+        <f t="shared" ref="E123" si="103">E122+B123</f>
+        <v>173413</v>
       </c>
       <c r="F123" s="13">
-        <f t="shared" ref="F123" si="121">(E123-G123)</f>
-        <v>159105</v>
+        <f t="shared" ref="F123" si="104">(E123-G123)</f>
+        <v>159107</v>
       </c>
       <c r="G123" s="13">
         <v>14306</v>
@@ -5883,19 +5883,19 @@
         <v>28612</v>
       </c>
       <c r="I123" s="13">
-        <f t="shared" ref="I123" si="122">G123/2</f>
+        <f t="shared" ref="I123" si="105">G123/2</f>
         <v>7153</v>
       </c>
       <c r="J123" s="13">
         <v>7153</v>
       </c>
       <c r="K123" s="6">
-        <f t="shared" ref="K123" si="123">D123/C123</f>
-        <v>82.812775330396477</v>
+        <f t="shared" ref="K123" si="106">D123/C123</f>
+        <v>96.362789799072644</v>
       </c>
       <c r="L123" s="7">
-        <f t="shared" ref="L123" si="124">A123+K123</f>
-        <v>44390.8127753304</v>
+        <f t="shared" ref="L123" si="107">A123+K123</f>
+        <v>44404.362789799074</v>
       </c>
       <c r="M123" s="5">
         <v>476352</v>
@@ -5909,23 +5909,23 @@
         <v>44309</v>
       </c>
       <c r="B124" s="5">
-        <v>3214</v>
+        <v>3213</v>
       </c>
       <c r="C124" s="6">
-        <f t="shared" ref="C124" si="125">(AVERAGE(B118:B124))</f>
-        <v>3596.2857142857142</v>
+        <f t="shared" ref="C124" si="108">(AVERAGE(B118:B124))</f>
+        <v>3596.4285714285716</v>
       </c>
       <c r="D124" s="5">
-        <f t="shared" ref="D124" si="126">(D123-B124)</f>
-        <v>302933</v>
+        <f t="shared" si="16"/>
+        <v>353054</v>
       </c>
       <c r="E124" s="5">
-        <f t="shared" ref="E124" si="127">E123+B124</f>
-        <v>176625</v>
+        <f t="shared" ref="E124" si="109">E123+B124</f>
+        <v>176626</v>
       </c>
       <c r="F124" s="13">
-        <f t="shared" ref="F124" si="128">(E124-G124)</f>
-        <v>162319</v>
+        <f t="shared" ref="F124" si="110">(E124-G124)</f>
+        <v>162320</v>
       </c>
       <c r="G124" s="13">
         <v>14306</v>
@@ -5934,19 +5934,19 @@
         <v>28612</v>
       </c>
       <c r="I124" s="13">
-        <f t="shared" ref="I124" si="129">G124/2</f>
+        <f t="shared" ref="I124" si="111">G124/2</f>
         <v>7153</v>
       </c>
       <c r="J124" s="13">
         <v>7153</v>
       </c>
       <c r="K124" s="6">
-        <f t="shared" ref="K124" si="130">D124/C124</f>
-        <v>84.234964646063403</v>
+        <f t="shared" ref="K124" si="112">D124/C124</f>
+        <v>98.167944389275064</v>
       </c>
       <c r="L124" s="7">
-        <f t="shared" ref="L124" si="131">A124+K124</f>
-        <v>44393.234964646064</v>
+        <f t="shared" ref="L124" si="113">A124+K124</f>
+        <v>44407.167944389272</v>
       </c>
       <c r="M124" s="5">
         <v>476352</v>
@@ -5955,54 +5955,156 @@
         <v>476352</v>
       </c>
     </row>
-    <row r="125" spans="1:14" s="9" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="8">
+    <row r="125" spans="1:14" s="5" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="4">
         <v>44310</v>
       </c>
-      <c r="B125" s="9">
+      <c r="B125" s="5">
         <v>3579</v>
       </c>
-      <c r="C125" s="10">
-        <f t="shared" ref="C125" si="132">(AVERAGE(B119:B125))</f>
-        <v>3542.4285714285716</v>
-      </c>
-      <c r="D125" s="9">
-        <f t="shared" ref="D125" si="133">(D124-B125)</f>
-        <v>299354</v>
-      </c>
-      <c r="E125" s="9">
-        <f t="shared" ref="E125" si="134">E124+B125</f>
-        <v>180204</v>
-      </c>
-      <c r="F125" s="14">
-        <f t="shared" ref="F125" si="135">(E125-G125)</f>
-        <v>165898</v>
-      </c>
-      <c r="G125" s="14">
+      <c r="C125" s="6">
+        <f t="shared" ref="C125" si="114">(AVERAGE(B119:B125))</f>
+        <v>3542.5714285714284</v>
+      </c>
+      <c r="D125" s="5">
+        <f t="shared" si="16"/>
+        <v>349475</v>
+      </c>
+      <c r="E125" s="5">
+        <f t="shared" ref="E125" si="115">E124+B125</f>
+        <v>180205</v>
+      </c>
+      <c r="F125" s="13">
+        <f t="shared" ref="F125" si="116">(E125-G125)</f>
+        <v>165899</v>
+      </c>
+      <c r="G125" s="13">
         <v>14306</v>
       </c>
-      <c r="H125" s="14">
+      <c r="H125" s="13">
         <v>28612</v>
       </c>
-      <c r="I125" s="14">
-        <f t="shared" ref="I125" si="136">G125/2</f>
+      <c r="I125" s="13">
+        <f t="shared" ref="I125" si="117">G125/2</f>
         <v>7153</v>
       </c>
-      <c r="J125" s="14">
+      <c r="J125" s="13">
         <v>7153</v>
       </c>
-      <c r="K125" s="10">
-        <f t="shared" ref="K125" si="137">D125/C125</f>
-        <v>84.505303060854132</v>
-      </c>
-      <c r="L125" s="11">
-        <f t="shared" ref="L125" si="138">A125+K125</f>
-        <v>44394.505303060854</v>
-      </c>
-      <c r="M125" s="9">
+      <c r="K125" s="6">
+        <f t="shared" ref="K125" si="118">D125/C125</f>
+        <v>98.650092749415279</v>
+      </c>
+      <c r="L125" s="7">
+        <f t="shared" ref="L125" si="119">A125+K125</f>
+        <v>44408.650092749413</v>
+      </c>
+      <c r="M125" s="5">
         <v>476352</v>
       </c>
-      <c r="N125" s="9">
+      <c r="N125" s="5">
+        <v>476352</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" s="5" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="4">
+        <v>44311</v>
+      </c>
+      <c r="B126" s="5">
+        <v>3475</v>
+      </c>
+      <c r="C126" s="6">
+        <f t="shared" ref="C126" si="120">(AVERAGE(B120:B126))</f>
+        <v>3533.2857142857142</v>
+      </c>
+      <c r="D126" s="5">
+        <f t="shared" si="16"/>
+        <v>346000</v>
+      </c>
+      <c r="E126" s="5">
+        <f t="shared" ref="E126" si="121">E125+B126</f>
+        <v>183680</v>
+      </c>
+      <c r="F126" s="13">
+        <f t="shared" ref="F126" si="122">(E126-G126)</f>
+        <v>169374</v>
+      </c>
+      <c r="G126" s="13">
+        <v>14306</v>
+      </c>
+      <c r="H126" s="13">
+        <v>28612</v>
+      </c>
+      <c r="I126" s="13">
+        <f t="shared" ref="I126" si="123">G126/2</f>
+        <v>7153</v>
+      </c>
+      <c r="J126" s="13">
+        <v>7153</v>
+      </c>
+      <c r="K126" s="6">
+        <f t="shared" ref="K126" si="124">D126/C126</f>
+        <v>97.925848057251443</v>
+      </c>
+      <c r="L126" s="7">
+        <f t="shared" ref="L126" si="125">A126+K126</f>
+        <v>44408.925848057253</v>
+      </c>
+      <c r="M126" s="5">
+        <v>476352</v>
+      </c>
+      <c r="N126" s="5">
+        <v>476352</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" s="9" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="8">
+        <v>44312</v>
+      </c>
+      <c r="B127" s="9">
+        <v>3581</v>
+      </c>
+      <c r="C127" s="10">
+        <f t="shared" ref="C127" si="126">(AVERAGE(B121:B127))</f>
+        <v>3497.5714285714284</v>
+      </c>
+      <c r="D127" s="9">
+        <f t="shared" ref="D127" si="127">D126-B127</f>
+        <v>342419</v>
+      </c>
+      <c r="E127" s="9">
+        <f t="shared" ref="E127" si="128">E126+B127</f>
+        <v>187261</v>
+      </c>
+      <c r="F127" s="14">
+        <f t="shared" ref="F127" si="129">(E127-G127)</f>
+        <v>172955</v>
+      </c>
+      <c r="G127" s="14">
+        <v>14306</v>
+      </c>
+      <c r="H127" s="14">
+        <v>28612</v>
+      </c>
+      <c r="I127" s="14">
+        <f t="shared" ref="I127" si="130">G127/2</f>
+        <v>7153</v>
+      </c>
+      <c r="J127" s="14">
+        <v>7153</v>
+      </c>
+      <c r="K127" s="10">
+        <f t="shared" ref="K127" si="131">D127/C127</f>
+        <v>97.901931952783571</v>
+      </c>
+      <c r="L127" s="11">
+        <f t="shared" ref="L127" si="132">A127+K127</f>
+        <v>44409.901931952787</v>
+      </c>
+      <c r="M127" s="9">
+        <v>476352</v>
+      </c>
+      <c r="N127" s="9">
         <v>476352</v>
       </c>
     </row>

--- a/durham_daily_vaccinations.xlsx
+++ b/durham_daily_vaccinations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF261809-D861-5941-8548-CF7201342F34}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77C9EEB-4736-4546-BBA7-C642186424CC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19660" xr2:uid="{D878B493-02AB-054E-B330-D20DF148DE7B}"/>
   </bookViews>
@@ -491,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E82AD24-C064-B648-8062-B01E1A5F7A8D}">
-  <dimension ref="A1:N127"/>
+  <dimension ref="A1:N128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="J128" sqref="J128"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="J129" sqref="J129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5960,23 +5960,23 @@
         <v>44310</v>
       </c>
       <c r="B125" s="5">
-        <v>3579</v>
+        <v>3580</v>
       </c>
       <c r="C125" s="6">
         <f t="shared" ref="C125" si="114">(AVERAGE(B119:B125))</f>
-        <v>3542.5714285714284</v>
+        <v>3542.7142857142858</v>
       </c>
       <c r="D125" s="5">
         <f t="shared" si="16"/>
-        <v>349475</v>
+        <v>349474</v>
       </c>
       <c r="E125" s="5">
         <f t="shared" ref="E125" si="115">E124+B125</f>
-        <v>180205</v>
+        <v>180206</v>
       </c>
       <c r="F125" s="13">
         <f t="shared" ref="F125" si="116">(E125-G125)</f>
-        <v>165899</v>
+        <v>165900</v>
       </c>
       <c r="G125" s="13">
         <v>14306</v>
@@ -5993,11 +5993,11 @@
       </c>
       <c r="K125" s="6">
         <f t="shared" ref="K125" si="118">D125/C125</f>
-        <v>98.650092749415279</v>
+        <v>98.645832493245692</v>
       </c>
       <c r="L125" s="7">
         <f t="shared" ref="L125" si="119">A125+K125</f>
-        <v>44408.650092749413</v>
+        <v>44408.645832493246</v>
       </c>
       <c r="M125" s="5">
         <v>476352</v>
@@ -6015,19 +6015,19 @@
       </c>
       <c r="C126" s="6">
         <f t="shared" ref="C126" si="120">(AVERAGE(B120:B126))</f>
-        <v>3533.2857142857142</v>
+        <v>3533.4285714285716</v>
       </c>
       <c r="D126" s="5">
         <f t="shared" si="16"/>
-        <v>346000</v>
+        <v>345999</v>
       </c>
       <c r="E126" s="5">
         <f t="shared" ref="E126" si="121">E125+B126</f>
-        <v>183680</v>
+        <v>183681</v>
       </c>
       <c r="F126" s="13">
         <f t="shared" ref="F126" si="122">(E126-G126)</f>
-        <v>169374</v>
+        <v>169375</v>
       </c>
       <c r="G126" s="13">
         <v>14306</v>
@@ -6044,11 +6044,11 @@
       </c>
       <c r="K126" s="6">
         <f t="shared" ref="K126" si="124">D126/C126</f>
-        <v>97.925848057251443</v>
+        <v>97.921605886633785</v>
       </c>
       <c r="L126" s="7">
         <f t="shared" ref="L126" si="125">A126+K126</f>
-        <v>44408.925848057253</v>
+        <v>44408.921605886637</v>
       </c>
       <c r="M126" s="5">
         <v>476352</v>
@@ -6057,54 +6057,105 @@
         <v>476352</v>
       </c>
     </row>
-    <row r="127" spans="1:14" s="9" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="8">
+    <row r="127" spans="1:14" s="5" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="4">
         <v>44312</v>
       </c>
-      <c r="B127" s="9">
-        <v>3581</v>
-      </c>
-      <c r="C127" s="10">
+      <c r="B127" s="5">
+        <v>3582</v>
+      </c>
+      <c r="C127" s="6">
         <f t="shared" ref="C127" si="126">(AVERAGE(B121:B127))</f>
-        <v>3497.5714285714284</v>
-      </c>
-      <c r="D127" s="9">
+        <v>3497.8571428571427</v>
+      </c>
+      <c r="D127" s="5">
         <f t="shared" ref="D127" si="127">D126-B127</f>
-        <v>342419</v>
-      </c>
-      <c r="E127" s="9">
+        <v>342417</v>
+      </c>
+      <c r="E127" s="5">
         <f t="shared" ref="E127" si="128">E126+B127</f>
-        <v>187261</v>
-      </c>
-      <c r="F127" s="14">
+        <v>187263</v>
+      </c>
+      <c r="F127" s="13">
         <f t="shared" ref="F127" si="129">(E127-G127)</f>
-        <v>172955</v>
-      </c>
-      <c r="G127" s="14">
+        <v>172957</v>
+      </c>
+      <c r="G127" s="13">
         <v>14306</v>
       </c>
-      <c r="H127" s="14">
+      <c r="H127" s="13">
         <v>28612</v>
       </c>
-      <c r="I127" s="14">
+      <c r="I127" s="13">
         <f t="shared" ref="I127" si="130">G127/2</f>
         <v>7153</v>
       </c>
-      <c r="J127" s="14">
+      <c r="J127" s="13">
         <v>7153</v>
       </c>
-      <c r="K127" s="10">
+      <c r="K127" s="6">
         <f t="shared" ref="K127" si="131">D127/C127</f>
-        <v>97.901931952783571</v>
-      </c>
-      <c r="L127" s="11">
+        <v>97.893363283643055</v>
+      </c>
+      <c r="L127" s="7">
         <f t="shared" ref="L127" si="132">A127+K127</f>
-        <v>44409.901931952787</v>
-      </c>
-      <c r="M127" s="9">
+        <v>44409.893363283642</v>
+      </c>
+      <c r="M127" s="5">
         <v>476352</v>
       </c>
-      <c r="N127" s="9">
+      <c r="N127" s="5">
+        <v>476352</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" s="9" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="8">
+        <v>44313</v>
+      </c>
+      <c r="B128" s="9">
+        <v>3537</v>
+      </c>
+      <c r="C128" s="10">
+        <f t="shared" ref="C128" si="133">(AVERAGE(B122:B128))</f>
+        <v>3566.2857142857142</v>
+      </c>
+      <c r="D128" s="9">
+        <f t="shared" ref="D128" si="134">D127-B128</f>
+        <v>338880</v>
+      </c>
+      <c r="E128" s="9">
+        <f t="shared" ref="E128" si="135">E127+B128</f>
+        <v>190800</v>
+      </c>
+      <c r="F128" s="14">
+        <f t="shared" ref="F128" si="136">(E128-G128)</f>
+        <v>176494</v>
+      </c>
+      <c r="G128" s="14">
+        <v>14306</v>
+      </c>
+      <c r="H128" s="14">
+        <v>28612</v>
+      </c>
+      <c r="I128" s="14">
+        <f t="shared" ref="I128" si="137">G128/2</f>
+        <v>7153</v>
+      </c>
+      <c r="J128" s="14">
+        <v>7153</v>
+      </c>
+      <c r="K128" s="10">
+        <f t="shared" ref="K128" si="138">D128/C128</f>
+        <v>95.023233456176897</v>
+      </c>
+      <c r="L128" s="11">
+        <f t="shared" ref="L128" si="139">A128+K128</f>
+        <v>44408.023233456173</v>
+      </c>
+      <c r="M128" s="9">
+        <v>476352</v>
+      </c>
+      <c r="N128" s="9">
         <v>476352</v>
       </c>
     </row>

--- a/durham_daily_vaccinations.xlsx
+++ b/durham_daily_vaccinations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77C9EEB-4736-4546-BBA7-C642186424CC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F67682D-FE04-6448-A504-DEA5E1D0D513}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19660" xr2:uid="{D878B493-02AB-054E-B330-D20DF148DE7B}"/>
   </bookViews>
@@ -491,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E82AD24-C064-B648-8062-B01E1A5F7A8D}">
-  <dimension ref="A1:N128"/>
+  <dimension ref="A1:N129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="J129" sqref="J129"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="H135" sqref="H135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6108,54 +6108,105 @@
         <v>476352</v>
       </c>
     </row>
-    <row r="128" spans="1:14" s="9" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="8">
+    <row r="128" spans="1:14" s="5" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="4">
         <v>44313</v>
       </c>
-      <c r="B128" s="9">
+      <c r="B128" s="5">
         <v>3537</v>
       </c>
-      <c r="C128" s="10">
-        <f t="shared" ref="C128" si="133">(AVERAGE(B122:B128))</f>
+      <c r="C128" s="6">
+        <f t="shared" ref="C128:C129" si="133">(AVERAGE(B122:B128))</f>
         <v>3566.2857142857142</v>
       </c>
-      <c r="D128" s="9">
+      <c r="D128" s="5">
         <f t="shared" ref="D128" si="134">D127-B128</f>
         <v>338880</v>
       </c>
-      <c r="E128" s="9">
+      <c r="E128" s="5">
         <f t="shared" ref="E128" si="135">E127+B128</f>
         <v>190800</v>
       </c>
-      <c r="F128" s="14">
+      <c r="F128" s="13">
         <f t="shared" ref="F128" si="136">(E128-G128)</f>
         <v>176494</v>
       </c>
-      <c r="G128" s="14">
+      <c r="G128" s="13">
         <v>14306</v>
       </c>
-      <c r="H128" s="14">
+      <c r="H128" s="13">
         <v>28612</v>
       </c>
-      <c r="I128" s="14">
+      <c r="I128" s="13">
         <f t="shared" ref="I128" si="137">G128/2</f>
         <v>7153</v>
       </c>
-      <c r="J128" s="14">
+      <c r="J128" s="13">
         <v>7153</v>
       </c>
-      <c r="K128" s="10">
+      <c r="K128" s="6">
         <f t="shared" ref="K128" si="138">D128/C128</f>
         <v>95.023233456176897</v>
       </c>
-      <c r="L128" s="11">
+      <c r="L128" s="7">
         <f t="shared" ref="L128" si="139">A128+K128</f>
         <v>44408.023233456173</v>
       </c>
-      <c r="M128" s="9">
+      <c r="M128" s="5">
         <v>476352</v>
       </c>
-      <c r="N128" s="9">
+      <c r="N128" s="5">
+        <v>476352</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" s="9" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="8">
+        <v>44314</v>
+      </c>
+      <c r="B129" s="9">
+        <v>3408</v>
+      </c>
+      <c r="C129" s="10">
+        <f t="shared" si="133"/>
+        <v>3524.5714285714284</v>
+      </c>
+      <c r="D129" s="9">
+        <f t="shared" ref="D129" si="140">D128-B129</f>
+        <v>335472</v>
+      </c>
+      <c r="E129" s="9">
+        <f t="shared" ref="E129" si="141">E128+B129</f>
+        <v>194208</v>
+      </c>
+      <c r="F129" s="14">
+        <f t="shared" ref="F129" si="142">(E129-G129)</f>
+        <v>179902</v>
+      </c>
+      <c r="G129" s="14">
+        <v>14306</v>
+      </c>
+      <c r="H129" s="14">
+        <v>28612</v>
+      </c>
+      <c r="I129" s="14">
+        <f t="shared" ref="I129" si="143">G129/2</f>
+        <v>7153</v>
+      </c>
+      <c r="J129" s="14">
+        <v>7153</v>
+      </c>
+      <c r="K129" s="10">
+        <f t="shared" ref="K129" si="144">D129/C129</f>
+        <v>95.180933852140086</v>
+      </c>
+      <c r="L129" s="11">
+        <f t="shared" ref="L129" si="145">A129+K129</f>
+        <v>44409.180933852142</v>
+      </c>
+      <c r="M129" s="9">
+        <v>476352</v>
+      </c>
+      <c r="N129" s="9">
         <v>476352</v>
       </c>
     </row>

--- a/durham_daily_vaccinations.xlsx
+++ b/durham_daily_vaccinations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F67682D-FE04-6448-A504-DEA5E1D0D513}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A79C611-B50E-8C47-B266-BD50E10B0B0A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19660" xr2:uid="{D878B493-02AB-054E-B330-D20DF148DE7B}"/>
+    <workbookView xWindow="-38400" yWindow="-780" windowWidth="38400" windowHeight="21140" xr2:uid="{D878B493-02AB-054E-B330-D20DF148DE7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -491,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E82AD24-C064-B648-8062-B01E1A5F7A8D}">
-  <dimension ref="A1:N129"/>
+  <dimension ref="A1:N130"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="H135" sqref="H135"/>
+      <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5011,19 +5011,19 @@
         <v>44290</v>
       </c>
       <c r="B105" s="5">
-        <v>3752</v>
+        <v>3753</v>
       </c>
       <c r="C105" s="6">
         <f t="shared" si="36"/>
-        <v>3418.5714285714284</v>
+        <v>3418.7142857142858</v>
       </c>
       <c r="D105" s="5">
         <f t="shared" si="16"/>
-        <v>422256</v>
+        <v>422255</v>
       </c>
       <c r="E105" s="5">
         <f t="shared" ref="E105" si="40">E104+B105</f>
-        <v>107424</v>
+        <v>107425</v>
       </c>
       <c r="F105" s="13"/>
       <c r="G105" s="13"/>
@@ -5036,11 +5036,11 @@
       </c>
       <c r="K105" s="6">
         <f t="shared" ref="K105" si="41">D105/C105</f>
-        <v>123.51826159632262</v>
+        <v>123.51280765534244</v>
       </c>
       <c r="L105" s="7">
         <f t="shared" ref="L105" si="42">A105+K105</f>
-        <v>44413.51826159632</v>
+        <v>44413.512807655345</v>
       </c>
       <c r="M105" s="5">
         <f t="shared" si="15"/>
@@ -5059,15 +5059,15 @@
       </c>
       <c r="C106" s="6">
         <f t="shared" si="36"/>
-        <v>3584.1428571428573</v>
+        <v>3584.2857142857142</v>
       </c>
       <c r="D106" s="5">
         <f t="shared" si="16"/>
-        <v>418497</v>
+        <v>418496</v>
       </c>
       <c r="E106" s="5">
         <f t="shared" ref="E106" si="43">E105+B106</f>
-        <v>111183</v>
+        <v>111184</v>
       </c>
       <c r="F106" s="13"/>
       <c r="G106" s="13"/>
@@ -5080,11 +5080,11 @@
       </c>
       <c r="K106" s="6">
         <f t="shared" ref="K106" si="44">D106/C106</f>
-        <v>116.76348200406552</v>
+        <v>116.75854922279792</v>
       </c>
       <c r="L106" s="7">
         <f t="shared" ref="L106" si="45">A106+K106</f>
-        <v>44407.763482004062</v>
+        <v>44407.758549222795</v>
       </c>
       <c r="M106" s="5">
         <f t="shared" si="15"/>
@@ -5103,15 +5103,15 @@
       </c>
       <c r="C107" s="6">
         <f t="shared" si="36"/>
-        <v>3601.1428571428573</v>
+        <v>3601.2857142857142</v>
       </c>
       <c r="D107" s="5">
         <f t="shared" si="16"/>
-        <v>415194</v>
+        <v>415193</v>
       </c>
       <c r="E107" s="5">
         <f t="shared" ref="E107" si="46">E106+B107</f>
-        <v>114486</v>
+        <v>114487</v>
       </c>
       <c r="F107" s="13"/>
       <c r="G107" s="13"/>
@@ -5124,11 +5124,11 @@
       </c>
       <c r="K107" s="6">
         <f t="shared" ref="K107" si="47">D107/C107</f>
-        <v>115.29506505871151</v>
+        <v>115.29021381252727</v>
       </c>
       <c r="L107" s="7">
         <f t="shared" ref="L107" si="48">A107+K107</f>
-        <v>44407.295065058708</v>
+        <v>44407.290213812528</v>
       </c>
       <c r="M107" s="5">
         <f t="shared" si="15"/>
@@ -5147,15 +5147,15 @@
       </c>
       <c r="C108" s="6">
         <f t="shared" si="36"/>
-        <v>3504.2857142857142</v>
+        <v>3504.4285714285716</v>
       </c>
       <c r="D108" s="5">
         <f t="shared" si="16"/>
-        <v>412098</v>
+        <v>412097</v>
       </c>
       <c r="E108" s="5">
         <f t="shared" ref="E108" si="49">E107+B108</f>
-        <v>117582</v>
+        <v>117583</v>
       </c>
       <c r="F108" s="13"/>
       <c r="G108" s="13"/>
@@ -5168,11 +5168,11 @@
       </c>
       <c r="K108" s="6">
         <f t="shared" ref="K108" si="50">D108/C108</f>
-        <v>117.59828781084387</v>
+        <v>117.59320859320859</v>
       </c>
       <c r="L108" s="7">
         <f t="shared" ref="L108" si="51">A108+K108</f>
-        <v>44410.598287810841</v>
+        <v>44410.593208593207</v>
       </c>
       <c r="M108" s="5">
         <f t="shared" si="15"/>
@@ -5187,19 +5187,19 @@
         <v>44294</v>
       </c>
       <c r="B109" s="5">
-        <v>2523</v>
+        <v>2524</v>
       </c>
       <c r="C109" s="6">
         <f t="shared" si="36"/>
-        <v>3340</v>
+        <v>3340.2857142857142</v>
       </c>
       <c r="D109" s="5">
         <f t="shared" si="16"/>
-        <v>409575</v>
+        <v>409573</v>
       </c>
       <c r="E109" s="5">
         <f t="shared" ref="E109" si="52">E108+B109</f>
-        <v>120105</v>
+        <v>120107</v>
       </c>
       <c r="F109" s="13"/>
       <c r="G109" s="13"/>
@@ -5212,11 +5212,11 @@
       </c>
       <c r="K109" s="6">
         <f t="shared" ref="K109" si="53">D109/C109</f>
-        <v>122.62724550898204</v>
+        <v>122.61615772816697</v>
       </c>
       <c r="L109" s="7">
         <f t="shared" ref="L109" si="54">A109+K109</f>
-        <v>44416.627245508986</v>
+        <v>44416.616157728167</v>
       </c>
       <c r="M109" s="5">
         <f t="shared" si="15"/>
@@ -5235,15 +5235,15 @@
       </c>
       <c r="C110" s="6">
         <f t="shared" si="36"/>
-        <v>3424.5714285714284</v>
+        <v>3424.8571428571427</v>
       </c>
       <c r="D110" s="5">
         <f t="shared" si="16"/>
-        <v>405596</v>
+        <v>405594</v>
       </c>
       <c r="E110" s="5">
         <f t="shared" ref="E110" si="55">E109+B110</f>
-        <v>124084</v>
+        <v>124086</v>
       </c>
       <c r="F110" s="13"/>
       <c r="G110" s="13"/>
@@ -5256,11 +5256,11 @@
       </c>
       <c r="K110" s="6">
         <f t="shared" ref="K110" si="56">D110/C110</f>
-        <v>118.43700984481896</v>
+        <v>118.42654542420956</v>
       </c>
       <c r="L110" s="7">
         <f t="shared" ref="L110" si="57">A110+K110</f>
-        <v>44413.43700984482</v>
+        <v>44413.426545424212</v>
       </c>
       <c r="M110" s="5">
         <f t="shared" si="15"/>
@@ -5279,15 +5279,15 @@
       </c>
       <c r="C111" s="6">
         <f t="shared" ref="C111" si="58">(AVERAGE(B105:B111))</f>
-        <v>3485.1428571428573</v>
+        <v>3485.4285714285716</v>
       </c>
       <c r="D111" s="5">
         <f t="shared" si="16"/>
-        <v>401612</v>
+        <v>401610</v>
       </c>
       <c r="E111" s="5">
         <f t="shared" ref="E111" si="59">E110+B111</f>
-        <v>128068</v>
+        <v>128070</v>
       </c>
       <c r="F111" s="13"/>
       <c r="G111" s="13"/>
@@ -5300,11 +5300,11 @@
       </c>
       <c r="K111" s="6">
         <f t="shared" ref="K111" si="60">D111/C111</f>
-        <v>115.23544843416953</v>
+        <v>115.22542831379621</v>
       </c>
       <c r="L111" s="7">
         <f t="shared" ref="L111" si="61">A111+K111</f>
-        <v>44411.23544843417</v>
+        <v>44411.225428313795</v>
       </c>
       <c r="M111" s="5">
         <f t="shared" si="15"/>
@@ -5323,15 +5323,15 @@
       </c>
       <c r="C112" s="6">
         <f t="shared" ref="C112" si="62">(AVERAGE(B106:B112))</f>
-        <v>3511.2857142857142</v>
+        <v>3511.4285714285716</v>
       </c>
       <c r="D112" s="5">
         <f t="shared" si="16"/>
-        <v>397677</v>
+        <v>397675</v>
       </c>
       <c r="E112" s="5">
         <f t="shared" ref="E112" si="63">E111+B112</f>
-        <v>132003</v>
+        <v>132005</v>
       </c>
       <c r="F112" s="13"/>
       <c r="G112" s="13"/>
@@ -5344,11 +5344,11 @@
       </c>
       <c r="K112" s="6">
         <f t="shared" ref="K112" si="64">D112/C112</f>
-        <v>113.25680458928353</v>
+        <v>113.25162733930024</v>
       </c>
       <c r="L112" s="7">
         <f t="shared" ref="L112" si="65">A112+K112</f>
-        <v>44410.256804589284</v>
+        <v>44410.251627339298</v>
       </c>
       <c r="M112" s="5">
         <f t="shared" si="15"/>
@@ -5367,15 +5367,15 @@
       </c>
       <c r="C113" s="6">
         <f t="shared" ref="C113" si="66">(AVERAGE(B107:B113))</f>
-        <v>3504.1428571428573</v>
+        <v>3504.2857142857142</v>
       </c>
       <c r="D113" s="5">
         <f t="shared" si="16"/>
-        <v>393968</v>
+        <v>393966</v>
       </c>
       <c r="E113" s="5">
         <f t="shared" ref="E113" si="67">E112+B113</f>
-        <v>135712</v>
+        <v>135714</v>
       </c>
       <c r="F113" s="13"/>
       <c r="G113" s="13"/>
@@ -5388,11 +5388,11 @@
       </c>
       <c r="K113" s="6">
         <f t="shared" ref="K113" si="68">D113/C113</f>
-        <v>112.42920624566838</v>
+        <v>112.42405218100285</v>
       </c>
       <c r="L113" s="7">
         <f t="shared" ref="L113" si="69">A113+K113</f>
-        <v>44410.429206245666</v>
+        <v>44410.424052181006</v>
       </c>
       <c r="M113" s="5">
         <f t="shared" si="15"/>
@@ -5411,15 +5411,15 @@
       </c>
       <c r="C114" s="6">
         <f t="shared" ref="C114" si="70">(AVERAGE(B108:B114))</f>
-        <v>3651.1428571428573</v>
+        <v>3651.2857142857142</v>
       </c>
       <c r="D114" s="5">
         <f t="shared" si="16"/>
-        <v>389636</v>
+        <v>389634</v>
       </c>
       <c r="E114" s="5">
         <f t="shared" ref="E114" si="71">E113+B114</f>
-        <v>140044</v>
+        <v>140046</v>
       </c>
       <c r="F114" s="13"/>
       <c r="G114" s="13"/>
@@ -5432,11 +5432,11 @@
       </c>
       <c r="K114" s="6">
         <f t="shared" ref="K114" si="72">D114/C114</f>
-        <v>106.71617497456765</v>
+        <v>106.71145193473923</v>
       </c>
       <c r="L114" s="7">
         <f t="shared" ref="L114" si="73">A114+K114</f>
-        <v>44405.716174974565</v>
+        <v>44405.711451934738</v>
       </c>
       <c r="M114" s="5">
         <f t="shared" si="15"/>
@@ -5455,15 +5455,15 @@
       </c>
       <c r="C115" s="6">
         <f t="shared" ref="C115" si="74">(AVERAGE(B109:B115))</f>
-        <v>3796.2857142857142</v>
+        <v>3796.4285714285716</v>
       </c>
       <c r="D115" s="5">
         <f t="shared" si="16"/>
-        <v>385524</v>
+        <v>385522</v>
       </c>
       <c r="E115" s="5">
         <f t="shared" ref="E115" si="75">E114+B115</f>
-        <v>144156</v>
+        <v>144158</v>
       </c>
       <c r="F115" s="13"/>
       <c r="G115" s="13"/>
@@ -5476,11 +5476,11 @@
       </c>
       <c r="K115" s="6">
         <f t="shared" ref="K115" si="76">D115/C115</f>
-        <v>101.55294648904945</v>
+        <v>101.54859830667921</v>
       </c>
       <c r="L115" s="7">
         <f t="shared" ref="L115" si="77">A115+K115</f>
-        <v>44401.55294648905</v>
+        <v>44401.548598306683</v>
       </c>
       <c r="M115" s="5">
         <f t="shared" si="15"/>
@@ -5503,15 +5503,15 @@
       </c>
       <c r="D116" s="5">
         <f t="shared" si="16"/>
-        <v>382147</v>
+        <v>382145</v>
       </c>
       <c r="E116" s="5">
         <f t="shared" ref="E116" si="79">E115+B116</f>
-        <v>147533</v>
+        <v>147535</v>
       </c>
       <c r="F116" s="13">
         <f t="shared" ref="F116:F122" si="80">(E116-G116)</f>
-        <v>133227</v>
+        <v>133229</v>
       </c>
       <c r="G116" s="13">
         <v>14306</v>
@@ -5529,11 +5529,11 @@
       </c>
       <c r="K116" s="6">
         <f t="shared" ref="K116:K121" si="81">D116/C116</f>
-        <v>97.529130815225315</v>
+        <v>97.528620387924747</v>
       </c>
       <c r="L116" s="7">
         <f t="shared" ref="L116:L121" si="82">A116+K116</f>
-        <v>44398.529130815223</v>
+        <v>44398.528620387922</v>
       </c>
       <c r="M116" s="5">
         <f t="shared" si="15"/>
@@ -5556,15 +5556,15 @@
       </c>
       <c r="D117" s="5">
         <f t="shared" si="16"/>
-        <v>378229</v>
+        <v>378227</v>
       </c>
       <c r="E117" s="5">
         <f t="shared" ref="E117" si="84">E116+B117</f>
-        <v>151451</v>
+        <v>151453</v>
       </c>
       <c r="F117" s="13">
         <f t="shared" si="80"/>
-        <v>137145</v>
+        <v>137147</v>
       </c>
       <c r="G117" s="13">
         <v>14306</v>
@@ -5582,11 +5582,11 @@
       </c>
       <c r="K117" s="6">
         <f t="shared" si="81"/>
-        <v>96.744363649651049</v>
+        <v>96.743852084627477</v>
       </c>
       <c r="L117" s="7">
         <f t="shared" si="82"/>
-        <v>44398.744363649654</v>
+        <v>44398.743852084626</v>
       </c>
       <c r="M117" s="5">
         <v>476352</v>
@@ -5608,15 +5608,15 @@
       </c>
       <c r="D118" s="5">
         <f t="shared" si="16"/>
-        <v>374273</v>
+        <v>374271</v>
       </c>
       <c r="E118" s="5">
         <f t="shared" ref="E118" si="87">E117+B118</f>
-        <v>155407</v>
+        <v>155409</v>
       </c>
       <c r="F118" s="13">
         <f t="shared" si="80"/>
-        <v>141101</v>
+        <v>141103</v>
       </c>
       <c r="G118" s="13">
         <v>14306</v>
@@ -5634,11 +5634,11 @@
       </c>
       <c r="K118" s="6">
         <f t="shared" si="81"/>
-        <v>95.83053513296025</v>
+        <v>95.83002304400307</v>
       </c>
       <c r="L118" s="7">
         <f t="shared" si="82"/>
-        <v>44398.830535132962</v>
+        <v>44398.830023044</v>
       </c>
       <c r="M118" s="5">
         <v>476352</v>
@@ -5660,15 +5660,15 @@
       </c>
       <c r="D119" s="5">
         <f t="shared" si="16"/>
-        <v>370733</v>
+        <v>370731</v>
       </c>
       <c r="E119" s="5">
         <f t="shared" ref="E119" si="89">E118+B119</f>
-        <v>158947</v>
+        <v>158949</v>
       </c>
       <c r="F119" s="13">
         <f t="shared" si="80"/>
-        <v>144641</v>
+        <v>144643</v>
       </c>
       <c r="G119" s="13">
         <v>14306</v>
@@ -5686,11 +5686,11 @@
       </c>
       <c r="K119" s="6">
         <f t="shared" si="81"/>
-        <v>96.315728919239902</v>
+        <v>96.315209323040378</v>
       </c>
       <c r="L119" s="7">
         <f t="shared" si="82"/>
-        <v>44400.315728919239</v>
+        <v>44400.315209323038</v>
       </c>
       <c r="M119" s="5">
         <v>476352</v>
@@ -5712,15 +5712,15 @@
       </c>
       <c r="D120" s="5">
         <f t="shared" si="16"/>
-        <v>366902</v>
+        <v>366900</v>
       </c>
       <c r="E120" s="5">
         <f t="shared" ref="E120" si="92">E119+B120</f>
-        <v>162778</v>
+        <v>162780</v>
       </c>
       <c r="F120" s="13">
         <f t="shared" si="80"/>
-        <v>148472</v>
+        <v>148474</v>
       </c>
       <c r="G120" s="13">
         <v>14306</v>
@@ -5738,11 +5738,11 @@
       </c>
       <c r="K120" s="6">
         <f t="shared" si="81"/>
-        <v>94.890785487327278</v>
+        <v>94.890268233207721</v>
       </c>
       <c r="L120" s="7">
         <f t="shared" si="82"/>
-        <v>44399.890785487325</v>
+        <v>44399.890268233205</v>
       </c>
       <c r="M120" s="5">
         <v>476352</v>
@@ -5764,15 +5764,15 @@
       </c>
       <c r="D121" s="5">
         <f t="shared" si="16"/>
-        <v>363844</v>
+        <v>363842</v>
       </c>
       <c r="E121" s="5">
         <f t="shared" ref="E121" si="95">E120+B121</f>
-        <v>165836</v>
+        <v>165838</v>
       </c>
       <c r="F121" s="13">
         <f t="shared" si="80"/>
-        <v>151530</v>
+        <v>151532</v>
       </c>
       <c r="G121" s="13">
         <v>14306</v>
@@ -5789,11 +5789,11 @@
       </c>
       <c r="K121" s="6">
         <f t="shared" si="81"/>
-        <v>98.747983870967744</v>
+        <v>98.747441066997524</v>
       </c>
       <c r="L121" s="7">
         <f t="shared" si="82"/>
-        <v>44404.74798387097</v>
+        <v>44404.747441066997</v>
       </c>
       <c r="M121" s="5">
         <v>476352</v>
@@ -5815,15 +5815,15 @@
       </c>
       <c r="D122" s="5">
         <f t="shared" si="16"/>
-        <v>360144</v>
+        <v>360142</v>
       </c>
       <c r="E122" s="5">
         <f t="shared" ref="E122" si="98">E121+B122</f>
-        <v>169536</v>
+        <v>169538</v>
       </c>
       <c r="F122" s="13">
         <f t="shared" si="80"/>
-        <v>155230</v>
+        <v>155232</v>
       </c>
       <c r="G122" s="13">
         <v>14306</v>
@@ -5840,11 +5840,11 @@
       </c>
       <c r="K122" s="6">
         <f t="shared" ref="K122" si="100">D122/C122</f>
-        <v>99.330496453900707</v>
+        <v>99.329944838455475</v>
       </c>
       <c r="L122" s="7">
         <f t="shared" ref="L122" si="101">A122+K122</f>
-        <v>44406.330496453898</v>
+        <v>44406.329944838457</v>
       </c>
       <c r="M122" s="5">
         <v>476352</v>
@@ -5866,15 +5866,15 @@
       </c>
       <c r="D123" s="5">
         <f t="shared" si="16"/>
-        <v>356267</v>
+        <v>356265</v>
       </c>
       <c r="E123" s="5">
         <f t="shared" ref="E123" si="103">E122+B123</f>
-        <v>173413</v>
+        <v>173415</v>
       </c>
       <c r="F123" s="13">
         <f t="shared" ref="F123" si="104">(E123-G123)</f>
-        <v>159107</v>
+        <v>159109</v>
       </c>
       <c r="G123" s="13">
         <v>14306</v>
@@ -5891,11 +5891,11 @@
       </c>
       <c r="K123" s="6">
         <f t="shared" ref="K123" si="106">D123/C123</f>
-        <v>96.362789799072644</v>
+        <v>96.362248840803701</v>
       </c>
       <c r="L123" s="7">
         <f t="shared" ref="L123" si="107">A123+K123</f>
-        <v>44404.362789799074</v>
+        <v>44404.362248840807</v>
       </c>
       <c r="M123" s="5">
         <v>476352</v>
@@ -5917,15 +5917,15 @@
       </c>
       <c r="D124" s="5">
         <f t="shared" si="16"/>
-        <v>353054</v>
+        <v>353052</v>
       </c>
       <c r="E124" s="5">
         <f t="shared" ref="E124" si="109">E123+B124</f>
-        <v>176626</v>
+        <v>176628</v>
       </c>
       <c r="F124" s="13">
         <f t="shared" ref="F124" si="110">(E124-G124)</f>
-        <v>162320</v>
+        <v>162322</v>
       </c>
       <c r="G124" s="13">
         <v>14306</v>
@@ -5942,11 +5942,11 @@
       </c>
       <c r="K124" s="6">
         <f t="shared" ref="K124" si="112">D124/C124</f>
-        <v>98.167944389275064</v>
+        <v>98.167388282025811</v>
       </c>
       <c r="L124" s="7">
         <f t="shared" ref="L124" si="113">A124+K124</f>
-        <v>44407.167944389272</v>
+        <v>44407.167388282025</v>
       </c>
       <c r="M124" s="5">
         <v>476352</v>
@@ -5968,15 +5968,15 @@
       </c>
       <c r="D125" s="5">
         <f t="shared" si="16"/>
-        <v>349474</v>
+        <v>349472</v>
       </c>
       <c r="E125" s="5">
         <f t="shared" ref="E125" si="115">E124+B125</f>
-        <v>180206</v>
+        <v>180208</v>
       </c>
       <c r="F125" s="13">
         <f t="shared" ref="F125" si="116">(E125-G125)</f>
-        <v>165900</v>
+        <v>165902</v>
       </c>
       <c r="G125" s="13">
         <v>14306</v>
@@ -5993,11 +5993,11 @@
       </c>
       <c r="K125" s="6">
         <f t="shared" ref="K125" si="118">D125/C125</f>
-        <v>98.645832493245692</v>
+        <v>98.645267954353002</v>
       </c>
       <c r="L125" s="7">
         <f t="shared" ref="L125" si="119">A125+K125</f>
-        <v>44408.645832493246</v>
+        <v>44408.645267954351</v>
       </c>
       <c r="M125" s="5">
         <v>476352</v>
@@ -6019,15 +6019,15 @@
       </c>
       <c r="D126" s="5">
         <f t="shared" si="16"/>
-        <v>345999</v>
+        <v>345997</v>
       </c>
       <c r="E126" s="5">
         <f t="shared" ref="E126" si="121">E125+B126</f>
-        <v>183681</v>
+        <v>183683</v>
       </c>
       <c r="F126" s="13">
         <f t="shared" ref="F126" si="122">(E126-G126)</f>
-        <v>169375</v>
+        <v>169377</v>
       </c>
       <c r="G126" s="13">
         <v>14306</v>
@@ -6044,11 +6044,11 @@
       </c>
       <c r="K126" s="6">
         <f t="shared" ref="K126" si="124">D126/C126</f>
-        <v>97.921605886633785</v>
+        <v>97.921039864154608</v>
       </c>
       <c r="L126" s="7">
         <f t="shared" ref="L126" si="125">A126+K126</f>
-        <v>44408.921605886637</v>
+        <v>44408.921039864152</v>
       </c>
       <c r="M126" s="5">
         <v>476352</v>
@@ -6070,15 +6070,15 @@
       </c>
       <c r="D127" s="5">
         <f t="shared" ref="D127" si="127">D126-B127</f>
-        <v>342417</v>
+        <v>342415</v>
       </c>
       <c r="E127" s="5">
         <f t="shared" ref="E127" si="128">E126+B127</f>
-        <v>187263</v>
+        <v>187265</v>
       </c>
       <c r="F127" s="13">
         <f t="shared" ref="F127" si="129">(E127-G127)</f>
-        <v>172957</v>
+        <v>172959</v>
       </c>
       <c r="G127" s="13">
         <v>14306</v>
@@ -6095,11 +6095,11 @@
       </c>
       <c r="K127" s="6">
         <f t="shared" ref="K127" si="131">D127/C127</f>
-        <v>97.893363283643055</v>
+        <v>97.892791505003075</v>
       </c>
       <c r="L127" s="7">
         <f t="shared" ref="L127" si="132">A127+K127</f>
-        <v>44409.893363283642</v>
+        <v>44409.892791505001</v>
       </c>
       <c r="M127" s="5">
         <v>476352</v>
@@ -6113,23 +6113,23 @@
         <v>44313</v>
       </c>
       <c r="B128" s="5">
-        <v>3537</v>
+        <v>3536</v>
       </c>
       <c r="C128" s="6">
         <f t="shared" ref="C128:C129" si="133">(AVERAGE(B122:B128))</f>
-        <v>3566.2857142857142</v>
+        <v>3566.1428571428573</v>
       </c>
       <c r="D128" s="5">
         <f t="shared" ref="D128" si="134">D127-B128</f>
-        <v>338880</v>
+        <v>338879</v>
       </c>
       <c r="E128" s="5">
         <f t="shared" ref="E128" si="135">E127+B128</f>
-        <v>190800</v>
+        <v>190801</v>
       </c>
       <c r="F128" s="13">
         <f t="shared" ref="F128" si="136">(E128-G128)</f>
-        <v>176494</v>
+        <v>176495</v>
       </c>
       <c r="G128" s="13">
         <v>14306</v>
@@ -6146,11 +6146,11 @@
       </c>
       <c r="K128" s="6">
         <f t="shared" ref="K128" si="138">D128/C128</f>
-        <v>95.023233456176897</v>
+        <v>95.026759604214234</v>
       </c>
       <c r="L128" s="7">
         <f t="shared" ref="L128" si="139">A128+K128</f>
-        <v>44408.023233456173</v>
+        <v>44408.026759604218</v>
       </c>
       <c r="M128" s="5">
         <v>476352</v>
@@ -6159,54 +6159,105 @@
         <v>476352</v>
       </c>
     </row>
-    <row r="129" spans="1:14" s="9" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="8">
+    <row r="129" spans="1:14" s="5" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="4">
         <v>44314</v>
       </c>
-      <c r="B129" s="9">
-        <v>3408</v>
-      </c>
-      <c r="C129" s="10">
+      <c r="B129" s="5">
+        <v>3409</v>
+      </c>
+      <c r="C129" s="6">
         <f t="shared" si="133"/>
         <v>3524.5714285714284</v>
       </c>
-      <c r="D129" s="9">
+      <c r="D129" s="5">
         <f t="shared" ref="D129" si="140">D128-B129</f>
-        <v>335472</v>
-      </c>
-      <c r="E129" s="9">
+        <v>335470</v>
+      </c>
+      <c r="E129" s="5">
         <f t="shared" ref="E129" si="141">E128+B129</f>
-        <v>194208</v>
-      </c>
-      <c r="F129" s="14">
+        <v>194210</v>
+      </c>
+      <c r="F129" s="13">
         <f t="shared" ref="F129" si="142">(E129-G129)</f>
-        <v>179902</v>
-      </c>
-      <c r="G129" s="14">
+        <v>179904</v>
+      </c>
+      <c r="G129" s="13">
         <v>14306</v>
       </c>
-      <c r="H129" s="14">
+      <c r="H129" s="13">
         <v>28612</v>
       </c>
-      <c r="I129" s="14">
+      <c r="I129" s="13">
         <f t="shared" ref="I129" si="143">G129/2</f>
         <v>7153</v>
       </c>
-      <c r="J129" s="14">
+      <c r="J129" s="13">
         <v>7153</v>
       </c>
-      <c r="K129" s="10">
+      <c r="K129" s="6">
         <f t="shared" ref="K129" si="144">D129/C129</f>
-        <v>95.180933852140086</v>
-      </c>
-      <c r="L129" s="11">
+        <v>95.180366407263293</v>
+      </c>
+      <c r="L129" s="7">
         <f t="shared" ref="L129" si="145">A129+K129</f>
-        <v>44409.180933852142</v>
-      </c>
-      <c r="M129" s="9">
+        <v>44409.180366407265</v>
+      </c>
+      <c r="M129" s="5">
         <v>476352</v>
       </c>
-      <c r="N129" s="9">
+      <c r="N129" s="5">
+        <v>476352</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" s="9" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="8">
+        <v>44315</v>
+      </c>
+      <c r="B130" s="9">
+        <v>3795</v>
+      </c>
+      <c r="C130" s="10">
+        <f t="shared" ref="C130" si="146">(AVERAGE(B124:B130))</f>
+        <v>3512.8571428571427</v>
+      </c>
+      <c r="D130" s="9">
+        <f t="shared" ref="D130" si="147">D129-B130</f>
+        <v>331675</v>
+      </c>
+      <c r="E130" s="9">
+        <f t="shared" ref="E130" si="148">E129+B130</f>
+        <v>198005</v>
+      </c>
+      <c r="F130" s="14">
+        <f t="shared" ref="F130" si="149">(E130-G130)</f>
+        <v>183699</v>
+      </c>
+      <c r="G130" s="14">
+        <v>14306</v>
+      </c>
+      <c r="H130" s="14">
+        <v>28612</v>
+      </c>
+      <c r="I130" s="14">
+        <f t="shared" ref="I130" si="150">G130/2</f>
+        <v>7153</v>
+      </c>
+      <c r="J130" s="14">
+        <v>7153</v>
+      </c>
+      <c r="K130" s="10">
+        <f t="shared" ref="K130" si="151">D130/C130</f>
+        <v>94.417446116307445</v>
+      </c>
+      <c r="L130" s="11">
+        <f t="shared" ref="L130" si="152">A130+K130</f>
+        <v>44409.417446116306</v>
+      </c>
+      <c r="M130" s="9">
+        <v>476352</v>
+      </c>
+      <c r="N130" s="9">
         <v>476352</v>
       </c>
     </row>

--- a/durham_daily_vaccinations.xlsx
+++ b/durham_daily_vaccinations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noah/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A79C611-B50E-8C47-B266-BD50E10B0B0A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66FD4D9-3346-AD40-B94C-8A7CB74B27C1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-780" windowWidth="38400" windowHeight="21140" xr2:uid="{D878B493-02AB-054E-B330-D20DF148DE7B}"/>
   </bookViews>
@@ -491,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E82AD24-C064-B648-8062-B01E1A5F7A8D}">
-  <dimension ref="A1:N130"/>
+  <dimension ref="A1:N131"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106"/>
+      <selection activeCell="J140" sqref="J140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6062,23 +6062,23 @@
         <v>44312</v>
       </c>
       <c r="B127" s="5">
-        <v>3582</v>
+        <v>3583</v>
       </c>
       <c r="C127" s="6">
         <f t="shared" ref="C127" si="126">(AVERAGE(B121:B127))</f>
-        <v>3497.8571428571427</v>
+        <v>3498</v>
       </c>
       <c r="D127" s="5">
         <f t="shared" ref="D127" si="127">D126-B127</f>
-        <v>342415</v>
+        <v>342414</v>
       </c>
       <c r="E127" s="5">
         <f t="shared" ref="E127" si="128">E126+B127</f>
-        <v>187265</v>
+        <v>187266</v>
       </c>
       <c r="F127" s="13">
         <f t="shared" ref="F127" si="129">(E127-G127)</f>
-        <v>172959</v>
+        <v>172960</v>
       </c>
       <c r="G127" s="13">
         <v>14306</v>
@@ -6095,11 +6095,11 @@
       </c>
       <c r="K127" s="6">
         <f t="shared" ref="K127" si="131">D127/C127</f>
-        <v>97.892791505003075</v>
+        <v>97.888507718696403</v>
       </c>
       <c r="L127" s="7">
         <f t="shared" ref="L127" si="132">A127+K127</f>
-        <v>44409.892791505001</v>
+        <v>44409.888507718693</v>
       </c>
       <c r="M127" s="5">
         <v>476352</v>
@@ -6117,19 +6117,19 @@
       </c>
       <c r="C128" s="6">
         <f t="shared" ref="C128:C129" si="133">(AVERAGE(B122:B128))</f>
-        <v>3566.1428571428573</v>
+        <v>3566.2857142857142</v>
       </c>
       <c r="D128" s="5">
         <f t="shared" ref="D128" si="134">D127-B128</f>
-        <v>338879</v>
+        <v>338878</v>
       </c>
       <c r="E128" s="5">
         <f t="shared" ref="E128" si="135">E127+B128</f>
-        <v>190801</v>
+        <v>190802</v>
       </c>
       <c r="F128" s="13">
         <f t="shared" ref="F128" si="136">(E128-G128)</f>
-        <v>176495</v>
+        <v>176496</v>
       </c>
       <c r="G128" s="13">
         <v>14306</v>
@@ -6146,11 +6146,11 @@
       </c>
       <c r="K128" s="6">
         <f t="shared" ref="K128" si="138">D128/C128</f>
-        <v>95.026759604214234</v>
+        <v>95.022672648614005</v>
       </c>
       <c r="L128" s="7">
         <f t="shared" ref="L128" si="139">A128+K128</f>
-        <v>44408.026759604218</v>
+        <v>44408.022672648614</v>
       </c>
       <c r="M128" s="5">
         <v>476352</v>
@@ -6168,19 +6168,19 @@
       </c>
       <c r="C129" s="6">
         <f t="shared" si="133"/>
-        <v>3524.5714285714284</v>
+        <v>3524.7142857142858</v>
       </c>
       <c r="D129" s="5">
         <f t="shared" ref="D129" si="140">D128-B129</f>
-        <v>335470</v>
+        <v>335469</v>
       </c>
       <c r="E129" s="5">
         <f t="shared" ref="E129" si="141">E128+B129</f>
-        <v>194210</v>
+        <v>194211</v>
       </c>
       <c r="F129" s="13">
         <f t="shared" ref="F129" si="142">(E129-G129)</f>
-        <v>179904</v>
+        <v>179905</v>
       </c>
       <c r="G129" s="13">
         <v>14306</v>
@@ -6197,11 +6197,11 @@
       </c>
       <c r="K129" s="6">
         <f t="shared" ref="K129" si="144">D129/C129</f>
-        <v>95.180366407263293</v>
+        <v>95.176225023304823</v>
       </c>
       <c r="L129" s="7">
         <f t="shared" ref="L129" si="145">A129+K129</f>
-        <v>44409.180366407265</v>
+        <v>44409.176225023308</v>
       </c>
       <c r="M129" s="5">
         <v>476352</v>
@@ -6210,54 +6210,105 @@
         <v>476352</v>
       </c>
     </row>
-    <row r="130" spans="1:14" s="9" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="8">
+    <row r="130" spans="1:14" s="5" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="4">
         <v>44315</v>
       </c>
-      <c r="B130" s="9">
+      <c r="B130" s="5">
         <v>3795</v>
       </c>
-      <c r="C130" s="10">
+      <c r="C130" s="6">
         <f t="shared" ref="C130" si="146">(AVERAGE(B124:B130))</f>
-        <v>3512.8571428571427</v>
-      </c>
-      <c r="D130" s="9">
+        <v>3513</v>
+      </c>
+      <c r="D130" s="5">
         <f t="shared" ref="D130" si="147">D129-B130</f>
-        <v>331675</v>
-      </c>
-      <c r="E130" s="9">
+        <v>331674</v>
+      </c>
+      <c r="E130" s="5">
         <f t="shared" ref="E130" si="148">E129+B130</f>
-        <v>198005</v>
-      </c>
-      <c r="F130" s="14">
+        <v>198006</v>
+      </c>
+      <c r="F130" s="13">
         <f t="shared" ref="F130" si="149">(E130-G130)</f>
-        <v>183699</v>
-      </c>
-      <c r="G130" s="14">
+        <v>183700</v>
+      </c>
+      <c r="G130" s="13">
         <v>14306</v>
       </c>
-      <c r="H130" s="14">
+      <c r="H130" s="13">
         <v>28612</v>
       </c>
-      <c r="I130" s="14">
+      <c r="I130" s="13">
         <f t="shared" ref="I130" si="150">G130/2</f>
         <v>7153</v>
       </c>
-      <c r="J130" s="14">
+      <c r="J130" s="13">
         <v>7153</v>
       </c>
-      <c r="K130" s="10">
+      <c r="K130" s="6">
         <f t="shared" ref="K130" si="151">D130/C130</f>
-        <v>94.417446116307445</v>
-      </c>
-      <c r="L130" s="11">
+        <v>94.413321947053802</v>
+      </c>
+      <c r="L130" s="7">
         <f t="shared" ref="L130" si="152">A130+K130</f>
-        <v>44409.417446116306</v>
-      </c>
-      <c r="M130" s="9">
+        <v>44409.413321947053</v>
+      </c>
+      <c r="M130" s="5">
         <v>476352</v>
       </c>
-      <c r="N130" s="9">
+      <c r="N130" s="5">
+        <v>476352</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" s="9" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="8">
+        <v>44316</v>
+      </c>
+      <c r="B131" s="9">
+        <v>4952</v>
+      </c>
+      <c r="C131" s="10">
+        <f t="shared" ref="C131" si="153">(AVERAGE(B125:B131))</f>
+        <v>3761.4285714285716</v>
+      </c>
+      <c r="D131" s="9">
+        <f t="shared" ref="D131" si="154">D130-B131</f>
+        <v>326722</v>
+      </c>
+      <c r="E131" s="9">
+        <f t="shared" ref="E131" si="155">E130+B131</f>
+        <v>202958</v>
+      </c>
+      <c r="F131" s="14">
+        <f t="shared" ref="F131" si="156">(E131-G131)</f>
+        <v>188652</v>
+      </c>
+      <c r="G131" s="14">
+        <v>14306</v>
+      </c>
+      <c r="H131" s="14">
+        <v>28612</v>
+      </c>
+      <c r="I131" s="14">
+        <f t="shared" ref="I131" si="157">G131/2</f>
+        <v>7153</v>
+      </c>
+      <c r="J131" s="14">
+        <v>7153</v>
+      </c>
+      <c r="K131" s="10">
+        <f t="shared" ref="K131" si="158">D131/C131</f>
+        <v>86.861146980630451</v>
+      </c>
+      <c r="L131" s="11">
+        <f t="shared" ref="L131" si="159">A131+K131</f>
+        <v>44402.861146980627</v>
+      </c>
+      <c r="M131" s="9">
+        <v>476352</v>
+      </c>
+      <c r="N131" s="9">
         <v>476352</v>
       </c>
     </row>
